--- a/DSA_450_LoveBabbar.xlsx
+++ b/DSA_450_LoveBabbar.xlsx
@@ -1418,7 +1418,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="14">
+  <fonts count="13">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -1469,7 +1469,7 @@
     <font>
       <b val="true"/>
       <sz val="15"/>
-      <color rgb="FF127622"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
@@ -1485,14 +1485,6 @@
     <font>
       <sz val="12"/>
       <color rgb="FF127622"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <sz val="15"/>
-      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
@@ -1659,7 +1651,7 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1671,7 +1663,7 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1683,7 +1675,7 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1695,11 +1687,15 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="3" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="10" fillId="3" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="2" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1707,19 +1703,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="2" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1801,13 +1793,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D481"/>
+  <dimension ref="A1:D467"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A35" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C40" activeCellId="0" sqref="C40"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A31" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C42" activeCellId="0" sqref="C42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6171875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.62109375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.63"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="28.5"/>
@@ -2304,21 +2296,30 @@
       </c>
       <c r="D41" s="5"/>
     </row>
-    <row r="42" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="n">
         <f aca="false">A41 + 1</f>
         <v>37</v>
       </c>
-      <c r="C42" s="19"/>
+      <c r="B42" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="C42" s="17" t="s">
+        <v>42</v>
+      </c>
       <c r="D42" s="5"/>
     </row>
-    <row r="43" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="n">
         <f aca="false">A42 + 1</f>
         <v>38</v>
       </c>
-      <c r="B43" s="15"/>
-      <c r="C43" s="19"/>
+      <c r="B43" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="C43" s="19" t="s">
+        <v>43</v>
+      </c>
       <c r="D43" s="5"/>
     </row>
     <row r="44" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2329,8 +2330,8 @@
       <c r="B44" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="C44" s="20" t="s">
-        <v>42</v>
+      <c r="C44" s="19" t="s">
+        <v>44</v>
       </c>
       <c r="D44" s="5"/>
     </row>
@@ -2342,8 +2343,8 @@
       <c r="B45" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="C45" s="20" t="s">
-        <v>43</v>
+      <c r="C45" s="19" t="s">
+        <v>45</v>
       </c>
       <c r="D45" s="5"/>
     </row>
@@ -2355,8 +2356,8 @@
       <c r="B46" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="C46" s="20" t="s">
-        <v>44</v>
+      <c r="C46" s="19" t="s">
+        <v>46</v>
       </c>
       <c r="D46" s="5"/>
     </row>
@@ -2368,8 +2369,8 @@
       <c r="B47" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="C47" s="20" t="s">
-        <v>45</v>
+      <c r="C47" s="19" t="s">
+        <v>47</v>
       </c>
       <c r="D47" s="5"/>
     </row>
@@ -2381,8 +2382,8 @@
       <c r="B48" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="C48" s="20" t="s">
-        <v>46</v>
+      <c r="C48" s="19" t="s">
+        <v>48</v>
       </c>
       <c r="D48" s="5"/>
     </row>
@@ -2394,8 +2395,8 @@
       <c r="B49" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="C49" s="20" t="s">
-        <v>47</v>
+      <c r="C49" s="19" t="s">
+        <v>49</v>
       </c>
       <c r="D49" s="5"/>
     </row>
@@ -2407,8 +2408,8 @@
       <c r="B50" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="C50" s="20" t="s">
-        <v>48</v>
+      <c r="C50" s="19" t="s">
+        <v>50</v>
       </c>
       <c r="D50" s="5"/>
     </row>
@@ -2420,8 +2421,8 @@
       <c r="B51" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="C51" s="20" t="s">
-        <v>49</v>
+      <c r="C51" s="19" t="s">
+        <v>51</v>
       </c>
       <c r="D51" s="5"/>
     </row>
@@ -2431,10 +2432,10 @@
         <v>47</v>
       </c>
       <c r="B52" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="C52" s="20" t="s">
-        <v>50</v>
+        <v>52</v>
+      </c>
+      <c r="C52" s="19" t="s">
+        <v>53</v>
       </c>
       <c r="D52" s="5"/>
     </row>
@@ -2444,26 +2445,37 @@
         <v>48</v>
       </c>
       <c r="B53" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="C53" s="20" t="s">
-        <v>51</v>
+        <v>52</v>
+      </c>
+      <c r="C53" s="19" t="s">
+        <v>54</v>
       </c>
       <c r="D53" s="5"/>
     </row>
-    <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="54" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="0" t="n">
         <f aca="false">A53 + 1</f>
         <v>49</v>
       </c>
+      <c r="B54" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="C54" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="D54" s="5"/>
     </row>
     <row r="55" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="0" t="n">
         <f aca="false">A54 + 1</f>
         <v>50</v>
       </c>
-      <c r="B55" s="15"/>
-      <c r="C55" s="19"/>
+      <c r="B55" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="C55" s="20" t="s">
+        <v>56</v>
+      </c>
       <c r="D55" s="5"/>
     </row>
     <row r="56" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2474,8 +2486,8 @@
       <c r="B56" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="C56" s="20" t="s">
-        <v>53</v>
+      <c r="C56" s="19" t="s">
+        <v>57</v>
       </c>
       <c r="D56" s="5"/>
     </row>
@@ -2487,8 +2499,8 @@
       <c r="B57" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="C57" s="20" t="s">
-        <v>54</v>
+      <c r="C57" s="19" t="s">
+        <v>58</v>
       </c>
       <c r="D57" s="5"/>
     </row>
@@ -2500,12 +2512,12 @@
       <c r="B58" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="C58" s="20" t="s">
-        <v>55</v>
+      <c r="C58" s="19" t="s">
+        <v>59</v>
       </c>
       <c r="D58" s="5"/>
     </row>
-    <row r="59" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="59" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="0" t="n">
         <f aca="false">A58 + 1</f>
         <v>54</v>
@@ -2514,7 +2526,7 @@
         <v>52</v>
       </c>
       <c r="C59" s="19" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="D59" s="5"/>
     </row>
@@ -2526,8 +2538,8 @@
       <c r="B60" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="C60" s="20" t="s">
-        <v>57</v>
+      <c r="C60" s="19" t="s">
+        <v>61</v>
       </c>
       <c r="D60" s="5"/>
     </row>
@@ -2539,8 +2551,8 @@
       <c r="B61" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="C61" s="20" t="s">
-        <v>58</v>
+      <c r="C61" s="19" t="s">
+        <v>62</v>
       </c>
       <c r="D61" s="5"/>
     </row>
@@ -2552,8 +2564,8 @@
       <c r="B62" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="C62" s="20" t="s">
-        <v>59</v>
+      <c r="C62" s="19" t="s">
+        <v>63</v>
       </c>
       <c r="D62" s="5"/>
     </row>
@@ -2565,8 +2577,8 @@
       <c r="B63" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="C63" s="20" t="s">
-        <v>60</v>
+      <c r="C63" s="19" t="s">
+        <v>64</v>
       </c>
       <c r="D63" s="5"/>
     </row>
@@ -2578,8 +2590,8 @@
       <c r="B64" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="C64" s="20" t="s">
-        <v>61</v>
+      <c r="C64" s="19" t="s">
+        <v>65</v>
       </c>
       <c r="D64" s="5"/>
     </row>
@@ -2591,8 +2603,8 @@
       <c r="B65" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="C65" s="20" t="s">
-        <v>62</v>
+      <c r="C65" s="19" t="s">
+        <v>66</v>
       </c>
       <c r="D65" s="5"/>
     </row>
@@ -2604,8 +2616,8 @@
       <c r="B66" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="C66" s="20" t="s">
-        <v>63</v>
+      <c r="C66" s="19" t="s">
+        <v>67</v>
       </c>
       <c r="D66" s="5"/>
     </row>
@@ -2617,8 +2629,8 @@
       <c r="B67" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="C67" s="20" t="s">
-        <v>64</v>
+      <c r="C67" s="19" t="s">
+        <v>68</v>
       </c>
       <c r="D67" s="5"/>
     </row>
@@ -2630,8 +2642,8 @@
       <c r="B68" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="C68" s="20" t="s">
-        <v>65</v>
+      <c r="C68" s="19" t="s">
+        <v>69</v>
       </c>
       <c r="D68" s="5"/>
     </row>
@@ -2643,8 +2655,8 @@
       <c r="B69" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="C69" s="20" t="s">
-        <v>66</v>
+      <c r="C69" s="19" t="s">
+        <v>70</v>
       </c>
       <c r="D69" s="5"/>
     </row>
@@ -2656,8 +2668,8 @@
       <c r="B70" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="C70" s="20" t="s">
-        <v>67</v>
+      <c r="C70" s="19" t="s">
+        <v>71</v>
       </c>
       <c r="D70" s="5"/>
     </row>
@@ -2669,8 +2681,8 @@
       <c r="B71" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="C71" s="20" t="s">
-        <v>68</v>
+      <c r="C71" s="19" t="s">
+        <v>72</v>
       </c>
       <c r="D71" s="5"/>
     </row>
@@ -2682,8 +2694,8 @@
       <c r="B72" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="C72" s="20" t="s">
-        <v>69</v>
+      <c r="C72" s="19" t="s">
+        <v>73</v>
       </c>
       <c r="D72" s="5"/>
     </row>
@@ -2695,8 +2707,8 @@
       <c r="B73" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="C73" s="20" t="s">
-        <v>70</v>
+      <c r="C73" s="19" t="s">
+        <v>74</v>
       </c>
       <c r="D73" s="5"/>
     </row>
@@ -2708,8 +2720,8 @@
       <c r="B74" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="C74" s="20" t="s">
-        <v>71</v>
+      <c r="C74" s="19" t="s">
+        <v>75</v>
       </c>
       <c r="D74" s="5"/>
     </row>
@@ -2721,8 +2733,8 @@
       <c r="B75" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="C75" s="20" t="s">
-        <v>72</v>
+      <c r="C75" s="19" t="s">
+        <v>76</v>
       </c>
       <c r="D75" s="5"/>
     </row>
@@ -2734,8 +2746,8 @@
       <c r="B76" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="C76" s="20" t="s">
-        <v>73</v>
+      <c r="C76" s="19" t="s">
+        <v>77</v>
       </c>
       <c r="D76" s="5"/>
     </row>
@@ -2747,8 +2759,8 @@
       <c r="B77" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="C77" s="20" t="s">
-        <v>74</v>
+      <c r="C77" s="19" t="s">
+        <v>78</v>
       </c>
       <c r="D77" s="5"/>
     </row>
@@ -2760,8 +2772,8 @@
       <c r="B78" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="C78" s="20" t="s">
-        <v>75</v>
+      <c r="C78" s="19" t="s">
+        <v>79</v>
       </c>
       <c r="D78" s="5"/>
     </row>
@@ -2773,8 +2785,8 @@
       <c r="B79" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="C79" s="20" t="s">
-        <v>76</v>
+      <c r="C79" s="19" t="s">
+        <v>80</v>
       </c>
       <c r="D79" s="5"/>
     </row>
@@ -2786,8 +2798,8 @@
       <c r="B80" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="C80" s="20" t="s">
-        <v>77</v>
+      <c r="C80" s="19" t="s">
+        <v>81</v>
       </c>
       <c r="D80" s="5"/>
     </row>
@@ -2799,8 +2811,8 @@
       <c r="B81" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="C81" s="20" t="s">
-        <v>78</v>
+      <c r="C81" s="19" t="s">
+        <v>82</v>
       </c>
       <c r="D81" s="5"/>
     </row>
@@ -2812,8 +2824,8 @@
       <c r="B82" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="C82" s="20" t="s">
-        <v>79</v>
+      <c r="C82" s="19" t="s">
+        <v>83</v>
       </c>
       <c r="D82" s="5"/>
     </row>
@@ -2825,8 +2837,8 @@
       <c r="B83" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="C83" s="20" t="s">
-        <v>80</v>
+      <c r="C83" s="19" t="s">
+        <v>84</v>
       </c>
       <c r="D83" s="5"/>
     </row>
@@ -2838,8 +2850,8 @@
       <c r="B84" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="C84" s="20" t="s">
-        <v>81</v>
+      <c r="C84" s="19" t="s">
+        <v>85</v>
       </c>
       <c r="D84" s="5"/>
     </row>
@@ -2851,8 +2863,8 @@
       <c r="B85" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="C85" s="20" t="s">
-        <v>82</v>
+      <c r="C85" s="19" t="s">
+        <v>86</v>
       </c>
       <c r="D85" s="5"/>
     </row>
@@ -2864,8 +2876,8 @@
       <c r="B86" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="C86" s="20" t="s">
-        <v>83</v>
+      <c r="C86" s="19" t="s">
+        <v>87</v>
       </c>
       <c r="D86" s="5"/>
     </row>
@@ -2877,8 +2889,8 @@
       <c r="B87" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="C87" s="20" t="s">
-        <v>84</v>
+      <c r="C87" s="19" t="s">
+        <v>88</v>
       </c>
       <c r="D87" s="5"/>
     </row>
@@ -2890,8 +2902,8 @@
       <c r="B88" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="C88" s="20" t="s">
-        <v>85</v>
+      <c r="C88" s="19" t="s">
+        <v>89</v>
       </c>
       <c r="D88" s="5"/>
     </row>
@@ -2903,8 +2915,8 @@
       <c r="B89" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="C89" s="20" t="s">
-        <v>86</v>
+      <c r="C89" s="19" t="s">
+        <v>90</v>
       </c>
       <c r="D89" s="5"/>
     </row>
@@ -2916,8 +2928,8 @@
       <c r="B90" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="C90" s="20" t="s">
-        <v>87</v>
+      <c r="C90" s="19" t="s">
+        <v>91</v>
       </c>
       <c r="D90" s="5"/>
     </row>
@@ -2929,8 +2941,8 @@
       <c r="B91" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="C91" s="20" t="s">
-        <v>88</v>
+      <c r="C91" s="19" t="s">
+        <v>92</v>
       </c>
       <c r="D91" s="5"/>
     </row>
@@ -2942,8 +2954,8 @@
       <c r="B92" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="C92" s="20" t="s">
-        <v>89</v>
+      <c r="C92" s="19" t="s">
+        <v>93</v>
       </c>
       <c r="D92" s="5"/>
     </row>
@@ -2955,8 +2967,8 @@
       <c r="B93" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="C93" s="20" t="s">
-        <v>90</v>
+      <c r="C93" s="19" t="s">
+        <v>94</v>
       </c>
       <c r="D93" s="5"/>
     </row>
@@ -2968,8 +2980,8 @@
       <c r="B94" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="C94" s="20" t="s">
-        <v>91</v>
+      <c r="C94" s="19" t="s">
+        <v>95</v>
       </c>
       <c r="D94" s="5"/>
     </row>
@@ -2979,10 +2991,10 @@
         <v>90</v>
       </c>
       <c r="B95" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="C95" s="20" t="s">
-        <v>92</v>
+        <v>96</v>
+      </c>
+      <c r="C95" s="19" t="s">
+        <v>97</v>
       </c>
       <c r="D95" s="5"/>
     </row>
@@ -2992,10 +3004,10 @@
         <v>91</v>
       </c>
       <c r="B96" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="C96" s="20" t="s">
-        <v>93</v>
+        <v>96</v>
+      </c>
+      <c r="C96" s="19" t="s">
+        <v>98</v>
       </c>
       <c r="D96" s="5"/>
     </row>
@@ -3005,10 +3017,10 @@
         <v>92</v>
       </c>
       <c r="B97" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="C97" s="20" t="s">
-        <v>94</v>
+        <v>96</v>
+      </c>
+      <c r="C97" s="19" t="s">
+        <v>99</v>
       </c>
       <c r="D97" s="5"/>
     </row>
@@ -3018,26 +3030,37 @@
         <v>93</v>
       </c>
       <c r="B98" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="C98" s="20" t="s">
-        <v>95</v>
+        <v>96</v>
+      </c>
+      <c r="C98" s="19" t="s">
+        <v>100</v>
       </c>
       <c r="D98" s="5"/>
     </row>
-    <row r="99" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="99" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="0" t="n">
         <f aca="false">A98 + 1</f>
         <v>94</v>
       </c>
-    </row>
-    <row r="100" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B99" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="C99" s="19" t="s">
+        <v>101</v>
+      </c>
+      <c r="D99" s="5"/>
+    </row>
+    <row r="100" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="0" t="n">
         <f aca="false">A99 + 1</f>
         <v>95</v>
       </c>
-      <c r="B100" s="15"/>
-      <c r="C100" s="19"/>
+      <c r="B100" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="C100" s="19" t="s">
+        <v>102</v>
+      </c>
       <c r="D100" s="5"/>
     </row>
     <row r="101" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3048,8 +3071,8 @@
       <c r="B101" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="C101" s="20" t="s">
-        <v>97</v>
+      <c r="C101" s="19" t="s">
+        <v>103</v>
       </c>
       <c r="D101" s="5"/>
     </row>
@@ -3061,8 +3084,8 @@
       <c r="B102" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="C102" s="20" t="s">
-        <v>98</v>
+      <c r="C102" s="19" t="s">
+        <v>104</v>
       </c>
       <c r="D102" s="5"/>
     </row>
@@ -3074,8 +3097,8 @@
       <c r="B103" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="C103" s="20" t="s">
-        <v>99</v>
+      <c r="C103" s="19" t="s">
+        <v>105</v>
       </c>
       <c r="D103" s="5"/>
     </row>
@@ -3087,8 +3110,8 @@
       <c r="B104" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="C104" s="20" t="s">
-        <v>100</v>
+      <c r="C104" s="19" t="s">
+        <v>106</v>
       </c>
       <c r="D104" s="5"/>
     </row>
@@ -3100,8 +3123,8 @@
       <c r="B105" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="C105" s="20" t="s">
-        <v>101</v>
+      <c r="C105" s="19" t="s">
+        <v>107</v>
       </c>
       <c r="D105" s="5"/>
     </row>
@@ -3113,8 +3136,8 @@
       <c r="B106" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="C106" s="20" t="s">
-        <v>102</v>
+      <c r="C106" s="19" t="s">
+        <v>108</v>
       </c>
       <c r="D106" s="5"/>
     </row>
@@ -3126,8 +3149,8 @@
       <c r="B107" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="C107" s="20" t="s">
-        <v>103</v>
+      <c r="C107" s="19" t="s">
+        <v>109</v>
       </c>
       <c r="D107" s="5"/>
     </row>
@@ -3139,8 +3162,8 @@
       <c r="B108" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="C108" s="20" t="s">
-        <v>104</v>
+      <c r="C108" s="19" t="s">
+        <v>110</v>
       </c>
       <c r="D108" s="5"/>
     </row>
@@ -3152,8 +3175,8 @@
       <c r="B109" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="C109" s="20" t="s">
-        <v>105</v>
+      <c r="C109" s="19" t="s">
+        <v>111</v>
       </c>
       <c r="D109" s="5"/>
     </row>
@@ -3165,8 +3188,8 @@
       <c r="B110" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="C110" s="20" t="s">
-        <v>106</v>
+      <c r="C110" s="19" t="s">
+        <v>112</v>
       </c>
       <c r="D110" s="5"/>
     </row>
@@ -3178,8 +3201,8 @@
       <c r="B111" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="C111" s="20" t="s">
-        <v>107</v>
+      <c r="C111" s="19" t="s">
+        <v>113</v>
       </c>
       <c r="D111" s="5"/>
     </row>
@@ -3191,8 +3214,8 @@
       <c r="B112" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="C112" s="20" t="s">
-        <v>108</v>
+      <c r="C112" s="19" t="s">
+        <v>114</v>
       </c>
       <c r="D112" s="5"/>
     </row>
@@ -3204,8 +3227,8 @@
       <c r="B113" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="C113" s="20" t="s">
-        <v>109</v>
+      <c r="C113" s="19" t="s">
+        <v>115</v>
       </c>
       <c r="D113" s="5"/>
     </row>
@@ -3217,8 +3240,8 @@
       <c r="B114" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="C114" s="20" t="s">
-        <v>110</v>
+      <c r="C114" s="19" t="s">
+        <v>116</v>
       </c>
       <c r="D114" s="5"/>
     </row>
@@ -3230,8 +3253,8 @@
       <c r="B115" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="C115" s="20" t="s">
-        <v>111</v>
+      <c r="C115" s="19" t="s">
+        <v>117</v>
       </c>
       <c r="D115" s="5"/>
     </row>
@@ -3243,8 +3266,8 @@
       <c r="B116" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="C116" s="20" t="s">
-        <v>112</v>
+      <c r="C116" s="19" t="s">
+        <v>118</v>
       </c>
       <c r="D116" s="5"/>
     </row>
@@ -3256,8 +3279,8 @@
       <c r="B117" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="C117" s="20" t="s">
-        <v>113</v>
+      <c r="C117" s="19" t="s">
+        <v>119</v>
       </c>
       <c r="D117" s="5"/>
     </row>
@@ -3269,8 +3292,8 @@
       <c r="B118" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="C118" s="20" t="s">
-        <v>114</v>
+      <c r="C118" s="19" t="s">
+        <v>120</v>
       </c>
       <c r="D118" s="5"/>
     </row>
@@ -3282,8 +3305,8 @@
       <c r="B119" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="C119" s="20" t="s">
-        <v>115</v>
+      <c r="C119" s="19" t="s">
+        <v>121</v>
       </c>
       <c r="D119" s="5"/>
     </row>
@@ -3295,8 +3318,8 @@
       <c r="B120" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="C120" s="20" t="s">
-        <v>116</v>
+      <c r="C120" s="19" t="s">
+        <v>122</v>
       </c>
       <c r="D120" s="5"/>
     </row>
@@ -3308,8 +3331,8 @@
       <c r="B121" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="C121" s="20" t="s">
-        <v>117</v>
+      <c r="C121" s="19" t="s">
+        <v>123</v>
       </c>
       <c r="D121" s="5"/>
     </row>
@@ -3321,8 +3344,8 @@
       <c r="B122" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="C122" s="20" t="s">
-        <v>118</v>
+      <c r="C122" s="19" t="s">
+        <v>124</v>
       </c>
       <c r="D122" s="5"/>
     </row>
@@ -3334,8 +3357,8 @@
       <c r="B123" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="C123" s="20" t="s">
-        <v>119</v>
+      <c r="C123" s="19" t="s">
+        <v>125</v>
       </c>
       <c r="D123" s="5"/>
     </row>
@@ -3347,8 +3370,8 @@
       <c r="B124" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="C124" s="20" t="s">
-        <v>120</v>
+      <c r="C124" s="19" t="s">
+        <v>126</v>
       </c>
       <c r="D124" s="5"/>
     </row>
@@ -3360,8 +3383,8 @@
       <c r="B125" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="C125" s="20" t="s">
-        <v>121</v>
+      <c r="C125" s="19" t="s">
+        <v>127</v>
       </c>
       <c r="D125" s="5"/>
     </row>
@@ -3373,8 +3396,8 @@
       <c r="B126" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="C126" s="20" t="s">
-        <v>122</v>
+      <c r="C126" s="19" t="s">
+        <v>128</v>
       </c>
       <c r="D126" s="5"/>
     </row>
@@ -3386,8 +3409,8 @@
       <c r="B127" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="C127" s="20" t="s">
-        <v>123</v>
+      <c r="C127" s="19" t="s">
+        <v>129</v>
       </c>
       <c r="D127" s="5"/>
     </row>
@@ -3399,8 +3422,8 @@
       <c r="B128" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="C128" s="20" t="s">
-        <v>124</v>
+      <c r="C128" s="19" t="s">
+        <v>130</v>
       </c>
       <c r="D128" s="5"/>
     </row>
@@ -3412,8 +3435,8 @@
       <c r="B129" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="C129" s="20" t="s">
-        <v>125</v>
+      <c r="C129" s="19" t="s">
+        <v>131</v>
       </c>
       <c r="D129" s="5"/>
     </row>
@@ -3425,8 +3448,8 @@
       <c r="B130" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="C130" s="20" t="s">
-        <v>126</v>
+      <c r="C130" s="19" t="s">
+        <v>132</v>
       </c>
       <c r="D130" s="5"/>
     </row>
@@ -3436,10 +3459,10 @@
         <v>126</v>
       </c>
       <c r="B131" s="15" t="s">
-        <v>96</v>
-      </c>
-      <c r="C131" s="20" t="s">
-        <v>127</v>
+        <v>133</v>
+      </c>
+      <c r="C131" s="19" t="s">
+        <v>134</v>
       </c>
       <c r="D131" s="5"/>
     </row>
@@ -3449,10 +3472,10 @@
         <v>127</v>
       </c>
       <c r="B132" s="15" t="s">
-        <v>96</v>
-      </c>
-      <c r="C132" s="20" t="s">
-        <v>128</v>
+        <v>133</v>
+      </c>
+      <c r="C132" s="19" t="s">
+        <v>135</v>
       </c>
       <c r="D132" s="5"/>
     </row>
@@ -3462,10 +3485,10 @@
         <v>128</v>
       </c>
       <c r="B133" s="15" t="s">
-        <v>96</v>
-      </c>
-      <c r="C133" s="20" t="s">
-        <v>129</v>
+        <v>133</v>
+      </c>
+      <c r="C133" s="19" t="s">
+        <v>136</v>
       </c>
       <c r="D133" s="5"/>
     </row>
@@ -3475,10 +3498,10 @@
         <v>129</v>
       </c>
       <c r="B134" s="15" t="s">
-        <v>96</v>
-      </c>
-      <c r="C134" s="20" t="s">
-        <v>130</v>
+        <v>133</v>
+      </c>
+      <c r="C134" s="19" t="s">
+        <v>137</v>
       </c>
       <c r="D134" s="5"/>
     </row>
@@ -3488,10 +3511,10 @@
         <v>130</v>
       </c>
       <c r="B135" s="15" t="s">
-        <v>96</v>
-      </c>
-      <c r="C135" s="20" t="s">
-        <v>131</v>
+        <v>133</v>
+      </c>
+      <c r="C135" s="19" t="s">
+        <v>138</v>
       </c>
       <c r="D135" s="5"/>
     </row>
@@ -3501,25 +3524,37 @@
         <v>131</v>
       </c>
       <c r="B136" s="15" t="s">
-        <v>96</v>
-      </c>
-      <c r="C136" s="20" t="s">
-        <v>132</v>
+        <v>133</v>
+      </c>
+      <c r="C136" s="19" t="s">
+        <v>139</v>
       </c>
       <c r="D136" s="5"/>
     </row>
-    <row r="137" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="137" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="0" t="n">
         <f aca="false">A136 + 1</f>
         <v>132</v>
       </c>
-    </row>
-    <row r="138" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B137" s="15" t="s">
+        <v>133</v>
+      </c>
+      <c r="C137" s="19" t="s">
+        <v>140</v>
+      </c>
+      <c r="D137" s="5"/>
+    </row>
+    <row r="138" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="0" t="n">
         <f aca="false">A137 + 1</f>
         <v>133</v>
       </c>
-      <c r="C138" s="19"/>
+      <c r="B138" s="15" t="s">
+        <v>133</v>
+      </c>
+      <c r="C138" s="19" t="s">
+        <v>141</v>
+      </c>
       <c r="D138" s="5"/>
     </row>
     <row r="139" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3530,8 +3565,8 @@
       <c r="B139" s="15" t="s">
         <v>133</v>
       </c>
-      <c r="C139" s="20" t="s">
-        <v>134</v>
+      <c r="C139" s="19" t="s">
+        <v>142</v>
       </c>
       <c r="D139" s="5"/>
     </row>
@@ -3543,8 +3578,8 @@
       <c r="B140" s="15" t="s">
         <v>133</v>
       </c>
-      <c r="C140" s="20" t="s">
-        <v>135</v>
+      <c r="C140" s="19" t="s">
+        <v>143</v>
       </c>
       <c r="D140" s="5"/>
     </row>
@@ -3556,8 +3591,8 @@
       <c r="B141" s="15" t="s">
         <v>133</v>
       </c>
-      <c r="C141" s="20" t="s">
-        <v>136</v>
+      <c r="C141" s="19" t="s">
+        <v>144</v>
       </c>
       <c r="D141" s="5"/>
     </row>
@@ -3569,8 +3604,8 @@
       <c r="B142" s="15" t="s">
         <v>133</v>
       </c>
-      <c r="C142" s="20" t="s">
-        <v>137</v>
+      <c r="C142" s="19" t="s">
+        <v>145</v>
       </c>
       <c r="D142" s="5"/>
     </row>
@@ -3582,8 +3617,8 @@
       <c r="B143" s="15" t="s">
         <v>133</v>
       </c>
-      <c r="C143" s="20" t="s">
-        <v>138</v>
+      <c r="C143" s="19" t="s">
+        <v>146</v>
       </c>
       <c r="D143" s="5"/>
     </row>
@@ -3595,8 +3630,8 @@
       <c r="B144" s="15" t="s">
         <v>133</v>
       </c>
-      <c r="C144" s="20" t="s">
-        <v>139</v>
+      <c r="C144" s="19" t="s">
+        <v>147</v>
       </c>
       <c r="D144" s="5"/>
     </row>
@@ -3608,8 +3643,8 @@
       <c r="B145" s="15" t="s">
         <v>133</v>
       </c>
-      <c r="C145" s="20" t="s">
-        <v>140</v>
+      <c r="C145" s="19" t="s">
+        <v>148</v>
       </c>
       <c r="D145" s="5"/>
     </row>
@@ -3621,8 +3656,8 @@
       <c r="B146" s="15" t="s">
         <v>133</v>
       </c>
-      <c r="C146" s="20" t="s">
-        <v>141</v>
+      <c r="C146" s="19" t="s">
+        <v>149</v>
       </c>
       <c r="D146" s="5"/>
     </row>
@@ -3634,8 +3669,8 @@
       <c r="B147" s="15" t="s">
         <v>133</v>
       </c>
-      <c r="C147" s="20" t="s">
-        <v>142</v>
+      <c r="C147" s="19" t="s">
+        <v>150</v>
       </c>
       <c r="D147" s="5"/>
     </row>
@@ -3647,8 +3682,8 @@
       <c r="B148" s="15" t="s">
         <v>133</v>
       </c>
-      <c r="C148" s="20" t="s">
-        <v>143</v>
+      <c r="C148" s="19" t="s">
+        <v>151</v>
       </c>
       <c r="D148" s="5"/>
     </row>
@@ -3660,8 +3695,8 @@
       <c r="B149" s="15" t="s">
         <v>133</v>
       </c>
-      <c r="C149" s="20" t="s">
-        <v>144</v>
+      <c r="C149" s="19" t="s">
+        <v>152</v>
       </c>
       <c r="D149" s="5"/>
     </row>
@@ -3673,8 +3708,8 @@
       <c r="B150" s="15" t="s">
         <v>133</v>
       </c>
-      <c r="C150" s="20" t="s">
-        <v>145</v>
+      <c r="C150" s="19" t="s">
+        <v>153</v>
       </c>
       <c r="D150" s="5"/>
     </row>
@@ -3686,8 +3721,8 @@
       <c r="B151" s="15" t="s">
         <v>133</v>
       </c>
-      <c r="C151" s="20" t="s">
-        <v>146</v>
+      <c r="C151" s="19" t="s">
+        <v>154</v>
       </c>
       <c r="D151" s="5"/>
     </row>
@@ -3699,8 +3734,8 @@
       <c r="B152" s="15" t="s">
         <v>133</v>
       </c>
-      <c r="C152" s="20" t="s">
-        <v>147</v>
+      <c r="C152" s="19" t="s">
+        <v>155</v>
       </c>
       <c r="D152" s="5"/>
     </row>
@@ -3712,8 +3747,8 @@
       <c r="B153" s="15" t="s">
         <v>133</v>
       </c>
-      <c r="C153" s="20" t="s">
-        <v>148</v>
+      <c r="C153" s="19" t="s">
+        <v>156</v>
       </c>
       <c r="D153" s="5"/>
     </row>
@@ -3725,8 +3760,8 @@
       <c r="B154" s="15" t="s">
         <v>133</v>
       </c>
-      <c r="C154" s="20" t="s">
-        <v>149</v>
+      <c r="C154" s="19" t="s">
+        <v>157</v>
       </c>
       <c r="D154" s="5"/>
     </row>
@@ -3738,12 +3773,12 @@
       <c r="B155" s="15" t="s">
         <v>133</v>
       </c>
-      <c r="C155" s="20" t="s">
-        <v>150</v>
+      <c r="C155" s="19" t="s">
+        <v>158</v>
       </c>
       <c r="D155" s="5"/>
     </row>
-    <row r="156" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="156" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="0" t="n">
         <f aca="false">A155 + 1</f>
         <v>151</v>
@@ -3752,11 +3787,11 @@
         <v>133</v>
       </c>
       <c r="C156" s="20" t="s">
-        <v>151</v>
+        <v>159</v>
       </c>
       <c r="D156" s="5"/>
     </row>
-    <row r="157" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="157" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="0" t="n">
         <f aca="false">A156 + 1</f>
         <v>152</v>
@@ -3765,7 +3800,7 @@
         <v>133</v>
       </c>
       <c r="C157" s="20" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="D157" s="5"/>
     </row>
@@ -3777,8 +3812,8 @@
       <c r="B158" s="15" t="s">
         <v>133</v>
       </c>
-      <c r="C158" s="20" t="s">
-        <v>153</v>
+      <c r="C158" s="19" t="s">
+        <v>161</v>
       </c>
       <c r="D158" s="5"/>
     </row>
@@ -3790,8 +3825,8 @@
       <c r="B159" s="15" t="s">
         <v>133</v>
       </c>
-      <c r="C159" s="20" t="s">
-        <v>154</v>
+      <c r="C159" s="19" t="s">
+        <v>162</v>
       </c>
       <c r="D159" s="5"/>
     </row>
@@ -3803,8 +3838,8 @@
       <c r="B160" s="15" t="s">
         <v>133</v>
       </c>
-      <c r="C160" s="20" t="s">
-        <v>155</v>
+      <c r="C160" s="19" t="s">
+        <v>163</v>
       </c>
       <c r="D160" s="5"/>
     </row>
@@ -3816,8 +3851,8 @@
       <c r="B161" s="15" t="s">
         <v>133</v>
       </c>
-      <c r="C161" s="20" t="s">
-        <v>156</v>
+      <c r="C161" s="19" t="s">
+        <v>164</v>
       </c>
       <c r="D161" s="5"/>
     </row>
@@ -3829,8 +3864,8 @@
       <c r="B162" s="15" t="s">
         <v>133</v>
       </c>
-      <c r="C162" s="20" t="s">
-        <v>157</v>
+      <c r="C162" s="19" t="s">
+        <v>165</v>
       </c>
       <c r="D162" s="5"/>
     </row>
@@ -3842,12 +3877,12 @@
       <c r="B163" s="15" t="s">
         <v>133</v>
       </c>
-      <c r="C163" s="20" t="s">
-        <v>158</v>
+      <c r="C163" s="19" t="s">
+        <v>166</v>
       </c>
       <c r="D163" s="5"/>
     </row>
-    <row r="164" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="164" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="0" t="n">
         <f aca="false">A163 + 1</f>
         <v>159</v>
@@ -3856,11 +3891,11 @@
         <v>133</v>
       </c>
       <c r="C164" s="19" t="s">
-        <v>159</v>
+        <v>167</v>
       </c>
       <c r="D164" s="5"/>
     </row>
-    <row r="165" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="165" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A165" s="0" t="n">
         <f aca="false">A164 + 1</f>
         <v>160</v>
@@ -3869,7 +3904,7 @@
         <v>133</v>
       </c>
       <c r="C165" s="19" t="s">
-        <v>160</v>
+        <v>168</v>
       </c>
       <c r="D165" s="5"/>
     </row>
@@ -3881,8 +3916,8 @@
       <c r="B166" s="15" t="s">
         <v>133</v>
       </c>
-      <c r="C166" s="20" t="s">
-        <v>161</v>
+      <c r="C166" s="19" t="s">
+        <v>169</v>
       </c>
       <c r="D166" s="5"/>
     </row>
@@ -3892,10 +3927,10 @@
         <v>162</v>
       </c>
       <c r="B167" s="15" t="s">
-        <v>133</v>
-      </c>
-      <c r="C167" s="20" t="s">
-        <v>162</v>
+        <v>170</v>
+      </c>
+      <c r="C167" s="19" t="s">
+        <v>171</v>
       </c>
       <c r="D167" s="5"/>
     </row>
@@ -3905,10 +3940,10 @@
         <v>163</v>
       </c>
       <c r="B168" s="15" t="s">
-        <v>133</v>
-      </c>
-      <c r="C168" s="20" t="s">
-        <v>163</v>
+        <v>170</v>
+      </c>
+      <c r="C168" s="19" t="s">
+        <v>172</v>
       </c>
       <c r="D168" s="5"/>
     </row>
@@ -3918,10 +3953,10 @@
         <v>164</v>
       </c>
       <c r="B169" s="15" t="s">
-        <v>133</v>
-      </c>
-      <c r="C169" s="20" t="s">
-        <v>164</v>
+        <v>170</v>
+      </c>
+      <c r="C169" s="19" t="s">
+        <v>173</v>
       </c>
       <c r="D169" s="5"/>
     </row>
@@ -3931,10 +3966,10 @@
         <v>165</v>
       </c>
       <c r="B170" s="15" t="s">
-        <v>133</v>
-      </c>
-      <c r="C170" s="20" t="s">
-        <v>165</v>
+        <v>170</v>
+      </c>
+      <c r="C170" s="19" t="s">
+        <v>174</v>
       </c>
       <c r="D170" s="5"/>
     </row>
@@ -3944,10 +3979,10 @@
         <v>166</v>
       </c>
       <c r="B171" s="15" t="s">
-        <v>133</v>
-      </c>
-      <c r="C171" s="20" t="s">
-        <v>166</v>
+        <v>170</v>
+      </c>
+      <c r="C171" s="19" t="s">
+        <v>175</v>
       </c>
       <c r="D171" s="5"/>
     </row>
@@ -3957,10 +3992,10 @@
         <v>167</v>
       </c>
       <c r="B172" s="15" t="s">
-        <v>133</v>
-      </c>
-      <c r="C172" s="20" t="s">
-        <v>167</v>
+        <v>170</v>
+      </c>
+      <c r="C172" s="19" t="s">
+        <v>176</v>
       </c>
       <c r="D172" s="5"/>
     </row>
@@ -3970,10 +4005,10 @@
         <v>168</v>
       </c>
       <c r="B173" s="15" t="s">
-        <v>133</v>
-      </c>
-      <c r="C173" s="20" t="s">
-        <v>168</v>
+        <v>170</v>
+      </c>
+      <c r="C173" s="19" t="s">
+        <v>177</v>
       </c>
       <c r="D173" s="5"/>
     </row>
@@ -3983,25 +4018,37 @@
         <v>169</v>
       </c>
       <c r="B174" s="15" t="s">
-        <v>133</v>
-      </c>
-      <c r="C174" s="20" t="s">
-        <v>169</v>
+        <v>170</v>
+      </c>
+      <c r="C174" s="19" t="s">
+        <v>178</v>
       </c>
       <c r="D174" s="5"/>
     </row>
-    <row r="175" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="175" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A175" s="0" t="n">
         <f aca="false">A174 + 1</f>
         <v>170</v>
       </c>
-    </row>
-    <row r="176" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B175" s="15" t="s">
+        <v>170</v>
+      </c>
+      <c r="C175" s="19" t="s">
+        <v>179</v>
+      </c>
+      <c r="D175" s="5"/>
+    </row>
+    <row r="176" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A176" s="0" t="n">
         <f aca="false">A175 + 1</f>
         <v>171</v>
       </c>
-      <c r="C176" s="19"/>
+      <c r="B176" s="15" t="s">
+        <v>170</v>
+      </c>
+      <c r="C176" s="19" t="s">
+        <v>180</v>
+      </c>
       <c r="D176" s="5"/>
     </row>
     <row r="177" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4012,8 +4059,8 @@
       <c r="B177" s="15" t="s">
         <v>170</v>
       </c>
-      <c r="C177" s="20" t="s">
-        <v>171</v>
+      <c r="C177" s="19" t="s">
+        <v>181</v>
       </c>
       <c r="D177" s="5"/>
     </row>
@@ -4025,8 +4072,8 @@
       <c r="B178" s="15" t="s">
         <v>170</v>
       </c>
-      <c r="C178" s="20" t="s">
-        <v>172</v>
+      <c r="C178" s="19" t="s">
+        <v>182</v>
       </c>
       <c r="D178" s="5"/>
     </row>
@@ -4038,8 +4085,8 @@
       <c r="B179" s="15" t="s">
         <v>170</v>
       </c>
-      <c r="C179" s="20" t="s">
-        <v>173</v>
+      <c r="C179" s="19" t="s">
+        <v>183</v>
       </c>
       <c r="D179" s="5"/>
     </row>
@@ -4051,8 +4098,8 @@
       <c r="B180" s="15" t="s">
         <v>170</v>
       </c>
-      <c r="C180" s="20" t="s">
-        <v>174</v>
+      <c r="C180" s="19" t="s">
+        <v>184</v>
       </c>
       <c r="D180" s="5"/>
     </row>
@@ -4064,8 +4111,8 @@
       <c r="B181" s="15" t="s">
         <v>170</v>
       </c>
-      <c r="C181" s="20" t="s">
-        <v>175</v>
+      <c r="C181" s="19" t="s">
+        <v>185</v>
       </c>
       <c r="D181" s="5"/>
     </row>
@@ -4077,8 +4124,8 @@
       <c r="B182" s="15" t="s">
         <v>170</v>
       </c>
-      <c r="C182" s="20" t="s">
-        <v>176</v>
+      <c r="C182" s="19" t="s">
+        <v>186</v>
       </c>
       <c r="D182" s="5"/>
     </row>
@@ -4090,8 +4137,8 @@
       <c r="B183" s="15" t="s">
         <v>170</v>
       </c>
-      <c r="C183" s="20" t="s">
-        <v>177</v>
+      <c r="C183" s="19" t="s">
+        <v>187</v>
       </c>
       <c r="D183" s="5"/>
     </row>
@@ -4103,8 +4150,8 @@
       <c r="B184" s="15" t="s">
         <v>170</v>
       </c>
-      <c r="C184" s="20" t="s">
-        <v>178</v>
+      <c r="C184" s="19" t="s">
+        <v>188</v>
       </c>
       <c r="D184" s="5"/>
     </row>
@@ -4116,8 +4163,8 @@
       <c r="B185" s="15" t="s">
         <v>170</v>
       </c>
-      <c r="C185" s="20" t="s">
-        <v>179</v>
+      <c r="C185" s="19" t="s">
+        <v>189</v>
       </c>
       <c r="D185" s="5"/>
     </row>
@@ -4129,8 +4176,8 @@
       <c r="B186" s="15" t="s">
         <v>170</v>
       </c>
-      <c r="C186" s="20" t="s">
-        <v>180</v>
+      <c r="C186" s="19" t="s">
+        <v>190</v>
       </c>
       <c r="D186" s="5"/>
     </row>
@@ -4142,8 +4189,8 @@
       <c r="B187" s="15" t="s">
         <v>170</v>
       </c>
-      <c r="C187" s="20" t="s">
-        <v>181</v>
+      <c r="C187" s="19" t="s">
+        <v>191</v>
       </c>
       <c r="D187" s="5"/>
     </row>
@@ -4155,8 +4202,8 @@
       <c r="B188" s="15" t="s">
         <v>170</v>
       </c>
-      <c r="C188" s="20" t="s">
-        <v>182</v>
+      <c r="C188" s="19" t="s">
+        <v>192</v>
       </c>
       <c r="D188" s="5"/>
     </row>
@@ -4168,8 +4215,8 @@
       <c r="B189" s="15" t="s">
         <v>170</v>
       </c>
-      <c r="C189" s="20" t="s">
-        <v>183</v>
+      <c r="C189" s="19" t="s">
+        <v>193</v>
       </c>
       <c r="D189" s="5"/>
     </row>
@@ -4181,8 +4228,8 @@
       <c r="B190" s="15" t="s">
         <v>170</v>
       </c>
-      <c r="C190" s="20" t="s">
-        <v>184</v>
+      <c r="C190" s="19" t="s">
+        <v>194</v>
       </c>
       <c r="D190" s="5"/>
     </row>
@@ -4194,8 +4241,8 @@
       <c r="B191" s="15" t="s">
         <v>170</v>
       </c>
-      <c r="C191" s="20" t="s">
-        <v>185</v>
+      <c r="C191" s="19" t="s">
+        <v>195</v>
       </c>
       <c r="D191" s="5"/>
     </row>
@@ -4207,8 +4254,8 @@
       <c r="B192" s="15" t="s">
         <v>170</v>
       </c>
-      <c r="C192" s="20" t="s">
-        <v>186</v>
+      <c r="C192" s="19" t="s">
+        <v>196</v>
       </c>
       <c r="D192" s="5"/>
     </row>
@@ -4220,8 +4267,8 @@
       <c r="B193" s="15" t="s">
         <v>170</v>
       </c>
-      <c r="C193" s="20" t="s">
-        <v>187</v>
+      <c r="C193" s="19" t="s">
+        <v>197</v>
       </c>
       <c r="D193" s="5"/>
     </row>
@@ -4233,8 +4280,8 @@
       <c r="B194" s="15" t="s">
         <v>170</v>
       </c>
-      <c r="C194" s="20" t="s">
-        <v>188</v>
+      <c r="C194" s="19" t="s">
+        <v>198</v>
       </c>
       <c r="D194" s="5"/>
     </row>
@@ -4246,8 +4293,8 @@
       <c r="B195" s="15" t="s">
         <v>170</v>
       </c>
-      <c r="C195" s="20" t="s">
-        <v>189</v>
+      <c r="C195" s="19" t="s">
+        <v>199</v>
       </c>
       <c r="D195" s="5"/>
     </row>
@@ -4259,8 +4306,8 @@
       <c r="B196" s="15" t="s">
         <v>170</v>
       </c>
-      <c r="C196" s="20" t="s">
-        <v>190</v>
+      <c r="C196" s="19" t="s">
+        <v>200</v>
       </c>
       <c r="D196" s="5"/>
     </row>
@@ -4272,8 +4319,8 @@
       <c r="B197" s="15" t="s">
         <v>170</v>
       </c>
-      <c r="C197" s="20" t="s">
-        <v>191</v>
+      <c r="C197" s="19" t="s">
+        <v>201</v>
       </c>
       <c r="D197" s="5"/>
     </row>
@@ -4285,8 +4332,8 @@
       <c r="B198" s="15" t="s">
         <v>170</v>
       </c>
-      <c r="C198" s="20" t="s">
-        <v>192</v>
+      <c r="C198" s="19" t="s">
+        <v>202</v>
       </c>
       <c r="D198" s="5"/>
     </row>
@@ -4298,8 +4345,8 @@
       <c r="B199" s="15" t="s">
         <v>170</v>
       </c>
-      <c r="C199" s="20" t="s">
-        <v>193</v>
+      <c r="C199" s="19" t="s">
+        <v>203</v>
       </c>
       <c r="D199" s="5"/>
     </row>
@@ -4311,8 +4358,8 @@
       <c r="B200" s="15" t="s">
         <v>170</v>
       </c>
-      <c r="C200" s="20" t="s">
-        <v>194</v>
+      <c r="C200" s="19" t="s">
+        <v>204</v>
       </c>
       <c r="D200" s="5"/>
     </row>
@@ -4324,8 +4371,8 @@
       <c r="B201" s="15" t="s">
         <v>170</v>
       </c>
-      <c r="C201" s="20" t="s">
-        <v>195</v>
+      <c r="C201" s="19" t="s">
+        <v>205</v>
       </c>
       <c r="D201" s="5"/>
     </row>
@@ -4335,12 +4382,11 @@
         <v>197</v>
       </c>
       <c r="B202" s="15" t="s">
-        <v>170</v>
-      </c>
-      <c r="C202" s="20" t="s">
-        <v>196</v>
-      </c>
-      <c r="D202" s="5"/>
+        <v>206</v>
+      </c>
+      <c r="C202" s="19" t="s">
+        <v>207</v>
+      </c>
     </row>
     <row r="203" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A203" s="0" t="n">
@@ -4348,12 +4394,11 @@
         <v>198</v>
       </c>
       <c r="B203" s="15" t="s">
-        <v>170</v>
-      </c>
-      <c r="C203" s="20" t="s">
-        <v>197</v>
-      </c>
-      <c r="D203" s="5"/>
+        <v>206</v>
+      </c>
+      <c r="C203" s="19" t="s">
+        <v>208</v>
+      </c>
     </row>
     <row r="204" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A204" s="0" t="n">
@@ -4361,12 +4406,11 @@
         <v>199</v>
       </c>
       <c r="B204" s="15" t="s">
-        <v>170</v>
-      </c>
-      <c r="C204" s="20" t="s">
-        <v>198</v>
-      </c>
-      <c r="D204" s="5"/>
+        <v>206</v>
+      </c>
+      <c r="C204" s="19" t="s">
+        <v>209</v>
+      </c>
     </row>
     <row r="205" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A205" s="0" t="n">
@@ -4374,12 +4418,11 @@
         <v>200</v>
       </c>
       <c r="B205" s="15" t="s">
-        <v>170</v>
-      </c>
-      <c r="C205" s="20" t="s">
-        <v>199</v>
-      </c>
-      <c r="D205" s="5"/>
+        <v>206</v>
+      </c>
+      <c r="C205" s="19" t="s">
+        <v>210</v>
+      </c>
     </row>
     <row r="206" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A206" s="0" t="n">
@@ -4387,12 +4430,11 @@
         <v>201</v>
       </c>
       <c r="B206" s="15" t="s">
-        <v>170</v>
-      </c>
-      <c r="C206" s="20" t="s">
-        <v>200</v>
-      </c>
-      <c r="D206" s="5"/>
+        <v>206</v>
+      </c>
+      <c r="C206" s="19" t="s">
+        <v>211</v>
+      </c>
     </row>
     <row r="207" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A207" s="0" t="n">
@@ -4400,12 +4442,11 @@
         <v>202</v>
       </c>
       <c r="B207" s="15" t="s">
-        <v>170</v>
-      </c>
-      <c r="C207" s="20" t="s">
-        <v>201</v>
-      </c>
-      <c r="D207" s="5"/>
+        <v>206</v>
+      </c>
+      <c r="C207" s="19" t="s">
+        <v>212</v>
+      </c>
     </row>
     <row r="208" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A208" s="0" t="n">
@@ -4413,12 +4454,11 @@
         <v>203</v>
       </c>
       <c r="B208" s="15" t="s">
-        <v>170</v>
-      </c>
-      <c r="C208" s="20" t="s">
-        <v>202</v>
-      </c>
-      <c r="D208" s="5"/>
+        <v>206</v>
+      </c>
+      <c r="C208" s="21" t="s">
+        <v>213</v>
+      </c>
     </row>
     <row r="209" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A209" s="0" t="n">
@@ -4426,12 +4466,11 @@
         <v>204</v>
       </c>
       <c r="B209" s="15" t="s">
-        <v>170</v>
-      </c>
-      <c r="C209" s="20" t="s">
-        <v>203</v>
-      </c>
-      <c r="D209" s="5"/>
+        <v>206</v>
+      </c>
+      <c r="C209" s="19" t="s">
+        <v>214</v>
+      </c>
     </row>
     <row r="210" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A210" s="0" t="n">
@@ -4439,10 +4478,10 @@
         <v>205</v>
       </c>
       <c r="B210" s="15" t="s">
-        <v>170</v>
-      </c>
-      <c r="C210" s="20" t="s">
-        <v>204</v>
+        <v>206</v>
+      </c>
+      <c r="C210" s="19" t="s">
+        <v>215</v>
       </c>
       <c r="D210" s="5"/>
     </row>
@@ -4452,29 +4491,37 @@
         <v>206</v>
       </c>
       <c r="B211" s="15" t="s">
-        <v>170</v>
-      </c>
-      <c r="C211" s="20" t="s">
-        <v>205</v>
+        <v>206</v>
+      </c>
+      <c r="C211" s="19" t="s">
+        <v>216</v>
       </c>
       <c r="D211" s="5"/>
     </row>
-    <row r="212" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="212" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A212" s="0" t="n">
         <f aca="false">A211 + 1</f>
         <v>207</v>
       </c>
-      <c r="B212" s="15"/>
-      <c r="C212" s="19"/>
+      <c r="B212" s="15" t="s">
+        <v>206</v>
+      </c>
+      <c r="C212" s="19" t="s">
+        <v>217</v>
+      </c>
       <c r="D212" s="5"/>
     </row>
-    <row r="213" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="213" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A213" s="0" t="n">
         <f aca="false">A212 + 1</f>
         <v>208</v>
       </c>
-      <c r="B213" s="15"/>
-      <c r="C213" s="19"/>
+      <c r="B213" s="15" t="s">
+        <v>206</v>
+      </c>
+      <c r="C213" s="19" t="s">
+        <v>218</v>
+      </c>
       <c r="D213" s="5"/>
     </row>
     <row r="214" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4485,8 +4532,8 @@
       <c r="B214" s="15" t="s">
         <v>206</v>
       </c>
-      <c r="C214" s="20" t="s">
-        <v>207</v>
+      <c r="C214" s="19" t="s">
+        <v>219</v>
       </c>
       <c r="D214" s="5"/>
     </row>
@@ -4498,8 +4545,8 @@
       <c r="B215" s="15" t="s">
         <v>206</v>
       </c>
-      <c r="C215" s="20" t="s">
-        <v>208</v>
+      <c r="C215" s="19" t="s">
+        <v>220</v>
       </c>
       <c r="D215" s="5"/>
     </row>
@@ -4511,8 +4558,8 @@
       <c r="B216" s="15" t="s">
         <v>206</v>
       </c>
-      <c r="C216" s="20" t="s">
-        <v>209</v>
+      <c r="C216" s="19" t="s">
+        <v>221</v>
       </c>
       <c r="D216" s="5"/>
     </row>
@@ -4524,8 +4571,8 @@
       <c r="B217" s="15" t="s">
         <v>206</v>
       </c>
-      <c r="C217" s="20" t="s">
-        <v>210</v>
+      <c r="C217" s="19" t="s">
+        <v>222</v>
       </c>
       <c r="D217" s="5"/>
     </row>
@@ -4537,8 +4584,8 @@
       <c r="B218" s="15" t="s">
         <v>206</v>
       </c>
-      <c r="C218" s="20" t="s">
-        <v>211</v>
+      <c r="C218" s="19" t="s">
+        <v>223</v>
       </c>
       <c r="D218" s="5"/>
     </row>
@@ -4550,8 +4597,8 @@
       <c r="B219" s="15" t="s">
         <v>206</v>
       </c>
-      <c r="C219" s="20" t="s">
-        <v>212</v>
+      <c r="C219" s="19" t="s">
+        <v>224</v>
       </c>
       <c r="D219" s="5"/>
     </row>
@@ -4563,8 +4610,8 @@
       <c r="B220" s="15" t="s">
         <v>206</v>
       </c>
-      <c r="C220" s="21" t="s">
-        <v>213</v>
+      <c r="C220" s="19" t="s">
+        <v>225</v>
       </c>
       <c r="D220" s="5"/>
     </row>
@@ -4576,8 +4623,8 @@
       <c r="B221" s="15" t="s">
         <v>206</v>
       </c>
-      <c r="C221" s="20" t="s">
-        <v>214</v>
+      <c r="C221" s="19" t="s">
+        <v>226</v>
       </c>
       <c r="D221" s="5"/>
     </row>
@@ -4589,8 +4636,8 @@
       <c r="B222" s="15" t="s">
         <v>206</v>
       </c>
-      <c r="C222" s="20" t="s">
-        <v>215</v>
+      <c r="C222" s="19" t="s">
+        <v>227</v>
       </c>
       <c r="D222" s="5"/>
     </row>
@@ -4602,8 +4649,8 @@
       <c r="B223" s="15" t="s">
         <v>206</v>
       </c>
-      <c r="C223" s="20" t="s">
-        <v>216</v>
+      <c r="C223" s="19" t="s">
+        <v>228</v>
       </c>
       <c r="D223" s="5"/>
     </row>
@@ -4613,10 +4660,10 @@
         <v>219</v>
       </c>
       <c r="B224" s="15" t="s">
-        <v>206</v>
-      </c>
-      <c r="C224" s="20" t="s">
-        <v>217</v>
+        <v>229</v>
+      </c>
+      <c r="C224" s="19" t="s">
+        <v>230</v>
       </c>
       <c r="D224" s="5"/>
     </row>
@@ -4626,10 +4673,10 @@
         <v>220</v>
       </c>
       <c r="B225" s="15" t="s">
-        <v>206</v>
-      </c>
-      <c r="C225" s="20" t="s">
-        <v>218</v>
+        <v>229</v>
+      </c>
+      <c r="C225" s="19" t="s">
+        <v>231</v>
       </c>
       <c r="D225" s="5"/>
     </row>
@@ -4639,10 +4686,10 @@
         <v>221</v>
       </c>
       <c r="B226" s="15" t="s">
-        <v>206</v>
-      </c>
-      <c r="C226" s="20" t="s">
-        <v>219</v>
+        <v>229</v>
+      </c>
+      <c r="C226" s="19" t="s">
+        <v>232</v>
       </c>
       <c r="D226" s="5"/>
     </row>
@@ -4652,10 +4699,10 @@
         <v>222</v>
       </c>
       <c r="B227" s="15" t="s">
-        <v>206</v>
-      </c>
-      <c r="C227" s="20" t="s">
-        <v>220</v>
+        <v>229</v>
+      </c>
+      <c r="C227" s="19" t="s">
+        <v>233</v>
       </c>
       <c r="D227" s="5"/>
     </row>
@@ -4665,10 +4712,10 @@
         <v>223</v>
       </c>
       <c r="B228" s="15" t="s">
-        <v>206</v>
-      </c>
-      <c r="C228" s="20" t="s">
-        <v>221</v>
+        <v>229</v>
+      </c>
+      <c r="C228" s="19" t="s">
+        <v>234</v>
       </c>
       <c r="D228" s="5"/>
     </row>
@@ -4678,10 +4725,10 @@
         <v>224</v>
       </c>
       <c r="B229" s="15" t="s">
-        <v>206</v>
-      </c>
-      <c r="C229" s="20" t="s">
-        <v>222</v>
+        <v>229</v>
+      </c>
+      <c r="C229" s="19" t="s">
+        <v>235</v>
       </c>
       <c r="D229" s="5"/>
     </row>
@@ -4691,10 +4738,10 @@
         <v>225</v>
       </c>
       <c r="B230" s="15" t="s">
-        <v>206</v>
-      </c>
-      <c r="C230" s="20" t="s">
-        <v>223</v>
+        <v>229</v>
+      </c>
+      <c r="C230" s="19" t="s">
+        <v>236</v>
       </c>
       <c r="D230" s="5"/>
     </row>
@@ -4704,10 +4751,10 @@
         <v>226</v>
       </c>
       <c r="B231" s="15" t="s">
-        <v>206</v>
-      </c>
-      <c r="C231" s="20" t="s">
-        <v>224</v>
+        <v>229</v>
+      </c>
+      <c r="C231" s="19" t="s">
+        <v>237</v>
       </c>
       <c r="D231" s="5"/>
     </row>
@@ -4717,10 +4764,10 @@
         <v>227</v>
       </c>
       <c r="B232" s="15" t="s">
-        <v>206</v>
-      </c>
-      <c r="C232" s="20" t="s">
-        <v>225</v>
+        <v>229</v>
+      </c>
+      <c r="C232" s="19" t="s">
+        <v>238</v>
       </c>
       <c r="D232" s="5"/>
     </row>
@@ -4730,10 +4777,10 @@
         <v>228</v>
       </c>
       <c r="B233" s="15" t="s">
-        <v>206</v>
-      </c>
-      <c r="C233" s="20" t="s">
-        <v>226</v>
+        <v>229</v>
+      </c>
+      <c r="C233" s="19" t="s">
+        <v>239</v>
       </c>
       <c r="D233" s="5"/>
     </row>
@@ -4743,10 +4790,10 @@
         <v>229</v>
       </c>
       <c r="B234" s="15" t="s">
-        <v>206</v>
-      </c>
-      <c r="C234" s="20" t="s">
-        <v>227</v>
+        <v>229</v>
+      </c>
+      <c r="C234" s="19" t="s">
+        <v>240</v>
       </c>
       <c r="D234" s="5"/>
     </row>
@@ -4756,27 +4803,37 @@
         <v>230</v>
       </c>
       <c r="B235" s="15" t="s">
-        <v>206</v>
-      </c>
-      <c r="C235" s="20" t="s">
-        <v>228</v>
+        <v>229</v>
+      </c>
+      <c r="C235" s="19" t="s">
+        <v>241</v>
       </c>
       <c r="D235" s="5"/>
     </row>
-    <row r="236" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="236" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A236" s="0" t="n">
         <f aca="false">A235 + 1</f>
         <v>231</v>
       </c>
-      <c r="C236" s="19"/>
+      <c r="B236" s="15" t="s">
+        <v>229</v>
+      </c>
+      <c r="C236" s="19" t="s">
+        <v>242</v>
+      </c>
       <c r="D236" s="5"/>
     </row>
-    <row r="237" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="237" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A237" s="0" t="n">
         <f aca="false">A236 + 1</f>
         <v>232</v>
       </c>
-      <c r="C237" s="19"/>
+      <c r="B237" s="15" t="s">
+        <v>229</v>
+      </c>
+      <c r="C237" s="19" t="s">
+        <v>243</v>
+      </c>
       <c r="D237" s="5"/>
     </row>
     <row r="238" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4787,8 +4844,8 @@
       <c r="B238" s="15" t="s">
         <v>229</v>
       </c>
-      <c r="C238" s="20" t="s">
-        <v>230</v>
+      <c r="C238" s="19" t="s">
+        <v>244</v>
       </c>
       <c r="D238" s="5"/>
     </row>
@@ -4800,8 +4857,8 @@
       <c r="B239" s="15" t="s">
         <v>229</v>
       </c>
-      <c r="C239" s="20" t="s">
-        <v>231</v>
+      <c r="C239" s="19" t="s">
+        <v>245</v>
       </c>
       <c r="D239" s="5"/>
     </row>
@@ -4813,8 +4870,8 @@
       <c r="B240" s="15" t="s">
         <v>229</v>
       </c>
-      <c r="C240" s="20" t="s">
-        <v>232</v>
+      <c r="C240" s="19" t="s">
+        <v>246</v>
       </c>
       <c r="D240" s="5"/>
     </row>
@@ -4826,8 +4883,8 @@
       <c r="B241" s="15" t="s">
         <v>229</v>
       </c>
-      <c r="C241" s="20" t="s">
-        <v>233</v>
+      <c r="C241" s="19" t="s">
+        <v>247</v>
       </c>
       <c r="D241" s="5"/>
     </row>
@@ -4839,8 +4896,8 @@
       <c r="B242" s="15" t="s">
         <v>229</v>
       </c>
-      <c r="C242" s="20" t="s">
-        <v>234</v>
+      <c r="C242" s="19" t="s">
+        <v>248</v>
       </c>
       <c r="D242" s="5"/>
     </row>
@@ -4852,8 +4909,8 @@
       <c r="B243" s="15" t="s">
         <v>229</v>
       </c>
-      <c r="C243" s="20" t="s">
-        <v>235</v>
+      <c r="C243" s="19" t="s">
+        <v>249</v>
       </c>
       <c r="D243" s="5"/>
     </row>
@@ -4865,8 +4922,8 @@
       <c r="B244" s="15" t="s">
         <v>229</v>
       </c>
-      <c r="C244" s="20" t="s">
-        <v>236</v>
+      <c r="C244" s="19" t="s">
+        <v>250</v>
       </c>
       <c r="D244" s="5"/>
     </row>
@@ -4878,8 +4935,8 @@
       <c r="B245" s="15" t="s">
         <v>229</v>
       </c>
-      <c r="C245" s="20" t="s">
-        <v>237</v>
+      <c r="C245" s="19" t="s">
+        <v>251</v>
       </c>
       <c r="D245" s="5"/>
     </row>
@@ -4891,8 +4948,8 @@
       <c r="B246" s="15" t="s">
         <v>229</v>
       </c>
-      <c r="C246" s="20" t="s">
-        <v>238</v>
+      <c r="C246" s="19" t="s">
+        <v>252</v>
       </c>
       <c r="D246" s="5"/>
     </row>
@@ -4904,8 +4961,8 @@
       <c r="B247" s="15" t="s">
         <v>229</v>
       </c>
-      <c r="C247" s="20" t="s">
-        <v>239</v>
+      <c r="C247" s="19" t="s">
+        <v>253</v>
       </c>
       <c r="D247" s="5"/>
     </row>
@@ -4917,8 +4974,8 @@
       <c r="B248" s="15" t="s">
         <v>229</v>
       </c>
-      <c r="C248" s="20" t="s">
-        <v>240</v>
+      <c r="C248" s="19" t="s">
+        <v>254</v>
       </c>
       <c r="D248" s="5"/>
     </row>
@@ -4930,8 +4987,8 @@
       <c r="B249" s="15" t="s">
         <v>229</v>
       </c>
-      <c r="C249" s="20" t="s">
-        <v>241</v>
+      <c r="C249" s="19" t="s">
+        <v>255</v>
       </c>
       <c r="D249" s="5"/>
     </row>
@@ -4943,8 +5000,8 @@
       <c r="B250" s="15" t="s">
         <v>229</v>
       </c>
-      <c r="C250" s="20" t="s">
-        <v>242</v>
+      <c r="C250" s="19" t="s">
+        <v>256</v>
       </c>
       <c r="D250" s="5"/>
     </row>
@@ -4956,8 +5013,8 @@
       <c r="B251" s="15" t="s">
         <v>229</v>
       </c>
-      <c r="C251" s="20" t="s">
-        <v>243</v>
+      <c r="C251" s="19" t="s">
+        <v>257</v>
       </c>
       <c r="D251" s="5"/>
     </row>
@@ -4969,8 +5026,8 @@
       <c r="B252" s="15" t="s">
         <v>229</v>
       </c>
-      <c r="C252" s="20" t="s">
-        <v>244</v>
+      <c r="C252" s="19" t="s">
+        <v>258</v>
       </c>
       <c r="D252" s="5"/>
     </row>
@@ -4982,8 +5039,8 @@
       <c r="B253" s="15" t="s">
         <v>229</v>
       </c>
-      <c r="C253" s="20" t="s">
-        <v>245</v>
+      <c r="C253" s="19" t="s">
+        <v>259</v>
       </c>
       <c r="D253" s="5"/>
     </row>
@@ -4995,8 +5052,8 @@
       <c r="B254" s="15" t="s">
         <v>229</v>
       </c>
-      <c r="C254" s="20" t="s">
-        <v>246</v>
+      <c r="C254" s="19" t="s">
+        <v>260</v>
       </c>
       <c r="D254" s="5"/>
     </row>
@@ -5008,8 +5065,8 @@
       <c r="B255" s="15" t="s">
         <v>229</v>
       </c>
-      <c r="C255" s="20" t="s">
-        <v>247</v>
+      <c r="C255" s="19" t="s">
+        <v>261</v>
       </c>
       <c r="D255" s="5"/>
     </row>
@@ -5021,8 +5078,8 @@
       <c r="B256" s="15" t="s">
         <v>229</v>
       </c>
-      <c r="C256" s="20" t="s">
-        <v>248</v>
+      <c r="C256" s="19" t="s">
+        <v>262</v>
       </c>
       <c r="D256" s="5"/>
     </row>
@@ -5034,8 +5091,8 @@
       <c r="B257" s="15" t="s">
         <v>229</v>
       </c>
-      <c r="C257" s="20" t="s">
-        <v>249</v>
+      <c r="C257" s="19" t="s">
+        <v>86</v>
       </c>
       <c r="D257" s="5"/>
     </row>
@@ -5047,8 +5104,8 @@
       <c r="B258" s="15" t="s">
         <v>229</v>
       </c>
-      <c r="C258" s="20" t="s">
-        <v>250</v>
+      <c r="C258" s="19" t="s">
+        <v>263</v>
       </c>
       <c r="D258" s="5"/>
     </row>
@@ -5058,10 +5115,10 @@
         <v>254</v>
       </c>
       <c r="B259" s="15" t="s">
-        <v>229</v>
-      </c>
-      <c r="C259" s="20" t="s">
-        <v>251</v>
+        <v>264</v>
+      </c>
+      <c r="C259" s="19" t="s">
+        <v>265</v>
       </c>
       <c r="D259" s="5"/>
     </row>
@@ -5071,10 +5128,10 @@
         <v>255</v>
       </c>
       <c r="B260" s="15" t="s">
-        <v>229</v>
-      </c>
-      <c r="C260" s="20" t="s">
-        <v>252</v>
+        <v>264</v>
+      </c>
+      <c r="C260" s="19" t="s">
+        <v>266</v>
       </c>
       <c r="D260" s="5"/>
     </row>
@@ -5084,10 +5141,10 @@
         <v>256</v>
       </c>
       <c r="B261" s="15" t="s">
-        <v>229</v>
-      </c>
-      <c r="C261" s="20" t="s">
-        <v>253</v>
+        <v>264</v>
+      </c>
+      <c r="C261" s="19" t="s">
+        <v>267</v>
       </c>
       <c r="D261" s="5"/>
     </row>
@@ -5097,10 +5154,10 @@
         <v>257</v>
       </c>
       <c r="B262" s="15" t="s">
-        <v>229</v>
-      </c>
-      <c r="C262" s="20" t="s">
-        <v>254</v>
+        <v>264</v>
+      </c>
+      <c r="C262" s="19" t="s">
+        <v>268</v>
       </c>
       <c r="D262" s="5"/>
     </row>
@@ -5110,10 +5167,10 @@
         <v>258</v>
       </c>
       <c r="B263" s="15" t="s">
-        <v>229</v>
-      </c>
-      <c r="C263" s="20" t="s">
-        <v>255</v>
+        <v>264</v>
+      </c>
+      <c r="C263" s="19" t="s">
+        <v>269</v>
       </c>
       <c r="D263" s="5"/>
     </row>
@@ -5123,10 +5180,10 @@
         <v>259</v>
       </c>
       <c r="B264" s="15" t="s">
-        <v>229</v>
-      </c>
-      <c r="C264" s="20" t="s">
-        <v>256</v>
+        <v>264</v>
+      </c>
+      <c r="C264" s="19" t="s">
+        <v>270</v>
       </c>
       <c r="D264" s="5"/>
     </row>
@@ -5136,10 +5193,10 @@
         <v>260</v>
       </c>
       <c r="B265" s="15" t="s">
-        <v>229</v>
-      </c>
-      <c r="C265" s="20" t="s">
-        <v>257</v>
+        <v>264</v>
+      </c>
+      <c r="C265" s="19" t="s">
+        <v>271</v>
       </c>
       <c r="D265" s="5"/>
     </row>
@@ -5149,10 +5206,10 @@
         <v>261</v>
       </c>
       <c r="B266" s="15" t="s">
-        <v>229</v>
-      </c>
-      <c r="C266" s="20" t="s">
-        <v>258</v>
+        <v>264</v>
+      </c>
+      <c r="C266" s="19" t="s">
+        <v>272</v>
       </c>
       <c r="D266" s="5"/>
     </row>
@@ -5162,10 +5219,10 @@
         <v>262</v>
       </c>
       <c r="B267" s="15" t="s">
-        <v>229</v>
-      </c>
-      <c r="C267" s="20" t="s">
-        <v>259</v>
+        <v>264</v>
+      </c>
+      <c r="C267" s="19" t="s">
+        <v>273</v>
       </c>
       <c r="D267" s="5"/>
     </row>
@@ -5175,10 +5232,10 @@
         <v>263</v>
       </c>
       <c r="B268" s="15" t="s">
-        <v>229</v>
-      </c>
-      <c r="C268" s="20" t="s">
-        <v>260</v>
+        <v>264</v>
+      </c>
+      <c r="C268" s="19" t="s">
+        <v>274</v>
       </c>
       <c r="D268" s="5"/>
     </row>
@@ -5188,10 +5245,10 @@
         <v>264</v>
       </c>
       <c r="B269" s="15" t="s">
-        <v>229</v>
-      </c>
-      <c r="C269" s="20" t="s">
-        <v>261</v>
+        <v>264</v>
+      </c>
+      <c r="C269" s="19" t="s">
+        <v>275</v>
       </c>
       <c r="D269" s="5"/>
     </row>
@@ -5201,10 +5258,10 @@
         <v>265</v>
       </c>
       <c r="B270" s="15" t="s">
-        <v>229</v>
-      </c>
-      <c r="C270" s="20" t="s">
-        <v>262</v>
+        <v>264</v>
+      </c>
+      <c r="C270" s="19" t="s">
+        <v>276</v>
       </c>
       <c r="D270" s="5"/>
     </row>
@@ -5214,10 +5271,10 @@
         <v>266</v>
       </c>
       <c r="B271" s="15" t="s">
-        <v>229</v>
-      </c>
-      <c r="C271" s="20" t="s">
-        <v>86</v>
+        <v>264</v>
+      </c>
+      <c r="C271" s="19" t="s">
+        <v>277</v>
       </c>
       <c r="D271" s="5"/>
     </row>
@@ -5227,27 +5284,37 @@
         <v>267</v>
       </c>
       <c r="B272" s="15" t="s">
-        <v>229</v>
-      </c>
-      <c r="C272" s="20" t="s">
-        <v>263</v>
+        <v>264</v>
+      </c>
+      <c r="C272" s="19" t="s">
+        <v>278</v>
       </c>
       <c r="D272" s="5"/>
     </row>
-    <row r="273" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="273" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A273" s="0" t="n">
         <f aca="false">A272 + 1</f>
         <v>268</v>
       </c>
-      <c r="C273" s="19"/>
+      <c r="B273" s="15" t="s">
+        <v>264</v>
+      </c>
+      <c r="C273" s="19" t="s">
+        <v>279</v>
+      </c>
       <c r="D273" s="5"/>
     </row>
-    <row r="274" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="274" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A274" s="0" t="n">
         <f aca="false">A273 + 1</f>
         <v>269</v>
       </c>
-      <c r="C274" s="19"/>
+      <c r="B274" s="15" t="s">
+        <v>264</v>
+      </c>
+      <c r="C274" s="19" t="s">
+        <v>280</v>
+      </c>
       <c r="D274" s="5"/>
     </row>
     <row r="275" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5258,8 +5325,8 @@
       <c r="B275" s="15" t="s">
         <v>264</v>
       </c>
-      <c r="C275" s="20" t="s">
-        <v>265</v>
+      <c r="C275" s="19" t="s">
+        <v>281</v>
       </c>
       <c r="D275" s="5"/>
     </row>
@@ -5271,8 +5338,8 @@
       <c r="B276" s="15" t="s">
         <v>264</v>
       </c>
-      <c r="C276" s="20" t="s">
-        <v>266</v>
+      <c r="C276" s="19" t="s">
+        <v>282</v>
       </c>
       <c r="D276" s="5"/>
     </row>
@@ -5284,8 +5351,8 @@
       <c r="B277" s="15" t="s">
         <v>264</v>
       </c>
-      <c r="C277" s="20" t="s">
-        <v>267</v>
+      <c r="C277" s="19" t="s">
+        <v>283</v>
       </c>
       <c r="D277" s="5"/>
     </row>
@@ -5295,10 +5362,10 @@
         <v>273</v>
       </c>
       <c r="B278" s="15" t="s">
-        <v>264</v>
-      </c>
-      <c r="C278" s="20" t="s">
-        <v>268</v>
+        <v>284</v>
+      </c>
+      <c r="C278" s="19" t="s">
+        <v>285</v>
       </c>
       <c r="D278" s="5"/>
     </row>
@@ -5308,10 +5375,10 @@
         <v>274</v>
       </c>
       <c r="B279" s="15" t="s">
-        <v>264</v>
-      </c>
-      <c r="C279" s="20" t="s">
-        <v>269</v>
+        <v>284</v>
+      </c>
+      <c r="C279" s="19" t="s">
+        <v>286</v>
       </c>
       <c r="D279" s="5"/>
     </row>
@@ -5321,10 +5388,10 @@
         <v>275</v>
       </c>
       <c r="B280" s="15" t="s">
-        <v>264</v>
-      </c>
-      <c r="C280" s="20" t="s">
-        <v>270</v>
+        <v>284</v>
+      </c>
+      <c r="C280" s="19" t="s">
+        <v>287</v>
       </c>
       <c r="D280" s="5"/>
     </row>
@@ -5334,10 +5401,10 @@
         <v>276</v>
       </c>
       <c r="B281" s="15" t="s">
-        <v>264</v>
-      </c>
-      <c r="C281" s="20" t="s">
-        <v>271</v>
+        <v>284</v>
+      </c>
+      <c r="C281" s="19" t="s">
+        <v>288</v>
       </c>
       <c r="D281" s="5"/>
     </row>
@@ -5347,10 +5414,10 @@
         <v>277</v>
       </c>
       <c r="B282" s="15" t="s">
-        <v>264</v>
-      </c>
-      <c r="C282" s="20" t="s">
-        <v>272</v>
+        <v>284</v>
+      </c>
+      <c r="C282" s="19" t="s">
+        <v>289</v>
       </c>
       <c r="D282" s="5"/>
     </row>
@@ -5360,10 +5427,10 @@
         <v>278</v>
       </c>
       <c r="B283" s="15" t="s">
-        <v>264</v>
-      </c>
-      <c r="C283" s="20" t="s">
-        <v>273</v>
+        <v>284</v>
+      </c>
+      <c r="C283" s="19" t="s">
+        <v>290</v>
       </c>
       <c r="D283" s="5"/>
     </row>
@@ -5373,10 +5440,10 @@
         <v>279</v>
       </c>
       <c r="B284" s="15" t="s">
-        <v>264</v>
-      </c>
-      <c r="C284" s="20" t="s">
-        <v>274</v>
+        <v>284</v>
+      </c>
+      <c r="C284" s="19" t="s">
+        <v>291</v>
       </c>
       <c r="D284" s="5"/>
     </row>
@@ -5386,10 +5453,10 @@
         <v>280</v>
       </c>
       <c r="B285" s="15" t="s">
-        <v>264</v>
-      </c>
-      <c r="C285" s="20" t="s">
-        <v>275</v>
+        <v>284</v>
+      </c>
+      <c r="C285" s="19" t="s">
+        <v>292</v>
       </c>
       <c r="D285" s="5"/>
     </row>
@@ -5399,10 +5466,10 @@
         <v>281</v>
       </c>
       <c r="B286" s="15" t="s">
-        <v>264</v>
-      </c>
-      <c r="C286" s="20" t="s">
-        <v>276</v>
+        <v>284</v>
+      </c>
+      <c r="C286" s="19" t="s">
+        <v>293</v>
       </c>
       <c r="D286" s="5"/>
     </row>
@@ -5412,10 +5479,10 @@
         <v>282</v>
       </c>
       <c r="B287" s="15" t="s">
-        <v>264</v>
-      </c>
-      <c r="C287" s="20" t="s">
-        <v>277</v>
+        <v>284</v>
+      </c>
+      <c r="C287" s="19" t="s">
+        <v>294</v>
       </c>
       <c r="D287" s="5"/>
     </row>
@@ -5425,10 +5492,10 @@
         <v>283</v>
       </c>
       <c r="B288" s="15" t="s">
-        <v>264</v>
-      </c>
-      <c r="C288" s="20" t="s">
-        <v>278</v>
+        <v>284</v>
+      </c>
+      <c r="C288" s="19" t="s">
+        <v>295</v>
       </c>
       <c r="D288" s="5"/>
     </row>
@@ -5438,10 +5505,10 @@
         <v>284</v>
       </c>
       <c r="B289" s="15" t="s">
-        <v>264</v>
-      </c>
-      <c r="C289" s="20" t="s">
-        <v>279</v>
+        <v>284</v>
+      </c>
+      <c r="C289" s="19" t="s">
+        <v>296</v>
       </c>
       <c r="D289" s="5"/>
     </row>
@@ -5451,10 +5518,10 @@
         <v>285</v>
       </c>
       <c r="B290" s="15" t="s">
-        <v>264</v>
-      </c>
-      <c r="C290" s="20" t="s">
-        <v>280</v>
+        <v>284</v>
+      </c>
+      <c r="C290" s="19" t="s">
+        <v>297</v>
       </c>
       <c r="D290" s="5"/>
     </row>
@@ -5464,10 +5531,10 @@
         <v>286</v>
       </c>
       <c r="B291" s="15" t="s">
-        <v>264</v>
-      </c>
-      <c r="C291" s="20" t="s">
-        <v>281</v>
+        <v>284</v>
+      </c>
+      <c r="C291" s="21" t="s">
+        <v>298</v>
       </c>
       <c r="D291" s="5"/>
     </row>
@@ -5477,10 +5544,10 @@
         <v>287</v>
       </c>
       <c r="B292" s="15" t="s">
-        <v>264</v>
-      </c>
-      <c r="C292" s="20" t="s">
-        <v>282</v>
+        <v>284</v>
+      </c>
+      <c r="C292" s="19" t="s">
+        <v>299</v>
       </c>
       <c r="D292" s="5"/>
     </row>
@@ -5490,27 +5557,37 @@
         <v>288</v>
       </c>
       <c r="B293" s="15" t="s">
-        <v>264</v>
-      </c>
-      <c r="C293" s="20" t="s">
-        <v>283</v>
+        <v>284</v>
+      </c>
+      <c r="C293" s="19" t="s">
+        <v>300</v>
       </c>
       <c r="D293" s="5"/>
     </row>
-    <row r="294" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="294" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A294" s="0" t="n">
         <f aca="false">A293 + 1</f>
         <v>289</v>
       </c>
-      <c r="C294" s="19"/>
+      <c r="B294" s="15" t="s">
+        <v>284</v>
+      </c>
+      <c r="C294" s="19" t="s">
+        <v>301</v>
+      </c>
       <c r="D294" s="5"/>
     </row>
-    <row r="295" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="295" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A295" s="0" t="n">
         <f aca="false">A294 + 1</f>
         <v>290</v>
       </c>
-      <c r="C295" s="19"/>
+      <c r="B295" s="15" t="s">
+        <v>284</v>
+      </c>
+      <c r="C295" s="19" t="s">
+        <v>302</v>
+      </c>
       <c r="D295" s="5"/>
     </row>
     <row r="296" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5521,8 +5598,8 @@
       <c r="B296" s="15" t="s">
         <v>284</v>
       </c>
-      <c r="C296" s="20" t="s">
-        <v>285</v>
+      <c r="C296" s="19" t="s">
+        <v>303</v>
       </c>
       <c r="D296" s="5"/>
     </row>
@@ -5534,8 +5611,8 @@
       <c r="B297" s="15" t="s">
         <v>284</v>
       </c>
-      <c r="C297" s="20" t="s">
-        <v>286</v>
+      <c r="C297" s="19" t="s">
+        <v>304</v>
       </c>
       <c r="D297" s="5"/>
     </row>
@@ -5547,8 +5624,8 @@
       <c r="B298" s="15" t="s">
         <v>284</v>
       </c>
-      <c r="C298" s="20" t="s">
-        <v>287</v>
+      <c r="C298" s="19" t="s">
+        <v>305</v>
       </c>
       <c r="D298" s="5"/>
     </row>
@@ -5560,8 +5637,8 @@
       <c r="B299" s="15" t="s">
         <v>284</v>
       </c>
-      <c r="C299" s="20" t="s">
-        <v>288</v>
+      <c r="C299" s="19" t="s">
+        <v>306</v>
       </c>
       <c r="D299" s="5"/>
     </row>
@@ -5573,8 +5650,8 @@
       <c r="B300" s="15" t="s">
         <v>284</v>
       </c>
-      <c r="C300" s="20" t="s">
-        <v>289</v>
+      <c r="C300" s="19" t="s">
+        <v>307</v>
       </c>
       <c r="D300" s="5"/>
     </row>
@@ -5586,8 +5663,8 @@
       <c r="B301" s="15" t="s">
         <v>284</v>
       </c>
-      <c r="C301" s="20" t="s">
-        <v>290</v>
+      <c r="C301" s="19" t="s">
+        <v>308</v>
       </c>
       <c r="D301" s="5"/>
     </row>
@@ -5599,8 +5676,8 @@
       <c r="B302" s="15" t="s">
         <v>284</v>
       </c>
-      <c r="C302" s="20" t="s">
-        <v>291</v>
+      <c r="C302" s="19" t="s">
+        <v>309</v>
       </c>
       <c r="D302" s="5"/>
     </row>
@@ -5612,8 +5689,8 @@
       <c r="B303" s="15" t="s">
         <v>284</v>
       </c>
-      <c r="C303" s="20" t="s">
-        <v>292</v>
+      <c r="C303" s="19" t="s">
+        <v>310</v>
       </c>
       <c r="D303" s="5"/>
     </row>
@@ -5625,8 +5702,8 @@
       <c r="B304" s="15" t="s">
         <v>284</v>
       </c>
-      <c r="C304" s="20" t="s">
-        <v>293</v>
+      <c r="C304" s="19" t="s">
+        <v>311</v>
       </c>
       <c r="D304" s="5"/>
     </row>
@@ -5638,8 +5715,8 @@
       <c r="B305" s="15" t="s">
         <v>284</v>
       </c>
-      <c r="C305" s="20" t="s">
-        <v>294</v>
+      <c r="C305" s="19" t="s">
+        <v>312</v>
       </c>
       <c r="D305" s="5"/>
     </row>
@@ -5651,8 +5728,8 @@
       <c r="B306" s="15" t="s">
         <v>284</v>
       </c>
-      <c r="C306" s="20" t="s">
-        <v>295</v>
+      <c r="C306" s="19" t="s">
+        <v>313</v>
       </c>
       <c r="D306" s="5"/>
     </row>
@@ -5664,8 +5741,8 @@
       <c r="B307" s="15" t="s">
         <v>284</v>
       </c>
-      <c r="C307" s="20" t="s">
-        <v>296</v>
+      <c r="C307" s="19" t="s">
+        <v>314</v>
       </c>
       <c r="D307" s="5"/>
     </row>
@@ -5677,8 +5754,8 @@
       <c r="B308" s="15" t="s">
         <v>284</v>
       </c>
-      <c r="C308" s="20" t="s">
-        <v>297</v>
+      <c r="C308" s="19" t="s">
+        <v>315</v>
       </c>
       <c r="D308" s="5"/>
     </row>
@@ -5690,8 +5767,8 @@
       <c r="B309" s="15" t="s">
         <v>284</v>
       </c>
-      <c r="C309" s="21" t="s">
-        <v>298</v>
+      <c r="C309" s="19" t="s">
+        <v>316</v>
       </c>
       <c r="D309" s="5"/>
     </row>
@@ -5703,8 +5780,8 @@
       <c r="B310" s="15" t="s">
         <v>284</v>
       </c>
-      <c r="C310" s="20" t="s">
-        <v>299</v>
+      <c r="C310" s="19" t="s">
+        <v>317</v>
       </c>
       <c r="D310" s="5"/>
     </row>
@@ -5716,8 +5793,8 @@
       <c r="B311" s="15" t="s">
         <v>284</v>
       </c>
-      <c r="C311" s="20" t="s">
-        <v>300</v>
+      <c r="C311" s="19" t="s">
+        <v>318</v>
       </c>
       <c r="D311" s="5"/>
     </row>
@@ -5729,8 +5806,8 @@
       <c r="B312" s="15" t="s">
         <v>284</v>
       </c>
-      <c r="C312" s="20" t="s">
-        <v>301</v>
+      <c r="C312" s="19" t="s">
+        <v>319</v>
       </c>
       <c r="D312" s="5"/>
     </row>
@@ -5742,8 +5819,8 @@
       <c r="B313" s="15" t="s">
         <v>284</v>
       </c>
-      <c r="C313" s="20" t="s">
-        <v>302</v>
+      <c r="C313" s="19" t="s">
+        <v>320</v>
       </c>
       <c r="D313" s="5"/>
     </row>
@@ -5755,8 +5832,8 @@
       <c r="B314" s="15" t="s">
         <v>284</v>
       </c>
-      <c r="C314" s="20" t="s">
-        <v>303</v>
+      <c r="C314" s="19" t="s">
+        <v>321</v>
       </c>
       <c r="D314" s="5"/>
     </row>
@@ -5768,8 +5845,8 @@
       <c r="B315" s="15" t="s">
         <v>284</v>
       </c>
-      <c r="C315" s="20" t="s">
-        <v>304</v>
+      <c r="C315" s="19" t="s">
+        <v>322</v>
       </c>
       <c r="D315" s="5"/>
     </row>
@@ -5779,10 +5856,10 @@
         <v>311</v>
       </c>
       <c r="B316" s="15" t="s">
-        <v>284</v>
-      </c>
-      <c r="C316" s="20" t="s">
-        <v>305</v>
+        <v>323</v>
+      </c>
+      <c r="C316" s="19" t="s">
+        <v>324</v>
       </c>
       <c r="D316" s="5"/>
     </row>
@@ -5792,10 +5869,10 @@
         <v>312</v>
       </c>
       <c r="B317" s="15" t="s">
-        <v>284</v>
-      </c>
-      <c r="C317" s="20" t="s">
-        <v>306</v>
+        <v>323</v>
+      </c>
+      <c r="C317" s="19" t="s">
+        <v>325</v>
       </c>
       <c r="D317" s="5"/>
     </row>
@@ -5805,10 +5882,10 @@
         <v>313</v>
       </c>
       <c r="B318" s="15" t="s">
-        <v>284</v>
-      </c>
-      <c r="C318" s="20" t="s">
-        <v>307</v>
+        <v>323</v>
+      </c>
+      <c r="C318" s="19" t="s">
+        <v>326</v>
       </c>
       <c r="D318" s="5"/>
     </row>
@@ -5818,10 +5895,10 @@
         <v>314</v>
       </c>
       <c r="B319" s="15" t="s">
-        <v>284</v>
-      </c>
-      <c r="C319" s="20" t="s">
-        <v>308</v>
+        <v>323</v>
+      </c>
+      <c r="C319" s="19" t="s">
+        <v>327</v>
       </c>
       <c r="D319" s="5"/>
     </row>
@@ -5831,10 +5908,10 @@
         <v>315</v>
       </c>
       <c r="B320" s="15" t="s">
-        <v>284</v>
-      </c>
-      <c r="C320" s="20" t="s">
-        <v>309</v>
+        <v>323</v>
+      </c>
+      <c r="C320" s="19" t="s">
+        <v>328</v>
       </c>
       <c r="D320" s="5"/>
     </row>
@@ -5844,10 +5921,10 @@
         <v>316</v>
       </c>
       <c r="B321" s="15" t="s">
-        <v>284</v>
-      </c>
-      <c r="C321" s="20" t="s">
-        <v>310</v>
+        <v>323</v>
+      </c>
+      <c r="C321" s="19" t="s">
+        <v>329</v>
       </c>
       <c r="D321" s="5"/>
     </row>
@@ -5857,10 +5934,10 @@
         <v>317</v>
       </c>
       <c r="B322" s="15" t="s">
-        <v>284</v>
-      </c>
-      <c r="C322" s="20" t="s">
-        <v>311</v>
+        <v>323</v>
+      </c>
+      <c r="C322" s="19" t="s">
+        <v>330</v>
       </c>
       <c r="D322" s="5"/>
     </row>
@@ -5870,10 +5947,10 @@
         <v>318</v>
       </c>
       <c r="B323" s="15" t="s">
-        <v>284</v>
-      </c>
-      <c r="C323" s="20" t="s">
-        <v>312</v>
+        <v>323</v>
+      </c>
+      <c r="C323" s="19" t="s">
+        <v>331</v>
       </c>
       <c r="D323" s="5"/>
     </row>
@@ -5883,10 +5960,10 @@
         <v>319</v>
       </c>
       <c r="B324" s="15" t="s">
-        <v>284</v>
-      </c>
-      <c r="C324" s="20" t="s">
-        <v>313</v>
+        <v>323</v>
+      </c>
+      <c r="C324" s="21" t="s">
+        <v>332</v>
       </c>
       <c r="D324" s="5"/>
     </row>
@@ -5896,10 +5973,10 @@
         <v>320</v>
       </c>
       <c r="B325" s="15" t="s">
-        <v>284</v>
-      </c>
-      <c r="C325" s="20" t="s">
-        <v>314</v>
+        <v>323</v>
+      </c>
+      <c r="C325" s="19" t="s">
+        <v>333</v>
       </c>
       <c r="D325" s="5"/>
     </row>
@@ -5909,10 +5986,10 @@
         <v>321</v>
       </c>
       <c r="B326" s="15" t="s">
-        <v>284</v>
-      </c>
-      <c r="C326" s="20" t="s">
-        <v>315</v>
+        <v>323</v>
+      </c>
+      <c r="C326" s="19" t="s">
+        <v>334</v>
       </c>
       <c r="D326" s="5"/>
     </row>
@@ -5922,10 +5999,10 @@
         <v>322</v>
       </c>
       <c r="B327" s="15" t="s">
-        <v>284</v>
-      </c>
-      <c r="C327" s="20" t="s">
-        <v>316</v>
+        <v>323</v>
+      </c>
+      <c r="C327" s="19" t="s">
+        <v>335</v>
       </c>
       <c r="D327" s="5"/>
     </row>
@@ -5935,10 +6012,10 @@
         <v>323</v>
       </c>
       <c r="B328" s="15" t="s">
-        <v>284</v>
-      </c>
-      <c r="C328" s="20" t="s">
-        <v>317</v>
+        <v>323</v>
+      </c>
+      <c r="C328" s="19" t="s">
+        <v>336</v>
       </c>
       <c r="D328" s="5"/>
     </row>
@@ -5948,10 +6025,10 @@
         <v>324</v>
       </c>
       <c r="B329" s="15" t="s">
-        <v>284</v>
-      </c>
-      <c r="C329" s="20" t="s">
-        <v>318</v>
+        <v>323</v>
+      </c>
+      <c r="C329" s="19" t="s">
+        <v>337</v>
       </c>
       <c r="D329" s="5"/>
     </row>
@@ -5961,10 +6038,10 @@
         <v>325</v>
       </c>
       <c r="B330" s="15" t="s">
-        <v>284</v>
-      </c>
-      <c r="C330" s="20" t="s">
-        <v>319</v>
+        <v>323</v>
+      </c>
+      <c r="C330" s="19" t="s">
+        <v>338</v>
       </c>
       <c r="D330" s="5"/>
     </row>
@@ -5974,10 +6051,10 @@
         <v>326</v>
       </c>
       <c r="B331" s="15" t="s">
-        <v>284</v>
-      </c>
-      <c r="C331" s="20" t="s">
-        <v>320</v>
+        <v>323</v>
+      </c>
+      <c r="C331" s="19" t="s">
+        <v>339</v>
       </c>
       <c r="D331" s="5"/>
     </row>
@@ -5987,10 +6064,10 @@
         <v>327</v>
       </c>
       <c r="B332" s="15" t="s">
-        <v>284</v>
-      </c>
-      <c r="C332" s="20" t="s">
-        <v>321</v>
+        <v>323</v>
+      </c>
+      <c r="C332" s="19" t="s">
+        <v>340</v>
       </c>
       <c r="D332" s="5"/>
     </row>
@@ -6000,27 +6077,37 @@
         <v>328</v>
       </c>
       <c r="B333" s="15" t="s">
-        <v>284</v>
-      </c>
-      <c r="C333" s="20" t="s">
-        <v>322</v>
+        <v>323</v>
+      </c>
+      <c r="C333" s="19" t="s">
+        <v>341</v>
       </c>
       <c r="D333" s="5"/>
     </row>
-    <row r="334" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="334" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A334" s="0" t="n">
         <f aca="false">A333 + 1</f>
         <v>329</v>
       </c>
-      <c r="C334" s="19"/>
+      <c r="B334" s="15" t="s">
+        <v>342</v>
+      </c>
+      <c r="C334" s="19" t="s">
+        <v>343</v>
+      </c>
       <c r="D334" s="5"/>
     </row>
-    <row r="335" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="335" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A335" s="0" t="n">
         <f aca="false">A334 + 1</f>
         <v>330</v>
       </c>
-      <c r="C335" s="19"/>
+      <c r="B335" s="15" t="s">
+        <v>342</v>
+      </c>
+      <c r="C335" s="19" t="s">
+        <v>344</v>
+      </c>
       <c r="D335" s="5"/>
     </row>
     <row r="336" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6029,10 +6116,10 @@
         <v>331</v>
       </c>
       <c r="B336" s="15" t="s">
-        <v>323</v>
-      </c>
-      <c r="C336" s="20" t="s">
-        <v>324</v>
+        <v>342</v>
+      </c>
+      <c r="C336" s="19" t="s">
+        <v>345</v>
       </c>
       <c r="D336" s="5"/>
     </row>
@@ -6042,10 +6129,10 @@
         <v>332</v>
       </c>
       <c r="B337" s="15" t="s">
-        <v>323</v>
-      </c>
-      <c r="C337" s="20" t="s">
-        <v>325</v>
+        <v>342</v>
+      </c>
+      <c r="C337" s="19" t="s">
+        <v>346</v>
       </c>
       <c r="D337" s="5"/>
     </row>
@@ -6055,10 +6142,10 @@
         <v>333</v>
       </c>
       <c r="B338" s="15" t="s">
-        <v>323</v>
-      </c>
-      <c r="C338" s="20" t="s">
-        <v>326</v>
+        <v>342</v>
+      </c>
+      <c r="C338" s="19" t="s">
+        <v>347</v>
       </c>
       <c r="D338" s="5"/>
     </row>
@@ -6068,10 +6155,10 @@
         <v>334</v>
       </c>
       <c r="B339" s="15" t="s">
-        <v>323</v>
-      </c>
-      <c r="C339" s="20" t="s">
-        <v>327</v>
+        <v>342</v>
+      </c>
+      <c r="C339" s="19" t="s">
+        <v>348</v>
       </c>
       <c r="D339" s="5"/>
     </row>
@@ -6081,10 +6168,10 @@
         <v>335</v>
       </c>
       <c r="B340" s="15" t="s">
-        <v>323</v>
-      </c>
-      <c r="C340" s="20" t="s">
-        <v>328</v>
+        <v>342</v>
+      </c>
+      <c r="C340" s="19" t="s">
+        <v>349</v>
       </c>
       <c r="D340" s="5"/>
     </row>
@@ -6094,10 +6181,10 @@
         <v>336</v>
       </c>
       <c r="B341" s="15" t="s">
-        <v>323</v>
-      </c>
-      <c r="C341" s="20" t="s">
-        <v>329</v>
+        <v>342</v>
+      </c>
+      <c r="C341" s="19" t="s">
+        <v>350</v>
       </c>
       <c r="D341" s="5"/>
     </row>
@@ -6107,10 +6194,10 @@
         <v>337</v>
       </c>
       <c r="B342" s="15" t="s">
-        <v>323</v>
-      </c>
-      <c r="C342" s="20" t="s">
-        <v>330</v>
+        <v>342</v>
+      </c>
+      <c r="C342" s="19" t="s">
+        <v>351</v>
       </c>
       <c r="D342" s="5"/>
     </row>
@@ -6120,10 +6207,10 @@
         <v>338</v>
       </c>
       <c r="B343" s="15" t="s">
-        <v>323</v>
-      </c>
-      <c r="C343" s="20" t="s">
-        <v>331</v>
+        <v>342</v>
+      </c>
+      <c r="C343" s="19" t="s">
+        <v>352</v>
       </c>
       <c r="D343" s="5"/>
     </row>
@@ -6133,10 +6220,10 @@
         <v>339</v>
       </c>
       <c r="B344" s="15" t="s">
-        <v>323</v>
-      </c>
-      <c r="C344" s="21" t="s">
-        <v>332</v>
+        <v>342</v>
+      </c>
+      <c r="C344" s="19" t="s">
+        <v>353</v>
       </c>
       <c r="D344" s="5"/>
     </row>
@@ -6146,10 +6233,10 @@
         <v>340</v>
       </c>
       <c r="B345" s="15" t="s">
-        <v>323</v>
-      </c>
-      <c r="C345" s="20" t="s">
-        <v>333</v>
+        <v>342</v>
+      </c>
+      <c r="C345" s="19" t="s">
+        <v>354</v>
       </c>
       <c r="D345" s="5"/>
     </row>
@@ -6159,10 +6246,10 @@
         <v>341</v>
       </c>
       <c r="B346" s="15" t="s">
-        <v>323</v>
-      </c>
-      <c r="C346" s="20" t="s">
-        <v>334</v>
+        <v>342</v>
+      </c>
+      <c r="C346" s="19" t="s">
+        <v>355</v>
       </c>
       <c r="D346" s="5"/>
     </row>
@@ -6172,10 +6259,10 @@
         <v>342</v>
       </c>
       <c r="B347" s="15" t="s">
-        <v>323</v>
-      </c>
-      <c r="C347" s="20" t="s">
-        <v>335</v>
+        <v>342</v>
+      </c>
+      <c r="C347" s="19" t="s">
+        <v>356</v>
       </c>
       <c r="D347" s="5"/>
     </row>
@@ -6185,10 +6272,10 @@
         <v>343</v>
       </c>
       <c r="B348" s="15" t="s">
-        <v>323</v>
-      </c>
-      <c r="C348" s="20" t="s">
-        <v>336</v>
+        <v>342</v>
+      </c>
+      <c r="C348" s="19" t="s">
+        <v>357</v>
       </c>
       <c r="D348" s="5"/>
     </row>
@@ -6198,10 +6285,10 @@
         <v>344</v>
       </c>
       <c r="B349" s="15" t="s">
-        <v>323</v>
-      </c>
-      <c r="C349" s="20" t="s">
-        <v>337</v>
+        <v>342</v>
+      </c>
+      <c r="C349" s="19" t="s">
+        <v>358</v>
       </c>
       <c r="D349" s="5"/>
     </row>
@@ -6211,10 +6298,10 @@
         <v>345</v>
       </c>
       <c r="B350" s="15" t="s">
-        <v>323</v>
-      </c>
-      <c r="C350" s="20" t="s">
-        <v>338</v>
+        <v>342</v>
+      </c>
+      <c r="C350" s="19" t="s">
+        <v>359</v>
       </c>
       <c r="D350" s="5"/>
     </row>
@@ -6224,10 +6311,10 @@
         <v>346</v>
       </c>
       <c r="B351" s="15" t="s">
-        <v>323</v>
-      </c>
-      <c r="C351" s="20" t="s">
-        <v>339</v>
+        <v>342</v>
+      </c>
+      <c r="C351" s="19" t="s">
+        <v>360</v>
       </c>
       <c r="D351" s="5"/>
     </row>
@@ -6237,10 +6324,10 @@
         <v>347</v>
       </c>
       <c r="B352" s="15" t="s">
-        <v>323</v>
-      </c>
-      <c r="C352" s="20" t="s">
-        <v>340</v>
+        <v>342</v>
+      </c>
+      <c r="C352" s="19" t="s">
+        <v>361</v>
       </c>
       <c r="D352" s="5"/>
     </row>
@@ -6250,27 +6337,37 @@
         <v>348</v>
       </c>
       <c r="B353" s="15" t="s">
-        <v>323</v>
-      </c>
-      <c r="C353" s="20" t="s">
-        <v>341</v>
+        <v>342</v>
+      </c>
+      <c r="C353" s="19" t="s">
+        <v>362</v>
       </c>
       <c r="D353" s="5"/>
     </row>
-    <row r="354" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="354" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A354" s="0" t="n">
         <f aca="false">A353 + 1</f>
         <v>349</v>
       </c>
-      <c r="C354" s="19"/>
+      <c r="B354" s="15" t="s">
+        <v>342</v>
+      </c>
+      <c r="C354" s="19" t="s">
+        <v>363</v>
+      </c>
       <c r="D354" s="5"/>
     </row>
-    <row r="355" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="355" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A355" s="0" t="n">
         <f aca="false">A354 + 1</f>
         <v>350</v>
       </c>
-      <c r="C355" s="19"/>
+      <c r="B355" s="15" t="s">
+        <v>342</v>
+      </c>
+      <c r="C355" s="19" t="s">
+        <v>364</v>
+      </c>
       <c r="D355" s="5"/>
     </row>
     <row r="356" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6281,8 +6378,8 @@
       <c r="B356" s="15" t="s">
         <v>342</v>
       </c>
-      <c r="C356" s="20" t="s">
-        <v>343</v>
+      <c r="C356" s="19" t="s">
+        <v>365</v>
       </c>
       <c r="D356" s="5"/>
     </row>
@@ -6294,8 +6391,8 @@
       <c r="B357" s="15" t="s">
         <v>342</v>
       </c>
-      <c r="C357" s="20" t="s">
-        <v>344</v>
+      <c r="C357" s="19" t="s">
+        <v>366</v>
       </c>
       <c r="D357" s="5"/>
     </row>
@@ -6307,8 +6404,8 @@
       <c r="B358" s="15" t="s">
         <v>342</v>
       </c>
-      <c r="C358" s="20" t="s">
-        <v>345</v>
+      <c r="C358" s="19" t="s">
+        <v>367</v>
       </c>
       <c r="D358" s="5"/>
     </row>
@@ -6320,8 +6417,8 @@
       <c r="B359" s="15" t="s">
         <v>342</v>
       </c>
-      <c r="C359" s="20" t="s">
-        <v>346</v>
+      <c r="C359" s="19" t="s">
+        <v>368</v>
       </c>
       <c r="D359" s="5"/>
     </row>
@@ -6333,8 +6430,8 @@
       <c r="B360" s="15" t="s">
         <v>342</v>
       </c>
-      <c r="C360" s="20" t="s">
-        <v>347</v>
+      <c r="C360" s="19" t="s">
+        <v>369</v>
       </c>
       <c r="D360" s="5"/>
     </row>
@@ -6346,8 +6443,8 @@
       <c r="B361" s="15" t="s">
         <v>342</v>
       </c>
-      <c r="C361" s="20" t="s">
-        <v>348</v>
+      <c r="C361" s="19" t="s">
+        <v>370</v>
       </c>
       <c r="D361" s="5"/>
     </row>
@@ -6359,8 +6456,8 @@
       <c r="B362" s="15" t="s">
         <v>342</v>
       </c>
-      <c r="C362" s="20" t="s">
-        <v>349</v>
+      <c r="C362" s="19" t="s">
+        <v>371</v>
       </c>
       <c r="D362" s="5"/>
     </row>
@@ -6372,8 +6469,8 @@
       <c r="B363" s="15" t="s">
         <v>342</v>
       </c>
-      <c r="C363" s="20" t="s">
-        <v>350</v>
+      <c r="C363" s="19" t="s">
+        <v>372</v>
       </c>
       <c r="D363" s="5"/>
     </row>
@@ -6385,8 +6482,8 @@
       <c r="B364" s="15" t="s">
         <v>342</v>
       </c>
-      <c r="C364" s="20" t="s">
-        <v>351</v>
+      <c r="C364" s="19" t="s">
+        <v>373</v>
       </c>
       <c r="D364" s="5"/>
     </row>
@@ -6398,8 +6495,8 @@
       <c r="B365" s="15" t="s">
         <v>342</v>
       </c>
-      <c r="C365" s="20" t="s">
-        <v>352</v>
+      <c r="C365" s="19" t="s">
+        <v>374</v>
       </c>
       <c r="D365" s="5"/>
     </row>
@@ -6411,8 +6508,8 @@
       <c r="B366" s="15" t="s">
         <v>342</v>
       </c>
-      <c r="C366" s="20" t="s">
-        <v>353</v>
+      <c r="C366" s="19" t="s">
+        <v>375</v>
       </c>
       <c r="D366" s="5"/>
     </row>
@@ -6424,8 +6521,8 @@
       <c r="B367" s="15" t="s">
         <v>342</v>
       </c>
-      <c r="C367" s="20" t="s">
-        <v>354</v>
+      <c r="C367" s="19" t="s">
+        <v>376</v>
       </c>
       <c r="D367" s="5"/>
     </row>
@@ -6437,8 +6534,8 @@
       <c r="B368" s="15" t="s">
         <v>342</v>
       </c>
-      <c r="C368" s="20" t="s">
-        <v>355</v>
+      <c r="C368" s="19" t="s">
+        <v>376</v>
       </c>
       <c r="D368" s="5"/>
     </row>
@@ -6450,8 +6547,8 @@
       <c r="B369" s="15" t="s">
         <v>342</v>
       </c>
-      <c r="C369" s="20" t="s">
-        <v>356</v>
+      <c r="C369" s="19" t="s">
+        <v>377</v>
       </c>
       <c r="D369" s="5"/>
     </row>
@@ -6463,8 +6560,8 @@
       <c r="B370" s="15" t="s">
         <v>342</v>
       </c>
-      <c r="C370" s="20" t="s">
-        <v>357</v>
+      <c r="C370" s="19" t="s">
+        <v>378</v>
       </c>
       <c r="D370" s="5"/>
     </row>
@@ -6476,8 +6573,8 @@
       <c r="B371" s="15" t="s">
         <v>342</v>
       </c>
-      <c r="C371" s="20" t="s">
-        <v>358</v>
+      <c r="C371" s="19" t="s">
+        <v>379</v>
       </c>
       <c r="D371" s="5"/>
     </row>
@@ -6489,8 +6586,8 @@
       <c r="B372" s="15" t="s">
         <v>342</v>
       </c>
-      <c r="C372" s="20" t="s">
-        <v>359</v>
+      <c r="C372" s="19" t="s">
+        <v>380</v>
       </c>
       <c r="D372" s="5"/>
     </row>
@@ -6502,8 +6599,8 @@
       <c r="B373" s="15" t="s">
         <v>342</v>
       </c>
-      <c r="C373" s="20" t="s">
-        <v>360</v>
+      <c r="C373" s="19" t="s">
+        <v>381</v>
       </c>
       <c r="D373" s="5"/>
     </row>
@@ -6515,8 +6612,8 @@
       <c r="B374" s="15" t="s">
         <v>342</v>
       </c>
-      <c r="C374" s="20" t="s">
-        <v>361</v>
+      <c r="C374" s="19" t="s">
+        <v>382</v>
       </c>
       <c r="D374" s="5"/>
     </row>
@@ -6528,8 +6625,8 @@
       <c r="B375" s="15" t="s">
         <v>342</v>
       </c>
-      <c r="C375" s="20" t="s">
-        <v>362</v>
+      <c r="C375" s="19" t="s">
+        <v>383</v>
       </c>
       <c r="D375" s="5"/>
     </row>
@@ -6541,8 +6638,8 @@
       <c r="B376" s="15" t="s">
         <v>342</v>
       </c>
-      <c r="C376" s="20" t="s">
-        <v>363</v>
+      <c r="C376" s="19" t="s">
+        <v>384</v>
       </c>
       <c r="D376" s="5"/>
     </row>
@@ -6554,8 +6651,8 @@
       <c r="B377" s="15" t="s">
         <v>342</v>
       </c>
-      <c r="C377" s="20" t="s">
-        <v>364</v>
+      <c r="C377" s="19" t="s">
+        <v>385</v>
       </c>
       <c r="D377" s="5"/>
     </row>
@@ -6565,10 +6662,10 @@
         <v>373</v>
       </c>
       <c r="B378" s="15" t="s">
-        <v>342</v>
-      </c>
-      <c r="C378" s="20" t="s">
-        <v>365</v>
+        <v>386</v>
+      </c>
+      <c r="C378" s="19" t="s">
+        <v>387</v>
       </c>
       <c r="D378" s="5"/>
     </row>
@@ -6578,10 +6675,10 @@
         <v>374</v>
       </c>
       <c r="B379" s="15" t="s">
-        <v>342</v>
-      </c>
-      <c r="C379" s="20" t="s">
-        <v>366</v>
+        <v>386</v>
+      </c>
+      <c r="C379" s="19" t="s">
+        <v>388</v>
       </c>
       <c r="D379" s="5"/>
     </row>
@@ -6591,10 +6688,10 @@
         <v>375</v>
       </c>
       <c r="B380" s="15" t="s">
-        <v>342</v>
-      </c>
-      <c r="C380" s="20" t="s">
-        <v>367</v>
+        <v>386</v>
+      </c>
+      <c r="C380" s="19" t="s">
+        <v>389</v>
       </c>
       <c r="D380" s="5"/>
     </row>
@@ -6604,10 +6701,10 @@
         <v>376</v>
       </c>
       <c r="B381" s="15" t="s">
-        <v>342</v>
-      </c>
-      <c r="C381" s="20" t="s">
-        <v>368</v>
+        <v>386</v>
+      </c>
+      <c r="C381" s="19" t="s">
+        <v>88</v>
       </c>
       <c r="D381" s="5"/>
     </row>
@@ -6617,10 +6714,10 @@
         <v>377</v>
       </c>
       <c r="B382" s="15" t="s">
-        <v>342</v>
-      </c>
-      <c r="C382" s="20" t="s">
-        <v>369</v>
+        <v>386</v>
+      </c>
+      <c r="C382" s="19" t="s">
+        <v>390</v>
       </c>
       <c r="D382" s="5"/>
     </row>
@@ -6630,10 +6727,10 @@
         <v>378</v>
       </c>
       <c r="B383" s="15" t="s">
-        <v>342</v>
-      </c>
-      <c r="C383" s="20" t="s">
-        <v>370</v>
+        <v>386</v>
+      </c>
+      <c r="C383" s="19" t="s">
+        <v>391</v>
       </c>
       <c r="D383" s="5"/>
     </row>
@@ -6643,10 +6740,10 @@
         <v>379</v>
       </c>
       <c r="B384" s="15" t="s">
-        <v>342</v>
-      </c>
-      <c r="C384" s="20" t="s">
-        <v>371</v>
+        <v>392</v>
+      </c>
+      <c r="C384" s="19" t="s">
+        <v>393</v>
       </c>
       <c r="D384" s="5"/>
     </row>
@@ -6656,10 +6753,10 @@
         <v>380</v>
       </c>
       <c r="B385" s="15" t="s">
-        <v>342</v>
-      </c>
-      <c r="C385" s="20" t="s">
-        <v>372</v>
+        <v>392</v>
+      </c>
+      <c r="C385" s="19" t="s">
+        <v>394</v>
       </c>
       <c r="D385" s="5"/>
     </row>
@@ -6669,10 +6766,10 @@
         <v>381</v>
       </c>
       <c r="B386" s="15" t="s">
-        <v>342</v>
-      </c>
-      <c r="C386" s="20" t="s">
-        <v>373</v>
+        <v>392</v>
+      </c>
+      <c r="C386" s="19" t="s">
+        <v>395</v>
       </c>
       <c r="D386" s="5"/>
     </row>
@@ -6682,10 +6779,10 @@
         <v>382</v>
       </c>
       <c r="B387" s="15" t="s">
-        <v>342</v>
-      </c>
-      <c r="C387" s="20" t="s">
-        <v>374</v>
+        <v>392</v>
+      </c>
+      <c r="C387" s="19" t="s">
+        <v>396</v>
       </c>
       <c r="D387" s="5"/>
     </row>
@@ -6695,10 +6792,10 @@
         <v>383</v>
       </c>
       <c r="B388" s="15" t="s">
-        <v>342</v>
-      </c>
-      <c r="C388" s="20" t="s">
-        <v>375</v>
+        <v>392</v>
+      </c>
+      <c r="C388" s="19" t="s">
+        <v>397</v>
       </c>
       <c r="D388" s="5"/>
     </row>
@@ -6708,10 +6805,10 @@
         <v>384</v>
       </c>
       <c r="B389" s="15" t="s">
-        <v>342</v>
-      </c>
-      <c r="C389" s="20" t="s">
-        <v>376</v>
+        <v>392</v>
+      </c>
+      <c r="C389" s="19" t="s">
+        <v>398</v>
       </c>
       <c r="D389" s="5"/>
     </row>
@@ -6721,10 +6818,10 @@
         <v>385</v>
       </c>
       <c r="B390" s="15" t="s">
-        <v>342</v>
-      </c>
-      <c r="C390" s="20" t="s">
-        <v>376</v>
+        <v>392</v>
+      </c>
+      <c r="C390" s="19" t="s">
+        <v>399</v>
       </c>
       <c r="D390" s="5"/>
     </row>
@@ -6734,10 +6831,10 @@
         <v>386</v>
       </c>
       <c r="B391" s="15" t="s">
-        <v>342</v>
-      </c>
-      <c r="C391" s="20" t="s">
-        <v>377</v>
+        <v>392</v>
+      </c>
+      <c r="C391" s="19" t="s">
+        <v>272</v>
       </c>
       <c r="D391" s="5"/>
     </row>
@@ -6747,10 +6844,10 @@
         <v>387</v>
       </c>
       <c r="B392" s="15" t="s">
-        <v>342</v>
-      </c>
-      <c r="C392" s="20" t="s">
-        <v>378</v>
+        <v>392</v>
+      </c>
+      <c r="C392" s="19" t="s">
+        <v>400</v>
       </c>
       <c r="D392" s="5"/>
     </row>
@@ -6760,10 +6857,10 @@
         <v>388</v>
       </c>
       <c r="B393" s="15" t="s">
-        <v>342</v>
-      </c>
-      <c r="C393" s="20" t="s">
-        <v>379</v>
+        <v>392</v>
+      </c>
+      <c r="C393" s="19" t="s">
+        <v>401</v>
       </c>
       <c r="D393" s="5"/>
     </row>
@@ -6773,10 +6870,10 @@
         <v>389</v>
       </c>
       <c r="B394" s="15" t="s">
-        <v>342</v>
-      </c>
-      <c r="C394" s="20" t="s">
-        <v>380</v>
+        <v>392</v>
+      </c>
+      <c r="C394" s="19" t="s">
+        <v>402</v>
       </c>
       <c r="D394" s="5"/>
     </row>
@@ -6786,10 +6883,10 @@
         <v>390</v>
       </c>
       <c r="B395" s="15" t="s">
-        <v>342</v>
-      </c>
-      <c r="C395" s="20" t="s">
-        <v>381</v>
+        <v>392</v>
+      </c>
+      <c r="C395" s="19" t="s">
+        <v>403</v>
       </c>
       <c r="D395" s="5"/>
     </row>
@@ -6799,10 +6896,10 @@
         <v>391</v>
       </c>
       <c r="B396" s="15" t="s">
-        <v>342</v>
-      </c>
-      <c r="C396" s="20" t="s">
-        <v>382</v>
+        <v>392</v>
+      </c>
+      <c r="C396" s="19" t="s">
+        <v>404</v>
       </c>
       <c r="D396" s="5"/>
     </row>
@@ -6812,10 +6909,10 @@
         <v>392</v>
       </c>
       <c r="B397" s="15" t="s">
-        <v>342</v>
-      </c>
-      <c r="C397" s="20" t="s">
-        <v>383</v>
+        <v>392</v>
+      </c>
+      <c r="C397" s="19" t="s">
+        <v>405</v>
       </c>
       <c r="D397" s="5"/>
     </row>
@@ -6825,10 +6922,10 @@
         <v>393</v>
       </c>
       <c r="B398" s="15" t="s">
-        <v>342</v>
-      </c>
-      <c r="C398" s="20" t="s">
-        <v>384</v>
+        <v>392</v>
+      </c>
+      <c r="C398" s="19" t="s">
+        <v>406</v>
       </c>
       <c r="D398" s="5"/>
     </row>
@@ -6838,27 +6935,37 @@
         <v>394</v>
       </c>
       <c r="B399" s="15" t="s">
-        <v>342</v>
-      </c>
-      <c r="C399" s="20" t="s">
-        <v>385</v>
+        <v>392</v>
+      </c>
+      <c r="C399" s="19" t="s">
+        <v>407</v>
       </c>
       <c r="D399" s="5"/>
     </row>
-    <row r="400" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="400" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A400" s="0" t="n">
         <f aca="false">A399 + 1</f>
         <v>395</v>
       </c>
-      <c r="C400" s="19"/>
+      <c r="B400" s="15" t="s">
+        <v>392</v>
+      </c>
+      <c r="C400" s="19" t="s">
+        <v>408</v>
+      </c>
       <c r="D400" s="5"/>
     </row>
-    <row r="401" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="401" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A401" s="0" t="n">
         <f aca="false">A400 + 1</f>
         <v>396</v>
       </c>
-      <c r="C401" s="19"/>
+      <c r="B401" s="15" t="s">
+        <v>392</v>
+      </c>
+      <c r="C401" s="19" t="s">
+        <v>409</v>
+      </c>
       <c r="D401" s="5"/>
     </row>
     <row r="402" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6867,10 +6974,10 @@
         <v>397</v>
       </c>
       <c r="B402" s="15" t="s">
-        <v>386</v>
-      </c>
-      <c r="C402" s="20" t="s">
-        <v>387</v>
+        <v>392</v>
+      </c>
+      <c r="C402" s="19" t="s">
+        <v>410</v>
       </c>
       <c r="D402" s="5"/>
     </row>
@@ -6880,10 +6987,10 @@
         <v>398</v>
       </c>
       <c r="B403" s="15" t="s">
-        <v>386</v>
-      </c>
-      <c r="C403" s="20" t="s">
-        <v>388</v>
+        <v>392</v>
+      </c>
+      <c r="C403" s="19" t="s">
+        <v>411</v>
       </c>
       <c r="D403" s="5"/>
     </row>
@@ -6893,10 +7000,10 @@
         <v>399</v>
       </c>
       <c r="B404" s="15" t="s">
-        <v>386</v>
-      </c>
-      <c r="C404" s="20" t="s">
-        <v>389</v>
+        <v>392</v>
+      </c>
+      <c r="C404" s="19" t="s">
+        <v>412</v>
       </c>
       <c r="D404" s="5"/>
     </row>
@@ -6906,10 +7013,10 @@
         <v>400</v>
       </c>
       <c r="B405" s="15" t="s">
-        <v>386</v>
-      </c>
-      <c r="C405" s="20" t="s">
-        <v>88</v>
+        <v>392</v>
+      </c>
+      <c r="C405" s="19" t="s">
+        <v>413</v>
       </c>
       <c r="D405" s="5"/>
     </row>
@@ -6919,10 +7026,10 @@
         <v>401</v>
       </c>
       <c r="B406" s="15" t="s">
-        <v>386</v>
-      </c>
-      <c r="C406" s="20" t="s">
-        <v>390</v>
+        <v>392</v>
+      </c>
+      <c r="C406" s="19" t="s">
+        <v>414</v>
       </c>
       <c r="D406" s="5"/>
     </row>
@@ -6932,27 +7039,37 @@
         <v>402</v>
       </c>
       <c r="B407" s="15" t="s">
-        <v>386</v>
-      </c>
-      <c r="C407" s="20" t="s">
-        <v>391</v>
+        <v>392</v>
+      </c>
+      <c r="C407" s="19" t="s">
+        <v>415</v>
       </c>
       <c r="D407" s="5"/>
     </row>
-    <row r="408" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="408" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A408" s="0" t="n">
         <f aca="false">A407 + 1</f>
         <v>403</v>
       </c>
-      <c r="C408" s="19"/>
+      <c r="B408" s="15" t="s">
+        <v>392</v>
+      </c>
+      <c r="C408" s="19" t="s">
+        <v>416</v>
+      </c>
       <c r="D408" s="5"/>
     </row>
-    <row r="409" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="409" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A409" s="0" t="n">
         <f aca="false">A408 + 1</f>
         <v>404</v>
       </c>
-      <c r="C409" s="19"/>
+      <c r="B409" s="15" t="s">
+        <v>392</v>
+      </c>
+      <c r="C409" s="19" t="s">
+        <v>417</v>
+      </c>
       <c r="D409" s="5"/>
     </row>
     <row r="410" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6963,8 +7080,8 @@
       <c r="B410" s="15" t="s">
         <v>392</v>
       </c>
-      <c r="C410" s="20" t="s">
-        <v>393</v>
+      <c r="C410" s="19" t="s">
+        <v>418</v>
       </c>
       <c r="D410" s="5"/>
     </row>
@@ -6976,8 +7093,8 @@
       <c r="B411" s="15" t="s">
         <v>392</v>
       </c>
-      <c r="C411" s="20" t="s">
-        <v>394</v>
+      <c r="C411" s="19" t="s">
+        <v>419</v>
       </c>
       <c r="D411" s="5"/>
     </row>
@@ -6989,8 +7106,8 @@
       <c r="B412" s="15" t="s">
         <v>392</v>
       </c>
-      <c r="C412" s="20" t="s">
-        <v>395</v>
+      <c r="C412" s="19" t="s">
+        <v>420</v>
       </c>
       <c r="D412" s="5"/>
     </row>
@@ -7002,8 +7119,8 @@
       <c r="B413" s="15" t="s">
         <v>392</v>
       </c>
-      <c r="C413" s="20" t="s">
-        <v>396</v>
+      <c r="C413" s="19" t="s">
+        <v>421</v>
       </c>
       <c r="D413" s="5"/>
     </row>
@@ -7015,8 +7132,8 @@
       <c r="B414" s="15" t="s">
         <v>392</v>
       </c>
-      <c r="C414" s="20" t="s">
-        <v>397</v>
+      <c r="C414" s="19" t="s">
+        <v>422</v>
       </c>
       <c r="D414" s="5"/>
     </row>
@@ -7028,8 +7145,8 @@
       <c r="B415" s="15" t="s">
         <v>392</v>
       </c>
-      <c r="C415" s="20" t="s">
-        <v>398</v>
+      <c r="C415" s="19" t="s">
+        <v>423</v>
       </c>
       <c r="D415" s="5"/>
     </row>
@@ -7041,8 +7158,8 @@
       <c r="B416" s="15" t="s">
         <v>392</v>
       </c>
-      <c r="C416" s="20" t="s">
-        <v>399</v>
+      <c r="C416" s="19" t="s">
+        <v>424</v>
       </c>
       <c r="D416" s="5"/>
     </row>
@@ -7054,8 +7171,8 @@
       <c r="B417" s="15" t="s">
         <v>392</v>
       </c>
-      <c r="C417" s="20" t="s">
-        <v>272</v>
+      <c r="C417" s="19" t="s">
+        <v>425</v>
       </c>
       <c r="D417" s="5"/>
     </row>
@@ -7067,8 +7184,8 @@
       <c r="B418" s="15" t="s">
         <v>392</v>
       </c>
-      <c r="C418" s="20" t="s">
-        <v>400</v>
+      <c r="C418" s="19" t="s">
+        <v>426</v>
       </c>
       <c r="D418" s="5"/>
     </row>
@@ -7080,8 +7197,8 @@
       <c r="B419" s="15" t="s">
         <v>392</v>
       </c>
-      <c r="C419" s="20" t="s">
-        <v>401</v>
+      <c r="C419" s="19" t="s">
+        <v>427</v>
       </c>
       <c r="D419" s="5"/>
     </row>
@@ -7093,8 +7210,8 @@
       <c r="B420" s="15" t="s">
         <v>392</v>
       </c>
-      <c r="C420" s="20" t="s">
-        <v>402</v>
+      <c r="C420" s="19" t="s">
+        <v>428</v>
       </c>
       <c r="D420" s="5"/>
     </row>
@@ -7106,8 +7223,8 @@
       <c r="B421" s="15" t="s">
         <v>392</v>
       </c>
-      <c r="C421" s="20" t="s">
-        <v>403</v>
+      <c r="C421" s="19" t="s">
+        <v>429</v>
       </c>
       <c r="D421" s="5"/>
     </row>
@@ -7119,8 +7236,8 @@
       <c r="B422" s="15" t="s">
         <v>392</v>
       </c>
-      <c r="C422" s="20" t="s">
-        <v>404</v>
+      <c r="C422" s="19" t="s">
+        <v>430</v>
       </c>
       <c r="D422" s="5"/>
     </row>
@@ -7132,8 +7249,8 @@
       <c r="B423" s="15" t="s">
         <v>392</v>
       </c>
-      <c r="C423" s="20" t="s">
-        <v>405</v>
+      <c r="C423" s="19" t="s">
+        <v>431</v>
       </c>
       <c r="D423" s="5"/>
     </row>
@@ -7145,8 +7262,8 @@
       <c r="B424" s="15" t="s">
         <v>392</v>
       </c>
-      <c r="C424" s="20" t="s">
-        <v>406</v>
+      <c r="C424" s="19" t="s">
+        <v>432</v>
       </c>
       <c r="D424" s="5"/>
     </row>
@@ -7158,8 +7275,8 @@
       <c r="B425" s="15" t="s">
         <v>392</v>
       </c>
-      <c r="C425" s="20" t="s">
-        <v>407</v>
+      <c r="C425" s="19" t="s">
+        <v>433</v>
       </c>
       <c r="D425" s="5"/>
     </row>
@@ -7171,8 +7288,8 @@
       <c r="B426" s="15" t="s">
         <v>392</v>
       </c>
-      <c r="C426" s="20" t="s">
-        <v>408</v>
+      <c r="C426" s="19" t="s">
+        <v>434</v>
       </c>
       <c r="D426" s="5"/>
     </row>
@@ -7184,8 +7301,8 @@
       <c r="B427" s="15" t="s">
         <v>392</v>
       </c>
-      <c r="C427" s="20" t="s">
-        <v>409</v>
+      <c r="C427" s="19" t="s">
+        <v>435</v>
       </c>
       <c r="D427" s="5"/>
     </row>
@@ -7197,8 +7314,8 @@
       <c r="B428" s="15" t="s">
         <v>392</v>
       </c>
-      <c r="C428" s="20" t="s">
-        <v>410</v>
+      <c r="C428" s="19" t="s">
+        <v>436</v>
       </c>
       <c r="D428" s="5"/>
     </row>
@@ -7210,8 +7327,8 @@
       <c r="B429" s="15" t="s">
         <v>392</v>
       </c>
-      <c r="C429" s="20" t="s">
-        <v>411</v>
+      <c r="C429" s="19" t="s">
+        <v>437</v>
       </c>
       <c r="D429" s="5"/>
     </row>
@@ -7223,8 +7340,8 @@
       <c r="B430" s="15" t="s">
         <v>392</v>
       </c>
-      <c r="C430" s="20" t="s">
-        <v>412</v>
+      <c r="C430" s="19" t="s">
+        <v>438</v>
       </c>
       <c r="D430" s="5"/>
     </row>
@@ -7236,8 +7353,8 @@
       <c r="B431" s="15" t="s">
         <v>392</v>
       </c>
-      <c r="C431" s="20" t="s">
-        <v>413</v>
+      <c r="C431" s="19" t="s">
+        <v>439</v>
       </c>
       <c r="D431" s="5"/>
     </row>
@@ -7249,8 +7366,8 @@
       <c r="B432" s="15" t="s">
         <v>392</v>
       </c>
-      <c r="C432" s="20" t="s">
-        <v>414</v>
+      <c r="C432" s="19" t="s">
+        <v>440</v>
       </c>
       <c r="D432" s="5"/>
     </row>
@@ -7262,8 +7379,8 @@
       <c r="B433" s="15" t="s">
         <v>392</v>
       </c>
-      <c r="C433" s="20" t="s">
-        <v>415</v>
+      <c r="C433" s="19" t="s">
+        <v>441</v>
       </c>
       <c r="D433" s="5"/>
     </row>
@@ -7275,8 +7392,8 @@
       <c r="B434" s="15" t="s">
         <v>392</v>
       </c>
-      <c r="C434" s="20" t="s">
-        <v>416</v>
+      <c r="C434" s="19" t="s">
+        <v>442</v>
       </c>
       <c r="D434" s="5"/>
     </row>
@@ -7288,8 +7405,8 @@
       <c r="B435" s="15" t="s">
         <v>392</v>
       </c>
-      <c r="C435" s="20" t="s">
-        <v>417</v>
+      <c r="C435" s="19" t="s">
+        <v>443</v>
       </c>
       <c r="D435" s="5"/>
     </row>
@@ -7301,8 +7418,8 @@
       <c r="B436" s="15" t="s">
         <v>392</v>
       </c>
-      <c r="C436" s="20" t="s">
-        <v>418</v>
+      <c r="C436" s="19" t="s">
+        <v>444</v>
       </c>
       <c r="D436" s="5"/>
     </row>
@@ -7314,8 +7431,8 @@
       <c r="B437" s="15" t="s">
         <v>392</v>
       </c>
-      <c r="C437" s="20" t="s">
-        <v>419</v>
+      <c r="C437" s="19" t="s">
+        <v>445</v>
       </c>
       <c r="D437" s="5"/>
     </row>
@@ -7327,8 +7444,8 @@
       <c r="B438" s="15" t="s">
         <v>392</v>
       </c>
-      <c r="C438" s="20" t="s">
-        <v>420</v>
+      <c r="C438" s="19" t="s">
+        <v>446</v>
       </c>
       <c r="D438" s="5"/>
     </row>
@@ -7340,8 +7457,8 @@
       <c r="B439" s="15" t="s">
         <v>392</v>
       </c>
-      <c r="C439" s="20" t="s">
-        <v>421</v>
+      <c r="C439" s="19" t="s">
+        <v>447</v>
       </c>
       <c r="D439" s="5"/>
     </row>
@@ -7353,8 +7470,8 @@
       <c r="B440" s="15" t="s">
         <v>392</v>
       </c>
-      <c r="C440" s="20" t="s">
-        <v>422</v>
+      <c r="C440" s="19" t="s">
+        <v>448</v>
       </c>
       <c r="D440" s="5"/>
     </row>
@@ -7366,8 +7483,8 @@
       <c r="B441" s="15" t="s">
         <v>392</v>
       </c>
-      <c r="C441" s="20" t="s">
-        <v>423</v>
+      <c r="C441" s="19" t="s">
+        <v>449</v>
       </c>
       <c r="D441" s="5"/>
     </row>
@@ -7379,8 +7496,8 @@
       <c r="B442" s="15" t="s">
         <v>392</v>
       </c>
-      <c r="C442" s="20" t="s">
-        <v>424</v>
+      <c r="C442" s="19" t="s">
+        <v>450</v>
       </c>
       <c r="D442" s="5"/>
     </row>
@@ -7392,8 +7509,8 @@
       <c r="B443" s="15" t="s">
         <v>392</v>
       </c>
-      <c r="C443" s="20" t="s">
-        <v>425</v>
+      <c r="C443" s="19" t="s">
+        <v>451</v>
       </c>
       <c r="D443" s="5"/>
     </row>
@@ -7403,10 +7520,10 @@
         <v>439</v>
       </c>
       <c r="B444" s="15" t="s">
-        <v>392</v>
-      </c>
-      <c r="C444" s="20" t="s">
-        <v>426</v>
+        <v>452</v>
+      </c>
+      <c r="C444" s="19" t="s">
+        <v>453</v>
       </c>
       <c r="D444" s="5"/>
     </row>
@@ -7416,10 +7533,10 @@
         <v>440</v>
       </c>
       <c r="B445" s="15" t="s">
-        <v>392</v>
-      </c>
-      <c r="C445" s="20" t="s">
-        <v>427</v>
+        <v>452</v>
+      </c>
+      <c r="C445" s="19" t="s">
+        <v>454</v>
       </c>
       <c r="D445" s="5"/>
     </row>
@@ -7429,10 +7546,10 @@
         <v>441</v>
       </c>
       <c r="B446" s="15" t="s">
-        <v>392</v>
-      </c>
-      <c r="C446" s="20" t="s">
-        <v>428</v>
+        <v>452</v>
+      </c>
+      <c r="C446" s="19" t="s">
+        <v>455</v>
       </c>
       <c r="D446" s="5"/>
     </row>
@@ -7442,10 +7559,10 @@
         <v>442</v>
       </c>
       <c r="B447" s="15" t="s">
-        <v>392</v>
-      </c>
-      <c r="C447" s="20" t="s">
-        <v>429</v>
+        <v>452</v>
+      </c>
+      <c r="C447" s="19" t="s">
+        <v>456</v>
       </c>
       <c r="D447" s="5"/>
     </row>
@@ -7455,10 +7572,10 @@
         <v>443</v>
       </c>
       <c r="B448" s="15" t="s">
-        <v>392</v>
-      </c>
-      <c r="C448" s="20" t="s">
-        <v>430</v>
+        <v>452</v>
+      </c>
+      <c r="C448" s="19" t="s">
+        <v>457</v>
       </c>
       <c r="D448" s="5"/>
     </row>
@@ -7468,10 +7585,10 @@
         <v>444</v>
       </c>
       <c r="B449" s="15" t="s">
-        <v>392</v>
-      </c>
-      <c r="C449" s="20" t="s">
-        <v>431</v>
+        <v>452</v>
+      </c>
+      <c r="C449" s="19" t="s">
+        <v>458</v>
       </c>
       <c r="D449" s="5"/>
     </row>
@@ -7481,10 +7598,10 @@
         <v>445</v>
       </c>
       <c r="B450" s="15" t="s">
-        <v>392</v>
-      </c>
-      <c r="C450" s="20" t="s">
-        <v>432</v>
+        <v>452</v>
+      </c>
+      <c r="C450" s="19" t="s">
+        <v>459</v>
       </c>
       <c r="D450" s="5"/>
     </row>
@@ -7494,10 +7611,10 @@
         <v>446</v>
       </c>
       <c r="B451" s="15" t="s">
-        <v>392</v>
-      </c>
-      <c r="C451" s="20" t="s">
-        <v>433</v>
+        <v>452</v>
+      </c>
+      <c r="C451" s="19" t="s">
+        <v>460</v>
       </c>
       <c r="D451" s="5"/>
     </row>
@@ -7507,10 +7624,10 @@
         <v>447</v>
       </c>
       <c r="B452" s="15" t="s">
-        <v>392</v>
-      </c>
-      <c r="C452" s="20" t="s">
-        <v>434</v>
+        <v>452</v>
+      </c>
+      <c r="C452" s="19" t="s">
+        <v>461</v>
       </c>
       <c r="D452" s="5"/>
     </row>
@@ -7520,367 +7637,54 @@
         <v>448</v>
       </c>
       <c r="B453" s="15" t="s">
-        <v>392</v>
-      </c>
-      <c r="C453" s="20" t="s">
-        <v>435</v>
+        <v>452</v>
+      </c>
+      <c r="C453" s="19" t="s">
+        <v>462</v>
       </c>
       <c r="D453" s="5"/>
     </row>
-    <row r="454" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A454" s="0" t="n">
-        <f aca="false">A453 + 1</f>
-        <v>449</v>
-      </c>
-      <c r="B454" s="15" t="s">
-        <v>392</v>
-      </c>
-      <c r="C454" s="20" t="s">
-        <v>436</v>
-      </c>
+    <row r="454" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D454" s="5"/>
     </row>
-    <row r="455" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A455" s="0" t="n">
-        <f aca="false">A454 + 1</f>
-        <v>450</v>
-      </c>
-      <c r="B455" s="15" t="s">
-        <v>392</v>
-      </c>
-      <c r="C455" s="20" t="s">
-        <v>437</v>
-      </c>
+    <row r="455" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D455" s="5"/>
     </row>
-    <row r="456" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A456" s="0" t="n">
-        <f aca="false">A455 + 1</f>
-        <v>451</v>
-      </c>
-      <c r="B456" s="15" t="s">
-        <v>392</v>
-      </c>
-      <c r="C456" s="20" t="s">
-        <v>438</v>
-      </c>
+    <row r="456" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D456" s="5"/>
     </row>
-    <row r="457" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A457" s="0" t="n">
-        <f aca="false">A456 + 1</f>
-        <v>452</v>
-      </c>
-      <c r="B457" s="15" t="s">
-        <v>392</v>
-      </c>
-      <c r="C457" s="20" t="s">
-        <v>439</v>
-      </c>
+    <row r="457" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D457" s="5"/>
     </row>
-    <row r="458" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A458" s="0" t="n">
-        <f aca="false">A457 + 1</f>
-        <v>453</v>
-      </c>
-      <c r="B458" s="15" t="s">
-        <v>392</v>
-      </c>
-      <c r="C458" s="20" t="s">
-        <v>440</v>
-      </c>
+    <row r="458" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D458" s="5"/>
     </row>
-    <row r="459" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A459" s="0" t="n">
-        <f aca="false">A458 + 1</f>
-        <v>454</v>
-      </c>
-      <c r="B459" s="15" t="s">
-        <v>392</v>
-      </c>
-      <c r="C459" s="20" t="s">
-        <v>441</v>
-      </c>
+    <row r="459" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D459" s="5"/>
     </row>
-    <row r="460" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A460" s="0" t="n">
-        <f aca="false">A459 + 1</f>
-        <v>455</v>
-      </c>
-      <c r="B460" s="15" t="s">
-        <v>392</v>
-      </c>
-      <c r="C460" s="20" t="s">
-        <v>442</v>
-      </c>
+    <row r="460" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D460" s="5"/>
     </row>
-    <row r="461" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A461" s="0" t="n">
-        <f aca="false">A460 + 1</f>
-        <v>456</v>
-      </c>
-      <c r="B461" s="15" t="s">
-        <v>392</v>
-      </c>
-      <c r="C461" s="20" t="s">
-        <v>443</v>
-      </c>
+    <row r="461" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D461" s="5"/>
     </row>
-    <row r="462" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A462" s="0" t="n">
-        <f aca="false">A461 + 1</f>
-        <v>457</v>
-      </c>
-      <c r="B462" s="15" t="s">
-        <v>392</v>
-      </c>
-      <c r="C462" s="20" t="s">
-        <v>444</v>
-      </c>
+    <row r="462" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D462" s="5"/>
     </row>
-    <row r="463" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A463" s="0" t="n">
-        <f aca="false">A462 + 1</f>
-        <v>458</v>
-      </c>
-      <c r="B463" s="15" t="s">
-        <v>392</v>
-      </c>
-      <c r="C463" s="20" t="s">
-        <v>445</v>
-      </c>
+    <row r="463" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D463" s="5"/>
     </row>
-    <row r="464" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A464" s="0" t="n">
-        <f aca="false">A463 + 1</f>
-        <v>459</v>
-      </c>
-      <c r="B464" s="15" t="s">
-        <v>392</v>
-      </c>
-      <c r="C464" s="20" t="s">
-        <v>446</v>
-      </c>
+    <row r="464" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D464" s="5"/>
     </row>
-    <row r="465" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A465" s="0" t="n">
-        <f aca="false">A464 + 1</f>
-        <v>460</v>
-      </c>
-      <c r="B465" s="15" t="s">
-        <v>392</v>
-      </c>
-      <c r="C465" s="20" t="s">
-        <v>447</v>
-      </c>
+    <row r="465" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D465" s="5"/>
     </row>
-    <row r="466" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A466" s="0" t="n">
-        <f aca="false">A465 + 1</f>
-        <v>461</v>
-      </c>
-      <c r="B466" s="15" t="s">
-        <v>392</v>
-      </c>
-      <c r="C466" s="20" t="s">
-        <v>448</v>
-      </c>
+    <row r="466" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D466" s="5"/>
     </row>
-    <row r="467" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A467" s="0" t="n">
-        <f aca="false">A466 + 1</f>
-        <v>462</v>
-      </c>
-      <c r="B467" s="15" t="s">
-        <v>392</v>
-      </c>
-      <c r="C467" s="20" t="s">
-        <v>449</v>
-      </c>
+    <row r="467" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D467" s="5"/>
-    </row>
-    <row r="468" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A468" s="0" t="n">
-        <f aca="false">A467 + 1</f>
-        <v>463</v>
-      </c>
-      <c r="B468" s="15" t="s">
-        <v>392</v>
-      </c>
-      <c r="C468" s="20" t="s">
-        <v>450</v>
-      </c>
-      <c r="D468" s="5"/>
-    </row>
-    <row r="469" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A469" s="0" t="n">
-        <f aca="false">A468 + 1</f>
-        <v>464</v>
-      </c>
-      <c r="B469" s="15" t="s">
-        <v>392</v>
-      </c>
-      <c r="C469" s="20" t="s">
-        <v>451</v>
-      </c>
-      <c r="D469" s="5"/>
-    </row>
-    <row r="470" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A470" s="0" t="n">
-        <f aca="false">A469 + 1</f>
-        <v>465</v>
-      </c>
-      <c r="C470" s="19"/>
-      <c r="D470" s="5"/>
-    </row>
-    <row r="471" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A471" s="0" t="n">
-        <f aca="false">A470 + 1</f>
-        <v>466</v>
-      </c>
-      <c r="B471" s="15"/>
-      <c r="C471" s="19"/>
-      <c r="D471" s="5"/>
-    </row>
-    <row r="472" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A472" s="0" t="n">
-        <f aca="false">A471 + 1</f>
-        <v>467</v>
-      </c>
-      <c r="B472" s="15" t="s">
-        <v>452</v>
-      </c>
-      <c r="C472" s="20" t="s">
-        <v>453</v>
-      </c>
-      <c r="D472" s="5"/>
-    </row>
-    <row r="473" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A473" s="0" t="n">
-        <f aca="false">A472 + 1</f>
-        <v>468</v>
-      </c>
-      <c r="B473" s="15" t="s">
-        <v>452</v>
-      </c>
-      <c r="C473" s="20" t="s">
-        <v>454</v>
-      </c>
-      <c r="D473" s="5"/>
-    </row>
-    <row r="474" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A474" s="0" t="n">
-        <f aca="false">A473 + 1</f>
-        <v>469</v>
-      </c>
-      <c r="B474" s="15" t="s">
-        <v>452</v>
-      </c>
-      <c r="C474" s="20" t="s">
-        <v>455</v>
-      </c>
-      <c r="D474" s="5"/>
-    </row>
-    <row r="475" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A475" s="0" t="n">
-        <f aca="false">A474 + 1</f>
-        <v>470</v>
-      </c>
-      <c r="B475" s="15" t="s">
-        <v>452</v>
-      </c>
-      <c r="C475" s="20" t="s">
-        <v>456</v>
-      </c>
-      <c r="D475" s="5"/>
-    </row>
-    <row r="476" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A476" s="0" t="n">
-        <f aca="false">A475 + 1</f>
-        <v>471</v>
-      </c>
-      <c r="B476" s="15" t="s">
-        <v>452</v>
-      </c>
-      <c r="C476" s="20" t="s">
-        <v>457</v>
-      </c>
-      <c r="D476" s="5"/>
-    </row>
-    <row r="477" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A477" s="0" t="n">
-        <f aca="false">A476 + 1</f>
-        <v>472</v>
-      </c>
-      <c r="B477" s="15" t="s">
-        <v>452</v>
-      </c>
-      <c r="C477" s="20" t="s">
-        <v>458</v>
-      </c>
-      <c r="D477" s="5"/>
-    </row>
-    <row r="478" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A478" s="0" t="n">
-        <f aca="false">A477 + 1</f>
-        <v>473</v>
-      </c>
-      <c r="B478" s="15" t="s">
-        <v>452</v>
-      </c>
-      <c r="C478" s="20" t="s">
-        <v>459</v>
-      </c>
-      <c r="D478" s="5"/>
-    </row>
-    <row r="479" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A479" s="0" t="n">
-        <f aca="false">A478 + 1</f>
-        <v>474</v>
-      </c>
-      <c r="B479" s="15" t="s">
-        <v>452</v>
-      </c>
-      <c r="C479" s="20" t="s">
-        <v>460</v>
-      </c>
-      <c r="D479" s="5"/>
-    </row>
-    <row r="480" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A480" s="0" t="n">
-        <f aca="false">A479 + 1</f>
-        <v>475</v>
-      </c>
-      <c r="B480" s="15" t="s">
-        <v>452</v>
-      </c>
-      <c r="C480" s="20" t="s">
-        <v>461</v>
-      </c>
-      <c r="D480" s="5"/>
-    </row>
-    <row r="481" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A481" s="0" t="n">
-        <f aca="false">A480 + 1</f>
-        <v>476</v>
-      </c>
-      <c r="B481" s="15" t="s">
-        <v>452</v>
-      </c>
-      <c r="C481" s="20" t="s">
-        <v>462</v>
-      </c>
-      <c r="D481" s="5"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -7921,415 +7725,415 @@
     <hyperlink ref="C39" r:id="rId35" display="Minimum no. of operations required to make an array palindrome"/>
     <hyperlink ref="C40" r:id="rId36" location=":~:text=Method%201%20(Simply%20count%20while,n%20in%20the%20merged%20array." display="Median of 2 sorted arrays of equal size"/>
     <hyperlink ref="C41" r:id="rId37" display="Median of 2 sorted arrays of different size"/>
-    <hyperlink ref="C44" r:id="rId38" display="Spiral traversal on a Matrix"/>
-    <hyperlink ref="C45" r:id="rId39" display="Search an element in a matriix"/>
-    <hyperlink ref="C46" r:id="rId40" display="Find median in a row wise sorted matrix"/>
-    <hyperlink ref="C47" r:id="rId41" display="Find row with maximum no. of 1's"/>
-    <hyperlink ref="C48" r:id="rId42" display="Print elements in sorted order using row-column wise sorted matrix"/>
-    <hyperlink ref="C49" r:id="rId43" display="Maximum size rectangle"/>
-    <hyperlink ref="C50" r:id="rId44" display="Find a specific pair in matrix"/>
-    <hyperlink ref="C51" r:id="rId45" display="Rotate matrix by 90 degrees"/>
-    <hyperlink ref="C52" r:id="rId46" display="Kth smallest element in a row-cpumn wise sorted matrix"/>
-    <hyperlink ref="C53" r:id="rId47" display="Common elements in all rows of a given matrix"/>
-    <hyperlink ref="C56" r:id="rId48" display="Reverse a String"/>
-    <hyperlink ref="C57" r:id="rId49" display="Check whether a String is Palindrome or not"/>
-    <hyperlink ref="C58" r:id="rId50" display="Find Duplicate characters in a string"/>
-    <hyperlink ref="C60" r:id="rId51" display="Write a Code to check whether one string is a rotation of another"/>
-    <hyperlink ref="C61" r:id="rId52" display="Write a Program to check whether a string is a valid shuffle of two strings or not"/>
-    <hyperlink ref="C62" r:id="rId53" display="Count and Say problem"/>
-    <hyperlink ref="C63" r:id="rId54" display="Write a program to find the longest Palindrome in a string.[ Longest palindromic Substring]"/>
-    <hyperlink ref="C64" r:id="rId55" display="Find Longest Recurring Subsequence in String"/>
-    <hyperlink ref="C65" r:id="rId56" display="Print all Subsequences of a string."/>
-    <hyperlink ref="C66" r:id="rId57" display="Print all the permutations of the given string"/>
-    <hyperlink ref="C67" r:id="rId58" display="Split the Binary string into two substring with equal 0’s and 1’s"/>
-    <hyperlink ref="C68" r:id="rId59" display="Word Wrap Problem [VERY IMP]."/>
-    <hyperlink ref="C69" r:id="rId60" display="EDIT Distance [Very Imp]"/>
-    <hyperlink ref="C70" r:id="rId61" display="Find next greater number with same set of digits. [Very Very IMP]"/>
-    <hyperlink ref="C71" r:id="rId62" display="Balanced Parenthesis problem.[Imp]"/>
-    <hyperlink ref="C72" r:id="rId63" display="Word break Problem[ Very Imp]"/>
-    <hyperlink ref="C73" r:id="rId64" display="Rabin Karp Algo"/>
-    <hyperlink ref="C74" r:id="rId65" display="KMP Algo"/>
-    <hyperlink ref="C75" r:id="rId66" display="Convert a Sentence into its equivalent mobile numeric keypad sequence."/>
-    <hyperlink ref="C76" r:id="rId67" display="Minimum number of bracket reversals needed to make an expression balanced."/>
-    <hyperlink ref="C77" r:id="rId68" display="Count All Palindromic Subsequence in a given String."/>
-    <hyperlink ref="C78" r:id="rId69" display="Count of number of given string in 2D character array"/>
-    <hyperlink ref="C79" r:id="rId70" display="Search a Word in a 2D Grid of characters."/>
-    <hyperlink ref="C80" r:id="rId71" display="Boyer Moore Algorithm for Pattern Searching."/>
-    <hyperlink ref="C81" r:id="rId72" display="Converting Roman Numerals to Decimal"/>
-    <hyperlink ref="C82" r:id="rId73" display="Longest Common Prefix"/>
-    <hyperlink ref="C83" r:id="rId74" display="Number of flips to make binary string alternate"/>
-    <hyperlink ref="C84" r:id="rId75" display="Find the first repeated word in string."/>
-    <hyperlink ref="C85" r:id="rId76" display="Minimum number of swaps for bracket balancing."/>
-    <hyperlink ref="C86" r:id="rId77" display="Find the longest common subsequence between two strings."/>
-    <hyperlink ref="C87" r:id="rId78" display="Program to generate all possible valid IP addresses from given  string."/>
-    <hyperlink ref="C88" r:id="rId79" display="Write a program tofind the smallest window that contains all characters of string itself."/>
-    <hyperlink ref="C89" r:id="rId80" display="Rearrange characters in a string such that no two adjacent are same"/>
-    <hyperlink ref="C90" r:id="rId81" display="Minimum characters to be added at front to make string palindrome"/>
-    <hyperlink ref="C91" r:id="rId82" display="Given a sequence of words, print all anagrams together"/>
-    <hyperlink ref="C92" r:id="rId83" display="Find the smallest window in a string containing all characters of another string"/>
-    <hyperlink ref="C93" r:id="rId84" display="Recursively remove all adjacent duplicates"/>
-    <hyperlink ref="C94" r:id="rId85" display="String matching where one string contains wildcard characters"/>
-    <hyperlink ref="C95" r:id="rId86" display="Function to find Number of customers who could not get a computer"/>
-    <hyperlink ref="C96" r:id="rId87" display="Transform One String to Another using Minimum Number of Given Operation"/>
-    <hyperlink ref="C97" r:id="rId88" display="Check if two given strings are isomorphic to each other"/>
-    <hyperlink ref="C98" r:id="rId89" display="Recursively print all sentences that can be formed from list of word lists"/>
-    <hyperlink ref="C101" r:id="rId90" display="Find first and last positions of an element in a sorted array"/>
-    <hyperlink ref="C102" r:id="rId91" display="Find a Fixed Point (Value equal to index) in a given array"/>
-    <hyperlink ref="C103" r:id="rId92" display="Search in a rotated sorted array"/>
-    <hyperlink ref="C104" r:id="rId93" display="square root of an integer"/>
-    <hyperlink ref="C105" r:id="rId94" display="Maximum and minimum of an array using minimum number of comparisons"/>
-    <hyperlink ref="C106" r:id="rId95" location=":~:text=We%20need%20to%20find%20a,set%20of%20points%20is%20minimum.&amp;text=In%20above%20figure%20optimum%20location,is%20minimum%20obtainable%20total%20distance." display="Optimum location of point to minimize total distance"/>
-    <hyperlink ref="C107" r:id="rId96" display="Find the repeating and the missing"/>
-    <hyperlink ref="C108" r:id="rId97" display="find majority element"/>
-    <hyperlink ref="C109" r:id="rId98" display="Searching in an array where adjacent differ by at most k"/>
-    <hyperlink ref="C110" r:id="rId99" display="find a pair with a given difference"/>
-    <hyperlink ref="C111" r:id="rId100" display="find four elements that sum to a given value"/>
-    <hyperlink ref="C112" r:id="rId101" display="maximum sum such that no 2 elements are adjacent"/>
-    <hyperlink ref="C113" r:id="rId102" display="Count triplet with sum smaller than a given value"/>
-    <hyperlink ref="C114" r:id="rId103" display="merge 2 sorted arrays"/>
-    <hyperlink ref="C115" r:id="rId104" display="print all subarrays with 0 sum"/>
-    <hyperlink ref="C116" r:id="rId105" display="Product array Puzzle"/>
-    <hyperlink ref="C117" r:id="rId106" display="Sort array according to count of set bits"/>
-    <hyperlink ref="C118" r:id="rId107" display="minimum no. of swaps required to sort the array"/>
-    <hyperlink ref="C119" r:id="rId108" display="Bishu and Soldiers"/>
-    <hyperlink ref="C120" r:id="rId109" display="Rasta and Kheshtak"/>
-    <hyperlink ref="C121" r:id="rId110" display="Kth smallest number again"/>
-    <hyperlink ref="C122" r:id="rId111" display="Find pivot element in a sorted array"/>
-    <hyperlink ref="C123" r:id="rId112" display="K-th Element of Two Sorted Arrays"/>
-    <hyperlink ref="C124" r:id="rId113" display="Aggressive cows"/>
-    <hyperlink ref="C125" r:id="rId114" display="Book Allocation Problem"/>
-    <hyperlink ref="C126" r:id="rId115" display="EKOSPOJ:"/>
-    <hyperlink ref="C127" r:id="rId116" display="Job Scheduling Algo"/>
-    <hyperlink ref="C128" r:id="rId117" display="Missing Number in AP"/>
-    <hyperlink ref="C129" r:id="rId118" display="Smallest number with atleastn trailing zeroes infactorial"/>
-    <hyperlink ref="C130" r:id="rId119" display="Painters Partition Problem:"/>
-    <hyperlink ref="C131" r:id="rId120" display="ROTI-Prata SPOJ"/>
-    <hyperlink ref="C132" r:id="rId121" display="DoubleHelix SPOJ"/>
-    <hyperlink ref="C133" r:id="rId122" display="Subset Sums"/>
-    <hyperlink ref="C134" r:id="rId123" display="Findthe inversion count"/>
-    <hyperlink ref="C135" r:id="rId124" display="Implement Merge-sort in-place"/>
-    <hyperlink ref="C136" r:id="rId125" display="Partitioning and Sorting Arrays with Many Repeated Entries"/>
-    <hyperlink ref="C139" r:id="rId126" display="Write a Program to reverse the Linked List. (Both Iterative and recursive)"/>
-    <hyperlink ref="C140" r:id="rId127" display="Reverse a Linked List in group of Given Size. [Very Imp]"/>
-    <hyperlink ref="C141" r:id="rId128" display="Write a program to Detect loop in a linked list."/>
-    <hyperlink ref="C142" r:id="rId129" display="Write a program to Delete loop in a linked list."/>
-    <hyperlink ref="C143" r:id="rId130" display="Find the starting point of the loop. "/>
-    <hyperlink ref="C144" r:id="rId131" display="Remove Duplicates in a sorted Linked List."/>
-    <hyperlink ref="C145" r:id="rId132" display="Remove Duplicates in a Un-sorted Linked List."/>
-    <hyperlink ref="C146" r:id="rId133" display="Write a Program to Move the last element to Front in a Linked List."/>
-    <hyperlink ref="C147" r:id="rId134" display="Add “1” to a number represented as a Linked List."/>
-    <hyperlink ref="C148" r:id="rId135" display="Add two numbers represented by linked lists."/>
-    <hyperlink ref="C149" r:id="rId136" display="Intersection of two Sorted Linked List."/>
-    <hyperlink ref="C150" r:id="rId137" display="Intersection Point of two Linked Lists."/>
-    <hyperlink ref="C151" r:id="rId138" display="Merge Sort For Linked lists.[Very Important]"/>
-    <hyperlink ref="C152" r:id="rId139" display="Quicksort for Linked Lists.[Very Important]"/>
-    <hyperlink ref="C153" r:id="rId140" display="Find the middle Element of a linked list."/>
-    <hyperlink ref="C154" r:id="rId141" display="Check if a linked list is a circular linked list."/>
-    <hyperlink ref="C155" r:id="rId142" display="Split a Circular linked list into two halves."/>
-    <hyperlink ref="C156" r:id="rId143" display="Write a Program to check whether the Singly Linked list is a palindrome or not."/>
-    <hyperlink ref="C157" r:id="rId144" display="Deletion from a Circular Linked List."/>
-    <hyperlink ref="C158" r:id="rId145" display="Reverse a Doubly Linked list."/>
-    <hyperlink ref="C159" r:id="rId146" display="Find pairs with a given sum in a DLL."/>
-    <hyperlink ref="C160" r:id="rId147" display="Count triplets in a sorted DLL whose sum is equal to given value “X”."/>
-    <hyperlink ref="C161" r:id="rId148" display="Sort a “k”sorted Doubly Linked list.[Very IMP]"/>
-    <hyperlink ref="C162" r:id="rId149" display="Rotate DoublyLinked list by N nodes."/>
-    <hyperlink ref="C163" r:id="rId150" display="Rotate a Doubly Linked list in group of Given Size.[Very IMP]"/>
-    <hyperlink ref="C166" r:id="rId151" display="Flatten a Linked List"/>
-    <hyperlink ref="C167" r:id="rId152" display="Sort a LL of 0's, 1's and 2's"/>
-    <hyperlink ref="C168" r:id="rId153" display="Clone a linked list with next and random pointer"/>
-    <hyperlink ref="C169" r:id="rId154" display="Merge K sorted Linked list"/>
-    <hyperlink ref="C170" r:id="rId155" display="Multiply 2 no. represented by LL"/>
-    <hyperlink ref="C171" r:id="rId156" display="Delete nodes which have a greater value on right side"/>
-    <hyperlink ref="C172" r:id="rId157" display="Segregate even and odd nodes in a Linked List"/>
-    <hyperlink ref="C173" r:id="rId158" display="Program for n’th node from the end of a Linked List"/>
-    <hyperlink ref="C174" r:id="rId159" display="Find the first non-repeating character from a stream of characters"/>
-    <hyperlink ref="C177" r:id="rId160" display="level order traversal"/>
-    <hyperlink ref="C178" r:id="rId161" display="Reverse Level Order traversal"/>
-    <hyperlink ref="C179" r:id="rId162" display="Height of a tree"/>
-    <hyperlink ref="C180" r:id="rId163" display="Diameter of a tree"/>
-    <hyperlink ref="C181" r:id="rId164" display="Mirror of a tree"/>
-    <hyperlink ref="C182" r:id="rId165" display="Inorder Traversal of a tree both using recursion and Iteration"/>
-    <hyperlink ref="C183" r:id="rId166" display="Preorder Traversal of a tree both using recursion and Iteration"/>
-    <hyperlink ref="C184" r:id="rId167" display="Postorder Traversal of a tree both using recursion and Iteration"/>
-    <hyperlink ref="C185" r:id="rId168" display="Left View of a tree"/>
-    <hyperlink ref="C186" r:id="rId169" display="Right View of Tree"/>
-    <hyperlink ref="C187" r:id="rId170" display="Top View of a tree"/>
-    <hyperlink ref="C188" r:id="rId171" display="Bottom View of a tree"/>
-    <hyperlink ref="C189" r:id="rId172" display="Zig-Zag traversal of a binary tree"/>
-    <hyperlink ref="C190" r:id="rId173" display="Check if a tree is balanced or not"/>
-    <hyperlink ref="C191" r:id="rId174" display="Diagnol Traversal of a Binary tree"/>
-    <hyperlink ref="C192" r:id="rId175" display="Boundary traversal of a Binary tree"/>
-    <hyperlink ref="C193" r:id="rId176" display="Construct Binary Tree from String with Bracket Representation"/>
-    <hyperlink ref="C194" r:id="rId177" display="Convert Binary tree into Doubly Linked List"/>
-    <hyperlink ref="C195" r:id="rId178" display="Convert Binary tree into Sum tree"/>
-    <hyperlink ref="C196" r:id="rId179" display="Construct Binary tree from Inorder and preorder traversal"/>
-    <hyperlink ref="C197" r:id="rId180" location=":~:text=Given%20the%20array%20representation%20of,it%20into%20Binary%20Search%20Tree.&amp;text=Swap%201%3A%20Swap%20node%208,node%209%20with%20node%2010." display="Find minimum swaps required to convert a Binary tree into BST"/>
-    <hyperlink ref="C198" r:id="rId181" display="Check if Binary tree is Sum tree or not"/>
-    <hyperlink ref="C199" r:id="rId182" display="Check if all leaf nodes are at same level or not"/>
-    <hyperlink ref="C200" r:id="rId183" display="Check if a Binary Tree contains duplicate subtrees of size 2 or more [ IMP ]"/>
-    <hyperlink ref="C201" r:id="rId184" display="Check if 2 trees are mirror or not"/>
-    <hyperlink ref="C202" r:id="rId185" display="Sum of Nodes on the Longest path from root to leaf node "/>
-    <hyperlink ref="C203" r:id="rId186" location=":~:text=Since%20the%20graph%20is%20undirected,graph%20is%20connected%2C%20otherwise%20not." display="Check if given graph is tree or not.  [ IMP ]"/>
-    <hyperlink ref="C204" r:id="rId187" display="Find Largest subtree sum in a tree"/>
-    <hyperlink ref="C205" r:id="rId188" display="Maximum Sum of nodes in Binary tree such that no two are adjacent "/>
-    <hyperlink ref="C206" r:id="rId189" display="Print all &quot;K&quot; Sum paths in a Binary tree"/>
-    <hyperlink ref="C207" r:id="rId190" display="Find LCA in a Binary tree"/>
-    <hyperlink ref="C208" r:id="rId191" display="Find distance between 2 nodes in a Binary tree"/>
-    <hyperlink ref="C209" r:id="rId192" display="Kth Ancestor of node in a Binary tree"/>
-    <hyperlink ref="C210" r:id="rId193" display="Find all Duplicate subtrees in a Binary tree [ IMP ]"/>
-    <hyperlink ref="C211" r:id="rId194" display="Tree Isomorphism Problem"/>
-    <hyperlink ref="C214" r:id="rId195" display="Fina a value in a BST"/>
-    <hyperlink ref="C215" r:id="rId196" display="Deletion of a node in a BST"/>
-    <hyperlink ref="C216" r:id="rId197" display="Find min and max value in a BST"/>
-    <hyperlink ref="C217" r:id="rId198" display="Find inorder successor and inorder predecessor in a BST"/>
-    <hyperlink ref="C218" r:id="rId199" display="Check if a tree is a BST or not "/>
-    <hyperlink ref="C219" r:id="rId200" display="Populate Inorder successor of all nodes"/>
-    <hyperlink ref="C220" r:id="rId201" display="Find LCA  of 2 nodes in a BST"/>
-    <hyperlink ref="C221" r:id="rId202" display="Construct BST from preorder traversal"/>
-    <hyperlink ref="C222" r:id="rId203" display="Convert Binary tree into BST"/>
-    <hyperlink ref="C223" r:id="rId204" display="Convert a normal BST into a Balanced BST"/>
-    <hyperlink ref="C224" r:id="rId205" display="Merge two BST [ V.V.V&gt;IMP ]"/>
-    <hyperlink ref="C225" r:id="rId206" display="Find Kth largest element in a BST"/>
-    <hyperlink ref="C226" r:id="rId207" display="Find Kth smallest element in a BST"/>
-    <hyperlink ref="C227" r:id="rId208" display="Count pairs from 2 BST whose sum is equal to given value &quot;X&quot;"/>
-    <hyperlink ref="C228" r:id="rId209" display="Find the median of BST in O(n) time and O(1) space"/>
-    <hyperlink ref="C229" r:id="rId210" display="Count BST ndoes that lie in a given range"/>
-    <hyperlink ref="C230" r:id="rId211" display="Replace every element with the least greater element on its right"/>
-    <hyperlink ref="C231" r:id="rId212" display="Given &quot;n&quot; appointments, find the conflicting appointments"/>
-    <hyperlink ref="C232" r:id="rId213" display="Check preorder is valid or not"/>
-    <hyperlink ref="C233" r:id="rId214" display="Check whether BST contains Dead end"/>
-    <hyperlink ref="C234" r:id="rId215" display="Largest BST in a Binary Tree [ V.V.V.V.V IMP ]"/>
-    <hyperlink ref="C235" r:id="rId216" display="Flatten BST to sorted list"/>
-    <hyperlink ref="C238" r:id="rId217" display="Activity Selection Problem"/>
-    <hyperlink ref="C239" r:id="rId218" display="Job SequencingProblem"/>
-    <hyperlink ref="C240" r:id="rId219" display="Huffman Coding"/>
-    <hyperlink ref="C241" r:id="rId220" display="Water Connection Problem"/>
-    <hyperlink ref="C242" r:id="rId221" display="Fractional Knapsack Problem"/>
-    <hyperlink ref="C243" r:id="rId222" display="Greedy Algorithm to find Minimum number of Coins"/>
-    <hyperlink ref="C244" r:id="rId223" display="Maximum trains for which stoppage can be provided"/>
-    <hyperlink ref="C245" r:id="rId224" display="Minimum Platforms Problem"/>
-    <hyperlink ref="C246" r:id="rId225" display="Buy Maximum Stocks if i stocks can be bought on i-th day"/>
-    <hyperlink ref="C247" r:id="rId226" display="Find the minimum and maximum amount to buy all N candies"/>
-    <hyperlink ref="C248" r:id="rId227" display="Minimize Cash Flow among a given set of friends who have borrowed money from each other"/>
-    <hyperlink ref="C249" r:id="rId228" display="Minimum Cost to cut a board into squares"/>
-    <hyperlink ref="C250" r:id="rId229" display="Check if it is possible to survive on Island"/>
-    <hyperlink ref="C251" r:id="rId230" display="Find maximum meetings in one room"/>
-    <hyperlink ref="C252" r:id="rId231" display="Maximum product subset of an array"/>
-    <hyperlink ref="C253" r:id="rId232" display="Maximize array sum after K negations"/>
-    <hyperlink ref="C254" r:id="rId233" display="Maximize the sum of arr[i]*i"/>
-    <hyperlink ref="C255" r:id="rId234" display="Maximum sum of absolute difference of an array"/>
-    <hyperlink ref="C256" r:id="rId235" display="Maximize sum of consecutive differences in a circular array"/>
-    <hyperlink ref="C257" r:id="rId236" location=":~:text=It%20consists%20of%20two%20steps,result%20to%20the%20sum%20S." display="Minimum sum of absolute difference of pairs of two arrays"/>
-    <hyperlink ref="C258" r:id="rId237" display="Program for Shortest Job First (or SJF) CPU Scheduling"/>
-    <hyperlink ref="C259" r:id="rId238" display="Program for Least Recently Used (LRU) Page Replacement algorithm"/>
-    <hyperlink ref="C260" r:id="rId239" display="Smallest subset with sum greater than all other elements"/>
-    <hyperlink ref="C261" r:id="rId240" display="Chocolate Distribution Problem"/>
-    <hyperlink ref="C262" r:id="rId241" display="DEFKIN -Defense of a Kingdom"/>
-    <hyperlink ref="C263" r:id="rId242" display="DIEHARD -DIE HARD"/>
-    <hyperlink ref="C264" r:id="rId243" display="GERGOVIA -Wine trading in Gergovia"/>
-    <hyperlink ref="C265" r:id="rId244" display="Picking Up Chicks"/>
-    <hyperlink ref="C266" r:id="rId245" display="CHOCOLA –Chocolate"/>
-    <hyperlink ref="C267" r:id="rId246" display="ARRANGE -Arranging Amplifiers"/>
-    <hyperlink ref="C268" r:id="rId247" display="K Centers Problem"/>
-    <hyperlink ref="C269" r:id="rId248" display="Minimum Cost of ropes"/>
-    <hyperlink ref="C270" r:id="rId249" display="Find smallest number with given number of digits and sum of digits"/>
-    <hyperlink ref="C271" r:id="rId250" display="Rearrange characters in a string such that no two adjacent are same"/>
-    <hyperlink ref="C272" r:id="rId251" display="Find maximum sum possible equal sum of three stacks"/>
-    <hyperlink ref="C275" r:id="rId252" display="Rat in a maze Problem"/>
-    <hyperlink ref="C276" r:id="rId253" display="Printing all solutions in N-Queen Problem"/>
-    <hyperlink ref="C277" r:id="rId254" display="Word Break Problem using Backtracking"/>
-    <hyperlink ref="C278" r:id="rId255" display="Remove Invalid Parentheses"/>
-    <hyperlink ref="C279" r:id="rId256" display="Sudoku Solver"/>
-    <hyperlink ref="C280" r:id="rId257" display="m Coloring Problem"/>
-    <hyperlink ref="C281" r:id="rId258" display="Print all palindromic partitions of a string"/>
-    <hyperlink ref="C282" r:id="rId259" display="Subset Sum Problem"/>
-    <hyperlink ref="C283" r:id="rId260" display="The Knight’s tour problem"/>
-    <hyperlink ref="C284" r:id="rId261" display="Tug of War"/>
-    <hyperlink ref="C285" r:id="rId262" display="Find shortest safe route in a path with landmines"/>
-    <hyperlink ref="C286" r:id="rId263" display="Combinational Sum"/>
-    <hyperlink ref="C287" r:id="rId264" display="Find Maximum number possible by doing at-most K swaps"/>
-    <hyperlink ref="C288" r:id="rId265" display="Print all permutations of a string "/>
-    <hyperlink ref="C289" r:id="rId266" display="Find if there is a path of more than k length from a source"/>
-    <hyperlink ref="C290" r:id="rId267" display="Longest Possible Route in a Matrix with Hurdles"/>
-    <hyperlink ref="C291" r:id="rId268" display="Print all possible paths from top left to bottom right of a mXn matrix"/>
-    <hyperlink ref="C292" r:id="rId269" display="Partition of a set intoK subsets with equal sum"/>
-    <hyperlink ref="C293" r:id="rId270" display="Find the K-th Permutation Sequence of first N natural numbers"/>
-    <hyperlink ref="C296" r:id="rId271" display=" Implement Stack from Scratch"/>
-    <hyperlink ref="C297" r:id="rId272" display=" Implement Queue from Scratch"/>
-    <hyperlink ref="C298" r:id="rId273" display="Implement 2 stack in an array"/>
-    <hyperlink ref="C299" r:id="rId274" display="find the middle element of a stack"/>
-    <hyperlink ref="C300" r:id="rId275" display="Implement &quot;N&quot; stacks in an Array"/>
-    <hyperlink ref="C301" r:id="rId276" display="Check the expression has valid or Balanced parenthesis or not."/>
-    <hyperlink ref="C302" r:id="rId277" display="Reverse a String using Stack"/>
-    <hyperlink ref="C303" r:id="rId278" display="Design a Stack that supports getMin() in O(1) time and O(1) extra space."/>
-    <hyperlink ref="C304" r:id="rId279" display="Find the next Greater element"/>
-    <hyperlink ref="C305" r:id="rId280" display="The celebrity Problem"/>
-    <hyperlink ref="C306" r:id="rId281" location=":~:text=The%20stack%20organization%20is%20very,i.e.%2C%20A%20%2B%20B)." display="Arithmetic Expression evaluation"/>
-    <hyperlink ref="C307" r:id="rId282" display="Evaluation of Postfix expression"/>
-    <hyperlink ref="C308" r:id="rId283" display="Implement a method to insert an element at its bottom without using any other data structure."/>
-    <hyperlink ref="C309" r:id="rId284" display="Reverse a stack using recursion"/>
-    <hyperlink ref="C310" r:id="rId285" display="Sort a Stack using recursion"/>
-    <hyperlink ref="C311" r:id="rId286" display="Merge Overlapping Intervals"/>
-    <hyperlink ref="C312" r:id="rId287" display="Largest rectangular Area in Histogram"/>
-    <hyperlink ref="C313" r:id="rId288" display="Length of the Longest Valid Substring"/>
-    <hyperlink ref="C314" r:id="rId289" display="Expression contains redundant bracket or not"/>
-    <hyperlink ref="C315" r:id="rId290" display="Implement Stack using Queue"/>
-    <hyperlink ref="C316" r:id="rId291" display="Implement Stack using Deque"/>
-    <hyperlink ref="C317" r:id="rId292" display="Stack Permutations (Check if an array is stack permutation of other)"/>
-    <hyperlink ref="C318" r:id="rId293" display="Implement Queue using Stack  "/>
-    <hyperlink ref="C319" r:id="rId294" display="Implement &quot;n&quot; queue in an array"/>
-    <hyperlink ref="C320" r:id="rId295" display="Implement a Circular queue"/>
-    <hyperlink ref="C321" r:id="rId296" display="LRU Cache Implementationa"/>
-    <hyperlink ref="C322" r:id="rId297" display="Reverse a Queue using recursion"/>
-    <hyperlink ref="C323" r:id="rId298" display="Reverse the first “K” elements of a queue"/>
-    <hyperlink ref="C324" r:id="rId299" display="Interleave the first half of the queue with second half"/>
-    <hyperlink ref="C325" r:id="rId300" display="Find the first circular tour that visits all Petrol Pumps"/>
-    <hyperlink ref="C326" r:id="rId301" display="Minimum time required to rot all oranges"/>
-    <hyperlink ref="C327" r:id="rId302" display="Distance of nearest cell having 1 in a binary matrix"/>
-    <hyperlink ref="C328" r:id="rId303" display="First negative integer in every window of size “k”"/>
-    <hyperlink ref="C329" r:id="rId304" display="Check if all levels of two trees are anagrams or not."/>
-    <hyperlink ref="C330" r:id="rId305" display="Sum of minimum and maximum elements of all subarrays of size “k”."/>
-    <hyperlink ref="C331" r:id="rId306" display="Minimum sum of squares of character counts in a given string after removing “k” characters."/>
-    <hyperlink ref="C332" r:id="rId307" display="Queue based approach or first non-repeating character in a stream."/>
-    <hyperlink ref="C333" r:id="rId308" display="Next Smaller Element"/>
-    <hyperlink ref="C336" r:id="rId309" display="Implement a Maxheap/MinHeap using arrays and recursion."/>
-    <hyperlink ref="C337" r:id="rId310" display="Sort an Array using heap. (HeapSort)"/>
-    <hyperlink ref="C338" r:id="rId311" display="Maximum of all subarrays of size k."/>
-    <hyperlink ref="C339" r:id="rId312" display="“k” largest element in an array"/>
-    <hyperlink ref="C340" r:id="rId313" display="Kth smallest and largest element in an unsorted array"/>
-    <hyperlink ref="C341" r:id="rId314" display="Merge “K” sorted arrays. [ IMP ]"/>
-    <hyperlink ref="C342" r:id="rId315" display="Merge 2 Binary Max Heaps"/>
-    <hyperlink ref="C343" r:id="rId316" display="Kth largest sum continuous subarrays"/>
-    <hyperlink ref="C344" r:id="rId317" display="Leetcode- reorganize strings"/>
-    <hyperlink ref="C345" r:id="rId318" display="Merge “K” Sorted Linked Lists [V.IMP]"/>
-    <hyperlink ref="C346" r:id="rId319" display="Smallest range in “K” Lists"/>
-    <hyperlink ref="C347" r:id="rId320" display="Median in a stream of Integers"/>
-    <hyperlink ref="C348" r:id="rId321" display="Check if a Binary Tree is Heap"/>
-    <hyperlink ref="C349" r:id="rId322" display="Connect “n” ropes with minimum cost"/>
-    <hyperlink ref="C350" r:id="rId323" display="Convert BST to Min Heap"/>
-    <hyperlink ref="C351" r:id="rId324" display="Convert min heap to max heap"/>
-    <hyperlink ref="C352" r:id="rId325" display="Rearrange characters in a string such that no two adjacent are same."/>
-    <hyperlink ref="C353" r:id="rId326" display="Minimum sum of two numbers formed from digits of an array"/>
-    <hyperlink ref="C356" r:id="rId327" display="Create a Graph, print it"/>
-    <hyperlink ref="C357" r:id="rId328" display="Implement BFS algorithm "/>
-    <hyperlink ref="C358" r:id="rId329" display="Implement DFS Algo "/>
-    <hyperlink ref="C359" r:id="rId330" display="Detect Cycle in Directed Graph using BFS/DFS Algo "/>
-    <hyperlink ref="C360" r:id="rId331" display="Detect Cycle in UnDirected Graph using BFS/DFS Algo "/>
-    <hyperlink ref="C361" r:id="rId332" display="Search in a Maze"/>
-    <hyperlink ref="C362" r:id="rId333" display="Minimum Step by Knight"/>
-    <hyperlink ref="C363" r:id="rId334" display="flood fill algo"/>
-    <hyperlink ref="C364" r:id="rId335" display="Clone a graph"/>
-    <hyperlink ref="C365" r:id="rId336" display="Making wired Connections"/>
-    <hyperlink ref="C366" r:id="rId337" display="word Ladder "/>
-    <hyperlink ref="C367" r:id="rId338" display="Dijkstra algo"/>
-    <hyperlink ref="C368" r:id="rId339" display="Implement Topological Sort "/>
-    <hyperlink ref="C369" r:id="rId340" display="Minimum time taken by each job to be completed given by a Directed Acyclic Graph"/>
-    <hyperlink ref="C370" r:id="rId341" display="Find whether it is possible to finish all tasks or not from given dependencies"/>
-    <hyperlink ref="C371" r:id="rId342" display="Find the no. of Isalnds"/>
-    <hyperlink ref="C372" r:id="rId343" display="Given a sorted Dictionary of an Alien Language, find order of characters"/>
-    <hyperlink ref="C373" r:id="rId344" display="Implement Kruksal’sAlgorithm"/>
-    <hyperlink ref="C374" r:id="rId345" display="Implement Prim’s Algorithm"/>
-    <hyperlink ref="C375" r:id="rId346" display="Total no. of Spanning tree in a graph"/>
-    <hyperlink ref="C376" r:id="rId347" display="Implement Bellman Ford Algorithm"/>
-    <hyperlink ref="C377" r:id="rId348" display="Implement Floyd warshallAlgorithm"/>
-    <hyperlink ref="C378" r:id="rId349" display="Travelling Salesman Problem"/>
-    <hyperlink ref="C379" r:id="rId350" location=":~:text=Graph%20coloring%20problem%20is%20to,are%20colored%20using%20same%20color." display="Graph ColouringProblem"/>
-    <hyperlink ref="C380" r:id="rId351" display="Snake and Ladders Problem"/>
-    <hyperlink ref="C381" r:id="rId352" display="Find bridge in a graph"/>
-    <hyperlink ref="C382" r:id="rId353" display="Count Strongly connected Components(Kosaraju Algo)"/>
-    <hyperlink ref="C383" r:id="rId354" display="Check whether a graph is Bipartite or Not"/>
-    <hyperlink ref="C384" r:id="rId355" display="Detect Negative cycle in a graph"/>
-    <hyperlink ref="C385" r:id="rId356" display="Longest path in a Directed Acyclic Graph"/>
-    <hyperlink ref="C386" r:id="rId357" display="Journey to the Moon"/>
-    <hyperlink ref="C387" r:id="rId358" display="Cheapest Flights Within K Stops"/>
-    <hyperlink ref="C388" r:id="rId359" display="Oliver and the Game"/>
-    <hyperlink ref="C389" r:id="rId360" display="Water Jug problem using BFS"/>
-    <hyperlink ref="C390" r:id="rId361" display="Water Jug problem using BFS"/>
-    <hyperlink ref="C391" r:id="rId362" display="Find if there is a path of more thank length from a source"/>
-    <hyperlink ref="C392" r:id="rId363" display="M-ColouringProblem"/>
-    <hyperlink ref="C393" r:id="rId364" display="Minimum edges to reverse o make path from source to destination"/>
-    <hyperlink ref="C394" r:id="rId365" display="Paths to travel each nodes using each edge(Seven Bridges)"/>
-    <hyperlink ref="C395" r:id="rId366" display="Vertex Cover Problem"/>
-    <hyperlink ref="C396" r:id="rId367" display="Chinese Postman or Route Inspection"/>
-    <hyperlink ref="C397" r:id="rId368" display="Number of Triangles in a Directed and Undirected Graph"/>
-    <hyperlink ref="C398" r:id="rId369" display="Minimise the cashflow among a given set of friends who have borrowed money from each other"/>
-    <hyperlink ref="C399" r:id="rId370" display="Two Clique Problem"/>
-    <hyperlink ref="C402" r:id="rId371" display="Construct a trie from scratch"/>
-    <hyperlink ref="C403" r:id="rId372" display="Find shortest unique prefix for every word in a given list"/>
-    <hyperlink ref="C404" r:id="rId373" display="Word Break Problem | (Trie solution)"/>
-    <hyperlink ref="C405" r:id="rId374" display="Given a sequence of words, print all anagrams together"/>
-    <hyperlink ref="C406" r:id="rId375" display="Implement a Phone Directory"/>
-    <hyperlink ref="C407" r:id="rId376" display="Print unique rows in a given boolean matrix"/>
-    <hyperlink ref="C410" r:id="rId377" display="Coin ChangeProblem"/>
-    <hyperlink ref="C411" r:id="rId378" display="Knapsack Problem"/>
-    <hyperlink ref="C412" r:id="rId379" display="Binomial CoefficientProblem"/>
-    <hyperlink ref="C413" r:id="rId380" display="Permutation CoefficientProblem"/>
-    <hyperlink ref="C414" r:id="rId381" display="Program for nth Catalan Number"/>
-    <hyperlink ref="C415" r:id="rId382" display="Matrix Chain Multiplication "/>
-    <hyperlink ref="C416" r:id="rId383" display="Edit Distance"/>
-    <hyperlink ref="C417" r:id="rId384" display="Subset Sum Problem"/>
-    <hyperlink ref="C418" r:id="rId385" display="Friends Pairing Problem"/>
-    <hyperlink ref="C419" r:id="rId386" display="Gold Mine Problem"/>
-    <hyperlink ref="C420" r:id="rId387" display="Assembly Line SchedulingProblem"/>
-    <hyperlink ref="C421" r:id="rId388" display="Painting the Fenceproblem"/>
-    <hyperlink ref="C422" r:id="rId389" display="Maximize The Cut Segments"/>
-    <hyperlink ref="C423" r:id="rId390" display="Longest Common Subsequence"/>
-    <hyperlink ref="C424" r:id="rId391" display="Longest Repeated Subsequence"/>
-    <hyperlink ref="C425" r:id="rId392" display="Longest Increasing Subsequence"/>
-    <hyperlink ref="C426" r:id="rId393" display="Space Optimized Solution of LCS"/>
-    <hyperlink ref="C427" r:id="rId394" display="LCS (Longest Common Subsequence) of three strings"/>
-    <hyperlink ref="C428" r:id="rId395" display="Maximum Sum Increasing Subsequence"/>
-    <hyperlink ref="C429" r:id="rId396" display="Count all subsequences having product less than K"/>
-    <hyperlink ref="C430" r:id="rId397" display="Longest subsequence such that difference between adjacent is one"/>
-    <hyperlink ref="C431" r:id="rId398" display="Maximum subsequence sum such that no three are consecutive"/>
-    <hyperlink ref="C432" r:id="rId399" display="Egg Dropping Problem"/>
-    <hyperlink ref="C433" r:id="rId400" display="Maximum Length Chain of Pairs"/>
-    <hyperlink ref="C434" r:id="rId401" display="Maximum size square sub-matrix with all 1s"/>
-    <hyperlink ref="C435" r:id="rId402" display="Maximum sum of pairs with specific difference"/>
-    <hyperlink ref="C436" r:id="rId403" display="Min Cost PathProblem"/>
-    <hyperlink ref="C437" r:id="rId404" display="Maximum difference of zeros and ones in binary string"/>
-    <hyperlink ref="C438" r:id="rId405" display="Minimum number of jumps to reach end"/>
-    <hyperlink ref="C439" r:id="rId406" display="Minimum cost to fill given weight in a bag"/>
-    <hyperlink ref="C440" r:id="rId407" display="Minimum removals from array to make max –min &lt;= K"/>
-    <hyperlink ref="C441" r:id="rId408" display="Longest Common Substring"/>
-    <hyperlink ref="C442" r:id="rId409" display="Count number of ways to reacha given score in a game"/>
-    <hyperlink ref="C443" r:id="rId410" display="Count Balanced Binary Trees of Height h"/>
-    <hyperlink ref="C444" r:id="rId411" display="LargestSum Contiguous Subarray [V&gt;V&gt;V&gt;V IMP ]"/>
-    <hyperlink ref="C445" r:id="rId412" display="Smallest sum contiguous subarray"/>
-    <hyperlink ref="C446" r:id="rId413" display="Unbounded Knapsack (Repetition of items allowed)"/>
-    <hyperlink ref="C447" r:id="rId414" display="Word Break Problem"/>
-    <hyperlink ref="C448" r:id="rId415" display="Largest Independent Set Problem"/>
-    <hyperlink ref="C449" r:id="rId416" display="Partition problem"/>
-    <hyperlink ref="C450" r:id="rId417" display="Longest Palindromic Subsequence"/>
-    <hyperlink ref="C451" r:id="rId418" display="Count All Palindromic Subsequence in a given String"/>
-    <hyperlink ref="C452" r:id="rId419" display="Longest Palindromic Substring"/>
-    <hyperlink ref="C453" r:id="rId420" display="Longest alternating subsequence"/>
-    <hyperlink ref="C454" r:id="rId421" display="Weighted Job Scheduling"/>
-    <hyperlink ref="C455" r:id="rId422" display="Coin game winner where every player has three choices"/>
-    <hyperlink ref="C456" r:id="rId423" display="Count Derangements (Permutation such that no element appears in its original position) [ IMPORTANT ]"/>
-    <hyperlink ref="C457" r:id="rId424" display="Maximum profit by buying and selling a share at most twice [ IMP ]"/>
-    <hyperlink ref="C458" r:id="rId425" display="Optimal Strategy for a Game"/>
-    <hyperlink ref="C459" r:id="rId426" display="Optimal Binary Search Tree"/>
-    <hyperlink ref="C460" r:id="rId427" display="Palindrome PartitioningProblem"/>
-    <hyperlink ref="C461" r:id="rId428" display="Word Wrap Problem"/>
-    <hyperlink ref="C462" r:id="rId429" display="Mobile Numeric Keypad Problem [ IMP ]"/>
-    <hyperlink ref="C463" r:id="rId430" display="Boolean Parenthesization Problem"/>
-    <hyperlink ref="C464" r:id="rId431" display="Largest rectangular sub-matrix whose sum is 0"/>
-    <hyperlink ref="C465" r:id="rId432" display="Largest area rectangular sub-matrix with equal number of 1’s and 0’s [ IMP ]"/>
-    <hyperlink ref="C466" r:id="rId433" display="Maximum sum rectangle in a 2D matrix"/>
-    <hyperlink ref="C467" r:id="rId434" display="Maximum profit by buying and selling a share at most k times"/>
-    <hyperlink ref="C468" r:id="rId435" display="Find if a string is interleaved of two other strings"/>
-    <hyperlink ref="C469" r:id="rId436" display="Maximum Length of Pair Chain"/>
-    <hyperlink ref="C472" r:id="rId437" display="Count set bits in an integer"/>
-    <hyperlink ref="C473" r:id="rId438" display="Find the two non-repeating elements in an array of repeating elements"/>
-    <hyperlink ref="C474" r:id="rId439" display="Count number of bits to be flipped to convert A to B"/>
-    <hyperlink ref="C475" r:id="rId440" display="Count total set bits in all numbers from 1 to n"/>
-    <hyperlink ref="C476" r:id="rId441" display="Program to find whether a no is power of two"/>
-    <hyperlink ref="C477" r:id="rId442" display="Find position of the only set bit"/>
-    <hyperlink ref="C478" r:id="rId443" display="Copy set bits in a range"/>
-    <hyperlink ref="C479" r:id="rId444" display="Divide two integers without using multiplication, division and mod operator"/>
-    <hyperlink ref="C480" r:id="rId445" location=":~:text=Given%20an%20integer%20n%2C%20calculate,*%2C%20%2F%20and%20pow().&amp;text=A%20Simple%20Solution%20is%20to%20repeatedly%20add%20n%20to%20result." display="Calculate square of a number without using *, / and pow()"/>
-    <hyperlink ref="C481" r:id="rId446" display="Power Set"/>
+    <hyperlink ref="C42" r:id="rId38" display="Spiral traversal on a Matrix"/>
+    <hyperlink ref="C43" r:id="rId39" display="Search an element in a matriix"/>
+    <hyperlink ref="C44" r:id="rId40" display="Find median in a row wise sorted matrix"/>
+    <hyperlink ref="C45" r:id="rId41" display="Find row with maximum no. of 1's"/>
+    <hyperlink ref="C46" r:id="rId42" display="Print elements in sorted order using row-column wise sorted matrix"/>
+    <hyperlink ref="C47" r:id="rId43" display="Maximum size rectangle"/>
+    <hyperlink ref="C48" r:id="rId44" display="Find a specific pair in matrix"/>
+    <hyperlink ref="C49" r:id="rId45" display="Rotate matrix by 90 degrees"/>
+    <hyperlink ref="C50" r:id="rId46" display="Kth smallest element in a row-cpumn wise sorted matrix"/>
+    <hyperlink ref="C51" r:id="rId47" display="Common elements in all rows of a given matrix"/>
+    <hyperlink ref="C52" r:id="rId48" display="Reverse a String"/>
+    <hyperlink ref="C53" r:id="rId49" display="Check whether a String is Palindrome or not"/>
+    <hyperlink ref="C54" r:id="rId50" display="Find Duplicate characters in a string"/>
+    <hyperlink ref="C56" r:id="rId51" display="Write a Code to check whether one string is a rotation of another"/>
+    <hyperlink ref="C57" r:id="rId52" display="Write a Program to check whether a string is a valid shuffle of two strings or not"/>
+    <hyperlink ref="C58" r:id="rId53" display="Count and Say problem"/>
+    <hyperlink ref="C59" r:id="rId54" display="Write a program to find the longest Palindrome in a string.[ Longest palindromic Substring]"/>
+    <hyperlink ref="C60" r:id="rId55" display="Find Longest Recurring Subsequence in String"/>
+    <hyperlink ref="C61" r:id="rId56" display="Print all Subsequences of a string."/>
+    <hyperlink ref="C62" r:id="rId57" display="Print all the permutations of the given string"/>
+    <hyperlink ref="C63" r:id="rId58" display="Split the Binary string into two substring with equal 0’s and 1’s"/>
+    <hyperlink ref="C64" r:id="rId59" display="Word Wrap Problem [VERY IMP]."/>
+    <hyperlink ref="C65" r:id="rId60" display="EDIT Distance [Very Imp]"/>
+    <hyperlink ref="C66" r:id="rId61" display="Find next greater number with same set of digits. [Very Very IMP]"/>
+    <hyperlink ref="C67" r:id="rId62" display="Balanced Parenthesis problem.[Imp]"/>
+    <hyperlink ref="C68" r:id="rId63" display="Word break Problem[ Very Imp]"/>
+    <hyperlink ref="C69" r:id="rId64" display="Rabin Karp Algo"/>
+    <hyperlink ref="C70" r:id="rId65" display="KMP Algo"/>
+    <hyperlink ref="C71" r:id="rId66" display="Convert a Sentence into its equivalent mobile numeric keypad sequence."/>
+    <hyperlink ref="C72" r:id="rId67" display="Minimum number of bracket reversals needed to make an expression balanced."/>
+    <hyperlink ref="C73" r:id="rId68" display="Count All Palindromic Subsequence in a given String."/>
+    <hyperlink ref="C74" r:id="rId69" display="Count of number of given string in 2D character array"/>
+    <hyperlink ref="C75" r:id="rId70" display="Search a Word in a 2D Grid of characters."/>
+    <hyperlink ref="C76" r:id="rId71" display="Boyer Moore Algorithm for Pattern Searching."/>
+    <hyperlink ref="C77" r:id="rId72" display="Converting Roman Numerals to Decimal"/>
+    <hyperlink ref="C78" r:id="rId73" display="Longest Common Prefix"/>
+    <hyperlink ref="C79" r:id="rId74" display="Number of flips to make binary string alternate"/>
+    <hyperlink ref="C80" r:id="rId75" display="Find the first repeated word in string."/>
+    <hyperlink ref="C81" r:id="rId76" display="Minimum number of swaps for bracket balancing."/>
+    <hyperlink ref="C82" r:id="rId77" display="Find the longest common subsequence between two strings."/>
+    <hyperlink ref="C83" r:id="rId78" display="Program to generate all possible valid IP addresses from given  string."/>
+    <hyperlink ref="C84" r:id="rId79" display="Write a program tofind the smallest window that contains all characters of string itself."/>
+    <hyperlink ref="C85" r:id="rId80" display="Rearrange characters in a string such that no two adjacent are same"/>
+    <hyperlink ref="C86" r:id="rId81" display="Minimum characters to be added at front to make string palindrome"/>
+    <hyperlink ref="C87" r:id="rId82" display="Given a sequence of words, print all anagrams together"/>
+    <hyperlink ref="C88" r:id="rId83" display="Find the smallest window in a string containing all characters of another string"/>
+    <hyperlink ref="C89" r:id="rId84" display="Recursively remove all adjacent duplicates"/>
+    <hyperlink ref="C90" r:id="rId85" display="String matching where one string contains wildcard characters"/>
+    <hyperlink ref="C91" r:id="rId86" display="Function to find Number of customers who could not get a computer"/>
+    <hyperlink ref="C92" r:id="rId87" display="Transform One String to Another using Minimum Number of Given Operation"/>
+    <hyperlink ref="C93" r:id="rId88" display="Check if two given strings are isomorphic to each other"/>
+    <hyperlink ref="C94" r:id="rId89" display="Recursively print all sentences that can be formed from list of word lists"/>
+    <hyperlink ref="C95" r:id="rId90" display="Find first and last positions of an element in a sorted array"/>
+    <hyperlink ref="C96" r:id="rId91" display="Find a Fixed Point (Value equal to index) in a given array"/>
+    <hyperlink ref="C97" r:id="rId92" display="Search in a rotated sorted array"/>
+    <hyperlink ref="C98" r:id="rId93" display="square root of an integer"/>
+    <hyperlink ref="C99" r:id="rId94" display="Maximum and minimum of an array using minimum number of comparisons"/>
+    <hyperlink ref="C100" r:id="rId95" location=":~:text=We%20need%20to%20find%20a,set%20of%20points%20is%20minimum.&amp;text=In%20above%20figure%20optimum%20location,is%20minimum%20obtainable%20total%20distance." display="Optimum location of point to minimize total distance"/>
+    <hyperlink ref="C101" r:id="rId96" display="Find the repeating and the missing"/>
+    <hyperlink ref="C102" r:id="rId97" display="find majority element"/>
+    <hyperlink ref="C103" r:id="rId98" display="Searching in an array where adjacent differ by at most k"/>
+    <hyperlink ref="C104" r:id="rId99" display="find a pair with a given difference"/>
+    <hyperlink ref="C105" r:id="rId100" display="find four elements that sum to a given value"/>
+    <hyperlink ref="C106" r:id="rId101" display="maximum sum such that no 2 elements are adjacent"/>
+    <hyperlink ref="C107" r:id="rId102" display="Count triplet with sum smaller than a given value"/>
+    <hyperlink ref="C108" r:id="rId103" display="merge 2 sorted arrays"/>
+    <hyperlink ref="C109" r:id="rId104" display="print all subarrays with 0 sum"/>
+    <hyperlink ref="C110" r:id="rId105" display="Product array Puzzle"/>
+    <hyperlink ref="C111" r:id="rId106" display="Sort array according to count of set bits"/>
+    <hyperlink ref="C112" r:id="rId107" display="minimum no. of swaps required to sort the array"/>
+    <hyperlink ref="C113" r:id="rId108" display="Bishu and Soldiers"/>
+    <hyperlink ref="C114" r:id="rId109" display="Rasta and Kheshtak"/>
+    <hyperlink ref="C115" r:id="rId110" display="Kth smallest number again"/>
+    <hyperlink ref="C116" r:id="rId111" display="Find pivot element in a sorted array"/>
+    <hyperlink ref="C117" r:id="rId112" display="K-th Element of Two Sorted Arrays"/>
+    <hyperlink ref="C118" r:id="rId113" display="Aggressive cows"/>
+    <hyperlink ref="C119" r:id="rId114" display="Book Allocation Problem"/>
+    <hyperlink ref="C120" r:id="rId115" display="EKOSPOJ:"/>
+    <hyperlink ref="C121" r:id="rId116" display="Job Scheduling Algo"/>
+    <hyperlink ref="C122" r:id="rId117" display="Missing Number in AP"/>
+    <hyperlink ref="C123" r:id="rId118" display="Smallest number with atleastn trailing zeroes infactorial"/>
+    <hyperlink ref="C124" r:id="rId119" display="Painters Partition Problem:"/>
+    <hyperlink ref="C125" r:id="rId120" display="ROTI-Prata SPOJ"/>
+    <hyperlink ref="C126" r:id="rId121" display="DoubleHelix SPOJ"/>
+    <hyperlink ref="C127" r:id="rId122" display="Subset Sums"/>
+    <hyperlink ref="C128" r:id="rId123" display="Findthe inversion count"/>
+    <hyperlink ref="C129" r:id="rId124" display="Implement Merge-sort in-place"/>
+    <hyperlink ref="C130" r:id="rId125" display="Partitioning and Sorting Arrays with Many Repeated Entries"/>
+    <hyperlink ref="C131" r:id="rId126" display="Write a Program to reverse the Linked List. (Both Iterative and recursive)"/>
+    <hyperlink ref="C132" r:id="rId127" display="Reverse a Linked List in group of Given Size. [Very Imp]"/>
+    <hyperlink ref="C133" r:id="rId128" display="Write a program to Detect loop in a linked list."/>
+    <hyperlink ref="C134" r:id="rId129" display="Write a program to Delete loop in a linked list."/>
+    <hyperlink ref="C135" r:id="rId130" display="Find the starting point of the loop. "/>
+    <hyperlink ref="C136" r:id="rId131" display="Remove Duplicates in a sorted Linked List."/>
+    <hyperlink ref="C137" r:id="rId132" display="Remove Duplicates in a Un-sorted Linked List."/>
+    <hyperlink ref="C138" r:id="rId133" display="Write a Program to Move the last element to Front in a Linked List."/>
+    <hyperlink ref="C139" r:id="rId134" display="Add “1” to a number represented as a Linked List."/>
+    <hyperlink ref="C140" r:id="rId135" display="Add two numbers represented by linked lists."/>
+    <hyperlink ref="C141" r:id="rId136" display="Intersection of two Sorted Linked List."/>
+    <hyperlink ref="C142" r:id="rId137" display="Intersection Point of two Linked Lists."/>
+    <hyperlink ref="C143" r:id="rId138" display="Merge Sort For Linked lists.[Very Important]"/>
+    <hyperlink ref="C144" r:id="rId139" display="Quicksort for Linked Lists.[Very Important]"/>
+    <hyperlink ref="C145" r:id="rId140" display="Find the middle Element of a linked list."/>
+    <hyperlink ref="C146" r:id="rId141" display="Check if a linked list is a circular linked list."/>
+    <hyperlink ref="C147" r:id="rId142" display="Split a Circular linked list into two halves."/>
+    <hyperlink ref="C148" r:id="rId143" display="Write a Program to check whether the Singly Linked list is a palindrome or not."/>
+    <hyperlink ref="C149" r:id="rId144" display="Deletion from a Circular Linked List."/>
+    <hyperlink ref="C150" r:id="rId145" display="Reverse a Doubly Linked list."/>
+    <hyperlink ref="C151" r:id="rId146" display="Find pairs with a given sum in a DLL."/>
+    <hyperlink ref="C152" r:id="rId147" display="Count triplets in a sorted DLL whose sum is equal to given value “X”."/>
+    <hyperlink ref="C153" r:id="rId148" display="Sort a “k”sorted Doubly Linked list.[Very IMP]"/>
+    <hyperlink ref="C154" r:id="rId149" display="Rotate DoublyLinked list by N nodes."/>
+    <hyperlink ref="C155" r:id="rId150" display="Rotate a Doubly Linked list in group of Given Size.[Very IMP]"/>
+    <hyperlink ref="C158" r:id="rId151" display="Flatten a Linked List"/>
+    <hyperlink ref="C159" r:id="rId152" display="Sort a LL of 0's, 1's and 2's"/>
+    <hyperlink ref="C160" r:id="rId153" display="Clone a linked list with next and random pointer"/>
+    <hyperlink ref="C161" r:id="rId154" display="Merge K sorted Linked list"/>
+    <hyperlink ref="C162" r:id="rId155" display="Multiply 2 no. represented by LL"/>
+    <hyperlink ref="C163" r:id="rId156" display="Delete nodes which have a greater value on right side"/>
+    <hyperlink ref="C164" r:id="rId157" display="Segregate even and odd nodes in a Linked List"/>
+    <hyperlink ref="C165" r:id="rId158" display="Program for n’th node from the end of a Linked List"/>
+    <hyperlink ref="C166" r:id="rId159" display="Find the first non-repeating character from a stream of characters"/>
+    <hyperlink ref="C167" r:id="rId160" display="level order traversal"/>
+    <hyperlink ref="C168" r:id="rId161" display="Reverse Level Order traversal"/>
+    <hyperlink ref="C169" r:id="rId162" display="Height of a tree"/>
+    <hyperlink ref="C170" r:id="rId163" display="Diameter of a tree"/>
+    <hyperlink ref="C171" r:id="rId164" display="Mirror of a tree"/>
+    <hyperlink ref="C172" r:id="rId165" display="Inorder Traversal of a tree both using recursion and Iteration"/>
+    <hyperlink ref="C173" r:id="rId166" display="Preorder Traversal of a tree both using recursion and Iteration"/>
+    <hyperlink ref="C174" r:id="rId167" display="Postorder Traversal of a tree both using recursion and Iteration"/>
+    <hyperlink ref="C175" r:id="rId168" display="Left View of a tree"/>
+    <hyperlink ref="C176" r:id="rId169" display="Right View of Tree"/>
+    <hyperlink ref="C177" r:id="rId170" display="Top View of a tree"/>
+    <hyperlink ref="C178" r:id="rId171" display="Bottom View of a tree"/>
+    <hyperlink ref="C179" r:id="rId172" display="Zig-Zag traversal of a binary tree"/>
+    <hyperlink ref="C180" r:id="rId173" display="Check if a tree is balanced or not"/>
+    <hyperlink ref="C181" r:id="rId174" display="Diagnol Traversal of a Binary tree"/>
+    <hyperlink ref="C182" r:id="rId175" display="Boundary traversal of a Binary tree"/>
+    <hyperlink ref="C183" r:id="rId176" display="Construct Binary Tree from String with Bracket Representation"/>
+    <hyperlink ref="C184" r:id="rId177" display="Convert Binary tree into Doubly Linked List"/>
+    <hyperlink ref="C185" r:id="rId178" display="Convert Binary tree into Sum tree"/>
+    <hyperlink ref="C186" r:id="rId179" display="Construct Binary tree from Inorder and preorder traversal"/>
+    <hyperlink ref="C187" r:id="rId180" location=":~:text=Given%20the%20array%20representation%20of,it%20into%20Binary%20Search%20Tree.&amp;text=Swap%201%3A%20Swap%20node%208,node%209%20with%20node%2010." display="Find minimum swaps required to convert a Binary tree into BST"/>
+    <hyperlink ref="C188" r:id="rId181" display="Check if Binary tree is Sum tree or not"/>
+    <hyperlink ref="C189" r:id="rId182" display="Check if all leaf nodes are at same level or not"/>
+    <hyperlink ref="C190" r:id="rId183" display="Check if a Binary Tree contains duplicate subtrees of size 2 or more [ IMP ]"/>
+    <hyperlink ref="C191" r:id="rId184" display="Check if 2 trees are mirror or not"/>
+    <hyperlink ref="C192" r:id="rId185" display="Sum of Nodes on the Longest path from root to leaf node "/>
+    <hyperlink ref="C193" r:id="rId186" location=":~:text=Since%20the%20graph%20is%20undirected,graph%20is%20connected%2C%20otherwise%20not." display="Check if given graph is tree or not.  [ IMP ]"/>
+    <hyperlink ref="C194" r:id="rId187" display="Find Largest subtree sum in a tree"/>
+    <hyperlink ref="C195" r:id="rId188" display="Maximum Sum of nodes in Binary tree such that no two are adjacent "/>
+    <hyperlink ref="C196" r:id="rId189" display="Print all &quot;K&quot; Sum paths in a Binary tree"/>
+    <hyperlink ref="C197" r:id="rId190" display="Find LCA in a Binary tree"/>
+    <hyperlink ref="C198" r:id="rId191" display="Find distance between 2 nodes in a Binary tree"/>
+    <hyperlink ref="C199" r:id="rId192" display="Kth Ancestor of node in a Binary tree"/>
+    <hyperlink ref="C200" r:id="rId193" display="Find all Duplicate subtrees in a Binary tree [ IMP ]"/>
+    <hyperlink ref="C201" r:id="rId194" display="Tree Isomorphism Problem"/>
+    <hyperlink ref="C202" r:id="rId195" display="Fina a value in a BST"/>
+    <hyperlink ref="C203" r:id="rId196" display="Deletion of a node in a BST"/>
+    <hyperlink ref="C204" r:id="rId197" display="Find min and max value in a BST"/>
+    <hyperlink ref="C205" r:id="rId198" display="Find inorder successor and inorder predecessor in a BST"/>
+    <hyperlink ref="C206" r:id="rId199" display="Check if a tree is a BST or not "/>
+    <hyperlink ref="C207" r:id="rId200" display="Populate Inorder successor of all nodes"/>
+    <hyperlink ref="C208" r:id="rId201" display="Find LCA  of 2 nodes in a BST"/>
+    <hyperlink ref="C209" r:id="rId202" display="Construct BST from preorder traversal"/>
+    <hyperlink ref="C210" r:id="rId203" display="Convert Binary tree into BST"/>
+    <hyperlink ref="C211" r:id="rId204" display="Convert a normal BST into a Balanced BST"/>
+    <hyperlink ref="C212" r:id="rId205" display="Merge two BST [ V.V.V&gt;IMP ]"/>
+    <hyperlink ref="C213" r:id="rId206" display="Find Kth largest element in a BST"/>
+    <hyperlink ref="C214" r:id="rId207" display="Find Kth smallest element in a BST"/>
+    <hyperlink ref="C215" r:id="rId208" display="Count pairs from 2 BST whose sum is equal to given value &quot;X&quot;"/>
+    <hyperlink ref="C216" r:id="rId209" display="Find the median of BST in O(n) time and O(1) space"/>
+    <hyperlink ref="C217" r:id="rId210" display="Count BST ndoes that lie in a given range"/>
+    <hyperlink ref="C218" r:id="rId211" display="Replace every element with the least greater element on its right"/>
+    <hyperlink ref="C219" r:id="rId212" display="Given &quot;n&quot; appointments, find the conflicting appointments"/>
+    <hyperlink ref="C220" r:id="rId213" display="Check preorder is valid or not"/>
+    <hyperlink ref="C221" r:id="rId214" display="Check whether BST contains Dead end"/>
+    <hyperlink ref="C222" r:id="rId215" display="Largest BST in a Binary Tree [ V.V.V.V.V IMP ]"/>
+    <hyperlink ref="C223" r:id="rId216" display="Flatten BST to sorted list"/>
+    <hyperlink ref="C224" r:id="rId217" display="Activity Selection Problem"/>
+    <hyperlink ref="C225" r:id="rId218" display="Job SequencingProblem"/>
+    <hyperlink ref="C226" r:id="rId219" display="Huffman Coding"/>
+    <hyperlink ref="C227" r:id="rId220" display="Water Connection Problem"/>
+    <hyperlink ref="C228" r:id="rId221" display="Fractional Knapsack Problem"/>
+    <hyperlink ref="C229" r:id="rId222" display="Greedy Algorithm to find Minimum number of Coins"/>
+    <hyperlink ref="C230" r:id="rId223" display="Maximum trains for which stoppage can be provided"/>
+    <hyperlink ref="C231" r:id="rId224" display="Minimum Platforms Problem"/>
+    <hyperlink ref="C232" r:id="rId225" display="Buy Maximum Stocks if i stocks can be bought on i-th day"/>
+    <hyperlink ref="C233" r:id="rId226" display="Find the minimum and maximum amount to buy all N candies"/>
+    <hyperlink ref="C234" r:id="rId227" display="Minimize Cash Flow among a given set of friends who have borrowed money from each other"/>
+    <hyperlink ref="C235" r:id="rId228" display="Minimum Cost to cut a board into squares"/>
+    <hyperlink ref="C236" r:id="rId229" display="Check if it is possible to survive on Island"/>
+    <hyperlink ref="C237" r:id="rId230" display="Find maximum meetings in one room"/>
+    <hyperlink ref="C238" r:id="rId231" display="Maximum product subset of an array"/>
+    <hyperlink ref="C239" r:id="rId232" display="Maximize array sum after K negations"/>
+    <hyperlink ref="C240" r:id="rId233" display="Maximize the sum of arr[i]*i"/>
+    <hyperlink ref="C241" r:id="rId234" display="Maximum sum of absolute difference of an array"/>
+    <hyperlink ref="C242" r:id="rId235" display="Maximize sum of consecutive differences in a circular array"/>
+    <hyperlink ref="C243" r:id="rId236" location=":~:text=It%20consists%20of%20two%20steps,result%20to%20the%20sum%20S." display="Minimum sum of absolute difference of pairs of two arrays"/>
+    <hyperlink ref="C244" r:id="rId237" display="Program for Shortest Job First (or SJF) CPU Scheduling"/>
+    <hyperlink ref="C245" r:id="rId238" display="Program for Least Recently Used (LRU) Page Replacement algorithm"/>
+    <hyperlink ref="C246" r:id="rId239" display="Smallest subset with sum greater than all other elements"/>
+    <hyperlink ref="C247" r:id="rId240" display="Chocolate Distribution Problem"/>
+    <hyperlink ref="C248" r:id="rId241" display="DEFKIN -Defense of a Kingdom"/>
+    <hyperlink ref="C249" r:id="rId242" display="DIEHARD -DIE HARD"/>
+    <hyperlink ref="C250" r:id="rId243" display="GERGOVIA -Wine trading in Gergovia"/>
+    <hyperlink ref="C251" r:id="rId244" display="Picking Up Chicks"/>
+    <hyperlink ref="C252" r:id="rId245" display="CHOCOLA –Chocolate"/>
+    <hyperlink ref="C253" r:id="rId246" display="ARRANGE -Arranging Amplifiers"/>
+    <hyperlink ref="C254" r:id="rId247" display="K Centers Problem"/>
+    <hyperlink ref="C255" r:id="rId248" display="Minimum Cost of ropes"/>
+    <hyperlink ref="C256" r:id="rId249" display="Find smallest number with given number of digits and sum of digits"/>
+    <hyperlink ref="C257" r:id="rId250" display="Rearrange characters in a string such that no two adjacent are same"/>
+    <hyperlink ref="C258" r:id="rId251" display="Find maximum sum possible equal sum of three stacks"/>
+    <hyperlink ref="C259" r:id="rId252" display="Rat in a maze Problem"/>
+    <hyperlink ref="C260" r:id="rId253" display="Printing all solutions in N-Queen Problem"/>
+    <hyperlink ref="C261" r:id="rId254" display="Word Break Problem using Backtracking"/>
+    <hyperlink ref="C262" r:id="rId255" display="Remove Invalid Parentheses"/>
+    <hyperlink ref="C263" r:id="rId256" display="Sudoku Solver"/>
+    <hyperlink ref="C264" r:id="rId257" display="m Coloring Problem"/>
+    <hyperlink ref="C265" r:id="rId258" display="Print all palindromic partitions of a string"/>
+    <hyperlink ref="C266" r:id="rId259" display="Subset Sum Problem"/>
+    <hyperlink ref="C267" r:id="rId260" display="The Knight’s tour problem"/>
+    <hyperlink ref="C268" r:id="rId261" display="Tug of War"/>
+    <hyperlink ref="C269" r:id="rId262" display="Find shortest safe route in a path with landmines"/>
+    <hyperlink ref="C270" r:id="rId263" display="Combinational Sum"/>
+    <hyperlink ref="C271" r:id="rId264" display="Find Maximum number possible by doing at-most K swaps"/>
+    <hyperlink ref="C272" r:id="rId265" display="Print all permutations of a string "/>
+    <hyperlink ref="C273" r:id="rId266" display="Find if there is a path of more than k length from a source"/>
+    <hyperlink ref="C274" r:id="rId267" display="Longest Possible Route in a Matrix with Hurdles"/>
+    <hyperlink ref="C275" r:id="rId268" display="Print all possible paths from top left to bottom right of a mXn matrix"/>
+    <hyperlink ref="C276" r:id="rId269" display="Partition of a set intoK subsets with equal sum"/>
+    <hyperlink ref="C277" r:id="rId270" display="Find the K-th Permutation Sequence of first N natural numbers"/>
+    <hyperlink ref="C278" r:id="rId271" display=" Implement Stack from Scratch"/>
+    <hyperlink ref="C279" r:id="rId272" display=" Implement Queue from Scratch"/>
+    <hyperlink ref="C280" r:id="rId273" display="Implement 2 stack in an array"/>
+    <hyperlink ref="C281" r:id="rId274" display="find the middle element of a stack"/>
+    <hyperlink ref="C282" r:id="rId275" display="Implement &quot;N&quot; stacks in an Array"/>
+    <hyperlink ref="C283" r:id="rId276" display="Check the expression has valid or Balanced parenthesis or not."/>
+    <hyperlink ref="C284" r:id="rId277" display="Reverse a String using Stack"/>
+    <hyperlink ref="C285" r:id="rId278" display="Design a Stack that supports getMin() in O(1) time and O(1) extra space."/>
+    <hyperlink ref="C286" r:id="rId279" display="Find the next Greater element"/>
+    <hyperlink ref="C287" r:id="rId280" display="The celebrity Problem"/>
+    <hyperlink ref="C288" r:id="rId281" location=":~:text=The%20stack%20organization%20is%20very,i.e.%2C%20A%20%2B%20B)." display="Arithmetic Expression evaluation"/>
+    <hyperlink ref="C289" r:id="rId282" display="Evaluation of Postfix expression"/>
+    <hyperlink ref="C290" r:id="rId283" display="Implement a method to insert an element at its bottom without using any other data structure."/>
+    <hyperlink ref="C291" r:id="rId284" display="Reverse a stack using recursion"/>
+    <hyperlink ref="C292" r:id="rId285" display="Sort a Stack using recursion"/>
+    <hyperlink ref="C293" r:id="rId286" display="Merge Overlapping Intervals"/>
+    <hyperlink ref="C294" r:id="rId287" display="Largest rectangular Area in Histogram"/>
+    <hyperlink ref="C295" r:id="rId288" display="Length of the Longest Valid Substring"/>
+    <hyperlink ref="C296" r:id="rId289" display="Expression contains redundant bracket or not"/>
+    <hyperlink ref="C297" r:id="rId290" display="Implement Stack using Queue"/>
+    <hyperlink ref="C298" r:id="rId291" display="Implement Stack using Deque"/>
+    <hyperlink ref="C299" r:id="rId292" display="Stack Permutations (Check if an array is stack permutation of other)"/>
+    <hyperlink ref="C300" r:id="rId293" display="Implement Queue using Stack  "/>
+    <hyperlink ref="C301" r:id="rId294" display="Implement &quot;n&quot; queue in an array"/>
+    <hyperlink ref="C302" r:id="rId295" display="Implement a Circular queue"/>
+    <hyperlink ref="C303" r:id="rId296" display="LRU Cache Implementationa"/>
+    <hyperlink ref="C304" r:id="rId297" display="Reverse a Queue using recursion"/>
+    <hyperlink ref="C305" r:id="rId298" display="Reverse the first “K” elements of a queue"/>
+    <hyperlink ref="C306" r:id="rId299" display="Interleave the first half of the queue with second half"/>
+    <hyperlink ref="C307" r:id="rId300" display="Find the first circular tour that visits all Petrol Pumps"/>
+    <hyperlink ref="C308" r:id="rId301" display="Minimum time required to rot all oranges"/>
+    <hyperlink ref="C309" r:id="rId302" display="Distance of nearest cell having 1 in a binary matrix"/>
+    <hyperlink ref="C310" r:id="rId303" display="First negative integer in every window of size “k”"/>
+    <hyperlink ref="C311" r:id="rId304" display="Check if all levels of two trees are anagrams or not."/>
+    <hyperlink ref="C312" r:id="rId305" display="Sum of minimum and maximum elements of all subarrays of size “k”."/>
+    <hyperlink ref="C313" r:id="rId306" display="Minimum sum of squares of character counts in a given string after removing “k” characters."/>
+    <hyperlink ref="C314" r:id="rId307" display="Queue based approach or first non-repeating character in a stream."/>
+    <hyperlink ref="C315" r:id="rId308" display="Next Smaller Element"/>
+    <hyperlink ref="C316" r:id="rId309" display="Implement a Maxheap/MinHeap using arrays and recursion."/>
+    <hyperlink ref="C317" r:id="rId310" display="Sort an Array using heap. (HeapSort)"/>
+    <hyperlink ref="C318" r:id="rId311" display="Maximum of all subarrays of size k."/>
+    <hyperlink ref="C319" r:id="rId312" display="“k” largest element in an array"/>
+    <hyperlink ref="C320" r:id="rId313" display="Kth smallest and largest element in an unsorted array"/>
+    <hyperlink ref="C321" r:id="rId314" display="Merge “K” sorted arrays. [ IMP ]"/>
+    <hyperlink ref="C322" r:id="rId315" display="Merge 2 Binary Max Heaps"/>
+    <hyperlink ref="C323" r:id="rId316" display="Kth largest sum continuous subarrays"/>
+    <hyperlink ref="C324" r:id="rId317" display="Leetcode- reorganize strings"/>
+    <hyperlink ref="C325" r:id="rId318" display="Merge “K” Sorted Linked Lists [V.IMP]"/>
+    <hyperlink ref="C326" r:id="rId319" display="Smallest range in “K” Lists"/>
+    <hyperlink ref="C327" r:id="rId320" display="Median in a stream of Integers"/>
+    <hyperlink ref="C328" r:id="rId321" display="Check if a Binary Tree is Heap"/>
+    <hyperlink ref="C329" r:id="rId322" display="Connect “n” ropes with minimum cost"/>
+    <hyperlink ref="C330" r:id="rId323" display="Convert BST to Min Heap"/>
+    <hyperlink ref="C331" r:id="rId324" display="Convert min heap to max heap"/>
+    <hyperlink ref="C332" r:id="rId325" display="Rearrange characters in a string such that no two adjacent are same."/>
+    <hyperlink ref="C333" r:id="rId326" display="Minimum sum of two numbers formed from digits of an array"/>
+    <hyperlink ref="C334" r:id="rId327" display="Create a Graph, print it"/>
+    <hyperlink ref="C335" r:id="rId328" display="Implement BFS algorithm "/>
+    <hyperlink ref="C336" r:id="rId329" display="Implement DFS Algo "/>
+    <hyperlink ref="C337" r:id="rId330" display="Detect Cycle in Directed Graph using BFS/DFS Algo "/>
+    <hyperlink ref="C338" r:id="rId331" display="Detect Cycle in UnDirected Graph using BFS/DFS Algo "/>
+    <hyperlink ref="C339" r:id="rId332" display="Search in a Maze"/>
+    <hyperlink ref="C340" r:id="rId333" display="Minimum Step by Knight"/>
+    <hyperlink ref="C341" r:id="rId334" display="flood fill algo"/>
+    <hyperlink ref="C342" r:id="rId335" display="Clone a graph"/>
+    <hyperlink ref="C343" r:id="rId336" display="Making wired Connections"/>
+    <hyperlink ref="C344" r:id="rId337" display="word Ladder "/>
+    <hyperlink ref="C345" r:id="rId338" display="Dijkstra algo"/>
+    <hyperlink ref="C346" r:id="rId339" display="Implement Topological Sort "/>
+    <hyperlink ref="C347" r:id="rId340" display="Minimum time taken by each job to be completed given by a Directed Acyclic Graph"/>
+    <hyperlink ref="C348" r:id="rId341" display="Find whether it is possible to finish all tasks or not from given dependencies"/>
+    <hyperlink ref="C349" r:id="rId342" display="Find the no. of Isalnds"/>
+    <hyperlink ref="C350" r:id="rId343" display="Given a sorted Dictionary of an Alien Language, find order of characters"/>
+    <hyperlink ref="C351" r:id="rId344" display="Implement Kruksal’sAlgorithm"/>
+    <hyperlink ref="C352" r:id="rId345" display="Implement Prim’s Algorithm"/>
+    <hyperlink ref="C353" r:id="rId346" display="Total no. of Spanning tree in a graph"/>
+    <hyperlink ref="C354" r:id="rId347" display="Implement Bellman Ford Algorithm"/>
+    <hyperlink ref="C355" r:id="rId348" display="Implement Floyd warshallAlgorithm"/>
+    <hyperlink ref="C356" r:id="rId349" display="Travelling Salesman Problem"/>
+    <hyperlink ref="C357" r:id="rId350" location=":~:text=Graph%20coloring%20problem%20is%20to,are%20colored%20using%20same%20color." display="Graph ColouringProblem"/>
+    <hyperlink ref="C358" r:id="rId351" display="Snake and Ladders Problem"/>
+    <hyperlink ref="C359" r:id="rId352" display="Find bridge in a graph"/>
+    <hyperlink ref="C360" r:id="rId353" display="Count Strongly connected Components(Kosaraju Algo)"/>
+    <hyperlink ref="C361" r:id="rId354" display="Check whether a graph is Bipartite or Not"/>
+    <hyperlink ref="C362" r:id="rId355" display="Detect Negative cycle in a graph"/>
+    <hyperlink ref="C363" r:id="rId356" display="Longest path in a Directed Acyclic Graph"/>
+    <hyperlink ref="C364" r:id="rId357" display="Journey to the Moon"/>
+    <hyperlink ref="C365" r:id="rId358" display="Cheapest Flights Within K Stops"/>
+    <hyperlink ref="C366" r:id="rId359" display="Oliver and the Game"/>
+    <hyperlink ref="C367" r:id="rId360" display="Water Jug problem using BFS"/>
+    <hyperlink ref="C368" r:id="rId361" display="Water Jug problem using BFS"/>
+    <hyperlink ref="C369" r:id="rId362" display="Find if there is a path of more thank length from a source"/>
+    <hyperlink ref="C370" r:id="rId363" display="M-ColouringProblem"/>
+    <hyperlink ref="C371" r:id="rId364" display="Minimum edges to reverse o make path from source to destination"/>
+    <hyperlink ref="C372" r:id="rId365" display="Paths to travel each nodes using each edge(Seven Bridges)"/>
+    <hyperlink ref="C373" r:id="rId366" display="Vertex Cover Problem"/>
+    <hyperlink ref="C374" r:id="rId367" display="Chinese Postman or Route Inspection"/>
+    <hyperlink ref="C375" r:id="rId368" display="Number of Triangles in a Directed and Undirected Graph"/>
+    <hyperlink ref="C376" r:id="rId369" display="Minimise the cashflow among a given set of friends who have borrowed money from each other"/>
+    <hyperlink ref="C377" r:id="rId370" display="Two Clique Problem"/>
+    <hyperlink ref="C378" r:id="rId371" display="Construct a trie from scratch"/>
+    <hyperlink ref="C379" r:id="rId372" display="Find shortest unique prefix for every word in a given list"/>
+    <hyperlink ref="C380" r:id="rId373" display="Word Break Problem | (Trie solution)"/>
+    <hyperlink ref="C381" r:id="rId374" display="Given a sequence of words, print all anagrams together"/>
+    <hyperlink ref="C382" r:id="rId375" display="Implement a Phone Directory"/>
+    <hyperlink ref="C383" r:id="rId376" display="Print unique rows in a given boolean matrix"/>
+    <hyperlink ref="C384" r:id="rId377" display="Coin ChangeProblem"/>
+    <hyperlink ref="C385" r:id="rId378" display="Knapsack Problem"/>
+    <hyperlink ref="C386" r:id="rId379" display="Binomial CoefficientProblem"/>
+    <hyperlink ref="C387" r:id="rId380" display="Permutation CoefficientProblem"/>
+    <hyperlink ref="C388" r:id="rId381" display="Program for nth Catalan Number"/>
+    <hyperlink ref="C389" r:id="rId382" display="Matrix Chain Multiplication "/>
+    <hyperlink ref="C390" r:id="rId383" display="Edit Distance"/>
+    <hyperlink ref="C391" r:id="rId384" display="Subset Sum Problem"/>
+    <hyperlink ref="C392" r:id="rId385" display="Friends Pairing Problem"/>
+    <hyperlink ref="C393" r:id="rId386" display="Gold Mine Problem"/>
+    <hyperlink ref="C394" r:id="rId387" display="Assembly Line SchedulingProblem"/>
+    <hyperlink ref="C395" r:id="rId388" display="Painting the Fenceproblem"/>
+    <hyperlink ref="C396" r:id="rId389" display="Maximize The Cut Segments"/>
+    <hyperlink ref="C397" r:id="rId390" display="Longest Common Subsequence"/>
+    <hyperlink ref="C398" r:id="rId391" display="Longest Repeated Subsequence"/>
+    <hyperlink ref="C399" r:id="rId392" display="Longest Increasing Subsequence"/>
+    <hyperlink ref="C400" r:id="rId393" display="Space Optimized Solution of LCS"/>
+    <hyperlink ref="C401" r:id="rId394" display="LCS (Longest Common Subsequence) of three strings"/>
+    <hyperlink ref="C402" r:id="rId395" display="Maximum Sum Increasing Subsequence"/>
+    <hyperlink ref="C403" r:id="rId396" display="Count all subsequences having product less than K"/>
+    <hyperlink ref="C404" r:id="rId397" display="Longest subsequence such that difference between adjacent is one"/>
+    <hyperlink ref="C405" r:id="rId398" display="Maximum subsequence sum such that no three are consecutive"/>
+    <hyperlink ref="C406" r:id="rId399" display="Egg Dropping Problem"/>
+    <hyperlink ref="C407" r:id="rId400" display="Maximum Length Chain of Pairs"/>
+    <hyperlink ref="C408" r:id="rId401" display="Maximum size square sub-matrix with all 1s"/>
+    <hyperlink ref="C409" r:id="rId402" display="Maximum sum of pairs with specific difference"/>
+    <hyperlink ref="C410" r:id="rId403" display="Min Cost PathProblem"/>
+    <hyperlink ref="C411" r:id="rId404" display="Maximum difference of zeros and ones in binary string"/>
+    <hyperlink ref="C412" r:id="rId405" display="Minimum number of jumps to reach end"/>
+    <hyperlink ref="C413" r:id="rId406" display="Minimum cost to fill given weight in a bag"/>
+    <hyperlink ref="C414" r:id="rId407" display="Minimum removals from array to make max –min &lt;= K"/>
+    <hyperlink ref="C415" r:id="rId408" display="Longest Common Substring"/>
+    <hyperlink ref="C416" r:id="rId409" display="Count number of ways to reacha given score in a game"/>
+    <hyperlink ref="C417" r:id="rId410" display="Count Balanced Binary Trees of Height h"/>
+    <hyperlink ref="C418" r:id="rId411" display="LargestSum Contiguous Subarray [V&gt;V&gt;V&gt;V IMP ]"/>
+    <hyperlink ref="C419" r:id="rId412" display="Smallest sum contiguous subarray"/>
+    <hyperlink ref="C420" r:id="rId413" display="Unbounded Knapsack (Repetition of items allowed)"/>
+    <hyperlink ref="C421" r:id="rId414" display="Word Break Problem"/>
+    <hyperlink ref="C422" r:id="rId415" display="Largest Independent Set Problem"/>
+    <hyperlink ref="C423" r:id="rId416" display="Partition problem"/>
+    <hyperlink ref="C424" r:id="rId417" display="Longest Palindromic Subsequence"/>
+    <hyperlink ref="C425" r:id="rId418" display="Count All Palindromic Subsequence in a given String"/>
+    <hyperlink ref="C426" r:id="rId419" display="Longest Palindromic Substring"/>
+    <hyperlink ref="C427" r:id="rId420" display="Longest alternating subsequence"/>
+    <hyperlink ref="C428" r:id="rId421" display="Weighted Job Scheduling"/>
+    <hyperlink ref="C429" r:id="rId422" display="Coin game winner where every player has three choices"/>
+    <hyperlink ref="C430" r:id="rId423" display="Count Derangements (Permutation such that no element appears in its original position) [ IMPORTANT ]"/>
+    <hyperlink ref="C431" r:id="rId424" display="Maximum profit by buying and selling a share at most twice [ IMP ]"/>
+    <hyperlink ref="C432" r:id="rId425" display="Optimal Strategy for a Game"/>
+    <hyperlink ref="C433" r:id="rId426" display="Optimal Binary Search Tree"/>
+    <hyperlink ref="C434" r:id="rId427" display="Palindrome PartitioningProblem"/>
+    <hyperlink ref="C435" r:id="rId428" display="Word Wrap Problem"/>
+    <hyperlink ref="C436" r:id="rId429" display="Mobile Numeric Keypad Problem [ IMP ]"/>
+    <hyperlink ref="C437" r:id="rId430" display="Boolean Parenthesization Problem"/>
+    <hyperlink ref="C438" r:id="rId431" display="Largest rectangular sub-matrix whose sum is 0"/>
+    <hyperlink ref="C439" r:id="rId432" display="Largest area rectangular sub-matrix with equal number of 1’s and 0’s [ IMP ]"/>
+    <hyperlink ref="C440" r:id="rId433" display="Maximum sum rectangle in a 2D matrix"/>
+    <hyperlink ref="C441" r:id="rId434" display="Maximum profit by buying and selling a share at most k times"/>
+    <hyperlink ref="C442" r:id="rId435" display="Find if a string is interleaved of two other strings"/>
+    <hyperlink ref="C443" r:id="rId436" display="Maximum Length of Pair Chain"/>
+    <hyperlink ref="C444" r:id="rId437" display="Count set bits in an integer"/>
+    <hyperlink ref="C445" r:id="rId438" display="Find the two non-repeating elements in an array of repeating elements"/>
+    <hyperlink ref="C446" r:id="rId439" display="Count number of bits to be flipped to convert A to B"/>
+    <hyperlink ref="C447" r:id="rId440" display="Count total set bits in all numbers from 1 to n"/>
+    <hyperlink ref="C448" r:id="rId441" display="Program to find whether a no is power of two"/>
+    <hyperlink ref="C449" r:id="rId442" display="Find position of the only set bit"/>
+    <hyperlink ref="C450" r:id="rId443" display="Copy set bits in a range"/>
+    <hyperlink ref="C451" r:id="rId444" display="Divide two integers without using multiplication, division and mod operator"/>
+    <hyperlink ref="C452" r:id="rId445" location=":~:text=Given%20an%20integer%20n%2C%20calculate,*%2C%20%2F%20and%20pow().&amp;text=A%20Simple%20Solution%20is%20to%20repeatedly%20add%20n%20to%20result." display="Calculate square of a number without using *, / and pow()"/>
+    <hyperlink ref="C453" r:id="rId446" display="Power Set"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>

--- a/DSA_450_LoveBabbar.xlsx
+++ b/DSA_450_LoveBabbar.xlsx
@@ -163,30 +163,30 @@
     <t xml:space="preserve">Find row with maximum no. of 1's</t>
   </si>
   <si>
+    <t xml:space="preserve">Print elements in sorted order using row-column wise sorted matrix (generalised form: MxN matrix)</t>
+  </si>
+  <si>
     <r>
       <rPr>
-        <u val="single"/>
-        <sz val="16"/>
-        <color rgb="FF0563C1"/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">Print elements in sorted order using row-column wise sorted matrix</t>
+      <t xml:space="preserve">Can’t solve generalised form MxN in given time
+</t>
     </r>
     <r>
       <rPr>
-        <sz val="16"/>
-        <color rgb="FF0563C1"/>
+        <sz val="12"/>
+        <color rgb="FFC9211E"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve"> (generalised form: MxN matrix)</t>
+      <t xml:space="preserve">NOT DONE</t>
     </r>
-  </si>
-  <si>
-    <t xml:space="preserve">Can’t solve generalised form MxN in given time</t>
   </si>
   <si>
     <t xml:space="preserve">Maximum size rectangle</t>
@@ -1535,8 +1535,8 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="16"/>
-      <color rgb="FF0563C1"/>
+      <sz val="12"/>
+      <color rgb="FFC9211E"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
@@ -1605,12 +1605,33 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="4">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="hair"/>
+      <right/>
+      <top style="hair"/>
+      <bottom style="hair"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right/>
+      <top style="hair"/>
+      <bottom style="hair"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right style="hair"/>
+      <top style="hair"/>
+      <bottom style="hair"/>
       <diagonal/>
     </border>
   </borders>
@@ -1642,7 +1663,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="23">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1705,6 +1726,18 @@
     </xf>
     <xf numFmtId="164" fontId="7" fillId="8" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="8" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="9" borderId="2" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="10" fillId="9" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -1787,7 +1820,7 @@
       <rgbColor rgb="FF339966"/>
       <rgbColor rgb="FF003300"/>
       <rgbColor rgb="FF333300"/>
-      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FFC9211E"/>
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
@@ -1803,16 +1836,16 @@
   </sheetPr>
   <dimension ref="A1:D467"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A20" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B41" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C48" activeCellId="0" sqref="C48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.65625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.66015625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.63"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="28.24"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="111.25"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="40.95"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="40.96"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2362,18 +2395,18 @@
       </c>
       <c r="D45" s="12"/>
     </row>
-    <row r="46" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="46" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="6" t="n">
         <f aca="false">A45 + 1</f>
         <v>41</v>
       </c>
-      <c r="B46" s="15" t="s">
+      <c r="B46" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="C46" s="16" t="s">
+      <c r="C46" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="D46" s="12" t="s">
+      <c r="D46" s="18" t="s">
         <v>48</v>
       </c>
     </row>
@@ -2385,7 +2418,7 @@
       <c r="B47" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="C47" s="16" t="s">
+      <c r="C47" s="19" t="s">
         <v>49</v>
       </c>
       <c r="D47" s="12" t="s">
@@ -2400,7 +2433,7 @@
       <c r="B48" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="C48" s="17" t="s">
+      <c r="C48" s="20" t="s">
         <v>51</v>
       </c>
       <c r="D48" s="12"/>
@@ -2413,7 +2446,7 @@
       <c r="B49" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="C49" s="17" t="s">
+      <c r="C49" s="20" t="s">
         <v>52</v>
       </c>
       <c r="D49" s="12"/>
@@ -2426,7 +2459,7 @@
       <c r="B50" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="C50" s="17" t="s">
+      <c r="C50" s="20" t="s">
         <v>53</v>
       </c>
       <c r="D50" s="12"/>
@@ -2439,7 +2472,7 @@
       <c r="B51" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="C51" s="17" t="s">
+      <c r="C51" s="20" t="s">
         <v>54</v>
       </c>
       <c r="D51" s="12"/>
@@ -2452,7 +2485,7 @@
       <c r="B52" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="C52" s="17" t="s">
+      <c r="C52" s="20" t="s">
         <v>56</v>
       </c>
       <c r="D52" s="12"/>
@@ -2465,7 +2498,7 @@
       <c r="B53" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="C53" s="17" t="s">
+      <c r="C53" s="20" t="s">
         <v>57</v>
       </c>
       <c r="D53" s="12"/>
@@ -2478,7 +2511,7 @@
       <c r="B54" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="C54" s="17" t="s">
+      <c r="C54" s="20" t="s">
         <v>58</v>
       </c>
       <c r="D54" s="12"/>
@@ -2491,7 +2524,7 @@
       <c r="B55" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="C55" s="18" t="s">
+      <c r="C55" s="21" t="s">
         <v>59</v>
       </c>
       <c r="D55" s="12"/>
@@ -2504,7 +2537,7 @@
       <c r="B56" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="C56" s="17" t="s">
+      <c r="C56" s="20" t="s">
         <v>60</v>
       </c>
       <c r="D56" s="12"/>
@@ -2517,7 +2550,7 @@
       <c r="B57" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="C57" s="17" t="s">
+      <c r="C57" s="20" t="s">
         <v>61</v>
       </c>
       <c r="D57" s="12"/>
@@ -2530,7 +2563,7 @@
       <c r="B58" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="C58" s="17" t="s">
+      <c r="C58" s="20" t="s">
         <v>62</v>
       </c>
       <c r="D58" s="12"/>
@@ -2543,7 +2576,7 @@
       <c r="B59" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="C59" s="17" t="s">
+      <c r="C59" s="20" t="s">
         <v>63</v>
       </c>
       <c r="D59" s="12"/>
@@ -2556,7 +2589,7 @@
       <c r="B60" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="C60" s="17" t="s">
+      <c r="C60" s="20" t="s">
         <v>64</v>
       </c>
       <c r="D60" s="12"/>
@@ -2569,7 +2602,7 @@
       <c r="B61" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="C61" s="17" t="s">
+      <c r="C61" s="20" t="s">
         <v>65</v>
       </c>
       <c r="D61" s="12"/>
@@ -2582,7 +2615,7 @@
       <c r="B62" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="C62" s="17" t="s">
+      <c r="C62" s="20" t="s">
         <v>66</v>
       </c>
       <c r="D62" s="12"/>
@@ -2595,7 +2628,7 @@
       <c r="B63" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="C63" s="17" t="s">
+      <c r="C63" s="20" t="s">
         <v>67</v>
       </c>
       <c r="D63" s="12"/>
@@ -2608,7 +2641,7 @@
       <c r="B64" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="C64" s="17" t="s">
+      <c r="C64" s="20" t="s">
         <v>68</v>
       </c>
       <c r="D64" s="12"/>
@@ -2621,7 +2654,7 @@
       <c r="B65" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="C65" s="17" t="s">
+      <c r="C65" s="20" t="s">
         <v>69</v>
       </c>
       <c r="D65" s="12"/>
@@ -2634,7 +2667,7 @@
       <c r="B66" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="C66" s="17" t="s">
+      <c r="C66" s="20" t="s">
         <v>70</v>
       </c>
       <c r="D66" s="12"/>
@@ -2647,7 +2680,7 @@
       <c r="B67" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="C67" s="17" t="s">
+      <c r="C67" s="20" t="s">
         <v>71</v>
       </c>
       <c r="D67" s="12"/>
@@ -2660,7 +2693,7 @@
       <c r="B68" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="C68" s="17" t="s">
+      <c r="C68" s="20" t="s">
         <v>72</v>
       </c>
       <c r="D68" s="12"/>
@@ -2673,7 +2706,7 @@
       <c r="B69" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="C69" s="17" t="s">
+      <c r="C69" s="20" t="s">
         <v>73</v>
       </c>
       <c r="D69" s="12"/>
@@ -2686,7 +2719,7 @@
       <c r="B70" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="C70" s="17" t="s">
+      <c r="C70" s="20" t="s">
         <v>74</v>
       </c>
       <c r="D70" s="12"/>
@@ -2699,7 +2732,7 @@
       <c r="B71" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="C71" s="17" t="s">
+      <c r="C71" s="20" t="s">
         <v>75</v>
       </c>
       <c r="D71" s="12"/>
@@ -2712,7 +2745,7 @@
       <c r="B72" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="C72" s="17" t="s">
+      <c r="C72" s="20" t="s">
         <v>76</v>
       </c>
       <c r="D72" s="12"/>
@@ -2725,7 +2758,7 @@
       <c r="B73" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="C73" s="17" t="s">
+      <c r="C73" s="20" t="s">
         <v>77</v>
       </c>
       <c r="D73" s="12"/>
@@ -2738,7 +2771,7 @@
       <c r="B74" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="C74" s="17" t="s">
+      <c r="C74" s="20" t="s">
         <v>78</v>
       </c>
       <c r="D74" s="12"/>
@@ -2751,7 +2784,7 @@
       <c r="B75" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="C75" s="17" t="s">
+      <c r="C75" s="20" t="s">
         <v>79</v>
       </c>
       <c r="D75" s="12"/>
@@ -2764,7 +2797,7 @@
       <c r="B76" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="C76" s="17" t="s">
+      <c r="C76" s="20" t="s">
         <v>80</v>
       </c>
       <c r="D76" s="12"/>
@@ -2777,7 +2810,7 @@
       <c r="B77" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="C77" s="17" t="s">
+      <c r="C77" s="20" t="s">
         <v>81</v>
       </c>
       <c r="D77" s="12"/>
@@ -2790,7 +2823,7 @@
       <c r="B78" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="C78" s="17" t="s">
+      <c r="C78" s="20" t="s">
         <v>82</v>
       </c>
       <c r="D78" s="12"/>
@@ -2803,7 +2836,7 @@
       <c r="B79" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="C79" s="17" t="s">
+      <c r="C79" s="20" t="s">
         <v>83</v>
       </c>
       <c r="D79" s="12"/>
@@ -2816,7 +2849,7 @@
       <c r="B80" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="C80" s="17" t="s">
+      <c r="C80" s="20" t="s">
         <v>84</v>
       </c>
       <c r="D80" s="12"/>
@@ -2829,7 +2862,7 @@
       <c r="B81" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="C81" s="17" t="s">
+      <c r="C81" s="20" t="s">
         <v>85</v>
       </c>
       <c r="D81" s="12"/>
@@ -2842,7 +2875,7 @@
       <c r="B82" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="C82" s="17" t="s">
+      <c r="C82" s="20" t="s">
         <v>86</v>
       </c>
       <c r="D82" s="12"/>
@@ -2855,7 +2888,7 @@
       <c r="B83" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="C83" s="17" t="s">
+      <c r="C83" s="20" t="s">
         <v>87</v>
       </c>
       <c r="D83" s="12"/>
@@ -2868,7 +2901,7 @@
       <c r="B84" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="C84" s="17" t="s">
+      <c r="C84" s="20" t="s">
         <v>88</v>
       </c>
       <c r="D84" s="12"/>
@@ -2881,7 +2914,7 @@
       <c r="B85" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="C85" s="17" t="s">
+      <c r="C85" s="20" t="s">
         <v>89</v>
       </c>
       <c r="D85" s="12"/>
@@ -2894,7 +2927,7 @@
       <c r="B86" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="C86" s="17" t="s">
+      <c r="C86" s="20" t="s">
         <v>90</v>
       </c>
       <c r="D86" s="12"/>
@@ -2907,7 +2940,7 @@
       <c r="B87" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="C87" s="17" t="s">
+      <c r="C87" s="20" t="s">
         <v>91</v>
       </c>
       <c r="D87" s="12"/>
@@ -2920,7 +2953,7 @@
       <c r="B88" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="C88" s="17" t="s">
+      <c r="C88" s="20" t="s">
         <v>92</v>
       </c>
       <c r="D88" s="12"/>
@@ -2933,7 +2966,7 @@
       <c r="B89" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="C89" s="17" t="s">
+      <c r="C89" s="20" t="s">
         <v>93</v>
       </c>
       <c r="D89" s="12"/>
@@ -2946,7 +2979,7 @@
       <c r="B90" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="C90" s="17" t="s">
+      <c r="C90" s="20" t="s">
         <v>94</v>
       </c>
       <c r="D90" s="12"/>
@@ -2959,7 +2992,7 @@
       <c r="B91" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="C91" s="17" t="s">
+      <c r="C91" s="20" t="s">
         <v>95</v>
       </c>
       <c r="D91" s="12"/>
@@ -2972,7 +3005,7 @@
       <c r="B92" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="C92" s="17" t="s">
+      <c r="C92" s="20" t="s">
         <v>96</v>
       </c>
       <c r="D92" s="12"/>
@@ -2985,7 +3018,7 @@
       <c r="B93" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="C93" s="17" t="s">
+      <c r="C93" s="20" t="s">
         <v>97</v>
       </c>
       <c r="D93" s="12"/>
@@ -2998,7 +3031,7 @@
       <c r="B94" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="C94" s="17" t="s">
+      <c r="C94" s="20" t="s">
         <v>98</v>
       </c>
       <c r="D94" s="12"/>
@@ -3011,7 +3044,7 @@
       <c r="B95" s="15" t="s">
         <v>99</v>
       </c>
-      <c r="C95" s="17" t="s">
+      <c r="C95" s="20" t="s">
         <v>100</v>
       </c>
       <c r="D95" s="12"/>
@@ -3024,7 +3057,7 @@
       <c r="B96" s="15" t="s">
         <v>99</v>
       </c>
-      <c r="C96" s="17" t="s">
+      <c r="C96" s="20" t="s">
         <v>101</v>
       </c>
       <c r="D96" s="12"/>
@@ -3037,7 +3070,7 @@
       <c r="B97" s="15" t="s">
         <v>99</v>
       </c>
-      <c r="C97" s="17" t="s">
+      <c r="C97" s="20" t="s">
         <v>102</v>
       </c>
       <c r="D97" s="12"/>
@@ -3050,7 +3083,7 @@
       <c r="B98" s="15" t="s">
         <v>99</v>
       </c>
-      <c r="C98" s="17" t="s">
+      <c r="C98" s="20" t="s">
         <v>103</v>
       </c>
       <c r="D98" s="12"/>
@@ -3063,7 +3096,7 @@
       <c r="B99" s="15" t="s">
         <v>99</v>
       </c>
-      <c r="C99" s="17" t="s">
+      <c r="C99" s="20" t="s">
         <v>104</v>
       </c>
       <c r="D99" s="12"/>
@@ -3076,7 +3109,7 @@
       <c r="B100" s="15" t="s">
         <v>99</v>
       </c>
-      <c r="C100" s="17" t="s">
+      <c r="C100" s="20" t="s">
         <v>105</v>
       </c>
       <c r="D100" s="12"/>
@@ -3089,7 +3122,7 @@
       <c r="B101" s="15" t="s">
         <v>99</v>
       </c>
-      <c r="C101" s="17" t="s">
+      <c r="C101" s="20" t="s">
         <v>106</v>
       </c>
       <c r="D101" s="12"/>
@@ -3102,7 +3135,7 @@
       <c r="B102" s="15" t="s">
         <v>99</v>
       </c>
-      <c r="C102" s="17" t="s">
+      <c r="C102" s="20" t="s">
         <v>107</v>
       </c>
       <c r="D102" s="12"/>
@@ -3115,7 +3148,7 @@
       <c r="B103" s="15" t="s">
         <v>99</v>
       </c>
-      <c r="C103" s="17" t="s">
+      <c r="C103" s="20" t="s">
         <v>108</v>
       </c>
       <c r="D103" s="12"/>
@@ -3128,7 +3161,7 @@
       <c r="B104" s="15" t="s">
         <v>99</v>
       </c>
-      <c r="C104" s="17" t="s">
+      <c r="C104" s="20" t="s">
         <v>109</v>
       </c>
       <c r="D104" s="12"/>
@@ -3141,7 +3174,7 @@
       <c r="B105" s="15" t="s">
         <v>99</v>
       </c>
-      <c r="C105" s="17" t="s">
+      <c r="C105" s="20" t="s">
         <v>110</v>
       </c>
       <c r="D105" s="12"/>
@@ -3154,7 +3187,7 @@
       <c r="B106" s="15" t="s">
         <v>99</v>
       </c>
-      <c r="C106" s="17" t="s">
+      <c r="C106" s="20" t="s">
         <v>111</v>
       </c>
       <c r="D106" s="12"/>
@@ -3167,7 +3200,7 @@
       <c r="B107" s="15" t="s">
         <v>99</v>
       </c>
-      <c r="C107" s="17" t="s">
+      <c r="C107" s="20" t="s">
         <v>112</v>
       </c>
       <c r="D107" s="12"/>
@@ -3180,7 +3213,7 @@
       <c r="B108" s="15" t="s">
         <v>99</v>
       </c>
-      <c r="C108" s="17" t="s">
+      <c r="C108" s="20" t="s">
         <v>113</v>
       </c>
       <c r="D108" s="12"/>
@@ -3193,7 +3226,7 @@
       <c r="B109" s="15" t="s">
         <v>99</v>
       </c>
-      <c r="C109" s="17" t="s">
+      <c r="C109" s="20" t="s">
         <v>114</v>
       </c>
       <c r="D109" s="12"/>
@@ -3206,7 +3239,7 @@
       <c r="B110" s="15" t="s">
         <v>99</v>
       </c>
-      <c r="C110" s="17" t="s">
+      <c r="C110" s="20" t="s">
         <v>115</v>
       </c>
       <c r="D110" s="12"/>
@@ -3219,7 +3252,7 @@
       <c r="B111" s="15" t="s">
         <v>99</v>
       </c>
-      <c r="C111" s="17" t="s">
+      <c r="C111" s="20" t="s">
         <v>116</v>
       </c>
       <c r="D111" s="12"/>
@@ -3232,7 +3265,7 @@
       <c r="B112" s="15" t="s">
         <v>99</v>
       </c>
-      <c r="C112" s="17" t="s">
+      <c r="C112" s="20" t="s">
         <v>117</v>
       </c>
       <c r="D112" s="12"/>
@@ -3245,7 +3278,7 @@
       <c r="B113" s="15" t="s">
         <v>99</v>
       </c>
-      <c r="C113" s="17" t="s">
+      <c r="C113" s="20" t="s">
         <v>118</v>
       </c>
       <c r="D113" s="12"/>
@@ -3258,7 +3291,7 @@
       <c r="B114" s="15" t="s">
         <v>99</v>
       </c>
-      <c r="C114" s="17" t="s">
+      <c r="C114" s="20" t="s">
         <v>119</v>
       </c>
       <c r="D114" s="12"/>
@@ -3271,7 +3304,7 @@
       <c r="B115" s="15" t="s">
         <v>99</v>
       </c>
-      <c r="C115" s="17" t="s">
+      <c r="C115" s="20" t="s">
         <v>120</v>
       </c>
       <c r="D115" s="12"/>
@@ -3284,7 +3317,7 @@
       <c r="B116" s="15" t="s">
         <v>99</v>
       </c>
-      <c r="C116" s="17" t="s">
+      <c r="C116" s="20" t="s">
         <v>121</v>
       </c>
       <c r="D116" s="12"/>
@@ -3297,7 +3330,7 @@
       <c r="B117" s="15" t="s">
         <v>99</v>
       </c>
-      <c r="C117" s="17" t="s">
+      <c r="C117" s="20" t="s">
         <v>122</v>
       </c>
       <c r="D117" s="12"/>
@@ -3310,7 +3343,7 @@
       <c r="B118" s="15" t="s">
         <v>99</v>
       </c>
-      <c r="C118" s="17" t="s">
+      <c r="C118" s="20" t="s">
         <v>123</v>
       </c>
       <c r="D118" s="12"/>
@@ -3323,7 +3356,7 @@
       <c r="B119" s="15" t="s">
         <v>99</v>
       </c>
-      <c r="C119" s="17" t="s">
+      <c r="C119" s="20" t="s">
         <v>124</v>
       </c>
       <c r="D119" s="12"/>
@@ -3336,7 +3369,7 @@
       <c r="B120" s="15" t="s">
         <v>99</v>
       </c>
-      <c r="C120" s="17" t="s">
+      <c r="C120" s="20" t="s">
         <v>125</v>
       </c>
       <c r="D120" s="12"/>
@@ -3349,7 +3382,7 @@
       <c r="B121" s="15" t="s">
         <v>99</v>
       </c>
-      <c r="C121" s="17" t="s">
+      <c r="C121" s="20" t="s">
         <v>126</v>
       </c>
       <c r="D121" s="12"/>
@@ -3362,7 +3395,7 @@
       <c r="B122" s="15" t="s">
         <v>99</v>
       </c>
-      <c r="C122" s="17" t="s">
+      <c r="C122" s="20" t="s">
         <v>127</v>
       </c>
       <c r="D122" s="12"/>
@@ -3375,7 +3408,7 @@
       <c r="B123" s="15" t="s">
         <v>99</v>
       </c>
-      <c r="C123" s="17" t="s">
+      <c r="C123" s="20" t="s">
         <v>128</v>
       </c>
       <c r="D123" s="12"/>
@@ -3388,7 +3421,7 @@
       <c r="B124" s="15" t="s">
         <v>99</v>
       </c>
-      <c r="C124" s="17" t="s">
+      <c r="C124" s="20" t="s">
         <v>129</v>
       </c>
       <c r="D124" s="12"/>
@@ -3401,7 +3434,7 @@
       <c r="B125" s="15" t="s">
         <v>99</v>
       </c>
-      <c r="C125" s="17" t="s">
+      <c r="C125" s="20" t="s">
         <v>130</v>
       </c>
       <c r="D125" s="12"/>
@@ -3414,7 +3447,7 @@
       <c r="B126" s="15" t="s">
         <v>99</v>
       </c>
-      <c r="C126" s="17" t="s">
+      <c r="C126" s="20" t="s">
         <v>131</v>
       </c>
       <c r="D126" s="12"/>
@@ -3427,7 +3460,7 @@
       <c r="B127" s="15" t="s">
         <v>99</v>
       </c>
-      <c r="C127" s="17" t="s">
+      <c r="C127" s="20" t="s">
         <v>132</v>
       </c>
       <c r="D127" s="12"/>
@@ -3440,7 +3473,7 @@
       <c r="B128" s="15" t="s">
         <v>99</v>
       </c>
-      <c r="C128" s="17" t="s">
+      <c r="C128" s="20" t="s">
         <v>133</v>
       </c>
       <c r="D128" s="12"/>
@@ -3453,7 +3486,7 @@
       <c r="B129" s="15" t="s">
         <v>99</v>
       </c>
-      <c r="C129" s="17" t="s">
+      <c r="C129" s="20" t="s">
         <v>134</v>
       </c>
       <c r="D129" s="12"/>
@@ -3466,7 +3499,7 @@
       <c r="B130" s="15" t="s">
         <v>99</v>
       </c>
-      <c r="C130" s="17" t="s">
+      <c r="C130" s="20" t="s">
         <v>135</v>
       </c>
       <c r="D130" s="12"/>
@@ -3479,7 +3512,7 @@
       <c r="B131" s="10" t="s">
         <v>136</v>
       </c>
-      <c r="C131" s="17" t="s">
+      <c r="C131" s="20" t="s">
         <v>137</v>
       </c>
       <c r="D131" s="12"/>
@@ -3492,7 +3525,7 @@
       <c r="B132" s="10" t="s">
         <v>136</v>
       </c>
-      <c r="C132" s="17" t="s">
+      <c r="C132" s="20" t="s">
         <v>138</v>
       </c>
       <c r="D132" s="12"/>
@@ -3505,7 +3538,7 @@
       <c r="B133" s="10" t="s">
         <v>136</v>
       </c>
-      <c r="C133" s="17" t="s">
+      <c r="C133" s="20" t="s">
         <v>139</v>
       </c>
       <c r="D133" s="12"/>
@@ -3518,7 +3551,7 @@
       <c r="B134" s="10" t="s">
         <v>136</v>
       </c>
-      <c r="C134" s="17" t="s">
+      <c r="C134" s="20" t="s">
         <v>140</v>
       </c>
       <c r="D134" s="12"/>
@@ -3531,7 +3564,7 @@
       <c r="B135" s="10" t="s">
         <v>136</v>
       </c>
-      <c r="C135" s="17" t="s">
+      <c r="C135" s="20" t="s">
         <v>141</v>
       </c>
       <c r="D135" s="12"/>
@@ -3544,7 +3577,7 @@
       <c r="B136" s="10" t="s">
         <v>136</v>
       </c>
-      <c r="C136" s="17" t="s">
+      <c r="C136" s="20" t="s">
         <v>142</v>
       </c>
       <c r="D136" s="12"/>
@@ -3557,7 +3590,7 @@
       <c r="B137" s="10" t="s">
         <v>136</v>
       </c>
-      <c r="C137" s="17" t="s">
+      <c r="C137" s="20" t="s">
         <v>143</v>
       </c>
       <c r="D137" s="12"/>
@@ -3570,7 +3603,7 @@
       <c r="B138" s="10" t="s">
         <v>136</v>
       </c>
-      <c r="C138" s="17" t="s">
+      <c r="C138" s="20" t="s">
         <v>144</v>
       </c>
       <c r="D138" s="12"/>
@@ -3583,7 +3616,7 @@
       <c r="B139" s="10" t="s">
         <v>136</v>
       </c>
-      <c r="C139" s="17" t="s">
+      <c r="C139" s="20" t="s">
         <v>145</v>
       </c>
       <c r="D139" s="12"/>
@@ -3596,7 +3629,7 @@
       <c r="B140" s="10" t="s">
         <v>136</v>
       </c>
-      <c r="C140" s="17" t="s">
+      <c r="C140" s="20" t="s">
         <v>146</v>
       </c>
       <c r="D140" s="12"/>
@@ -3609,7 +3642,7 @@
       <c r="B141" s="10" t="s">
         <v>136</v>
       </c>
-      <c r="C141" s="17" t="s">
+      <c r="C141" s="20" t="s">
         <v>147</v>
       </c>
       <c r="D141" s="12"/>
@@ -3622,7 +3655,7 @@
       <c r="B142" s="10" t="s">
         <v>136</v>
       </c>
-      <c r="C142" s="17" t="s">
+      <c r="C142" s="20" t="s">
         <v>148</v>
       </c>
       <c r="D142" s="12"/>
@@ -3635,7 +3668,7 @@
       <c r="B143" s="10" t="s">
         <v>136</v>
       </c>
-      <c r="C143" s="17" t="s">
+      <c r="C143" s="20" t="s">
         <v>149</v>
       </c>
       <c r="D143" s="12"/>
@@ -3648,7 +3681,7 @@
       <c r="B144" s="10" t="s">
         <v>136</v>
       </c>
-      <c r="C144" s="17" t="s">
+      <c r="C144" s="20" t="s">
         <v>150</v>
       </c>
       <c r="D144" s="12"/>
@@ -3661,7 +3694,7 @@
       <c r="B145" s="10" t="s">
         <v>136</v>
       </c>
-      <c r="C145" s="17" t="s">
+      <c r="C145" s="20" t="s">
         <v>151</v>
       </c>
       <c r="D145" s="12"/>
@@ -3674,7 +3707,7 @@
       <c r="B146" s="10" t="s">
         <v>136</v>
       </c>
-      <c r="C146" s="17" t="s">
+      <c r="C146" s="20" t="s">
         <v>152</v>
       </c>
       <c r="D146" s="12"/>
@@ -3687,7 +3720,7 @@
       <c r="B147" s="10" t="s">
         <v>136</v>
       </c>
-      <c r="C147" s="17" t="s">
+      <c r="C147" s="20" t="s">
         <v>153</v>
       </c>
       <c r="D147" s="12"/>
@@ -3700,7 +3733,7 @@
       <c r="B148" s="10" t="s">
         <v>136</v>
       </c>
-      <c r="C148" s="17" t="s">
+      <c r="C148" s="20" t="s">
         <v>154</v>
       </c>
       <c r="D148" s="12"/>
@@ -3713,7 +3746,7 @@
       <c r="B149" s="10" t="s">
         <v>136</v>
       </c>
-      <c r="C149" s="17" t="s">
+      <c r="C149" s="20" t="s">
         <v>155</v>
       </c>
       <c r="D149" s="12"/>
@@ -3726,7 +3759,7 @@
       <c r="B150" s="10" t="s">
         <v>136</v>
       </c>
-      <c r="C150" s="17" t="s">
+      <c r="C150" s="20" t="s">
         <v>156</v>
       </c>
       <c r="D150" s="12"/>
@@ -3739,7 +3772,7 @@
       <c r="B151" s="10" t="s">
         <v>136</v>
       </c>
-      <c r="C151" s="17" t="s">
+      <c r="C151" s="20" t="s">
         <v>157</v>
       </c>
       <c r="D151" s="12"/>
@@ -3752,7 +3785,7 @@
       <c r="B152" s="10" t="s">
         <v>136</v>
       </c>
-      <c r="C152" s="17" t="s">
+      <c r="C152" s="20" t="s">
         <v>158</v>
       </c>
       <c r="D152" s="12"/>
@@ -3765,7 +3798,7 @@
       <c r="B153" s="10" t="s">
         <v>136</v>
       </c>
-      <c r="C153" s="17" t="s">
+      <c r="C153" s="20" t="s">
         <v>159</v>
       </c>
       <c r="D153" s="12"/>
@@ -3778,7 +3811,7 @@
       <c r="B154" s="10" t="s">
         <v>136</v>
       </c>
-      <c r="C154" s="17" t="s">
+      <c r="C154" s="20" t="s">
         <v>160</v>
       </c>
       <c r="D154" s="12"/>
@@ -3791,7 +3824,7 @@
       <c r="B155" s="10" t="s">
         <v>136</v>
       </c>
-      <c r="C155" s="17" t="s">
+      <c r="C155" s="20" t="s">
         <v>161</v>
       </c>
       <c r="D155" s="12"/>
@@ -3804,7 +3837,7 @@
       <c r="B156" s="10" t="s">
         <v>136</v>
       </c>
-      <c r="C156" s="18" t="s">
+      <c r="C156" s="21" t="s">
         <v>162</v>
       </c>
       <c r="D156" s="12"/>
@@ -3817,7 +3850,7 @@
       <c r="B157" s="10" t="s">
         <v>136</v>
       </c>
-      <c r="C157" s="18" t="s">
+      <c r="C157" s="21" t="s">
         <v>163</v>
       </c>
       <c r="D157" s="12"/>
@@ -3830,7 +3863,7 @@
       <c r="B158" s="10" t="s">
         <v>136</v>
       </c>
-      <c r="C158" s="17" t="s">
+      <c r="C158" s="20" t="s">
         <v>164</v>
       </c>
       <c r="D158" s="12"/>
@@ -3843,7 +3876,7 @@
       <c r="B159" s="10" t="s">
         <v>136</v>
       </c>
-      <c r="C159" s="17" t="s">
+      <c r="C159" s="20" t="s">
         <v>165</v>
       </c>
       <c r="D159" s="12"/>
@@ -3856,7 +3889,7 @@
       <c r="B160" s="10" t="s">
         <v>136</v>
       </c>
-      <c r="C160" s="17" t="s">
+      <c r="C160" s="20" t="s">
         <v>166</v>
       </c>
       <c r="D160" s="12"/>
@@ -3869,7 +3902,7 @@
       <c r="B161" s="10" t="s">
         <v>136</v>
       </c>
-      <c r="C161" s="17" t="s">
+      <c r="C161" s="20" t="s">
         <v>167</v>
       </c>
       <c r="D161" s="12"/>
@@ -3882,7 +3915,7 @@
       <c r="B162" s="10" t="s">
         <v>136</v>
       </c>
-      <c r="C162" s="17" t="s">
+      <c r="C162" s="20" t="s">
         <v>168</v>
       </c>
       <c r="D162" s="12"/>
@@ -3895,7 +3928,7 @@
       <c r="B163" s="10" t="s">
         <v>136</v>
       </c>
-      <c r="C163" s="17" t="s">
+      <c r="C163" s="20" t="s">
         <v>169</v>
       </c>
       <c r="D163" s="12"/>
@@ -3908,7 +3941,7 @@
       <c r="B164" s="10" t="s">
         <v>136</v>
       </c>
-      <c r="C164" s="17" t="s">
+      <c r="C164" s="20" t="s">
         <v>170</v>
       </c>
       <c r="D164" s="12"/>
@@ -3921,7 +3954,7 @@
       <c r="B165" s="10" t="s">
         <v>136</v>
       </c>
-      <c r="C165" s="17" t="s">
+      <c r="C165" s="20" t="s">
         <v>171</v>
       </c>
       <c r="D165" s="12"/>
@@ -3934,7 +3967,7 @@
       <c r="B166" s="10" t="s">
         <v>136</v>
       </c>
-      <c r="C166" s="17" t="s">
+      <c r="C166" s="20" t="s">
         <v>172</v>
       </c>
       <c r="D166" s="12"/>
@@ -3947,7 +3980,7 @@
       <c r="B167" s="15" t="s">
         <v>173</v>
       </c>
-      <c r="C167" s="17" t="s">
+      <c r="C167" s="20" t="s">
         <v>174</v>
       </c>
       <c r="D167" s="12"/>
@@ -3960,7 +3993,7 @@
       <c r="B168" s="15" t="s">
         <v>173</v>
       </c>
-      <c r="C168" s="17" t="s">
+      <c r="C168" s="20" t="s">
         <v>175</v>
       </c>
       <c r="D168" s="12"/>
@@ -3973,7 +4006,7 @@
       <c r="B169" s="15" t="s">
         <v>173</v>
       </c>
-      <c r="C169" s="17" t="s">
+      <c r="C169" s="20" t="s">
         <v>176</v>
       </c>
       <c r="D169" s="12"/>
@@ -3986,7 +4019,7 @@
       <c r="B170" s="15" t="s">
         <v>173</v>
       </c>
-      <c r="C170" s="17" t="s">
+      <c r="C170" s="20" t="s">
         <v>177</v>
       </c>
       <c r="D170" s="12"/>
@@ -3999,7 +4032,7 @@
       <c r="B171" s="15" t="s">
         <v>173</v>
       </c>
-      <c r="C171" s="17" t="s">
+      <c r="C171" s="20" t="s">
         <v>178</v>
       </c>
       <c r="D171" s="12"/>
@@ -4012,7 +4045,7 @@
       <c r="B172" s="15" t="s">
         <v>173</v>
       </c>
-      <c r="C172" s="17" t="s">
+      <c r="C172" s="20" t="s">
         <v>179</v>
       </c>
       <c r="D172" s="12"/>
@@ -4025,7 +4058,7 @@
       <c r="B173" s="15" t="s">
         <v>173</v>
       </c>
-      <c r="C173" s="17" t="s">
+      <c r="C173" s="20" t="s">
         <v>180</v>
       </c>
       <c r="D173" s="12"/>
@@ -4038,7 +4071,7 @@
       <c r="B174" s="15" t="s">
         <v>173</v>
       </c>
-      <c r="C174" s="17" t="s">
+      <c r="C174" s="20" t="s">
         <v>181</v>
       </c>
       <c r="D174" s="12"/>
@@ -4051,7 +4084,7 @@
       <c r="B175" s="15" t="s">
         <v>173</v>
       </c>
-      <c r="C175" s="17" t="s">
+      <c r="C175" s="20" t="s">
         <v>182</v>
       </c>
       <c r="D175" s="12"/>
@@ -4064,7 +4097,7 @@
       <c r="B176" s="15" t="s">
         <v>173</v>
       </c>
-      <c r="C176" s="17" t="s">
+      <c r="C176" s="20" t="s">
         <v>183</v>
       </c>
       <c r="D176" s="12"/>
@@ -4077,7 +4110,7 @@
       <c r="B177" s="15" t="s">
         <v>173</v>
       </c>
-      <c r="C177" s="17" t="s">
+      <c r="C177" s="20" t="s">
         <v>184</v>
       </c>
       <c r="D177" s="12"/>
@@ -4090,7 +4123,7 @@
       <c r="B178" s="15" t="s">
         <v>173</v>
       </c>
-      <c r="C178" s="17" t="s">
+      <c r="C178" s="20" t="s">
         <v>185</v>
       </c>
       <c r="D178" s="12"/>
@@ -4103,7 +4136,7 @@
       <c r="B179" s="15" t="s">
         <v>173</v>
       </c>
-      <c r="C179" s="17" t="s">
+      <c r="C179" s="20" t="s">
         <v>186</v>
       </c>
       <c r="D179" s="12"/>
@@ -4116,7 +4149,7 @@
       <c r="B180" s="15" t="s">
         <v>173</v>
       </c>
-      <c r="C180" s="17" t="s">
+      <c r="C180" s="20" t="s">
         <v>187</v>
       </c>
       <c r="D180" s="12"/>
@@ -4129,7 +4162,7 @@
       <c r="B181" s="15" t="s">
         <v>173</v>
       </c>
-      <c r="C181" s="17" t="s">
+      <c r="C181" s="20" t="s">
         <v>188</v>
       </c>
       <c r="D181" s="12"/>
@@ -4142,7 +4175,7 @@
       <c r="B182" s="15" t="s">
         <v>173</v>
       </c>
-      <c r="C182" s="17" t="s">
+      <c r="C182" s="20" t="s">
         <v>189</v>
       </c>
       <c r="D182" s="12"/>
@@ -4155,7 +4188,7 @@
       <c r="B183" s="15" t="s">
         <v>173</v>
       </c>
-      <c r="C183" s="17" t="s">
+      <c r="C183" s="20" t="s">
         <v>190</v>
       </c>
       <c r="D183" s="12"/>
@@ -4168,7 +4201,7 @@
       <c r="B184" s="15" t="s">
         <v>173</v>
       </c>
-      <c r="C184" s="17" t="s">
+      <c r="C184" s="20" t="s">
         <v>191</v>
       </c>
       <c r="D184" s="12"/>
@@ -4181,7 +4214,7 @@
       <c r="B185" s="15" t="s">
         <v>173</v>
       </c>
-      <c r="C185" s="17" t="s">
+      <c r="C185" s="20" t="s">
         <v>192</v>
       </c>
       <c r="D185" s="12"/>
@@ -4194,7 +4227,7 @@
       <c r="B186" s="15" t="s">
         <v>173</v>
       </c>
-      <c r="C186" s="17" t="s">
+      <c r="C186" s="20" t="s">
         <v>193</v>
       </c>
       <c r="D186" s="12"/>
@@ -4207,7 +4240,7 @@
       <c r="B187" s="15" t="s">
         <v>173</v>
       </c>
-      <c r="C187" s="17" t="s">
+      <c r="C187" s="20" t="s">
         <v>194</v>
       </c>
       <c r="D187" s="12"/>
@@ -4220,7 +4253,7 @@
       <c r="B188" s="15" t="s">
         <v>173</v>
       </c>
-      <c r="C188" s="17" t="s">
+      <c r="C188" s="20" t="s">
         <v>195</v>
       </c>
       <c r="D188" s="12"/>
@@ -4233,7 +4266,7 @@
       <c r="B189" s="15" t="s">
         <v>173</v>
       </c>
-      <c r="C189" s="17" t="s">
+      <c r="C189" s="20" t="s">
         <v>196</v>
       </c>
       <c r="D189" s="12"/>
@@ -4246,7 +4279,7 @@
       <c r="B190" s="15" t="s">
         <v>173</v>
       </c>
-      <c r="C190" s="17" t="s">
+      <c r="C190" s="20" t="s">
         <v>197</v>
       </c>
       <c r="D190" s="12"/>
@@ -4259,7 +4292,7 @@
       <c r="B191" s="15" t="s">
         <v>173</v>
       </c>
-      <c r="C191" s="17" t="s">
+      <c r="C191" s="20" t="s">
         <v>198</v>
       </c>
       <c r="D191" s="12"/>
@@ -4272,7 +4305,7 @@
       <c r="B192" s="15" t="s">
         <v>173</v>
       </c>
-      <c r="C192" s="17" t="s">
+      <c r="C192" s="20" t="s">
         <v>199</v>
       </c>
       <c r="D192" s="12"/>
@@ -4285,7 +4318,7 @@
       <c r="B193" s="15" t="s">
         <v>173</v>
       </c>
-      <c r="C193" s="17" t="s">
+      <c r="C193" s="20" t="s">
         <v>200</v>
       </c>
       <c r="D193" s="12"/>
@@ -4298,7 +4331,7 @@
       <c r="B194" s="15" t="s">
         <v>173</v>
       </c>
-      <c r="C194" s="17" t="s">
+      <c r="C194" s="20" t="s">
         <v>201</v>
       </c>
       <c r="D194" s="12"/>
@@ -4311,7 +4344,7 @@
       <c r="B195" s="15" t="s">
         <v>173</v>
       </c>
-      <c r="C195" s="17" t="s">
+      <c r="C195" s="20" t="s">
         <v>202</v>
       </c>
       <c r="D195" s="12"/>
@@ -4324,7 +4357,7 @@
       <c r="B196" s="15" t="s">
         <v>173</v>
       </c>
-      <c r="C196" s="17" t="s">
+      <c r="C196" s="20" t="s">
         <v>203</v>
       </c>
       <c r="D196" s="12"/>
@@ -4337,7 +4370,7 @@
       <c r="B197" s="15" t="s">
         <v>173</v>
       </c>
-      <c r="C197" s="17" t="s">
+      <c r="C197" s="20" t="s">
         <v>204</v>
       </c>
       <c r="D197" s="12"/>
@@ -4350,7 +4383,7 @@
       <c r="B198" s="15" t="s">
         <v>173</v>
       </c>
-      <c r="C198" s="17" t="s">
+      <c r="C198" s="20" t="s">
         <v>205</v>
       </c>
       <c r="D198" s="12"/>
@@ -4363,7 +4396,7 @@
       <c r="B199" s="15" t="s">
         <v>173</v>
       </c>
-      <c r="C199" s="17" t="s">
+      <c r="C199" s="20" t="s">
         <v>206</v>
       </c>
       <c r="D199" s="12"/>
@@ -4376,7 +4409,7 @@
       <c r="B200" s="15" t="s">
         <v>173</v>
       </c>
-      <c r="C200" s="17" t="s">
+      <c r="C200" s="20" t="s">
         <v>207</v>
       </c>
       <c r="D200" s="12"/>
@@ -4389,7 +4422,7 @@
       <c r="B201" s="15" t="s">
         <v>173</v>
       </c>
-      <c r="C201" s="17" t="s">
+      <c r="C201" s="20" t="s">
         <v>208</v>
       </c>
       <c r="D201" s="12"/>
@@ -4402,7 +4435,7 @@
       <c r="B202" s="10" t="s">
         <v>209</v>
       </c>
-      <c r="C202" s="17" t="s">
+      <c r="C202" s="20" t="s">
         <v>210</v>
       </c>
     </row>
@@ -4414,7 +4447,7 @@
       <c r="B203" s="10" t="s">
         <v>209</v>
       </c>
-      <c r="C203" s="17" t="s">
+      <c r="C203" s="20" t="s">
         <v>211</v>
       </c>
     </row>
@@ -4426,7 +4459,7 @@
       <c r="B204" s="10" t="s">
         <v>209</v>
       </c>
-      <c r="C204" s="17" t="s">
+      <c r="C204" s="20" t="s">
         <v>212</v>
       </c>
     </row>
@@ -4438,7 +4471,7 @@
       <c r="B205" s="10" t="s">
         <v>209</v>
       </c>
-      <c r="C205" s="17" t="s">
+      <c r="C205" s="20" t="s">
         <v>213</v>
       </c>
     </row>
@@ -4450,7 +4483,7 @@
       <c r="B206" s="10" t="s">
         <v>209</v>
       </c>
-      <c r="C206" s="17" t="s">
+      <c r="C206" s="20" t="s">
         <v>214</v>
       </c>
     </row>
@@ -4462,7 +4495,7 @@
       <c r="B207" s="10" t="s">
         <v>209</v>
       </c>
-      <c r="C207" s="17" t="s">
+      <c r="C207" s="20" t="s">
         <v>215</v>
       </c>
     </row>
@@ -4474,7 +4507,7 @@
       <c r="B208" s="10" t="s">
         <v>209</v>
       </c>
-      <c r="C208" s="19" t="s">
+      <c r="C208" s="22" t="s">
         <v>216</v>
       </c>
     </row>
@@ -4486,7 +4519,7 @@
       <c r="B209" s="10" t="s">
         <v>209</v>
       </c>
-      <c r="C209" s="17" t="s">
+      <c r="C209" s="20" t="s">
         <v>217</v>
       </c>
     </row>
@@ -4498,7 +4531,7 @@
       <c r="B210" s="10" t="s">
         <v>209</v>
       </c>
-      <c r="C210" s="17" t="s">
+      <c r="C210" s="20" t="s">
         <v>218</v>
       </c>
       <c r="D210" s="12"/>
@@ -4511,7 +4544,7 @@
       <c r="B211" s="10" t="s">
         <v>209</v>
       </c>
-      <c r="C211" s="17" t="s">
+      <c r="C211" s="20" t="s">
         <v>219</v>
       </c>
       <c r="D211" s="12"/>
@@ -4524,7 +4557,7 @@
       <c r="B212" s="10" t="s">
         <v>209</v>
       </c>
-      <c r="C212" s="17" t="s">
+      <c r="C212" s="20" t="s">
         <v>220</v>
       </c>
       <c r="D212" s="12"/>
@@ -4537,7 +4570,7 @@
       <c r="B213" s="10" t="s">
         <v>209</v>
       </c>
-      <c r="C213" s="17" t="s">
+      <c r="C213" s="20" t="s">
         <v>221</v>
       </c>
       <c r="D213" s="12"/>
@@ -4550,7 +4583,7 @@
       <c r="B214" s="10" t="s">
         <v>209</v>
       </c>
-      <c r="C214" s="17" t="s">
+      <c r="C214" s="20" t="s">
         <v>222</v>
       </c>
       <c r="D214" s="12"/>
@@ -4563,7 +4596,7 @@
       <c r="B215" s="10" t="s">
         <v>209</v>
       </c>
-      <c r="C215" s="17" t="s">
+      <c r="C215" s="20" t="s">
         <v>223</v>
       </c>
       <c r="D215" s="12"/>
@@ -4576,7 +4609,7 @@
       <c r="B216" s="10" t="s">
         <v>209</v>
       </c>
-      <c r="C216" s="17" t="s">
+      <c r="C216" s="20" t="s">
         <v>224</v>
       </c>
       <c r="D216" s="12"/>
@@ -4589,7 +4622,7 @@
       <c r="B217" s="10" t="s">
         <v>209</v>
       </c>
-      <c r="C217" s="17" t="s">
+      <c r="C217" s="20" t="s">
         <v>225</v>
       </c>
       <c r="D217" s="12"/>
@@ -4602,7 +4635,7 @@
       <c r="B218" s="10" t="s">
         <v>209</v>
       </c>
-      <c r="C218" s="17" t="s">
+      <c r="C218" s="20" t="s">
         <v>226</v>
       </c>
       <c r="D218" s="12"/>
@@ -4615,7 +4648,7 @@
       <c r="B219" s="10" t="s">
         <v>209</v>
       </c>
-      <c r="C219" s="17" t="s">
+      <c r="C219" s="20" t="s">
         <v>227</v>
       </c>
       <c r="D219" s="12"/>
@@ -4628,7 +4661,7 @@
       <c r="B220" s="10" t="s">
         <v>209</v>
       </c>
-      <c r="C220" s="17" t="s">
+      <c r="C220" s="20" t="s">
         <v>228</v>
       </c>
       <c r="D220" s="12"/>
@@ -4641,7 +4674,7 @@
       <c r="B221" s="10" t="s">
         <v>209</v>
       </c>
-      <c r="C221" s="17" t="s">
+      <c r="C221" s="20" t="s">
         <v>229</v>
       </c>
       <c r="D221" s="12"/>
@@ -4654,7 +4687,7 @@
       <c r="B222" s="10" t="s">
         <v>209</v>
       </c>
-      <c r="C222" s="17" t="s">
+      <c r="C222" s="20" t="s">
         <v>230</v>
       </c>
       <c r="D222" s="12"/>
@@ -4667,7 +4700,7 @@
       <c r="B223" s="10" t="s">
         <v>209</v>
       </c>
-      <c r="C223" s="17" t="s">
+      <c r="C223" s="20" t="s">
         <v>231</v>
       </c>
       <c r="D223" s="12"/>
@@ -4680,7 +4713,7 @@
       <c r="B224" s="15" t="s">
         <v>232</v>
       </c>
-      <c r="C224" s="17" t="s">
+      <c r="C224" s="20" t="s">
         <v>233</v>
       </c>
       <c r="D224" s="12"/>
@@ -4693,7 +4726,7 @@
       <c r="B225" s="15" t="s">
         <v>232</v>
       </c>
-      <c r="C225" s="17" t="s">
+      <c r="C225" s="20" t="s">
         <v>234</v>
       </c>
       <c r="D225" s="12"/>
@@ -4706,7 +4739,7 @@
       <c r="B226" s="15" t="s">
         <v>232</v>
       </c>
-      <c r="C226" s="17" t="s">
+      <c r="C226" s="20" t="s">
         <v>235</v>
       </c>
       <c r="D226" s="12"/>
@@ -4719,7 +4752,7 @@
       <c r="B227" s="15" t="s">
         <v>232</v>
       </c>
-      <c r="C227" s="17" t="s">
+      <c r="C227" s="20" t="s">
         <v>236</v>
       </c>
       <c r="D227" s="12"/>
@@ -4732,7 +4765,7 @@
       <c r="B228" s="15" t="s">
         <v>232</v>
       </c>
-      <c r="C228" s="17" t="s">
+      <c r="C228" s="20" t="s">
         <v>237</v>
       </c>
       <c r="D228" s="12"/>
@@ -4745,7 +4778,7 @@
       <c r="B229" s="15" t="s">
         <v>232</v>
       </c>
-      <c r="C229" s="17" t="s">
+      <c r="C229" s="20" t="s">
         <v>238</v>
       </c>
       <c r="D229" s="12"/>
@@ -4758,7 +4791,7 @@
       <c r="B230" s="15" t="s">
         <v>232</v>
       </c>
-      <c r="C230" s="17" t="s">
+      <c r="C230" s="20" t="s">
         <v>239</v>
       </c>
       <c r="D230" s="12"/>
@@ -4771,7 +4804,7 @@
       <c r="B231" s="15" t="s">
         <v>232</v>
       </c>
-      <c r="C231" s="17" t="s">
+      <c r="C231" s="20" t="s">
         <v>240</v>
       </c>
       <c r="D231" s="12"/>
@@ -4784,7 +4817,7 @@
       <c r="B232" s="15" t="s">
         <v>232</v>
       </c>
-      <c r="C232" s="17" t="s">
+      <c r="C232" s="20" t="s">
         <v>241</v>
       </c>
       <c r="D232" s="12"/>
@@ -4797,7 +4830,7 @@
       <c r="B233" s="15" t="s">
         <v>232</v>
       </c>
-      <c r="C233" s="17" t="s">
+      <c r="C233" s="20" t="s">
         <v>242</v>
       </c>
       <c r="D233" s="12"/>
@@ -4810,7 +4843,7 @@
       <c r="B234" s="15" t="s">
         <v>232</v>
       </c>
-      <c r="C234" s="17" t="s">
+      <c r="C234" s="20" t="s">
         <v>243</v>
       </c>
       <c r="D234" s="12"/>
@@ -4823,7 +4856,7 @@
       <c r="B235" s="15" t="s">
         <v>232</v>
       </c>
-      <c r="C235" s="17" t="s">
+      <c r="C235" s="20" t="s">
         <v>244</v>
       </c>
       <c r="D235" s="12"/>
@@ -4836,7 +4869,7 @@
       <c r="B236" s="15" t="s">
         <v>232</v>
       </c>
-      <c r="C236" s="17" t="s">
+      <c r="C236" s="20" t="s">
         <v>245</v>
       </c>
       <c r="D236" s="12"/>
@@ -4849,7 +4882,7 @@
       <c r="B237" s="15" t="s">
         <v>232</v>
       </c>
-      <c r="C237" s="17" t="s">
+      <c r="C237" s="20" t="s">
         <v>246</v>
       </c>
       <c r="D237" s="12"/>
@@ -4862,7 +4895,7 @@
       <c r="B238" s="15" t="s">
         <v>232</v>
       </c>
-      <c r="C238" s="17" t="s">
+      <c r="C238" s="20" t="s">
         <v>247</v>
       </c>
       <c r="D238" s="12"/>
@@ -4875,7 +4908,7 @@
       <c r="B239" s="15" t="s">
         <v>232</v>
       </c>
-      <c r="C239" s="17" t="s">
+      <c r="C239" s="20" t="s">
         <v>248</v>
       </c>
       <c r="D239" s="12"/>
@@ -4888,7 +4921,7 @@
       <c r="B240" s="15" t="s">
         <v>232</v>
       </c>
-      <c r="C240" s="17" t="s">
+      <c r="C240" s="20" t="s">
         <v>249</v>
       </c>
       <c r="D240" s="12"/>
@@ -4901,7 +4934,7 @@
       <c r="B241" s="15" t="s">
         <v>232</v>
       </c>
-      <c r="C241" s="17" t="s">
+      <c r="C241" s="20" t="s">
         <v>250</v>
       </c>
       <c r="D241" s="12"/>
@@ -4914,7 +4947,7 @@
       <c r="B242" s="15" t="s">
         <v>232</v>
       </c>
-      <c r="C242" s="17" t="s">
+      <c r="C242" s="20" t="s">
         <v>251</v>
       </c>
       <c r="D242" s="12"/>
@@ -4927,7 +4960,7 @@
       <c r="B243" s="15" t="s">
         <v>232</v>
       </c>
-      <c r="C243" s="17" t="s">
+      <c r="C243" s="20" t="s">
         <v>252</v>
       </c>
       <c r="D243" s="12"/>
@@ -4940,7 +4973,7 @@
       <c r="B244" s="15" t="s">
         <v>232</v>
       </c>
-      <c r="C244" s="17" t="s">
+      <c r="C244" s="20" t="s">
         <v>253</v>
       </c>
       <c r="D244" s="12"/>
@@ -4953,7 +4986,7 @@
       <c r="B245" s="15" t="s">
         <v>232</v>
       </c>
-      <c r="C245" s="17" t="s">
+      <c r="C245" s="20" t="s">
         <v>254</v>
       </c>
       <c r="D245" s="12"/>
@@ -4966,7 +4999,7 @@
       <c r="B246" s="15" t="s">
         <v>232</v>
       </c>
-      <c r="C246" s="17" t="s">
+      <c r="C246" s="20" t="s">
         <v>255</v>
       </c>
       <c r="D246" s="12"/>
@@ -4979,7 +5012,7 @@
       <c r="B247" s="15" t="s">
         <v>232</v>
       </c>
-      <c r="C247" s="17" t="s">
+      <c r="C247" s="20" t="s">
         <v>256</v>
       </c>
       <c r="D247" s="12"/>
@@ -4992,7 +5025,7 @@
       <c r="B248" s="15" t="s">
         <v>232</v>
       </c>
-      <c r="C248" s="17" t="s">
+      <c r="C248" s="20" t="s">
         <v>257</v>
       </c>
       <c r="D248" s="12"/>
@@ -5005,7 +5038,7 @@
       <c r="B249" s="15" t="s">
         <v>232</v>
       </c>
-      <c r="C249" s="17" t="s">
+      <c r="C249" s="20" t="s">
         <v>258</v>
       </c>
       <c r="D249" s="12"/>
@@ -5018,7 +5051,7 @@
       <c r="B250" s="15" t="s">
         <v>232</v>
       </c>
-      <c r="C250" s="17" t="s">
+      <c r="C250" s="20" t="s">
         <v>259</v>
       </c>
       <c r="D250" s="12"/>
@@ -5031,7 +5064,7 @@
       <c r="B251" s="15" t="s">
         <v>232</v>
       </c>
-      <c r="C251" s="17" t="s">
+      <c r="C251" s="20" t="s">
         <v>260</v>
       </c>
       <c r="D251" s="12"/>
@@ -5044,7 +5077,7 @@
       <c r="B252" s="15" t="s">
         <v>232</v>
       </c>
-      <c r="C252" s="17" t="s">
+      <c r="C252" s="20" t="s">
         <v>261</v>
       </c>
       <c r="D252" s="12"/>
@@ -5057,7 +5090,7 @@
       <c r="B253" s="15" t="s">
         <v>232</v>
       </c>
-      <c r="C253" s="17" t="s">
+      <c r="C253" s="20" t="s">
         <v>262</v>
       </c>
       <c r="D253" s="12"/>
@@ -5070,7 +5103,7 @@
       <c r="B254" s="15" t="s">
         <v>232</v>
       </c>
-      <c r="C254" s="17" t="s">
+      <c r="C254" s="20" t="s">
         <v>263</v>
       </c>
       <c r="D254" s="12"/>
@@ -5083,7 +5116,7 @@
       <c r="B255" s="15" t="s">
         <v>232</v>
       </c>
-      <c r="C255" s="17" t="s">
+      <c r="C255" s="20" t="s">
         <v>264</v>
       </c>
       <c r="D255" s="12"/>
@@ -5096,7 +5129,7 @@
       <c r="B256" s="15" t="s">
         <v>232</v>
       </c>
-      <c r="C256" s="17" t="s">
+      <c r="C256" s="20" t="s">
         <v>265</v>
       </c>
       <c r="D256" s="12"/>
@@ -5109,7 +5142,7 @@
       <c r="B257" s="15" t="s">
         <v>232</v>
       </c>
-      <c r="C257" s="17" t="s">
+      <c r="C257" s="20" t="s">
         <v>89</v>
       </c>
       <c r="D257" s="12"/>
@@ -5122,7 +5155,7 @@
       <c r="B258" s="15" t="s">
         <v>232</v>
       </c>
-      <c r="C258" s="17" t="s">
+      <c r="C258" s="20" t="s">
         <v>266</v>
       </c>
       <c r="D258" s="12"/>
@@ -5135,7 +5168,7 @@
       <c r="B259" s="10" t="s">
         <v>267</v>
       </c>
-      <c r="C259" s="17" t="s">
+      <c r="C259" s="20" t="s">
         <v>268</v>
       </c>
       <c r="D259" s="12"/>
@@ -5148,7 +5181,7 @@
       <c r="B260" s="10" t="s">
         <v>267</v>
       </c>
-      <c r="C260" s="17" t="s">
+      <c r="C260" s="20" t="s">
         <v>269</v>
       </c>
       <c r="D260" s="12"/>
@@ -5161,7 +5194,7 @@
       <c r="B261" s="10" t="s">
         <v>267</v>
       </c>
-      <c r="C261" s="17" t="s">
+      <c r="C261" s="20" t="s">
         <v>270</v>
       </c>
       <c r="D261" s="12"/>
@@ -5174,7 +5207,7 @@
       <c r="B262" s="10" t="s">
         <v>267</v>
       </c>
-      <c r="C262" s="17" t="s">
+      <c r="C262" s="20" t="s">
         <v>271</v>
       </c>
       <c r="D262" s="12"/>
@@ -5187,7 +5220,7 @@
       <c r="B263" s="10" t="s">
         <v>267</v>
       </c>
-      <c r="C263" s="17" t="s">
+      <c r="C263" s="20" t="s">
         <v>272</v>
       </c>
       <c r="D263" s="12"/>
@@ -5200,7 +5233,7 @@
       <c r="B264" s="10" t="s">
         <v>267</v>
       </c>
-      <c r="C264" s="17" t="s">
+      <c r="C264" s="20" t="s">
         <v>273</v>
       </c>
       <c r="D264" s="12"/>
@@ -5213,7 +5246,7 @@
       <c r="B265" s="10" t="s">
         <v>267</v>
       </c>
-      <c r="C265" s="17" t="s">
+      <c r="C265" s="20" t="s">
         <v>274</v>
       </c>
       <c r="D265" s="12"/>
@@ -5226,7 +5259,7 @@
       <c r="B266" s="10" t="s">
         <v>267</v>
       </c>
-      <c r="C266" s="17" t="s">
+      <c r="C266" s="20" t="s">
         <v>275</v>
       </c>
       <c r="D266" s="12"/>
@@ -5239,7 +5272,7 @@
       <c r="B267" s="10" t="s">
         <v>267</v>
       </c>
-      <c r="C267" s="17" t="s">
+      <c r="C267" s="20" t="s">
         <v>276</v>
       </c>
       <c r="D267" s="12"/>
@@ -5252,7 +5285,7 @@
       <c r="B268" s="10" t="s">
         <v>267</v>
       </c>
-      <c r="C268" s="17" t="s">
+      <c r="C268" s="20" t="s">
         <v>277</v>
       </c>
       <c r="D268" s="12"/>
@@ -5265,7 +5298,7 @@
       <c r="B269" s="10" t="s">
         <v>267</v>
       </c>
-      <c r="C269" s="17" t="s">
+      <c r="C269" s="20" t="s">
         <v>278</v>
       </c>
       <c r="D269" s="12"/>
@@ -5278,7 +5311,7 @@
       <c r="B270" s="10" t="s">
         <v>267</v>
       </c>
-      <c r="C270" s="17" t="s">
+      <c r="C270" s="20" t="s">
         <v>279</v>
       </c>
       <c r="D270" s="12"/>
@@ -5291,7 +5324,7 @@
       <c r="B271" s="10" t="s">
         <v>267</v>
       </c>
-      <c r="C271" s="17" t="s">
+      <c r="C271" s="20" t="s">
         <v>280</v>
       </c>
       <c r="D271" s="12"/>
@@ -5304,7 +5337,7 @@
       <c r="B272" s="10" t="s">
         <v>267</v>
       </c>
-      <c r="C272" s="17" t="s">
+      <c r="C272" s="20" t="s">
         <v>281</v>
       </c>
       <c r="D272" s="12"/>
@@ -5317,7 +5350,7 @@
       <c r="B273" s="10" t="s">
         <v>267</v>
       </c>
-      <c r="C273" s="17" t="s">
+      <c r="C273" s="20" t="s">
         <v>282</v>
       </c>
       <c r="D273" s="12"/>
@@ -5330,7 +5363,7 @@
       <c r="B274" s="10" t="s">
         <v>267</v>
       </c>
-      <c r="C274" s="17" t="s">
+      <c r="C274" s="20" t="s">
         <v>283</v>
       </c>
       <c r="D274" s="12"/>
@@ -5343,7 +5376,7 @@
       <c r="B275" s="10" t="s">
         <v>267</v>
       </c>
-      <c r="C275" s="17" t="s">
+      <c r="C275" s="20" t="s">
         <v>284</v>
       </c>
       <c r="D275" s="12"/>
@@ -5356,7 +5389,7 @@
       <c r="B276" s="10" t="s">
         <v>267</v>
       </c>
-      <c r="C276" s="17" t="s">
+      <c r="C276" s="20" t="s">
         <v>285</v>
       </c>
       <c r="D276" s="12"/>
@@ -5369,7 +5402,7 @@
       <c r="B277" s="10" t="s">
         <v>267</v>
       </c>
-      <c r="C277" s="17" t="s">
+      <c r="C277" s="20" t="s">
         <v>286</v>
       </c>
       <c r="D277" s="12"/>
@@ -5382,7 +5415,7 @@
       <c r="B278" s="15" t="s">
         <v>287</v>
       </c>
-      <c r="C278" s="17" t="s">
+      <c r="C278" s="20" t="s">
         <v>288</v>
       </c>
       <c r="D278" s="12"/>
@@ -5395,7 +5428,7 @@
       <c r="B279" s="15" t="s">
         <v>287</v>
       </c>
-      <c r="C279" s="17" t="s">
+      <c r="C279" s="20" t="s">
         <v>289</v>
       </c>
       <c r="D279" s="12"/>
@@ -5408,7 +5441,7 @@
       <c r="B280" s="15" t="s">
         <v>287</v>
       </c>
-      <c r="C280" s="17" t="s">
+      <c r="C280" s="20" t="s">
         <v>290</v>
       </c>
       <c r="D280" s="12"/>
@@ -5421,7 +5454,7 @@
       <c r="B281" s="15" t="s">
         <v>287</v>
       </c>
-      <c r="C281" s="17" t="s">
+      <c r="C281" s="20" t="s">
         <v>291</v>
       </c>
       <c r="D281" s="12"/>
@@ -5434,7 +5467,7 @@
       <c r="B282" s="15" t="s">
         <v>287</v>
       </c>
-      <c r="C282" s="17" t="s">
+      <c r="C282" s="20" t="s">
         <v>292</v>
       </c>
       <c r="D282" s="12"/>
@@ -5447,7 +5480,7 @@
       <c r="B283" s="15" t="s">
         <v>287</v>
       </c>
-      <c r="C283" s="17" t="s">
+      <c r="C283" s="20" t="s">
         <v>293</v>
       </c>
       <c r="D283" s="12"/>
@@ -5460,7 +5493,7 @@
       <c r="B284" s="15" t="s">
         <v>287</v>
       </c>
-      <c r="C284" s="17" t="s">
+      <c r="C284" s="20" t="s">
         <v>294</v>
       </c>
       <c r="D284" s="12"/>
@@ -5473,7 +5506,7 @@
       <c r="B285" s="15" t="s">
         <v>287</v>
       </c>
-      <c r="C285" s="17" t="s">
+      <c r="C285" s="20" t="s">
         <v>295</v>
       </c>
       <c r="D285" s="12"/>
@@ -5486,7 +5519,7 @@
       <c r="B286" s="15" t="s">
         <v>287</v>
       </c>
-      <c r="C286" s="17" t="s">
+      <c r="C286" s="20" t="s">
         <v>296</v>
       </c>
       <c r="D286" s="12"/>
@@ -5499,7 +5532,7 @@
       <c r="B287" s="15" t="s">
         <v>287</v>
       </c>
-      <c r="C287" s="17" t="s">
+      <c r="C287" s="20" t="s">
         <v>297</v>
       </c>
       <c r="D287" s="12"/>
@@ -5512,7 +5545,7 @@
       <c r="B288" s="15" t="s">
         <v>287</v>
       </c>
-      <c r="C288" s="17" t="s">
+      <c r="C288" s="20" t="s">
         <v>298</v>
       </c>
       <c r="D288" s="12"/>
@@ -5525,7 +5558,7 @@
       <c r="B289" s="15" t="s">
         <v>287</v>
       </c>
-      <c r="C289" s="17" t="s">
+      <c r="C289" s="20" t="s">
         <v>299</v>
       </c>
       <c r="D289" s="12"/>
@@ -5538,7 +5571,7 @@
       <c r="B290" s="15" t="s">
         <v>287</v>
       </c>
-      <c r="C290" s="17" t="s">
+      <c r="C290" s="20" t="s">
         <v>300</v>
       </c>
       <c r="D290" s="12"/>
@@ -5551,7 +5584,7 @@
       <c r="B291" s="15" t="s">
         <v>287</v>
       </c>
-      <c r="C291" s="19" t="s">
+      <c r="C291" s="22" t="s">
         <v>301</v>
       </c>
       <c r="D291" s="12"/>
@@ -5564,7 +5597,7 @@
       <c r="B292" s="15" t="s">
         <v>287</v>
       </c>
-      <c r="C292" s="17" t="s">
+      <c r="C292" s="20" t="s">
         <v>302</v>
       </c>
       <c r="D292" s="12"/>
@@ -5577,7 +5610,7 @@
       <c r="B293" s="15" t="s">
         <v>287</v>
       </c>
-      <c r="C293" s="17" t="s">
+      <c r="C293" s="20" t="s">
         <v>303</v>
       </c>
       <c r="D293" s="12"/>
@@ -5590,7 +5623,7 @@
       <c r="B294" s="15" t="s">
         <v>287</v>
       </c>
-      <c r="C294" s="17" t="s">
+      <c r="C294" s="20" t="s">
         <v>304</v>
       </c>
       <c r="D294" s="12"/>
@@ -5603,7 +5636,7 @@
       <c r="B295" s="15" t="s">
         <v>287</v>
       </c>
-      <c r="C295" s="17" t="s">
+      <c r="C295" s="20" t="s">
         <v>305</v>
       </c>
       <c r="D295" s="12"/>
@@ -5616,7 +5649,7 @@
       <c r="B296" s="15" t="s">
         <v>287</v>
       </c>
-      <c r="C296" s="17" t="s">
+      <c r="C296" s="20" t="s">
         <v>306</v>
       </c>
       <c r="D296" s="12"/>
@@ -5629,7 +5662,7 @@
       <c r="B297" s="15" t="s">
         <v>287</v>
       </c>
-      <c r="C297" s="17" t="s">
+      <c r="C297" s="20" t="s">
         <v>307</v>
       </c>
       <c r="D297" s="12"/>
@@ -5642,7 +5675,7 @@
       <c r="B298" s="15" t="s">
         <v>287</v>
       </c>
-      <c r="C298" s="17" t="s">
+      <c r="C298" s="20" t="s">
         <v>308</v>
       </c>
       <c r="D298" s="12"/>
@@ -5655,7 +5688,7 @@
       <c r="B299" s="15" t="s">
         <v>287</v>
       </c>
-      <c r="C299" s="17" t="s">
+      <c r="C299" s="20" t="s">
         <v>309</v>
       </c>
       <c r="D299" s="12"/>
@@ -5668,7 +5701,7 @@
       <c r="B300" s="15" t="s">
         <v>287</v>
       </c>
-      <c r="C300" s="17" t="s">
+      <c r="C300" s="20" t="s">
         <v>310</v>
       </c>
       <c r="D300" s="12"/>
@@ -5681,7 +5714,7 @@
       <c r="B301" s="15" t="s">
         <v>287</v>
       </c>
-      <c r="C301" s="17" t="s">
+      <c r="C301" s="20" t="s">
         <v>311</v>
       </c>
       <c r="D301" s="12"/>
@@ -5694,7 +5727,7 @@
       <c r="B302" s="15" t="s">
         <v>287</v>
       </c>
-      <c r="C302" s="17" t="s">
+      <c r="C302" s="20" t="s">
         <v>312</v>
       </c>
       <c r="D302" s="12"/>
@@ -5707,7 +5740,7 @@
       <c r="B303" s="15" t="s">
         <v>287</v>
       </c>
-      <c r="C303" s="17" t="s">
+      <c r="C303" s="20" t="s">
         <v>313</v>
       </c>
       <c r="D303" s="12"/>
@@ -5720,7 +5753,7 @@
       <c r="B304" s="15" t="s">
         <v>287</v>
       </c>
-      <c r="C304" s="17" t="s">
+      <c r="C304" s="20" t="s">
         <v>314</v>
       </c>
       <c r="D304" s="12"/>
@@ -5733,7 +5766,7 @@
       <c r="B305" s="15" t="s">
         <v>287</v>
       </c>
-      <c r="C305" s="17" t="s">
+      <c r="C305" s="20" t="s">
         <v>315</v>
       </c>
       <c r="D305" s="12"/>
@@ -5746,7 +5779,7 @@
       <c r="B306" s="15" t="s">
         <v>287</v>
       </c>
-      <c r="C306" s="17" t="s">
+      <c r="C306" s="20" t="s">
         <v>316</v>
       </c>
       <c r="D306" s="12"/>
@@ -5759,7 +5792,7 @@
       <c r="B307" s="15" t="s">
         <v>287</v>
       </c>
-      <c r="C307" s="17" t="s">
+      <c r="C307" s="20" t="s">
         <v>317</v>
       </c>
       <c r="D307" s="12"/>
@@ -5772,7 +5805,7 @@
       <c r="B308" s="15" t="s">
         <v>287</v>
       </c>
-      <c r="C308" s="17" t="s">
+      <c r="C308" s="20" t="s">
         <v>318</v>
       </c>
       <c r="D308" s="12"/>
@@ -5785,7 +5818,7 @@
       <c r="B309" s="15" t="s">
         <v>287</v>
       </c>
-      <c r="C309" s="17" t="s">
+      <c r="C309" s="20" t="s">
         <v>319</v>
       </c>
       <c r="D309" s="12"/>
@@ -5798,7 +5831,7 @@
       <c r="B310" s="15" t="s">
         <v>287</v>
       </c>
-      <c r="C310" s="17" t="s">
+      <c r="C310" s="20" t="s">
         <v>320</v>
       </c>
       <c r="D310" s="12"/>
@@ -5811,7 +5844,7 @@
       <c r="B311" s="15" t="s">
         <v>287</v>
       </c>
-      <c r="C311" s="17" t="s">
+      <c r="C311" s="20" t="s">
         <v>321</v>
       </c>
       <c r="D311" s="12"/>
@@ -5824,7 +5857,7 @@
       <c r="B312" s="15" t="s">
         <v>287</v>
       </c>
-      <c r="C312" s="17" t="s">
+      <c r="C312" s="20" t="s">
         <v>322</v>
       </c>
       <c r="D312" s="12"/>
@@ -5837,7 +5870,7 @@
       <c r="B313" s="15" t="s">
         <v>287</v>
       </c>
-      <c r="C313" s="17" t="s">
+      <c r="C313" s="20" t="s">
         <v>323</v>
       </c>
       <c r="D313" s="12"/>
@@ -5850,7 +5883,7 @@
       <c r="B314" s="15" t="s">
         <v>287</v>
       </c>
-      <c r="C314" s="17" t="s">
+      <c r="C314" s="20" t="s">
         <v>324</v>
       </c>
       <c r="D314" s="12"/>
@@ -5863,7 +5896,7 @@
       <c r="B315" s="15" t="s">
         <v>287</v>
       </c>
-      <c r="C315" s="17" t="s">
+      <c r="C315" s="20" t="s">
         <v>325</v>
       </c>
       <c r="D315" s="12"/>
@@ -5876,7 +5909,7 @@
       <c r="B316" s="10" t="s">
         <v>326</v>
       </c>
-      <c r="C316" s="17" t="s">
+      <c r="C316" s="20" t="s">
         <v>327</v>
       </c>
       <c r="D316" s="12"/>
@@ -5889,7 +5922,7 @@
       <c r="B317" s="10" t="s">
         <v>326</v>
       </c>
-      <c r="C317" s="17" t="s">
+      <c r="C317" s="20" t="s">
         <v>328</v>
       </c>
       <c r="D317" s="12"/>
@@ -5902,7 +5935,7 @@
       <c r="B318" s="10" t="s">
         <v>326</v>
       </c>
-      <c r="C318" s="17" t="s">
+      <c r="C318" s="20" t="s">
         <v>329</v>
       </c>
       <c r="D318" s="12"/>
@@ -5915,7 +5948,7 @@
       <c r="B319" s="10" t="s">
         <v>326</v>
       </c>
-      <c r="C319" s="17" t="s">
+      <c r="C319" s="20" t="s">
         <v>330</v>
       </c>
       <c r="D319" s="12"/>
@@ -5928,7 +5961,7 @@
       <c r="B320" s="10" t="s">
         <v>326</v>
       </c>
-      <c r="C320" s="17" t="s">
+      <c r="C320" s="20" t="s">
         <v>331</v>
       </c>
       <c r="D320" s="12"/>
@@ -5941,7 +5974,7 @@
       <c r="B321" s="10" t="s">
         <v>326</v>
       </c>
-      <c r="C321" s="17" t="s">
+      <c r="C321" s="20" t="s">
         <v>332</v>
       </c>
       <c r="D321" s="12"/>
@@ -5954,7 +5987,7 @@
       <c r="B322" s="10" t="s">
         <v>326</v>
       </c>
-      <c r="C322" s="17" t="s">
+      <c r="C322" s="20" t="s">
         <v>333</v>
       </c>
       <c r="D322" s="12"/>
@@ -5967,7 +6000,7 @@
       <c r="B323" s="10" t="s">
         <v>326</v>
       </c>
-      <c r="C323" s="17" t="s">
+      <c r="C323" s="20" t="s">
         <v>334</v>
       </c>
       <c r="D323" s="12"/>
@@ -5980,7 +6013,7 @@
       <c r="B324" s="10" t="s">
         <v>326</v>
       </c>
-      <c r="C324" s="19" t="s">
+      <c r="C324" s="22" t="s">
         <v>335</v>
       </c>
       <c r="D324" s="12"/>
@@ -5993,7 +6026,7 @@
       <c r="B325" s="10" t="s">
         <v>326</v>
       </c>
-      <c r="C325" s="17" t="s">
+      <c r="C325" s="20" t="s">
         <v>336</v>
       </c>
       <c r="D325" s="12"/>
@@ -6006,7 +6039,7 @@
       <c r="B326" s="10" t="s">
         <v>326</v>
       </c>
-      <c r="C326" s="17" t="s">
+      <c r="C326" s="20" t="s">
         <v>337</v>
       </c>
       <c r="D326" s="12"/>
@@ -6019,7 +6052,7 @@
       <c r="B327" s="10" t="s">
         <v>326</v>
       </c>
-      <c r="C327" s="17" t="s">
+      <c r="C327" s="20" t="s">
         <v>338</v>
       </c>
       <c r="D327" s="12"/>
@@ -6032,7 +6065,7 @@
       <c r="B328" s="10" t="s">
         <v>326</v>
       </c>
-      <c r="C328" s="17" t="s">
+      <c r="C328" s="20" t="s">
         <v>339</v>
       </c>
       <c r="D328" s="12"/>
@@ -6045,7 +6078,7 @@
       <c r="B329" s="10" t="s">
         <v>326</v>
       </c>
-      <c r="C329" s="17" t="s">
+      <c r="C329" s="20" t="s">
         <v>340</v>
       </c>
       <c r="D329" s="12"/>
@@ -6058,7 +6091,7 @@
       <c r="B330" s="10" t="s">
         <v>326</v>
       </c>
-      <c r="C330" s="17" t="s">
+      <c r="C330" s="20" t="s">
         <v>341</v>
       </c>
       <c r="D330" s="12"/>
@@ -6071,7 +6104,7 @@
       <c r="B331" s="10" t="s">
         <v>326</v>
       </c>
-      <c r="C331" s="17" t="s">
+      <c r="C331" s="20" t="s">
         <v>342</v>
       </c>
       <c r="D331" s="12"/>
@@ -6084,7 +6117,7 @@
       <c r="B332" s="10" t="s">
         <v>326</v>
       </c>
-      <c r="C332" s="17" t="s">
+      <c r="C332" s="20" t="s">
         <v>343</v>
       </c>
       <c r="D332" s="12"/>
@@ -6097,7 +6130,7 @@
       <c r="B333" s="10" t="s">
         <v>326</v>
       </c>
-      <c r="C333" s="17" t="s">
+      <c r="C333" s="20" t="s">
         <v>344</v>
       </c>
       <c r="D333" s="12"/>
@@ -6110,7 +6143,7 @@
       <c r="B334" s="15" t="s">
         <v>345</v>
       </c>
-      <c r="C334" s="17" t="s">
+      <c r="C334" s="20" t="s">
         <v>346</v>
       </c>
       <c r="D334" s="12"/>
@@ -6123,7 +6156,7 @@
       <c r="B335" s="15" t="s">
         <v>345</v>
       </c>
-      <c r="C335" s="17" t="s">
+      <c r="C335" s="20" t="s">
         <v>347</v>
       </c>
       <c r="D335" s="12"/>
@@ -6136,7 +6169,7 @@
       <c r="B336" s="15" t="s">
         <v>345</v>
       </c>
-      <c r="C336" s="17" t="s">
+      <c r="C336" s="20" t="s">
         <v>348</v>
       </c>
       <c r="D336" s="12"/>
@@ -6149,7 +6182,7 @@
       <c r="B337" s="15" t="s">
         <v>345</v>
       </c>
-      <c r="C337" s="17" t="s">
+      <c r="C337" s="20" t="s">
         <v>349</v>
       </c>
       <c r="D337" s="12"/>
@@ -6162,7 +6195,7 @@
       <c r="B338" s="15" t="s">
         <v>345</v>
       </c>
-      <c r="C338" s="17" t="s">
+      <c r="C338" s="20" t="s">
         <v>350</v>
       </c>
       <c r="D338" s="12"/>
@@ -6175,7 +6208,7 @@
       <c r="B339" s="15" t="s">
         <v>345</v>
       </c>
-      <c r="C339" s="17" t="s">
+      <c r="C339" s="20" t="s">
         <v>351</v>
       </c>
       <c r="D339" s="12"/>
@@ -6188,7 +6221,7 @@
       <c r="B340" s="15" t="s">
         <v>345</v>
       </c>
-      <c r="C340" s="17" t="s">
+      <c r="C340" s="20" t="s">
         <v>352</v>
       </c>
       <c r="D340" s="12"/>
@@ -6201,7 +6234,7 @@
       <c r="B341" s="15" t="s">
         <v>345</v>
       </c>
-      <c r="C341" s="17" t="s">
+      <c r="C341" s="20" t="s">
         <v>353</v>
       </c>
       <c r="D341" s="12"/>
@@ -6214,7 +6247,7 @@
       <c r="B342" s="15" t="s">
         <v>345</v>
       </c>
-      <c r="C342" s="17" t="s">
+      <c r="C342" s="20" t="s">
         <v>354</v>
       </c>
       <c r="D342" s="12"/>
@@ -6227,7 +6260,7 @@
       <c r="B343" s="15" t="s">
         <v>345</v>
       </c>
-      <c r="C343" s="17" t="s">
+      <c r="C343" s="20" t="s">
         <v>355</v>
       </c>
       <c r="D343" s="12"/>
@@ -6240,7 +6273,7 @@
       <c r="B344" s="15" t="s">
         <v>345</v>
       </c>
-      <c r="C344" s="17" t="s">
+      <c r="C344" s="20" t="s">
         <v>356</v>
       </c>
       <c r="D344" s="12"/>
@@ -6253,7 +6286,7 @@
       <c r="B345" s="15" t="s">
         <v>345</v>
       </c>
-      <c r="C345" s="17" t="s">
+      <c r="C345" s="20" t="s">
         <v>357</v>
       </c>
       <c r="D345" s="12"/>
@@ -6266,7 +6299,7 @@
       <c r="B346" s="15" t="s">
         <v>345</v>
       </c>
-      <c r="C346" s="17" t="s">
+      <c r="C346" s="20" t="s">
         <v>358</v>
       </c>
       <c r="D346" s="12"/>
@@ -6279,7 +6312,7 @@
       <c r="B347" s="15" t="s">
         <v>345</v>
       </c>
-      <c r="C347" s="17" t="s">
+      <c r="C347" s="20" t="s">
         <v>359</v>
       </c>
       <c r="D347" s="12"/>
@@ -6292,7 +6325,7 @@
       <c r="B348" s="15" t="s">
         <v>345</v>
       </c>
-      <c r="C348" s="17" t="s">
+      <c r="C348" s="20" t="s">
         <v>360</v>
       </c>
       <c r="D348" s="12"/>
@@ -6305,7 +6338,7 @@
       <c r="B349" s="15" t="s">
         <v>345</v>
       </c>
-      <c r="C349" s="17" t="s">
+      <c r="C349" s="20" t="s">
         <v>361</v>
       </c>
       <c r="D349" s="12"/>
@@ -6318,7 +6351,7 @@
       <c r="B350" s="15" t="s">
         <v>345</v>
       </c>
-      <c r="C350" s="17" t="s">
+      <c r="C350" s="20" t="s">
         <v>362</v>
       </c>
       <c r="D350" s="12"/>
@@ -6331,7 +6364,7 @@
       <c r="B351" s="15" t="s">
         <v>345</v>
       </c>
-      <c r="C351" s="17" t="s">
+      <c r="C351" s="20" t="s">
         <v>363</v>
       </c>
       <c r="D351" s="12"/>
@@ -6344,7 +6377,7 @@
       <c r="B352" s="15" t="s">
         <v>345</v>
       </c>
-      <c r="C352" s="17" t="s">
+      <c r="C352" s="20" t="s">
         <v>364</v>
       </c>
       <c r="D352" s="12"/>
@@ -6357,7 +6390,7 @@
       <c r="B353" s="15" t="s">
         <v>345</v>
       </c>
-      <c r="C353" s="17" t="s">
+      <c r="C353" s="20" t="s">
         <v>365</v>
       </c>
       <c r="D353" s="12"/>
@@ -6370,7 +6403,7 @@
       <c r="B354" s="15" t="s">
         <v>345</v>
       </c>
-      <c r="C354" s="17" t="s">
+      <c r="C354" s="20" t="s">
         <v>366</v>
       </c>
       <c r="D354" s="12"/>
@@ -6383,7 +6416,7 @@
       <c r="B355" s="15" t="s">
         <v>345</v>
       </c>
-      <c r="C355" s="17" t="s">
+      <c r="C355" s="20" t="s">
         <v>367</v>
       </c>
       <c r="D355" s="12"/>
@@ -6396,7 +6429,7 @@
       <c r="B356" s="15" t="s">
         <v>345</v>
       </c>
-      <c r="C356" s="17" t="s">
+      <c r="C356" s="20" t="s">
         <v>368</v>
       </c>
       <c r="D356" s="12"/>
@@ -6409,7 +6442,7 @@
       <c r="B357" s="15" t="s">
         <v>345</v>
       </c>
-      <c r="C357" s="17" t="s">
+      <c r="C357" s="20" t="s">
         <v>369</v>
       </c>
       <c r="D357" s="12"/>
@@ -6422,7 +6455,7 @@
       <c r="B358" s="15" t="s">
         <v>345</v>
       </c>
-      <c r="C358" s="17" t="s">
+      <c r="C358" s="20" t="s">
         <v>370</v>
       </c>
       <c r="D358" s="12"/>
@@ -6435,7 +6468,7 @@
       <c r="B359" s="15" t="s">
         <v>345</v>
       </c>
-      <c r="C359" s="17" t="s">
+      <c r="C359" s="20" t="s">
         <v>371</v>
       </c>
       <c r="D359" s="12"/>
@@ -6448,7 +6481,7 @@
       <c r="B360" s="15" t="s">
         <v>345</v>
       </c>
-      <c r="C360" s="17" t="s">
+      <c r="C360" s="20" t="s">
         <v>372</v>
       </c>
       <c r="D360" s="12"/>
@@ -6461,7 +6494,7 @@
       <c r="B361" s="15" t="s">
         <v>345</v>
       </c>
-      <c r="C361" s="17" t="s">
+      <c r="C361" s="20" t="s">
         <v>373</v>
       </c>
       <c r="D361" s="12"/>
@@ -6474,7 +6507,7 @@
       <c r="B362" s="15" t="s">
         <v>345</v>
       </c>
-      <c r="C362" s="17" t="s">
+      <c r="C362" s="20" t="s">
         <v>374</v>
       </c>
       <c r="D362" s="12"/>
@@ -6487,7 +6520,7 @@
       <c r="B363" s="15" t="s">
         <v>345</v>
       </c>
-      <c r="C363" s="17" t="s">
+      <c r="C363" s="20" t="s">
         <v>375</v>
       </c>
       <c r="D363" s="12"/>
@@ -6500,7 +6533,7 @@
       <c r="B364" s="15" t="s">
         <v>345</v>
       </c>
-      <c r="C364" s="17" t="s">
+      <c r="C364" s="20" t="s">
         <v>376</v>
       </c>
       <c r="D364" s="12"/>
@@ -6513,7 +6546,7 @@
       <c r="B365" s="15" t="s">
         <v>345</v>
       </c>
-      <c r="C365" s="17" t="s">
+      <c r="C365" s="20" t="s">
         <v>377</v>
       </c>
       <c r="D365" s="12"/>
@@ -6526,7 +6559,7 @@
       <c r="B366" s="15" t="s">
         <v>345</v>
       </c>
-      <c r="C366" s="17" t="s">
+      <c r="C366" s="20" t="s">
         <v>378</v>
       </c>
       <c r="D366" s="12"/>
@@ -6539,7 +6572,7 @@
       <c r="B367" s="15" t="s">
         <v>345</v>
       </c>
-      <c r="C367" s="17" t="s">
+      <c r="C367" s="20" t="s">
         <v>379</v>
       </c>
       <c r="D367" s="12"/>
@@ -6552,7 +6585,7 @@
       <c r="B368" s="15" t="s">
         <v>345</v>
       </c>
-      <c r="C368" s="17" t="s">
+      <c r="C368" s="20" t="s">
         <v>379</v>
       </c>
       <c r="D368" s="12"/>
@@ -6565,7 +6598,7 @@
       <c r="B369" s="15" t="s">
         <v>345</v>
       </c>
-      <c r="C369" s="17" t="s">
+      <c r="C369" s="20" t="s">
         <v>380</v>
       </c>
       <c r="D369" s="12"/>
@@ -6578,7 +6611,7 @@
       <c r="B370" s="15" t="s">
         <v>345</v>
       </c>
-      <c r="C370" s="17" t="s">
+      <c r="C370" s="20" t="s">
         <v>381</v>
       </c>
       <c r="D370" s="12"/>
@@ -6591,7 +6624,7 @@
       <c r="B371" s="15" t="s">
         <v>345</v>
       </c>
-      <c r="C371" s="17" t="s">
+      <c r="C371" s="20" t="s">
         <v>382</v>
       </c>
       <c r="D371" s="12"/>
@@ -6604,7 +6637,7 @@
       <c r="B372" s="15" t="s">
         <v>345</v>
       </c>
-      <c r="C372" s="17" t="s">
+      <c r="C372" s="20" t="s">
         <v>383</v>
       </c>
       <c r="D372" s="12"/>
@@ -6617,7 +6650,7 @@
       <c r="B373" s="15" t="s">
         <v>345</v>
       </c>
-      <c r="C373" s="17" t="s">
+      <c r="C373" s="20" t="s">
         <v>384</v>
       </c>
       <c r="D373" s="12"/>
@@ -6630,7 +6663,7 @@
       <c r="B374" s="15" t="s">
         <v>345</v>
       </c>
-      <c r="C374" s="17" t="s">
+      <c r="C374" s="20" t="s">
         <v>385</v>
       </c>
       <c r="D374" s="12"/>
@@ -6643,7 +6676,7 @@
       <c r="B375" s="15" t="s">
         <v>345</v>
       </c>
-      <c r="C375" s="17" t="s">
+      <c r="C375" s="20" t="s">
         <v>386</v>
       </c>
       <c r="D375" s="12"/>
@@ -6656,7 +6689,7 @@
       <c r="B376" s="15" t="s">
         <v>345</v>
       </c>
-      <c r="C376" s="17" t="s">
+      <c r="C376" s="20" t="s">
         <v>387</v>
       </c>
       <c r="D376" s="12"/>
@@ -6669,7 +6702,7 @@
       <c r="B377" s="15" t="s">
         <v>345</v>
       </c>
-      <c r="C377" s="17" t="s">
+      <c r="C377" s="20" t="s">
         <v>388</v>
       </c>
       <c r="D377" s="12"/>
@@ -6682,7 +6715,7 @@
       <c r="B378" s="10" t="s">
         <v>389</v>
       </c>
-      <c r="C378" s="17" t="s">
+      <c r="C378" s="20" t="s">
         <v>390</v>
       </c>
       <c r="D378" s="12"/>
@@ -6695,7 +6728,7 @@
       <c r="B379" s="10" t="s">
         <v>389</v>
       </c>
-      <c r="C379" s="17" t="s">
+      <c r="C379" s="20" t="s">
         <v>391</v>
       </c>
       <c r="D379" s="12"/>
@@ -6708,7 +6741,7 @@
       <c r="B380" s="10" t="s">
         <v>389</v>
       </c>
-      <c r="C380" s="17" t="s">
+      <c r="C380" s="20" t="s">
         <v>392</v>
       </c>
       <c r="D380" s="12"/>
@@ -6721,7 +6754,7 @@
       <c r="B381" s="10" t="s">
         <v>389</v>
       </c>
-      <c r="C381" s="17" t="s">
+      <c r="C381" s="20" t="s">
         <v>91</v>
       </c>
       <c r="D381" s="12"/>
@@ -6734,7 +6767,7 @@
       <c r="B382" s="10" t="s">
         <v>389</v>
       </c>
-      <c r="C382" s="17" t="s">
+      <c r="C382" s="20" t="s">
         <v>393</v>
       </c>
       <c r="D382" s="12"/>
@@ -6747,7 +6780,7 @@
       <c r="B383" s="10" t="s">
         <v>389</v>
       </c>
-      <c r="C383" s="17" t="s">
+      <c r="C383" s="20" t="s">
         <v>394</v>
       </c>
       <c r="D383" s="12"/>
@@ -6760,7 +6793,7 @@
       <c r="B384" s="15" t="s">
         <v>395</v>
       </c>
-      <c r="C384" s="17" t="s">
+      <c r="C384" s="20" t="s">
         <v>396</v>
       </c>
       <c r="D384" s="12"/>
@@ -6773,7 +6806,7 @@
       <c r="B385" s="15" t="s">
         <v>395</v>
       </c>
-      <c r="C385" s="17" t="s">
+      <c r="C385" s="20" t="s">
         <v>397</v>
       </c>
       <c r="D385" s="12"/>
@@ -6786,7 +6819,7 @@
       <c r="B386" s="15" t="s">
         <v>395</v>
       </c>
-      <c r="C386" s="17" t="s">
+      <c r="C386" s="20" t="s">
         <v>398</v>
       </c>
       <c r="D386" s="12"/>
@@ -6799,7 +6832,7 @@
       <c r="B387" s="15" t="s">
         <v>395</v>
       </c>
-      <c r="C387" s="17" t="s">
+      <c r="C387" s="20" t="s">
         <v>399</v>
       </c>
       <c r="D387" s="12"/>
@@ -6812,7 +6845,7 @@
       <c r="B388" s="15" t="s">
         <v>395</v>
       </c>
-      <c r="C388" s="17" t="s">
+      <c r="C388" s="20" t="s">
         <v>400</v>
       </c>
       <c r="D388" s="12"/>
@@ -6825,7 +6858,7 @@
       <c r="B389" s="15" t="s">
         <v>395</v>
       </c>
-      <c r="C389" s="17" t="s">
+      <c r="C389" s="20" t="s">
         <v>401</v>
       </c>
       <c r="D389" s="12"/>
@@ -6838,7 +6871,7 @@
       <c r="B390" s="15" t="s">
         <v>395</v>
       </c>
-      <c r="C390" s="17" t="s">
+      <c r="C390" s="20" t="s">
         <v>402</v>
       </c>
       <c r="D390" s="12"/>
@@ -6851,7 +6884,7 @@
       <c r="B391" s="15" t="s">
         <v>395</v>
       </c>
-      <c r="C391" s="17" t="s">
+      <c r="C391" s="20" t="s">
         <v>275</v>
       </c>
       <c r="D391" s="12"/>
@@ -6864,7 +6897,7 @@
       <c r="B392" s="15" t="s">
         <v>395</v>
       </c>
-      <c r="C392" s="17" t="s">
+      <c r="C392" s="20" t="s">
         <v>403</v>
       </c>
       <c r="D392" s="12"/>
@@ -6877,7 +6910,7 @@
       <c r="B393" s="15" t="s">
         <v>395</v>
       </c>
-      <c r="C393" s="17" t="s">
+      <c r="C393" s="20" t="s">
         <v>404</v>
       </c>
       <c r="D393" s="12"/>
@@ -6890,7 +6923,7 @@
       <c r="B394" s="15" t="s">
         <v>395</v>
       </c>
-      <c r="C394" s="17" t="s">
+      <c r="C394" s="20" t="s">
         <v>405</v>
       </c>
       <c r="D394" s="12"/>
@@ -6903,7 +6936,7 @@
       <c r="B395" s="15" t="s">
         <v>395</v>
       </c>
-      <c r="C395" s="17" t="s">
+      <c r="C395" s="20" t="s">
         <v>406</v>
       </c>
       <c r="D395" s="12"/>
@@ -6916,7 +6949,7 @@
       <c r="B396" s="15" t="s">
         <v>395</v>
       </c>
-      <c r="C396" s="17" t="s">
+      <c r="C396" s="20" t="s">
         <v>407</v>
       </c>
       <c r="D396" s="12"/>
@@ -6929,7 +6962,7 @@
       <c r="B397" s="15" t="s">
         <v>395</v>
       </c>
-      <c r="C397" s="17" t="s">
+      <c r="C397" s="20" t="s">
         <v>408</v>
       </c>
       <c r="D397" s="12"/>
@@ -6942,7 +6975,7 @@
       <c r="B398" s="15" t="s">
         <v>395</v>
       </c>
-      <c r="C398" s="17" t="s">
+      <c r="C398" s="20" t="s">
         <v>409</v>
       </c>
       <c r="D398" s="12"/>
@@ -6955,7 +6988,7 @@
       <c r="B399" s="15" t="s">
         <v>395</v>
       </c>
-      <c r="C399" s="17" t="s">
+      <c r="C399" s="20" t="s">
         <v>410</v>
       </c>
       <c r="D399" s="12"/>
@@ -6968,7 +7001,7 @@
       <c r="B400" s="15" t="s">
         <v>395</v>
       </c>
-      <c r="C400" s="17" t="s">
+      <c r="C400" s="20" t="s">
         <v>411</v>
       </c>
       <c r="D400" s="12"/>
@@ -6981,7 +7014,7 @@
       <c r="B401" s="15" t="s">
         <v>395</v>
       </c>
-      <c r="C401" s="17" t="s">
+      <c r="C401" s="20" t="s">
         <v>412</v>
       </c>
       <c r="D401" s="12"/>
@@ -6994,7 +7027,7 @@
       <c r="B402" s="15" t="s">
         <v>395</v>
       </c>
-      <c r="C402" s="17" t="s">
+      <c r="C402" s="20" t="s">
         <v>413</v>
       </c>
       <c r="D402" s="12"/>
@@ -7007,7 +7040,7 @@
       <c r="B403" s="15" t="s">
         <v>395</v>
       </c>
-      <c r="C403" s="17" t="s">
+      <c r="C403" s="20" t="s">
         <v>414</v>
       </c>
       <c r="D403" s="12"/>
@@ -7020,7 +7053,7 @@
       <c r="B404" s="15" t="s">
         <v>395</v>
       </c>
-      <c r="C404" s="17" t="s">
+      <c r="C404" s="20" t="s">
         <v>415</v>
       </c>
       <c r="D404" s="12"/>
@@ -7033,7 +7066,7 @@
       <c r="B405" s="15" t="s">
         <v>395</v>
       </c>
-      <c r="C405" s="17" t="s">
+      <c r="C405" s="20" t="s">
         <v>416</v>
       </c>
       <c r="D405" s="12"/>
@@ -7046,7 +7079,7 @@
       <c r="B406" s="15" t="s">
         <v>395</v>
       </c>
-      <c r="C406" s="17" t="s">
+      <c r="C406" s="20" t="s">
         <v>417</v>
       </c>
       <c r="D406" s="12"/>
@@ -7059,7 +7092,7 @@
       <c r="B407" s="15" t="s">
         <v>395</v>
       </c>
-      <c r="C407" s="17" t="s">
+      <c r="C407" s="20" t="s">
         <v>418</v>
       </c>
       <c r="D407" s="12"/>
@@ -7072,7 +7105,7 @@
       <c r="B408" s="15" t="s">
         <v>395</v>
       </c>
-      <c r="C408" s="17" t="s">
+      <c r="C408" s="20" t="s">
         <v>419</v>
       </c>
       <c r="D408" s="12"/>
@@ -7085,7 +7118,7 @@
       <c r="B409" s="15" t="s">
         <v>395</v>
       </c>
-      <c r="C409" s="17" t="s">
+      <c r="C409" s="20" t="s">
         <v>420</v>
       </c>
       <c r="D409" s="12"/>
@@ -7098,7 +7131,7 @@
       <c r="B410" s="15" t="s">
         <v>395</v>
       </c>
-      <c r="C410" s="17" t="s">
+      <c r="C410" s="20" t="s">
         <v>421</v>
       </c>
       <c r="D410" s="12"/>
@@ -7111,7 +7144,7 @@
       <c r="B411" s="15" t="s">
         <v>395</v>
       </c>
-      <c r="C411" s="17" t="s">
+      <c r="C411" s="20" t="s">
         <v>422</v>
       </c>
       <c r="D411" s="12"/>
@@ -7124,7 +7157,7 @@
       <c r="B412" s="15" t="s">
         <v>395</v>
       </c>
-      <c r="C412" s="17" t="s">
+      <c r="C412" s="20" t="s">
         <v>423</v>
       </c>
       <c r="D412" s="12"/>
@@ -7137,7 +7170,7 @@
       <c r="B413" s="15" t="s">
         <v>395</v>
       </c>
-      <c r="C413" s="17" t="s">
+      <c r="C413" s="20" t="s">
         <v>424</v>
       </c>
       <c r="D413" s="12"/>
@@ -7150,7 +7183,7 @@
       <c r="B414" s="15" t="s">
         <v>395</v>
       </c>
-      <c r="C414" s="17" t="s">
+      <c r="C414" s="20" t="s">
         <v>425</v>
       </c>
       <c r="D414" s="12"/>
@@ -7163,7 +7196,7 @@
       <c r="B415" s="15" t="s">
         <v>395</v>
       </c>
-      <c r="C415" s="17" t="s">
+      <c r="C415" s="20" t="s">
         <v>426</v>
       </c>
       <c r="D415" s="12"/>
@@ -7176,7 +7209,7 @@
       <c r="B416" s="15" t="s">
         <v>395</v>
       </c>
-      <c r="C416" s="17" t="s">
+      <c r="C416" s="20" t="s">
         <v>427</v>
       </c>
       <c r="D416" s="12"/>
@@ -7189,7 +7222,7 @@
       <c r="B417" s="15" t="s">
         <v>395</v>
       </c>
-      <c r="C417" s="17" t="s">
+      <c r="C417" s="20" t="s">
         <v>428</v>
       </c>
       <c r="D417" s="12"/>
@@ -7202,7 +7235,7 @@
       <c r="B418" s="15" t="s">
         <v>395</v>
       </c>
-      <c r="C418" s="17" t="s">
+      <c r="C418" s="20" t="s">
         <v>429</v>
       </c>
       <c r="D418" s="12"/>
@@ -7215,7 +7248,7 @@
       <c r="B419" s="15" t="s">
         <v>395</v>
       </c>
-      <c r="C419" s="17" t="s">
+      <c r="C419" s="20" t="s">
         <v>430</v>
       </c>
       <c r="D419" s="12"/>
@@ -7228,7 +7261,7 @@
       <c r="B420" s="15" t="s">
         <v>395</v>
       </c>
-      <c r="C420" s="17" t="s">
+      <c r="C420" s="20" t="s">
         <v>431</v>
       </c>
       <c r="D420" s="12"/>
@@ -7241,7 +7274,7 @@
       <c r="B421" s="15" t="s">
         <v>395</v>
       </c>
-      <c r="C421" s="17" t="s">
+      <c r="C421" s="20" t="s">
         <v>432</v>
       </c>
       <c r="D421" s="12"/>
@@ -7254,7 +7287,7 @@
       <c r="B422" s="15" t="s">
         <v>395</v>
       </c>
-      <c r="C422" s="17" t="s">
+      <c r="C422" s="20" t="s">
         <v>433</v>
       </c>
       <c r="D422" s="12"/>
@@ -7267,7 +7300,7 @@
       <c r="B423" s="15" t="s">
         <v>395</v>
       </c>
-      <c r="C423" s="17" t="s">
+      <c r="C423" s="20" t="s">
         <v>434</v>
       </c>
       <c r="D423" s="12"/>
@@ -7280,7 +7313,7 @@
       <c r="B424" s="15" t="s">
         <v>395</v>
       </c>
-      <c r="C424" s="17" t="s">
+      <c r="C424" s="20" t="s">
         <v>435</v>
       </c>
       <c r="D424" s="12"/>
@@ -7293,7 +7326,7 @@
       <c r="B425" s="15" t="s">
         <v>395</v>
       </c>
-      <c r="C425" s="17" t="s">
+      <c r="C425" s="20" t="s">
         <v>436</v>
       </c>
       <c r="D425" s="12"/>
@@ -7306,7 +7339,7 @@
       <c r="B426" s="15" t="s">
         <v>395</v>
       </c>
-      <c r="C426" s="17" t="s">
+      <c r="C426" s="20" t="s">
         <v>437</v>
       </c>
       <c r="D426" s="12"/>
@@ -7319,7 +7352,7 @@
       <c r="B427" s="15" t="s">
         <v>395</v>
       </c>
-      <c r="C427" s="17" t="s">
+      <c r="C427" s="20" t="s">
         <v>438</v>
       </c>
       <c r="D427" s="12"/>
@@ -7332,7 +7365,7 @@
       <c r="B428" s="15" t="s">
         <v>395</v>
       </c>
-      <c r="C428" s="17" t="s">
+      <c r="C428" s="20" t="s">
         <v>439</v>
       </c>
       <c r="D428" s="12"/>
@@ -7345,7 +7378,7 @@
       <c r="B429" s="15" t="s">
         <v>395</v>
       </c>
-      <c r="C429" s="17" t="s">
+      <c r="C429" s="20" t="s">
         <v>440</v>
       </c>
       <c r="D429" s="12"/>
@@ -7358,7 +7391,7 @@
       <c r="B430" s="15" t="s">
         <v>395</v>
       </c>
-      <c r="C430" s="17" t="s">
+      <c r="C430" s="20" t="s">
         <v>441</v>
       </c>
       <c r="D430" s="12"/>
@@ -7371,7 +7404,7 @@
       <c r="B431" s="15" t="s">
         <v>395</v>
       </c>
-      <c r="C431" s="17" t="s">
+      <c r="C431" s="20" t="s">
         <v>442</v>
       </c>
       <c r="D431" s="12"/>
@@ -7384,7 +7417,7 @@
       <c r="B432" s="15" t="s">
         <v>395</v>
       </c>
-      <c r="C432" s="17" t="s">
+      <c r="C432" s="20" t="s">
         <v>443</v>
       </c>
       <c r="D432" s="12"/>
@@ -7397,7 +7430,7 @@
       <c r="B433" s="15" t="s">
         <v>395</v>
       </c>
-      <c r="C433" s="17" t="s">
+      <c r="C433" s="20" t="s">
         <v>444</v>
       </c>
       <c r="D433" s="12"/>
@@ -7410,7 +7443,7 @@
       <c r="B434" s="15" t="s">
         <v>395</v>
       </c>
-      <c r="C434" s="17" t="s">
+      <c r="C434" s="20" t="s">
         <v>445</v>
       </c>
       <c r="D434" s="12"/>
@@ -7423,7 +7456,7 @@
       <c r="B435" s="15" t="s">
         <v>395</v>
       </c>
-      <c r="C435" s="17" t="s">
+      <c r="C435" s="20" t="s">
         <v>446</v>
       </c>
       <c r="D435" s="12"/>
@@ -7436,7 +7469,7 @@
       <c r="B436" s="15" t="s">
         <v>395</v>
       </c>
-      <c r="C436" s="17" t="s">
+      <c r="C436" s="20" t="s">
         <v>447</v>
       </c>
       <c r="D436" s="12"/>
@@ -7449,7 +7482,7 @@
       <c r="B437" s="15" t="s">
         <v>395</v>
       </c>
-      <c r="C437" s="17" t="s">
+      <c r="C437" s="20" t="s">
         <v>448</v>
       </c>
       <c r="D437" s="12"/>
@@ -7462,7 +7495,7 @@
       <c r="B438" s="15" t="s">
         <v>395</v>
       </c>
-      <c r="C438" s="17" t="s">
+      <c r="C438" s="20" t="s">
         <v>449</v>
       </c>
       <c r="D438" s="12"/>
@@ -7475,7 +7508,7 @@
       <c r="B439" s="15" t="s">
         <v>395</v>
       </c>
-      <c r="C439" s="17" t="s">
+      <c r="C439" s="20" t="s">
         <v>450</v>
       </c>
       <c r="D439" s="12"/>
@@ -7488,7 +7521,7 @@
       <c r="B440" s="15" t="s">
         <v>395</v>
       </c>
-      <c r="C440" s="17" t="s">
+      <c r="C440" s="20" t="s">
         <v>451</v>
       </c>
       <c r="D440" s="12"/>
@@ -7501,7 +7534,7 @@
       <c r="B441" s="15" t="s">
         <v>395</v>
       </c>
-      <c r="C441" s="17" t="s">
+      <c r="C441" s="20" t="s">
         <v>452</v>
       </c>
       <c r="D441" s="12"/>
@@ -7514,7 +7547,7 @@
       <c r="B442" s="15" t="s">
         <v>395</v>
       </c>
-      <c r="C442" s="17" t="s">
+      <c r="C442" s="20" t="s">
         <v>453</v>
       </c>
       <c r="D442" s="12"/>
@@ -7527,7 +7560,7 @@
       <c r="B443" s="15" t="s">
         <v>395</v>
       </c>
-      <c r="C443" s="17" t="s">
+      <c r="C443" s="20" t="s">
         <v>454</v>
       </c>
       <c r="D443" s="12"/>
@@ -7540,7 +7573,7 @@
       <c r="B444" s="10" t="s">
         <v>455</v>
       </c>
-      <c r="C444" s="17" t="s">
+      <c r="C444" s="20" t="s">
         <v>456</v>
       </c>
       <c r="D444" s="12"/>
@@ -7553,7 +7586,7 @@
       <c r="B445" s="10" t="s">
         <v>455</v>
       </c>
-      <c r="C445" s="17" t="s">
+      <c r="C445" s="20" t="s">
         <v>457</v>
       </c>
       <c r="D445" s="12"/>
@@ -7566,7 +7599,7 @@
       <c r="B446" s="10" t="s">
         <v>455</v>
       </c>
-      <c r="C446" s="17" t="s">
+      <c r="C446" s="20" t="s">
         <v>458</v>
       </c>
       <c r="D446" s="12"/>
@@ -7579,7 +7612,7 @@
       <c r="B447" s="10" t="s">
         <v>455</v>
       </c>
-      <c r="C447" s="17" t="s">
+      <c r="C447" s="20" t="s">
         <v>459</v>
       </c>
       <c r="D447" s="12"/>
@@ -7592,7 +7625,7 @@
       <c r="B448" s="10" t="s">
         <v>455</v>
       </c>
-      <c r="C448" s="17" t="s">
+      <c r="C448" s="20" t="s">
         <v>460</v>
       </c>
       <c r="D448" s="12"/>
@@ -7605,7 +7638,7 @@
       <c r="B449" s="10" t="s">
         <v>455</v>
       </c>
-      <c r="C449" s="17" t="s">
+      <c r="C449" s="20" t="s">
         <v>461</v>
       </c>
       <c r="D449" s="12"/>
@@ -7618,7 +7651,7 @@
       <c r="B450" s="10" t="s">
         <v>455</v>
       </c>
-      <c r="C450" s="17" t="s">
+      <c r="C450" s="20" t="s">
         <v>462</v>
       </c>
       <c r="D450" s="12"/>
@@ -7631,7 +7664,7 @@
       <c r="B451" s="10" t="s">
         <v>455</v>
       </c>
-      <c r="C451" s="17" t="s">
+      <c r="C451" s="20" t="s">
         <v>463</v>
       </c>
       <c r="D451" s="12"/>
@@ -7644,7 +7677,7 @@
       <c r="B452" s="10" t="s">
         <v>455</v>
       </c>
-      <c r="C452" s="17" t="s">
+      <c r="C452" s="20" t="s">
         <v>464</v>
       </c>
       <c r="D452" s="12"/>
@@ -7657,7 +7690,7 @@
       <c r="B453" s="10" t="s">
         <v>455</v>
       </c>
-      <c r="C453" s="17" t="s">
+      <c r="C453" s="20" t="s">
         <v>465</v>
       </c>
       <c r="D453" s="12"/>
@@ -7747,7 +7780,7 @@
     <hyperlink ref="C43" r:id="rId39" display="Search an element in a matrix"/>
     <hyperlink ref="C44" r:id="rId40" display="Find median in a row wise sorted matrix"/>
     <hyperlink ref="C45" r:id="rId41" display="Find row with maximum no. of 1's"/>
-    <hyperlink ref="C46" r:id="rId42" display="Print elements in sorted order using row-column wise sorted matrix"/>
+    <hyperlink ref="C46" r:id="rId42" display="Print elements in sorted order using row-column wise sorted matrix (generalised form: MxN matrix)"/>
     <hyperlink ref="C47" r:id="rId43" display="Maximum size rectangle"/>
     <hyperlink ref="C48" r:id="rId44" display="Find a specific pair in matrix"/>
     <hyperlink ref="C50" r:id="rId45" display="Kth smallest element in a row-cpumn wise sorted matrix"/>

--- a/DSA_450_LoveBabbar.xlsx
+++ b/DSA_450_LoveBabbar.xlsx
@@ -198,10 +198,10 @@
     <t xml:space="preserve">Find a specific pair in matrix</t>
   </si>
   <si>
-    <t xml:space="preserve">sud</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kth smallest element in a row-cpumn wise sorted matrix</t>
+    <t xml:space="preserve">Rotate a matrix by 90deg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kth smallest element in a row-column wise sorted matrix</t>
   </si>
   <si>
     <t xml:space="preserve">Common elements in all rows of a given matrix</t>
@@ -1836,8 +1836,8 @@
   </sheetPr>
   <dimension ref="A1:D467"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B41" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C48" activeCellId="0" sqref="C48"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A29" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C49" activeCellId="0" sqref="C49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.66015625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2438,7 +2438,7 @@
       </c>
       <c r="D48" s="12"/>
     </row>
-    <row r="49" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="49" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="6" t="n">
         <f aca="false">A48 + 1</f>
         <v>44</v>
@@ -7783,407 +7783,408 @@
     <hyperlink ref="C46" r:id="rId42" display="Print elements in sorted order using row-column wise sorted matrix (generalised form: MxN matrix)"/>
     <hyperlink ref="C47" r:id="rId43" display="Maximum size rectangle"/>
     <hyperlink ref="C48" r:id="rId44" display="Find a specific pair in matrix"/>
-    <hyperlink ref="C50" r:id="rId45" display="Kth smallest element in a row-cpumn wise sorted matrix"/>
-    <hyperlink ref="C51" r:id="rId46" display="Common elements in all rows of a given matrix"/>
-    <hyperlink ref="C52" r:id="rId47" display="Reverse a String"/>
-    <hyperlink ref="C53" r:id="rId48" display="Check whether a String is Palindrome or not"/>
-    <hyperlink ref="C54" r:id="rId49" display="Find Duplicate characters in a string"/>
-    <hyperlink ref="C56" r:id="rId50" display="Write a Code to check whether one string is a rotation of another"/>
-    <hyperlink ref="C57" r:id="rId51" display="Write a Program to check whether a string is a valid shuffle of two strings or not"/>
-    <hyperlink ref="C58" r:id="rId52" display="Count and Say problem"/>
-    <hyperlink ref="C59" r:id="rId53" display="Write a program to find the longest Palindrome in a string.[ Longest palindromic Substring]"/>
-    <hyperlink ref="C60" r:id="rId54" display="Find Longest Recurring Subsequence in String"/>
-    <hyperlink ref="C61" r:id="rId55" display="Print all Subsequences of a string."/>
-    <hyperlink ref="C62" r:id="rId56" display="Print all the permutations of the given string"/>
-    <hyperlink ref="C63" r:id="rId57" display="Split the Binary string into two substring with equal 0’s and 1’s"/>
-    <hyperlink ref="C64" r:id="rId58" display="Word Wrap Problem [VERY IMP]."/>
-    <hyperlink ref="C65" r:id="rId59" display="EDIT Distance [Very Imp]"/>
-    <hyperlink ref="C66" r:id="rId60" display="Find next greater number with same set of digits. [Very Very IMP]"/>
-    <hyperlink ref="C67" r:id="rId61" display="Balanced Parenthesis problem.[Imp]"/>
-    <hyperlink ref="C68" r:id="rId62" display="Word break Problem[ Very Imp]"/>
-    <hyperlink ref="C69" r:id="rId63" display="Rabin Karp Algo"/>
-    <hyperlink ref="C70" r:id="rId64" display="KMP Algo"/>
-    <hyperlink ref="C71" r:id="rId65" display="Convert a Sentence into its equivalent mobile numeric keypad sequence."/>
-    <hyperlink ref="C72" r:id="rId66" display="Minimum number of bracket reversals needed to make an expression balanced."/>
-    <hyperlink ref="C73" r:id="rId67" display="Count All Palindromic Subsequence in a given String."/>
-    <hyperlink ref="C74" r:id="rId68" display="Count of number of given string in 2D character array"/>
-    <hyperlink ref="C75" r:id="rId69" display="Search a Word in a 2D Grid of characters."/>
-    <hyperlink ref="C76" r:id="rId70" display="Boyer Moore Algorithm for Pattern Searching."/>
-    <hyperlink ref="C77" r:id="rId71" display="Converting Roman Numerals to Decimal"/>
-    <hyperlink ref="C78" r:id="rId72" display="Longest Common Prefix"/>
-    <hyperlink ref="C79" r:id="rId73" display="Number of flips to make binary string alternate"/>
-    <hyperlink ref="C80" r:id="rId74" display="Find the first repeated word in string."/>
-    <hyperlink ref="C81" r:id="rId75" display="Minimum number of swaps for bracket balancing."/>
-    <hyperlink ref="C82" r:id="rId76" display="Find the longest common subsequence between two strings."/>
-    <hyperlink ref="C83" r:id="rId77" display="Program to generate all possible valid IP addresses from given  string."/>
-    <hyperlink ref="C84" r:id="rId78" display="Write a program tofind the smallest window that contains all characters of string itself."/>
-    <hyperlink ref="C85" r:id="rId79" display="Rearrange characters in a string such that no two adjacent are same"/>
-    <hyperlink ref="C86" r:id="rId80" display="Minimum characters to be added at front to make string palindrome"/>
-    <hyperlink ref="C87" r:id="rId81" display="Given a sequence of words, print all anagrams together"/>
-    <hyperlink ref="C88" r:id="rId82" display="Find the smallest window in a string containing all characters of another string"/>
-    <hyperlink ref="C89" r:id="rId83" display="Recursively remove all adjacent duplicates"/>
-    <hyperlink ref="C90" r:id="rId84" display="String matching where one string contains wildcard characters"/>
-    <hyperlink ref="C91" r:id="rId85" display="Function to find Number of customers who could not get a computer"/>
-    <hyperlink ref="C92" r:id="rId86" display="Transform One String to Another using Minimum Number of Given Operation"/>
-    <hyperlink ref="C93" r:id="rId87" display="Check if two given strings are isomorphic to each other"/>
-    <hyperlink ref="C94" r:id="rId88" display="Recursively print all sentences that can be formed from list of word lists"/>
-    <hyperlink ref="C95" r:id="rId89" display="Find first and last positions of an element in a sorted array"/>
-    <hyperlink ref="C96" r:id="rId90" display="Find a Fixed Point (Value equal to index) in a given array"/>
-    <hyperlink ref="C97" r:id="rId91" display="Search in a rotated sorted array"/>
-    <hyperlink ref="C98" r:id="rId92" display="square root of an integer"/>
-    <hyperlink ref="C99" r:id="rId93" display="Maximum and minimum of an array using minimum number of comparisons"/>
-    <hyperlink ref="C100" r:id="rId94" location=":~:text=We%20need%20to%20find%20a,set%20of%20points%20is%20minimum.&amp;text=In%20above%20figure%20optimum%20location,is%20minimum%20obtainable%20total%20distance." display="Optimum location of point to minimize total distance"/>
-    <hyperlink ref="C101" r:id="rId95" display="Find the repeating and the missing"/>
-    <hyperlink ref="C102" r:id="rId96" display="find majority element"/>
-    <hyperlink ref="C103" r:id="rId97" display="Searching in an array where adjacent differ by at most k"/>
-    <hyperlink ref="C104" r:id="rId98" display="find a pair with a given difference"/>
-    <hyperlink ref="C105" r:id="rId99" display="find four elements that sum to a given value"/>
-    <hyperlink ref="C106" r:id="rId100" display="maximum sum such that no 2 elements are adjacent"/>
-    <hyperlink ref="C107" r:id="rId101" display="Count triplet with sum smaller than a given value"/>
-    <hyperlink ref="C108" r:id="rId102" display="merge 2 sorted arrays"/>
-    <hyperlink ref="C109" r:id="rId103" display="print all subarrays with 0 sum"/>
-    <hyperlink ref="C110" r:id="rId104" display="Product array Puzzle"/>
-    <hyperlink ref="C111" r:id="rId105" display="Sort array according to count of set bits"/>
-    <hyperlink ref="C112" r:id="rId106" display="minimum no. of swaps required to sort the array"/>
-    <hyperlink ref="C113" r:id="rId107" display="Bishu and Soldiers"/>
-    <hyperlink ref="C114" r:id="rId108" display="Rasta and Kheshtak"/>
-    <hyperlink ref="C115" r:id="rId109" display="Kth smallest number again"/>
-    <hyperlink ref="C116" r:id="rId110" display="Find pivot element in a sorted array"/>
-    <hyperlink ref="C117" r:id="rId111" display="K-th Element of Two Sorted Arrays"/>
-    <hyperlink ref="C118" r:id="rId112" display="Aggressive cows"/>
-    <hyperlink ref="C119" r:id="rId113" display="Book Allocation Problem"/>
-    <hyperlink ref="C120" r:id="rId114" display="EKOSPOJ:"/>
-    <hyperlink ref="C121" r:id="rId115" display="Job Scheduling Algo"/>
-    <hyperlink ref="C122" r:id="rId116" display="Missing Number in AP"/>
-    <hyperlink ref="C123" r:id="rId117" display="Smallest number with atleastn trailing zeroes infactorial"/>
-    <hyperlink ref="C124" r:id="rId118" display="Painters Partition Problem:"/>
-    <hyperlink ref="C125" r:id="rId119" display="ROTI-Prata SPOJ"/>
-    <hyperlink ref="C126" r:id="rId120" display="DoubleHelix SPOJ"/>
-    <hyperlink ref="C127" r:id="rId121" display="Subset Sums"/>
-    <hyperlink ref="C128" r:id="rId122" display="Findthe inversion count"/>
-    <hyperlink ref="C129" r:id="rId123" display="Implement Merge-sort in-place"/>
-    <hyperlink ref="C130" r:id="rId124" display="Partitioning and Sorting Arrays with Many Repeated Entries"/>
-    <hyperlink ref="C131" r:id="rId125" display="Write a Program to reverse the Linked List. (Both Iterative and recursive)"/>
-    <hyperlink ref="C132" r:id="rId126" display="Reverse a Linked List in group of Given Size. [Very Imp]"/>
-    <hyperlink ref="C133" r:id="rId127" display="Write a program to Detect loop in a linked list."/>
-    <hyperlink ref="C134" r:id="rId128" display="Write a program to Delete loop in a linked list."/>
-    <hyperlink ref="C135" r:id="rId129" display="Find the starting point of the loop. "/>
-    <hyperlink ref="C136" r:id="rId130" display="Remove Duplicates in a sorted Linked List."/>
-    <hyperlink ref="C137" r:id="rId131" display="Remove Duplicates in a Un-sorted Linked List."/>
-    <hyperlink ref="C138" r:id="rId132" display="Write a Program to Move the last element to Front in a Linked List."/>
-    <hyperlink ref="C139" r:id="rId133" display="Add “1” to a number represented as a Linked List."/>
-    <hyperlink ref="C140" r:id="rId134" display="Add two numbers represented by linked lists."/>
-    <hyperlink ref="C141" r:id="rId135" display="Intersection of two Sorted Linked List."/>
-    <hyperlink ref="C142" r:id="rId136" display="Intersection Point of two Linked Lists."/>
-    <hyperlink ref="C143" r:id="rId137" display="Merge Sort For Linked lists.[Very Important]"/>
-    <hyperlink ref="C144" r:id="rId138" display="Quicksort for Linked Lists.[Very Important]"/>
-    <hyperlink ref="C145" r:id="rId139" display="Find the middle Element of a linked list."/>
-    <hyperlink ref="C146" r:id="rId140" display="Check if a linked list is a circular linked list."/>
-    <hyperlink ref="C147" r:id="rId141" display="Split a Circular linked list into two halves."/>
-    <hyperlink ref="C148" r:id="rId142" display="Write a Program to check whether the Singly Linked list is a palindrome or not."/>
-    <hyperlink ref="C149" r:id="rId143" display="Deletion from a Circular Linked List."/>
-    <hyperlink ref="C150" r:id="rId144" display="Reverse a Doubly Linked list."/>
-    <hyperlink ref="C151" r:id="rId145" display="Find pairs with a given sum in a DLL."/>
-    <hyperlink ref="C152" r:id="rId146" display="Count triplets in a sorted DLL whose sum is equal to given value “X”."/>
-    <hyperlink ref="C153" r:id="rId147" display="Sort a “k”sorted Doubly Linked list.[Very IMP]"/>
-    <hyperlink ref="C154" r:id="rId148" display="Rotate DoublyLinked list by N nodes."/>
-    <hyperlink ref="C155" r:id="rId149" display="Rotate a Doubly Linked list in group of Given Size.[Very IMP]"/>
-    <hyperlink ref="C158" r:id="rId150" display="Flatten a Linked List"/>
-    <hyperlink ref="C159" r:id="rId151" display="Sort a LL of 0's, 1's and 2's"/>
-    <hyperlink ref="C160" r:id="rId152" display="Clone a linked list with next and random pointer"/>
-    <hyperlink ref="C161" r:id="rId153" display="Merge K sorted Linked list"/>
-    <hyperlink ref="C162" r:id="rId154" display="Multiply 2 no. represented by LL"/>
-    <hyperlink ref="C163" r:id="rId155" display="Delete nodes which have a greater value on right side"/>
-    <hyperlink ref="C164" r:id="rId156" display="Segregate even and odd nodes in a Linked List"/>
-    <hyperlink ref="C165" r:id="rId157" display="Program for n’th node from the end of a Linked List"/>
-    <hyperlink ref="C166" r:id="rId158" display="Find the first non-repeating character from a stream of characters"/>
-    <hyperlink ref="C167" r:id="rId159" display="level order traversal"/>
-    <hyperlink ref="C168" r:id="rId160" display="Reverse Level Order traversal"/>
-    <hyperlink ref="C169" r:id="rId161" display="Height of a tree"/>
-    <hyperlink ref="C170" r:id="rId162" display="Diameter of a tree"/>
-    <hyperlink ref="C171" r:id="rId163" display="Mirror of a tree"/>
-    <hyperlink ref="C172" r:id="rId164" display="Inorder Traversal of a tree both using recursion and Iteration"/>
-    <hyperlink ref="C173" r:id="rId165" display="Preorder Traversal of a tree both using recursion and Iteration"/>
-    <hyperlink ref="C174" r:id="rId166" display="Postorder Traversal of a tree both using recursion and Iteration"/>
-    <hyperlink ref="C175" r:id="rId167" display="Left View of a tree"/>
-    <hyperlink ref="C176" r:id="rId168" display="Right View of Tree"/>
-    <hyperlink ref="C177" r:id="rId169" display="Top View of a tree"/>
-    <hyperlink ref="C178" r:id="rId170" display="Bottom View of a tree"/>
-    <hyperlink ref="C179" r:id="rId171" display="Zig-Zag traversal of a binary tree"/>
-    <hyperlink ref="C180" r:id="rId172" display="Check if a tree is balanced or not"/>
-    <hyperlink ref="C181" r:id="rId173" display="Diagnol Traversal of a Binary tree"/>
-    <hyperlink ref="C182" r:id="rId174" display="Boundary traversal of a Binary tree"/>
-    <hyperlink ref="C183" r:id="rId175" display="Construct Binary Tree from String with Bracket Representation"/>
-    <hyperlink ref="C184" r:id="rId176" display="Convert Binary tree into Doubly Linked List"/>
-    <hyperlink ref="C185" r:id="rId177" display="Convert Binary tree into Sum tree"/>
-    <hyperlink ref="C186" r:id="rId178" display="Construct Binary tree from Inorder and preorder traversal"/>
-    <hyperlink ref="C187" r:id="rId179" location=":~:text=Given%20the%20array%20representation%20of,it%20into%20Binary%20Search%20Tree.&amp;text=Swap%201%3A%20Swap%20node%208,node%209%20with%20node%2010." display="Find minimum swaps required to convert a Binary tree into BST"/>
-    <hyperlink ref="C188" r:id="rId180" display="Check if Binary tree is Sum tree or not"/>
-    <hyperlink ref="C189" r:id="rId181" display="Check if all leaf nodes are at same level or not"/>
-    <hyperlink ref="C190" r:id="rId182" display="Check if a Binary Tree contains duplicate subtrees of size 2 or more [ IMP ]"/>
-    <hyperlink ref="C191" r:id="rId183" display="Check if 2 trees are mirror or not"/>
-    <hyperlink ref="C192" r:id="rId184" display="Sum of Nodes on the Longest path from root to leaf node "/>
-    <hyperlink ref="C193" r:id="rId185" location=":~:text=Since%20the%20graph%20is%20undirected,graph%20is%20connected%2C%20otherwise%20not." display="Check if given graph is tree or not.  [ IMP ]"/>
-    <hyperlink ref="C194" r:id="rId186" display="Find Largest subtree sum in a tree"/>
-    <hyperlink ref="C195" r:id="rId187" display="Maximum Sum of nodes in Binary tree such that no two are adjacent "/>
-    <hyperlink ref="C196" r:id="rId188" display="Print all &quot;K&quot; Sum paths in a Binary tree"/>
-    <hyperlink ref="C197" r:id="rId189" display="Find LCA in a Binary tree"/>
-    <hyperlink ref="C198" r:id="rId190" display="Find distance between 2 nodes in a Binary tree"/>
-    <hyperlink ref="C199" r:id="rId191" display="Kth Ancestor of node in a Binary tree"/>
-    <hyperlink ref="C200" r:id="rId192" display="Find all Duplicate subtrees in a Binary tree [ IMP ]"/>
-    <hyperlink ref="C201" r:id="rId193" display="Tree Isomorphism Problem"/>
-    <hyperlink ref="C202" r:id="rId194" display="Fina a value in a BST"/>
-    <hyperlink ref="C203" r:id="rId195" display="Deletion of a node in a BST"/>
-    <hyperlink ref="C204" r:id="rId196" display="Find min and max value in a BST"/>
-    <hyperlink ref="C205" r:id="rId197" display="Find inorder successor and inorder predecessor in a BST"/>
-    <hyperlink ref="C206" r:id="rId198" display="Check if a tree is a BST or not "/>
-    <hyperlink ref="C207" r:id="rId199" display="Populate Inorder successor of all nodes"/>
-    <hyperlink ref="C208" r:id="rId200" display="Find LCA  of 2 nodes in a BST"/>
-    <hyperlink ref="C209" r:id="rId201" display="Construct BST from preorder traversal"/>
-    <hyperlink ref="C210" r:id="rId202" display="Convert Binary tree into BST"/>
-    <hyperlink ref="C211" r:id="rId203" display="Convert a normal BST into a Balanced BST"/>
-    <hyperlink ref="C212" r:id="rId204" display="Merge two BST [ V.V.V&gt;IMP ]"/>
-    <hyperlink ref="C213" r:id="rId205" display="Find Kth largest element in a BST"/>
-    <hyperlink ref="C214" r:id="rId206" display="Find Kth smallest element in a BST"/>
-    <hyperlink ref="C215" r:id="rId207" display="Count pairs from 2 BST whose sum is equal to given value &quot;X&quot;"/>
-    <hyperlink ref="C216" r:id="rId208" display="Find the median of BST in O(n) time and O(1) space"/>
-    <hyperlink ref="C217" r:id="rId209" display="Count BST ndoes that lie in a given range"/>
-    <hyperlink ref="C218" r:id="rId210" display="Replace every element with the least greater element on its right"/>
-    <hyperlink ref="C219" r:id="rId211" display="Given &quot;n&quot; appointments, find the conflicting appointments"/>
-    <hyperlink ref="C220" r:id="rId212" display="Check preorder is valid or not"/>
-    <hyperlink ref="C221" r:id="rId213" display="Check whether BST contains Dead end"/>
-    <hyperlink ref="C222" r:id="rId214" display="Largest BST in a Binary Tree [ V.V.V.V.V IMP ]"/>
-    <hyperlink ref="C223" r:id="rId215" display="Flatten BST to sorted list"/>
-    <hyperlink ref="C224" r:id="rId216" display="Activity Selection Problem"/>
-    <hyperlink ref="C225" r:id="rId217" display="Job SequencingProblem"/>
-    <hyperlink ref="C226" r:id="rId218" display="Huffman Coding"/>
-    <hyperlink ref="C227" r:id="rId219" display="Water Connection Problem"/>
-    <hyperlink ref="C228" r:id="rId220" display="Fractional Knapsack Problem"/>
-    <hyperlink ref="C229" r:id="rId221" display="Greedy Algorithm to find Minimum number of Coins"/>
-    <hyperlink ref="C230" r:id="rId222" display="Maximum trains for which stoppage can be provided"/>
-    <hyperlink ref="C231" r:id="rId223" display="Minimum Platforms Problem"/>
-    <hyperlink ref="C232" r:id="rId224" display="Buy Maximum Stocks if i stocks can be bought on i-th day"/>
-    <hyperlink ref="C233" r:id="rId225" display="Find the minimum and maximum amount to buy all N candies"/>
-    <hyperlink ref="C234" r:id="rId226" display="Minimize Cash Flow among a given set of friends who have borrowed money from each other"/>
-    <hyperlink ref="C235" r:id="rId227" display="Minimum Cost to cut a board into squares"/>
-    <hyperlink ref="C236" r:id="rId228" display="Check if it is possible to survive on Island"/>
-    <hyperlink ref="C237" r:id="rId229" display="Find maximum meetings in one room"/>
-    <hyperlink ref="C238" r:id="rId230" display="Maximum product subset of an array"/>
-    <hyperlink ref="C239" r:id="rId231" display="Maximize array sum after K negations"/>
-    <hyperlink ref="C240" r:id="rId232" display="Maximize the sum of arr[i]*i"/>
-    <hyperlink ref="C241" r:id="rId233" display="Maximum sum of absolute difference of an array"/>
-    <hyperlink ref="C242" r:id="rId234" display="Maximize sum of consecutive differences in a circular array"/>
-    <hyperlink ref="C243" r:id="rId235" location=":~:text=It%20consists%20of%20two%20steps,result%20to%20the%20sum%20S." display="Minimum sum of absolute difference of pairs of two arrays"/>
-    <hyperlink ref="C244" r:id="rId236" display="Program for Shortest Job First (or SJF) CPU Scheduling"/>
-    <hyperlink ref="C245" r:id="rId237" display="Program for Least Recently Used (LRU) Page Replacement algorithm"/>
-    <hyperlink ref="C246" r:id="rId238" display="Smallest subset with sum greater than all other elements"/>
-    <hyperlink ref="C247" r:id="rId239" display="Chocolate Distribution Problem"/>
-    <hyperlink ref="C248" r:id="rId240" display="DEFKIN -Defense of a Kingdom"/>
-    <hyperlink ref="C249" r:id="rId241" display="DIEHARD -DIE HARD"/>
-    <hyperlink ref="C250" r:id="rId242" display="GERGOVIA -Wine trading in Gergovia"/>
-    <hyperlink ref="C251" r:id="rId243" display="Picking Up Chicks"/>
-    <hyperlink ref="C252" r:id="rId244" display="CHOCOLA –Chocolate"/>
-    <hyperlink ref="C253" r:id="rId245" display="ARRANGE -Arranging Amplifiers"/>
-    <hyperlink ref="C254" r:id="rId246" display="K Centers Problem"/>
-    <hyperlink ref="C255" r:id="rId247" display="Minimum Cost of ropes"/>
-    <hyperlink ref="C256" r:id="rId248" display="Find smallest number with given number of digits and sum of digits"/>
-    <hyperlink ref="C257" r:id="rId249" display="Rearrange characters in a string such that no two adjacent are same"/>
-    <hyperlink ref="C258" r:id="rId250" display="Find maximum sum possible equal sum of three stacks"/>
-    <hyperlink ref="C259" r:id="rId251" display="Rat in a maze Problem"/>
-    <hyperlink ref="C260" r:id="rId252" display="Printing all solutions in N-Queen Problem"/>
-    <hyperlink ref="C261" r:id="rId253" display="Word Break Problem using Backtracking"/>
-    <hyperlink ref="C262" r:id="rId254" display="Remove Invalid Parentheses"/>
-    <hyperlink ref="C263" r:id="rId255" display="Sudoku Solver"/>
-    <hyperlink ref="C264" r:id="rId256" display="m Coloring Problem"/>
-    <hyperlink ref="C265" r:id="rId257" display="Print all palindromic partitions of a string"/>
-    <hyperlink ref="C266" r:id="rId258" display="Subset Sum Problem"/>
-    <hyperlink ref="C267" r:id="rId259" display="The Knight’s tour problem"/>
-    <hyperlink ref="C268" r:id="rId260" display="Tug of War"/>
-    <hyperlink ref="C269" r:id="rId261" display="Find shortest safe route in a path with landmines"/>
-    <hyperlink ref="C270" r:id="rId262" display="Combinational Sum"/>
-    <hyperlink ref="C271" r:id="rId263" display="Find Maximum number possible by doing at-most K swaps"/>
-    <hyperlink ref="C272" r:id="rId264" display="Print all permutations of a string "/>
-    <hyperlink ref="C273" r:id="rId265" display="Find if there is a path of more than k length from a source"/>
-    <hyperlink ref="C274" r:id="rId266" display="Longest Possible Route in a Matrix with Hurdles"/>
-    <hyperlink ref="C275" r:id="rId267" display="Print all possible paths from top left to bottom right of a mXn matrix"/>
-    <hyperlink ref="C276" r:id="rId268" display="Partition of a set intoK subsets with equal sum"/>
-    <hyperlink ref="C277" r:id="rId269" display="Find the K-th Permutation Sequence of first N natural numbers"/>
-    <hyperlink ref="C278" r:id="rId270" display=" Implement Stack from Scratch"/>
-    <hyperlink ref="C279" r:id="rId271" display=" Implement Queue from Scratch"/>
-    <hyperlink ref="C280" r:id="rId272" display="Implement 2 stack in an array"/>
-    <hyperlink ref="C281" r:id="rId273" display="find the middle element of a stack"/>
-    <hyperlink ref="C282" r:id="rId274" display="Implement &quot;N&quot; stacks in an Array"/>
-    <hyperlink ref="C283" r:id="rId275" display="Check the expression has valid or Balanced parenthesis or not."/>
-    <hyperlink ref="C284" r:id="rId276" display="Reverse a String using Stack"/>
-    <hyperlink ref="C285" r:id="rId277" display="Design a Stack that supports getMin() in O(1) time and O(1) extra space."/>
-    <hyperlink ref="C286" r:id="rId278" display="Find the next Greater element"/>
-    <hyperlink ref="C287" r:id="rId279" display="The celebrity Problem"/>
-    <hyperlink ref="C288" r:id="rId280" location=":~:text=The%20stack%20organization%20is%20very,i.e.%2C%20A%20%2B%20B)." display="Arithmetic Expression evaluation"/>
-    <hyperlink ref="C289" r:id="rId281" display="Evaluation of Postfix expression"/>
-    <hyperlink ref="C290" r:id="rId282" display="Implement a method to insert an element at its bottom without using any other data structure."/>
-    <hyperlink ref="C291" r:id="rId283" display="Reverse a stack using recursion"/>
-    <hyperlink ref="C292" r:id="rId284" display="Sort a Stack using recursion"/>
-    <hyperlink ref="C293" r:id="rId285" display="Merge Overlapping Intervals"/>
-    <hyperlink ref="C294" r:id="rId286" display="Largest rectangular Area in Histogram"/>
-    <hyperlink ref="C295" r:id="rId287" display="Length of the Longest Valid Substring"/>
-    <hyperlink ref="C296" r:id="rId288" display="Expression contains redundant bracket or not"/>
-    <hyperlink ref="C297" r:id="rId289" display="Implement Stack using Queue"/>
-    <hyperlink ref="C298" r:id="rId290" display="Implement Stack using Deque"/>
-    <hyperlink ref="C299" r:id="rId291" display="Stack Permutations (Check if an array is stack permutation of other)"/>
-    <hyperlink ref="C300" r:id="rId292" display="Implement Queue using Stack  "/>
-    <hyperlink ref="C301" r:id="rId293" display="Implement &quot;n&quot; queue in an array"/>
-    <hyperlink ref="C302" r:id="rId294" display="Implement a Circular queue"/>
-    <hyperlink ref="C303" r:id="rId295" display="LRU Cache Implementationa"/>
-    <hyperlink ref="C304" r:id="rId296" display="Reverse a Queue using recursion"/>
-    <hyperlink ref="C305" r:id="rId297" display="Reverse the first “K” elements of a queue"/>
-    <hyperlink ref="C306" r:id="rId298" display="Interleave the first half of the queue with second half"/>
-    <hyperlink ref="C307" r:id="rId299" display="Find the first circular tour that visits all Petrol Pumps"/>
-    <hyperlink ref="C308" r:id="rId300" display="Minimum time required to rot all oranges"/>
-    <hyperlink ref="C309" r:id="rId301" display="Distance of nearest cell having 1 in a binary matrix"/>
-    <hyperlink ref="C310" r:id="rId302" display="First negative integer in every window of size “k”"/>
-    <hyperlink ref="C311" r:id="rId303" display="Check if all levels of two trees are anagrams or not."/>
-    <hyperlink ref="C312" r:id="rId304" display="Sum of minimum and maximum elements of all subarrays of size “k”."/>
-    <hyperlink ref="C313" r:id="rId305" display="Minimum sum of squares of character counts in a given string after removing “k” characters."/>
-    <hyperlink ref="C314" r:id="rId306" display="Queue based approach or first non-repeating character in a stream."/>
-    <hyperlink ref="C315" r:id="rId307" display="Next Smaller Element"/>
-    <hyperlink ref="C316" r:id="rId308" display="Implement a Maxheap/MinHeap using arrays and recursion."/>
-    <hyperlink ref="C317" r:id="rId309" display="Sort an Array using heap. (HeapSort)"/>
-    <hyperlink ref="C318" r:id="rId310" display="Maximum of all subarrays of size k."/>
-    <hyperlink ref="C319" r:id="rId311" display="“k” largest element in an array"/>
-    <hyperlink ref="C320" r:id="rId312" display="Kth smallest and largest element in an unsorted array"/>
-    <hyperlink ref="C321" r:id="rId313" display="Merge “K” sorted arrays. [ IMP ]"/>
-    <hyperlink ref="C322" r:id="rId314" display="Merge 2 Binary Max Heaps"/>
-    <hyperlink ref="C323" r:id="rId315" display="Kth largest sum continuous subarrays"/>
-    <hyperlink ref="C324" r:id="rId316" display="Leetcode- reorganize strings"/>
-    <hyperlink ref="C325" r:id="rId317" display="Merge “K” Sorted Linked Lists [V.IMP]"/>
-    <hyperlink ref="C326" r:id="rId318" display="Smallest range in “K” Lists"/>
-    <hyperlink ref="C327" r:id="rId319" display="Median in a stream of Integers"/>
-    <hyperlink ref="C328" r:id="rId320" display="Check if a Binary Tree is Heap"/>
-    <hyperlink ref="C329" r:id="rId321" display="Connect “n” ropes with minimum cost"/>
-    <hyperlink ref="C330" r:id="rId322" display="Convert BST to Min Heap"/>
-    <hyperlink ref="C331" r:id="rId323" display="Convert min heap to max heap"/>
-    <hyperlink ref="C332" r:id="rId324" display="Rearrange characters in a string such that no two adjacent are same."/>
-    <hyperlink ref="C333" r:id="rId325" display="Minimum sum of two numbers formed from digits of an array"/>
-    <hyperlink ref="C334" r:id="rId326" display="Create a Graph, print it"/>
-    <hyperlink ref="C335" r:id="rId327" display="Implement BFS algorithm "/>
-    <hyperlink ref="C336" r:id="rId328" display="Implement DFS Algo "/>
-    <hyperlink ref="C337" r:id="rId329" display="Detect Cycle in Directed Graph using BFS/DFS Algo "/>
-    <hyperlink ref="C338" r:id="rId330" display="Detect Cycle in UnDirected Graph using BFS/DFS Algo "/>
-    <hyperlink ref="C339" r:id="rId331" display="Search in a Maze"/>
-    <hyperlink ref="C340" r:id="rId332" display="Minimum Step by Knight"/>
-    <hyperlink ref="C341" r:id="rId333" display="flood fill algo"/>
-    <hyperlink ref="C342" r:id="rId334" display="Clone a graph"/>
-    <hyperlink ref="C343" r:id="rId335" display="Making wired Connections"/>
-    <hyperlink ref="C344" r:id="rId336" display="word Ladder "/>
-    <hyperlink ref="C345" r:id="rId337" display="Dijkstra algo"/>
-    <hyperlink ref="C346" r:id="rId338" display="Implement Topological Sort "/>
-    <hyperlink ref="C347" r:id="rId339" display="Minimum time taken by each job to be completed given by a Directed Acyclic Graph"/>
-    <hyperlink ref="C348" r:id="rId340" display="Find whether it is possible to finish all tasks or not from given dependencies"/>
-    <hyperlink ref="C349" r:id="rId341" display="Find the no. of Isalnds"/>
-    <hyperlink ref="C350" r:id="rId342" display="Given a sorted Dictionary of an Alien Language, find order of characters"/>
-    <hyperlink ref="C351" r:id="rId343" display="Implement Kruksal’sAlgorithm"/>
-    <hyperlink ref="C352" r:id="rId344" display="Implement Prim’s Algorithm"/>
-    <hyperlink ref="C353" r:id="rId345" display="Total no. of Spanning tree in a graph"/>
-    <hyperlink ref="C354" r:id="rId346" display="Implement Bellman Ford Algorithm"/>
-    <hyperlink ref="C355" r:id="rId347" display="Implement Floyd warshallAlgorithm"/>
-    <hyperlink ref="C356" r:id="rId348" display="Travelling Salesman Problem"/>
-    <hyperlink ref="C357" r:id="rId349" location=":~:text=Graph%20coloring%20problem%20is%20to,are%20colored%20using%20same%20color." display="Graph ColouringProblem"/>
-    <hyperlink ref="C358" r:id="rId350" display="Snake and Ladders Problem"/>
-    <hyperlink ref="C359" r:id="rId351" display="Find bridge in a graph"/>
-    <hyperlink ref="C360" r:id="rId352" display="Count Strongly connected Components(Kosaraju Algo)"/>
-    <hyperlink ref="C361" r:id="rId353" display="Check whether a graph is Bipartite or Not"/>
-    <hyperlink ref="C362" r:id="rId354" display="Detect Negative cycle in a graph"/>
-    <hyperlink ref="C363" r:id="rId355" display="Longest path in a Directed Acyclic Graph"/>
-    <hyperlink ref="C364" r:id="rId356" display="Journey to the Moon"/>
-    <hyperlink ref="C365" r:id="rId357" display="Cheapest Flights Within K Stops"/>
-    <hyperlink ref="C366" r:id="rId358" display="Oliver and the Game"/>
-    <hyperlink ref="C367" r:id="rId359" display="Water Jug problem using BFS"/>
-    <hyperlink ref="C368" r:id="rId360" display="Water Jug problem using BFS"/>
-    <hyperlink ref="C369" r:id="rId361" display="Find if there is a path of more thank length from a source"/>
-    <hyperlink ref="C370" r:id="rId362" display="M-ColouringProblem"/>
-    <hyperlink ref="C371" r:id="rId363" display="Minimum edges to reverse o make path from source to destination"/>
-    <hyperlink ref="C372" r:id="rId364" display="Paths to travel each nodes using each edge(Seven Bridges)"/>
-    <hyperlink ref="C373" r:id="rId365" display="Vertex Cover Problem"/>
-    <hyperlink ref="C374" r:id="rId366" display="Chinese Postman or Route Inspection"/>
-    <hyperlink ref="C375" r:id="rId367" display="Number of Triangles in a Directed and Undirected Graph"/>
-    <hyperlink ref="C376" r:id="rId368" display="Minimise the cashflow among a given set of friends who have borrowed money from each other"/>
-    <hyperlink ref="C377" r:id="rId369" display="Two Clique Problem"/>
-    <hyperlink ref="C378" r:id="rId370" display="Construct a trie from scratch"/>
-    <hyperlink ref="C379" r:id="rId371" display="Find shortest unique prefix for every word in a given list"/>
-    <hyperlink ref="C380" r:id="rId372" display="Word Break Problem | (Trie solution)"/>
-    <hyperlink ref="C381" r:id="rId373" display="Given a sequence of words, print all anagrams together"/>
-    <hyperlink ref="C382" r:id="rId374" display="Implement a Phone Directory"/>
-    <hyperlink ref="C383" r:id="rId375" display="Print unique rows in a given boolean matrix"/>
-    <hyperlink ref="C384" r:id="rId376" display="Coin ChangeProblem"/>
-    <hyperlink ref="C385" r:id="rId377" display="Knapsack Problem"/>
-    <hyperlink ref="C386" r:id="rId378" display="Binomial CoefficientProblem"/>
-    <hyperlink ref="C387" r:id="rId379" display="Permutation CoefficientProblem"/>
-    <hyperlink ref="C388" r:id="rId380" display="Program for nth Catalan Number"/>
-    <hyperlink ref="C389" r:id="rId381" display="Matrix Chain Multiplication "/>
-    <hyperlink ref="C390" r:id="rId382" display="Edit Distance"/>
-    <hyperlink ref="C391" r:id="rId383" display="Subset Sum Problem"/>
-    <hyperlink ref="C392" r:id="rId384" display="Friends Pairing Problem"/>
-    <hyperlink ref="C393" r:id="rId385" display="Gold Mine Problem"/>
-    <hyperlink ref="C394" r:id="rId386" display="Assembly Line SchedulingProblem"/>
-    <hyperlink ref="C395" r:id="rId387" display="Painting the Fenceproblem"/>
-    <hyperlink ref="C396" r:id="rId388" display="Maximize The Cut Segments"/>
-    <hyperlink ref="C397" r:id="rId389" display="Longest Common Subsequence"/>
-    <hyperlink ref="C398" r:id="rId390" display="Longest Repeated Subsequence"/>
-    <hyperlink ref="C399" r:id="rId391" display="Longest Increasing Subsequence"/>
-    <hyperlink ref="C400" r:id="rId392" display="Space Optimized Solution of LCS"/>
-    <hyperlink ref="C401" r:id="rId393" display="LCS (Longest Common Subsequence) of three strings"/>
-    <hyperlink ref="C402" r:id="rId394" display="Maximum Sum Increasing Subsequence"/>
-    <hyperlink ref="C403" r:id="rId395" display="Count all subsequences having product less than K"/>
-    <hyperlink ref="C404" r:id="rId396" display="Longest subsequence such that difference between adjacent is one"/>
-    <hyperlink ref="C405" r:id="rId397" display="Maximum subsequence sum such that no three are consecutive"/>
-    <hyperlink ref="C406" r:id="rId398" display="Egg Dropping Problem"/>
-    <hyperlink ref="C407" r:id="rId399" display="Maximum Length Chain of Pairs"/>
-    <hyperlink ref="C408" r:id="rId400" display="Maximum size square sub-matrix with all 1s"/>
-    <hyperlink ref="C409" r:id="rId401" display="Maximum sum of pairs with specific difference"/>
-    <hyperlink ref="C410" r:id="rId402" display="Min Cost PathProblem"/>
-    <hyperlink ref="C411" r:id="rId403" display="Maximum difference of zeros and ones in binary string"/>
-    <hyperlink ref="C412" r:id="rId404" display="Minimum number of jumps to reach end"/>
-    <hyperlink ref="C413" r:id="rId405" display="Minimum cost to fill given weight in a bag"/>
-    <hyperlink ref="C414" r:id="rId406" display="Minimum removals from array to make max –min &lt;= K"/>
-    <hyperlink ref="C415" r:id="rId407" display="Longest Common Substring"/>
-    <hyperlink ref="C416" r:id="rId408" display="Count number of ways to reacha given score in a game"/>
-    <hyperlink ref="C417" r:id="rId409" display="Count Balanced Binary Trees of Height h"/>
-    <hyperlink ref="C418" r:id="rId410" display="LargestSum Contiguous Subarray [V&gt;V&gt;V&gt;V IMP ]"/>
-    <hyperlink ref="C419" r:id="rId411" display="Smallest sum contiguous subarray"/>
-    <hyperlink ref="C420" r:id="rId412" display="Unbounded Knapsack (Repetition of items allowed)"/>
-    <hyperlink ref="C421" r:id="rId413" display="Word Break Problem"/>
-    <hyperlink ref="C422" r:id="rId414" display="Largest Independent Set Problem"/>
-    <hyperlink ref="C423" r:id="rId415" display="Partition problem"/>
-    <hyperlink ref="C424" r:id="rId416" display="Longest Palindromic Subsequence"/>
-    <hyperlink ref="C425" r:id="rId417" display="Count All Palindromic Subsequence in a given String"/>
-    <hyperlink ref="C426" r:id="rId418" display="Longest Palindromic Substring"/>
-    <hyperlink ref="C427" r:id="rId419" display="Longest alternating subsequence"/>
-    <hyperlink ref="C428" r:id="rId420" display="Weighted Job Scheduling"/>
-    <hyperlink ref="C429" r:id="rId421" display="Coin game winner where every player has three choices"/>
-    <hyperlink ref="C430" r:id="rId422" display="Count Derangements (Permutation such that no element appears in its original position) [ IMPORTANT ]"/>
-    <hyperlink ref="C431" r:id="rId423" display="Maximum profit by buying and selling a share at most twice [ IMP ]"/>
-    <hyperlink ref="C432" r:id="rId424" display="Optimal Strategy for a Game"/>
-    <hyperlink ref="C433" r:id="rId425" display="Optimal Binary Search Tree"/>
-    <hyperlink ref="C434" r:id="rId426" display="Palindrome PartitioningProblem"/>
-    <hyperlink ref="C435" r:id="rId427" display="Word Wrap Problem"/>
-    <hyperlink ref="C436" r:id="rId428" display="Mobile Numeric Keypad Problem [ IMP ]"/>
-    <hyperlink ref="C437" r:id="rId429" display="Boolean Parenthesization Problem"/>
-    <hyperlink ref="C438" r:id="rId430" display="Largest rectangular sub-matrix whose sum is 0"/>
-    <hyperlink ref="C439" r:id="rId431" display="Largest area rectangular sub-matrix with equal number of 1’s and 0’s [ IMP ]"/>
-    <hyperlink ref="C440" r:id="rId432" display="Maximum sum rectangle in a 2D matrix"/>
-    <hyperlink ref="C441" r:id="rId433" display="Maximum profit by buying and selling a share at most k times"/>
-    <hyperlink ref="C442" r:id="rId434" display="Find if a string is interleaved of two other strings"/>
-    <hyperlink ref="C443" r:id="rId435" display="Maximum Length of Pair Chain"/>
-    <hyperlink ref="C444" r:id="rId436" display="Count set bits in an integer"/>
-    <hyperlink ref="C445" r:id="rId437" display="Find the two non-repeating elements in an array of repeating elements"/>
-    <hyperlink ref="C446" r:id="rId438" display="Count number of bits to be flipped to convert A to B"/>
-    <hyperlink ref="C447" r:id="rId439" display="Count total set bits in all numbers from 1 to n"/>
-    <hyperlink ref="C448" r:id="rId440" display="Program to find whether a no is power of two"/>
-    <hyperlink ref="C449" r:id="rId441" display="Find position of the only set bit"/>
-    <hyperlink ref="C450" r:id="rId442" display="Copy set bits in a range"/>
-    <hyperlink ref="C451" r:id="rId443" display="Divide two integers without using multiplication, division and mod operator"/>
-    <hyperlink ref="C452" r:id="rId444" location=":~:text=Given%20an%20integer%20n%2C%20calculate,*%2C%20%2F%20and%20pow().&amp;text=A%20Simple%20Solution%20is%20to%20repeatedly%20add%20n%20to%20result." display="Calculate square of a number without using *, / and pow()"/>
-    <hyperlink ref="C453" r:id="rId445" display="Power Set"/>
+    <hyperlink ref="C49" r:id="rId45" display="Rotate a matrix by 90deg"/>
+    <hyperlink ref="C50" r:id="rId46" display="Kth smallest element in a row-column wise sorted matrix"/>
+    <hyperlink ref="C51" r:id="rId47" display="Common elements in all rows of a given matrix"/>
+    <hyperlink ref="C52" r:id="rId48" display="Reverse a String"/>
+    <hyperlink ref="C53" r:id="rId49" display="Check whether a String is Palindrome or not"/>
+    <hyperlink ref="C54" r:id="rId50" display="Find Duplicate characters in a string"/>
+    <hyperlink ref="C56" r:id="rId51" display="Write a Code to check whether one string is a rotation of another"/>
+    <hyperlink ref="C57" r:id="rId52" display="Write a Program to check whether a string is a valid shuffle of two strings or not"/>
+    <hyperlink ref="C58" r:id="rId53" display="Count and Say problem"/>
+    <hyperlink ref="C59" r:id="rId54" display="Write a program to find the longest Palindrome in a string.[ Longest palindromic Substring]"/>
+    <hyperlink ref="C60" r:id="rId55" display="Find Longest Recurring Subsequence in String"/>
+    <hyperlink ref="C61" r:id="rId56" display="Print all Subsequences of a string."/>
+    <hyperlink ref="C62" r:id="rId57" display="Print all the permutations of the given string"/>
+    <hyperlink ref="C63" r:id="rId58" display="Split the Binary string into two substring with equal 0’s and 1’s"/>
+    <hyperlink ref="C64" r:id="rId59" display="Word Wrap Problem [VERY IMP]."/>
+    <hyperlink ref="C65" r:id="rId60" display="EDIT Distance [Very Imp]"/>
+    <hyperlink ref="C66" r:id="rId61" display="Find next greater number with same set of digits. [Very Very IMP]"/>
+    <hyperlink ref="C67" r:id="rId62" display="Balanced Parenthesis problem.[Imp]"/>
+    <hyperlink ref="C68" r:id="rId63" display="Word break Problem[ Very Imp]"/>
+    <hyperlink ref="C69" r:id="rId64" display="Rabin Karp Algo"/>
+    <hyperlink ref="C70" r:id="rId65" display="KMP Algo"/>
+    <hyperlink ref="C71" r:id="rId66" display="Convert a Sentence into its equivalent mobile numeric keypad sequence."/>
+    <hyperlink ref="C72" r:id="rId67" display="Minimum number of bracket reversals needed to make an expression balanced."/>
+    <hyperlink ref="C73" r:id="rId68" display="Count All Palindromic Subsequence in a given String."/>
+    <hyperlink ref="C74" r:id="rId69" display="Count of number of given string in 2D character array"/>
+    <hyperlink ref="C75" r:id="rId70" display="Search a Word in a 2D Grid of characters."/>
+    <hyperlink ref="C76" r:id="rId71" display="Boyer Moore Algorithm for Pattern Searching."/>
+    <hyperlink ref="C77" r:id="rId72" display="Converting Roman Numerals to Decimal"/>
+    <hyperlink ref="C78" r:id="rId73" display="Longest Common Prefix"/>
+    <hyperlink ref="C79" r:id="rId74" display="Number of flips to make binary string alternate"/>
+    <hyperlink ref="C80" r:id="rId75" display="Find the first repeated word in string."/>
+    <hyperlink ref="C81" r:id="rId76" display="Minimum number of swaps for bracket balancing."/>
+    <hyperlink ref="C82" r:id="rId77" display="Find the longest common subsequence between two strings."/>
+    <hyperlink ref="C83" r:id="rId78" display="Program to generate all possible valid IP addresses from given  string."/>
+    <hyperlink ref="C84" r:id="rId79" display="Write a program tofind the smallest window that contains all characters of string itself."/>
+    <hyperlink ref="C85" r:id="rId80" display="Rearrange characters in a string such that no two adjacent are same"/>
+    <hyperlink ref="C86" r:id="rId81" display="Minimum characters to be added at front to make string palindrome"/>
+    <hyperlink ref="C87" r:id="rId82" display="Given a sequence of words, print all anagrams together"/>
+    <hyperlink ref="C88" r:id="rId83" display="Find the smallest window in a string containing all characters of another string"/>
+    <hyperlink ref="C89" r:id="rId84" display="Recursively remove all adjacent duplicates"/>
+    <hyperlink ref="C90" r:id="rId85" display="String matching where one string contains wildcard characters"/>
+    <hyperlink ref="C91" r:id="rId86" display="Function to find Number of customers who could not get a computer"/>
+    <hyperlink ref="C92" r:id="rId87" display="Transform One String to Another using Minimum Number of Given Operation"/>
+    <hyperlink ref="C93" r:id="rId88" display="Check if two given strings are isomorphic to each other"/>
+    <hyperlink ref="C94" r:id="rId89" display="Recursively print all sentences that can be formed from list of word lists"/>
+    <hyperlink ref="C95" r:id="rId90" display="Find first and last positions of an element in a sorted array"/>
+    <hyperlink ref="C96" r:id="rId91" display="Find a Fixed Point (Value equal to index) in a given array"/>
+    <hyperlink ref="C97" r:id="rId92" display="Search in a rotated sorted array"/>
+    <hyperlink ref="C98" r:id="rId93" display="square root of an integer"/>
+    <hyperlink ref="C99" r:id="rId94" display="Maximum and minimum of an array using minimum number of comparisons"/>
+    <hyperlink ref="C100" r:id="rId95" location=":~:text=We%20need%20to%20find%20a,set%20of%20points%20is%20minimum.&amp;text=In%20above%20figure%20optimum%20location,is%20minimum%20obtainable%20total%20distance." display="Optimum location of point to minimize total distance"/>
+    <hyperlink ref="C101" r:id="rId96" display="Find the repeating and the missing"/>
+    <hyperlink ref="C102" r:id="rId97" display="find majority element"/>
+    <hyperlink ref="C103" r:id="rId98" display="Searching in an array where adjacent differ by at most k"/>
+    <hyperlink ref="C104" r:id="rId99" display="find a pair with a given difference"/>
+    <hyperlink ref="C105" r:id="rId100" display="find four elements that sum to a given value"/>
+    <hyperlink ref="C106" r:id="rId101" display="maximum sum such that no 2 elements are adjacent"/>
+    <hyperlink ref="C107" r:id="rId102" display="Count triplet with sum smaller than a given value"/>
+    <hyperlink ref="C108" r:id="rId103" display="merge 2 sorted arrays"/>
+    <hyperlink ref="C109" r:id="rId104" display="print all subarrays with 0 sum"/>
+    <hyperlink ref="C110" r:id="rId105" display="Product array Puzzle"/>
+    <hyperlink ref="C111" r:id="rId106" display="Sort array according to count of set bits"/>
+    <hyperlink ref="C112" r:id="rId107" display="minimum no. of swaps required to sort the array"/>
+    <hyperlink ref="C113" r:id="rId108" display="Bishu and Soldiers"/>
+    <hyperlink ref="C114" r:id="rId109" display="Rasta and Kheshtak"/>
+    <hyperlink ref="C115" r:id="rId110" display="Kth smallest number again"/>
+    <hyperlink ref="C116" r:id="rId111" display="Find pivot element in a sorted array"/>
+    <hyperlink ref="C117" r:id="rId112" display="K-th Element of Two Sorted Arrays"/>
+    <hyperlink ref="C118" r:id="rId113" display="Aggressive cows"/>
+    <hyperlink ref="C119" r:id="rId114" display="Book Allocation Problem"/>
+    <hyperlink ref="C120" r:id="rId115" display="EKOSPOJ:"/>
+    <hyperlink ref="C121" r:id="rId116" display="Job Scheduling Algo"/>
+    <hyperlink ref="C122" r:id="rId117" display="Missing Number in AP"/>
+    <hyperlink ref="C123" r:id="rId118" display="Smallest number with atleastn trailing zeroes infactorial"/>
+    <hyperlink ref="C124" r:id="rId119" display="Painters Partition Problem:"/>
+    <hyperlink ref="C125" r:id="rId120" display="ROTI-Prata SPOJ"/>
+    <hyperlink ref="C126" r:id="rId121" display="DoubleHelix SPOJ"/>
+    <hyperlink ref="C127" r:id="rId122" display="Subset Sums"/>
+    <hyperlink ref="C128" r:id="rId123" display="Findthe inversion count"/>
+    <hyperlink ref="C129" r:id="rId124" display="Implement Merge-sort in-place"/>
+    <hyperlink ref="C130" r:id="rId125" display="Partitioning and Sorting Arrays with Many Repeated Entries"/>
+    <hyperlink ref="C131" r:id="rId126" display="Write a Program to reverse the Linked List. (Both Iterative and recursive)"/>
+    <hyperlink ref="C132" r:id="rId127" display="Reverse a Linked List in group of Given Size. [Very Imp]"/>
+    <hyperlink ref="C133" r:id="rId128" display="Write a program to Detect loop in a linked list."/>
+    <hyperlink ref="C134" r:id="rId129" display="Write a program to Delete loop in a linked list."/>
+    <hyperlink ref="C135" r:id="rId130" display="Find the starting point of the loop. "/>
+    <hyperlink ref="C136" r:id="rId131" display="Remove Duplicates in a sorted Linked List."/>
+    <hyperlink ref="C137" r:id="rId132" display="Remove Duplicates in a Un-sorted Linked List."/>
+    <hyperlink ref="C138" r:id="rId133" display="Write a Program to Move the last element to Front in a Linked List."/>
+    <hyperlink ref="C139" r:id="rId134" display="Add “1” to a number represented as a Linked List."/>
+    <hyperlink ref="C140" r:id="rId135" display="Add two numbers represented by linked lists."/>
+    <hyperlink ref="C141" r:id="rId136" display="Intersection of two Sorted Linked List."/>
+    <hyperlink ref="C142" r:id="rId137" display="Intersection Point of two Linked Lists."/>
+    <hyperlink ref="C143" r:id="rId138" display="Merge Sort For Linked lists.[Very Important]"/>
+    <hyperlink ref="C144" r:id="rId139" display="Quicksort for Linked Lists.[Very Important]"/>
+    <hyperlink ref="C145" r:id="rId140" display="Find the middle Element of a linked list."/>
+    <hyperlink ref="C146" r:id="rId141" display="Check if a linked list is a circular linked list."/>
+    <hyperlink ref="C147" r:id="rId142" display="Split a Circular linked list into two halves."/>
+    <hyperlink ref="C148" r:id="rId143" display="Write a Program to check whether the Singly Linked list is a palindrome or not."/>
+    <hyperlink ref="C149" r:id="rId144" display="Deletion from a Circular Linked List."/>
+    <hyperlink ref="C150" r:id="rId145" display="Reverse a Doubly Linked list."/>
+    <hyperlink ref="C151" r:id="rId146" display="Find pairs with a given sum in a DLL."/>
+    <hyperlink ref="C152" r:id="rId147" display="Count triplets in a sorted DLL whose sum is equal to given value “X”."/>
+    <hyperlink ref="C153" r:id="rId148" display="Sort a “k”sorted Doubly Linked list.[Very IMP]"/>
+    <hyperlink ref="C154" r:id="rId149" display="Rotate DoublyLinked list by N nodes."/>
+    <hyperlink ref="C155" r:id="rId150" display="Rotate a Doubly Linked list in group of Given Size.[Very IMP]"/>
+    <hyperlink ref="C158" r:id="rId151" display="Flatten a Linked List"/>
+    <hyperlink ref="C159" r:id="rId152" display="Sort a LL of 0's, 1's and 2's"/>
+    <hyperlink ref="C160" r:id="rId153" display="Clone a linked list with next and random pointer"/>
+    <hyperlink ref="C161" r:id="rId154" display="Merge K sorted Linked list"/>
+    <hyperlink ref="C162" r:id="rId155" display="Multiply 2 no. represented by LL"/>
+    <hyperlink ref="C163" r:id="rId156" display="Delete nodes which have a greater value on right side"/>
+    <hyperlink ref="C164" r:id="rId157" display="Segregate even and odd nodes in a Linked List"/>
+    <hyperlink ref="C165" r:id="rId158" display="Program for n’th node from the end of a Linked List"/>
+    <hyperlink ref="C166" r:id="rId159" display="Find the first non-repeating character from a stream of characters"/>
+    <hyperlink ref="C167" r:id="rId160" display="level order traversal"/>
+    <hyperlink ref="C168" r:id="rId161" display="Reverse Level Order traversal"/>
+    <hyperlink ref="C169" r:id="rId162" display="Height of a tree"/>
+    <hyperlink ref="C170" r:id="rId163" display="Diameter of a tree"/>
+    <hyperlink ref="C171" r:id="rId164" display="Mirror of a tree"/>
+    <hyperlink ref="C172" r:id="rId165" display="Inorder Traversal of a tree both using recursion and Iteration"/>
+    <hyperlink ref="C173" r:id="rId166" display="Preorder Traversal of a tree both using recursion and Iteration"/>
+    <hyperlink ref="C174" r:id="rId167" display="Postorder Traversal of a tree both using recursion and Iteration"/>
+    <hyperlink ref="C175" r:id="rId168" display="Left View of a tree"/>
+    <hyperlink ref="C176" r:id="rId169" display="Right View of Tree"/>
+    <hyperlink ref="C177" r:id="rId170" display="Top View of a tree"/>
+    <hyperlink ref="C178" r:id="rId171" display="Bottom View of a tree"/>
+    <hyperlink ref="C179" r:id="rId172" display="Zig-Zag traversal of a binary tree"/>
+    <hyperlink ref="C180" r:id="rId173" display="Check if a tree is balanced or not"/>
+    <hyperlink ref="C181" r:id="rId174" display="Diagnol Traversal of a Binary tree"/>
+    <hyperlink ref="C182" r:id="rId175" display="Boundary traversal of a Binary tree"/>
+    <hyperlink ref="C183" r:id="rId176" display="Construct Binary Tree from String with Bracket Representation"/>
+    <hyperlink ref="C184" r:id="rId177" display="Convert Binary tree into Doubly Linked List"/>
+    <hyperlink ref="C185" r:id="rId178" display="Convert Binary tree into Sum tree"/>
+    <hyperlink ref="C186" r:id="rId179" display="Construct Binary tree from Inorder and preorder traversal"/>
+    <hyperlink ref="C187" r:id="rId180" location=":~:text=Given%20the%20array%20representation%20of,it%20into%20Binary%20Search%20Tree.&amp;text=Swap%201%3A%20Swap%20node%208,node%209%20with%20node%2010." display="Find minimum swaps required to convert a Binary tree into BST"/>
+    <hyperlink ref="C188" r:id="rId181" display="Check if Binary tree is Sum tree or not"/>
+    <hyperlink ref="C189" r:id="rId182" display="Check if all leaf nodes are at same level or not"/>
+    <hyperlink ref="C190" r:id="rId183" display="Check if a Binary Tree contains duplicate subtrees of size 2 or more [ IMP ]"/>
+    <hyperlink ref="C191" r:id="rId184" display="Check if 2 trees are mirror or not"/>
+    <hyperlink ref="C192" r:id="rId185" display="Sum of Nodes on the Longest path from root to leaf node "/>
+    <hyperlink ref="C193" r:id="rId186" location=":~:text=Since%20the%20graph%20is%20undirected,graph%20is%20connected%2C%20otherwise%20not." display="Check if given graph is tree or not.  [ IMP ]"/>
+    <hyperlink ref="C194" r:id="rId187" display="Find Largest subtree sum in a tree"/>
+    <hyperlink ref="C195" r:id="rId188" display="Maximum Sum of nodes in Binary tree such that no two are adjacent "/>
+    <hyperlink ref="C196" r:id="rId189" display="Print all &quot;K&quot; Sum paths in a Binary tree"/>
+    <hyperlink ref="C197" r:id="rId190" display="Find LCA in a Binary tree"/>
+    <hyperlink ref="C198" r:id="rId191" display="Find distance between 2 nodes in a Binary tree"/>
+    <hyperlink ref="C199" r:id="rId192" display="Kth Ancestor of node in a Binary tree"/>
+    <hyperlink ref="C200" r:id="rId193" display="Find all Duplicate subtrees in a Binary tree [ IMP ]"/>
+    <hyperlink ref="C201" r:id="rId194" display="Tree Isomorphism Problem"/>
+    <hyperlink ref="C202" r:id="rId195" display="Fina a value in a BST"/>
+    <hyperlink ref="C203" r:id="rId196" display="Deletion of a node in a BST"/>
+    <hyperlink ref="C204" r:id="rId197" display="Find min and max value in a BST"/>
+    <hyperlink ref="C205" r:id="rId198" display="Find inorder successor and inorder predecessor in a BST"/>
+    <hyperlink ref="C206" r:id="rId199" display="Check if a tree is a BST or not "/>
+    <hyperlink ref="C207" r:id="rId200" display="Populate Inorder successor of all nodes"/>
+    <hyperlink ref="C208" r:id="rId201" display="Find LCA  of 2 nodes in a BST"/>
+    <hyperlink ref="C209" r:id="rId202" display="Construct BST from preorder traversal"/>
+    <hyperlink ref="C210" r:id="rId203" display="Convert Binary tree into BST"/>
+    <hyperlink ref="C211" r:id="rId204" display="Convert a normal BST into a Balanced BST"/>
+    <hyperlink ref="C212" r:id="rId205" display="Merge two BST [ V.V.V&gt;IMP ]"/>
+    <hyperlink ref="C213" r:id="rId206" display="Find Kth largest element in a BST"/>
+    <hyperlink ref="C214" r:id="rId207" display="Find Kth smallest element in a BST"/>
+    <hyperlink ref="C215" r:id="rId208" display="Count pairs from 2 BST whose sum is equal to given value &quot;X&quot;"/>
+    <hyperlink ref="C216" r:id="rId209" display="Find the median of BST in O(n) time and O(1) space"/>
+    <hyperlink ref="C217" r:id="rId210" display="Count BST ndoes that lie in a given range"/>
+    <hyperlink ref="C218" r:id="rId211" display="Replace every element with the least greater element on its right"/>
+    <hyperlink ref="C219" r:id="rId212" display="Given &quot;n&quot; appointments, find the conflicting appointments"/>
+    <hyperlink ref="C220" r:id="rId213" display="Check preorder is valid or not"/>
+    <hyperlink ref="C221" r:id="rId214" display="Check whether BST contains Dead end"/>
+    <hyperlink ref="C222" r:id="rId215" display="Largest BST in a Binary Tree [ V.V.V.V.V IMP ]"/>
+    <hyperlink ref="C223" r:id="rId216" display="Flatten BST to sorted list"/>
+    <hyperlink ref="C224" r:id="rId217" display="Activity Selection Problem"/>
+    <hyperlink ref="C225" r:id="rId218" display="Job SequencingProblem"/>
+    <hyperlink ref="C226" r:id="rId219" display="Huffman Coding"/>
+    <hyperlink ref="C227" r:id="rId220" display="Water Connection Problem"/>
+    <hyperlink ref="C228" r:id="rId221" display="Fractional Knapsack Problem"/>
+    <hyperlink ref="C229" r:id="rId222" display="Greedy Algorithm to find Minimum number of Coins"/>
+    <hyperlink ref="C230" r:id="rId223" display="Maximum trains for which stoppage can be provided"/>
+    <hyperlink ref="C231" r:id="rId224" display="Minimum Platforms Problem"/>
+    <hyperlink ref="C232" r:id="rId225" display="Buy Maximum Stocks if i stocks can be bought on i-th day"/>
+    <hyperlink ref="C233" r:id="rId226" display="Find the minimum and maximum amount to buy all N candies"/>
+    <hyperlink ref="C234" r:id="rId227" display="Minimize Cash Flow among a given set of friends who have borrowed money from each other"/>
+    <hyperlink ref="C235" r:id="rId228" display="Minimum Cost to cut a board into squares"/>
+    <hyperlink ref="C236" r:id="rId229" display="Check if it is possible to survive on Island"/>
+    <hyperlink ref="C237" r:id="rId230" display="Find maximum meetings in one room"/>
+    <hyperlink ref="C238" r:id="rId231" display="Maximum product subset of an array"/>
+    <hyperlink ref="C239" r:id="rId232" display="Maximize array sum after K negations"/>
+    <hyperlink ref="C240" r:id="rId233" display="Maximize the sum of arr[i]*i"/>
+    <hyperlink ref="C241" r:id="rId234" display="Maximum sum of absolute difference of an array"/>
+    <hyperlink ref="C242" r:id="rId235" display="Maximize sum of consecutive differences in a circular array"/>
+    <hyperlink ref="C243" r:id="rId236" location=":~:text=It%20consists%20of%20two%20steps,result%20to%20the%20sum%20S." display="Minimum sum of absolute difference of pairs of two arrays"/>
+    <hyperlink ref="C244" r:id="rId237" display="Program for Shortest Job First (or SJF) CPU Scheduling"/>
+    <hyperlink ref="C245" r:id="rId238" display="Program for Least Recently Used (LRU) Page Replacement algorithm"/>
+    <hyperlink ref="C246" r:id="rId239" display="Smallest subset with sum greater than all other elements"/>
+    <hyperlink ref="C247" r:id="rId240" display="Chocolate Distribution Problem"/>
+    <hyperlink ref="C248" r:id="rId241" display="DEFKIN -Defense of a Kingdom"/>
+    <hyperlink ref="C249" r:id="rId242" display="DIEHARD -DIE HARD"/>
+    <hyperlink ref="C250" r:id="rId243" display="GERGOVIA -Wine trading in Gergovia"/>
+    <hyperlink ref="C251" r:id="rId244" display="Picking Up Chicks"/>
+    <hyperlink ref="C252" r:id="rId245" display="CHOCOLA –Chocolate"/>
+    <hyperlink ref="C253" r:id="rId246" display="ARRANGE -Arranging Amplifiers"/>
+    <hyperlink ref="C254" r:id="rId247" display="K Centers Problem"/>
+    <hyperlink ref="C255" r:id="rId248" display="Minimum Cost of ropes"/>
+    <hyperlink ref="C256" r:id="rId249" display="Find smallest number with given number of digits and sum of digits"/>
+    <hyperlink ref="C257" r:id="rId250" display="Rearrange characters in a string such that no two adjacent are same"/>
+    <hyperlink ref="C258" r:id="rId251" display="Find maximum sum possible equal sum of three stacks"/>
+    <hyperlink ref="C259" r:id="rId252" display="Rat in a maze Problem"/>
+    <hyperlink ref="C260" r:id="rId253" display="Printing all solutions in N-Queen Problem"/>
+    <hyperlink ref="C261" r:id="rId254" display="Word Break Problem using Backtracking"/>
+    <hyperlink ref="C262" r:id="rId255" display="Remove Invalid Parentheses"/>
+    <hyperlink ref="C263" r:id="rId256" display="Sudoku Solver"/>
+    <hyperlink ref="C264" r:id="rId257" display="m Coloring Problem"/>
+    <hyperlink ref="C265" r:id="rId258" display="Print all palindromic partitions of a string"/>
+    <hyperlink ref="C266" r:id="rId259" display="Subset Sum Problem"/>
+    <hyperlink ref="C267" r:id="rId260" display="The Knight’s tour problem"/>
+    <hyperlink ref="C268" r:id="rId261" display="Tug of War"/>
+    <hyperlink ref="C269" r:id="rId262" display="Find shortest safe route in a path with landmines"/>
+    <hyperlink ref="C270" r:id="rId263" display="Combinational Sum"/>
+    <hyperlink ref="C271" r:id="rId264" display="Find Maximum number possible by doing at-most K swaps"/>
+    <hyperlink ref="C272" r:id="rId265" display="Print all permutations of a string "/>
+    <hyperlink ref="C273" r:id="rId266" display="Find if there is a path of more than k length from a source"/>
+    <hyperlink ref="C274" r:id="rId267" display="Longest Possible Route in a Matrix with Hurdles"/>
+    <hyperlink ref="C275" r:id="rId268" display="Print all possible paths from top left to bottom right of a mXn matrix"/>
+    <hyperlink ref="C276" r:id="rId269" display="Partition of a set intoK subsets with equal sum"/>
+    <hyperlink ref="C277" r:id="rId270" display="Find the K-th Permutation Sequence of first N natural numbers"/>
+    <hyperlink ref="C278" r:id="rId271" display=" Implement Stack from Scratch"/>
+    <hyperlink ref="C279" r:id="rId272" display=" Implement Queue from Scratch"/>
+    <hyperlink ref="C280" r:id="rId273" display="Implement 2 stack in an array"/>
+    <hyperlink ref="C281" r:id="rId274" display="find the middle element of a stack"/>
+    <hyperlink ref="C282" r:id="rId275" display="Implement &quot;N&quot; stacks in an Array"/>
+    <hyperlink ref="C283" r:id="rId276" display="Check the expression has valid or Balanced parenthesis or not."/>
+    <hyperlink ref="C284" r:id="rId277" display="Reverse a String using Stack"/>
+    <hyperlink ref="C285" r:id="rId278" display="Design a Stack that supports getMin() in O(1) time and O(1) extra space."/>
+    <hyperlink ref="C286" r:id="rId279" display="Find the next Greater element"/>
+    <hyperlink ref="C287" r:id="rId280" display="The celebrity Problem"/>
+    <hyperlink ref="C288" r:id="rId281" location=":~:text=The%20stack%20organization%20is%20very,i.e.%2C%20A%20%2B%20B)." display="Arithmetic Expression evaluation"/>
+    <hyperlink ref="C289" r:id="rId282" display="Evaluation of Postfix expression"/>
+    <hyperlink ref="C290" r:id="rId283" display="Implement a method to insert an element at its bottom without using any other data structure."/>
+    <hyperlink ref="C291" r:id="rId284" display="Reverse a stack using recursion"/>
+    <hyperlink ref="C292" r:id="rId285" display="Sort a Stack using recursion"/>
+    <hyperlink ref="C293" r:id="rId286" display="Merge Overlapping Intervals"/>
+    <hyperlink ref="C294" r:id="rId287" display="Largest rectangular Area in Histogram"/>
+    <hyperlink ref="C295" r:id="rId288" display="Length of the Longest Valid Substring"/>
+    <hyperlink ref="C296" r:id="rId289" display="Expression contains redundant bracket or not"/>
+    <hyperlink ref="C297" r:id="rId290" display="Implement Stack using Queue"/>
+    <hyperlink ref="C298" r:id="rId291" display="Implement Stack using Deque"/>
+    <hyperlink ref="C299" r:id="rId292" display="Stack Permutations (Check if an array is stack permutation of other)"/>
+    <hyperlink ref="C300" r:id="rId293" display="Implement Queue using Stack  "/>
+    <hyperlink ref="C301" r:id="rId294" display="Implement &quot;n&quot; queue in an array"/>
+    <hyperlink ref="C302" r:id="rId295" display="Implement a Circular queue"/>
+    <hyperlink ref="C303" r:id="rId296" display="LRU Cache Implementationa"/>
+    <hyperlink ref="C304" r:id="rId297" display="Reverse a Queue using recursion"/>
+    <hyperlink ref="C305" r:id="rId298" display="Reverse the first “K” elements of a queue"/>
+    <hyperlink ref="C306" r:id="rId299" display="Interleave the first half of the queue with second half"/>
+    <hyperlink ref="C307" r:id="rId300" display="Find the first circular tour that visits all Petrol Pumps"/>
+    <hyperlink ref="C308" r:id="rId301" display="Minimum time required to rot all oranges"/>
+    <hyperlink ref="C309" r:id="rId302" display="Distance of nearest cell having 1 in a binary matrix"/>
+    <hyperlink ref="C310" r:id="rId303" display="First negative integer in every window of size “k”"/>
+    <hyperlink ref="C311" r:id="rId304" display="Check if all levels of two trees are anagrams or not."/>
+    <hyperlink ref="C312" r:id="rId305" display="Sum of minimum and maximum elements of all subarrays of size “k”."/>
+    <hyperlink ref="C313" r:id="rId306" display="Minimum sum of squares of character counts in a given string after removing “k” characters."/>
+    <hyperlink ref="C314" r:id="rId307" display="Queue based approach or first non-repeating character in a stream."/>
+    <hyperlink ref="C315" r:id="rId308" display="Next Smaller Element"/>
+    <hyperlink ref="C316" r:id="rId309" display="Implement a Maxheap/MinHeap using arrays and recursion."/>
+    <hyperlink ref="C317" r:id="rId310" display="Sort an Array using heap. (HeapSort)"/>
+    <hyperlink ref="C318" r:id="rId311" display="Maximum of all subarrays of size k."/>
+    <hyperlink ref="C319" r:id="rId312" display="“k” largest element in an array"/>
+    <hyperlink ref="C320" r:id="rId313" display="Kth smallest and largest element in an unsorted array"/>
+    <hyperlink ref="C321" r:id="rId314" display="Merge “K” sorted arrays. [ IMP ]"/>
+    <hyperlink ref="C322" r:id="rId315" display="Merge 2 Binary Max Heaps"/>
+    <hyperlink ref="C323" r:id="rId316" display="Kth largest sum continuous subarrays"/>
+    <hyperlink ref="C324" r:id="rId317" display="Leetcode- reorganize strings"/>
+    <hyperlink ref="C325" r:id="rId318" display="Merge “K” Sorted Linked Lists [V.IMP]"/>
+    <hyperlink ref="C326" r:id="rId319" display="Smallest range in “K” Lists"/>
+    <hyperlink ref="C327" r:id="rId320" display="Median in a stream of Integers"/>
+    <hyperlink ref="C328" r:id="rId321" display="Check if a Binary Tree is Heap"/>
+    <hyperlink ref="C329" r:id="rId322" display="Connect “n” ropes with minimum cost"/>
+    <hyperlink ref="C330" r:id="rId323" display="Convert BST to Min Heap"/>
+    <hyperlink ref="C331" r:id="rId324" display="Convert min heap to max heap"/>
+    <hyperlink ref="C332" r:id="rId325" display="Rearrange characters in a string such that no two adjacent are same."/>
+    <hyperlink ref="C333" r:id="rId326" display="Minimum sum of two numbers formed from digits of an array"/>
+    <hyperlink ref="C334" r:id="rId327" display="Create a Graph, print it"/>
+    <hyperlink ref="C335" r:id="rId328" display="Implement BFS algorithm "/>
+    <hyperlink ref="C336" r:id="rId329" display="Implement DFS Algo "/>
+    <hyperlink ref="C337" r:id="rId330" display="Detect Cycle in Directed Graph using BFS/DFS Algo "/>
+    <hyperlink ref="C338" r:id="rId331" display="Detect Cycle in UnDirected Graph using BFS/DFS Algo "/>
+    <hyperlink ref="C339" r:id="rId332" display="Search in a Maze"/>
+    <hyperlink ref="C340" r:id="rId333" display="Minimum Step by Knight"/>
+    <hyperlink ref="C341" r:id="rId334" display="flood fill algo"/>
+    <hyperlink ref="C342" r:id="rId335" display="Clone a graph"/>
+    <hyperlink ref="C343" r:id="rId336" display="Making wired Connections"/>
+    <hyperlink ref="C344" r:id="rId337" display="word Ladder "/>
+    <hyperlink ref="C345" r:id="rId338" display="Dijkstra algo"/>
+    <hyperlink ref="C346" r:id="rId339" display="Implement Topological Sort "/>
+    <hyperlink ref="C347" r:id="rId340" display="Minimum time taken by each job to be completed given by a Directed Acyclic Graph"/>
+    <hyperlink ref="C348" r:id="rId341" display="Find whether it is possible to finish all tasks or not from given dependencies"/>
+    <hyperlink ref="C349" r:id="rId342" display="Find the no. of Isalnds"/>
+    <hyperlink ref="C350" r:id="rId343" display="Given a sorted Dictionary of an Alien Language, find order of characters"/>
+    <hyperlink ref="C351" r:id="rId344" display="Implement Kruksal’sAlgorithm"/>
+    <hyperlink ref="C352" r:id="rId345" display="Implement Prim’s Algorithm"/>
+    <hyperlink ref="C353" r:id="rId346" display="Total no. of Spanning tree in a graph"/>
+    <hyperlink ref="C354" r:id="rId347" display="Implement Bellman Ford Algorithm"/>
+    <hyperlink ref="C355" r:id="rId348" display="Implement Floyd warshallAlgorithm"/>
+    <hyperlink ref="C356" r:id="rId349" display="Travelling Salesman Problem"/>
+    <hyperlink ref="C357" r:id="rId350" location=":~:text=Graph%20coloring%20problem%20is%20to,are%20colored%20using%20same%20color." display="Graph ColouringProblem"/>
+    <hyperlink ref="C358" r:id="rId351" display="Snake and Ladders Problem"/>
+    <hyperlink ref="C359" r:id="rId352" display="Find bridge in a graph"/>
+    <hyperlink ref="C360" r:id="rId353" display="Count Strongly connected Components(Kosaraju Algo)"/>
+    <hyperlink ref="C361" r:id="rId354" display="Check whether a graph is Bipartite or Not"/>
+    <hyperlink ref="C362" r:id="rId355" display="Detect Negative cycle in a graph"/>
+    <hyperlink ref="C363" r:id="rId356" display="Longest path in a Directed Acyclic Graph"/>
+    <hyperlink ref="C364" r:id="rId357" display="Journey to the Moon"/>
+    <hyperlink ref="C365" r:id="rId358" display="Cheapest Flights Within K Stops"/>
+    <hyperlink ref="C366" r:id="rId359" display="Oliver and the Game"/>
+    <hyperlink ref="C367" r:id="rId360" display="Water Jug problem using BFS"/>
+    <hyperlink ref="C368" r:id="rId361" display="Water Jug problem using BFS"/>
+    <hyperlink ref="C369" r:id="rId362" display="Find if there is a path of more thank length from a source"/>
+    <hyperlink ref="C370" r:id="rId363" display="M-ColouringProblem"/>
+    <hyperlink ref="C371" r:id="rId364" display="Minimum edges to reverse o make path from source to destination"/>
+    <hyperlink ref="C372" r:id="rId365" display="Paths to travel each nodes using each edge(Seven Bridges)"/>
+    <hyperlink ref="C373" r:id="rId366" display="Vertex Cover Problem"/>
+    <hyperlink ref="C374" r:id="rId367" display="Chinese Postman or Route Inspection"/>
+    <hyperlink ref="C375" r:id="rId368" display="Number of Triangles in a Directed and Undirected Graph"/>
+    <hyperlink ref="C376" r:id="rId369" display="Minimise the cashflow among a given set of friends who have borrowed money from each other"/>
+    <hyperlink ref="C377" r:id="rId370" display="Two Clique Problem"/>
+    <hyperlink ref="C378" r:id="rId371" display="Construct a trie from scratch"/>
+    <hyperlink ref="C379" r:id="rId372" display="Find shortest unique prefix for every word in a given list"/>
+    <hyperlink ref="C380" r:id="rId373" display="Word Break Problem | (Trie solution)"/>
+    <hyperlink ref="C381" r:id="rId374" display="Given a sequence of words, print all anagrams together"/>
+    <hyperlink ref="C382" r:id="rId375" display="Implement a Phone Directory"/>
+    <hyperlink ref="C383" r:id="rId376" display="Print unique rows in a given boolean matrix"/>
+    <hyperlink ref="C384" r:id="rId377" display="Coin ChangeProblem"/>
+    <hyperlink ref="C385" r:id="rId378" display="Knapsack Problem"/>
+    <hyperlink ref="C386" r:id="rId379" display="Binomial CoefficientProblem"/>
+    <hyperlink ref="C387" r:id="rId380" display="Permutation CoefficientProblem"/>
+    <hyperlink ref="C388" r:id="rId381" display="Program for nth Catalan Number"/>
+    <hyperlink ref="C389" r:id="rId382" display="Matrix Chain Multiplication "/>
+    <hyperlink ref="C390" r:id="rId383" display="Edit Distance"/>
+    <hyperlink ref="C391" r:id="rId384" display="Subset Sum Problem"/>
+    <hyperlink ref="C392" r:id="rId385" display="Friends Pairing Problem"/>
+    <hyperlink ref="C393" r:id="rId386" display="Gold Mine Problem"/>
+    <hyperlink ref="C394" r:id="rId387" display="Assembly Line SchedulingProblem"/>
+    <hyperlink ref="C395" r:id="rId388" display="Painting the Fenceproblem"/>
+    <hyperlink ref="C396" r:id="rId389" display="Maximize The Cut Segments"/>
+    <hyperlink ref="C397" r:id="rId390" display="Longest Common Subsequence"/>
+    <hyperlink ref="C398" r:id="rId391" display="Longest Repeated Subsequence"/>
+    <hyperlink ref="C399" r:id="rId392" display="Longest Increasing Subsequence"/>
+    <hyperlink ref="C400" r:id="rId393" display="Space Optimized Solution of LCS"/>
+    <hyperlink ref="C401" r:id="rId394" display="LCS (Longest Common Subsequence) of three strings"/>
+    <hyperlink ref="C402" r:id="rId395" display="Maximum Sum Increasing Subsequence"/>
+    <hyperlink ref="C403" r:id="rId396" display="Count all subsequences having product less than K"/>
+    <hyperlink ref="C404" r:id="rId397" display="Longest subsequence such that difference between adjacent is one"/>
+    <hyperlink ref="C405" r:id="rId398" display="Maximum subsequence sum such that no three are consecutive"/>
+    <hyperlink ref="C406" r:id="rId399" display="Egg Dropping Problem"/>
+    <hyperlink ref="C407" r:id="rId400" display="Maximum Length Chain of Pairs"/>
+    <hyperlink ref="C408" r:id="rId401" display="Maximum size square sub-matrix with all 1s"/>
+    <hyperlink ref="C409" r:id="rId402" display="Maximum sum of pairs with specific difference"/>
+    <hyperlink ref="C410" r:id="rId403" display="Min Cost PathProblem"/>
+    <hyperlink ref="C411" r:id="rId404" display="Maximum difference of zeros and ones in binary string"/>
+    <hyperlink ref="C412" r:id="rId405" display="Minimum number of jumps to reach end"/>
+    <hyperlink ref="C413" r:id="rId406" display="Minimum cost to fill given weight in a bag"/>
+    <hyperlink ref="C414" r:id="rId407" display="Minimum removals from array to make max –min &lt;= K"/>
+    <hyperlink ref="C415" r:id="rId408" display="Longest Common Substring"/>
+    <hyperlink ref="C416" r:id="rId409" display="Count number of ways to reacha given score in a game"/>
+    <hyperlink ref="C417" r:id="rId410" display="Count Balanced Binary Trees of Height h"/>
+    <hyperlink ref="C418" r:id="rId411" display="LargestSum Contiguous Subarray [V&gt;V&gt;V&gt;V IMP ]"/>
+    <hyperlink ref="C419" r:id="rId412" display="Smallest sum contiguous subarray"/>
+    <hyperlink ref="C420" r:id="rId413" display="Unbounded Knapsack (Repetition of items allowed)"/>
+    <hyperlink ref="C421" r:id="rId414" display="Word Break Problem"/>
+    <hyperlink ref="C422" r:id="rId415" display="Largest Independent Set Problem"/>
+    <hyperlink ref="C423" r:id="rId416" display="Partition problem"/>
+    <hyperlink ref="C424" r:id="rId417" display="Longest Palindromic Subsequence"/>
+    <hyperlink ref="C425" r:id="rId418" display="Count All Palindromic Subsequence in a given String"/>
+    <hyperlink ref="C426" r:id="rId419" display="Longest Palindromic Substring"/>
+    <hyperlink ref="C427" r:id="rId420" display="Longest alternating subsequence"/>
+    <hyperlink ref="C428" r:id="rId421" display="Weighted Job Scheduling"/>
+    <hyperlink ref="C429" r:id="rId422" display="Coin game winner where every player has three choices"/>
+    <hyperlink ref="C430" r:id="rId423" display="Count Derangements (Permutation such that no element appears in its original position) [ IMPORTANT ]"/>
+    <hyperlink ref="C431" r:id="rId424" display="Maximum profit by buying and selling a share at most twice [ IMP ]"/>
+    <hyperlink ref="C432" r:id="rId425" display="Optimal Strategy for a Game"/>
+    <hyperlink ref="C433" r:id="rId426" display="Optimal Binary Search Tree"/>
+    <hyperlink ref="C434" r:id="rId427" display="Palindrome PartitioningProblem"/>
+    <hyperlink ref="C435" r:id="rId428" display="Word Wrap Problem"/>
+    <hyperlink ref="C436" r:id="rId429" display="Mobile Numeric Keypad Problem [ IMP ]"/>
+    <hyperlink ref="C437" r:id="rId430" display="Boolean Parenthesization Problem"/>
+    <hyperlink ref="C438" r:id="rId431" display="Largest rectangular sub-matrix whose sum is 0"/>
+    <hyperlink ref="C439" r:id="rId432" display="Largest area rectangular sub-matrix with equal number of 1’s and 0’s [ IMP ]"/>
+    <hyperlink ref="C440" r:id="rId433" display="Maximum sum rectangle in a 2D matrix"/>
+    <hyperlink ref="C441" r:id="rId434" display="Maximum profit by buying and selling a share at most k times"/>
+    <hyperlink ref="C442" r:id="rId435" display="Find if a string is interleaved of two other strings"/>
+    <hyperlink ref="C443" r:id="rId436" display="Maximum Length of Pair Chain"/>
+    <hyperlink ref="C444" r:id="rId437" display="Count set bits in an integer"/>
+    <hyperlink ref="C445" r:id="rId438" display="Find the two non-repeating elements in an array of repeating elements"/>
+    <hyperlink ref="C446" r:id="rId439" display="Count number of bits to be flipped to convert A to B"/>
+    <hyperlink ref="C447" r:id="rId440" display="Count total set bits in all numbers from 1 to n"/>
+    <hyperlink ref="C448" r:id="rId441" display="Program to find whether a no is power of two"/>
+    <hyperlink ref="C449" r:id="rId442" display="Find position of the only set bit"/>
+    <hyperlink ref="C450" r:id="rId443" display="Copy set bits in a range"/>
+    <hyperlink ref="C451" r:id="rId444" display="Divide two integers without using multiplication, division and mod operator"/>
+    <hyperlink ref="C452" r:id="rId445" location=":~:text=Given%20an%20integer%20n%2C%20calculate,*%2C%20%2F%20and%20pow().&amp;text=A%20Simple%20Solution%20is%20to%20repeatedly%20add%20n%20to%20result." display="Calculate square of a number without using *, / and pow()"/>
+    <hyperlink ref="C453" r:id="rId446" display="Power Set"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>

--- a/DSA_450_LoveBabbar.xlsx
+++ b/DSA_450_LoveBabbar.xlsx
@@ -1836,11 +1836,11 @@
   </sheetPr>
   <dimension ref="A1:D467"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A29" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A37" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C49" activeCellId="0" sqref="C49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.66015625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.66796875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.63"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="28.24"/>

--- a/DSA_450_LoveBabbar.xlsx
+++ b/DSA_450_LoveBabbar.xlsx
@@ -1836,11 +1836,11 @@
   </sheetPr>
   <dimension ref="A1:D467"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A37" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A41" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C49" activeCellId="0" sqref="C49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.66796875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.67578125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.63"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="28.24"/>
@@ -2433,7 +2433,7 @@
       <c r="B48" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="C48" s="20" t="s">
+      <c r="C48" s="11" t="s">
         <v>51</v>
       </c>
       <c r="D48" s="12"/>

--- a/DSA_450_LoveBabbar.xlsx
+++ b/DSA_450_LoveBabbar.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="903" uniqueCount="466">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="904" uniqueCount="467">
   <si>
     <t xml:space="preserve">Questions by Love Babbar:</t>
   </si>
@@ -195,13 +195,16 @@
     <t xml:space="preserve">Area of histogram bugged me a lot</t>
   </si>
   <si>
-    <t xml:space="preserve">Find a specific pair in matrix</t>
+    <t xml:space="preserve">Find the maximum difference in the matrix (find specific pair in a matrix)</t>
   </si>
   <si>
     <t xml:space="preserve">Rotate a matrix by 90deg</t>
   </si>
   <si>
     <t xml:space="preserve">Kth smallest element in a row-column wise sorted matrix</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Algorithm wasn’t quite intuitive</t>
   </si>
   <si>
     <t xml:space="preserve">Common elements in all rows of a given matrix</t>
@@ -1836,11 +1839,11 @@
   </sheetPr>
   <dimension ref="A1:D467"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A41" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C49" activeCellId="0" sqref="C49"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A33" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C51" activeCellId="0" sqref="C51"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.67578125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.6796875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.63"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="28.24"/>
@@ -2446,7 +2449,7 @@
       <c r="B49" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="C49" s="20" t="s">
+      <c r="C49" s="13" t="s">
         <v>52</v>
       </c>
       <c r="D49" s="12"/>
@@ -2459,10 +2462,12 @@
       <c r="B50" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="C50" s="20" t="s">
+      <c r="C50" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="D50" s="12"/>
+      <c r="D50" s="12" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="51" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="6" t="n">
@@ -2472,8 +2477,8 @@
       <c r="B51" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="C51" s="20" t="s">
-        <v>54</v>
+      <c r="C51" s="13" t="s">
+        <v>55</v>
       </c>
       <c r="D51" s="12"/>
     </row>
@@ -2483,10 +2488,10 @@
         <v>47</v>
       </c>
       <c r="B52" s="10" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C52" s="20" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D52" s="12"/>
     </row>
@@ -2496,10 +2501,10 @@
         <v>48</v>
       </c>
       <c r="B53" s="10" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C53" s="20" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D53" s="12"/>
     </row>
@@ -2509,10 +2514,10 @@
         <v>49</v>
       </c>
       <c r="B54" s="10" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C54" s="20" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D54" s="12"/>
     </row>
@@ -2522,10 +2527,10 @@
         <v>50</v>
       </c>
       <c r="B55" s="10" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C55" s="21" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D55" s="12"/>
     </row>
@@ -2535,10 +2540,10 @@
         <v>51</v>
       </c>
       <c r="B56" s="10" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C56" s="20" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D56" s="12"/>
     </row>
@@ -2548,10 +2553,10 @@
         <v>52</v>
       </c>
       <c r="B57" s="10" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C57" s="20" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D57" s="12"/>
     </row>
@@ -2561,10 +2566,10 @@
         <v>53</v>
       </c>
       <c r="B58" s="10" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C58" s="20" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D58" s="12"/>
     </row>
@@ -2574,10 +2579,10 @@
         <v>54</v>
       </c>
       <c r="B59" s="10" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C59" s="20" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D59" s="12"/>
     </row>
@@ -2587,10 +2592,10 @@
         <v>55</v>
       </c>
       <c r="B60" s="10" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C60" s="20" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D60" s="12"/>
     </row>
@@ -2600,10 +2605,10 @@
         <v>56</v>
       </c>
       <c r="B61" s="10" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C61" s="20" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D61" s="12"/>
     </row>
@@ -2613,10 +2618,10 @@
         <v>57</v>
       </c>
       <c r="B62" s="10" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C62" s="20" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D62" s="12"/>
     </row>
@@ -2626,10 +2631,10 @@
         <v>58</v>
       </c>
       <c r="B63" s="10" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C63" s="20" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D63" s="12"/>
     </row>
@@ -2639,10 +2644,10 @@
         <v>59</v>
       </c>
       <c r="B64" s="10" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C64" s="20" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D64" s="12"/>
     </row>
@@ -2652,10 +2657,10 @@
         <v>60</v>
       </c>
       <c r="B65" s="10" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C65" s="20" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D65" s="12"/>
     </row>
@@ -2665,10 +2670,10 @@
         <v>61</v>
       </c>
       <c r="B66" s="10" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C66" s="20" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D66" s="12"/>
     </row>
@@ -2678,10 +2683,10 @@
         <v>62</v>
       </c>
       <c r="B67" s="10" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C67" s="20" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D67" s="12"/>
     </row>
@@ -2691,10 +2696,10 @@
         <v>63</v>
       </c>
       <c r="B68" s="10" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C68" s="20" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D68" s="12"/>
     </row>
@@ -2704,10 +2709,10 @@
         <v>64</v>
       </c>
       <c r="B69" s="10" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C69" s="20" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D69" s="12"/>
     </row>
@@ -2717,10 +2722,10 @@
         <v>65</v>
       </c>
       <c r="B70" s="10" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C70" s="20" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D70" s="12"/>
     </row>
@@ -2730,10 +2735,10 @@
         <v>66</v>
       </c>
       <c r="B71" s="10" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C71" s="20" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D71" s="12"/>
     </row>
@@ -2743,10 +2748,10 @@
         <v>67</v>
       </c>
       <c r="B72" s="10" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C72" s="20" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D72" s="12"/>
     </row>
@@ -2756,10 +2761,10 @@
         <v>68</v>
       </c>
       <c r="B73" s="10" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C73" s="20" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D73" s="12"/>
     </row>
@@ -2769,10 +2774,10 @@
         <v>69</v>
       </c>
       <c r="B74" s="10" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C74" s="20" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D74" s="12"/>
     </row>
@@ -2782,10 +2787,10 @@
         <v>70</v>
       </c>
       <c r="B75" s="10" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C75" s="20" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D75" s="12"/>
     </row>
@@ -2795,10 +2800,10 @@
         <v>71</v>
       </c>
       <c r="B76" s="10" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C76" s="20" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D76" s="12"/>
     </row>
@@ -2808,10 +2813,10 @@
         <v>72</v>
       </c>
       <c r="B77" s="10" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C77" s="20" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D77" s="12"/>
     </row>
@@ -2821,10 +2826,10 @@
         <v>73</v>
       </c>
       <c r="B78" s="10" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C78" s="20" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D78" s="12"/>
     </row>
@@ -2834,10 +2839,10 @@
         <v>74</v>
       </c>
       <c r="B79" s="10" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C79" s="20" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D79" s="12"/>
     </row>
@@ -2847,10 +2852,10 @@
         <v>75</v>
       </c>
       <c r="B80" s="10" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C80" s="20" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D80" s="12"/>
     </row>
@@ -2860,10 +2865,10 @@
         <v>76</v>
       </c>
       <c r="B81" s="10" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C81" s="20" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D81" s="12"/>
     </row>
@@ -2873,10 +2878,10 @@
         <v>77</v>
       </c>
       <c r="B82" s="10" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C82" s="20" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D82" s="12"/>
     </row>
@@ -2886,10 +2891,10 @@
         <v>78</v>
       </c>
       <c r="B83" s="10" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C83" s="20" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D83" s="12"/>
     </row>
@@ -2899,10 +2904,10 @@
         <v>79</v>
       </c>
       <c r="B84" s="10" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C84" s="20" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D84" s="12"/>
     </row>
@@ -2912,10 +2917,10 @@
         <v>80</v>
       </c>
       <c r="B85" s="10" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C85" s="20" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D85" s="12"/>
     </row>
@@ -2925,10 +2930,10 @@
         <v>81</v>
       </c>
       <c r="B86" s="10" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C86" s="20" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D86" s="12"/>
     </row>
@@ -2938,10 +2943,10 @@
         <v>82</v>
       </c>
       <c r="B87" s="10" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C87" s="20" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D87" s="12"/>
     </row>
@@ -2951,10 +2956,10 @@
         <v>83</v>
       </c>
       <c r="B88" s="10" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C88" s="20" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D88" s="12"/>
     </row>
@@ -2964,10 +2969,10 @@
         <v>84</v>
       </c>
       <c r="B89" s="10" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C89" s="20" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D89" s="12"/>
     </row>
@@ -2977,10 +2982,10 @@
         <v>85</v>
       </c>
       <c r="B90" s="10" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C90" s="20" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D90" s="12"/>
     </row>
@@ -2990,10 +2995,10 @@
         <v>86</v>
       </c>
       <c r="B91" s="10" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C91" s="20" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D91" s="12"/>
     </row>
@@ -3003,10 +3008,10 @@
         <v>87</v>
       </c>
       <c r="B92" s="10" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C92" s="20" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D92" s="12"/>
     </row>
@@ -3016,10 +3021,10 @@
         <v>88</v>
       </c>
       <c r="B93" s="10" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C93" s="20" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D93" s="12"/>
     </row>
@@ -3029,10 +3034,10 @@
         <v>89</v>
       </c>
       <c r="B94" s="10" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C94" s="20" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D94" s="12"/>
     </row>
@@ -3042,10 +3047,10 @@
         <v>90</v>
       </c>
       <c r="B95" s="15" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C95" s="20" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D95" s="12"/>
     </row>
@@ -3055,10 +3060,10 @@
         <v>91</v>
       </c>
       <c r="B96" s="15" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C96" s="20" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D96" s="12"/>
     </row>
@@ -3068,10 +3073,10 @@
         <v>92</v>
       </c>
       <c r="B97" s="15" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C97" s="20" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D97" s="12"/>
     </row>
@@ -3081,10 +3086,10 @@
         <v>93</v>
       </c>
       <c r="B98" s="15" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C98" s="20" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D98" s="12"/>
     </row>
@@ -3094,10 +3099,10 @@
         <v>94</v>
       </c>
       <c r="B99" s="15" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C99" s="20" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D99" s="12"/>
     </row>
@@ -3107,10 +3112,10 @@
         <v>95</v>
       </c>
       <c r="B100" s="15" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C100" s="20" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D100" s="12"/>
     </row>
@@ -3120,10 +3125,10 @@
         <v>96</v>
       </c>
       <c r="B101" s="15" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C101" s="20" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D101" s="12"/>
     </row>
@@ -3133,10 +3138,10 @@
         <v>97</v>
       </c>
       <c r="B102" s="15" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C102" s="20" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D102" s="12"/>
     </row>
@@ -3146,10 +3151,10 @@
         <v>98</v>
       </c>
       <c r="B103" s="15" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C103" s="20" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D103" s="12"/>
     </row>
@@ -3159,10 +3164,10 @@
         <v>99</v>
       </c>
       <c r="B104" s="15" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C104" s="20" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D104" s="12"/>
     </row>
@@ -3172,10 +3177,10 @@
         <v>100</v>
       </c>
       <c r="B105" s="15" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C105" s="20" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D105" s="12"/>
     </row>
@@ -3185,10 +3190,10 @@
         <v>101</v>
       </c>
       <c r="B106" s="15" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C106" s="20" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D106" s="12"/>
     </row>
@@ -3198,10 +3203,10 @@
         <v>102</v>
       </c>
       <c r="B107" s="15" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C107" s="20" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D107" s="12"/>
     </row>
@@ -3211,10 +3216,10 @@
         <v>103</v>
       </c>
       <c r="B108" s="15" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C108" s="20" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D108" s="12"/>
     </row>
@@ -3224,10 +3229,10 @@
         <v>104</v>
       </c>
       <c r="B109" s="15" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C109" s="20" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D109" s="12"/>
     </row>
@@ -3237,10 +3242,10 @@
         <v>105</v>
       </c>
       <c r="B110" s="15" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C110" s="20" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D110" s="12"/>
     </row>
@@ -3250,10 +3255,10 @@
         <v>106</v>
       </c>
       <c r="B111" s="15" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C111" s="20" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D111" s="12"/>
     </row>
@@ -3263,10 +3268,10 @@
         <v>107</v>
       </c>
       <c r="B112" s="15" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C112" s="20" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D112" s="12"/>
     </row>
@@ -3276,10 +3281,10 @@
         <v>108</v>
       </c>
       <c r="B113" s="15" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C113" s="20" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D113" s="12"/>
     </row>
@@ -3289,10 +3294,10 @@
         <v>109</v>
       </c>
       <c r="B114" s="15" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C114" s="20" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D114" s="12"/>
     </row>
@@ -3302,10 +3307,10 @@
         <v>110</v>
       </c>
       <c r="B115" s="15" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C115" s="20" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D115" s="12"/>
     </row>
@@ -3315,10 +3320,10 @@
         <v>111</v>
       </c>
       <c r="B116" s="15" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C116" s="20" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D116" s="12"/>
     </row>
@@ -3328,10 +3333,10 @@
         <v>112</v>
       </c>
       <c r="B117" s="15" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C117" s="20" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D117" s="12"/>
     </row>
@@ -3341,10 +3346,10 @@
         <v>113</v>
       </c>
       <c r="B118" s="15" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C118" s="20" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D118" s="12"/>
     </row>
@@ -3354,10 +3359,10 @@
         <v>114</v>
       </c>
       <c r="B119" s="15" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C119" s="20" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D119" s="12"/>
     </row>
@@ -3367,10 +3372,10 @@
         <v>115</v>
       </c>
       <c r="B120" s="15" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C120" s="20" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D120" s="12"/>
     </row>
@@ -3380,10 +3385,10 @@
         <v>116</v>
       </c>
       <c r="B121" s="15" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C121" s="20" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D121" s="12"/>
     </row>
@@ -3393,10 +3398,10 @@
         <v>117</v>
       </c>
       <c r="B122" s="15" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C122" s="20" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D122" s="12"/>
     </row>
@@ -3406,10 +3411,10 @@
         <v>118</v>
       </c>
       <c r="B123" s="15" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C123" s="20" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D123" s="12"/>
     </row>
@@ -3419,10 +3424,10 @@
         <v>119</v>
       </c>
       <c r="B124" s="15" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C124" s="20" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D124" s="12"/>
     </row>
@@ -3432,10 +3437,10 @@
         <v>120</v>
       </c>
       <c r="B125" s="15" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C125" s="20" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D125" s="12"/>
     </row>
@@ -3445,10 +3450,10 @@
         <v>121</v>
       </c>
       <c r="B126" s="15" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C126" s="20" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D126" s="12"/>
     </row>
@@ -3458,10 +3463,10 @@
         <v>122</v>
       </c>
       <c r="B127" s="15" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C127" s="20" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D127" s="12"/>
     </row>
@@ -3471,10 +3476,10 @@
         <v>123</v>
       </c>
       <c r="B128" s="15" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C128" s="20" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D128" s="12"/>
     </row>
@@ -3484,10 +3489,10 @@
         <v>124</v>
       </c>
       <c r="B129" s="15" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C129" s="20" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D129" s="12"/>
     </row>
@@ -3497,10 +3502,10 @@
         <v>125</v>
       </c>
       <c r="B130" s="15" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C130" s="20" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D130" s="12"/>
     </row>
@@ -3510,10 +3515,10 @@
         <v>126</v>
       </c>
       <c r="B131" s="10" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C131" s="20" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D131" s="12"/>
     </row>
@@ -3523,10 +3528,10 @@
         <v>127</v>
       </c>
       <c r="B132" s="10" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C132" s="20" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D132" s="12"/>
     </row>
@@ -3536,10 +3541,10 @@
         <v>128</v>
       </c>
       <c r="B133" s="10" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C133" s="20" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D133" s="12"/>
     </row>
@@ -3549,10 +3554,10 @@
         <v>129</v>
       </c>
       <c r="B134" s="10" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C134" s="20" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D134" s="12"/>
     </row>
@@ -3562,10 +3567,10 @@
         <v>130</v>
       </c>
       <c r="B135" s="10" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C135" s="20" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D135" s="12"/>
     </row>
@@ -3575,10 +3580,10 @@
         <v>131</v>
       </c>
       <c r="B136" s="10" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C136" s="20" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D136" s="12"/>
     </row>
@@ -3588,10 +3593,10 @@
         <v>132</v>
       </c>
       <c r="B137" s="10" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C137" s="20" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D137" s="12"/>
     </row>
@@ -3601,10 +3606,10 @@
         <v>133</v>
       </c>
       <c r="B138" s="10" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C138" s="20" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D138" s="12"/>
     </row>
@@ -3614,10 +3619,10 @@
         <v>134</v>
       </c>
       <c r="B139" s="10" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C139" s="20" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D139" s="12"/>
     </row>
@@ -3627,10 +3632,10 @@
         <v>135</v>
       </c>
       <c r="B140" s="10" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C140" s="20" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D140" s="12"/>
     </row>
@@ -3640,10 +3645,10 @@
         <v>136</v>
       </c>
       <c r="B141" s="10" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C141" s="20" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D141" s="12"/>
     </row>
@@ -3653,10 +3658,10 @@
         <v>137</v>
       </c>
       <c r="B142" s="10" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C142" s="20" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D142" s="12"/>
     </row>
@@ -3666,10 +3671,10 @@
         <v>138</v>
       </c>
       <c r="B143" s="10" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C143" s="20" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D143" s="12"/>
     </row>
@@ -3679,10 +3684,10 @@
         <v>139</v>
       </c>
       <c r="B144" s="10" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C144" s="20" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D144" s="12"/>
     </row>
@@ -3692,10 +3697,10 @@
         <v>140</v>
       </c>
       <c r="B145" s="10" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C145" s="20" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D145" s="12"/>
     </row>
@@ -3705,10 +3710,10 @@
         <v>141</v>
       </c>
       <c r="B146" s="10" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C146" s="20" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D146" s="12"/>
     </row>
@@ -3718,10 +3723,10 @@
         <v>142</v>
       </c>
       <c r="B147" s="10" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C147" s="20" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D147" s="12"/>
     </row>
@@ -3731,10 +3736,10 @@
         <v>143</v>
       </c>
       <c r="B148" s="10" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C148" s="20" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D148" s="12"/>
     </row>
@@ -3744,10 +3749,10 @@
         <v>144</v>
       </c>
       <c r="B149" s="10" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C149" s="20" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D149" s="12"/>
     </row>
@@ -3757,10 +3762,10 @@
         <v>145</v>
       </c>
       <c r="B150" s="10" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C150" s="20" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D150" s="12"/>
     </row>
@@ -3770,10 +3775,10 @@
         <v>146</v>
       </c>
       <c r="B151" s="10" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C151" s="20" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D151" s="12"/>
     </row>
@@ -3783,10 +3788,10 @@
         <v>147</v>
       </c>
       <c r="B152" s="10" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C152" s="20" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D152" s="12"/>
     </row>
@@ -3796,10 +3801,10 @@
         <v>148</v>
       </c>
       <c r="B153" s="10" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C153" s="20" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D153" s="12"/>
     </row>
@@ -3809,10 +3814,10 @@
         <v>149</v>
       </c>
       <c r="B154" s="10" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C154" s="20" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D154" s="12"/>
     </row>
@@ -3822,10 +3827,10 @@
         <v>150</v>
       </c>
       <c r="B155" s="10" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C155" s="20" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D155" s="12"/>
     </row>
@@ -3835,10 +3840,10 @@
         <v>151</v>
       </c>
       <c r="B156" s="10" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C156" s="21" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D156" s="12"/>
     </row>
@@ -3848,10 +3853,10 @@
         <v>152</v>
       </c>
       <c r="B157" s="10" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C157" s="21" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D157" s="12"/>
     </row>
@@ -3861,10 +3866,10 @@
         <v>153</v>
       </c>
       <c r="B158" s="10" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C158" s="20" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D158" s="12"/>
     </row>
@@ -3874,10 +3879,10 @@
         <v>154</v>
       </c>
       <c r="B159" s="10" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C159" s="20" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D159" s="12"/>
     </row>
@@ -3887,10 +3892,10 @@
         <v>155</v>
       </c>
       <c r="B160" s="10" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C160" s="20" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D160" s="12"/>
     </row>
@@ -3900,10 +3905,10 @@
         <v>156</v>
       </c>
       <c r="B161" s="10" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C161" s="20" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D161" s="12"/>
     </row>
@@ -3913,10 +3918,10 @@
         <v>157</v>
       </c>
       <c r="B162" s="10" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C162" s="20" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D162" s="12"/>
     </row>
@@ -3926,10 +3931,10 @@
         <v>158</v>
       </c>
       <c r="B163" s="10" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C163" s="20" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D163" s="12"/>
     </row>
@@ -3939,10 +3944,10 @@
         <v>159</v>
       </c>
       <c r="B164" s="10" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C164" s="20" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D164" s="12"/>
     </row>
@@ -3952,10 +3957,10 @@
         <v>160</v>
       </c>
       <c r="B165" s="10" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C165" s="20" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D165" s="12"/>
     </row>
@@ -3965,10 +3970,10 @@
         <v>161</v>
       </c>
       <c r="B166" s="10" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C166" s="20" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D166" s="12"/>
     </row>
@@ -3978,10 +3983,10 @@
         <v>162</v>
       </c>
       <c r="B167" s="15" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C167" s="20" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D167" s="12"/>
     </row>
@@ -3991,10 +3996,10 @@
         <v>163</v>
       </c>
       <c r="B168" s="15" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C168" s="20" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D168" s="12"/>
     </row>
@@ -4004,10 +4009,10 @@
         <v>164</v>
       </c>
       <c r="B169" s="15" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C169" s="20" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D169" s="12"/>
     </row>
@@ -4017,10 +4022,10 @@
         <v>165</v>
       </c>
       <c r="B170" s="15" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C170" s="20" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D170" s="12"/>
     </row>
@@ -4030,10 +4035,10 @@
         <v>166</v>
       </c>
       <c r="B171" s="15" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C171" s="20" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D171" s="12"/>
     </row>
@@ -4043,10 +4048,10 @@
         <v>167</v>
       </c>
       <c r="B172" s="15" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C172" s="20" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D172" s="12"/>
     </row>
@@ -4056,10 +4061,10 @@
         <v>168</v>
       </c>
       <c r="B173" s="15" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C173" s="20" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D173" s="12"/>
     </row>
@@ -4069,10 +4074,10 @@
         <v>169</v>
       </c>
       <c r="B174" s="15" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C174" s="20" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D174" s="12"/>
     </row>
@@ -4082,10 +4087,10 @@
         <v>170</v>
       </c>
       <c r="B175" s="15" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C175" s="20" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D175" s="12"/>
     </row>
@@ -4095,10 +4100,10 @@
         <v>171</v>
       </c>
       <c r="B176" s="15" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C176" s="20" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D176" s="12"/>
     </row>
@@ -4108,10 +4113,10 @@
         <v>172</v>
       </c>
       <c r="B177" s="15" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C177" s="20" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D177" s="12"/>
     </row>
@@ -4121,10 +4126,10 @@
         <v>173</v>
       </c>
       <c r="B178" s="15" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C178" s="20" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D178" s="12"/>
     </row>
@@ -4134,10 +4139,10 @@
         <v>174</v>
       </c>
       <c r="B179" s="15" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C179" s="20" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D179" s="12"/>
     </row>
@@ -4147,10 +4152,10 @@
         <v>175</v>
       </c>
       <c r="B180" s="15" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C180" s="20" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D180" s="12"/>
     </row>
@@ -4160,10 +4165,10 @@
         <v>176</v>
       </c>
       <c r="B181" s="15" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C181" s="20" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D181" s="12"/>
     </row>
@@ -4173,10 +4178,10 @@
         <v>177</v>
       </c>
       <c r="B182" s="15" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C182" s="20" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D182" s="12"/>
     </row>
@@ -4186,10 +4191,10 @@
         <v>178</v>
       </c>
       <c r="B183" s="15" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C183" s="20" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D183" s="12"/>
     </row>
@@ -4199,10 +4204,10 @@
         <v>179</v>
       </c>
       <c r="B184" s="15" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C184" s="20" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D184" s="12"/>
     </row>
@@ -4212,10 +4217,10 @@
         <v>180</v>
       </c>
       <c r="B185" s="15" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C185" s="20" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="D185" s="12"/>
     </row>
@@ -4225,10 +4230,10 @@
         <v>181</v>
       </c>
       <c r="B186" s="15" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C186" s="20" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D186" s="12"/>
     </row>
@@ -4238,10 +4243,10 @@
         <v>182</v>
       </c>
       <c r="B187" s="15" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C187" s="20" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D187" s="12"/>
     </row>
@@ -4251,10 +4256,10 @@
         <v>183</v>
       </c>
       <c r="B188" s="15" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C188" s="20" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D188" s="12"/>
     </row>
@@ -4264,10 +4269,10 @@
         <v>184</v>
       </c>
       <c r="B189" s="15" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C189" s="20" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D189" s="12"/>
     </row>
@@ -4277,10 +4282,10 @@
         <v>185</v>
       </c>
       <c r="B190" s="15" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C190" s="20" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D190" s="12"/>
     </row>
@@ -4290,10 +4295,10 @@
         <v>186</v>
       </c>
       <c r="B191" s="15" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C191" s="20" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D191" s="12"/>
     </row>
@@ -4303,10 +4308,10 @@
         <v>187</v>
       </c>
       <c r="B192" s="15" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C192" s="20" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D192" s="12"/>
     </row>
@@ -4316,10 +4321,10 @@
         <v>188</v>
       </c>
       <c r="B193" s="15" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C193" s="20" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D193" s="12"/>
     </row>
@@ -4329,10 +4334,10 @@
         <v>189</v>
       </c>
       <c r="B194" s="15" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C194" s="20" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D194" s="12"/>
     </row>
@@ -4342,10 +4347,10 @@
         <v>190</v>
       </c>
       <c r="B195" s="15" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C195" s="20" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="D195" s="12"/>
     </row>
@@ -4355,10 +4360,10 @@
         <v>191</v>
       </c>
       <c r="B196" s="15" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C196" s="20" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="D196" s="12"/>
     </row>
@@ -4368,10 +4373,10 @@
         <v>192</v>
       </c>
       <c r="B197" s="15" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C197" s="20" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D197" s="12"/>
     </row>
@@ -4381,10 +4386,10 @@
         <v>193</v>
       </c>
       <c r="B198" s="15" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C198" s="20" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D198" s="12"/>
     </row>
@@ -4394,10 +4399,10 @@
         <v>194</v>
       </c>
       <c r="B199" s="15" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C199" s="20" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D199" s="12"/>
     </row>
@@ -4407,10 +4412,10 @@
         <v>195</v>
       </c>
       <c r="B200" s="15" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C200" s="20" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D200" s="12"/>
     </row>
@@ -4420,10 +4425,10 @@
         <v>196</v>
       </c>
       <c r="B201" s="15" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C201" s="20" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="D201" s="12"/>
     </row>
@@ -4433,10 +4438,10 @@
         <v>197</v>
       </c>
       <c r="B202" s="10" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C202" s="20" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="203" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4445,10 +4450,10 @@
         <v>198</v>
       </c>
       <c r="B203" s="10" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C203" s="20" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="204" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4457,10 +4462,10 @@
         <v>199</v>
       </c>
       <c r="B204" s="10" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C204" s="20" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="205" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4469,10 +4474,10 @@
         <v>200</v>
       </c>
       <c r="B205" s="10" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C205" s="20" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="206" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4481,10 +4486,10 @@
         <v>201</v>
       </c>
       <c r="B206" s="10" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C206" s="20" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
     </row>
     <row r="207" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4493,10 +4498,10 @@
         <v>202</v>
       </c>
       <c r="B207" s="10" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C207" s="20" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="208" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4505,10 +4510,10 @@
         <v>203</v>
       </c>
       <c r="B208" s="10" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C208" s="22" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
     </row>
     <row r="209" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4517,10 +4522,10 @@
         <v>204</v>
       </c>
       <c r="B209" s="10" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C209" s="20" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row r="210" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4529,10 +4534,10 @@
         <v>205</v>
       </c>
       <c r="B210" s="10" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C210" s="20" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="D210" s="12"/>
     </row>
@@ -4542,10 +4547,10 @@
         <v>206</v>
       </c>
       <c r="B211" s="10" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C211" s="20" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="D211" s="12"/>
     </row>
@@ -4555,10 +4560,10 @@
         <v>207</v>
       </c>
       <c r="B212" s="10" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C212" s="20" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="D212" s="12"/>
     </row>
@@ -4568,10 +4573,10 @@
         <v>208</v>
       </c>
       <c r="B213" s="10" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C213" s="20" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="D213" s="12"/>
     </row>
@@ -4581,10 +4586,10 @@
         <v>209</v>
       </c>
       <c r="B214" s="10" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C214" s="20" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="D214" s="12"/>
     </row>
@@ -4594,10 +4599,10 @@
         <v>210</v>
       </c>
       <c r="B215" s="10" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C215" s="20" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="D215" s="12"/>
     </row>
@@ -4607,10 +4612,10 @@
         <v>211</v>
       </c>
       <c r="B216" s="10" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C216" s="20" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D216" s="12"/>
     </row>
@@ -4620,10 +4625,10 @@
         <v>212</v>
       </c>
       <c r="B217" s="10" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C217" s="20" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="D217" s="12"/>
     </row>
@@ -4633,10 +4638,10 @@
         <v>213</v>
       </c>
       <c r="B218" s="10" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C218" s="20" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="D218" s="12"/>
     </row>
@@ -4646,10 +4651,10 @@
         <v>214</v>
       </c>
       <c r="B219" s="10" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C219" s="20" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="D219" s="12"/>
     </row>
@@ -4659,10 +4664,10 @@
         <v>215</v>
       </c>
       <c r="B220" s="10" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C220" s="20" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D220" s="12"/>
     </row>
@@ -4672,10 +4677,10 @@
         <v>216</v>
       </c>
       <c r="B221" s="10" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C221" s="20" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D221" s="12"/>
     </row>
@@ -4685,10 +4690,10 @@
         <v>217</v>
       </c>
       <c r="B222" s="10" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C222" s="20" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="D222" s="12"/>
     </row>
@@ -4698,10 +4703,10 @@
         <v>218</v>
       </c>
       <c r="B223" s="10" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C223" s="20" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="D223" s="12"/>
     </row>
@@ -4711,10 +4716,10 @@
         <v>219</v>
       </c>
       <c r="B224" s="15" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C224" s="20" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="D224" s="12"/>
     </row>
@@ -4724,10 +4729,10 @@
         <v>220</v>
       </c>
       <c r="B225" s="15" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C225" s="20" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="D225" s="12"/>
     </row>
@@ -4737,10 +4742,10 @@
         <v>221</v>
       </c>
       <c r="B226" s="15" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C226" s="20" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D226" s="12"/>
     </row>
@@ -4750,10 +4755,10 @@
         <v>222</v>
       </c>
       <c r="B227" s="15" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C227" s="20" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D227" s="12"/>
     </row>
@@ -4763,10 +4768,10 @@
         <v>223</v>
       </c>
       <c r="B228" s="15" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C228" s="20" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="D228" s="12"/>
     </row>
@@ -4776,10 +4781,10 @@
         <v>224</v>
       </c>
       <c r="B229" s="15" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C229" s="20" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D229" s="12"/>
     </row>
@@ -4789,10 +4794,10 @@
         <v>225</v>
       </c>
       <c r="B230" s="15" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C230" s="20" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="D230" s="12"/>
     </row>
@@ -4802,10 +4807,10 @@
         <v>226</v>
       </c>
       <c r="B231" s="15" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C231" s="20" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D231" s="12"/>
     </row>
@@ -4815,10 +4820,10 @@
         <v>227</v>
       </c>
       <c r="B232" s="15" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C232" s="20" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="D232" s="12"/>
     </row>
@@ -4828,10 +4833,10 @@
         <v>228</v>
       </c>
       <c r="B233" s="15" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C233" s="20" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="D233" s="12"/>
     </row>
@@ -4841,10 +4846,10 @@
         <v>229</v>
       </c>
       <c r="B234" s="15" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C234" s="20" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="D234" s="12"/>
     </row>
@@ -4854,10 +4859,10 @@
         <v>230</v>
       </c>
       <c r="B235" s="15" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C235" s="20" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="D235" s="12"/>
     </row>
@@ -4867,10 +4872,10 @@
         <v>231</v>
       </c>
       <c r="B236" s="15" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C236" s="20" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="D236" s="12"/>
     </row>
@@ -4880,10 +4885,10 @@
         <v>232</v>
       </c>
       <c r="B237" s="15" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C237" s="20" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="D237" s="12"/>
     </row>
@@ -4893,10 +4898,10 @@
         <v>233</v>
       </c>
       <c r="B238" s="15" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C238" s="20" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="D238" s="12"/>
     </row>
@@ -4906,10 +4911,10 @@
         <v>234</v>
       </c>
       <c r="B239" s="15" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C239" s="20" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="D239" s="12"/>
     </row>
@@ -4919,10 +4924,10 @@
         <v>235</v>
       </c>
       <c r="B240" s="15" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C240" s="20" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="D240" s="12"/>
     </row>
@@ -4932,10 +4937,10 @@
         <v>236</v>
       </c>
       <c r="B241" s="15" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C241" s="20" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="D241" s="12"/>
     </row>
@@ -4945,10 +4950,10 @@
         <v>237</v>
       </c>
       <c r="B242" s="15" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C242" s="20" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="D242" s="12"/>
     </row>
@@ -4958,10 +4963,10 @@
         <v>238</v>
       </c>
       <c r="B243" s="15" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C243" s="20" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="D243" s="12"/>
     </row>
@@ -4971,10 +4976,10 @@
         <v>239</v>
       </c>
       <c r="B244" s="15" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C244" s="20" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="D244" s="12"/>
     </row>
@@ -4984,10 +4989,10 @@
         <v>240</v>
       </c>
       <c r="B245" s="15" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C245" s="20" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="D245" s="12"/>
     </row>
@@ -4997,10 +5002,10 @@
         <v>241</v>
       </c>
       <c r="B246" s="15" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C246" s="20" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="D246" s="12"/>
     </row>
@@ -5010,10 +5015,10 @@
         <v>242</v>
       </c>
       <c r="B247" s="15" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C247" s="20" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="D247" s="12"/>
     </row>
@@ -5023,10 +5028,10 @@
         <v>243</v>
       </c>
       <c r="B248" s="15" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C248" s="20" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="D248" s="12"/>
     </row>
@@ -5036,10 +5041,10 @@
         <v>244</v>
       </c>
       <c r="B249" s="15" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C249" s="20" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="D249" s="12"/>
     </row>
@@ -5049,10 +5054,10 @@
         <v>245</v>
       </c>
       <c r="B250" s="15" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C250" s="20" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="D250" s="12"/>
     </row>
@@ -5062,10 +5067,10 @@
         <v>246</v>
       </c>
       <c r="B251" s="15" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C251" s="20" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="D251" s="12"/>
     </row>
@@ -5075,10 +5080,10 @@
         <v>247</v>
       </c>
       <c r="B252" s="15" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C252" s="20" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="D252" s="12"/>
     </row>
@@ -5088,10 +5093,10 @@
         <v>248</v>
       </c>
       <c r="B253" s="15" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C253" s="20" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="D253" s="12"/>
     </row>
@@ -5101,10 +5106,10 @@
         <v>249</v>
       </c>
       <c r="B254" s="15" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C254" s="20" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="D254" s="12"/>
     </row>
@@ -5114,10 +5119,10 @@
         <v>250</v>
       </c>
       <c r="B255" s="15" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C255" s="20" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D255" s="12"/>
     </row>
@@ -5127,10 +5132,10 @@
         <v>251</v>
       </c>
       <c r="B256" s="15" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C256" s="20" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="D256" s="12"/>
     </row>
@@ -5140,10 +5145,10 @@
         <v>252</v>
       </c>
       <c r="B257" s="15" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C257" s="20" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D257" s="12"/>
     </row>
@@ -5153,10 +5158,10 @@
         <v>253</v>
       </c>
       <c r="B258" s="15" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C258" s="20" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D258" s="12"/>
     </row>
@@ -5166,10 +5171,10 @@
         <v>254</v>
       </c>
       <c r="B259" s="10" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C259" s="20" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D259" s="12"/>
     </row>
@@ -5179,10 +5184,10 @@
         <v>255</v>
       </c>
       <c r="B260" s="10" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C260" s="20" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="D260" s="12"/>
     </row>
@@ -5192,10 +5197,10 @@
         <v>256</v>
       </c>
       <c r="B261" s="10" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C261" s="20" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="D261" s="12"/>
     </row>
@@ -5205,10 +5210,10 @@
         <v>257</v>
       </c>
       <c r="B262" s="10" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C262" s="20" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="D262" s="12"/>
     </row>
@@ -5218,10 +5223,10 @@
         <v>258</v>
       </c>
       <c r="B263" s="10" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C263" s="20" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="D263" s="12"/>
     </row>
@@ -5231,10 +5236,10 @@
         <v>259</v>
       </c>
       <c r="B264" s="10" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C264" s="20" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="D264" s="12"/>
     </row>
@@ -5244,10 +5249,10 @@
         <v>260</v>
       </c>
       <c r="B265" s="10" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C265" s="20" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="D265" s="12"/>
     </row>
@@ -5257,10 +5262,10 @@
         <v>261</v>
       </c>
       <c r="B266" s="10" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C266" s="20" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="D266" s="12"/>
     </row>
@@ -5270,10 +5275,10 @@
         <v>262</v>
       </c>
       <c r="B267" s="10" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C267" s="20" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="D267" s="12"/>
     </row>
@@ -5283,10 +5288,10 @@
         <v>263</v>
       </c>
       <c r="B268" s="10" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C268" s="20" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="D268" s="12"/>
     </row>
@@ -5296,10 +5301,10 @@
         <v>264</v>
       </c>
       <c r="B269" s="10" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C269" s="20" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="D269" s="12"/>
     </row>
@@ -5309,10 +5314,10 @@
         <v>265</v>
       </c>
       <c r="B270" s="10" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C270" s="20" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="D270" s="12"/>
     </row>
@@ -5322,10 +5327,10 @@
         <v>266</v>
       </c>
       <c r="B271" s="10" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C271" s="20" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="D271" s="12"/>
     </row>
@@ -5335,10 +5340,10 @@
         <v>267</v>
       </c>
       <c r="B272" s="10" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C272" s="20" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="D272" s="12"/>
     </row>
@@ -5348,10 +5353,10 @@
         <v>268</v>
       </c>
       <c r="B273" s="10" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C273" s="20" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="D273" s="12"/>
     </row>
@@ -5361,10 +5366,10 @@
         <v>269</v>
       </c>
       <c r="B274" s="10" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C274" s="20" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="D274" s="12"/>
     </row>
@@ -5374,10 +5379,10 @@
         <v>270</v>
       </c>
       <c r="B275" s="10" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C275" s="20" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="D275" s="12"/>
     </row>
@@ -5387,10 +5392,10 @@
         <v>271</v>
       </c>
       <c r="B276" s="10" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C276" s="20" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="D276" s="12"/>
     </row>
@@ -5400,10 +5405,10 @@
         <v>272</v>
       </c>
       <c r="B277" s="10" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C277" s="20" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="D277" s="12"/>
     </row>
@@ -5413,10 +5418,10 @@
         <v>273</v>
       </c>
       <c r="B278" s="15" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="C278" s="20" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="D278" s="12"/>
     </row>
@@ -5426,10 +5431,10 @@
         <v>274</v>
       </c>
       <c r="B279" s="15" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="C279" s="20" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="D279" s="12"/>
     </row>
@@ -5439,10 +5444,10 @@
         <v>275</v>
       </c>
       <c r="B280" s="15" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="C280" s="20" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="D280" s="12"/>
     </row>
@@ -5452,10 +5457,10 @@
         <v>276</v>
       </c>
       <c r="B281" s="15" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="C281" s="20" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="D281" s="12"/>
     </row>
@@ -5465,10 +5470,10 @@
         <v>277</v>
       </c>
       <c r="B282" s="15" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="C282" s="20" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="D282" s="12"/>
     </row>
@@ -5478,10 +5483,10 @@
         <v>278</v>
       </c>
       <c r="B283" s="15" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="C283" s="20" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="D283" s="12"/>
     </row>
@@ -5491,10 +5496,10 @@
         <v>279</v>
       </c>
       <c r="B284" s="15" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="C284" s="20" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="D284" s="12"/>
     </row>
@@ -5504,10 +5509,10 @@
         <v>280</v>
       </c>
       <c r="B285" s="15" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="C285" s="20" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="D285" s="12"/>
     </row>
@@ -5517,10 +5522,10 @@
         <v>281</v>
       </c>
       <c r="B286" s="15" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="C286" s="20" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="D286" s="12"/>
     </row>
@@ -5530,10 +5535,10 @@
         <v>282</v>
       </c>
       <c r="B287" s="15" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="C287" s="20" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="D287" s="12"/>
     </row>
@@ -5543,10 +5548,10 @@
         <v>283</v>
       </c>
       <c r="B288" s="15" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="C288" s="20" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="D288" s="12"/>
     </row>
@@ -5556,10 +5561,10 @@
         <v>284</v>
       </c>
       <c r="B289" s="15" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="C289" s="20" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="D289" s="12"/>
     </row>
@@ -5569,10 +5574,10 @@
         <v>285</v>
       </c>
       <c r="B290" s="15" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="C290" s="20" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="D290" s="12"/>
     </row>
@@ -5582,10 +5587,10 @@
         <v>286</v>
       </c>
       <c r="B291" s="15" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="C291" s="22" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="D291" s="12"/>
     </row>
@@ -5595,10 +5600,10 @@
         <v>287</v>
       </c>
       <c r="B292" s="15" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="C292" s="20" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="D292" s="12"/>
     </row>
@@ -5608,10 +5613,10 @@
         <v>288</v>
       </c>
       <c r="B293" s="15" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="C293" s="20" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="D293" s="12"/>
     </row>
@@ -5621,10 +5626,10 @@
         <v>289</v>
       </c>
       <c r="B294" s="15" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="C294" s="20" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="D294" s="12"/>
     </row>
@@ -5634,10 +5639,10 @@
         <v>290</v>
       </c>
       <c r="B295" s="15" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="C295" s="20" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="D295" s="12"/>
     </row>
@@ -5647,10 +5652,10 @@
         <v>291</v>
       </c>
       <c r="B296" s="15" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="C296" s="20" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="D296" s="12"/>
     </row>
@@ -5660,10 +5665,10 @@
         <v>292</v>
       </c>
       <c r="B297" s="15" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="C297" s="20" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="D297" s="12"/>
     </row>
@@ -5673,10 +5678,10 @@
         <v>293</v>
       </c>
       <c r="B298" s="15" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="C298" s="20" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="D298" s="12"/>
     </row>
@@ -5686,10 +5691,10 @@
         <v>294</v>
       </c>
       <c r="B299" s="15" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="C299" s="20" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="D299" s="12"/>
     </row>
@@ -5699,10 +5704,10 @@
         <v>295</v>
       </c>
       <c r="B300" s="15" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="C300" s="20" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="D300" s="12"/>
     </row>
@@ -5712,10 +5717,10 @@
         <v>296</v>
       </c>
       <c r="B301" s="15" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="C301" s="20" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="D301" s="12"/>
     </row>
@@ -5725,10 +5730,10 @@
         <v>297</v>
       </c>
       <c r="B302" s="15" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="C302" s="20" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="D302" s="12"/>
     </row>
@@ -5738,10 +5743,10 @@
         <v>298</v>
       </c>
       <c r="B303" s="15" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="C303" s="20" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="D303" s="12"/>
     </row>
@@ -5751,10 +5756,10 @@
         <v>299</v>
       </c>
       <c r="B304" s="15" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="C304" s="20" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="D304" s="12"/>
     </row>
@@ -5764,10 +5769,10 @@
         <v>300</v>
       </c>
       <c r="B305" s="15" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="C305" s="20" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="D305" s="12"/>
     </row>
@@ -5777,10 +5782,10 @@
         <v>301</v>
       </c>
       <c r="B306" s="15" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="C306" s="20" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="D306" s="12"/>
     </row>
@@ -5790,10 +5795,10 @@
         <v>302</v>
       </c>
       <c r="B307" s="15" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="C307" s="20" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="D307" s="12"/>
     </row>
@@ -5803,10 +5808,10 @@
         <v>303</v>
       </c>
       <c r="B308" s="15" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="C308" s="20" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="D308" s="12"/>
     </row>
@@ -5816,10 +5821,10 @@
         <v>304</v>
       </c>
       <c r="B309" s="15" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="C309" s="20" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="D309" s="12"/>
     </row>
@@ -5829,10 +5834,10 @@
         <v>305</v>
       </c>
       <c r="B310" s="15" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="C310" s="20" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="D310" s="12"/>
     </row>
@@ -5842,10 +5847,10 @@
         <v>306</v>
       </c>
       <c r="B311" s="15" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="C311" s="20" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="D311" s="12"/>
     </row>
@@ -5855,10 +5860,10 @@
         <v>307</v>
       </c>
       <c r="B312" s="15" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="C312" s="20" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="D312" s="12"/>
     </row>
@@ -5868,10 +5873,10 @@
         <v>308</v>
       </c>
       <c r="B313" s="15" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="C313" s="20" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="D313" s="12"/>
     </row>
@@ -5881,10 +5886,10 @@
         <v>309</v>
       </c>
       <c r="B314" s="15" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="C314" s="20" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="D314" s="12"/>
     </row>
@@ -5894,10 +5899,10 @@
         <v>310</v>
       </c>
       <c r="B315" s="15" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="C315" s="20" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="D315" s="12"/>
     </row>
@@ -5907,10 +5912,10 @@
         <v>311</v>
       </c>
       <c r="B316" s="10" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="C316" s="20" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="D316" s="12"/>
     </row>
@@ -5920,10 +5925,10 @@
         <v>312</v>
       </c>
       <c r="B317" s="10" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="C317" s="20" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="D317" s="12"/>
     </row>
@@ -5933,10 +5938,10 @@
         <v>313</v>
       </c>
       <c r="B318" s="10" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="C318" s="20" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="D318" s="12"/>
     </row>
@@ -5946,10 +5951,10 @@
         <v>314</v>
       </c>
       <c r="B319" s="10" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="C319" s="20" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="D319" s="12"/>
     </row>
@@ -5959,10 +5964,10 @@
         <v>315</v>
       </c>
       <c r="B320" s="10" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="C320" s="20" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="D320" s="12"/>
     </row>
@@ -5972,10 +5977,10 @@
         <v>316</v>
       </c>
       <c r="B321" s="10" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="C321" s="20" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="D321" s="12"/>
     </row>
@@ -5985,10 +5990,10 @@
         <v>317</v>
       </c>
       <c r="B322" s="10" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="C322" s="20" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="D322" s="12"/>
     </row>
@@ -5998,10 +6003,10 @@
         <v>318</v>
       </c>
       <c r="B323" s="10" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="C323" s="20" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="D323" s="12"/>
     </row>
@@ -6011,10 +6016,10 @@
         <v>319</v>
       </c>
       <c r="B324" s="10" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="C324" s="22" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="D324" s="12"/>
     </row>
@@ -6024,10 +6029,10 @@
         <v>320</v>
       </c>
       <c r="B325" s="10" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="C325" s="20" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="D325" s="12"/>
     </row>
@@ -6037,10 +6042,10 @@
         <v>321</v>
       </c>
       <c r="B326" s="10" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="C326" s="20" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="D326" s="12"/>
     </row>
@@ -6050,10 +6055,10 @@
         <v>322</v>
       </c>
       <c r="B327" s="10" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="C327" s="20" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="D327" s="12"/>
     </row>
@@ -6063,10 +6068,10 @@
         <v>323</v>
       </c>
       <c r="B328" s="10" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="C328" s="20" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="D328" s="12"/>
     </row>
@@ -6076,10 +6081,10 @@
         <v>324</v>
       </c>
       <c r="B329" s="10" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="C329" s="20" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="D329" s="12"/>
     </row>
@@ -6089,10 +6094,10 @@
         <v>325</v>
       </c>
       <c r="B330" s="10" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="C330" s="20" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="D330" s="12"/>
     </row>
@@ -6102,10 +6107,10 @@
         <v>326</v>
       </c>
       <c r="B331" s="10" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="C331" s="20" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="D331" s="12"/>
     </row>
@@ -6115,10 +6120,10 @@
         <v>327</v>
       </c>
       <c r="B332" s="10" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="C332" s="20" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="D332" s="12"/>
     </row>
@@ -6128,10 +6133,10 @@
         <v>328</v>
       </c>
       <c r="B333" s="10" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="C333" s="20" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="D333" s="12"/>
     </row>
@@ -6141,10 +6146,10 @@
         <v>329</v>
       </c>
       <c r="B334" s="15" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="C334" s="20" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="D334" s="12"/>
     </row>
@@ -6154,10 +6159,10 @@
         <v>330</v>
       </c>
       <c r="B335" s="15" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="C335" s="20" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="D335" s="12"/>
     </row>
@@ -6167,10 +6172,10 @@
         <v>331</v>
       </c>
       <c r="B336" s="15" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="C336" s="20" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="D336" s="12"/>
     </row>
@@ -6180,10 +6185,10 @@
         <v>332</v>
       </c>
       <c r="B337" s="15" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="C337" s="20" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="D337" s="12"/>
     </row>
@@ -6193,10 +6198,10 @@
         <v>333</v>
       </c>
       <c r="B338" s="15" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="C338" s="20" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="D338" s="12"/>
     </row>
@@ -6206,10 +6211,10 @@
         <v>334</v>
       </c>
       <c r="B339" s="15" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="C339" s="20" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="D339" s="12"/>
     </row>
@@ -6219,10 +6224,10 @@
         <v>335</v>
       </c>
       <c r="B340" s="15" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="C340" s="20" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="D340" s="12"/>
     </row>
@@ -6232,10 +6237,10 @@
         <v>336</v>
       </c>
       <c r="B341" s="15" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="C341" s="20" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="D341" s="12"/>
     </row>
@@ -6245,10 +6250,10 @@
         <v>337</v>
       </c>
       <c r="B342" s="15" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="C342" s="20" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D342" s="12"/>
     </row>
@@ -6258,10 +6263,10 @@
         <v>338</v>
       </c>
       <c r="B343" s="15" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="C343" s="20" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="D343" s="12"/>
     </row>
@@ -6271,10 +6276,10 @@
         <v>339</v>
       </c>
       <c r="B344" s="15" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="C344" s="20" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="D344" s="12"/>
     </row>
@@ -6284,10 +6289,10 @@
         <v>340</v>
       </c>
       <c r="B345" s="15" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="C345" s="20" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="D345" s="12"/>
     </row>
@@ -6297,10 +6302,10 @@
         <v>341</v>
       </c>
       <c r="B346" s="15" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="C346" s="20" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="D346" s="12"/>
     </row>
@@ -6310,10 +6315,10 @@
         <v>342</v>
       </c>
       <c r="B347" s="15" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="C347" s="20" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="D347" s="12"/>
     </row>
@@ -6323,10 +6328,10 @@
         <v>343</v>
       </c>
       <c r="B348" s="15" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="C348" s="20" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="D348" s="12"/>
     </row>
@@ -6336,10 +6341,10 @@
         <v>344</v>
       </c>
       <c r="B349" s="15" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="C349" s="20" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="D349" s="12"/>
     </row>
@@ -6349,10 +6354,10 @@
         <v>345</v>
       </c>
       <c r="B350" s="15" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="C350" s="20" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="D350" s="12"/>
     </row>
@@ -6362,10 +6367,10 @@
         <v>346</v>
       </c>
       <c r="B351" s="15" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="C351" s="20" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="D351" s="12"/>
     </row>
@@ -6375,10 +6380,10 @@
         <v>347</v>
       </c>
       <c r="B352" s="15" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="C352" s="20" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="D352" s="12"/>
     </row>
@@ -6388,10 +6393,10 @@
         <v>348</v>
       </c>
       <c r="B353" s="15" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="C353" s="20" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="D353" s="12"/>
     </row>
@@ -6401,10 +6406,10 @@
         <v>349</v>
       </c>
       <c r="B354" s="15" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="C354" s="20" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="D354" s="12"/>
     </row>
@@ -6414,10 +6419,10 @@
         <v>350</v>
       </c>
       <c r="B355" s="15" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="C355" s="20" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="D355" s="12"/>
     </row>
@@ -6427,10 +6432,10 @@
         <v>351</v>
       </c>
       <c r="B356" s="15" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="C356" s="20" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="D356" s="12"/>
     </row>
@@ -6440,10 +6445,10 @@
         <v>352</v>
       </c>
       <c r="B357" s="15" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="C357" s="20" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="D357" s="12"/>
     </row>
@@ -6453,10 +6458,10 @@
         <v>353</v>
       </c>
       <c r="B358" s="15" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="C358" s="20" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="D358" s="12"/>
     </row>
@@ -6466,10 +6471,10 @@
         <v>354</v>
       </c>
       <c r="B359" s="15" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="C359" s="20" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="D359" s="12"/>
     </row>
@@ -6479,10 +6484,10 @@
         <v>355</v>
       </c>
       <c r="B360" s="15" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="C360" s="20" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="D360" s="12"/>
     </row>
@@ -6492,10 +6497,10 @@
         <v>356</v>
       </c>
       <c r="B361" s="15" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="C361" s="20" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="D361" s="12"/>
     </row>
@@ -6505,10 +6510,10 @@
         <v>357</v>
       </c>
       <c r="B362" s="15" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="C362" s="20" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="D362" s="12"/>
     </row>
@@ -6518,10 +6523,10 @@
         <v>358</v>
       </c>
       <c r="B363" s="15" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="C363" s="20" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="D363" s="12"/>
     </row>
@@ -6531,10 +6536,10 @@
         <v>359</v>
       </c>
       <c r="B364" s="15" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="C364" s="20" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="D364" s="12"/>
     </row>
@@ -6544,10 +6549,10 @@
         <v>360</v>
       </c>
       <c r="B365" s="15" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="C365" s="20" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="D365" s="12"/>
     </row>
@@ -6557,10 +6562,10 @@
         <v>361</v>
       </c>
       <c r="B366" s="15" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="C366" s="20" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="D366" s="12"/>
     </row>
@@ -6570,10 +6575,10 @@
         <v>362</v>
       </c>
       <c r="B367" s="15" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="C367" s="20" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="D367" s="12"/>
     </row>
@@ -6583,10 +6588,10 @@
         <v>363</v>
       </c>
       <c r="B368" s="15" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="C368" s="20" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="D368" s="12"/>
     </row>
@@ -6596,10 +6601,10 @@
         <v>364</v>
       </c>
       <c r="B369" s="15" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="C369" s="20" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="D369" s="12"/>
     </row>
@@ -6609,10 +6614,10 @@
         <v>365</v>
       </c>
       <c r="B370" s="15" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="C370" s="20" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="D370" s="12"/>
     </row>
@@ -6622,10 +6627,10 @@
         <v>366</v>
       </c>
       <c r="B371" s="15" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="C371" s="20" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="D371" s="12"/>
     </row>
@@ -6635,10 +6640,10 @@
         <v>367</v>
       </c>
       <c r="B372" s="15" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="C372" s="20" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="D372" s="12"/>
     </row>
@@ -6648,10 +6653,10 @@
         <v>368</v>
       </c>
       <c r="B373" s="15" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="C373" s="20" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="D373" s="12"/>
     </row>
@@ -6661,10 +6666,10 @@
         <v>369</v>
       </c>
       <c r="B374" s="15" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="C374" s="20" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="D374" s="12"/>
     </row>
@@ -6674,10 +6679,10 @@
         <v>370</v>
       </c>
       <c r="B375" s="15" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="C375" s="20" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="D375" s="12"/>
     </row>
@@ -6687,10 +6692,10 @@
         <v>371</v>
       </c>
       <c r="B376" s="15" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="C376" s="20" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="D376" s="12"/>
     </row>
@@ -6700,10 +6705,10 @@
         <v>372</v>
       </c>
       <c r="B377" s="15" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="C377" s="20" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="D377" s="12"/>
     </row>
@@ -6713,10 +6718,10 @@
         <v>373</v>
       </c>
       <c r="B378" s="10" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="C378" s="20" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="D378" s="12"/>
     </row>
@@ -6726,10 +6731,10 @@
         <v>374</v>
       </c>
       <c r="B379" s="10" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="C379" s="20" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="D379" s="12"/>
     </row>
@@ -6739,10 +6744,10 @@
         <v>375</v>
       </c>
       <c r="B380" s="10" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="C380" s="20" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="D380" s="12"/>
     </row>
@@ -6752,10 +6757,10 @@
         <v>376</v>
       </c>
       <c r="B381" s="10" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="C381" s="20" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D381" s="12"/>
     </row>
@@ -6765,10 +6770,10 @@
         <v>377</v>
       </c>
       <c r="B382" s="10" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="C382" s="20" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="D382" s="12"/>
     </row>
@@ -6778,10 +6783,10 @@
         <v>378</v>
       </c>
       <c r="B383" s="10" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="C383" s="20" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="D383" s="12"/>
     </row>
@@ -6791,10 +6796,10 @@
         <v>379</v>
       </c>
       <c r="B384" s="15" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="C384" s="20" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="D384" s="12"/>
     </row>
@@ -6804,10 +6809,10 @@
         <v>380</v>
       </c>
       <c r="B385" s="15" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="C385" s="20" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="D385" s="12"/>
     </row>
@@ -6817,10 +6822,10 @@
         <v>381</v>
       </c>
       <c r="B386" s="15" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="C386" s="20" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="D386" s="12"/>
     </row>
@@ -6830,10 +6835,10 @@
         <v>382</v>
       </c>
       <c r="B387" s="15" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="C387" s="20" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="D387" s="12"/>
     </row>
@@ -6843,10 +6848,10 @@
         <v>383</v>
       </c>
       <c r="B388" s="15" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="C388" s="20" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="D388" s="12"/>
     </row>
@@ -6856,10 +6861,10 @@
         <v>384</v>
       </c>
       <c r="B389" s="15" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="C389" s="20" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="D389" s="12"/>
     </row>
@@ -6869,10 +6874,10 @@
         <v>385</v>
       </c>
       <c r="B390" s="15" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="C390" s="20" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="D390" s="12"/>
     </row>
@@ -6882,10 +6887,10 @@
         <v>386</v>
       </c>
       <c r="B391" s="15" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="C391" s="20" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="D391" s="12"/>
     </row>
@@ -6895,10 +6900,10 @@
         <v>387</v>
       </c>
       <c r="B392" s="15" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="C392" s="20" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="D392" s="12"/>
     </row>
@@ -6908,10 +6913,10 @@
         <v>388</v>
       </c>
       <c r="B393" s="15" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="C393" s="20" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="D393" s="12"/>
     </row>
@@ -6921,10 +6926,10 @@
         <v>389</v>
       </c>
       <c r="B394" s="15" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="C394" s="20" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="D394" s="12"/>
     </row>
@@ -6934,10 +6939,10 @@
         <v>390</v>
       </c>
       <c r="B395" s="15" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="C395" s="20" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="D395" s="12"/>
     </row>
@@ -6947,10 +6952,10 @@
         <v>391</v>
       </c>
       <c r="B396" s="15" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="C396" s="20" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="D396" s="12"/>
     </row>
@@ -6960,10 +6965,10 @@
         <v>392</v>
       </c>
       <c r="B397" s="15" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="C397" s="20" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="D397" s="12"/>
     </row>
@@ -6973,10 +6978,10 @@
         <v>393</v>
       </c>
       <c r="B398" s="15" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="C398" s="20" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="D398" s="12"/>
     </row>
@@ -6986,10 +6991,10 @@
         <v>394</v>
       </c>
       <c r="B399" s="15" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="C399" s="20" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="D399" s="12"/>
     </row>
@@ -6999,10 +7004,10 @@
         <v>395</v>
       </c>
       <c r="B400" s="15" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="C400" s="20" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="D400" s="12"/>
     </row>
@@ -7012,10 +7017,10 @@
         <v>396</v>
       </c>
       <c r="B401" s="15" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="C401" s="20" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="D401" s="12"/>
     </row>
@@ -7025,10 +7030,10 @@
         <v>397</v>
       </c>
       <c r="B402" s="15" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="C402" s="20" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="D402" s="12"/>
     </row>
@@ -7038,10 +7043,10 @@
         <v>398</v>
       </c>
       <c r="B403" s="15" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="C403" s="20" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="D403" s="12"/>
     </row>
@@ -7051,10 +7056,10 @@
         <v>399</v>
       </c>
       <c r="B404" s="15" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="C404" s="20" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="D404" s="12"/>
     </row>
@@ -7064,10 +7069,10 @@
         <v>400</v>
       </c>
       <c r="B405" s="15" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="C405" s="20" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="D405" s="12"/>
     </row>
@@ -7077,10 +7082,10 @@
         <v>401</v>
       </c>
       <c r="B406" s="15" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="C406" s="20" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="D406" s="12"/>
     </row>
@@ -7090,10 +7095,10 @@
         <v>402</v>
       </c>
       <c r="B407" s="15" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="C407" s="20" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="D407" s="12"/>
     </row>
@@ -7103,10 +7108,10 @@
         <v>403</v>
       </c>
       <c r="B408" s="15" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="C408" s="20" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="D408" s="12"/>
     </row>
@@ -7116,10 +7121,10 @@
         <v>404</v>
       </c>
       <c r="B409" s="15" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="C409" s="20" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="D409" s="12"/>
     </row>
@@ -7129,10 +7134,10 @@
         <v>405</v>
       </c>
       <c r="B410" s="15" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="C410" s="20" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="D410" s="12"/>
     </row>
@@ -7142,10 +7147,10 @@
         <v>406</v>
       </c>
       <c r="B411" s="15" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="C411" s="20" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="D411" s="12"/>
     </row>
@@ -7155,10 +7160,10 @@
         <v>407</v>
       </c>
       <c r="B412" s="15" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="C412" s="20" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="D412" s="12"/>
     </row>
@@ -7168,10 +7173,10 @@
         <v>408</v>
       </c>
       <c r="B413" s="15" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="C413" s="20" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="D413" s="12"/>
     </row>
@@ -7181,10 +7186,10 @@
         <v>409</v>
       </c>
       <c r="B414" s="15" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="C414" s="20" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="D414" s="12"/>
     </row>
@@ -7194,10 +7199,10 @@
         <v>410</v>
       </c>
       <c r="B415" s="15" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="C415" s="20" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="D415" s="12"/>
     </row>
@@ -7207,10 +7212,10 @@
         <v>411</v>
       </c>
       <c r="B416" s="15" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="C416" s="20" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="D416" s="12"/>
     </row>
@@ -7220,10 +7225,10 @@
         <v>412</v>
       </c>
       <c r="B417" s="15" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="C417" s="20" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="D417" s="12"/>
     </row>
@@ -7233,10 +7238,10 @@
         <v>413</v>
       </c>
       <c r="B418" s="15" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="C418" s="20" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="D418" s="12"/>
     </row>
@@ -7246,10 +7251,10 @@
         <v>414</v>
       </c>
       <c r="B419" s="15" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="C419" s="20" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="D419" s="12"/>
     </row>
@@ -7259,10 +7264,10 @@
         <v>415</v>
       </c>
       <c r="B420" s="15" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="C420" s="20" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="D420" s="12"/>
     </row>
@@ -7272,10 +7277,10 @@
         <v>416</v>
       </c>
       <c r="B421" s="15" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="C421" s="20" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="D421" s="12"/>
     </row>
@@ -7285,10 +7290,10 @@
         <v>417</v>
       </c>
       <c r="B422" s="15" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="C422" s="20" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="D422" s="12"/>
     </row>
@@ -7298,10 +7303,10 @@
         <v>418</v>
       </c>
       <c r="B423" s="15" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="C423" s="20" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="D423" s="12"/>
     </row>
@@ -7311,10 +7316,10 @@
         <v>419</v>
       </c>
       <c r="B424" s="15" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="C424" s="20" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="D424" s="12"/>
     </row>
@@ -7324,10 +7329,10 @@
         <v>420</v>
       </c>
       <c r="B425" s="15" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="C425" s="20" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="D425" s="12"/>
     </row>
@@ -7337,10 +7342,10 @@
         <v>421</v>
       </c>
       <c r="B426" s="15" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="C426" s="20" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="D426" s="12"/>
     </row>
@@ -7350,10 +7355,10 @@
         <v>422</v>
       </c>
       <c r="B427" s="15" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="C427" s="20" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="D427" s="12"/>
     </row>
@@ -7363,10 +7368,10 @@
         <v>423</v>
       </c>
       <c r="B428" s="15" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="C428" s="20" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="D428" s="12"/>
     </row>
@@ -7376,10 +7381,10 @@
         <v>424</v>
       </c>
       <c r="B429" s="15" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="C429" s="20" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="D429" s="12"/>
     </row>
@@ -7389,10 +7394,10 @@
         <v>425</v>
       </c>
       <c r="B430" s="15" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="C430" s="20" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="D430" s="12"/>
     </row>
@@ -7402,10 +7407,10 @@
         <v>426</v>
       </c>
       <c r="B431" s="15" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="C431" s="20" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="D431" s="12"/>
     </row>
@@ -7415,10 +7420,10 @@
         <v>427</v>
       </c>
       <c r="B432" s="15" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="C432" s="20" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="D432" s="12"/>
     </row>
@@ -7428,10 +7433,10 @@
         <v>428</v>
       </c>
       <c r="B433" s="15" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="C433" s="20" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="D433" s="12"/>
     </row>
@@ -7441,10 +7446,10 @@
         <v>429</v>
       </c>
       <c r="B434" s="15" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="C434" s="20" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="D434" s="12"/>
     </row>
@@ -7454,10 +7459,10 @@
         <v>430</v>
       </c>
       <c r="B435" s="15" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="C435" s="20" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="D435" s="12"/>
     </row>
@@ -7467,10 +7472,10 @@
         <v>431</v>
       </c>
       <c r="B436" s="15" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="C436" s="20" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="D436" s="12"/>
     </row>
@@ -7480,10 +7485,10 @@
         <v>432</v>
       </c>
       <c r="B437" s="15" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="C437" s="20" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="D437" s="12"/>
     </row>
@@ -7493,10 +7498,10 @@
         <v>433</v>
       </c>
       <c r="B438" s="15" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="C438" s="20" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="D438" s="12"/>
     </row>
@@ -7506,10 +7511,10 @@
         <v>434</v>
       </c>
       <c r="B439" s="15" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="C439" s="20" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="D439" s="12"/>
     </row>
@@ -7519,10 +7524,10 @@
         <v>435</v>
       </c>
       <c r="B440" s="15" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="C440" s="20" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="D440" s="12"/>
     </row>
@@ -7532,10 +7537,10 @@
         <v>436</v>
       </c>
       <c r="B441" s="15" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="C441" s="20" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="D441" s="12"/>
     </row>
@@ -7545,10 +7550,10 @@
         <v>437</v>
       </c>
       <c r="B442" s="15" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="C442" s="20" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="D442" s="12"/>
     </row>
@@ -7558,10 +7563,10 @@
         <v>438</v>
       </c>
       <c r="B443" s="15" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="C443" s="20" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="D443" s="12"/>
     </row>
@@ -7571,10 +7576,10 @@
         <v>439</v>
       </c>
       <c r="B444" s="10" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="C444" s="20" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="D444" s="12"/>
     </row>
@@ -7584,10 +7589,10 @@
         <v>440</v>
       </c>
       <c r="B445" s="10" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="C445" s="20" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="D445" s="12"/>
     </row>
@@ -7597,10 +7602,10 @@
         <v>441</v>
       </c>
       <c r="B446" s="10" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="C446" s="20" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="D446" s="12"/>
     </row>
@@ -7610,10 +7615,10 @@
         <v>442</v>
       </c>
       <c r="B447" s="10" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="C447" s="20" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="D447" s="12"/>
     </row>
@@ -7623,10 +7628,10 @@
         <v>443</v>
       </c>
       <c r="B448" s="10" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="C448" s="20" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="D448" s="12"/>
     </row>
@@ -7636,10 +7641,10 @@
         <v>444</v>
       </c>
       <c r="B449" s="10" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="C449" s="20" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="D449" s="12"/>
     </row>
@@ -7649,10 +7654,10 @@
         <v>445</v>
       </c>
       <c r="B450" s="10" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="C450" s="20" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="D450" s="12"/>
     </row>
@@ -7662,10 +7667,10 @@
         <v>446</v>
       </c>
       <c r="B451" s="10" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="C451" s="20" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="D451" s="12"/>
     </row>
@@ -7675,10 +7680,10 @@
         <v>447</v>
       </c>
       <c r="B452" s="10" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="C452" s="20" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="D452" s="12"/>
     </row>
@@ -7688,10 +7693,10 @@
         <v>448</v>
       </c>
       <c r="B453" s="10" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="C453" s="20" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="D453" s="12"/>
     </row>
@@ -7782,7 +7787,7 @@
     <hyperlink ref="C45" r:id="rId41" display="Find row with maximum no. of 1's"/>
     <hyperlink ref="C46" r:id="rId42" display="Print elements in sorted order using row-column wise sorted matrix (generalised form: MxN matrix)"/>
     <hyperlink ref="C47" r:id="rId43" display="Maximum size rectangle"/>
-    <hyperlink ref="C48" r:id="rId44" display="Find a specific pair in matrix"/>
+    <hyperlink ref="C48" r:id="rId44" display="Find the maximum difference in the matrix (find specific pair in a matrix)"/>
     <hyperlink ref="C49" r:id="rId45" display="Rotate a matrix by 90deg"/>
     <hyperlink ref="C50" r:id="rId46" display="Kth smallest element in a row-column wise sorted matrix"/>
     <hyperlink ref="C51" r:id="rId47" display="Common elements in all rows of a given matrix"/>

--- a/DSA_450_LoveBabbar.xlsx
+++ b/DSA_450_LoveBabbar.xlsx
@@ -1839,11 +1839,11 @@
   </sheetPr>
   <dimension ref="A1:D467"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A33" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C51" activeCellId="0" sqref="C51"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A40" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C53" activeCellId="0" sqref="C53"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6796875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.6875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.63"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="28.24"/>
@@ -2490,7 +2490,7 @@
       <c r="B52" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="C52" s="20" t="s">
+      <c r="C52" s="13" t="s">
         <v>57</v>
       </c>
       <c r="D52" s="12"/>

--- a/DSA_450_LoveBabbar.xlsx
+++ b/DSA_450_LoveBabbar.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="904" uniqueCount="467">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="905" uniqueCount="468">
   <si>
     <t xml:space="preserve">Questions by Love Babbar:</t>
   </si>
@@ -225,6 +225,9 @@
     <t xml:space="preserve">Why strings are immutable in Java?</t>
   </si>
   <si>
+    <t xml:space="preserve">Because of the ‘String Constant Pool’ concept</t>
+  </si>
+  <si>
     <t xml:space="preserve">Write a Code to check whether one string is a rotation of another</t>
   </si>
   <si>
@@ -1450,7 +1453,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="14">
+  <fonts count="15">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -1547,6 +1550,13 @@
     <font>
       <sz val="16"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF00A933"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
@@ -1666,7 +1676,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="25">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1747,6 +1757,14 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="13" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1820,7 +1838,7 @@
       <rgbColor rgb="FF666699"/>
       <rgbColor rgb="FF999999"/>
       <rgbColor rgb="FF003366"/>
-      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF00A933"/>
       <rgbColor rgb="FF003300"/>
       <rgbColor rgb="FF333300"/>
       <rgbColor rgb="FFC9211E"/>
@@ -1840,10 +1858,10 @@
   <dimension ref="A1:D467"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A40" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C53" activeCellId="0" sqref="C53"/>
+      <selection pane="topLeft" activeCell="D56" activeCellId="0" sqref="D56"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.6953125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.63"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="28.24"/>
@@ -2503,7 +2521,7 @@
       <c r="B53" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="C53" s="20" t="s">
+      <c r="C53" s="13" t="s">
         <v>58</v>
       </c>
       <c r="D53" s="12"/>
@@ -2516,7 +2534,7 @@
       <c r="B54" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="C54" s="20" t="s">
+      <c r="C54" s="13" t="s">
         <v>59</v>
       </c>
       <c r="D54" s="12"/>
@@ -2529,10 +2547,12 @@
       <c r="B55" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="C55" s="21" t="s">
+      <c r="C55" s="20" t="s">
         <v>60</v>
       </c>
-      <c r="D55" s="12"/>
+      <c r="D55" s="21" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="56" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="6" t="n">
@@ -2542,8 +2562,8 @@
       <c r="B56" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="C56" s="20" t="s">
-        <v>61</v>
+      <c r="C56" s="22" t="s">
+        <v>62</v>
       </c>
       <c r="D56" s="12"/>
     </row>
@@ -2555,8 +2575,8 @@
       <c r="B57" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="C57" s="20" t="s">
-        <v>62</v>
+      <c r="C57" s="22" t="s">
+        <v>63</v>
       </c>
       <c r="D57" s="12"/>
     </row>
@@ -2568,8 +2588,8 @@
       <c r="B58" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="C58" s="20" t="s">
-        <v>63</v>
+      <c r="C58" s="22" t="s">
+        <v>64</v>
       </c>
       <c r="D58" s="12"/>
     </row>
@@ -2581,8 +2601,8 @@
       <c r="B59" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="C59" s="20" t="s">
-        <v>64</v>
+      <c r="C59" s="22" t="s">
+        <v>65</v>
       </c>
       <c r="D59" s="12"/>
     </row>
@@ -2594,8 +2614,8 @@
       <c r="B60" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="C60" s="20" t="s">
-        <v>65</v>
+      <c r="C60" s="22" t="s">
+        <v>66</v>
       </c>
       <c r="D60" s="12"/>
     </row>
@@ -2607,8 +2627,8 @@
       <c r="B61" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="C61" s="20" t="s">
-        <v>66</v>
+      <c r="C61" s="22" t="s">
+        <v>67</v>
       </c>
       <c r="D61" s="12"/>
     </row>
@@ -2620,8 +2640,8 @@
       <c r="B62" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="C62" s="20" t="s">
-        <v>67</v>
+      <c r="C62" s="22" t="s">
+        <v>68</v>
       </c>
       <c r="D62" s="12"/>
     </row>
@@ -2633,8 +2653,8 @@
       <c r="B63" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="C63" s="20" t="s">
-        <v>68</v>
+      <c r="C63" s="22" t="s">
+        <v>69</v>
       </c>
       <c r="D63" s="12"/>
     </row>
@@ -2646,8 +2666,8 @@
       <c r="B64" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="C64" s="20" t="s">
-        <v>69</v>
+      <c r="C64" s="22" t="s">
+        <v>70</v>
       </c>
       <c r="D64" s="12"/>
     </row>
@@ -2659,8 +2679,8 @@
       <c r="B65" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="C65" s="20" t="s">
-        <v>70</v>
+      <c r="C65" s="22" t="s">
+        <v>71</v>
       </c>
       <c r="D65" s="12"/>
     </row>
@@ -2672,8 +2692,8 @@
       <c r="B66" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="C66" s="20" t="s">
-        <v>71</v>
+      <c r="C66" s="22" t="s">
+        <v>72</v>
       </c>
       <c r="D66" s="12"/>
     </row>
@@ -2685,8 +2705,8 @@
       <c r="B67" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="C67" s="20" t="s">
-        <v>72</v>
+      <c r="C67" s="22" t="s">
+        <v>73</v>
       </c>
       <c r="D67" s="12"/>
     </row>
@@ -2698,8 +2718,8 @@
       <c r="B68" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="C68" s="20" t="s">
-        <v>73</v>
+      <c r="C68" s="22" t="s">
+        <v>74</v>
       </c>
       <c r="D68" s="12"/>
     </row>
@@ -2711,8 +2731,8 @@
       <c r="B69" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="C69" s="20" t="s">
-        <v>74</v>
+      <c r="C69" s="22" t="s">
+        <v>75</v>
       </c>
       <c r="D69" s="12"/>
     </row>
@@ -2724,8 +2744,8 @@
       <c r="B70" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="C70" s="20" t="s">
-        <v>75</v>
+      <c r="C70" s="22" t="s">
+        <v>76</v>
       </c>
       <c r="D70" s="12"/>
     </row>
@@ -2737,8 +2757,8 @@
       <c r="B71" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="C71" s="20" t="s">
-        <v>76</v>
+      <c r="C71" s="22" t="s">
+        <v>77</v>
       </c>
       <c r="D71" s="12"/>
     </row>
@@ -2750,8 +2770,8 @@
       <c r="B72" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="C72" s="20" t="s">
-        <v>77</v>
+      <c r="C72" s="22" t="s">
+        <v>78</v>
       </c>
       <c r="D72" s="12"/>
     </row>
@@ -2763,8 +2783,8 @@
       <c r="B73" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="C73" s="20" t="s">
-        <v>78</v>
+      <c r="C73" s="22" t="s">
+        <v>79</v>
       </c>
       <c r="D73" s="12"/>
     </row>
@@ -2776,8 +2796,8 @@
       <c r="B74" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="C74" s="20" t="s">
-        <v>79</v>
+      <c r="C74" s="22" t="s">
+        <v>80</v>
       </c>
       <c r="D74" s="12"/>
     </row>
@@ -2789,8 +2809,8 @@
       <c r="B75" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="C75" s="20" t="s">
-        <v>80</v>
+      <c r="C75" s="22" t="s">
+        <v>81</v>
       </c>
       <c r="D75" s="12"/>
     </row>
@@ -2802,8 +2822,8 @@
       <c r="B76" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="C76" s="20" t="s">
-        <v>81</v>
+      <c r="C76" s="22" t="s">
+        <v>82</v>
       </c>
       <c r="D76" s="12"/>
     </row>
@@ -2815,8 +2835,8 @@
       <c r="B77" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="C77" s="20" t="s">
-        <v>82</v>
+      <c r="C77" s="22" t="s">
+        <v>83</v>
       </c>
       <c r="D77" s="12"/>
     </row>
@@ -2828,8 +2848,8 @@
       <c r="B78" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="C78" s="20" t="s">
-        <v>83</v>
+      <c r="C78" s="22" t="s">
+        <v>84</v>
       </c>
       <c r="D78" s="12"/>
     </row>
@@ -2841,8 +2861,8 @@
       <c r="B79" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="C79" s="20" t="s">
-        <v>84</v>
+      <c r="C79" s="22" t="s">
+        <v>85</v>
       </c>
       <c r="D79" s="12"/>
     </row>
@@ -2854,8 +2874,8 @@
       <c r="B80" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="C80" s="20" t="s">
-        <v>85</v>
+      <c r="C80" s="22" t="s">
+        <v>86</v>
       </c>
       <c r="D80" s="12"/>
     </row>
@@ -2867,8 +2887,8 @@
       <c r="B81" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="C81" s="20" t="s">
-        <v>86</v>
+      <c r="C81" s="22" t="s">
+        <v>87</v>
       </c>
       <c r="D81" s="12"/>
     </row>
@@ -2880,8 +2900,8 @@
       <c r="B82" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="C82" s="20" t="s">
-        <v>87</v>
+      <c r="C82" s="22" t="s">
+        <v>88</v>
       </c>
       <c r="D82" s="12"/>
     </row>
@@ -2893,8 +2913,8 @@
       <c r="B83" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="C83" s="20" t="s">
-        <v>88</v>
+      <c r="C83" s="22" t="s">
+        <v>89</v>
       </c>
       <c r="D83" s="12"/>
     </row>
@@ -2906,8 +2926,8 @@
       <c r="B84" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="C84" s="20" t="s">
-        <v>89</v>
+      <c r="C84" s="22" t="s">
+        <v>90</v>
       </c>
       <c r="D84" s="12"/>
     </row>
@@ -2919,8 +2939,8 @@
       <c r="B85" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="C85" s="20" t="s">
-        <v>90</v>
+      <c r="C85" s="22" t="s">
+        <v>91</v>
       </c>
       <c r="D85" s="12"/>
     </row>
@@ -2932,8 +2952,8 @@
       <c r="B86" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="C86" s="20" t="s">
-        <v>91</v>
+      <c r="C86" s="22" t="s">
+        <v>92</v>
       </c>
       <c r="D86" s="12"/>
     </row>
@@ -2945,8 +2965,8 @@
       <c r="B87" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="C87" s="20" t="s">
-        <v>92</v>
+      <c r="C87" s="22" t="s">
+        <v>93</v>
       </c>
       <c r="D87" s="12"/>
     </row>
@@ -2958,8 +2978,8 @@
       <c r="B88" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="C88" s="20" t="s">
-        <v>93</v>
+      <c r="C88" s="22" t="s">
+        <v>94</v>
       </c>
       <c r="D88" s="12"/>
     </row>
@@ -2971,8 +2991,8 @@
       <c r="B89" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="C89" s="20" t="s">
-        <v>94</v>
+      <c r="C89" s="22" t="s">
+        <v>95</v>
       </c>
       <c r="D89" s="12"/>
     </row>
@@ -2984,8 +3004,8 @@
       <c r="B90" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="C90" s="20" t="s">
-        <v>95</v>
+      <c r="C90" s="22" t="s">
+        <v>96</v>
       </c>
       <c r="D90" s="12"/>
     </row>
@@ -2997,8 +3017,8 @@
       <c r="B91" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="C91" s="20" t="s">
-        <v>96</v>
+      <c r="C91" s="22" t="s">
+        <v>97</v>
       </c>
       <c r="D91" s="12"/>
     </row>
@@ -3010,8 +3030,8 @@
       <c r="B92" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="C92" s="20" t="s">
-        <v>97</v>
+      <c r="C92" s="22" t="s">
+        <v>98</v>
       </c>
       <c r="D92" s="12"/>
     </row>
@@ -3023,8 +3043,8 @@
       <c r="B93" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="C93" s="20" t="s">
-        <v>98</v>
+      <c r="C93" s="22" t="s">
+        <v>99</v>
       </c>
       <c r="D93" s="12"/>
     </row>
@@ -3036,8 +3056,8 @@
       <c r="B94" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="C94" s="20" t="s">
-        <v>99</v>
+      <c r="C94" s="22" t="s">
+        <v>100</v>
       </c>
       <c r="D94" s="12"/>
     </row>
@@ -3047,10 +3067,10 @@
         <v>90</v>
       </c>
       <c r="B95" s="15" t="s">
-        <v>100</v>
-      </c>
-      <c r="C95" s="20" t="s">
         <v>101</v>
+      </c>
+      <c r="C95" s="22" t="s">
+        <v>102</v>
       </c>
       <c r="D95" s="12"/>
     </row>
@@ -3060,10 +3080,10 @@
         <v>91</v>
       </c>
       <c r="B96" s="15" t="s">
-        <v>100</v>
-      </c>
-      <c r="C96" s="20" t="s">
-        <v>102</v>
+        <v>101</v>
+      </c>
+      <c r="C96" s="22" t="s">
+        <v>103</v>
       </c>
       <c r="D96" s="12"/>
     </row>
@@ -3073,10 +3093,10 @@
         <v>92</v>
       </c>
       <c r="B97" s="15" t="s">
-        <v>100</v>
-      </c>
-      <c r="C97" s="20" t="s">
-        <v>103</v>
+        <v>101</v>
+      </c>
+      <c r="C97" s="22" t="s">
+        <v>104</v>
       </c>
       <c r="D97" s="12"/>
     </row>
@@ -3086,10 +3106,10 @@
         <v>93</v>
       </c>
       <c r="B98" s="15" t="s">
-        <v>100</v>
-      </c>
-      <c r="C98" s="20" t="s">
-        <v>104</v>
+        <v>101</v>
+      </c>
+      <c r="C98" s="22" t="s">
+        <v>105</v>
       </c>
       <c r="D98" s="12"/>
     </row>
@@ -3099,10 +3119,10 @@
         <v>94</v>
       </c>
       <c r="B99" s="15" t="s">
-        <v>100</v>
-      </c>
-      <c r="C99" s="20" t="s">
-        <v>105</v>
+        <v>101</v>
+      </c>
+      <c r="C99" s="22" t="s">
+        <v>106</v>
       </c>
       <c r="D99" s="12"/>
     </row>
@@ -3112,10 +3132,10 @@
         <v>95</v>
       </c>
       <c r="B100" s="15" t="s">
-        <v>100</v>
-      </c>
-      <c r="C100" s="20" t="s">
-        <v>106</v>
+        <v>101</v>
+      </c>
+      <c r="C100" s="22" t="s">
+        <v>107</v>
       </c>
       <c r="D100" s="12"/>
     </row>
@@ -3125,10 +3145,10 @@
         <v>96</v>
       </c>
       <c r="B101" s="15" t="s">
-        <v>100</v>
-      </c>
-      <c r="C101" s="20" t="s">
-        <v>107</v>
+        <v>101</v>
+      </c>
+      <c r="C101" s="22" t="s">
+        <v>108</v>
       </c>
       <c r="D101" s="12"/>
     </row>
@@ -3138,10 +3158,10 @@
         <v>97</v>
       </c>
       <c r="B102" s="15" t="s">
-        <v>100</v>
-      </c>
-      <c r="C102" s="20" t="s">
-        <v>108</v>
+        <v>101</v>
+      </c>
+      <c r="C102" s="22" t="s">
+        <v>109</v>
       </c>
       <c r="D102" s="12"/>
     </row>
@@ -3151,10 +3171,10 @@
         <v>98</v>
       </c>
       <c r="B103" s="15" t="s">
-        <v>100</v>
-      </c>
-      <c r="C103" s="20" t="s">
-        <v>109</v>
+        <v>101</v>
+      </c>
+      <c r="C103" s="22" t="s">
+        <v>110</v>
       </c>
       <c r="D103" s="12"/>
     </row>
@@ -3164,10 +3184,10 @@
         <v>99</v>
       </c>
       <c r="B104" s="15" t="s">
-        <v>100</v>
-      </c>
-      <c r="C104" s="20" t="s">
-        <v>110</v>
+        <v>101</v>
+      </c>
+      <c r="C104" s="22" t="s">
+        <v>111</v>
       </c>
       <c r="D104" s="12"/>
     </row>
@@ -3177,10 +3197,10 @@
         <v>100</v>
       </c>
       <c r="B105" s="15" t="s">
-        <v>100</v>
-      </c>
-      <c r="C105" s="20" t="s">
-        <v>111</v>
+        <v>101</v>
+      </c>
+      <c r="C105" s="22" t="s">
+        <v>112</v>
       </c>
       <c r="D105" s="12"/>
     </row>
@@ -3190,10 +3210,10 @@
         <v>101</v>
       </c>
       <c r="B106" s="15" t="s">
-        <v>100</v>
-      </c>
-      <c r="C106" s="20" t="s">
-        <v>112</v>
+        <v>101</v>
+      </c>
+      <c r="C106" s="22" t="s">
+        <v>113</v>
       </c>
       <c r="D106" s="12"/>
     </row>
@@ -3203,10 +3223,10 @@
         <v>102</v>
       </c>
       <c r="B107" s="15" t="s">
-        <v>100</v>
-      </c>
-      <c r="C107" s="20" t="s">
-        <v>113</v>
+        <v>101</v>
+      </c>
+      <c r="C107" s="22" t="s">
+        <v>114</v>
       </c>
       <c r="D107" s="12"/>
     </row>
@@ -3216,10 +3236,10 @@
         <v>103</v>
       </c>
       <c r="B108" s="15" t="s">
-        <v>100</v>
-      </c>
-      <c r="C108" s="20" t="s">
-        <v>114</v>
+        <v>101</v>
+      </c>
+      <c r="C108" s="22" t="s">
+        <v>115</v>
       </c>
       <c r="D108" s="12"/>
     </row>
@@ -3229,10 +3249,10 @@
         <v>104</v>
       </c>
       <c r="B109" s="15" t="s">
-        <v>100</v>
-      </c>
-      <c r="C109" s="20" t="s">
-        <v>115</v>
+        <v>101</v>
+      </c>
+      <c r="C109" s="22" t="s">
+        <v>116</v>
       </c>
       <c r="D109" s="12"/>
     </row>
@@ -3242,10 +3262,10 @@
         <v>105</v>
       </c>
       <c r="B110" s="15" t="s">
-        <v>100</v>
-      </c>
-      <c r="C110" s="20" t="s">
-        <v>116</v>
+        <v>101</v>
+      </c>
+      <c r="C110" s="22" t="s">
+        <v>117</v>
       </c>
       <c r="D110" s="12"/>
     </row>
@@ -3255,10 +3275,10 @@
         <v>106</v>
       </c>
       <c r="B111" s="15" t="s">
-        <v>100</v>
-      </c>
-      <c r="C111" s="20" t="s">
-        <v>117</v>
+        <v>101</v>
+      </c>
+      <c r="C111" s="22" t="s">
+        <v>118</v>
       </c>
       <c r="D111" s="12"/>
     </row>
@@ -3268,10 +3288,10 @@
         <v>107</v>
       </c>
       <c r="B112" s="15" t="s">
-        <v>100</v>
-      </c>
-      <c r="C112" s="20" t="s">
-        <v>118</v>
+        <v>101</v>
+      </c>
+      <c r="C112" s="22" t="s">
+        <v>119</v>
       </c>
       <c r="D112" s="12"/>
     </row>
@@ -3281,10 +3301,10 @@
         <v>108</v>
       </c>
       <c r="B113" s="15" t="s">
-        <v>100</v>
-      </c>
-      <c r="C113" s="20" t="s">
-        <v>119</v>
+        <v>101</v>
+      </c>
+      <c r="C113" s="22" t="s">
+        <v>120</v>
       </c>
       <c r="D113" s="12"/>
     </row>
@@ -3294,10 +3314,10 @@
         <v>109</v>
       </c>
       <c r="B114" s="15" t="s">
-        <v>100</v>
-      </c>
-      <c r="C114" s="20" t="s">
-        <v>120</v>
+        <v>101</v>
+      </c>
+      <c r="C114" s="22" t="s">
+        <v>121</v>
       </c>
       <c r="D114" s="12"/>
     </row>
@@ -3307,10 +3327,10 @@
         <v>110</v>
       </c>
       <c r="B115" s="15" t="s">
-        <v>100</v>
-      </c>
-      <c r="C115" s="20" t="s">
-        <v>121</v>
+        <v>101</v>
+      </c>
+      <c r="C115" s="22" t="s">
+        <v>122</v>
       </c>
       <c r="D115" s="12"/>
     </row>
@@ -3320,10 +3340,10 @@
         <v>111</v>
       </c>
       <c r="B116" s="15" t="s">
-        <v>100</v>
-      </c>
-      <c r="C116" s="20" t="s">
-        <v>122</v>
+        <v>101</v>
+      </c>
+      <c r="C116" s="22" t="s">
+        <v>123</v>
       </c>
       <c r="D116" s="12"/>
     </row>
@@ -3333,10 +3353,10 @@
         <v>112</v>
       </c>
       <c r="B117" s="15" t="s">
-        <v>100</v>
-      </c>
-      <c r="C117" s="20" t="s">
-        <v>123</v>
+        <v>101</v>
+      </c>
+      <c r="C117" s="22" t="s">
+        <v>124</v>
       </c>
       <c r="D117" s="12"/>
     </row>
@@ -3346,10 +3366,10 @@
         <v>113</v>
       </c>
       <c r="B118" s="15" t="s">
-        <v>100</v>
-      </c>
-      <c r="C118" s="20" t="s">
-        <v>124</v>
+        <v>101</v>
+      </c>
+      <c r="C118" s="22" t="s">
+        <v>125</v>
       </c>
       <c r="D118" s="12"/>
     </row>
@@ -3359,10 +3379,10 @@
         <v>114</v>
       </c>
       <c r="B119" s="15" t="s">
-        <v>100</v>
-      </c>
-      <c r="C119" s="20" t="s">
-        <v>125</v>
+        <v>101</v>
+      </c>
+      <c r="C119" s="22" t="s">
+        <v>126</v>
       </c>
       <c r="D119" s="12"/>
     </row>
@@ -3372,10 +3392,10 @@
         <v>115</v>
       </c>
       <c r="B120" s="15" t="s">
-        <v>100</v>
-      </c>
-      <c r="C120" s="20" t="s">
-        <v>126</v>
+        <v>101</v>
+      </c>
+      <c r="C120" s="22" t="s">
+        <v>127</v>
       </c>
       <c r="D120" s="12"/>
     </row>
@@ -3385,10 +3405,10 @@
         <v>116</v>
       </c>
       <c r="B121" s="15" t="s">
-        <v>100</v>
-      </c>
-      <c r="C121" s="20" t="s">
-        <v>127</v>
+        <v>101</v>
+      </c>
+      <c r="C121" s="22" t="s">
+        <v>128</v>
       </c>
       <c r="D121" s="12"/>
     </row>
@@ -3398,10 +3418,10 @@
         <v>117</v>
       </c>
       <c r="B122" s="15" t="s">
-        <v>100</v>
-      </c>
-      <c r="C122" s="20" t="s">
-        <v>128</v>
+        <v>101</v>
+      </c>
+      <c r="C122" s="22" t="s">
+        <v>129</v>
       </c>
       <c r="D122" s="12"/>
     </row>
@@ -3411,10 +3431,10 @@
         <v>118</v>
       </c>
       <c r="B123" s="15" t="s">
-        <v>100</v>
-      </c>
-      <c r="C123" s="20" t="s">
-        <v>129</v>
+        <v>101</v>
+      </c>
+      <c r="C123" s="22" t="s">
+        <v>130</v>
       </c>
       <c r="D123" s="12"/>
     </row>
@@ -3424,10 +3444,10 @@
         <v>119</v>
       </c>
       <c r="B124" s="15" t="s">
-        <v>100</v>
-      </c>
-      <c r="C124" s="20" t="s">
-        <v>130</v>
+        <v>101</v>
+      </c>
+      <c r="C124" s="22" t="s">
+        <v>131</v>
       </c>
       <c r="D124" s="12"/>
     </row>
@@ -3437,10 +3457,10 @@
         <v>120</v>
       </c>
       <c r="B125" s="15" t="s">
-        <v>100</v>
-      </c>
-      <c r="C125" s="20" t="s">
-        <v>131</v>
+        <v>101</v>
+      </c>
+      <c r="C125" s="22" t="s">
+        <v>132</v>
       </c>
       <c r="D125" s="12"/>
     </row>
@@ -3450,10 +3470,10 @@
         <v>121</v>
       </c>
       <c r="B126" s="15" t="s">
-        <v>100</v>
-      </c>
-      <c r="C126" s="20" t="s">
-        <v>132</v>
+        <v>101</v>
+      </c>
+      <c r="C126" s="22" t="s">
+        <v>133</v>
       </c>
       <c r="D126" s="12"/>
     </row>
@@ -3463,10 +3483,10 @@
         <v>122</v>
       </c>
       <c r="B127" s="15" t="s">
-        <v>100</v>
-      </c>
-      <c r="C127" s="20" t="s">
-        <v>133</v>
+        <v>101</v>
+      </c>
+      <c r="C127" s="22" t="s">
+        <v>134</v>
       </c>
       <c r="D127" s="12"/>
     </row>
@@ -3476,10 +3496,10 @@
         <v>123</v>
       </c>
       <c r="B128" s="15" t="s">
-        <v>100</v>
-      </c>
-      <c r="C128" s="20" t="s">
-        <v>134</v>
+        <v>101</v>
+      </c>
+      <c r="C128" s="22" t="s">
+        <v>135</v>
       </c>
       <c r="D128" s="12"/>
     </row>
@@ -3489,10 +3509,10 @@
         <v>124</v>
       </c>
       <c r="B129" s="15" t="s">
-        <v>100</v>
-      </c>
-      <c r="C129" s="20" t="s">
-        <v>135</v>
+        <v>101</v>
+      </c>
+      <c r="C129" s="22" t="s">
+        <v>136</v>
       </c>
       <c r="D129" s="12"/>
     </row>
@@ -3502,10 +3522,10 @@
         <v>125</v>
       </c>
       <c r="B130" s="15" t="s">
-        <v>100</v>
-      </c>
-      <c r="C130" s="20" t="s">
-        <v>136</v>
+        <v>101</v>
+      </c>
+      <c r="C130" s="22" t="s">
+        <v>137</v>
       </c>
       <c r="D130" s="12"/>
     </row>
@@ -3515,10 +3535,10 @@
         <v>126</v>
       </c>
       <c r="B131" s="10" t="s">
-        <v>137</v>
-      </c>
-      <c r="C131" s="20" t="s">
         <v>138</v>
+      </c>
+      <c r="C131" s="22" t="s">
+        <v>139</v>
       </c>
       <c r="D131" s="12"/>
     </row>
@@ -3528,10 +3548,10 @@
         <v>127</v>
       </c>
       <c r="B132" s="10" t="s">
-        <v>137</v>
-      </c>
-      <c r="C132" s="20" t="s">
-        <v>139</v>
+        <v>138</v>
+      </c>
+      <c r="C132" s="22" t="s">
+        <v>140</v>
       </c>
       <c r="D132" s="12"/>
     </row>
@@ -3541,10 +3561,10 @@
         <v>128</v>
       </c>
       <c r="B133" s="10" t="s">
-        <v>137</v>
-      </c>
-      <c r="C133" s="20" t="s">
-        <v>140</v>
+        <v>138</v>
+      </c>
+      <c r="C133" s="22" t="s">
+        <v>141</v>
       </c>
       <c r="D133" s="12"/>
     </row>
@@ -3554,10 +3574,10 @@
         <v>129</v>
       </c>
       <c r="B134" s="10" t="s">
-        <v>137</v>
-      </c>
-      <c r="C134" s="20" t="s">
-        <v>141</v>
+        <v>138</v>
+      </c>
+      <c r="C134" s="22" t="s">
+        <v>142</v>
       </c>
       <c r="D134" s="12"/>
     </row>
@@ -3567,10 +3587,10 @@
         <v>130</v>
       </c>
       <c r="B135" s="10" t="s">
-        <v>137</v>
-      </c>
-      <c r="C135" s="20" t="s">
-        <v>142</v>
+        <v>138</v>
+      </c>
+      <c r="C135" s="22" t="s">
+        <v>143</v>
       </c>
       <c r="D135" s="12"/>
     </row>
@@ -3580,10 +3600,10 @@
         <v>131</v>
       </c>
       <c r="B136" s="10" t="s">
-        <v>137</v>
-      </c>
-      <c r="C136" s="20" t="s">
-        <v>143</v>
+        <v>138</v>
+      </c>
+      <c r="C136" s="22" t="s">
+        <v>144</v>
       </c>
       <c r="D136" s="12"/>
     </row>
@@ -3593,10 +3613,10 @@
         <v>132</v>
       </c>
       <c r="B137" s="10" t="s">
-        <v>137</v>
-      </c>
-      <c r="C137" s="20" t="s">
-        <v>144</v>
+        <v>138</v>
+      </c>
+      <c r="C137" s="22" t="s">
+        <v>145</v>
       </c>
       <c r="D137" s="12"/>
     </row>
@@ -3606,10 +3626,10 @@
         <v>133</v>
       </c>
       <c r="B138" s="10" t="s">
-        <v>137</v>
-      </c>
-      <c r="C138" s="20" t="s">
-        <v>145</v>
+        <v>138</v>
+      </c>
+      <c r="C138" s="22" t="s">
+        <v>146</v>
       </c>
       <c r="D138" s="12"/>
     </row>
@@ -3619,10 +3639,10 @@
         <v>134</v>
       </c>
       <c r="B139" s="10" t="s">
-        <v>137</v>
-      </c>
-      <c r="C139" s="20" t="s">
-        <v>146</v>
+        <v>138</v>
+      </c>
+      <c r="C139" s="22" t="s">
+        <v>147</v>
       </c>
       <c r="D139" s="12"/>
     </row>
@@ -3632,10 +3652,10 @@
         <v>135</v>
       </c>
       <c r="B140" s="10" t="s">
-        <v>137</v>
-      </c>
-      <c r="C140" s="20" t="s">
-        <v>147</v>
+        <v>138</v>
+      </c>
+      <c r="C140" s="22" t="s">
+        <v>148</v>
       </c>
       <c r="D140" s="12"/>
     </row>
@@ -3645,10 +3665,10 @@
         <v>136</v>
       </c>
       <c r="B141" s="10" t="s">
-        <v>137</v>
-      </c>
-      <c r="C141" s="20" t="s">
-        <v>148</v>
+        <v>138</v>
+      </c>
+      <c r="C141" s="22" t="s">
+        <v>149</v>
       </c>
       <c r="D141" s="12"/>
     </row>
@@ -3658,10 +3678,10 @@
         <v>137</v>
       </c>
       <c r="B142" s="10" t="s">
-        <v>137</v>
-      </c>
-      <c r="C142" s="20" t="s">
-        <v>149</v>
+        <v>138</v>
+      </c>
+      <c r="C142" s="22" t="s">
+        <v>150</v>
       </c>
       <c r="D142" s="12"/>
     </row>
@@ -3671,10 +3691,10 @@
         <v>138</v>
       </c>
       <c r="B143" s="10" t="s">
-        <v>137</v>
-      </c>
-      <c r="C143" s="20" t="s">
-        <v>150</v>
+        <v>138</v>
+      </c>
+      <c r="C143" s="22" t="s">
+        <v>151</v>
       </c>
       <c r="D143" s="12"/>
     </row>
@@ -3684,10 +3704,10 @@
         <v>139</v>
       </c>
       <c r="B144" s="10" t="s">
-        <v>137</v>
-      </c>
-      <c r="C144" s="20" t="s">
-        <v>151</v>
+        <v>138</v>
+      </c>
+      <c r="C144" s="22" t="s">
+        <v>152</v>
       </c>
       <c r="D144" s="12"/>
     </row>
@@ -3697,10 +3717,10 @@
         <v>140</v>
       </c>
       <c r="B145" s="10" t="s">
-        <v>137</v>
-      </c>
-      <c r="C145" s="20" t="s">
-        <v>152</v>
+        <v>138</v>
+      </c>
+      <c r="C145" s="22" t="s">
+        <v>153</v>
       </c>
       <c r="D145" s="12"/>
     </row>
@@ -3710,10 +3730,10 @@
         <v>141</v>
       </c>
       <c r="B146" s="10" t="s">
-        <v>137</v>
-      </c>
-      <c r="C146" s="20" t="s">
-        <v>153</v>
+        <v>138</v>
+      </c>
+      <c r="C146" s="22" t="s">
+        <v>154</v>
       </c>
       <c r="D146" s="12"/>
     </row>
@@ -3723,10 +3743,10 @@
         <v>142</v>
       </c>
       <c r="B147" s="10" t="s">
-        <v>137</v>
-      </c>
-      <c r="C147" s="20" t="s">
-        <v>154</v>
+        <v>138</v>
+      </c>
+      <c r="C147" s="22" t="s">
+        <v>155</v>
       </c>
       <c r="D147" s="12"/>
     </row>
@@ -3736,10 +3756,10 @@
         <v>143</v>
       </c>
       <c r="B148" s="10" t="s">
-        <v>137</v>
-      </c>
-      <c r="C148" s="20" t="s">
-        <v>155</v>
+        <v>138</v>
+      </c>
+      <c r="C148" s="22" t="s">
+        <v>156</v>
       </c>
       <c r="D148" s="12"/>
     </row>
@@ -3749,10 +3769,10 @@
         <v>144</v>
       </c>
       <c r="B149" s="10" t="s">
-        <v>137</v>
-      </c>
-      <c r="C149" s="20" t="s">
-        <v>156</v>
+        <v>138</v>
+      </c>
+      <c r="C149" s="22" t="s">
+        <v>157</v>
       </c>
       <c r="D149" s="12"/>
     </row>
@@ -3762,10 +3782,10 @@
         <v>145</v>
       </c>
       <c r="B150" s="10" t="s">
-        <v>137</v>
-      </c>
-      <c r="C150" s="20" t="s">
-        <v>157</v>
+        <v>138</v>
+      </c>
+      <c r="C150" s="22" t="s">
+        <v>158</v>
       </c>
       <c r="D150" s="12"/>
     </row>
@@ -3775,10 +3795,10 @@
         <v>146</v>
       </c>
       <c r="B151" s="10" t="s">
-        <v>137</v>
-      </c>
-      <c r="C151" s="20" t="s">
-        <v>158</v>
+        <v>138</v>
+      </c>
+      <c r="C151" s="22" t="s">
+        <v>159</v>
       </c>
       <c r="D151" s="12"/>
     </row>
@@ -3788,10 +3808,10 @@
         <v>147</v>
       </c>
       <c r="B152" s="10" t="s">
-        <v>137</v>
-      </c>
-      <c r="C152" s="20" t="s">
-        <v>159</v>
+        <v>138</v>
+      </c>
+      <c r="C152" s="22" t="s">
+        <v>160</v>
       </c>
       <c r="D152" s="12"/>
     </row>
@@ -3801,10 +3821,10 @@
         <v>148</v>
       </c>
       <c r="B153" s="10" t="s">
-        <v>137</v>
-      </c>
-      <c r="C153" s="20" t="s">
-        <v>160</v>
+        <v>138</v>
+      </c>
+      <c r="C153" s="22" t="s">
+        <v>161</v>
       </c>
       <c r="D153" s="12"/>
     </row>
@@ -3814,10 +3834,10 @@
         <v>149</v>
       </c>
       <c r="B154" s="10" t="s">
-        <v>137</v>
-      </c>
-      <c r="C154" s="20" t="s">
-        <v>161</v>
+        <v>138</v>
+      </c>
+      <c r="C154" s="22" t="s">
+        <v>162</v>
       </c>
       <c r="D154" s="12"/>
     </row>
@@ -3827,10 +3847,10 @@
         <v>150</v>
       </c>
       <c r="B155" s="10" t="s">
-        <v>137</v>
-      </c>
-      <c r="C155" s="20" t="s">
-        <v>162</v>
+        <v>138</v>
+      </c>
+      <c r="C155" s="22" t="s">
+        <v>163</v>
       </c>
       <c r="D155" s="12"/>
     </row>
@@ -3840,10 +3860,10 @@
         <v>151</v>
       </c>
       <c r="B156" s="10" t="s">
-        <v>137</v>
-      </c>
-      <c r="C156" s="21" t="s">
-        <v>163</v>
+        <v>138</v>
+      </c>
+      <c r="C156" s="23" t="s">
+        <v>164</v>
       </c>
       <c r="D156" s="12"/>
     </row>
@@ -3853,10 +3873,10 @@
         <v>152</v>
       </c>
       <c r="B157" s="10" t="s">
-        <v>137</v>
-      </c>
-      <c r="C157" s="21" t="s">
-        <v>164</v>
+        <v>138</v>
+      </c>
+      <c r="C157" s="23" t="s">
+        <v>165</v>
       </c>
       <c r="D157" s="12"/>
     </row>
@@ -3866,10 +3886,10 @@
         <v>153</v>
       </c>
       <c r="B158" s="10" t="s">
-        <v>137</v>
-      </c>
-      <c r="C158" s="20" t="s">
-        <v>165</v>
+        <v>138</v>
+      </c>
+      <c r="C158" s="22" t="s">
+        <v>166</v>
       </c>
       <c r="D158" s="12"/>
     </row>
@@ -3879,10 +3899,10 @@
         <v>154</v>
       </c>
       <c r="B159" s="10" t="s">
-        <v>137</v>
-      </c>
-      <c r="C159" s="20" t="s">
-        <v>166</v>
+        <v>138</v>
+      </c>
+      <c r="C159" s="22" t="s">
+        <v>167</v>
       </c>
       <c r="D159" s="12"/>
     </row>
@@ -3892,10 +3912,10 @@
         <v>155</v>
       </c>
       <c r="B160" s="10" t="s">
-        <v>137</v>
-      </c>
-      <c r="C160" s="20" t="s">
-        <v>167</v>
+        <v>138</v>
+      </c>
+      <c r="C160" s="22" t="s">
+        <v>168</v>
       </c>
       <c r="D160" s="12"/>
     </row>
@@ -3905,10 +3925,10 @@
         <v>156</v>
       </c>
       <c r="B161" s="10" t="s">
-        <v>137</v>
-      </c>
-      <c r="C161" s="20" t="s">
-        <v>168</v>
+        <v>138</v>
+      </c>
+      <c r="C161" s="22" t="s">
+        <v>169</v>
       </c>
       <c r="D161" s="12"/>
     </row>
@@ -3918,10 +3938,10 @@
         <v>157</v>
       </c>
       <c r="B162" s="10" t="s">
-        <v>137</v>
-      </c>
-      <c r="C162" s="20" t="s">
-        <v>169</v>
+        <v>138</v>
+      </c>
+      <c r="C162" s="22" t="s">
+        <v>170</v>
       </c>
       <c r="D162" s="12"/>
     </row>
@@ -3931,10 +3951,10 @@
         <v>158</v>
       </c>
       <c r="B163" s="10" t="s">
-        <v>137</v>
-      </c>
-      <c r="C163" s="20" t="s">
-        <v>170</v>
+        <v>138</v>
+      </c>
+      <c r="C163" s="22" t="s">
+        <v>171</v>
       </c>
       <c r="D163" s="12"/>
     </row>
@@ -3944,10 +3964,10 @@
         <v>159</v>
       </c>
       <c r="B164" s="10" t="s">
-        <v>137</v>
-      </c>
-      <c r="C164" s="20" t="s">
-        <v>171</v>
+        <v>138</v>
+      </c>
+      <c r="C164" s="22" t="s">
+        <v>172</v>
       </c>
       <c r="D164" s="12"/>
     </row>
@@ -3957,10 +3977,10 @@
         <v>160</v>
       </c>
       <c r="B165" s="10" t="s">
-        <v>137</v>
-      </c>
-      <c r="C165" s="20" t="s">
-        <v>172</v>
+        <v>138</v>
+      </c>
+      <c r="C165" s="22" t="s">
+        <v>173</v>
       </c>
       <c r="D165" s="12"/>
     </row>
@@ -3970,10 +3990,10 @@
         <v>161</v>
       </c>
       <c r="B166" s="10" t="s">
-        <v>137</v>
-      </c>
-      <c r="C166" s="20" t="s">
-        <v>173</v>
+        <v>138</v>
+      </c>
+      <c r="C166" s="22" t="s">
+        <v>174</v>
       </c>
       <c r="D166" s="12"/>
     </row>
@@ -3983,10 +4003,10 @@
         <v>162</v>
       </c>
       <c r="B167" s="15" t="s">
-        <v>174</v>
-      </c>
-      <c r="C167" s="20" t="s">
         <v>175</v>
+      </c>
+      <c r="C167" s="22" t="s">
+        <v>176</v>
       </c>
       <c r="D167" s="12"/>
     </row>
@@ -3996,10 +4016,10 @@
         <v>163</v>
       </c>
       <c r="B168" s="15" t="s">
-        <v>174</v>
-      </c>
-      <c r="C168" s="20" t="s">
-        <v>176</v>
+        <v>175</v>
+      </c>
+      <c r="C168" s="22" t="s">
+        <v>177</v>
       </c>
       <c r="D168" s="12"/>
     </row>
@@ -4009,10 +4029,10 @@
         <v>164</v>
       </c>
       <c r="B169" s="15" t="s">
-        <v>174</v>
-      </c>
-      <c r="C169" s="20" t="s">
-        <v>177</v>
+        <v>175</v>
+      </c>
+      <c r="C169" s="22" t="s">
+        <v>178</v>
       </c>
       <c r="D169" s="12"/>
     </row>
@@ -4022,10 +4042,10 @@
         <v>165</v>
       </c>
       <c r="B170" s="15" t="s">
-        <v>174</v>
-      </c>
-      <c r="C170" s="20" t="s">
-        <v>178</v>
+        <v>175</v>
+      </c>
+      <c r="C170" s="22" t="s">
+        <v>179</v>
       </c>
       <c r="D170" s="12"/>
     </row>
@@ -4035,10 +4055,10 @@
         <v>166</v>
       </c>
       <c r="B171" s="15" t="s">
-        <v>174</v>
-      </c>
-      <c r="C171" s="20" t="s">
-        <v>179</v>
+        <v>175</v>
+      </c>
+      <c r="C171" s="22" t="s">
+        <v>180</v>
       </c>
       <c r="D171" s="12"/>
     </row>
@@ -4048,10 +4068,10 @@
         <v>167</v>
       </c>
       <c r="B172" s="15" t="s">
-        <v>174</v>
-      </c>
-      <c r="C172" s="20" t="s">
-        <v>180</v>
+        <v>175</v>
+      </c>
+      <c r="C172" s="22" t="s">
+        <v>181</v>
       </c>
       <c r="D172" s="12"/>
     </row>
@@ -4061,10 +4081,10 @@
         <v>168</v>
       </c>
       <c r="B173" s="15" t="s">
-        <v>174</v>
-      </c>
-      <c r="C173" s="20" t="s">
-        <v>181</v>
+        <v>175</v>
+      </c>
+      <c r="C173" s="22" t="s">
+        <v>182</v>
       </c>
       <c r="D173" s="12"/>
     </row>
@@ -4074,10 +4094,10 @@
         <v>169</v>
       </c>
       <c r="B174" s="15" t="s">
-        <v>174</v>
-      </c>
-      <c r="C174" s="20" t="s">
-        <v>182</v>
+        <v>175</v>
+      </c>
+      <c r="C174" s="22" t="s">
+        <v>183</v>
       </c>
       <c r="D174" s="12"/>
     </row>
@@ -4087,10 +4107,10 @@
         <v>170</v>
       </c>
       <c r="B175" s="15" t="s">
-        <v>174</v>
-      </c>
-      <c r="C175" s="20" t="s">
-        <v>183</v>
+        <v>175</v>
+      </c>
+      <c r="C175" s="22" t="s">
+        <v>184</v>
       </c>
       <c r="D175" s="12"/>
     </row>
@@ -4100,10 +4120,10 @@
         <v>171</v>
       </c>
       <c r="B176" s="15" t="s">
-        <v>174</v>
-      </c>
-      <c r="C176" s="20" t="s">
-        <v>184</v>
+        <v>175</v>
+      </c>
+      <c r="C176" s="22" t="s">
+        <v>185</v>
       </c>
       <c r="D176" s="12"/>
     </row>
@@ -4113,10 +4133,10 @@
         <v>172</v>
       </c>
       <c r="B177" s="15" t="s">
-        <v>174</v>
-      </c>
-      <c r="C177" s="20" t="s">
-        <v>185</v>
+        <v>175</v>
+      </c>
+      <c r="C177" s="22" t="s">
+        <v>186</v>
       </c>
       <c r="D177" s="12"/>
     </row>
@@ -4126,10 +4146,10 @@
         <v>173</v>
       </c>
       <c r="B178" s="15" t="s">
-        <v>174</v>
-      </c>
-      <c r="C178" s="20" t="s">
-        <v>186</v>
+        <v>175</v>
+      </c>
+      <c r="C178" s="22" t="s">
+        <v>187</v>
       </c>
       <c r="D178" s="12"/>
     </row>
@@ -4139,10 +4159,10 @@
         <v>174</v>
       </c>
       <c r="B179" s="15" t="s">
-        <v>174</v>
-      </c>
-      <c r="C179" s="20" t="s">
-        <v>187</v>
+        <v>175</v>
+      </c>
+      <c r="C179" s="22" t="s">
+        <v>188</v>
       </c>
       <c r="D179" s="12"/>
     </row>
@@ -4152,10 +4172,10 @@
         <v>175</v>
       </c>
       <c r="B180" s="15" t="s">
-        <v>174</v>
-      </c>
-      <c r="C180" s="20" t="s">
-        <v>188</v>
+        <v>175</v>
+      </c>
+      <c r="C180" s="22" t="s">
+        <v>189</v>
       </c>
       <c r="D180" s="12"/>
     </row>
@@ -4165,10 +4185,10 @@
         <v>176</v>
       </c>
       <c r="B181" s="15" t="s">
-        <v>174</v>
-      </c>
-      <c r="C181" s="20" t="s">
-        <v>189</v>
+        <v>175</v>
+      </c>
+      <c r="C181" s="22" t="s">
+        <v>190</v>
       </c>
       <c r="D181" s="12"/>
     </row>
@@ -4178,10 +4198,10 @@
         <v>177</v>
       </c>
       <c r="B182" s="15" t="s">
-        <v>174</v>
-      </c>
-      <c r="C182" s="20" t="s">
-        <v>190</v>
+        <v>175</v>
+      </c>
+      <c r="C182" s="22" t="s">
+        <v>191</v>
       </c>
       <c r="D182" s="12"/>
     </row>
@@ -4191,10 +4211,10 @@
         <v>178</v>
       </c>
       <c r="B183" s="15" t="s">
-        <v>174</v>
-      </c>
-      <c r="C183" s="20" t="s">
-        <v>191</v>
+        <v>175</v>
+      </c>
+      <c r="C183" s="22" t="s">
+        <v>192</v>
       </c>
       <c r="D183" s="12"/>
     </row>
@@ -4204,10 +4224,10 @@
         <v>179</v>
       </c>
       <c r="B184" s="15" t="s">
-        <v>174</v>
-      </c>
-      <c r="C184" s="20" t="s">
-        <v>192</v>
+        <v>175</v>
+      </c>
+      <c r="C184" s="22" t="s">
+        <v>193</v>
       </c>
       <c r="D184" s="12"/>
     </row>
@@ -4217,10 +4237,10 @@
         <v>180</v>
       </c>
       <c r="B185" s="15" t="s">
-        <v>174</v>
-      </c>
-      <c r="C185" s="20" t="s">
-        <v>193</v>
+        <v>175</v>
+      </c>
+      <c r="C185" s="22" t="s">
+        <v>194</v>
       </c>
       <c r="D185" s="12"/>
     </row>
@@ -4230,10 +4250,10 @@
         <v>181</v>
       </c>
       <c r="B186" s="15" t="s">
-        <v>174</v>
-      </c>
-      <c r="C186" s="20" t="s">
-        <v>194</v>
+        <v>175</v>
+      </c>
+      <c r="C186" s="22" t="s">
+        <v>195</v>
       </c>
       <c r="D186" s="12"/>
     </row>
@@ -4243,10 +4263,10 @@
         <v>182</v>
       </c>
       <c r="B187" s="15" t="s">
-        <v>174</v>
-      </c>
-      <c r="C187" s="20" t="s">
-        <v>195</v>
+        <v>175</v>
+      </c>
+      <c r="C187" s="22" t="s">
+        <v>196</v>
       </c>
       <c r="D187" s="12"/>
     </row>
@@ -4256,10 +4276,10 @@
         <v>183</v>
       </c>
       <c r="B188" s="15" t="s">
-        <v>174</v>
-      </c>
-      <c r="C188" s="20" t="s">
-        <v>196</v>
+        <v>175</v>
+      </c>
+      <c r="C188" s="22" t="s">
+        <v>197</v>
       </c>
       <c r="D188" s="12"/>
     </row>
@@ -4269,10 +4289,10 @@
         <v>184</v>
       </c>
       <c r="B189" s="15" t="s">
-        <v>174</v>
-      </c>
-      <c r="C189" s="20" t="s">
-        <v>197</v>
+        <v>175</v>
+      </c>
+      <c r="C189" s="22" t="s">
+        <v>198</v>
       </c>
       <c r="D189" s="12"/>
     </row>
@@ -4282,10 +4302,10 @@
         <v>185</v>
       </c>
       <c r="B190" s="15" t="s">
-        <v>174</v>
-      </c>
-      <c r="C190" s="20" t="s">
-        <v>198</v>
+        <v>175</v>
+      </c>
+      <c r="C190" s="22" t="s">
+        <v>199</v>
       </c>
       <c r="D190" s="12"/>
     </row>
@@ -4295,10 +4315,10 @@
         <v>186</v>
       </c>
       <c r="B191" s="15" t="s">
-        <v>174</v>
-      </c>
-      <c r="C191" s="20" t="s">
-        <v>199</v>
+        <v>175</v>
+      </c>
+      <c r="C191" s="22" t="s">
+        <v>200</v>
       </c>
       <c r="D191" s="12"/>
     </row>
@@ -4308,10 +4328,10 @@
         <v>187</v>
       </c>
       <c r="B192" s="15" t="s">
-        <v>174</v>
-      </c>
-      <c r="C192" s="20" t="s">
-        <v>200</v>
+        <v>175</v>
+      </c>
+      <c r="C192" s="22" t="s">
+        <v>201</v>
       </c>
       <c r="D192" s="12"/>
     </row>
@@ -4321,10 +4341,10 @@
         <v>188</v>
       </c>
       <c r="B193" s="15" t="s">
-        <v>174</v>
-      </c>
-      <c r="C193" s="20" t="s">
-        <v>201</v>
+        <v>175</v>
+      </c>
+      <c r="C193" s="22" t="s">
+        <v>202</v>
       </c>
       <c r="D193" s="12"/>
     </row>
@@ -4334,10 +4354,10 @@
         <v>189</v>
       </c>
       <c r="B194" s="15" t="s">
-        <v>174</v>
-      </c>
-      <c r="C194" s="20" t="s">
-        <v>202</v>
+        <v>175</v>
+      </c>
+      <c r="C194" s="22" t="s">
+        <v>203</v>
       </c>
       <c r="D194" s="12"/>
     </row>
@@ -4347,10 +4367,10 @@
         <v>190</v>
       </c>
       <c r="B195" s="15" t="s">
-        <v>174</v>
-      </c>
-      <c r="C195" s="20" t="s">
-        <v>203</v>
+        <v>175</v>
+      </c>
+      <c r="C195" s="22" t="s">
+        <v>204</v>
       </c>
       <c r="D195" s="12"/>
     </row>
@@ -4360,10 +4380,10 @@
         <v>191</v>
       </c>
       <c r="B196" s="15" t="s">
-        <v>174</v>
-      </c>
-      <c r="C196" s="20" t="s">
-        <v>204</v>
+        <v>175</v>
+      </c>
+      <c r="C196" s="22" t="s">
+        <v>205</v>
       </c>
       <c r="D196" s="12"/>
     </row>
@@ -4373,10 +4393,10 @@
         <v>192</v>
       </c>
       <c r="B197" s="15" t="s">
-        <v>174</v>
-      </c>
-      <c r="C197" s="20" t="s">
-        <v>205</v>
+        <v>175</v>
+      </c>
+      <c r="C197" s="22" t="s">
+        <v>206</v>
       </c>
       <c r="D197" s="12"/>
     </row>
@@ -4386,10 +4406,10 @@
         <v>193</v>
       </c>
       <c r="B198" s="15" t="s">
-        <v>174</v>
-      </c>
-      <c r="C198" s="20" t="s">
-        <v>206</v>
+        <v>175</v>
+      </c>
+      <c r="C198" s="22" t="s">
+        <v>207</v>
       </c>
       <c r="D198" s="12"/>
     </row>
@@ -4399,10 +4419,10 @@
         <v>194</v>
       </c>
       <c r="B199" s="15" t="s">
-        <v>174</v>
-      </c>
-      <c r="C199" s="20" t="s">
-        <v>207</v>
+        <v>175</v>
+      </c>
+      <c r="C199" s="22" t="s">
+        <v>208</v>
       </c>
       <c r="D199" s="12"/>
     </row>
@@ -4412,10 +4432,10 @@
         <v>195</v>
       </c>
       <c r="B200" s="15" t="s">
-        <v>174</v>
-      </c>
-      <c r="C200" s="20" t="s">
-        <v>208</v>
+        <v>175</v>
+      </c>
+      <c r="C200" s="22" t="s">
+        <v>209</v>
       </c>
       <c r="D200" s="12"/>
     </row>
@@ -4425,10 +4445,10 @@
         <v>196</v>
       </c>
       <c r="B201" s="15" t="s">
-        <v>174</v>
-      </c>
-      <c r="C201" s="20" t="s">
-        <v>209</v>
+        <v>175</v>
+      </c>
+      <c r="C201" s="22" t="s">
+        <v>210</v>
       </c>
       <c r="D201" s="12"/>
     </row>
@@ -4438,10 +4458,10 @@
         <v>197</v>
       </c>
       <c r="B202" s="10" t="s">
-        <v>210</v>
-      </c>
-      <c r="C202" s="20" t="s">
         <v>211</v>
+      </c>
+      <c r="C202" s="22" t="s">
+        <v>212</v>
       </c>
     </row>
     <row r="203" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4450,10 +4470,10 @@
         <v>198</v>
       </c>
       <c r="B203" s="10" t="s">
-        <v>210</v>
-      </c>
-      <c r="C203" s="20" t="s">
-        <v>212</v>
+        <v>211</v>
+      </c>
+      <c r="C203" s="22" t="s">
+        <v>213</v>
       </c>
     </row>
     <row r="204" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4462,10 +4482,10 @@
         <v>199</v>
       </c>
       <c r="B204" s="10" t="s">
-        <v>210</v>
-      </c>
-      <c r="C204" s="20" t="s">
-        <v>213</v>
+        <v>211</v>
+      </c>
+      <c r="C204" s="22" t="s">
+        <v>214</v>
       </c>
     </row>
     <row r="205" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4474,10 +4494,10 @@
         <v>200</v>
       </c>
       <c r="B205" s="10" t="s">
-        <v>210</v>
-      </c>
-      <c r="C205" s="20" t="s">
-        <v>214</v>
+        <v>211</v>
+      </c>
+      <c r="C205" s="22" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="206" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4486,10 +4506,10 @@
         <v>201</v>
       </c>
       <c r="B206" s="10" t="s">
-        <v>210</v>
-      </c>
-      <c r="C206" s="20" t="s">
-        <v>215</v>
+        <v>211</v>
+      </c>
+      <c r="C206" s="22" t="s">
+        <v>216</v>
       </c>
     </row>
     <row r="207" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4498,10 +4518,10 @@
         <v>202</v>
       </c>
       <c r="B207" s="10" t="s">
-        <v>210</v>
-      </c>
-      <c r="C207" s="20" t="s">
-        <v>216</v>
+        <v>211</v>
+      </c>
+      <c r="C207" s="22" t="s">
+        <v>217</v>
       </c>
     </row>
     <row r="208" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4510,10 +4530,10 @@
         <v>203</v>
       </c>
       <c r="B208" s="10" t="s">
-        <v>210</v>
-      </c>
-      <c r="C208" s="22" t="s">
-        <v>217</v>
+        <v>211</v>
+      </c>
+      <c r="C208" s="24" t="s">
+        <v>218</v>
       </c>
     </row>
     <row r="209" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4522,10 +4542,10 @@
         <v>204</v>
       </c>
       <c r="B209" s="10" t="s">
-        <v>210</v>
-      </c>
-      <c r="C209" s="20" t="s">
-        <v>218</v>
+        <v>211</v>
+      </c>
+      <c r="C209" s="22" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="210" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4534,10 +4554,10 @@
         <v>205</v>
       </c>
       <c r="B210" s="10" t="s">
-        <v>210</v>
-      </c>
-      <c r="C210" s="20" t="s">
-        <v>219</v>
+        <v>211</v>
+      </c>
+      <c r="C210" s="22" t="s">
+        <v>220</v>
       </c>
       <c r="D210" s="12"/>
     </row>
@@ -4547,10 +4567,10 @@
         <v>206</v>
       </c>
       <c r="B211" s="10" t="s">
-        <v>210</v>
-      </c>
-      <c r="C211" s="20" t="s">
-        <v>220</v>
+        <v>211</v>
+      </c>
+      <c r="C211" s="22" t="s">
+        <v>221</v>
       </c>
       <c r="D211" s="12"/>
     </row>
@@ -4560,10 +4580,10 @@
         <v>207</v>
       </c>
       <c r="B212" s="10" t="s">
-        <v>210</v>
-      </c>
-      <c r="C212" s="20" t="s">
-        <v>221</v>
+        <v>211</v>
+      </c>
+      <c r="C212" s="22" t="s">
+        <v>222</v>
       </c>
       <c r="D212" s="12"/>
     </row>
@@ -4573,10 +4593,10 @@
         <v>208</v>
       </c>
       <c r="B213" s="10" t="s">
-        <v>210</v>
-      </c>
-      <c r="C213" s="20" t="s">
-        <v>222</v>
+        <v>211</v>
+      </c>
+      <c r="C213" s="22" t="s">
+        <v>223</v>
       </c>
       <c r="D213" s="12"/>
     </row>
@@ -4586,10 +4606,10 @@
         <v>209</v>
       </c>
       <c r="B214" s="10" t="s">
-        <v>210</v>
-      </c>
-      <c r="C214" s="20" t="s">
-        <v>223</v>
+        <v>211</v>
+      </c>
+      <c r="C214" s="22" t="s">
+        <v>224</v>
       </c>
       <c r="D214" s="12"/>
     </row>
@@ -4599,10 +4619,10 @@
         <v>210</v>
       </c>
       <c r="B215" s="10" t="s">
-        <v>210</v>
-      </c>
-      <c r="C215" s="20" t="s">
-        <v>224</v>
+        <v>211</v>
+      </c>
+      <c r="C215" s="22" t="s">
+        <v>225</v>
       </c>
       <c r="D215" s="12"/>
     </row>
@@ -4612,10 +4632,10 @@
         <v>211</v>
       </c>
       <c r="B216" s="10" t="s">
-        <v>210</v>
-      </c>
-      <c r="C216" s="20" t="s">
-        <v>225</v>
+        <v>211</v>
+      </c>
+      <c r="C216" s="22" t="s">
+        <v>226</v>
       </c>
       <c r="D216" s="12"/>
     </row>
@@ -4625,10 +4645,10 @@
         <v>212</v>
       </c>
       <c r="B217" s="10" t="s">
-        <v>210</v>
-      </c>
-      <c r="C217" s="20" t="s">
-        <v>226</v>
+        <v>211</v>
+      </c>
+      <c r="C217" s="22" t="s">
+        <v>227</v>
       </c>
       <c r="D217" s="12"/>
     </row>
@@ -4638,10 +4658,10 @@
         <v>213</v>
       </c>
       <c r="B218" s="10" t="s">
-        <v>210</v>
-      </c>
-      <c r="C218" s="20" t="s">
-        <v>227</v>
+        <v>211</v>
+      </c>
+      <c r="C218" s="22" t="s">
+        <v>228</v>
       </c>
       <c r="D218" s="12"/>
     </row>
@@ -4651,10 +4671,10 @@
         <v>214</v>
       </c>
       <c r="B219" s="10" t="s">
-        <v>210</v>
-      </c>
-      <c r="C219" s="20" t="s">
-        <v>228</v>
+        <v>211</v>
+      </c>
+      <c r="C219" s="22" t="s">
+        <v>229</v>
       </c>
       <c r="D219" s="12"/>
     </row>
@@ -4664,10 +4684,10 @@
         <v>215</v>
       </c>
       <c r="B220" s="10" t="s">
-        <v>210</v>
-      </c>
-      <c r="C220" s="20" t="s">
-        <v>229</v>
+        <v>211</v>
+      </c>
+      <c r="C220" s="22" t="s">
+        <v>230</v>
       </c>
       <c r="D220" s="12"/>
     </row>
@@ -4677,10 +4697,10 @@
         <v>216</v>
       </c>
       <c r="B221" s="10" t="s">
-        <v>210</v>
-      </c>
-      <c r="C221" s="20" t="s">
-        <v>230</v>
+        <v>211</v>
+      </c>
+      <c r="C221" s="22" t="s">
+        <v>231</v>
       </c>
       <c r="D221" s="12"/>
     </row>
@@ -4690,10 +4710,10 @@
         <v>217</v>
       </c>
       <c r="B222" s="10" t="s">
-        <v>210</v>
-      </c>
-      <c r="C222" s="20" t="s">
-        <v>231</v>
+        <v>211</v>
+      </c>
+      <c r="C222" s="22" t="s">
+        <v>232</v>
       </c>
       <c r="D222" s="12"/>
     </row>
@@ -4703,10 +4723,10 @@
         <v>218</v>
       </c>
       <c r="B223" s="10" t="s">
-        <v>210</v>
-      </c>
-      <c r="C223" s="20" t="s">
-        <v>232</v>
+        <v>211</v>
+      </c>
+      <c r="C223" s="22" t="s">
+        <v>233</v>
       </c>
       <c r="D223" s="12"/>
     </row>
@@ -4716,10 +4736,10 @@
         <v>219</v>
       </c>
       <c r="B224" s="15" t="s">
-        <v>233</v>
-      </c>
-      <c r="C224" s="20" t="s">
         <v>234</v>
+      </c>
+      <c r="C224" s="22" t="s">
+        <v>235</v>
       </c>
       <c r="D224" s="12"/>
     </row>
@@ -4729,10 +4749,10 @@
         <v>220</v>
       </c>
       <c r="B225" s="15" t="s">
-        <v>233</v>
-      </c>
-      <c r="C225" s="20" t="s">
-        <v>235</v>
+        <v>234</v>
+      </c>
+      <c r="C225" s="22" t="s">
+        <v>236</v>
       </c>
       <c r="D225" s="12"/>
     </row>
@@ -4742,10 +4762,10 @@
         <v>221</v>
       </c>
       <c r="B226" s="15" t="s">
-        <v>233</v>
-      </c>
-      <c r="C226" s="20" t="s">
-        <v>236</v>
+        <v>234</v>
+      </c>
+      <c r="C226" s="22" t="s">
+        <v>237</v>
       </c>
       <c r="D226" s="12"/>
     </row>
@@ -4755,10 +4775,10 @@
         <v>222</v>
       </c>
       <c r="B227" s="15" t="s">
-        <v>233</v>
-      </c>
-      <c r="C227" s="20" t="s">
-        <v>237</v>
+        <v>234</v>
+      </c>
+      <c r="C227" s="22" t="s">
+        <v>238</v>
       </c>
       <c r="D227" s="12"/>
     </row>
@@ -4768,10 +4788,10 @@
         <v>223</v>
       </c>
       <c r="B228" s="15" t="s">
-        <v>233</v>
-      </c>
-      <c r="C228" s="20" t="s">
-        <v>238</v>
+        <v>234</v>
+      </c>
+      <c r="C228" s="22" t="s">
+        <v>239</v>
       </c>
       <c r="D228" s="12"/>
     </row>
@@ -4781,10 +4801,10 @@
         <v>224</v>
       </c>
       <c r="B229" s="15" t="s">
-        <v>233</v>
-      </c>
-      <c r="C229" s="20" t="s">
-        <v>239</v>
+        <v>234</v>
+      </c>
+      <c r="C229" s="22" t="s">
+        <v>240</v>
       </c>
       <c r="D229" s="12"/>
     </row>
@@ -4794,10 +4814,10 @@
         <v>225</v>
       </c>
       <c r="B230" s="15" t="s">
-        <v>233</v>
-      </c>
-      <c r="C230" s="20" t="s">
-        <v>240</v>
+        <v>234</v>
+      </c>
+      <c r="C230" s="22" t="s">
+        <v>241</v>
       </c>
       <c r="D230" s="12"/>
     </row>
@@ -4807,10 +4827,10 @@
         <v>226</v>
       </c>
       <c r="B231" s="15" t="s">
-        <v>233</v>
-      </c>
-      <c r="C231" s="20" t="s">
-        <v>241</v>
+        <v>234</v>
+      </c>
+      <c r="C231" s="22" t="s">
+        <v>242</v>
       </c>
       <c r="D231" s="12"/>
     </row>
@@ -4820,10 +4840,10 @@
         <v>227</v>
       </c>
       <c r="B232" s="15" t="s">
-        <v>233</v>
-      </c>
-      <c r="C232" s="20" t="s">
-        <v>242</v>
+        <v>234</v>
+      </c>
+      <c r="C232" s="22" t="s">
+        <v>243</v>
       </c>
       <c r="D232" s="12"/>
     </row>
@@ -4833,10 +4853,10 @@
         <v>228</v>
       </c>
       <c r="B233" s="15" t="s">
-        <v>233</v>
-      </c>
-      <c r="C233" s="20" t="s">
-        <v>243</v>
+        <v>234</v>
+      </c>
+      <c r="C233" s="22" t="s">
+        <v>244</v>
       </c>
       <c r="D233" s="12"/>
     </row>
@@ -4846,10 +4866,10 @@
         <v>229</v>
       </c>
       <c r="B234" s="15" t="s">
-        <v>233</v>
-      </c>
-      <c r="C234" s="20" t="s">
-        <v>244</v>
+        <v>234</v>
+      </c>
+      <c r="C234" s="22" t="s">
+        <v>245</v>
       </c>
       <c r="D234" s="12"/>
     </row>
@@ -4859,10 +4879,10 @@
         <v>230</v>
       </c>
       <c r="B235" s="15" t="s">
-        <v>233</v>
-      </c>
-      <c r="C235" s="20" t="s">
-        <v>245</v>
+        <v>234</v>
+      </c>
+      <c r="C235" s="22" t="s">
+        <v>246</v>
       </c>
       <c r="D235" s="12"/>
     </row>
@@ -4872,10 +4892,10 @@
         <v>231</v>
       </c>
       <c r="B236" s="15" t="s">
-        <v>233</v>
-      </c>
-      <c r="C236" s="20" t="s">
-        <v>246</v>
+        <v>234</v>
+      </c>
+      <c r="C236" s="22" t="s">
+        <v>247</v>
       </c>
       <c r="D236" s="12"/>
     </row>
@@ -4885,10 +4905,10 @@
         <v>232</v>
       </c>
       <c r="B237" s="15" t="s">
-        <v>233</v>
-      </c>
-      <c r="C237" s="20" t="s">
-        <v>247</v>
+        <v>234</v>
+      </c>
+      <c r="C237" s="22" t="s">
+        <v>248</v>
       </c>
       <c r="D237" s="12"/>
     </row>
@@ -4898,10 +4918,10 @@
         <v>233</v>
       </c>
       <c r="B238" s="15" t="s">
-        <v>233</v>
-      </c>
-      <c r="C238" s="20" t="s">
-        <v>248</v>
+        <v>234</v>
+      </c>
+      <c r="C238" s="22" t="s">
+        <v>249</v>
       </c>
       <c r="D238" s="12"/>
     </row>
@@ -4911,10 +4931,10 @@
         <v>234</v>
       </c>
       <c r="B239" s="15" t="s">
-        <v>233</v>
-      </c>
-      <c r="C239" s="20" t="s">
-        <v>249</v>
+        <v>234</v>
+      </c>
+      <c r="C239" s="22" t="s">
+        <v>250</v>
       </c>
       <c r="D239" s="12"/>
     </row>
@@ -4924,10 +4944,10 @@
         <v>235</v>
       </c>
       <c r="B240" s="15" t="s">
-        <v>233</v>
-      </c>
-      <c r="C240" s="20" t="s">
-        <v>250</v>
+        <v>234</v>
+      </c>
+      <c r="C240" s="22" t="s">
+        <v>251</v>
       </c>
       <c r="D240" s="12"/>
     </row>
@@ -4937,10 +4957,10 @@
         <v>236</v>
       </c>
       <c r="B241" s="15" t="s">
-        <v>233</v>
-      </c>
-      <c r="C241" s="20" t="s">
-        <v>251</v>
+        <v>234</v>
+      </c>
+      <c r="C241" s="22" t="s">
+        <v>252</v>
       </c>
       <c r="D241" s="12"/>
     </row>
@@ -4950,10 +4970,10 @@
         <v>237</v>
       </c>
       <c r="B242" s="15" t="s">
-        <v>233</v>
-      </c>
-      <c r="C242" s="20" t="s">
-        <v>252</v>
+        <v>234</v>
+      </c>
+      <c r="C242" s="22" t="s">
+        <v>253</v>
       </c>
       <c r="D242" s="12"/>
     </row>
@@ -4963,10 +4983,10 @@
         <v>238</v>
       </c>
       <c r="B243" s="15" t="s">
-        <v>233</v>
-      </c>
-      <c r="C243" s="20" t="s">
-        <v>253</v>
+        <v>234</v>
+      </c>
+      <c r="C243" s="22" t="s">
+        <v>254</v>
       </c>
       <c r="D243" s="12"/>
     </row>
@@ -4976,10 +4996,10 @@
         <v>239</v>
       </c>
       <c r="B244" s="15" t="s">
-        <v>233</v>
-      </c>
-      <c r="C244" s="20" t="s">
-        <v>254</v>
+        <v>234</v>
+      </c>
+      <c r="C244" s="22" t="s">
+        <v>255</v>
       </c>
       <c r="D244" s="12"/>
     </row>
@@ -4989,10 +5009,10 @@
         <v>240</v>
       </c>
       <c r="B245" s="15" t="s">
-        <v>233</v>
-      </c>
-      <c r="C245" s="20" t="s">
-        <v>255</v>
+        <v>234</v>
+      </c>
+      <c r="C245" s="22" t="s">
+        <v>256</v>
       </c>
       <c r="D245" s="12"/>
     </row>
@@ -5002,10 +5022,10 @@
         <v>241</v>
       </c>
       <c r="B246" s="15" t="s">
-        <v>233</v>
-      </c>
-      <c r="C246" s="20" t="s">
-        <v>256</v>
+        <v>234</v>
+      </c>
+      <c r="C246" s="22" t="s">
+        <v>257</v>
       </c>
       <c r="D246" s="12"/>
     </row>
@@ -5015,10 +5035,10 @@
         <v>242</v>
       </c>
       <c r="B247" s="15" t="s">
-        <v>233</v>
-      </c>
-      <c r="C247" s="20" t="s">
-        <v>257</v>
+        <v>234</v>
+      </c>
+      <c r="C247" s="22" t="s">
+        <v>258</v>
       </c>
       <c r="D247" s="12"/>
     </row>
@@ -5028,10 +5048,10 @@
         <v>243</v>
       </c>
       <c r="B248" s="15" t="s">
-        <v>233</v>
-      </c>
-      <c r="C248" s="20" t="s">
-        <v>258</v>
+        <v>234</v>
+      </c>
+      <c r="C248" s="22" t="s">
+        <v>259</v>
       </c>
       <c r="D248" s="12"/>
     </row>
@@ -5041,10 +5061,10 @@
         <v>244</v>
       </c>
       <c r="B249" s="15" t="s">
-        <v>233</v>
-      </c>
-      <c r="C249" s="20" t="s">
-        <v>259</v>
+        <v>234</v>
+      </c>
+      <c r="C249" s="22" t="s">
+        <v>260</v>
       </c>
       <c r="D249" s="12"/>
     </row>
@@ -5054,10 +5074,10 @@
         <v>245</v>
       </c>
       <c r="B250" s="15" t="s">
-        <v>233</v>
-      </c>
-      <c r="C250" s="20" t="s">
-        <v>260</v>
+        <v>234</v>
+      </c>
+      <c r="C250" s="22" t="s">
+        <v>261</v>
       </c>
       <c r="D250" s="12"/>
     </row>
@@ -5067,10 +5087,10 @@
         <v>246</v>
       </c>
       <c r="B251" s="15" t="s">
-        <v>233</v>
-      </c>
-      <c r="C251" s="20" t="s">
-        <v>261</v>
+        <v>234</v>
+      </c>
+      <c r="C251" s="22" t="s">
+        <v>262</v>
       </c>
       <c r="D251" s="12"/>
     </row>
@@ -5080,10 +5100,10 @@
         <v>247</v>
       </c>
       <c r="B252" s="15" t="s">
-        <v>233</v>
-      </c>
-      <c r="C252" s="20" t="s">
-        <v>262</v>
+        <v>234</v>
+      </c>
+      <c r="C252" s="22" t="s">
+        <v>263</v>
       </c>
       <c r="D252" s="12"/>
     </row>
@@ -5093,10 +5113,10 @@
         <v>248</v>
       </c>
       <c r="B253" s="15" t="s">
-        <v>233</v>
-      </c>
-      <c r="C253" s="20" t="s">
-        <v>263</v>
+        <v>234</v>
+      </c>
+      <c r="C253" s="22" t="s">
+        <v>264</v>
       </c>
       <c r="D253" s="12"/>
     </row>
@@ -5106,10 +5126,10 @@
         <v>249</v>
       </c>
       <c r="B254" s="15" t="s">
-        <v>233</v>
-      </c>
-      <c r="C254" s="20" t="s">
-        <v>264</v>
+        <v>234</v>
+      </c>
+      <c r="C254" s="22" t="s">
+        <v>265</v>
       </c>
       <c r="D254" s="12"/>
     </row>
@@ -5119,10 +5139,10 @@
         <v>250</v>
       </c>
       <c r="B255" s="15" t="s">
-        <v>233</v>
-      </c>
-      <c r="C255" s="20" t="s">
-        <v>265</v>
+        <v>234</v>
+      </c>
+      <c r="C255" s="22" t="s">
+        <v>266</v>
       </c>
       <c r="D255" s="12"/>
     </row>
@@ -5132,10 +5152,10 @@
         <v>251</v>
       </c>
       <c r="B256" s="15" t="s">
-        <v>233</v>
-      </c>
-      <c r="C256" s="20" t="s">
-        <v>266</v>
+        <v>234</v>
+      </c>
+      <c r="C256" s="22" t="s">
+        <v>267</v>
       </c>
       <c r="D256" s="12"/>
     </row>
@@ -5145,10 +5165,10 @@
         <v>252</v>
       </c>
       <c r="B257" s="15" t="s">
-        <v>233</v>
-      </c>
-      <c r="C257" s="20" t="s">
-        <v>90</v>
+        <v>234</v>
+      </c>
+      <c r="C257" s="22" t="s">
+        <v>91</v>
       </c>
       <c r="D257" s="12"/>
     </row>
@@ -5158,10 +5178,10 @@
         <v>253</v>
       </c>
       <c r="B258" s="15" t="s">
-        <v>233</v>
-      </c>
-      <c r="C258" s="20" t="s">
-        <v>267</v>
+        <v>234</v>
+      </c>
+      <c r="C258" s="22" t="s">
+        <v>268</v>
       </c>
       <c r="D258" s="12"/>
     </row>
@@ -5171,10 +5191,10 @@
         <v>254</v>
       </c>
       <c r="B259" s="10" t="s">
-        <v>268</v>
-      </c>
-      <c r="C259" s="20" t="s">
         <v>269</v>
+      </c>
+      <c r="C259" s="22" t="s">
+        <v>270</v>
       </c>
       <c r="D259" s="12"/>
     </row>
@@ -5184,10 +5204,10 @@
         <v>255</v>
       </c>
       <c r="B260" s="10" t="s">
-        <v>268</v>
-      </c>
-      <c r="C260" s="20" t="s">
-        <v>270</v>
+        <v>269</v>
+      </c>
+      <c r="C260" s="22" t="s">
+        <v>271</v>
       </c>
       <c r="D260" s="12"/>
     </row>
@@ -5197,10 +5217,10 @@
         <v>256</v>
       </c>
       <c r="B261" s="10" t="s">
-        <v>268</v>
-      </c>
-      <c r="C261" s="20" t="s">
-        <v>271</v>
+        <v>269</v>
+      </c>
+      <c r="C261" s="22" t="s">
+        <v>272</v>
       </c>
       <c r="D261" s="12"/>
     </row>
@@ -5210,10 +5230,10 @@
         <v>257</v>
       </c>
       <c r="B262" s="10" t="s">
-        <v>268</v>
-      </c>
-      <c r="C262" s="20" t="s">
-        <v>272</v>
+        <v>269</v>
+      </c>
+      <c r="C262" s="22" t="s">
+        <v>273</v>
       </c>
       <c r="D262" s="12"/>
     </row>
@@ -5223,10 +5243,10 @@
         <v>258</v>
       </c>
       <c r="B263" s="10" t="s">
-        <v>268</v>
-      </c>
-      <c r="C263" s="20" t="s">
-        <v>273</v>
+        <v>269</v>
+      </c>
+      <c r="C263" s="22" t="s">
+        <v>274</v>
       </c>
       <c r="D263" s="12"/>
     </row>
@@ -5236,10 +5256,10 @@
         <v>259</v>
       </c>
       <c r="B264" s="10" t="s">
-        <v>268</v>
-      </c>
-      <c r="C264" s="20" t="s">
-        <v>274</v>
+        <v>269</v>
+      </c>
+      <c r="C264" s="22" t="s">
+        <v>275</v>
       </c>
       <c r="D264" s="12"/>
     </row>
@@ -5249,10 +5269,10 @@
         <v>260</v>
       </c>
       <c r="B265" s="10" t="s">
-        <v>268</v>
-      </c>
-      <c r="C265" s="20" t="s">
-        <v>275</v>
+        <v>269</v>
+      </c>
+      <c r="C265" s="22" t="s">
+        <v>276</v>
       </c>
       <c r="D265" s="12"/>
     </row>
@@ -5262,10 +5282,10 @@
         <v>261</v>
       </c>
       <c r="B266" s="10" t="s">
-        <v>268</v>
-      </c>
-      <c r="C266" s="20" t="s">
-        <v>276</v>
+        <v>269</v>
+      </c>
+      <c r="C266" s="22" t="s">
+        <v>277</v>
       </c>
       <c r="D266" s="12"/>
     </row>
@@ -5275,10 +5295,10 @@
         <v>262</v>
       </c>
       <c r="B267" s="10" t="s">
-        <v>268</v>
-      </c>
-      <c r="C267" s="20" t="s">
-        <v>277</v>
+        <v>269</v>
+      </c>
+      <c r="C267" s="22" t="s">
+        <v>278</v>
       </c>
       <c r="D267" s="12"/>
     </row>
@@ -5288,10 +5308,10 @@
         <v>263</v>
       </c>
       <c r="B268" s="10" t="s">
-        <v>268</v>
-      </c>
-      <c r="C268" s="20" t="s">
-        <v>278</v>
+        <v>269</v>
+      </c>
+      <c r="C268" s="22" t="s">
+        <v>279</v>
       </c>
       <c r="D268" s="12"/>
     </row>
@@ -5301,10 +5321,10 @@
         <v>264</v>
       </c>
       <c r="B269" s="10" t="s">
-        <v>268</v>
-      </c>
-      <c r="C269" s="20" t="s">
-        <v>279</v>
+        <v>269</v>
+      </c>
+      <c r="C269" s="22" t="s">
+        <v>280</v>
       </c>
       <c r="D269" s="12"/>
     </row>
@@ -5314,10 +5334,10 @@
         <v>265</v>
       </c>
       <c r="B270" s="10" t="s">
-        <v>268</v>
-      </c>
-      <c r="C270" s="20" t="s">
-        <v>280</v>
+        <v>269</v>
+      </c>
+      <c r="C270" s="22" t="s">
+        <v>281</v>
       </c>
       <c r="D270" s="12"/>
     </row>
@@ -5327,10 +5347,10 @@
         <v>266</v>
       </c>
       <c r="B271" s="10" t="s">
-        <v>268</v>
-      </c>
-      <c r="C271" s="20" t="s">
-        <v>281</v>
+        <v>269</v>
+      </c>
+      <c r="C271" s="22" t="s">
+        <v>282</v>
       </c>
       <c r="D271" s="12"/>
     </row>
@@ -5340,10 +5360,10 @@
         <v>267</v>
       </c>
       <c r="B272" s="10" t="s">
-        <v>268</v>
-      </c>
-      <c r="C272" s="20" t="s">
-        <v>282</v>
+        <v>269</v>
+      </c>
+      <c r="C272" s="22" t="s">
+        <v>283</v>
       </c>
       <c r="D272" s="12"/>
     </row>
@@ -5353,10 +5373,10 @@
         <v>268</v>
       </c>
       <c r="B273" s="10" t="s">
-        <v>268</v>
-      </c>
-      <c r="C273" s="20" t="s">
-        <v>283</v>
+        <v>269</v>
+      </c>
+      <c r="C273" s="22" t="s">
+        <v>284</v>
       </c>
       <c r="D273" s="12"/>
     </row>
@@ -5366,10 +5386,10 @@
         <v>269</v>
       </c>
       <c r="B274" s="10" t="s">
-        <v>268</v>
-      </c>
-      <c r="C274" s="20" t="s">
-        <v>284</v>
+        <v>269</v>
+      </c>
+      <c r="C274" s="22" t="s">
+        <v>285</v>
       </c>
       <c r="D274" s="12"/>
     </row>
@@ -5379,10 +5399,10 @@
         <v>270</v>
       </c>
       <c r="B275" s="10" t="s">
-        <v>268</v>
-      </c>
-      <c r="C275" s="20" t="s">
-        <v>285</v>
+        <v>269</v>
+      </c>
+      <c r="C275" s="22" t="s">
+        <v>286</v>
       </c>
       <c r="D275" s="12"/>
     </row>
@@ -5392,10 +5412,10 @@
         <v>271</v>
       </c>
       <c r="B276" s="10" t="s">
-        <v>268</v>
-      </c>
-      <c r="C276" s="20" t="s">
-        <v>286</v>
+        <v>269</v>
+      </c>
+      <c r="C276" s="22" t="s">
+        <v>287</v>
       </c>
       <c r="D276" s="12"/>
     </row>
@@ -5405,10 +5425,10 @@
         <v>272</v>
       </c>
       <c r="B277" s="10" t="s">
-        <v>268</v>
-      </c>
-      <c r="C277" s="20" t="s">
-        <v>287</v>
+        <v>269</v>
+      </c>
+      <c r="C277" s="22" t="s">
+        <v>288</v>
       </c>
       <c r="D277" s="12"/>
     </row>
@@ -5418,10 +5438,10 @@
         <v>273</v>
       </c>
       <c r="B278" s="15" t="s">
-        <v>288</v>
-      </c>
-      <c r="C278" s="20" t="s">
         <v>289</v>
+      </c>
+      <c r="C278" s="22" t="s">
+        <v>290</v>
       </c>
       <c r="D278" s="12"/>
     </row>
@@ -5431,10 +5451,10 @@
         <v>274</v>
       </c>
       <c r="B279" s="15" t="s">
-        <v>288</v>
-      </c>
-      <c r="C279" s="20" t="s">
-        <v>290</v>
+        <v>289</v>
+      </c>
+      <c r="C279" s="22" t="s">
+        <v>291</v>
       </c>
       <c r="D279" s="12"/>
     </row>
@@ -5444,10 +5464,10 @@
         <v>275</v>
       </c>
       <c r="B280" s="15" t="s">
-        <v>288</v>
-      </c>
-      <c r="C280" s="20" t="s">
-        <v>291</v>
+        <v>289</v>
+      </c>
+      <c r="C280" s="22" t="s">
+        <v>292</v>
       </c>
       <c r="D280" s="12"/>
     </row>
@@ -5457,10 +5477,10 @@
         <v>276</v>
       </c>
       <c r="B281" s="15" t="s">
-        <v>288</v>
-      </c>
-      <c r="C281" s="20" t="s">
-        <v>292</v>
+        <v>289</v>
+      </c>
+      <c r="C281" s="22" t="s">
+        <v>293</v>
       </c>
       <c r="D281" s="12"/>
     </row>
@@ -5470,10 +5490,10 @@
         <v>277</v>
       </c>
       <c r="B282" s="15" t="s">
-        <v>288</v>
-      </c>
-      <c r="C282" s="20" t="s">
-        <v>293</v>
+        <v>289</v>
+      </c>
+      <c r="C282" s="22" t="s">
+        <v>294</v>
       </c>
       <c r="D282" s="12"/>
     </row>
@@ -5483,10 +5503,10 @@
         <v>278</v>
       </c>
       <c r="B283" s="15" t="s">
-        <v>288</v>
-      </c>
-      <c r="C283" s="20" t="s">
-        <v>294</v>
+        <v>289</v>
+      </c>
+      <c r="C283" s="22" t="s">
+        <v>295</v>
       </c>
       <c r="D283" s="12"/>
     </row>
@@ -5496,10 +5516,10 @@
         <v>279</v>
       </c>
       <c r="B284" s="15" t="s">
-        <v>288</v>
-      </c>
-      <c r="C284" s="20" t="s">
-        <v>295</v>
+        <v>289</v>
+      </c>
+      <c r="C284" s="22" t="s">
+        <v>296</v>
       </c>
       <c r="D284" s="12"/>
     </row>
@@ -5509,10 +5529,10 @@
         <v>280</v>
       </c>
       <c r="B285" s="15" t="s">
-        <v>288</v>
-      </c>
-      <c r="C285" s="20" t="s">
-        <v>296</v>
+        <v>289</v>
+      </c>
+      <c r="C285" s="22" t="s">
+        <v>297</v>
       </c>
       <c r="D285" s="12"/>
     </row>
@@ -5522,10 +5542,10 @@
         <v>281</v>
       </c>
       <c r="B286" s="15" t="s">
-        <v>288</v>
-      </c>
-      <c r="C286" s="20" t="s">
-        <v>297</v>
+        <v>289</v>
+      </c>
+      <c r="C286" s="22" t="s">
+        <v>298</v>
       </c>
       <c r="D286" s="12"/>
     </row>
@@ -5535,10 +5555,10 @@
         <v>282</v>
       </c>
       <c r="B287" s="15" t="s">
-        <v>288</v>
-      </c>
-      <c r="C287" s="20" t="s">
-        <v>298</v>
+        <v>289</v>
+      </c>
+      <c r="C287" s="22" t="s">
+        <v>299</v>
       </c>
       <c r="D287" s="12"/>
     </row>
@@ -5548,10 +5568,10 @@
         <v>283</v>
       </c>
       <c r="B288" s="15" t="s">
-        <v>288</v>
-      </c>
-      <c r="C288" s="20" t="s">
-        <v>299</v>
+        <v>289</v>
+      </c>
+      <c r="C288" s="22" t="s">
+        <v>300</v>
       </c>
       <c r="D288" s="12"/>
     </row>
@@ -5561,10 +5581,10 @@
         <v>284</v>
       </c>
       <c r="B289" s="15" t="s">
-        <v>288</v>
-      </c>
-      <c r="C289" s="20" t="s">
-        <v>300</v>
+        <v>289</v>
+      </c>
+      <c r="C289" s="22" t="s">
+        <v>301</v>
       </c>
       <c r="D289" s="12"/>
     </row>
@@ -5574,10 +5594,10 @@
         <v>285</v>
       </c>
       <c r="B290" s="15" t="s">
-        <v>288</v>
-      </c>
-      <c r="C290" s="20" t="s">
-        <v>301</v>
+        <v>289</v>
+      </c>
+      <c r="C290" s="22" t="s">
+        <v>302</v>
       </c>
       <c r="D290" s="12"/>
     </row>
@@ -5587,10 +5607,10 @@
         <v>286</v>
       </c>
       <c r="B291" s="15" t="s">
-        <v>288</v>
-      </c>
-      <c r="C291" s="22" t="s">
-        <v>302</v>
+        <v>289</v>
+      </c>
+      <c r="C291" s="24" t="s">
+        <v>303</v>
       </c>
       <c r="D291" s="12"/>
     </row>
@@ -5600,10 +5620,10 @@
         <v>287</v>
       </c>
       <c r="B292" s="15" t="s">
-        <v>288</v>
-      </c>
-      <c r="C292" s="20" t="s">
-        <v>303</v>
+        <v>289</v>
+      </c>
+      <c r="C292" s="22" t="s">
+        <v>304</v>
       </c>
       <c r="D292" s="12"/>
     </row>
@@ -5613,10 +5633,10 @@
         <v>288</v>
       </c>
       <c r="B293" s="15" t="s">
-        <v>288</v>
-      </c>
-      <c r="C293" s="20" t="s">
-        <v>304</v>
+        <v>289</v>
+      </c>
+      <c r="C293" s="22" t="s">
+        <v>305</v>
       </c>
       <c r="D293" s="12"/>
     </row>
@@ -5626,10 +5646,10 @@
         <v>289</v>
       </c>
       <c r="B294" s="15" t="s">
-        <v>288</v>
-      </c>
-      <c r="C294" s="20" t="s">
-        <v>305</v>
+        <v>289</v>
+      </c>
+      <c r="C294" s="22" t="s">
+        <v>306</v>
       </c>
       <c r="D294" s="12"/>
     </row>
@@ -5639,10 +5659,10 @@
         <v>290</v>
       </c>
       <c r="B295" s="15" t="s">
-        <v>288</v>
-      </c>
-      <c r="C295" s="20" t="s">
-        <v>306</v>
+        <v>289</v>
+      </c>
+      <c r="C295" s="22" t="s">
+        <v>307</v>
       </c>
       <c r="D295" s="12"/>
     </row>
@@ -5652,10 +5672,10 @@
         <v>291</v>
       </c>
       <c r="B296" s="15" t="s">
-        <v>288</v>
-      </c>
-      <c r="C296" s="20" t="s">
-        <v>307</v>
+        <v>289</v>
+      </c>
+      <c r="C296" s="22" t="s">
+        <v>308</v>
       </c>
       <c r="D296" s="12"/>
     </row>
@@ -5665,10 +5685,10 @@
         <v>292</v>
       </c>
       <c r="B297" s="15" t="s">
-        <v>288</v>
-      </c>
-      <c r="C297" s="20" t="s">
-        <v>308</v>
+        <v>289</v>
+      </c>
+      <c r="C297" s="22" t="s">
+        <v>309</v>
       </c>
       <c r="D297" s="12"/>
     </row>
@@ -5678,10 +5698,10 @@
         <v>293</v>
       </c>
       <c r="B298" s="15" t="s">
-        <v>288</v>
-      </c>
-      <c r="C298" s="20" t="s">
-        <v>309</v>
+        <v>289</v>
+      </c>
+      <c r="C298" s="22" t="s">
+        <v>310</v>
       </c>
       <c r="D298" s="12"/>
     </row>
@@ -5691,10 +5711,10 @@
         <v>294</v>
       </c>
       <c r="B299" s="15" t="s">
-        <v>288</v>
-      </c>
-      <c r="C299" s="20" t="s">
-        <v>310</v>
+        <v>289</v>
+      </c>
+      <c r="C299" s="22" t="s">
+        <v>311</v>
       </c>
       <c r="D299" s="12"/>
     </row>
@@ -5704,10 +5724,10 @@
         <v>295</v>
       </c>
       <c r="B300" s="15" t="s">
-        <v>288</v>
-      </c>
-      <c r="C300" s="20" t="s">
-        <v>311</v>
+        <v>289</v>
+      </c>
+      <c r="C300" s="22" t="s">
+        <v>312</v>
       </c>
       <c r="D300" s="12"/>
     </row>
@@ -5717,10 +5737,10 @@
         <v>296</v>
       </c>
       <c r="B301" s="15" t="s">
-        <v>288</v>
-      </c>
-      <c r="C301" s="20" t="s">
-        <v>312</v>
+        <v>289</v>
+      </c>
+      <c r="C301" s="22" t="s">
+        <v>313</v>
       </c>
       <c r="D301" s="12"/>
     </row>
@@ -5730,10 +5750,10 @@
         <v>297</v>
       </c>
       <c r="B302" s="15" t="s">
-        <v>288</v>
-      </c>
-      <c r="C302" s="20" t="s">
-        <v>313</v>
+        <v>289</v>
+      </c>
+      <c r="C302" s="22" t="s">
+        <v>314</v>
       </c>
       <c r="D302" s="12"/>
     </row>
@@ -5743,10 +5763,10 @@
         <v>298</v>
       </c>
       <c r="B303" s="15" t="s">
-        <v>288</v>
-      </c>
-      <c r="C303" s="20" t="s">
-        <v>314</v>
+        <v>289</v>
+      </c>
+      <c r="C303" s="22" t="s">
+        <v>315</v>
       </c>
       <c r="D303" s="12"/>
     </row>
@@ -5756,10 +5776,10 @@
         <v>299</v>
       </c>
       <c r="B304" s="15" t="s">
-        <v>288</v>
-      </c>
-      <c r="C304" s="20" t="s">
-        <v>315</v>
+        <v>289</v>
+      </c>
+      <c r="C304" s="22" t="s">
+        <v>316</v>
       </c>
       <c r="D304" s="12"/>
     </row>
@@ -5769,10 +5789,10 @@
         <v>300</v>
       </c>
       <c r="B305" s="15" t="s">
-        <v>288</v>
-      </c>
-      <c r="C305" s="20" t="s">
-        <v>316</v>
+        <v>289</v>
+      </c>
+      <c r="C305" s="22" t="s">
+        <v>317</v>
       </c>
       <c r="D305" s="12"/>
     </row>
@@ -5782,10 +5802,10 @@
         <v>301</v>
       </c>
       <c r="B306" s="15" t="s">
-        <v>288</v>
-      </c>
-      <c r="C306" s="20" t="s">
-        <v>317</v>
+        <v>289</v>
+      </c>
+      <c r="C306" s="22" t="s">
+        <v>318</v>
       </c>
       <c r="D306" s="12"/>
     </row>
@@ -5795,10 +5815,10 @@
         <v>302</v>
       </c>
       <c r="B307" s="15" t="s">
-        <v>288</v>
-      </c>
-      <c r="C307" s="20" t="s">
-        <v>318</v>
+        <v>289</v>
+      </c>
+      <c r="C307" s="22" t="s">
+        <v>319</v>
       </c>
       <c r="D307" s="12"/>
     </row>
@@ -5808,10 +5828,10 @@
         <v>303</v>
       </c>
       <c r="B308" s="15" t="s">
-        <v>288</v>
-      </c>
-      <c r="C308" s="20" t="s">
-        <v>319</v>
+        <v>289</v>
+      </c>
+      <c r="C308" s="22" t="s">
+        <v>320</v>
       </c>
       <c r="D308" s="12"/>
     </row>
@@ -5821,10 +5841,10 @@
         <v>304</v>
       </c>
       <c r="B309" s="15" t="s">
-        <v>288</v>
-      </c>
-      <c r="C309" s="20" t="s">
-        <v>320</v>
+        <v>289</v>
+      </c>
+      <c r="C309" s="22" t="s">
+        <v>321</v>
       </c>
       <c r="D309" s="12"/>
     </row>
@@ -5834,10 +5854,10 @@
         <v>305</v>
       </c>
       <c r="B310" s="15" t="s">
-        <v>288</v>
-      </c>
-      <c r="C310" s="20" t="s">
-        <v>321</v>
+        <v>289</v>
+      </c>
+      <c r="C310" s="22" t="s">
+        <v>322</v>
       </c>
       <c r="D310" s="12"/>
     </row>
@@ -5847,10 +5867,10 @@
         <v>306</v>
       </c>
       <c r="B311" s="15" t="s">
-        <v>288</v>
-      </c>
-      <c r="C311" s="20" t="s">
-        <v>322</v>
+        <v>289</v>
+      </c>
+      <c r="C311" s="22" t="s">
+        <v>323</v>
       </c>
       <c r="D311" s="12"/>
     </row>
@@ -5860,10 +5880,10 @@
         <v>307</v>
       </c>
       <c r="B312" s="15" t="s">
-        <v>288</v>
-      </c>
-      <c r="C312" s="20" t="s">
-        <v>323</v>
+        <v>289</v>
+      </c>
+      <c r="C312" s="22" t="s">
+        <v>324</v>
       </c>
       <c r="D312" s="12"/>
     </row>
@@ -5873,10 +5893,10 @@
         <v>308</v>
       </c>
       <c r="B313" s="15" t="s">
-        <v>288</v>
-      </c>
-      <c r="C313" s="20" t="s">
-        <v>324</v>
+        <v>289</v>
+      </c>
+      <c r="C313" s="22" t="s">
+        <v>325</v>
       </c>
       <c r="D313" s="12"/>
     </row>
@@ -5886,10 +5906,10 @@
         <v>309</v>
       </c>
       <c r="B314" s="15" t="s">
-        <v>288</v>
-      </c>
-      <c r="C314" s="20" t="s">
-        <v>325</v>
+        <v>289</v>
+      </c>
+      <c r="C314" s="22" t="s">
+        <v>326</v>
       </c>
       <c r="D314" s="12"/>
     </row>
@@ -5899,10 +5919,10 @@
         <v>310</v>
       </c>
       <c r="B315" s="15" t="s">
-        <v>288</v>
-      </c>
-      <c r="C315" s="20" t="s">
-        <v>326</v>
+        <v>289</v>
+      </c>
+      <c r="C315" s="22" t="s">
+        <v>327</v>
       </c>
       <c r="D315" s="12"/>
     </row>
@@ -5912,10 +5932,10 @@
         <v>311</v>
       </c>
       <c r="B316" s="10" t="s">
-        <v>327</v>
-      </c>
-      <c r="C316" s="20" t="s">
         <v>328</v>
+      </c>
+      <c r="C316" s="22" t="s">
+        <v>329</v>
       </c>
       <c r="D316" s="12"/>
     </row>
@@ -5925,10 +5945,10 @@
         <v>312</v>
       </c>
       <c r="B317" s="10" t="s">
-        <v>327</v>
-      </c>
-      <c r="C317" s="20" t="s">
-        <v>329</v>
+        <v>328</v>
+      </c>
+      <c r="C317" s="22" t="s">
+        <v>330</v>
       </c>
       <c r="D317" s="12"/>
     </row>
@@ -5938,10 +5958,10 @@
         <v>313</v>
       </c>
       <c r="B318" s="10" t="s">
-        <v>327</v>
-      </c>
-      <c r="C318" s="20" t="s">
-        <v>330</v>
+        <v>328</v>
+      </c>
+      <c r="C318" s="22" t="s">
+        <v>331</v>
       </c>
       <c r="D318" s="12"/>
     </row>
@@ -5951,10 +5971,10 @@
         <v>314</v>
       </c>
       <c r="B319" s="10" t="s">
-        <v>327</v>
-      </c>
-      <c r="C319" s="20" t="s">
-        <v>331</v>
+        <v>328</v>
+      </c>
+      <c r="C319" s="22" t="s">
+        <v>332</v>
       </c>
       <c r="D319" s="12"/>
     </row>
@@ -5964,10 +5984,10 @@
         <v>315</v>
       </c>
       <c r="B320" s="10" t="s">
-        <v>327</v>
-      </c>
-      <c r="C320" s="20" t="s">
-        <v>332</v>
+        <v>328</v>
+      </c>
+      <c r="C320" s="22" t="s">
+        <v>333</v>
       </c>
       <c r="D320" s="12"/>
     </row>
@@ -5977,10 +5997,10 @@
         <v>316</v>
       </c>
       <c r="B321" s="10" t="s">
-        <v>327</v>
-      </c>
-      <c r="C321" s="20" t="s">
-        <v>333</v>
+        <v>328</v>
+      </c>
+      <c r="C321" s="22" t="s">
+        <v>334</v>
       </c>
       <c r="D321" s="12"/>
     </row>
@@ -5990,10 +6010,10 @@
         <v>317</v>
       </c>
       <c r="B322" s="10" t="s">
-        <v>327</v>
-      </c>
-      <c r="C322" s="20" t="s">
-        <v>334</v>
+        <v>328</v>
+      </c>
+      <c r="C322" s="22" t="s">
+        <v>335</v>
       </c>
       <c r="D322" s="12"/>
     </row>
@@ -6003,10 +6023,10 @@
         <v>318</v>
       </c>
       <c r="B323" s="10" t="s">
-        <v>327</v>
-      </c>
-      <c r="C323" s="20" t="s">
-        <v>335</v>
+        <v>328</v>
+      </c>
+      <c r="C323" s="22" t="s">
+        <v>336</v>
       </c>
       <c r="D323" s="12"/>
     </row>
@@ -6016,10 +6036,10 @@
         <v>319</v>
       </c>
       <c r="B324" s="10" t="s">
-        <v>327</v>
-      </c>
-      <c r="C324" s="22" t="s">
-        <v>336</v>
+        <v>328</v>
+      </c>
+      <c r="C324" s="24" t="s">
+        <v>337</v>
       </c>
       <c r="D324" s="12"/>
     </row>
@@ -6029,10 +6049,10 @@
         <v>320</v>
       </c>
       <c r="B325" s="10" t="s">
-        <v>327</v>
-      </c>
-      <c r="C325" s="20" t="s">
-        <v>337</v>
+        <v>328</v>
+      </c>
+      <c r="C325" s="22" t="s">
+        <v>338</v>
       </c>
       <c r="D325" s="12"/>
     </row>
@@ -6042,10 +6062,10 @@
         <v>321</v>
       </c>
       <c r="B326" s="10" t="s">
-        <v>327</v>
-      </c>
-      <c r="C326" s="20" t="s">
-        <v>338</v>
+        <v>328</v>
+      </c>
+      <c r="C326" s="22" t="s">
+        <v>339</v>
       </c>
       <c r="D326" s="12"/>
     </row>
@@ -6055,10 +6075,10 @@
         <v>322</v>
       </c>
       <c r="B327" s="10" t="s">
-        <v>327</v>
-      </c>
-      <c r="C327" s="20" t="s">
-        <v>339</v>
+        <v>328</v>
+      </c>
+      <c r="C327" s="22" t="s">
+        <v>340</v>
       </c>
       <c r="D327" s="12"/>
     </row>
@@ -6068,10 +6088,10 @@
         <v>323</v>
       </c>
       <c r="B328" s="10" t="s">
-        <v>327</v>
-      </c>
-      <c r="C328" s="20" t="s">
-        <v>340</v>
+        <v>328</v>
+      </c>
+      <c r="C328" s="22" t="s">
+        <v>341</v>
       </c>
       <c r="D328" s="12"/>
     </row>
@@ -6081,10 +6101,10 @@
         <v>324</v>
       </c>
       <c r="B329" s="10" t="s">
-        <v>327</v>
-      </c>
-      <c r="C329" s="20" t="s">
-        <v>341</v>
+        <v>328</v>
+      </c>
+      <c r="C329" s="22" t="s">
+        <v>342</v>
       </c>
       <c r="D329" s="12"/>
     </row>
@@ -6094,10 +6114,10 @@
         <v>325</v>
       </c>
       <c r="B330" s="10" t="s">
-        <v>327</v>
-      </c>
-      <c r="C330" s="20" t="s">
-        <v>342</v>
+        <v>328</v>
+      </c>
+      <c r="C330" s="22" t="s">
+        <v>343</v>
       </c>
       <c r="D330" s="12"/>
     </row>
@@ -6107,10 +6127,10 @@
         <v>326</v>
       </c>
       <c r="B331" s="10" t="s">
-        <v>327</v>
-      </c>
-      <c r="C331" s="20" t="s">
-        <v>343</v>
+        <v>328</v>
+      </c>
+      <c r="C331" s="22" t="s">
+        <v>344</v>
       </c>
       <c r="D331" s="12"/>
     </row>
@@ -6120,10 +6140,10 @@
         <v>327</v>
       </c>
       <c r="B332" s="10" t="s">
-        <v>327</v>
-      </c>
-      <c r="C332" s="20" t="s">
-        <v>344</v>
+        <v>328</v>
+      </c>
+      <c r="C332" s="22" t="s">
+        <v>345</v>
       </c>
       <c r="D332" s="12"/>
     </row>
@@ -6133,10 +6153,10 @@
         <v>328</v>
       </c>
       <c r="B333" s="10" t="s">
-        <v>327</v>
-      </c>
-      <c r="C333" s="20" t="s">
-        <v>345</v>
+        <v>328</v>
+      </c>
+      <c r="C333" s="22" t="s">
+        <v>346</v>
       </c>
       <c r="D333" s="12"/>
     </row>
@@ -6146,10 +6166,10 @@
         <v>329</v>
       </c>
       <c r="B334" s="15" t="s">
-        <v>346</v>
-      </c>
-      <c r="C334" s="20" t="s">
         <v>347</v>
+      </c>
+      <c r="C334" s="22" t="s">
+        <v>348</v>
       </c>
       <c r="D334" s="12"/>
     </row>
@@ -6159,10 +6179,10 @@
         <v>330</v>
       </c>
       <c r="B335" s="15" t="s">
-        <v>346</v>
-      </c>
-      <c r="C335" s="20" t="s">
-        <v>348</v>
+        <v>347</v>
+      </c>
+      <c r="C335" s="22" t="s">
+        <v>349</v>
       </c>
       <c r="D335" s="12"/>
     </row>
@@ -6172,10 +6192,10 @@
         <v>331</v>
       </c>
       <c r="B336" s="15" t="s">
-        <v>346</v>
-      </c>
-      <c r="C336" s="20" t="s">
-        <v>349</v>
+        <v>347</v>
+      </c>
+      <c r="C336" s="22" t="s">
+        <v>350</v>
       </c>
       <c r="D336" s="12"/>
     </row>
@@ -6185,10 +6205,10 @@
         <v>332</v>
       </c>
       <c r="B337" s="15" t="s">
-        <v>346</v>
-      </c>
-      <c r="C337" s="20" t="s">
-        <v>350</v>
+        <v>347</v>
+      </c>
+      <c r="C337" s="22" t="s">
+        <v>351</v>
       </c>
       <c r="D337" s="12"/>
     </row>
@@ -6198,10 +6218,10 @@
         <v>333</v>
       </c>
       <c r="B338" s="15" t="s">
-        <v>346</v>
-      </c>
-      <c r="C338" s="20" t="s">
-        <v>351</v>
+        <v>347</v>
+      </c>
+      <c r="C338" s="22" t="s">
+        <v>352</v>
       </c>
       <c r="D338" s="12"/>
     </row>
@@ -6211,10 +6231,10 @@
         <v>334</v>
       </c>
       <c r="B339" s="15" t="s">
-        <v>346</v>
-      </c>
-      <c r="C339" s="20" t="s">
-        <v>352</v>
+        <v>347</v>
+      </c>
+      <c r="C339" s="22" t="s">
+        <v>353</v>
       </c>
       <c r="D339" s="12"/>
     </row>
@@ -6224,10 +6244,10 @@
         <v>335</v>
       </c>
       <c r="B340" s="15" t="s">
-        <v>346</v>
-      </c>
-      <c r="C340" s="20" t="s">
-        <v>353</v>
+        <v>347</v>
+      </c>
+      <c r="C340" s="22" t="s">
+        <v>354</v>
       </c>
       <c r="D340" s="12"/>
     </row>
@@ -6237,10 +6257,10 @@
         <v>336</v>
       </c>
       <c r="B341" s="15" t="s">
-        <v>346</v>
-      </c>
-      <c r="C341" s="20" t="s">
-        <v>354</v>
+        <v>347</v>
+      </c>
+      <c r="C341" s="22" t="s">
+        <v>355</v>
       </c>
       <c r="D341" s="12"/>
     </row>
@@ -6250,10 +6270,10 @@
         <v>337</v>
       </c>
       <c r="B342" s="15" t="s">
-        <v>346</v>
-      </c>
-      <c r="C342" s="20" t="s">
-        <v>355</v>
+        <v>347</v>
+      </c>
+      <c r="C342" s="22" t="s">
+        <v>356</v>
       </c>
       <c r="D342" s="12"/>
     </row>
@@ -6263,10 +6283,10 @@
         <v>338</v>
       </c>
       <c r="B343" s="15" t="s">
-        <v>346</v>
-      </c>
-      <c r="C343" s="20" t="s">
-        <v>356</v>
+        <v>347</v>
+      </c>
+      <c r="C343" s="22" t="s">
+        <v>357</v>
       </c>
       <c r="D343" s="12"/>
     </row>
@@ -6276,10 +6296,10 @@
         <v>339</v>
       </c>
       <c r="B344" s="15" t="s">
-        <v>346</v>
-      </c>
-      <c r="C344" s="20" t="s">
-        <v>357</v>
+        <v>347</v>
+      </c>
+      <c r="C344" s="22" t="s">
+        <v>358</v>
       </c>
       <c r="D344" s="12"/>
     </row>
@@ -6289,10 +6309,10 @@
         <v>340</v>
       </c>
       <c r="B345" s="15" t="s">
-        <v>346</v>
-      </c>
-      <c r="C345" s="20" t="s">
-        <v>358</v>
+        <v>347</v>
+      </c>
+      <c r="C345" s="22" t="s">
+        <v>359</v>
       </c>
       <c r="D345" s="12"/>
     </row>
@@ -6302,10 +6322,10 @@
         <v>341</v>
       </c>
       <c r="B346" s="15" t="s">
-        <v>346</v>
-      </c>
-      <c r="C346" s="20" t="s">
-        <v>359</v>
+        <v>347</v>
+      </c>
+      <c r="C346" s="22" t="s">
+        <v>360</v>
       </c>
       <c r="D346" s="12"/>
     </row>
@@ -6315,10 +6335,10 @@
         <v>342</v>
       </c>
       <c r="B347" s="15" t="s">
-        <v>346</v>
-      </c>
-      <c r="C347" s="20" t="s">
-        <v>360</v>
+        <v>347</v>
+      </c>
+      <c r="C347" s="22" t="s">
+        <v>361</v>
       </c>
       <c r="D347" s="12"/>
     </row>
@@ -6328,10 +6348,10 @@
         <v>343</v>
       </c>
       <c r="B348" s="15" t="s">
-        <v>346</v>
-      </c>
-      <c r="C348" s="20" t="s">
-        <v>361</v>
+        <v>347</v>
+      </c>
+      <c r="C348" s="22" t="s">
+        <v>362</v>
       </c>
       <c r="D348" s="12"/>
     </row>
@@ -6341,10 +6361,10 @@
         <v>344</v>
       </c>
       <c r="B349" s="15" t="s">
-        <v>346</v>
-      </c>
-      <c r="C349" s="20" t="s">
-        <v>362</v>
+        <v>347</v>
+      </c>
+      <c r="C349" s="22" t="s">
+        <v>363</v>
       </c>
       <c r="D349" s="12"/>
     </row>
@@ -6354,10 +6374,10 @@
         <v>345</v>
       </c>
       <c r="B350" s="15" t="s">
-        <v>346</v>
-      </c>
-      <c r="C350" s="20" t="s">
-        <v>363</v>
+        <v>347</v>
+      </c>
+      <c r="C350" s="22" t="s">
+        <v>364</v>
       </c>
       <c r="D350" s="12"/>
     </row>
@@ -6367,10 +6387,10 @@
         <v>346</v>
       </c>
       <c r="B351" s="15" t="s">
-        <v>346</v>
-      </c>
-      <c r="C351" s="20" t="s">
-        <v>364</v>
+        <v>347</v>
+      </c>
+      <c r="C351" s="22" t="s">
+        <v>365</v>
       </c>
       <c r="D351" s="12"/>
     </row>
@@ -6380,10 +6400,10 @@
         <v>347</v>
       </c>
       <c r="B352" s="15" t="s">
-        <v>346</v>
-      </c>
-      <c r="C352" s="20" t="s">
-        <v>365</v>
+        <v>347</v>
+      </c>
+      <c r="C352" s="22" t="s">
+        <v>366</v>
       </c>
       <c r="D352" s="12"/>
     </row>
@@ -6393,10 +6413,10 @@
         <v>348</v>
       </c>
       <c r="B353" s="15" t="s">
-        <v>346</v>
-      </c>
-      <c r="C353" s="20" t="s">
-        <v>366</v>
+        <v>347</v>
+      </c>
+      <c r="C353" s="22" t="s">
+        <v>367</v>
       </c>
       <c r="D353" s="12"/>
     </row>
@@ -6406,10 +6426,10 @@
         <v>349</v>
       </c>
       <c r="B354" s="15" t="s">
-        <v>346</v>
-      </c>
-      <c r="C354" s="20" t="s">
-        <v>367</v>
+        <v>347</v>
+      </c>
+      <c r="C354" s="22" t="s">
+        <v>368</v>
       </c>
       <c r="D354" s="12"/>
     </row>
@@ -6419,10 +6439,10 @@
         <v>350</v>
       </c>
       <c r="B355" s="15" t="s">
-        <v>346</v>
-      </c>
-      <c r="C355" s="20" t="s">
-        <v>368</v>
+        <v>347</v>
+      </c>
+      <c r="C355" s="22" t="s">
+        <v>369</v>
       </c>
       <c r="D355" s="12"/>
     </row>
@@ -6432,10 +6452,10 @@
         <v>351</v>
       </c>
       <c r="B356" s="15" t="s">
-        <v>346</v>
-      </c>
-      <c r="C356" s="20" t="s">
-        <v>369</v>
+        <v>347</v>
+      </c>
+      <c r="C356" s="22" t="s">
+        <v>370</v>
       </c>
       <c r="D356" s="12"/>
     </row>
@@ -6445,10 +6465,10 @@
         <v>352</v>
       </c>
       <c r="B357" s="15" t="s">
-        <v>346</v>
-      </c>
-      <c r="C357" s="20" t="s">
-        <v>370</v>
+        <v>347</v>
+      </c>
+      <c r="C357" s="22" t="s">
+        <v>371</v>
       </c>
       <c r="D357" s="12"/>
     </row>
@@ -6458,10 +6478,10 @@
         <v>353</v>
       </c>
       <c r="B358" s="15" t="s">
-        <v>346</v>
-      </c>
-      <c r="C358" s="20" t="s">
-        <v>371</v>
+        <v>347</v>
+      </c>
+      <c r="C358" s="22" t="s">
+        <v>372</v>
       </c>
       <c r="D358" s="12"/>
     </row>
@@ -6471,10 +6491,10 @@
         <v>354</v>
       </c>
       <c r="B359" s="15" t="s">
-        <v>346</v>
-      </c>
-      <c r="C359" s="20" t="s">
-        <v>372</v>
+        <v>347</v>
+      </c>
+      <c r="C359" s="22" t="s">
+        <v>373</v>
       </c>
       <c r="D359" s="12"/>
     </row>
@@ -6484,10 +6504,10 @@
         <v>355</v>
       </c>
       <c r="B360" s="15" t="s">
-        <v>346</v>
-      </c>
-      <c r="C360" s="20" t="s">
-        <v>373</v>
+        <v>347</v>
+      </c>
+      <c r="C360" s="22" t="s">
+        <v>374</v>
       </c>
       <c r="D360" s="12"/>
     </row>
@@ -6497,10 +6517,10 @@
         <v>356</v>
       </c>
       <c r="B361" s="15" t="s">
-        <v>346</v>
-      </c>
-      <c r="C361" s="20" t="s">
-        <v>374</v>
+        <v>347</v>
+      </c>
+      <c r="C361" s="22" t="s">
+        <v>375</v>
       </c>
       <c r="D361" s="12"/>
     </row>
@@ -6510,10 +6530,10 @@
         <v>357</v>
       </c>
       <c r="B362" s="15" t="s">
-        <v>346</v>
-      </c>
-      <c r="C362" s="20" t="s">
-        <v>375</v>
+        <v>347</v>
+      </c>
+      <c r="C362" s="22" t="s">
+        <v>376</v>
       </c>
       <c r="D362" s="12"/>
     </row>
@@ -6523,10 +6543,10 @@
         <v>358</v>
       </c>
       <c r="B363" s="15" t="s">
-        <v>346</v>
-      </c>
-      <c r="C363" s="20" t="s">
-        <v>376</v>
+        <v>347</v>
+      </c>
+      <c r="C363" s="22" t="s">
+        <v>377</v>
       </c>
       <c r="D363" s="12"/>
     </row>
@@ -6536,10 +6556,10 @@
         <v>359</v>
       </c>
       <c r="B364" s="15" t="s">
-        <v>346</v>
-      </c>
-      <c r="C364" s="20" t="s">
-        <v>377</v>
+        <v>347</v>
+      </c>
+      <c r="C364" s="22" t="s">
+        <v>378</v>
       </c>
       <c r="D364" s="12"/>
     </row>
@@ -6549,10 +6569,10 @@
         <v>360</v>
       </c>
       <c r="B365" s="15" t="s">
-        <v>346</v>
-      </c>
-      <c r="C365" s="20" t="s">
-        <v>378</v>
+        <v>347</v>
+      </c>
+      <c r="C365" s="22" t="s">
+        <v>379</v>
       </c>
       <c r="D365" s="12"/>
     </row>
@@ -6562,10 +6582,10 @@
         <v>361</v>
       </c>
       <c r="B366" s="15" t="s">
-        <v>346</v>
-      </c>
-      <c r="C366" s="20" t="s">
-        <v>379</v>
+        <v>347</v>
+      </c>
+      <c r="C366" s="22" t="s">
+        <v>380</v>
       </c>
       <c r="D366" s="12"/>
     </row>
@@ -6575,10 +6595,10 @@
         <v>362</v>
       </c>
       <c r="B367" s="15" t="s">
-        <v>346</v>
-      </c>
-      <c r="C367" s="20" t="s">
-        <v>380</v>
+        <v>347</v>
+      </c>
+      <c r="C367" s="22" t="s">
+        <v>381</v>
       </c>
       <c r="D367" s="12"/>
     </row>
@@ -6588,10 +6608,10 @@
         <v>363</v>
       </c>
       <c r="B368" s="15" t="s">
-        <v>346</v>
-      </c>
-      <c r="C368" s="20" t="s">
-        <v>380</v>
+        <v>347</v>
+      </c>
+      <c r="C368" s="22" t="s">
+        <v>381</v>
       </c>
       <c r="D368" s="12"/>
     </row>
@@ -6601,10 +6621,10 @@
         <v>364</v>
       </c>
       <c r="B369" s="15" t="s">
-        <v>346</v>
-      </c>
-      <c r="C369" s="20" t="s">
-        <v>381</v>
+        <v>347</v>
+      </c>
+      <c r="C369" s="22" t="s">
+        <v>382</v>
       </c>
       <c r="D369" s="12"/>
     </row>
@@ -6614,10 +6634,10 @@
         <v>365</v>
       </c>
       <c r="B370" s="15" t="s">
-        <v>346</v>
-      </c>
-      <c r="C370" s="20" t="s">
-        <v>382</v>
+        <v>347</v>
+      </c>
+      <c r="C370" s="22" t="s">
+        <v>383</v>
       </c>
       <c r="D370" s="12"/>
     </row>
@@ -6627,10 +6647,10 @@
         <v>366</v>
       </c>
       <c r="B371" s="15" t="s">
-        <v>346</v>
-      </c>
-      <c r="C371" s="20" t="s">
-        <v>383</v>
+        <v>347</v>
+      </c>
+      <c r="C371" s="22" t="s">
+        <v>384</v>
       </c>
       <c r="D371" s="12"/>
     </row>
@@ -6640,10 +6660,10 @@
         <v>367</v>
       </c>
       <c r="B372" s="15" t="s">
-        <v>346</v>
-      </c>
-      <c r="C372" s="20" t="s">
-        <v>384</v>
+        <v>347</v>
+      </c>
+      <c r="C372" s="22" t="s">
+        <v>385</v>
       </c>
       <c r="D372" s="12"/>
     </row>
@@ -6653,10 +6673,10 @@
         <v>368</v>
       </c>
       <c r="B373" s="15" t="s">
-        <v>346</v>
-      </c>
-      <c r="C373" s="20" t="s">
-        <v>385</v>
+        <v>347</v>
+      </c>
+      <c r="C373" s="22" t="s">
+        <v>386</v>
       </c>
       <c r="D373" s="12"/>
     </row>
@@ -6666,10 +6686,10 @@
         <v>369</v>
       </c>
       <c r="B374" s="15" t="s">
-        <v>346</v>
-      </c>
-      <c r="C374" s="20" t="s">
-        <v>386</v>
+        <v>347</v>
+      </c>
+      <c r="C374" s="22" t="s">
+        <v>387</v>
       </c>
       <c r="D374" s="12"/>
     </row>
@@ -6679,10 +6699,10 @@
         <v>370</v>
       </c>
       <c r="B375" s="15" t="s">
-        <v>346</v>
-      </c>
-      <c r="C375" s="20" t="s">
-        <v>387</v>
+        <v>347</v>
+      </c>
+      <c r="C375" s="22" t="s">
+        <v>388</v>
       </c>
       <c r="D375" s="12"/>
     </row>
@@ -6692,10 +6712,10 @@
         <v>371</v>
       </c>
       <c r="B376" s="15" t="s">
-        <v>346</v>
-      </c>
-      <c r="C376" s="20" t="s">
-        <v>388</v>
+        <v>347</v>
+      </c>
+      <c r="C376" s="22" t="s">
+        <v>389</v>
       </c>
       <c r="D376" s="12"/>
     </row>
@@ -6705,10 +6725,10 @@
         <v>372</v>
       </c>
       <c r="B377" s="15" t="s">
-        <v>346</v>
-      </c>
-      <c r="C377" s="20" t="s">
-        <v>389</v>
+        <v>347</v>
+      </c>
+      <c r="C377" s="22" t="s">
+        <v>390</v>
       </c>
       <c r="D377" s="12"/>
     </row>
@@ -6718,10 +6738,10 @@
         <v>373</v>
       </c>
       <c r="B378" s="10" t="s">
-        <v>390</v>
-      </c>
-      <c r="C378" s="20" t="s">
         <v>391</v>
+      </c>
+      <c r="C378" s="22" t="s">
+        <v>392</v>
       </c>
       <c r="D378" s="12"/>
     </row>
@@ -6731,10 +6751,10 @@
         <v>374</v>
       </c>
       <c r="B379" s="10" t="s">
-        <v>390</v>
-      </c>
-      <c r="C379" s="20" t="s">
-        <v>392</v>
+        <v>391</v>
+      </c>
+      <c r="C379" s="22" t="s">
+        <v>393</v>
       </c>
       <c r="D379" s="12"/>
     </row>
@@ -6744,10 +6764,10 @@
         <v>375</v>
       </c>
       <c r="B380" s="10" t="s">
-        <v>390</v>
-      </c>
-      <c r="C380" s="20" t="s">
-        <v>393</v>
+        <v>391</v>
+      </c>
+      <c r="C380" s="22" t="s">
+        <v>394</v>
       </c>
       <c r="D380" s="12"/>
     </row>
@@ -6757,10 +6777,10 @@
         <v>376</v>
       </c>
       <c r="B381" s="10" t="s">
-        <v>390</v>
-      </c>
-      <c r="C381" s="20" t="s">
-        <v>92</v>
+        <v>391</v>
+      </c>
+      <c r="C381" s="22" t="s">
+        <v>93</v>
       </c>
       <c r="D381" s="12"/>
     </row>
@@ -6770,10 +6790,10 @@
         <v>377</v>
       </c>
       <c r="B382" s="10" t="s">
-        <v>390</v>
-      </c>
-      <c r="C382" s="20" t="s">
-        <v>394</v>
+        <v>391</v>
+      </c>
+      <c r="C382" s="22" t="s">
+        <v>395</v>
       </c>
       <c r="D382" s="12"/>
     </row>
@@ -6783,10 +6803,10 @@
         <v>378</v>
       </c>
       <c r="B383" s="10" t="s">
-        <v>390</v>
-      </c>
-      <c r="C383" s="20" t="s">
-        <v>395</v>
+        <v>391</v>
+      </c>
+      <c r="C383" s="22" t="s">
+        <v>396</v>
       </c>
       <c r="D383" s="12"/>
     </row>
@@ -6796,10 +6816,10 @@
         <v>379</v>
       </c>
       <c r="B384" s="15" t="s">
-        <v>396</v>
-      </c>
-      <c r="C384" s="20" t="s">
         <v>397</v>
+      </c>
+      <c r="C384" s="22" t="s">
+        <v>398</v>
       </c>
       <c r="D384" s="12"/>
     </row>
@@ -6809,10 +6829,10 @@
         <v>380</v>
       </c>
       <c r="B385" s="15" t="s">
-        <v>396</v>
-      </c>
-      <c r="C385" s="20" t="s">
-        <v>398</v>
+        <v>397</v>
+      </c>
+      <c r="C385" s="22" t="s">
+        <v>399</v>
       </c>
       <c r="D385" s="12"/>
     </row>
@@ -6822,10 +6842,10 @@
         <v>381</v>
       </c>
       <c r="B386" s="15" t="s">
-        <v>396</v>
-      </c>
-      <c r="C386" s="20" t="s">
-        <v>399</v>
+        <v>397</v>
+      </c>
+      <c r="C386" s="22" t="s">
+        <v>400</v>
       </c>
       <c r="D386" s="12"/>
     </row>
@@ -6835,10 +6855,10 @@
         <v>382</v>
       </c>
       <c r="B387" s="15" t="s">
-        <v>396</v>
-      </c>
-      <c r="C387" s="20" t="s">
-        <v>400</v>
+        <v>397</v>
+      </c>
+      <c r="C387" s="22" t="s">
+        <v>401</v>
       </c>
       <c r="D387" s="12"/>
     </row>
@@ -6848,10 +6868,10 @@
         <v>383</v>
       </c>
       <c r="B388" s="15" t="s">
-        <v>396</v>
-      </c>
-      <c r="C388" s="20" t="s">
-        <v>401</v>
+        <v>397</v>
+      </c>
+      <c r="C388" s="22" t="s">
+        <v>402</v>
       </c>
       <c r="D388" s="12"/>
     </row>
@@ -6861,10 +6881,10 @@
         <v>384</v>
       </c>
       <c r="B389" s="15" t="s">
-        <v>396</v>
-      </c>
-      <c r="C389" s="20" t="s">
-        <v>402</v>
+        <v>397</v>
+      </c>
+      <c r="C389" s="22" t="s">
+        <v>403</v>
       </c>
       <c r="D389" s="12"/>
     </row>
@@ -6874,10 +6894,10 @@
         <v>385</v>
       </c>
       <c r="B390" s="15" t="s">
-        <v>396</v>
-      </c>
-      <c r="C390" s="20" t="s">
-        <v>403</v>
+        <v>397</v>
+      </c>
+      <c r="C390" s="22" t="s">
+        <v>404</v>
       </c>
       <c r="D390" s="12"/>
     </row>
@@ -6887,10 +6907,10 @@
         <v>386</v>
       </c>
       <c r="B391" s="15" t="s">
-        <v>396</v>
-      </c>
-      <c r="C391" s="20" t="s">
-        <v>276</v>
+        <v>397</v>
+      </c>
+      <c r="C391" s="22" t="s">
+        <v>277</v>
       </c>
       <c r="D391" s="12"/>
     </row>
@@ -6900,10 +6920,10 @@
         <v>387</v>
       </c>
       <c r="B392" s="15" t="s">
-        <v>396</v>
-      </c>
-      <c r="C392" s="20" t="s">
-        <v>404</v>
+        <v>397</v>
+      </c>
+      <c r="C392" s="22" t="s">
+        <v>405</v>
       </c>
       <c r="D392" s="12"/>
     </row>
@@ -6913,10 +6933,10 @@
         <v>388</v>
       </c>
       <c r="B393" s="15" t="s">
-        <v>396</v>
-      </c>
-      <c r="C393" s="20" t="s">
-        <v>405</v>
+        <v>397</v>
+      </c>
+      <c r="C393" s="22" t="s">
+        <v>406</v>
       </c>
       <c r="D393" s="12"/>
     </row>
@@ -6926,10 +6946,10 @@
         <v>389</v>
       </c>
       <c r="B394" s="15" t="s">
-        <v>396</v>
-      </c>
-      <c r="C394" s="20" t="s">
-        <v>406</v>
+        <v>397</v>
+      </c>
+      <c r="C394" s="22" t="s">
+        <v>407</v>
       </c>
       <c r="D394" s="12"/>
     </row>
@@ -6939,10 +6959,10 @@
         <v>390</v>
       </c>
       <c r="B395" s="15" t="s">
-        <v>396</v>
-      </c>
-      <c r="C395" s="20" t="s">
-        <v>407</v>
+        <v>397</v>
+      </c>
+      <c r="C395" s="22" t="s">
+        <v>408</v>
       </c>
       <c r="D395" s="12"/>
     </row>
@@ -6952,10 +6972,10 @@
         <v>391</v>
       </c>
       <c r="B396" s="15" t="s">
-        <v>396</v>
-      </c>
-      <c r="C396" s="20" t="s">
-        <v>408</v>
+        <v>397</v>
+      </c>
+      <c r="C396" s="22" t="s">
+        <v>409</v>
       </c>
       <c r="D396" s="12"/>
     </row>
@@ -6965,10 +6985,10 @@
         <v>392</v>
       </c>
       <c r="B397" s="15" t="s">
-        <v>396</v>
-      </c>
-      <c r="C397" s="20" t="s">
-        <v>409</v>
+        <v>397</v>
+      </c>
+      <c r="C397" s="22" t="s">
+        <v>410</v>
       </c>
       <c r="D397" s="12"/>
     </row>
@@ -6978,10 +6998,10 @@
         <v>393</v>
       </c>
       <c r="B398" s="15" t="s">
-        <v>396</v>
-      </c>
-      <c r="C398" s="20" t="s">
-        <v>410</v>
+        <v>397</v>
+      </c>
+      <c r="C398" s="22" t="s">
+        <v>411</v>
       </c>
       <c r="D398" s="12"/>
     </row>
@@ -6991,10 +7011,10 @@
         <v>394</v>
       </c>
       <c r="B399" s="15" t="s">
-        <v>396</v>
-      </c>
-      <c r="C399" s="20" t="s">
-        <v>411</v>
+        <v>397</v>
+      </c>
+      <c r="C399" s="22" t="s">
+        <v>412</v>
       </c>
       <c r="D399" s="12"/>
     </row>
@@ -7004,10 +7024,10 @@
         <v>395</v>
       </c>
       <c r="B400" s="15" t="s">
-        <v>396</v>
-      </c>
-      <c r="C400" s="20" t="s">
-        <v>412</v>
+        <v>397</v>
+      </c>
+      <c r="C400" s="22" t="s">
+        <v>413</v>
       </c>
       <c r="D400" s="12"/>
     </row>
@@ -7017,10 +7037,10 @@
         <v>396</v>
       </c>
       <c r="B401" s="15" t="s">
-        <v>396</v>
-      </c>
-      <c r="C401" s="20" t="s">
-        <v>413</v>
+        <v>397</v>
+      </c>
+      <c r="C401" s="22" t="s">
+        <v>414</v>
       </c>
       <c r="D401" s="12"/>
     </row>
@@ -7030,10 +7050,10 @@
         <v>397</v>
       </c>
       <c r="B402" s="15" t="s">
-        <v>396</v>
-      </c>
-      <c r="C402" s="20" t="s">
-        <v>414</v>
+        <v>397</v>
+      </c>
+      <c r="C402" s="22" t="s">
+        <v>415</v>
       </c>
       <c r="D402" s="12"/>
     </row>
@@ -7043,10 +7063,10 @@
         <v>398</v>
       </c>
       <c r="B403" s="15" t="s">
-        <v>396</v>
-      </c>
-      <c r="C403" s="20" t="s">
-        <v>415</v>
+        <v>397</v>
+      </c>
+      <c r="C403" s="22" t="s">
+        <v>416</v>
       </c>
       <c r="D403" s="12"/>
     </row>
@@ -7056,10 +7076,10 @@
         <v>399</v>
       </c>
       <c r="B404" s="15" t="s">
-        <v>396</v>
-      </c>
-      <c r="C404" s="20" t="s">
-        <v>416</v>
+        <v>397</v>
+      </c>
+      <c r="C404" s="22" t="s">
+        <v>417</v>
       </c>
       <c r="D404" s="12"/>
     </row>
@@ -7069,10 +7089,10 @@
         <v>400</v>
       </c>
       <c r="B405" s="15" t="s">
-        <v>396</v>
-      </c>
-      <c r="C405" s="20" t="s">
-        <v>417</v>
+        <v>397</v>
+      </c>
+      <c r="C405" s="22" t="s">
+        <v>418</v>
       </c>
       <c r="D405" s="12"/>
     </row>
@@ -7082,10 +7102,10 @@
         <v>401</v>
       </c>
       <c r="B406" s="15" t="s">
-        <v>396</v>
-      </c>
-      <c r="C406" s="20" t="s">
-        <v>418</v>
+        <v>397</v>
+      </c>
+      <c r="C406" s="22" t="s">
+        <v>419</v>
       </c>
       <c r="D406" s="12"/>
     </row>
@@ -7095,10 +7115,10 @@
         <v>402</v>
       </c>
       <c r="B407" s="15" t="s">
-        <v>396</v>
-      </c>
-      <c r="C407" s="20" t="s">
-        <v>419</v>
+        <v>397</v>
+      </c>
+      <c r="C407" s="22" t="s">
+        <v>420</v>
       </c>
       <c r="D407" s="12"/>
     </row>
@@ -7108,10 +7128,10 @@
         <v>403</v>
       </c>
       <c r="B408" s="15" t="s">
-        <v>396</v>
-      </c>
-      <c r="C408" s="20" t="s">
-        <v>420</v>
+        <v>397</v>
+      </c>
+      <c r="C408" s="22" t="s">
+        <v>421</v>
       </c>
       <c r="D408" s="12"/>
     </row>
@@ -7121,10 +7141,10 @@
         <v>404</v>
       </c>
       <c r="B409" s="15" t="s">
-        <v>396</v>
-      </c>
-      <c r="C409" s="20" t="s">
-        <v>421</v>
+        <v>397</v>
+      </c>
+      <c r="C409" s="22" t="s">
+        <v>422</v>
       </c>
       <c r="D409" s="12"/>
     </row>
@@ -7134,10 +7154,10 @@
         <v>405</v>
       </c>
       <c r="B410" s="15" t="s">
-        <v>396</v>
-      </c>
-      <c r="C410" s="20" t="s">
-        <v>422</v>
+        <v>397</v>
+      </c>
+      <c r="C410" s="22" t="s">
+        <v>423</v>
       </c>
       <c r="D410" s="12"/>
     </row>
@@ -7147,10 +7167,10 @@
         <v>406</v>
       </c>
       <c r="B411" s="15" t="s">
-        <v>396</v>
-      </c>
-      <c r="C411" s="20" t="s">
-        <v>423</v>
+        <v>397</v>
+      </c>
+      <c r="C411" s="22" t="s">
+        <v>424</v>
       </c>
       <c r="D411" s="12"/>
     </row>
@@ -7160,10 +7180,10 @@
         <v>407</v>
       </c>
       <c r="B412" s="15" t="s">
-        <v>396</v>
-      </c>
-      <c r="C412" s="20" t="s">
-        <v>424</v>
+        <v>397</v>
+      </c>
+      <c r="C412" s="22" t="s">
+        <v>425</v>
       </c>
       <c r="D412" s="12"/>
     </row>
@@ -7173,10 +7193,10 @@
         <v>408</v>
       </c>
       <c r="B413" s="15" t="s">
-        <v>396</v>
-      </c>
-      <c r="C413" s="20" t="s">
-        <v>425</v>
+        <v>397</v>
+      </c>
+      <c r="C413" s="22" t="s">
+        <v>426</v>
       </c>
       <c r="D413" s="12"/>
     </row>
@@ -7186,10 +7206,10 @@
         <v>409</v>
       </c>
       <c r="B414" s="15" t="s">
-        <v>396</v>
-      </c>
-      <c r="C414" s="20" t="s">
-        <v>426</v>
+        <v>397</v>
+      </c>
+      <c r="C414" s="22" t="s">
+        <v>427</v>
       </c>
       <c r="D414" s="12"/>
     </row>
@@ -7199,10 +7219,10 @@
         <v>410</v>
       </c>
       <c r="B415" s="15" t="s">
-        <v>396</v>
-      </c>
-      <c r="C415" s="20" t="s">
-        <v>427</v>
+        <v>397</v>
+      </c>
+      <c r="C415" s="22" t="s">
+        <v>428</v>
       </c>
       <c r="D415" s="12"/>
     </row>
@@ -7212,10 +7232,10 @@
         <v>411</v>
       </c>
       <c r="B416" s="15" t="s">
-        <v>396</v>
-      </c>
-      <c r="C416" s="20" t="s">
-        <v>428</v>
+        <v>397</v>
+      </c>
+      <c r="C416" s="22" t="s">
+        <v>429</v>
       </c>
       <c r="D416" s="12"/>
     </row>
@@ -7225,10 +7245,10 @@
         <v>412</v>
       </c>
       <c r="B417" s="15" t="s">
-        <v>396</v>
-      </c>
-      <c r="C417" s="20" t="s">
-        <v>429</v>
+        <v>397</v>
+      </c>
+      <c r="C417" s="22" t="s">
+        <v>430</v>
       </c>
       <c r="D417" s="12"/>
     </row>
@@ -7238,10 +7258,10 @@
         <v>413</v>
       </c>
       <c r="B418" s="15" t="s">
-        <v>396</v>
-      </c>
-      <c r="C418" s="20" t="s">
-        <v>430</v>
+        <v>397</v>
+      </c>
+      <c r="C418" s="22" t="s">
+        <v>431</v>
       </c>
       <c r="D418" s="12"/>
     </row>
@@ -7251,10 +7271,10 @@
         <v>414</v>
       </c>
       <c r="B419" s="15" t="s">
-        <v>396</v>
-      </c>
-      <c r="C419" s="20" t="s">
-        <v>431</v>
+        <v>397</v>
+      </c>
+      <c r="C419" s="22" t="s">
+        <v>432</v>
       </c>
       <c r="D419" s="12"/>
     </row>
@@ -7264,10 +7284,10 @@
         <v>415</v>
       </c>
       <c r="B420" s="15" t="s">
-        <v>396</v>
-      </c>
-      <c r="C420" s="20" t="s">
-        <v>432</v>
+        <v>397</v>
+      </c>
+      <c r="C420" s="22" t="s">
+        <v>433</v>
       </c>
       <c r="D420" s="12"/>
     </row>
@@ -7277,10 +7297,10 @@
         <v>416</v>
       </c>
       <c r="B421" s="15" t="s">
-        <v>396</v>
-      </c>
-      <c r="C421" s="20" t="s">
-        <v>433</v>
+        <v>397</v>
+      </c>
+      <c r="C421" s="22" t="s">
+        <v>434</v>
       </c>
       <c r="D421" s="12"/>
     </row>
@@ -7290,10 +7310,10 @@
         <v>417</v>
       </c>
       <c r="B422" s="15" t="s">
-        <v>396</v>
-      </c>
-      <c r="C422" s="20" t="s">
-        <v>434</v>
+        <v>397</v>
+      </c>
+      <c r="C422" s="22" t="s">
+        <v>435</v>
       </c>
       <c r="D422" s="12"/>
     </row>
@@ -7303,10 +7323,10 @@
         <v>418</v>
       </c>
       <c r="B423" s="15" t="s">
-        <v>396</v>
-      </c>
-      <c r="C423" s="20" t="s">
-        <v>435</v>
+        <v>397</v>
+      </c>
+      <c r="C423" s="22" t="s">
+        <v>436</v>
       </c>
       <c r="D423" s="12"/>
     </row>
@@ -7316,10 +7336,10 @@
         <v>419</v>
       </c>
       <c r="B424" s="15" t="s">
-        <v>396</v>
-      </c>
-      <c r="C424" s="20" t="s">
-        <v>436</v>
+        <v>397</v>
+      </c>
+      <c r="C424" s="22" t="s">
+        <v>437</v>
       </c>
       <c r="D424" s="12"/>
     </row>
@@ -7329,10 +7349,10 @@
         <v>420</v>
       </c>
       <c r="B425" s="15" t="s">
-        <v>396</v>
-      </c>
-      <c r="C425" s="20" t="s">
-        <v>437</v>
+        <v>397</v>
+      </c>
+      <c r="C425" s="22" t="s">
+        <v>438</v>
       </c>
       <c r="D425" s="12"/>
     </row>
@@ -7342,10 +7362,10 @@
         <v>421</v>
       </c>
       <c r="B426" s="15" t="s">
-        <v>396</v>
-      </c>
-      <c r="C426" s="20" t="s">
-        <v>438</v>
+        <v>397</v>
+      </c>
+      <c r="C426" s="22" t="s">
+        <v>439</v>
       </c>
       <c r="D426" s="12"/>
     </row>
@@ -7355,10 +7375,10 @@
         <v>422</v>
       </c>
       <c r="B427" s="15" t="s">
-        <v>396</v>
-      </c>
-      <c r="C427" s="20" t="s">
-        <v>439</v>
+        <v>397</v>
+      </c>
+      <c r="C427" s="22" t="s">
+        <v>440</v>
       </c>
       <c r="D427" s="12"/>
     </row>
@@ -7368,10 +7388,10 @@
         <v>423</v>
       </c>
       <c r="B428" s="15" t="s">
-        <v>396</v>
-      </c>
-      <c r="C428" s="20" t="s">
-        <v>440</v>
+        <v>397</v>
+      </c>
+      <c r="C428" s="22" t="s">
+        <v>441</v>
       </c>
       <c r="D428" s="12"/>
     </row>
@@ -7381,10 +7401,10 @@
         <v>424</v>
       </c>
       <c r="B429" s="15" t="s">
-        <v>396</v>
-      </c>
-      <c r="C429" s="20" t="s">
-        <v>441</v>
+        <v>397</v>
+      </c>
+      <c r="C429" s="22" t="s">
+        <v>442</v>
       </c>
       <c r="D429" s="12"/>
     </row>
@@ -7394,10 +7414,10 @@
         <v>425</v>
       </c>
       <c r="B430" s="15" t="s">
-        <v>396</v>
-      </c>
-      <c r="C430" s="20" t="s">
-        <v>442</v>
+        <v>397</v>
+      </c>
+      <c r="C430" s="22" t="s">
+        <v>443</v>
       </c>
       <c r="D430" s="12"/>
     </row>
@@ -7407,10 +7427,10 @@
         <v>426</v>
       </c>
       <c r="B431" s="15" t="s">
-        <v>396</v>
-      </c>
-      <c r="C431" s="20" t="s">
-        <v>443</v>
+        <v>397</v>
+      </c>
+      <c r="C431" s="22" t="s">
+        <v>444</v>
       </c>
       <c r="D431" s="12"/>
     </row>
@@ -7420,10 +7440,10 @@
         <v>427</v>
       </c>
       <c r="B432" s="15" t="s">
-        <v>396</v>
-      </c>
-      <c r="C432" s="20" t="s">
-        <v>444</v>
+        <v>397</v>
+      </c>
+      <c r="C432" s="22" t="s">
+        <v>445</v>
       </c>
       <c r="D432" s="12"/>
     </row>
@@ -7433,10 +7453,10 @@
         <v>428</v>
       </c>
       <c r="B433" s="15" t="s">
-        <v>396</v>
-      </c>
-      <c r="C433" s="20" t="s">
-        <v>445</v>
+        <v>397</v>
+      </c>
+      <c r="C433" s="22" t="s">
+        <v>446</v>
       </c>
       <c r="D433" s="12"/>
     </row>
@@ -7446,10 +7466,10 @@
         <v>429</v>
       </c>
       <c r="B434" s="15" t="s">
-        <v>396</v>
-      </c>
-      <c r="C434" s="20" t="s">
-        <v>446</v>
+        <v>397</v>
+      </c>
+      <c r="C434" s="22" t="s">
+        <v>447</v>
       </c>
       <c r="D434" s="12"/>
     </row>
@@ -7459,10 +7479,10 @@
         <v>430</v>
       </c>
       <c r="B435" s="15" t="s">
-        <v>396</v>
-      </c>
-      <c r="C435" s="20" t="s">
-        <v>447</v>
+        <v>397</v>
+      </c>
+      <c r="C435" s="22" t="s">
+        <v>448</v>
       </c>
       <c r="D435" s="12"/>
     </row>
@@ -7472,10 +7492,10 @@
         <v>431</v>
       </c>
       <c r="B436" s="15" t="s">
-        <v>396</v>
-      </c>
-      <c r="C436" s="20" t="s">
-        <v>448</v>
+        <v>397</v>
+      </c>
+      <c r="C436" s="22" t="s">
+        <v>449</v>
       </c>
       <c r="D436" s="12"/>
     </row>
@@ -7485,10 +7505,10 @@
         <v>432</v>
       </c>
       <c r="B437" s="15" t="s">
-        <v>396</v>
-      </c>
-      <c r="C437" s="20" t="s">
-        <v>449</v>
+        <v>397</v>
+      </c>
+      <c r="C437" s="22" t="s">
+        <v>450</v>
       </c>
       <c r="D437" s="12"/>
     </row>
@@ -7498,10 +7518,10 @@
         <v>433</v>
       </c>
       <c r="B438" s="15" t="s">
-        <v>396</v>
-      </c>
-      <c r="C438" s="20" t="s">
-        <v>450</v>
+        <v>397</v>
+      </c>
+      <c r="C438" s="22" t="s">
+        <v>451</v>
       </c>
       <c r="D438" s="12"/>
     </row>
@@ -7511,10 +7531,10 @@
         <v>434</v>
       </c>
       <c r="B439" s="15" t="s">
-        <v>396</v>
-      </c>
-      <c r="C439" s="20" t="s">
-        <v>451</v>
+        <v>397</v>
+      </c>
+      <c r="C439" s="22" t="s">
+        <v>452</v>
       </c>
       <c r="D439" s="12"/>
     </row>
@@ -7524,10 +7544,10 @@
         <v>435</v>
       </c>
       <c r="B440" s="15" t="s">
-        <v>396</v>
-      </c>
-      <c r="C440" s="20" t="s">
-        <v>452</v>
+        <v>397</v>
+      </c>
+      <c r="C440" s="22" t="s">
+        <v>453</v>
       </c>
       <c r="D440" s="12"/>
     </row>
@@ -7537,10 +7557,10 @@
         <v>436</v>
       </c>
       <c r="B441" s="15" t="s">
-        <v>396</v>
-      </c>
-      <c r="C441" s="20" t="s">
-        <v>453</v>
+        <v>397</v>
+      </c>
+      <c r="C441" s="22" t="s">
+        <v>454</v>
       </c>
       <c r="D441" s="12"/>
     </row>
@@ -7550,10 +7570,10 @@
         <v>437</v>
       </c>
       <c r="B442" s="15" t="s">
-        <v>396</v>
-      </c>
-      <c r="C442" s="20" t="s">
-        <v>454</v>
+        <v>397</v>
+      </c>
+      <c r="C442" s="22" t="s">
+        <v>455</v>
       </c>
       <c r="D442" s="12"/>
     </row>
@@ -7563,10 +7583,10 @@
         <v>438</v>
       </c>
       <c r="B443" s="15" t="s">
-        <v>396</v>
-      </c>
-      <c r="C443" s="20" t="s">
-        <v>455</v>
+        <v>397</v>
+      </c>
+      <c r="C443" s="22" t="s">
+        <v>456</v>
       </c>
       <c r="D443" s="12"/>
     </row>
@@ -7576,10 +7596,10 @@
         <v>439</v>
       </c>
       <c r="B444" s="10" t="s">
-        <v>456</v>
-      </c>
-      <c r="C444" s="20" t="s">
         <v>457</v>
+      </c>
+      <c r="C444" s="22" t="s">
+        <v>458</v>
       </c>
       <c r="D444" s="12"/>
     </row>
@@ -7589,10 +7609,10 @@
         <v>440</v>
       </c>
       <c r="B445" s="10" t="s">
-        <v>456</v>
-      </c>
-      <c r="C445" s="20" t="s">
-        <v>458</v>
+        <v>457</v>
+      </c>
+      <c r="C445" s="22" t="s">
+        <v>459</v>
       </c>
       <c r="D445" s="12"/>
     </row>
@@ -7602,10 +7622,10 @@
         <v>441</v>
       </c>
       <c r="B446" s="10" t="s">
-        <v>456</v>
-      </c>
-      <c r="C446" s="20" t="s">
-        <v>459</v>
+        <v>457</v>
+      </c>
+      <c r="C446" s="22" t="s">
+        <v>460</v>
       </c>
       <c r="D446" s="12"/>
     </row>
@@ -7615,10 +7635,10 @@
         <v>442</v>
       </c>
       <c r="B447" s="10" t="s">
-        <v>456</v>
-      </c>
-      <c r="C447" s="20" t="s">
-        <v>460</v>
+        <v>457</v>
+      </c>
+      <c r="C447" s="22" t="s">
+        <v>461</v>
       </c>
       <c r="D447" s="12"/>
     </row>
@@ -7628,10 +7648,10 @@
         <v>443</v>
       </c>
       <c r="B448" s="10" t="s">
-        <v>456</v>
-      </c>
-      <c r="C448" s="20" t="s">
-        <v>461</v>
+        <v>457</v>
+      </c>
+      <c r="C448" s="22" t="s">
+        <v>462</v>
       </c>
       <c r="D448" s="12"/>
     </row>
@@ -7641,10 +7661,10 @@
         <v>444</v>
       </c>
       <c r="B449" s="10" t="s">
-        <v>456</v>
-      </c>
-      <c r="C449" s="20" t="s">
-        <v>462</v>
+        <v>457</v>
+      </c>
+      <c r="C449" s="22" t="s">
+        <v>463</v>
       </c>
       <c r="D449" s="12"/>
     </row>
@@ -7654,10 +7674,10 @@
         <v>445</v>
       </c>
       <c r="B450" s="10" t="s">
-        <v>456</v>
-      </c>
-      <c r="C450" s="20" t="s">
-        <v>463</v>
+        <v>457</v>
+      </c>
+      <c r="C450" s="22" t="s">
+        <v>464</v>
       </c>
       <c r="D450" s="12"/>
     </row>
@@ -7667,10 +7687,10 @@
         <v>446</v>
       </c>
       <c r="B451" s="10" t="s">
-        <v>456</v>
-      </c>
-      <c r="C451" s="20" t="s">
-        <v>464</v>
+        <v>457</v>
+      </c>
+      <c r="C451" s="22" t="s">
+        <v>465</v>
       </c>
       <c r="D451" s="12"/>
     </row>
@@ -7680,10 +7700,10 @@
         <v>447</v>
       </c>
       <c r="B452" s="10" t="s">
-        <v>456</v>
-      </c>
-      <c r="C452" s="20" t="s">
-        <v>465</v>
+        <v>457</v>
+      </c>
+      <c r="C452" s="22" t="s">
+        <v>466</v>
       </c>
       <c r="D452" s="12"/>
     </row>
@@ -7693,10 +7713,10 @@
         <v>448</v>
       </c>
       <c r="B453" s="10" t="s">
-        <v>456</v>
-      </c>
-      <c r="C453" s="20" t="s">
-        <v>466</v>
+        <v>457</v>
+      </c>
+      <c r="C453" s="22" t="s">
+        <v>467</v>
       </c>
       <c r="D453" s="12"/>
     </row>

--- a/DSA_450_LoveBabbar.xlsx
+++ b/DSA_450_LoveBabbar.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="905" uniqueCount="468">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="906" uniqueCount="469">
   <si>
     <t xml:space="preserve">Questions by Love Babbar:</t>
   </si>
@@ -235,6 +235,9 @@
   </si>
   <si>
     <t xml:space="preserve">Count and Say problem</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nice one !</t>
   </si>
   <si>
     <t xml:space="preserve">Write a program to find the longest Palindrome in a string.[ Longest palindromic Substring]</t>
@@ -1857,8 +1860,8 @@
   </sheetPr>
   <dimension ref="A1:D467"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A40" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D56" activeCellId="0" sqref="D56"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A36" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D59" activeCellId="0" sqref="D59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6953125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2562,7 +2565,7 @@
       <c r="B56" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="C56" s="22" t="s">
+      <c r="C56" s="13" t="s">
         <v>62</v>
       </c>
       <c r="D56" s="12"/>
@@ -2575,7 +2578,7 @@
       <c r="B57" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="C57" s="22" t="s">
+      <c r="C57" s="13" t="s">
         <v>63</v>
       </c>
       <c r="D57" s="12"/>
@@ -2588,10 +2591,12 @@
       <c r="B58" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="C58" s="22" t="s">
+      <c r="C58" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="D58" s="12"/>
+      <c r="D58" s="21" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="59" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="6" t="n">
@@ -2602,7 +2607,7 @@
         <v>56</v>
       </c>
       <c r="C59" s="22" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D59" s="12"/>
     </row>
@@ -2615,7 +2620,7 @@
         <v>56</v>
       </c>
       <c r="C60" s="22" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D60" s="12"/>
     </row>
@@ -2628,7 +2633,7 @@
         <v>56</v>
       </c>
       <c r="C61" s="22" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D61" s="12"/>
     </row>
@@ -2641,7 +2646,7 @@
         <v>56</v>
       </c>
       <c r="C62" s="22" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D62" s="12"/>
     </row>
@@ -2654,7 +2659,7 @@
         <v>56</v>
       </c>
       <c r="C63" s="22" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D63" s="12"/>
     </row>
@@ -2667,7 +2672,7 @@
         <v>56</v>
       </c>
       <c r="C64" s="22" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D64" s="12"/>
     </row>
@@ -2680,7 +2685,7 @@
         <v>56</v>
       </c>
       <c r="C65" s="22" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D65" s="12"/>
     </row>
@@ -2693,7 +2698,7 @@
         <v>56</v>
       </c>
       <c r="C66" s="22" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D66" s="12"/>
     </row>
@@ -2706,7 +2711,7 @@
         <v>56</v>
       </c>
       <c r="C67" s="22" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D67" s="12"/>
     </row>
@@ -2719,7 +2724,7 @@
         <v>56</v>
       </c>
       <c r="C68" s="22" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D68" s="12"/>
     </row>
@@ -2732,7 +2737,7 @@
         <v>56</v>
       </c>
       <c r="C69" s="22" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D69" s="12"/>
     </row>
@@ -2745,7 +2750,7 @@
         <v>56</v>
       </c>
       <c r="C70" s="22" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D70" s="12"/>
     </row>
@@ -2758,7 +2763,7 @@
         <v>56</v>
       </c>
       <c r="C71" s="22" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D71" s="12"/>
     </row>
@@ -2771,7 +2776,7 @@
         <v>56</v>
       </c>
       <c r="C72" s="22" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D72" s="12"/>
     </row>
@@ -2784,7 +2789,7 @@
         <v>56</v>
       </c>
       <c r="C73" s="22" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D73" s="12"/>
     </row>
@@ -2797,7 +2802,7 @@
         <v>56</v>
       </c>
       <c r="C74" s="22" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D74" s="12"/>
     </row>
@@ -2810,7 +2815,7 @@
         <v>56</v>
       </c>
       <c r="C75" s="22" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D75" s="12"/>
     </row>
@@ -2823,7 +2828,7 @@
         <v>56</v>
       </c>
       <c r="C76" s="22" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D76" s="12"/>
     </row>
@@ -2836,7 +2841,7 @@
         <v>56</v>
       </c>
       <c r="C77" s="22" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D77" s="12"/>
     </row>
@@ -2849,7 +2854,7 @@
         <v>56</v>
       </c>
       <c r="C78" s="22" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D78" s="12"/>
     </row>
@@ -2862,7 +2867,7 @@
         <v>56</v>
       </c>
       <c r="C79" s="22" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D79" s="12"/>
     </row>
@@ -2875,7 +2880,7 @@
         <v>56</v>
       </c>
       <c r="C80" s="22" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D80" s="12"/>
     </row>
@@ -2888,7 +2893,7 @@
         <v>56</v>
       </c>
       <c r="C81" s="22" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D81" s="12"/>
     </row>
@@ -2901,7 +2906,7 @@
         <v>56</v>
       </c>
       <c r="C82" s="22" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D82" s="12"/>
     </row>
@@ -2914,7 +2919,7 @@
         <v>56</v>
       </c>
       <c r="C83" s="22" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D83" s="12"/>
     </row>
@@ -2927,7 +2932,7 @@
         <v>56</v>
       </c>
       <c r="C84" s="22" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D84" s="12"/>
     </row>
@@ -2940,7 +2945,7 @@
         <v>56</v>
       </c>
       <c r="C85" s="22" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D85" s="12"/>
     </row>
@@ -2953,7 +2958,7 @@
         <v>56</v>
       </c>
       <c r="C86" s="22" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D86" s="12"/>
     </row>
@@ -2966,7 +2971,7 @@
         <v>56</v>
       </c>
       <c r="C87" s="22" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D87" s="12"/>
     </row>
@@ -2979,7 +2984,7 @@
         <v>56</v>
       </c>
       <c r="C88" s="22" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D88" s="12"/>
     </row>
@@ -2992,7 +2997,7 @@
         <v>56</v>
       </c>
       <c r="C89" s="22" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D89" s="12"/>
     </row>
@@ -3005,7 +3010,7 @@
         <v>56</v>
       </c>
       <c r="C90" s="22" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D90" s="12"/>
     </row>
@@ -3018,7 +3023,7 @@
         <v>56</v>
       </c>
       <c r="C91" s="22" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D91" s="12"/>
     </row>
@@ -3031,7 +3036,7 @@
         <v>56</v>
       </c>
       <c r="C92" s="22" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D92" s="12"/>
     </row>
@@ -3044,7 +3049,7 @@
         <v>56</v>
       </c>
       <c r="C93" s="22" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D93" s="12"/>
     </row>
@@ -3057,7 +3062,7 @@
         <v>56</v>
       </c>
       <c r="C94" s="22" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D94" s="12"/>
     </row>
@@ -3067,10 +3072,10 @@
         <v>90</v>
       </c>
       <c r="B95" s="15" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C95" s="22" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D95" s="12"/>
     </row>
@@ -3080,10 +3085,10 @@
         <v>91</v>
       </c>
       <c r="B96" s="15" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C96" s="22" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D96" s="12"/>
     </row>
@@ -3093,10 +3098,10 @@
         <v>92</v>
       </c>
       <c r="B97" s="15" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C97" s="22" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D97" s="12"/>
     </row>
@@ -3106,10 +3111,10 @@
         <v>93</v>
       </c>
       <c r="B98" s="15" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C98" s="22" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D98" s="12"/>
     </row>
@@ -3119,10 +3124,10 @@
         <v>94</v>
       </c>
       <c r="B99" s="15" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C99" s="22" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D99" s="12"/>
     </row>
@@ -3132,10 +3137,10 @@
         <v>95</v>
       </c>
       <c r="B100" s="15" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C100" s="22" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D100" s="12"/>
     </row>
@@ -3145,10 +3150,10 @@
         <v>96</v>
       </c>
       <c r="B101" s="15" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C101" s="22" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D101" s="12"/>
     </row>
@@ -3158,10 +3163,10 @@
         <v>97</v>
       </c>
       <c r="B102" s="15" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C102" s="22" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D102" s="12"/>
     </row>
@@ -3171,10 +3176,10 @@
         <v>98</v>
       </c>
       <c r="B103" s="15" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C103" s="22" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D103" s="12"/>
     </row>
@@ -3184,10 +3189,10 @@
         <v>99</v>
       </c>
       <c r="B104" s="15" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C104" s="22" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D104" s="12"/>
     </row>
@@ -3197,10 +3202,10 @@
         <v>100</v>
       </c>
       <c r="B105" s="15" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C105" s="22" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D105" s="12"/>
     </row>
@@ -3210,10 +3215,10 @@
         <v>101</v>
       </c>
       <c r="B106" s="15" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C106" s="22" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D106" s="12"/>
     </row>
@@ -3223,10 +3228,10 @@
         <v>102</v>
       </c>
       <c r="B107" s="15" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C107" s="22" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D107" s="12"/>
     </row>
@@ -3236,10 +3241,10 @@
         <v>103</v>
       </c>
       <c r="B108" s="15" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C108" s="22" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D108" s="12"/>
     </row>
@@ -3249,10 +3254,10 @@
         <v>104</v>
       </c>
       <c r="B109" s="15" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C109" s="22" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D109" s="12"/>
     </row>
@@ -3262,10 +3267,10 @@
         <v>105</v>
       </c>
       <c r="B110" s="15" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C110" s="22" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D110" s="12"/>
     </row>
@@ -3275,10 +3280,10 @@
         <v>106</v>
       </c>
       <c r="B111" s="15" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C111" s="22" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D111" s="12"/>
     </row>
@@ -3288,10 +3293,10 @@
         <v>107</v>
       </c>
       <c r="B112" s="15" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C112" s="22" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D112" s="12"/>
     </row>
@@ -3301,10 +3306,10 @@
         <v>108</v>
       </c>
       <c r="B113" s="15" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C113" s="22" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D113" s="12"/>
     </row>
@@ -3314,10 +3319,10 @@
         <v>109</v>
       </c>
       <c r="B114" s="15" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C114" s="22" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D114" s="12"/>
     </row>
@@ -3327,10 +3332,10 @@
         <v>110</v>
       </c>
       <c r="B115" s="15" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C115" s="22" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D115" s="12"/>
     </row>
@@ -3340,10 +3345,10 @@
         <v>111</v>
       </c>
       <c r="B116" s="15" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C116" s="22" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D116" s="12"/>
     </row>
@@ -3353,10 +3358,10 @@
         <v>112</v>
       </c>
       <c r="B117" s="15" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C117" s="22" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D117" s="12"/>
     </row>
@@ -3366,10 +3371,10 @@
         <v>113</v>
       </c>
       <c r="B118" s="15" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C118" s="22" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D118" s="12"/>
     </row>
@@ -3379,10 +3384,10 @@
         <v>114</v>
       </c>
       <c r="B119" s="15" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C119" s="22" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D119" s="12"/>
     </row>
@@ -3392,10 +3397,10 @@
         <v>115</v>
       </c>
       <c r="B120" s="15" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C120" s="22" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D120" s="12"/>
     </row>
@@ -3405,10 +3410,10 @@
         <v>116</v>
       </c>
       <c r="B121" s="15" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C121" s="22" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D121" s="12"/>
     </row>
@@ -3418,10 +3423,10 @@
         <v>117</v>
       </c>
       <c r="B122" s="15" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C122" s="22" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D122" s="12"/>
     </row>
@@ -3431,10 +3436,10 @@
         <v>118</v>
       </c>
       <c r="B123" s="15" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C123" s="22" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D123" s="12"/>
     </row>
@@ -3444,10 +3449,10 @@
         <v>119</v>
       </c>
       <c r="B124" s="15" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C124" s="22" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D124" s="12"/>
     </row>
@@ -3457,10 +3462,10 @@
         <v>120</v>
       </c>
       <c r="B125" s="15" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C125" s="22" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D125" s="12"/>
     </row>
@@ -3470,10 +3475,10 @@
         <v>121</v>
       </c>
       <c r="B126" s="15" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C126" s="22" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D126" s="12"/>
     </row>
@@ -3483,10 +3488,10 @@
         <v>122</v>
       </c>
       <c r="B127" s="15" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C127" s="22" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D127" s="12"/>
     </row>
@@ -3496,10 +3501,10 @@
         <v>123</v>
       </c>
       <c r="B128" s="15" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C128" s="22" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D128" s="12"/>
     </row>
@@ -3509,10 +3514,10 @@
         <v>124</v>
       </c>
       <c r="B129" s="15" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C129" s="22" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D129" s="12"/>
     </row>
@@ -3522,10 +3527,10 @@
         <v>125</v>
       </c>
       <c r="B130" s="15" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C130" s="22" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D130" s="12"/>
     </row>
@@ -3535,10 +3540,10 @@
         <v>126</v>
       </c>
       <c r="B131" s="10" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C131" s="22" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D131" s="12"/>
     </row>
@@ -3548,10 +3553,10 @@
         <v>127</v>
       </c>
       <c r="B132" s="10" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C132" s="22" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D132" s="12"/>
     </row>
@@ -3561,10 +3566,10 @@
         <v>128</v>
       </c>
       <c r="B133" s="10" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C133" s="22" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D133" s="12"/>
     </row>
@@ -3574,10 +3579,10 @@
         <v>129</v>
       </c>
       <c r="B134" s="10" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C134" s="22" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D134" s="12"/>
     </row>
@@ -3587,10 +3592,10 @@
         <v>130</v>
       </c>
       <c r="B135" s="10" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C135" s="22" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D135" s="12"/>
     </row>
@@ -3600,10 +3605,10 @@
         <v>131</v>
       </c>
       <c r="B136" s="10" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C136" s="22" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D136" s="12"/>
     </row>
@@ -3613,10 +3618,10 @@
         <v>132</v>
       </c>
       <c r="B137" s="10" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C137" s="22" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D137" s="12"/>
     </row>
@@ -3626,10 +3631,10 @@
         <v>133</v>
       </c>
       <c r="B138" s="10" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C138" s="22" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D138" s="12"/>
     </row>
@@ -3639,10 +3644,10 @@
         <v>134</v>
       </c>
       <c r="B139" s="10" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C139" s="22" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D139" s="12"/>
     </row>
@@ -3652,10 +3657,10 @@
         <v>135</v>
       </c>
       <c r="B140" s="10" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C140" s="22" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D140" s="12"/>
     </row>
@@ -3665,10 +3670,10 @@
         <v>136</v>
       </c>
       <c r="B141" s="10" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C141" s="22" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D141" s="12"/>
     </row>
@@ -3678,10 +3683,10 @@
         <v>137</v>
       </c>
       <c r="B142" s="10" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C142" s="22" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D142" s="12"/>
     </row>
@@ -3691,10 +3696,10 @@
         <v>138</v>
       </c>
       <c r="B143" s="10" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C143" s="22" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D143" s="12"/>
     </row>
@@ -3704,10 +3709,10 @@
         <v>139</v>
       </c>
       <c r="B144" s="10" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C144" s="22" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D144" s="12"/>
     </row>
@@ -3717,10 +3722,10 @@
         <v>140</v>
       </c>
       <c r="B145" s="10" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C145" s="22" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D145" s="12"/>
     </row>
@@ -3730,10 +3735,10 @@
         <v>141</v>
       </c>
       <c r="B146" s="10" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C146" s="22" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D146" s="12"/>
     </row>
@@ -3743,10 +3748,10 @@
         <v>142</v>
       </c>
       <c r="B147" s="10" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C147" s="22" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D147" s="12"/>
     </row>
@@ -3756,10 +3761,10 @@
         <v>143</v>
       </c>
       <c r="B148" s="10" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C148" s="22" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D148" s="12"/>
     </row>
@@ -3769,10 +3774,10 @@
         <v>144</v>
       </c>
       <c r="B149" s="10" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C149" s="22" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D149" s="12"/>
     </row>
@@ -3782,10 +3787,10 @@
         <v>145</v>
       </c>
       <c r="B150" s="10" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C150" s="22" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D150" s="12"/>
     </row>
@@ -3795,10 +3800,10 @@
         <v>146</v>
       </c>
       <c r="B151" s="10" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C151" s="22" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D151" s="12"/>
     </row>
@@ -3808,10 +3813,10 @@
         <v>147</v>
       </c>
       <c r="B152" s="10" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C152" s="22" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D152" s="12"/>
     </row>
@@ -3821,10 +3826,10 @@
         <v>148</v>
       </c>
       <c r="B153" s="10" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C153" s="22" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D153" s="12"/>
     </row>
@@ -3834,10 +3839,10 @@
         <v>149</v>
       </c>
       <c r="B154" s="10" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C154" s="22" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D154" s="12"/>
     </row>
@@ -3847,10 +3852,10 @@
         <v>150</v>
       </c>
       <c r="B155" s="10" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C155" s="22" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D155" s="12"/>
     </row>
@@ -3860,10 +3865,10 @@
         <v>151</v>
       </c>
       <c r="B156" s="10" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C156" s="23" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D156" s="12"/>
     </row>
@@ -3873,10 +3878,10 @@
         <v>152</v>
       </c>
       <c r="B157" s="10" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C157" s="23" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D157" s="12"/>
     </row>
@@ -3886,10 +3891,10 @@
         <v>153</v>
       </c>
       <c r="B158" s="10" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C158" s="22" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D158" s="12"/>
     </row>
@@ -3899,10 +3904,10 @@
         <v>154</v>
       </c>
       <c r="B159" s="10" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C159" s="22" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D159" s="12"/>
     </row>
@@ -3912,10 +3917,10 @@
         <v>155</v>
       </c>
       <c r="B160" s="10" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C160" s="22" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D160" s="12"/>
     </row>
@@ -3925,10 +3930,10 @@
         <v>156</v>
       </c>
       <c r="B161" s="10" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C161" s="22" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D161" s="12"/>
     </row>
@@ -3938,10 +3943,10 @@
         <v>157</v>
       </c>
       <c r="B162" s="10" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C162" s="22" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D162" s="12"/>
     </row>
@@ -3951,10 +3956,10 @@
         <v>158</v>
       </c>
       <c r="B163" s="10" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C163" s="22" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D163" s="12"/>
     </row>
@@ -3964,10 +3969,10 @@
         <v>159</v>
       </c>
       <c r="B164" s="10" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C164" s="22" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D164" s="12"/>
     </row>
@@ -3977,10 +3982,10 @@
         <v>160</v>
       </c>
       <c r="B165" s="10" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C165" s="22" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D165" s="12"/>
     </row>
@@ -3990,10 +3995,10 @@
         <v>161</v>
       </c>
       <c r="B166" s="10" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C166" s="22" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D166" s="12"/>
     </row>
@@ -4003,10 +4008,10 @@
         <v>162</v>
       </c>
       <c r="B167" s="15" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C167" s="22" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D167" s="12"/>
     </row>
@@ -4016,10 +4021,10 @@
         <v>163</v>
       </c>
       <c r="B168" s="15" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C168" s="22" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D168" s="12"/>
     </row>
@@ -4029,10 +4034,10 @@
         <v>164</v>
       </c>
       <c r="B169" s="15" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C169" s="22" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D169" s="12"/>
     </row>
@@ -4042,10 +4047,10 @@
         <v>165</v>
       </c>
       <c r="B170" s="15" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C170" s="22" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D170" s="12"/>
     </row>
@@ -4055,10 +4060,10 @@
         <v>166</v>
       </c>
       <c r="B171" s="15" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C171" s="22" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D171" s="12"/>
     </row>
@@ -4068,10 +4073,10 @@
         <v>167</v>
       </c>
       <c r="B172" s="15" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C172" s="22" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D172" s="12"/>
     </row>
@@ -4081,10 +4086,10 @@
         <v>168</v>
       </c>
       <c r="B173" s="15" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C173" s="22" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D173" s="12"/>
     </row>
@@ -4094,10 +4099,10 @@
         <v>169</v>
       </c>
       <c r="B174" s="15" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C174" s="22" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D174" s="12"/>
     </row>
@@ -4107,10 +4112,10 @@
         <v>170</v>
       </c>
       <c r="B175" s="15" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C175" s="22" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D175" s="12"/>
     </row>
@@ -4120,10 +4125,10 @@
         <v>171</v>
       </c>
       <c r="B176" s="15" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C176" s="22" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D176" s="12"/>
     </row>
@@ -4133,10 +4138,10 @@
         <v>172</v>
       </c>
       <c r="B177" s="15" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C177" s="22" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D177" s="12"/>
     </row>
@@ -4146,10 +4151,10 @@
         <v>173</v>
       </c>
       <c r="B178" s="15" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C178" s="22" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D178" s="12"/>
     </row>
@@ -4159,10 +4164,10 @@
         <v>174</v>
       </c>
       <c r="B179" s="15" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C179" s="22" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D179" s="12"/>
     </row>
@@ -4172,10 +4177,10 @@
         <v>175</v>
       </c>
       <c r="B180" s="15" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C180" s="22" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D180" s="12"/>
     </row>
@@ -4185,10 +4190,10 @@
         <v>176</v>
       </c>
       <c r="B181" s="15" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C181" s="22" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D181" s="12"/>
     </row>
@@ -4198,10 +4203,10 @@
         <v>177</v>
       </c>
       <c r="B182" s="15" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C182" s="22" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D182" s="12"/>
     </row>
@@ -4211,10 +4216,10 @@
         <v>178</v>
       </c>
       <c r="B183" s="15" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C183" s="22" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="D183" s="12"/>
     </row>
@@ -4224,10 +4229,10 @@
         <v>179</v>
       </c>
       <c r="B184" s="15" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C184" s="22" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D184" s="12"/>
     </row>
@@ -4237,10 +4242,10 @@
         <v>180</v>
       </c>
       <c r="B185" s="15" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C185" s="22" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D185" s="12"/>
     </row>
@@ -4250,10 +4255,10 @@
         <v>181</v>
       </c>
       <c r="B186" s="15" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C186" s="22" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D186" s="12"/>
     </row>
@@ -4263,10 +4268,10 @@
         <v>182</v>
       </c>
       <c r="B187" s="15" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C187" s="22" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D187" s="12"/>
     </row>
@@ -4276,10 +4281,10 @@
         <v>183</v>
       </c>
       <c r="B188" s="15" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C188" s="22" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D188" s="12"/>
     </row>
@@ -4289,10 +4294,10 @@
         <v>184</v>
       </c>
       <c r="B189" s="15" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C189" s="22" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D189" s="12"/>
     </row>
@@ -4302,10 +4307,10 @@
         <v>185</v>
       </c>
       <c r="B190" s="15" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C190" s="22" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D190" s="12"/>
     </row>
@@ -4315,10 +4320,10 @@
         <v>186</v>
       </c>
       <c r="B191" s="15" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C191" s="22" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D191" s="12"/>
     </row>
@@ -4328,10 +4333,10 @@
         <v>187</v>
       </c>
       <c r="B192" s="15" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C192" s="22" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D192" s="12"/>
     </row>
@@ -4341,10 +4346,10 @@
         <v>188</v>
       </c>
       <c r="B193" s="15" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C193" s="22" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="D193" s="12"/>
     </row>
@@ -4354,10 +4359,10 @@
         <v>189</v>
       </c>
       <c r="B194" s="15" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C194" s="22" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="D194" s="12"/>
     </row>
@@ -4367,10 +4372,10 @@
         <v>190</v>
       </c>
       <c r="B195" s="15" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C195" s="22" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D195" s="12"/>
     </row>
@@ -4380,10 +4385,10 @@
         <v>191</v>
       </c>
       <c r="B196" s="15" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C196" s="22" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D196" s="12"/>
     </row>
@@ -4393,10 +4398,10 @@
         <v>192</v>
       </c>
       <c r="B197" s="15" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C197" s="22" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D197" s="12"/>
     </row>
@@ -4406,10 +4411,10 @@
         <v>193</v>
       </c>
       <c r="B198" s="15" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C198" s="22" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D198" s="12"/>
     </row>
@@ -4419,10 +4424,10 @@
         <v>194</v>
       </c>
       <c r="B199" s="15" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C199" s="22" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="D199" s="12"/>
     </row>
@@ -4432,10 +4437,10 @@
         <v>195</v>
       </c>
       <c r="B200" s="15" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C200" s="22" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="D200" s="12"/>
     </row>
@@ -4445,10 +4450,10 @@
         <v>196</v>
       </c>
       <c r="B201" s="15" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C201" s="22" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="D201" s="12"/>
     </row>
@@ -4458,10 +4463,10 @@
         <v>197</v>
       </c>
       <c r="B202" s="10" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C202" s="22" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="203" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4470,10 +4475,10 @@
         <v>198</v>
       </c>
       <c r="B203" s="10" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C203" s="22" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="204" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4482,10 +4487,10 @@
         <v>199</v>
       </c>
       <c r="B204" s="10" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C204" s="22" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
     </row>
     <row r="205" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4494,10 +4499,10 @@
         <v>200</v>
       </c>
       <c r="B205" s="10" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C205" s="22" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="206" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4506,10 +4511,10 @@
         <v>201</v>
       </c>
       <c r="B206" s="10" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C206" s="22" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
     </row>
     <row r="207" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4518,10 +4523,10 @@
         <v>202</v>
       </c>
       <c r="B207" s="10" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C207" s="22" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row r="208" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4530,10 +4535,10 @@
         <v>203</v>
       </c>
       <c r="B208" s="10" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C208" s="24" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="209" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4542,10 +4547,10 @@
         <v>204</v>
       </c>
       <c r="B209" s="10" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C209" s="22" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
     </row>
     <row r="210" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4554,10 +4559,10 @@
         <v>205</v>
       </c>
       <c r="B210" s="10" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C210" s="22" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="D210" s="12"/>
     </row>
@@ -4567,10 +4572,10 @@
         <v>206</v>
       </c>
       <c r="B211" s="10" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C211" s="22" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="D211" s="12"/>
     </row>
@@ -4580,10 +4585,10 @@
         <v>207</v>
       </c>
       <c r="B212" s="10" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C212" s="22" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="D212" s="12"/>
     </row>
@@ -4593,10 +4598,10 @@
         <v>208</v>
       </c>
       <c r="B213" s="10" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C213" s="22" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="D213" s="12"/>
     </row>
@@ -4606,10 +4611,10 @@
         <v>209</v>
       </c>
       <c r="B214" s="10" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C214" s="22" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D214" s="12"/>
     </row>
@@ -4619,10 +4624,10 @@
         <v>210</v>
       </c>
       <c r="B215" s="10" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C215" s="22" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="D215" s="12"/>
     </row>
@@ -4632,10 +4637,10 @@
         <v>211</v>
       </c>
       <c r="B216" s="10" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C216" s="22" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="D216" s="12"/>
     </row>
@@ -4645,10 +4650,10 @@
         <v>212</v>
       </c>
       <c r="B217" s="10" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C217" s="22" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="D217" s="12"/>
     </row>
@@ -4658,10 +4663,10 @@
         <v>213</v>
       </c>
       <c r="B218" s="10" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C218" s="22" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D218" s="12"/>
     </row>
@@ -4671,10 +4676,10 @@
         <v>214</v>
       </c>
       <c r="B219" s="10" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C219" s="22" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D219" s="12"/>
     </row>
@@ -4684,10 +4689,10 @@
         <v>215</v>
       </c>
       <c r="B220" s="10" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C220" s="22" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="D220" s="12"/>
     </row>
@@ -4697,10 +4702,10 @@
         <v>216</v>
       </c>
       <c r="B221" s="10" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C221" s="22" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="D221" s="12"/>
     </row>
@@ -4710,10 +4715,10 @@
         <v>217</v>
       </c>
       <c r="B222" s="10" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C222" s="22" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="D222" s="12"/>
     </row>
@@ -4723,10 +4728,10 @@
         <v>218</v>
       </c>
       <c r="B223" s="10" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C223" s="22" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="D223" s="12"/>
     </row>
@@ -4736,10 +4741,10 @@
         <v>219</v>
       </c>
       <c r="B224" s="15" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C224" s="22" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D224" s="12"/>
     </row>
@@ -4749,10 +4754,10 @@
         <v>220</v>
       </c>
       <c r="B225" s="15" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C225" s="22" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D225" s="12"/>
     </row>
@@ -4762,10 +4767,10 @@
         <v>221</v>
       </c>
       <c r="B226" s="15" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C226" s="22" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="D226" s="12"/>
     </row>
@@ -4775,10 +4780,10 @@
         <v>222</v>
       </c>
       <c r="B227" s="15" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C227" s="22" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D227" s="12"/>
     </row>
@@ -4788,10 +4793,10 @@
         <v>223</v>
       </c>
       <c r="B228" s="15" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C228" s="22" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="D228" s="12"/>
     </row>
@@ -4801,10 +4806,10 @@
         <v>224</v>
       </c>
       <c r="B229" s="15" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C229" s="22" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D229" s="12"/>
     </row>
@@ -4814,10 +4819,10 @@
         <v>225</v>
       </c>
       <c r="B230" s="15" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C230" s="22" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="D230" s="12"/>
     </row>
@@ -4827,10 +4832,10 @@
         <v>226</v>
       </c>
       <c r="B231" s="15" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C231" s="22" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="D231" s="12"/>
     </row>
@@ -4840,10 +4845,10 @@
         <v>227</v>
       </c>
       <c r="B232" s="15" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C232" s="22" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="D232" s="12"/>
     </row>
@@ -4853,10 +4858,10 @@
         <v>228</v>
       </c>
       <c r="B233" s="15" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C233" s="22" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="D233" s="12"/>
     </row>
@@ -4866,10 +4871,10 @@
         <v>229</v>
       </c>
       <c r="B234" s="15" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C234" s="22" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="D234" s="12"/>
     </row>
@@ -4879,10 +4884,10 @@
         <v>230</v>
       </c>
       <c r="B235" s="15" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C235" s="22" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="D235" s="12"/>
     </row>
@@ -4892,10 +4897,10 @@
         <v>231</v>
       </c>
       <c r="B236" s="15" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C236" s="22" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="D236" s="12"/>
     </row>
@@ -4905,10 +4910,10 @@
         <v>232</v>
       </c>
       <c r="B237" s="15" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C237" s="22" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="D237" s="12"/>
     </row>
@@ -4918,10 +4923,10 @@
         <v>233</v>
       </c>
       <c r="B238" s="15" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C238" s="22" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="D238" s="12"/>
     </row>
@@ -4931,10 +4936,10 @@
         <v>234</v>
       </c>
       <c r="B239" s="15" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C239" s="22" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="D239" s="12"/>
     </row>
@@ -4944,10 +4949,10 @@
         <v>235</v>
       </c>
       <c r="B240" s="15" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C240" s="22" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="D240" s="12"/>
     </row>
@@ -4957,10 +4962,10 @@
         <v>236</v>
       </c>
       <c r="B241" s="15" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C241" s="22" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="D241" s="12"/>
     </row>
@@ -4970,10 +4975,10 @@
         <v>237</v>
       </c>
       <c r="B242" s="15" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C242" s="22" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="D242" s="12"/>
     </row>
@@ -4983,10 +4988,10 @@
         <v>238</v>
       </c>
       <c r="B243" s="15" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C243" s="22" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="D243" s="12"/>
     </row>
@@ -4996,10 +5001,10 @@
         <v>239</v>
       </c>
       <c r="B244" s="15" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C244" s="22" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="D244" s="12"/>
     </row>
@@ -5009,10 +5014,10 @@
         <v>240</v>
       </c>
       <c r="B245" s="15" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C245" s="22" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="D245" s="12"/>
     </row>
@@ -5022,10 +5027,10 @@
         <v>241</v>
       </c>
       <c r="B246" s="15" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C246" s="22" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="D246" s="12"/>
     </row>
@@ -5035,10 +5040,10 @@
         <v>242</v>
       </c>
       <c r="B247" s="15" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C247" s="22" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="D247" s="12"/>
     </row>
@@ -5048,10 +5053,10 @@
         <v>243</v>
       </c>
       <c r="B248" s="15" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C248" s="22" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="D248" s="12"/>
     </row>
@@ -5061,10 +5066,10 @@
         <v>244</v>
       </c>
       <c r="B249" s="15" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C249" s="22" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="D249" s="12"/>
     </row>
@@ -5074,10 +5079,10 @@
         <v>245</v>
       </c>
       <c r="B250" s="15" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C250" s="22" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="D250" s="12"/>
     </row>
@@ -5087,10 +5092,10 @@
         <v>246</v>
       </c>
       <c r="B251" s="15" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C251" s="22" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="D251" s="12"/>
     </row>
@@ -5100,10 +5105,10 @@
         <v>247</v>
       </c>
       <c r="B252" s="15" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C252" s="22" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="D252" s="12"/>
     </row>
@@ -5113,10 +5118,10 @@
         <v>248</v>
       </c>
       <c r="B253" s="15" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C253" s="22" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D253" s="12"/>
     </row>
@@ -5126,10 +5131,10 @@
         <v>249</v>
       </c>
       <c r="B254" s="15" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C254" s="22" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="D254" s="12"/>
     </row>
@@ -5139,10 +5144,10 @@
         <v>250</v>
       </c>
       <c r="B255" s="15" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C255" s="22" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D255" s="12"/>
     </row>
@@ -5152,10 +5157,10 @@
         <v>251</v>
       </c>
       <c r="B256" s="15" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C256" s="22" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="D256" s="12"/>
     </row>
@@ -5165,10 +5170,10 @@
         <v>252</v>
       </c>
       <c r="B257" s="15" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C257" s="22" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D257" s="12"/>
     </row>
@@ -5178,10 +5183,10 @@
         <v>253</v>
       </c>
       <c r="B258" s="15" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C258" s="22" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D258" s="12"/>
     </row>
@@ -5191,10 +5196,10 @@
         <v>254</v>
       </c>
       <c r="B259" s="10" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="C259" s="22" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="D259" s="12"/>
     </row>
@@ -5204,10 +5209,10 @@
         <v>255</v>
       </c>
       <c r="B260" s="10" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="C260" s="22" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="D260" s="12"/>
     </row>
@@ -5217,10 +5222,10 @@
         <v>256</v>
       </c>
       <c r="B261" s="10" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="C261" s="22" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="D261" s="12"/>
     </row>
@@ -5230,10 +5235,10 @@
         <v>257</v>
       </c>
       <c r="B262" s="10" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="C262" s="22" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="D262" s="12"/>
     </row>
@@ -5243,10 +5248,10 @@
         <v>258</v>
       </c>
       <c r="B263" s="10" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="C263" s="22" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="D263" s="12"/>
     </row>
@@ -5256,10 +5261,10 @@
         <v>259</v>
       </c>
       <c r="B264" s="10" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="C264" s="22" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="D264" s="12"/>
     </row>
@@ -5269,10 +5274,10 @@
         <v>260</v>
       </c>
       <c r="B265" s="10" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="C265" s="22" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="D265" s="12"/>
     </row>
@@ -5282,10 +5287,10 @@
         <v>261</v>
       </c>
       <c r="B266" s="10" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="C266" s="22" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="D266" s="12"/>
     </row>
@@ -5295,10 +5300,10 @@
         <v>262</v>
       </c>
       <c r="B267" s="10" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="C267" s="22" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="D267" s="12"/>
     </row>
@@ -5308,10 +5313,10 @@
         <v>263</v>
       </c>
       <c r="B268" s="10" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="C268" s="22" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="D268" s="12"/>
     </row>
@@ -5321,10 +5326,10 @@
         <v>264</v>
       </c>
       <c r="B269" s="10" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="C269" s="22" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="D269" s="12"/>
     </row>
@@ -5334,10 +5339,10 @@
         <v>265</v>
       </c>
       <c r="B270" s="10" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="C270" s="22" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="D270" s="12"/>
     </row>
@@ -5347,10 +5352,10 @@
         <v>266</v>
       </c>
       <c r="B271" s="10" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="C271" s="22" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="D271" s="12"/>
     </row>
@@ -5360,10 +5365,10 @@
         <v>267</v>
       </c>
       <c r="B272" s="10" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="C272" s="22" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="D272" s="12"/>
     </row>
@@ -5373,10 +5378,10 @@
         <v>268</v>
       </c>
       <c r="B273" s="10" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="C273" s="22" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="D273" s="12"/>
     </row>
@@ -5386,10 +5391,10 @@
         <v>269</v>
       </c>
       <c r="B274" s="10" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="C274" s="22" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="D274" s="12"/>
     </row>
@@ -5399,10 +5404,10 @@
         <v>270</v>
       </c>
       <c r="B275" s="10" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="C275" s="22" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="D275" s="12"/>
     </row>
@@ -5412,10 +5417,10 @@
         <v>271</v>
       </c>
       <c r="B276" s="10" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="C276" s="22" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="D276" s="12"/>
     </row>
@@ -5425,10 +5430,10 @@
         <v>272</v>
       </c>
       <c r="B277" s="10" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="C277" s="22" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="D277" s="12"/>
     </row>
@@ -5438,10 +5443,10 @@
         <v>273</v>
       </c>
       <c r="B278" s="15" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C278" s="22" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="D278" s="12"/>
     </row>
@@ -5451,10 +5456,10 @@
         <v>274</v>
       </c>
       <c r="B279" s="15" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C279" s="22" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="D279" s="12"/>
     </row>
@@ -5464,10 +5469,10 @@
         <v>275</v>
       </c>
       <c r="B280" s="15" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C280" s="22" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="D280" s="12"/>
     </row>
@@ -5477,10 +5482,10 @@
         <v>276</v>
       </c>
       <c r="B281" s="15" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C281" s="22" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="D281" s="12"/>
     </row>
@@ -5490,10 +5495,10 @@
         <v>277</v>
       </c>
       <c r="B282" s="15" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C282" s="22" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="D282" s="12"/>
     </row>
@@ -5503,10 +5508,10 @@
         <v>278</v>
       </c>
       <c r="B283" s="15" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C283" s="22" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="D283" s="12"/>
     </row>
@@ -5516,10 +5521,10 @@
         <v>279</v>
       </c>
       <c r="B284" s="15" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C284" s="22" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="D284" s="12"/>
     </row>
@@ -5529,10 +5534,10 @@
         <v>280</v>
       </c>
       <c r="B285" s="15" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C285" s="22" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="D285" s="12"/>
     </row>
@@ -5542,10 +5547,10 @@
         <v>281</v>
       </c>
       <c r="B286" s="15" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C286" s="22" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="D286" s="12"/>
     </row>
@@ -5555,10 +5560,10 @@
         <v>282</v>
       </c>
       <c r="B287" s="15" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C287" s="22" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="D287" s="12"/>
     </row>
@@ -5568,10 +5573,10 @@
         <v>283</v>
       </c>
       <c r="B288" s="15" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C288" s="22" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="D288" s="12"/>
     </row>
@@ -5581,10 +5586,10 @@
         <v>284</v>
       </c>
       <c r="B289" s="15" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C289" s="22" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="D289" s="12"/>
     </row>
@@ -5594,10 +5599,10 @@
         <v>285</v>
       </c>
       <c r="B290" s="15" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C290" s="22" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="D290" s="12"/>
     </row>
@@ -5607,10 +5612,10 @@
         <v>286</v>
       </c>
       <c r="B291" s="15" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C291" s="24" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="D291" s="12"/>
     </row>
@@ -5620,10 +5625,10 @@
         <v>287</v>
       </c>
       <c r="B292" s="15" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C292" s="22" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="D292" s="12"/>
     </row>
@@ -5633,10 +5638,10 @@
         <v>288</v>
       </c>
       <c r="B293" s="15" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C293" s="22" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="D293" s="12"/>
     </row>
@@ -5646,10 +5651,10 @@
         <v>289</v>
       </c>
       <c r="B294" s="15" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C294" s="22" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="D294" s="12"/>
     </row>
@@ -5659,10 +5664,10 @@
         <v>290</v>
       </c>
       <c r="B295" s="15" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C295" s="22" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="D295" s="12"/>
     </row>
@@ -5672,10 +5677,10 @@
         <v>291</v>
       </c>
       <c r="B296" s="15" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C296" s="22" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="D296" s="12"/>
     </row>
@@ -5685,10 +5690,10 @@
         <v>292</v>
       </c>
       <c r="B297" s="15" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C297" s="22" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="D297" s="12"/>
     </row>
@@ -5698,10 +5703,10 @@
         <v>293</v>
       </c>
       <c r="B298" s="15" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C298" s="22" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="D298" s="12"/>
     </row>
@@ -5711,10 +5716,10 @@
         <v>294</v>
       </c>
       <c r="B299" s="15" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C299" s="22" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="D299" s="12"/>
     </row>
@@ -5724,10 +5729,10 @@
         <v>295</v>
       </c>
       <c r="B300" s="15" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C300" s="22" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="D300" s="12"/>
     </row>
@@ -5737,10 +5742,10 @@
         <v>296</v>
       </c>
       <c r="B301" s="15" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C301" s="22" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="D301" s="12"/>
     </row>
@@ -5750,10 +5755,10 @@
         <v>297</v>
       </c>
       <c r="B302" s="15" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C302" s="22" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="D302" s="12"/>
     </row>
@@ -5763,10 +5768,10 @@
         <v>298</v>
       </c>
       <c r="B303" s="15" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C303" s="22" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="D303" s="12"/>
     </row>
@@ -5776,10 +5781,10 @@
         <v>299</v>
       </c>
       <c r="B304" s="15" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C304" s="22" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="D304" s="12"/>
     </row>
@@ -5789,10 +5794,10 @@
         <v>300</v>
       </c>
       <c r="B305" s="15" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C305" s="22" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="D305" s="12"/>
     </row>
@@ -5802,10 +5807,10 @@
         <v>301</v>
       </c>
       <c r="B306" s="15" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C306" s="22" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="D306" s="12"/>
     </row>
@@ -5815,10 +5820,10 @@
         <v>302</v>
       </c>
       <c r="B307" s="15" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C307" s="22" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="D307" s="12"/>
     </row>
@@ -5828,10 +5833,10 @@
         <v>303</v>
       </c>
       <c r="B308" s="15" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C308" s="22" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="D308" s="12"/>
     </row>
@@ -5841,10 +5846,10 @@
         <v>304</v>
       </c>
       <c r="B309" s="15" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C309" s="22" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="D309" s="12"/>
     </row>
@@ -5854,10 +5859,10 @@
         <v>305</v>
       </c>
       <c r="B310" s="15" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C310" s="22" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="D310" s="12"/>
     </row>
@@ -5867,10 +5872,10 @@
         <v>306</v>
       </c>
       <c r="B311" s="15" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C311" s="22" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="D311" s="12"/>
     </row>
@@ -5880,10 +5885,10 @@
         <v>307</v>
       </c>
       <c r="B312" s="15" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C312" s="22" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="D312" s="12"/>
     </row>
@@ -5893,10 +5898,10 @@
         <v>308</v>
       </c>
       <c r="B313" s="15" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C313" s="22" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="D313" s="12"/>
     </row>
@@ -5906,10 +5911,10 @@
         <v>309</v>
       </c>
       <c r="B314" s="15" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C314" s="22" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="D314" s="12"/>
     </row>
@@ -5919,10 +5924,10 @@
         <v>310</v>
       </c>
       <c r="B315" s="15" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C315" s="22" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="D315" s="12"/>
     </row>
@@ -5932,10 +5937,10 @@
         <v>311</v>
       </c>
       <c r="B316" s="10" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="C316" s="22" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="D316" s="12"/>
     </row>
@@ -5945,10 +5950,10 @@
         <v>312</v>
       </c>
       <c r="B317" s="10" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="C317" s="22" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="D317" s="12"/>
     </row>
@@ -5958,10 +5963,10 @@
         <v>313</v>
       </c>
       <c r="B318" s="10" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="C318" s="22" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="D318" s="12"/>
     </row>
@@ -5971,10 +5976,10 @@
         <v>314</v>
       </c>
       <c r="B319" s="10" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="C319" s="22" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="D319" s="12"/>
     </row>
@@ -5984,10 +5989,10 @@
         <v>315</v>
       </c>
       <c r="B320" s="10" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="C320" s="22" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="D320" s="12"/>
     </row>
@@ -5997,10 +6002,10 @@
         <v>316</v>
       </c>
       <c r="B321" s="10" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="C321" s="22" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="D321" s="12"/>
     </row>
@@ -6010,10 +6015,10 @@
         <v>317</v>
       </c>
       <c r="B322" s="10" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="C322" s="22" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="D322" s="12"/>
     </row>
@@ -6023,10 +6028,10 @@
         <v>318</v>
       </c>
       <c r="B323" s="10" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="C323" s="22" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="D323" s="12"/>
     </row>
@@ -6036,10 +6041,10 @@
         <v>319</v>
       </c>
       <c r="B324" s="10" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="C324" s="24" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="D324" s="12"/>
     </row>
@@ -6049,10 +6054,10 @@
         <v>320</v>
       </c>
       <c r="B325" s="10" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="C325" s="22" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="D325" s="12"/>
     </row>
@@ -6062,10 +6067,10 @@
         <v>321</v>
       </c>
       <c r="B326" s="10" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="C326" s="22" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="D326" s="12"/>
     </row>
@@ -6075,10 +6080,10 @@
         <v>322</v>
       </c>
       <c r="B327" s="10" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="C327" s="22" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="D327" s="12"/>
     </row>
@@ -6088,10 +6093,10 @@
         <v>323</v>
       </c>
       <c r="B328" s="10" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="C328" s="22" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="D328" s="12"/>
     </row>
@@ -6101,10 +6106,10 @@
         <v>324</v>
       </c>
       <c r="B329" s="10" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="C329" s="22" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="D329" s="12"/>
     </row>
@@ -6114,10 +6119,10 @@
         <v>325</v>
       </c>
       <c r="B330" s="10" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="C330" s="22" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="D330" s="12"/>
     </row>
@@ -6127,10 +6132,10 @@
         <v>326</v>
       </c>
       <c r="B331" s="10" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="C331" s="22" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="D331" s="12"/>
     </row>
@@ -6140,10 +6145,10 @@
         <v>327</v>
       </c>
       <c r="B332" s="10" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="C332" s="22" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="D332" s="12"/>
     </row>
@@ -6153,10 +6158,10 @@
         <v>328</v>
       </c>
       <c r="B333" s="10" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="C333" s="22" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="D333" s="12"/>
     </row>
@@ -6166,10 +6171,10 @@
         <v>329</v>
       </c>
       <c r="B334" s="15" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="C334" s="22" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="D334" s="12"/>
     </row>
@@ -6179,10 +6184,10 @@
         <v>330</v>
       </c>
       <c r="B335" s="15" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="C335" s="22" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="D335" s="12"/>
     </row>
@@ -6192,10 +6197,10 @@
         <v>331</v>
       </c>
       <c r="B336" s="15" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="C336" s="22" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="D336" s="12"/>
     </row>
@@ -6205,10 +6210,10 @@
         <v>332</v>
       </c>
       <c r="B337" s="15" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="C337" s="22" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="D337" s="12"/>
     </row>
@@ -6218,10 +6223,10 @@
         <v>333</v>
       </c>
       <c r="B338" s="15" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="C338" s="22" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="D338" s="12"/>
     </row>
@@ -6231,10 +6236,10 @@
         <v>334</v>
       </c>
       <c r="B339" s="15" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="C339" s="22" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="D339" s="12"/>
     </row>
@@ -6244,10 +6249,10 @@
         <v>335</v>
       </c>
       <c r="B340" s="15" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="C340" s="22" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D340" s="12"/>
     </row>
@@ -6257,10 +6262,10 @@
         <v>336</v>
       </c>
       <c r="B341" s="15" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="C341" s="22" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="D341" s="12"/>
     </row>
@@ -6270,10 +6275,10 @@
         <v>337</v>
       </c>
       <c r="B342" s="15" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="C342" s="22" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="D342" s="12"/>
     </row>
@@ -6283,10 +6288,10 @@
         <v>338</v>
       </c>
       <c r="B343" s="15" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="C343" s="22" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="D343" s="12"/>
     </row>
@@ -6296,10 +6301,10 @@
         <v>339</v>
       </c>
       <c r="B344" s="15" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="C344" s="22" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="D344" s="12"/>
     </row>
@@ -6309,10 +6314,10 @@
         <v>340</v>
       </c>
       <c r="B345" s="15" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="C345" s="22" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="D345" s="12"/>
     </row>
@@ -6322,10 +6327,10 @@
         <v>341</v>
       </c>
       <c r="B346" s="15" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="C346" s="22" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="D346" s="12"/>
     </row>
@@ -6335,10 +6340,10 @@
         <v>342</v>
       </c>
       <c r="B347" s="15" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="C347" s="22" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="D347" s="12"/>
     </row>
@@ -6348,10 +6353,10 @@
         <v>343</v>
       </c>
       <c r="B348" s="15" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="C348" s="22" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="D348" s="12"/>
     </row>
@@ -6361,10 +6366,10 @@
         <v>344</v>
       </c>
       <c r="B349" s="15" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="C349" s="22" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="D349" s="12"/>
     </row>
@@ -6374,10 +6379,10 @@
         <v>345</v>
       </c>
       <c r="B350" s="15" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="C350" s="22" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="D350" s="12"/>
     </row>
@@ -6387,10 +6392,10 @@
         <v>346</v>
       </c>
       <c r="B351" s="15" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="C351" s="22" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="D351" s="12"/>
     </row>
@@ -6400,10 +6405,10 @@
         <v>347</v>
       </c>
       <c r="B352" s="15" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="C352" s="22" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="D352" s="12"/>
     </row>
@@ -6413,10 +6418,10 @@
         <v>348</v>
       </c>
       <c r="B353" s="15" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="C353" s="22" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="D353" s="12"/>
     </row>
@@ -6426,10 +6431,10 @@
         <v>349</v>
       </c>
       <c r="B354" s="15" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="C354" s="22" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="D354" s="12"/>
     </row>
@@ -6439,10 +6444,10 @@
         <v>350</v>
       </c>
       <c r="B355" s="15" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="C355" s="22" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="D355" s="12"/>
     </row>
@@ -6452,10 +6457,10 @@
         <v>351</v>
       </c>
       <c r="B356" s="15" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="C356" s="22" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="D356" s="12"/>
     </row>
@@ -6465,10 +6470,10 @@
         <v>352</v>
       </c>
       <c r="B357" s="15" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="C357" s="22" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="D357" s="12"/>
     </row>
@@ -6478,10 +6483,10 @@
         <v>353</v>
       </c>
       <c r="B358" s="15" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="C358" s="22" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="D358" s="12"/>
     </row>
@@ -6491,10 +6496,10 @@
         <v>354</v>
       </c>
       <c r="B359" s="15" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="C359" s="22" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="D359" s="12"/>
     </row>
@@ -6504,10 +6509,10 @@
         <v>355</v>
       </c>
       <c r="B360" s="15" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="C360" s="22" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="D360" s="12"/>
     </row>
@@ -6517,10 +6522,10 @@
         <v>356</v>
       </c>
       <c r="B361" s="15" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="C361" s="22" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="D361" s="12"/>
     </row>
@@ -6530,10 +6535,10 @@
         <v>357</v>
       </c>
       <c r="B362" s="15" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="C362" s="22" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="D362" s="12"/>
     </row>
@@ -6543,10 +6548,10 @@
         <v>358</v>
       </c>
       <c r="B363" s="15" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="C363" s="22" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="D363" s="12"/>
     </row>
@@ -6556,10 +6561,10 @@
         <v>359</v>
       </c>
       <c r="B364" s="15" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="C364" s="22" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="D364" s="12"/>
     </row>
@@ -6569,10 +6574,10 @@
         <v>360</v>
       </c>
       <c r="B365" s="15" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="C365" s="22" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="D365" s="12"/>
     </row>
@@ -6582,10 +6587,10 @@
         <v>361</v>
       </c>
       <c r="B366" s="15" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="C366" s="22" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="D366" s="12"/>
     </row>
@@ -6595,10 +6600,10 @@
         <v>362</v>
       </c>
       <c r="B367" s="15" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="C367" s="22" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="D367" s="12"/>
     </row>
@@ -6608,10 +6613,10 @@
         <v>363</v>
       </c>
       <c r="B368" s="15" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="C368" s="22" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="D368" s="12"/>
     </row>
@@ -6621,10 +6626,10 @@
         <v>364</v>
       </c>
       <c r="B369" s="15" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="C369" s="22" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="D369" s="12"/>
     </row>
@@ -6634,10 +6639,10 @@
         <v>365</v>
       </c>
       <c r="B370" s="15" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="C370" s="22" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="D370" s="12"/>
     </row>
@@ -6647,10 +6652,10 @@
         <v>366</v>
       </c>
       <c r="B371" s="15" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="C371" s="22" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="D371" s="12"/>
     </row>
@@ -6660,10 +6665,10 @@
         <v>367</v>
       </c>
       <c r="B372" s="15" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="C372" s="22" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="D372" s="12"/>
     </row>
@@ -6673,10 +6678,10 @@
         <v>368</v>
       </c>
       <c r="B373" s="15" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="C373" s="22" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="D373" s="12"/>
     </row>
@@ -6686,10 +6691,10 @@
         <v>369</v>
       </c>
       <c r="B374" s="15" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="C374" s="22" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="D374" s="12"/>
     </row>
@@ -6699,10 +6704,10 @@
         <v>370</v>
       </c>
       <c r="B375" s="15" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="C375" s="22" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="D375" s="12"/>
     </row>
@@ -6712,10 +6717,10 @@
         <v>371</v>
       </c>
       <c r="B376" s="15" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="C376" s="22" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="D376" s="12"/>
     </row>
@@ -6725,10 +6730,10 @@
         <v>372</v>
       </c>
       <c r="B377" s="15" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="C377" s="22" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="D377" s="12"/>
     </row>
@@ -6738,10 +6743,10 @@
         <v>373</v>
       </c>
       <c r="B378" s="10" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="C378" s="22" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="D378" s="12"/>
     </row>
@@ -6751,10 +6756,10 @@
         <v>374</v>
       </c>
       <c r="B379" s="10" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="C379" s="22" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="D379" s="12"/>
     </row>
@@ -6764,10 +6769,10 @@
         <v>375</v>
       </c>
       <c r="B380" s="10" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="C380" s="22" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="D380" s="12"/>
     </row>
@@ -6777,10 +6782,10 @@
         <v>376</v>
       </c>
       <c r="B381" s="10" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="C381" s="22" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D381" s="12"/>
     </row>
@@ -6790,10 +6795,10 @@
         <v>377</v>
       </c>
       <c r="B382" s="10" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="C382" s="22" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="D382" s="12"/>
     </row>
@@ -6803,10 +6808,10 @@
         <v>378</v>
       </c>
       <c r="B383" s="10" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="C383" s="22" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="D383" s="12"/>
     </row>
@@ -6816,10 +6821,10 @@
         <v>379</v>
       </c>
       <c r="B384" s="15" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="C384" s="22" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="D384" s="12"/>
     </row>
@@ -6829,10 +6834,10 @@
         <v>380</v>
       </c>
       <c r="B385" s="15" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="C385" s="22" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="D385" s="12"/>
     </row>
@@ -6842,10 +6847,10 @@
         <v>381</v>
       </c>
       <c r="B386" s="15" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="C386" s="22" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="D386" s="12"/>
     </row>
@@ -6855,10 +6860,10 @@
         <v>382</v>
       </c>
       <c r="B387" s="15" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="C387" s="22" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="D387" s="12"/>
     </row>
@@ -6868,10 +6873,10 @@
         <v>383</v>
       </c>
       <c r="B388" s="15" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="C388" s="22" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="D388" s="12"/>
     </row>
@@ -6881,10 +6886,10 @@
         <v>384</v>
       </c>
       <c r="B389" s="15" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="C389" s="22" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="D389" s="12"/>
     </row>
@@ -6894,10 +6899,10 @@
         <v>385</v>
       </c>
       <c r="B390" s="15" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="C390" s="22" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="D390" s="12"/>
     </row>
@@ -6907,10 +6912,10 @@
         <v>386</v>
       </c>
       <c r="B391" s="15" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="C391" s="22" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="D391" s="12"/>
     </row>
@@ -6920,10 +6925,10 @@
         <v>387</v>
       </c>
       <c r="B392" s="15" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="C392" s="22" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="D392" s="12"/>
     </row>
@@ -6933,10 +6938,10 @@
         <v>388</v>
       </c>
       <c r="B393" s="15" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="C393" s="22" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="D393" s="12"/>
     </row>
@@ -6946,10 +6951,10 @@
         <v>389</v>
       </c>
       <c r="B394" s="15" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="C394" s="22" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="D394" s="12"/>
     </row>
@@ -6959,10 +6964,10 @@
         <v>390</v>
       </c>
       <c r="B395" s="15" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="C395" s="22" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="D395" s="12"/>
     </row>
@@ -6972,10 +6977,10 @@
         <v>391</v>
       </c>
       <c r="B396" s="15" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="C396" s="22" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="D396" s="12"/>
     </row>
@@ -6985,10 +6990,10 @@
         <v>392</v>
       </c>
       <c r="B397" s="15" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="C397" s="22" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="D397" s="12"/>
     </row>
@@ -6998,10 +7003,10 @@
         <v>393</v>
       </c>
       <c r="B398" s="15" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="C398" s="22" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="D398" s="12"/>
     </row>
@@ -7011,10 +7016,10 @@
         <v>394</v>
       </c>
       <c r="B399" s="15" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="C399" s="22" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="D399" s="12"/>
     </row>
@@ -7024,10 +7029,10 @@
         <v>395</v>
       </c>
       <c r="B400" s="15" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="C400" s="22" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="D400" s="12"/>
     </row>
@@ -7037,10 +7042,10 @@
         <v>396</v>
       </c>
       <c r="B401" s="15" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="C401" s="22" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="D401" s="12"/>
     </row>
@@ -7050,10 +7055,10 @@
         <v>397</v>
       </c>
       <c r="B402" s="15" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="C402" s="22" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="D402" s="12"/>
     </row>
@@ -7063,10 +7068,10 @@
         <v>398</v>
       </c>
       <c r="B403" s="15" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="C403" s="22" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="D403" s="12"/>
     </row>
@@ -7076,10 +7081,10 @@
         <v>399</v>
       </c>
       <c r="B404" s="15" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="C404" s="22" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="D404" s="12"/>
     </row>
@@ -7089,10 +7094,10 @@
         <v>400</v>
       </c>
       <c r="B405" s="15" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="C405" s="22" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="D405" s="12"/>
     </row>
@@ -7102,10 +7107,10 @@
         <v>401</v>
       </c>
       <c r="B406" s="15" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="C406" s="22" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="D406" s="12"/>
     </row>
@@ -7115,10 +7120,10 @@
         <v>402</v>
       </c>
       <c r="B407" s="15" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="C407" s="22" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="D407" s="12"/>
     </row>
@@ -7128,10 +7133,10 @@
         <v>403</v>
       </c>
       <c r="B408" s="15" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="C408" s="22" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="D408" s="12"/>
     </row>
@@ -7141,10 +7146,10 @@
         <v>404</v>
       </c>
       <c r="B409" s="15" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="C409" s="22" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="D409" s="12"/>
     </row>
@@ -7154,10 +7159,10 @@
         <v>405</v>
       </c>
       <c r="B410" s="15" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="C410" s="22" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="D410" s="12"/>
     </row>
@@ -7167,10 +7172,10 @@
         <v>406</v>
       </c>
       <c r="B411" s="15" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="C411" s="22" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="D411" s="12"/>
     </row>
@@ -7180,10 +7185,10 @@
         <v>407</v>
       </c>
       <c r="B412" s="15" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="C412" s="22" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="D412" s="12"/>
     </row>
@@ -7193,10 +7198,10 @@
         <v>408</v>
       </c>
       <c r="B413" s="15" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="C413" s="22" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="D413" s="12"/>
     </row>
@@ -7206,10 +7211,10 @@
         <v>409</v>
       </c>
       <c r="B414" s="15" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="C414" s="22" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="D414" s="12"/>
     </row>
@@ -7219,10 +7224,10 @@
         <v>410</v>
       </c>
       <c r="B415" s="15" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="C415" s="22" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="D415" s="12"/>
     </row>
@@ -7232,10 +7237,10 @@
         <v>411</v>
       </c>
       <c r="B416" s="15" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="C416" s="22" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="D416" s="12"/>
     </row>
@@ -7245,10 +7250,10 @@
         <v>412</v>
       </c>
       <c r="B417" s="15" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="C417" s="22" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="D417" s="12"/>
     </row>
@@ -7258,10 +7263,10 @@
         <v>413</v>
       </c>
       <c r="B418" s="15" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="C418" s="22" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="D418" s="12"/>
     </row>
@@ -7271,10 +7276,10 @@
         <v>414</v>
       </c>
       <c r="B419" s="15" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="C419" s="22" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="D419" s="12"/>
     </row>
@@ -7284,10 +7289,10 @@
         <v>415</v>
       </c>
       <c r="B420" s="15" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="C420" s="22" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="D420" s="12"/>
     </row>
@@ -7297,10 +7302,10 @@
         <v>416</v>
       </c>
       <c r="B421" s="15" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="C421" s="22" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="D421" s="12"/>
     </row>
@@ -7310,10 +7315,10 @@
         <v>417</v>
       </c>
       <c r="B422" s="15" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="C422" s="22" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="D422" s="12"/>
     </row>
@@ -7323,10 +7328,10 @@
         <v>418</v>
       </c>
       <c r="B423" s="15" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="C423" s="22" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="D423" s="12"/>
     </row>
@@ -7336,10 +7341,10 @@
         <v>419</v>
       </c>
       <c r="B424" s="15" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="C424" s="22" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="D424" s="12"/>
     </row>
@@ -7349,10 +7354,10 @@
         <v>420</v>
       </c>
       <c r="B425" s="15" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="C425" s="22" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="D425" s="12"/>
     </row>
@@ -7362,10 +7367,10 @@
         <v>421</v>
       </c>
       <c r="B426" s="15" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="C426" s="22" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="D426" s="12"/>
     </row>
@@ -7375,10 +7380,10 @@
         <v>422</v>
       </c>
       <c r="B427" s="15" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="C427" s="22" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="D427" s="12"/>
     </row>
@@ -7388,10 +7393,10 @@
         <v>423</v>
       </c>
       <c r="B428" s="15" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="C428" s="22" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="D428" s="12"/>
     </row>
@@ -7401,10 +7406,10 @@
         <v>424</v>
       </c>
       <c r="B429" s="15" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="C429" s="22" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="D429" s="12"/>
     </row>
@@ -7414,10 +7419,10 @@
         <v>425</v>
       </c>
       <c r="B430" s="15" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="C430" s="22" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="D430" s="12"/>
     </row>
@@ -7427,10 +7432,10 @@
         <v>426</v>
       </c>
       <c r="B431" s="15" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="C431" s="22" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="D431" s="12"/>
     </row>
@@ -7440,10 +7445,10 @@
         <v>427</v>
       </c>
       <c r="B432" s="15" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="C432" s="22" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="D432" s="12"/>
     </row>
@@ -7453,10 +7458,10 @@
         <v>428</v>
       </c>
       <c r="B433" s="15" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="C433" s="22" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="D433" s="12"/>
     </row>
@@ -7466,10 +7471,10 @@
         <v>429</v>
       </c>
       <c r="B434" s="15" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="C434" s="22" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="D434" s="12"/>
     </row>
@@ -7479,10 +7484,10 @@
         <v>430</v>
       </c>
       <c r="B435" s="15" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="C435" s="22" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="D435" s="12"/>
     </row>
@@ -7492,10 +7497,10 @@
         <v>431</v>
       </c>
       <c r="B436" s="15" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="C436" s="22" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="D436" s="12"/>
     </row>
@@ -7505,10 +7510,10 @@
         <v>432</v>
       </c>
       <c r="B437" s="15" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="C437" s="22" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="D437" s="12"/>
     </row>
@@ -7518,10 +7523,10 @@
         <v>433</v>
       </c>
       <c r="B438" s="15" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="C438" s="22" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="D438" s="12"/>
     </row>
@@ -7531,10 +7536,10 @@
         <v>434</v>
       </c>
       <c r="B439" s="15" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="C439" s="22" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="D439" s="12"/>
     </row>
@@ -7544,10 +7549,10 @@
         <v>435</v>
       </c>
       <c r="B440" s="15" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="C440" s="22" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="D440" s="12"/>
     </row>
@@ -7557,10 +7562,10 @@
         <v>436</v>
       </c>
       <c r="B441" s="15" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="C441" s="22" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="D441" s="12"/>
     </row>
@@ -7570,10 +7575,10 @@
         <v>437</v>
       </c>
       <c r="B442" s="15" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="C442" s="22" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="D442" s="12"/>
     </row>
@@ -7583,10 +7588,10 @@
         <v>438</v>
       </c>
       <c r="B443" s="15" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="C443" s="22" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="D443" s="12"/>
     </row>
@@ -7596,10 +7601,10 @@
         <v>439</v>
       </c>
       <c r="B444" s="10" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="C444" s="22" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="D444" s="12"/>
     </row>
@@ -7609,10 +7614,10 @@
         <v>440</v>
       </c>
       <c r="B445" s="10" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="C445" s="22" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="D445" s="12"/>
     </row>
@@ -7622,10 +7627,10 @@
         <v>441</v>
       </c>
       <c r="B446" s="10" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="C446" s="22" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="D446" s="12"/>
     </row>
@@ -7635,10 +7640,10 @@
         <v>442</v>
       </c>
       <c r="B447" s="10" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="C447" s="22" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="D447" s="12"/>
     </row>
@@ -7648,10 +7653,10 @@
         <v>443</v>
       </c>
       <c r="B448" s="10" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="C448" s="22" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="D448" s="12"/>
     </row>
@@ -7661,10 +7666,10 @@
         <v>444</v>
       </c>
       <c r="B449" s="10" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="C449" s="22" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="D449" s="12"/>
     </row>
@@ -7674,10 +7679,10 @@
         <v>445</v>
       </c>
       <c r="B450" s="10" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="C450" s="22" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="D450" s="12"/>
     </row>
@@ -7687,10 +7692,10 @@
         <v>446</v>
       </c>
       <c r="B451" s="10" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="C451" s="22" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="D451" s="12"/>
     </row>
@@ -7700,10 +7705,10 @@
         <v>447</v>
       </c>
       <c r="B452" s="10" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="C452" s="22" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="D452" s="12"/>
     </row>
@@ -7713,10 +7718,10 @@
         <v>448</v>
       </c>
       <c r="B453" s="10" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="C453" s="22" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="D453" s="12"/>
     </row>

--- a/DSA_450_LoveBabbar.xlsx
+++ b/DSA_450_LoveBabbar.xlsx
@@ -1860,11 +1860,11 @@
   </sheetPr>
   <dimension ref="A1:D467"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A36" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D59" activeCellId="0" sqref="D59"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C57" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C62" activeCellId="0" sqref="C62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6953125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.71484375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.63"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="28.24"/>
@@ -2606,7 +2606,7 @@
       <c r="B59" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="C59" s="22" t="s">
+      <c r="C59" s="11" t="s">
         <v>66</v>
       </c>
       <c r="D59" s="12"/>
@@ -2619,7 +2619,7 @@
       <c r="B60" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="C60" s="22" t="s">
+      <c r="C60" s="11" t="s">
         <v>67</v>
       </c>
       <c r="D60" s="12"/>
@@ -2632,7 +2632,7 @@
       <c r="B61" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="C61" s="22" t="s">
+      <c r="C61" s="13" t="s">
         <v>68</v>
       </c>
       <c r="D61" s="12"/>

--- a/DSA_450_LoveBabbar.xlsx
+++ b/DSA_450_LoveBabbar.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="906" uniqueCount="469">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="907" uniqueCount="470">
   <si>
     <t xml:space="preserve">Questions by Love Babbar:</t>
   </si>
@@ -258,6 +258,39 @@
     <t xml:space="preserve">Word Wrap Problem [VERY IMP].</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFC9211E"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">I solved the problem without extra space but in O(2</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="12"/>
+        <color rgb="FFC9211E"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">n</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFC9211E"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">)</t>
+    </r>
+  </si>
+  <si>
     <t xml:space="preserve">EDIT Distance [Very Imp]</t>
   </si>
   <si>
@@ -1456,7 +1489,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="15">
+  <fonts count="16">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -1560,6 +1593,14 @@
     <font>
       <sz val="12"/>
       <color rgb="FF00A933"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <vertAlign val="superscript"/>
+      <sz val="12"/>
+      <color rgb="FFC9211E"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
@@ -1679,7 +1720,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1765,6 +1806,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1860,16 +1905,16 @@
   </sheetPr>
   <dimension ref="A1:D467"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C57" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C62" activeCellId="0" sqref="C62"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C41" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D63" activeCellId="0" sqref="D63"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.71484375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.7265625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.63"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="28.24"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="111.25"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="40.96"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="46.09"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2645,7 +2690,7 @@
       <c r="B62" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="C62" s="22" t="s">
+      <c r="C62" s="13" t="s">
         <v>69</v>
       </c>
       <c r="D62" s="12"/>
@@ -2658,7 +2703,7 @@
       <c r="B63" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="C63" s="22" t="s">
+      <c r="C63" s="13" t="s">
         <v>70</v>
       </c>
       <c r="D63" s="12"/>
@@ -2671,10 +2716,12 @@
       <c r="B64" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="C64" s="22" t="s">
+      <c r="C64" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="D64" s="12"/>
+      <c r="D64" s="22" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="65" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="6" t="n">
@@ -2684,8 +2731,8 @@
       <c r="B65" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="C65" s="22" t="s">
-        <v>72</v>
+      <c r="C65" s="23" t="s">
+        <v>73</v>
       </c>
       <c r="D65" s="12"/>
     </row>
@@ -2697,8 +2744,8 @@
       <c r="B66" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="C66" s="22" t="s">
-        <v>73</v>
+      <c r="C66" s="23" t="s">
+        <v>74</v>
       </c>
       <c r="D66" s="12"/>
     </row>
@@ -2710,8 +2757,8 @@
       <c r="B67" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="C67" s="22" t="s">
-        <v>74</v>
+      <c r="C67" s="23" t="s">
+        <v>75</v>
       </c>
       <c r="D67" s="12"/>
     </row>
@@ -2723,8 +2770,8 @@
       <c r="B68" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="C68" s="22" t="s">
-        <v>75</v>
+      <c r="C68" s="23" t="s">
+        <v>76</v>
       </c>
       <c r="D68" s="12"/>
     </row>
@@ -2736,8 +2783,8 @@
       <c r="B69" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="C69" s="22" t="s">
-        <v>76</v>
+      <c r="C69" s="23" t="s">
+        <v>77</v>
       </c>
       <c r="D69" s="12"/>
     </row>
@@ -2749,8 +2796,8 @@
       <c r="B70" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="C70" s="22" t="s">
-        <v>77</v>
+      <c r="C70" s="23" t="s">
+        <v>78</v>
       </c>
       <c r="D70" s="12"/>
     </row>
@@ -2762,8 +2809,8 @@
       <c r="B71" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="C71" s="22" t="s">
-        <v>78</v>
+      <c r="C71" s="23" t="s">
+        <v>79</v>
       </c>
       <c r="D71" s="12"/>
     </row>
@@ -2775,8 +2822,8 @@
       <c r="B72" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="C72" s="22" t="s">
-        <v>79</v>
+      <c r="C72" s="23" t="s">
+        <v>80</v>
       </c>
       <c r="D72" s="12"/>
     </row>
@@ -2788,8 +2835,8 @@
       <c r="B73" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="C73" s="22" t="s">
-        <v>80</v>
+      <c r="C73" s="23" t="s">
+        <v>81</v>
       </c>
       <c r="D73" s="12"/>
     </row>
@@ -2801,8 +2848,8 @@
       <c r="B74" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="C74" s="22" t="s">
-        <v>81</v>
+      <c r="C74" s="23" t="s">
+        <v>82</v>
       </c>
       <c r="D74" s="12"/>
     </row>
@@ -2814,8 +2861,8 @@
       <c r="B75" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="C75" s="22" t="s">
-        <v>82</v>
+      <c r="C75" s="23" t="s">
+        <v>83</v>
       </c>
       <c r="D75" s="12"/>
     </row>
@@ -2827,8 +2874,8 @@
       <c r="B76" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="C76" s="22" t="s">
-        <v>83</v>
+      <c r="C76" s="23" t="s">
+        <v>84</v>
       </c>
       <c r="D76" s="12"/>
     </row>
@@ -2840,8 +2887,8 @@
       <c r="B77" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="C77" s="22" t="s">
-        <v>84</v>
+      <c r="C77" s="23" t="s">
+        <v>85</v>
       </c>
       <c r="D77" s="12"/>
     </row>
@@ -2853,8 +2900,8 @@
       <c r="B78" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="C78" s="22" t="s">
-        <v>85</v>
+      <c r="C78" s="23" t="s">
+        <v>86</v>
       </c>
       <c r="D78" s="12"/>
     </row>
@@ -2866,8 +2913,8 @@
       <c r="B79" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="C79" s="22" t="s">
-        <v>86</v>
+      <c r="C79" s="23" t="s">
+        <v>87</v>
       </c>
       <c r="D79" s="12"/>
     </row>
@@ -2879,8 +2926,8 @@
       <c r="B80" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="C80" s="22" t="s">
-        <v>87</v>
+      <c r="C80" s="23" t="s">
+        <v>88</v>
       </c>
       <c r="D80" s="12"/>
     </row>
@@ -2892,8 +2939,8 @@
       <c r="B81" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="C81" s="22" t="s">
-        <v>88</v>
+      <c r="C81" s="23" t="s">
+        <v>89</v>
       </c>
       <c r="D81" s="12"/>
     </row>
@@ -2905,8 +2952,8 @@
       <c r="B82" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="C82" s="22" t="s">
-        <v>89</v>
+      <c r="C82" s="23" t="s">
+        <v>90</v>
       </c>
       <c r="D82" s="12"/>
     </row>
@@ -2918,8 +2965,8 @@
       <c r="B83" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="C83" s="22" t="s">
-        <v>90</v>
+      <c r="C83" s="23" t="s">
+        <v>91</v>
       </c>
       <c r="D83" s="12"/>
     </row>
@@ -2931,8 +2978,8 @@
       <c r="B84" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="C84" s="22" t="s">
-        <v>91</v>
+      <c r="C84" s="23" t="s">
+        <v>92</v>
       </c>
       <c r="D84" s="12"/>
     </row>
@@ -2944,8 +2991,8 @@
       <c r="B85" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="C85" s="22" t="s">
-        <v>92</v>
+      <c r="C85" s="23" t="s">
+        <v>93</v>
       </c>
       <c r="D85" s="12"/>
     </row>
@@ -2957,8 +3004,8 @@
       <c r="B86" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="C86" s="22" t="s">
-        <v>93</v>
+      <c r="C86" s="23" t="s">
+        <v>94</v>
       </c>
       <c r="D86" s="12"/>
     </row>
@@ -2970,8 +3017,8 @@
       <c r="B87" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="C87" s="22" t="s">
-        <v>94</v>
+      <c r="C87" s="23" t="s">
+        <v>95</v>
       </c>
       <c r="D87" s="12"/>
     </row>
@@ -2983,8 +3030,8 @@
       <c r="B88" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="C88" s="22" t="s">
-        <v>95</v>
+      <c r="C88" s="23" t="s">
+        <v>96</v>
       </c>
       <c r="D88" s="12"/>
     </row>
@@ -2996,8 +3043,8 @@
       <c r="B89" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="C89" s="22" t="s">
-        <v>96</v>
+      <c r="C89" s="23" t="s">
+        <v>97</v>
       </c>
       <c r="D89" s="12"/>
     </row>
@@ -3009,8 +3056,8 @@
       <c r="B90" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="C90" s="22" t="s">
-        <v>97</v>
+      <c r="C90" s="23" t="s">
+        <v>98</v>
       </c>
       <c r="D90" s="12"/>
     </row>
@@ -3022,8 +3069,8 @@
       <c r="B91" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="C91" s="22" t="s">
-        <v>98</v>
+      <c r="C91" s="23" t="s">
+        <v>99</v>
       </c>
       <c r="D91" s="12"/>
     </row>
@@ -3035,8 +3082,8 @@
       <c r="B92" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="C92" s="22" t="s">
-        <v>99</v>
+      <c r="C92" s="23" t="s">
+        <v>100</v>
       </c>
       <c r="D92" s="12"/>
     </row>
@@ -3048,8 +3095,8 @@
       <c r="B93" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="C93" s="22" t="s">
-        <v>100</v>
+      <c r="C93" s="23" t="s">
+        <v>101</v>
       </c>
       <c r="D93" s="12"/>
     </row>
@@ -3061,8 +3108,8 @@
       <c r="B94" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="C94" s="22" t="s">
-        <v>101</v>
+      <c r="C94" s="23" t="s">
+        <v>102</v>
       </c>
       <c r="D94" s="12"/>
     </row>
@@ -3072,10 +3119,10 @@
         <v>90</v>
       </c>
       <c r="B95" s="15" t="s">
-        <v>102</v>
-      </c>
-      <c r="C95" s="22" t="s">
         <v>103</v>
+      </c>
+      <c r="C95" s="23" t="s">
+        <v>104</v>
       </c>
       <c r="D95" s="12"/>
     </row>
@@ -3085,10 +3132,10 @@
         <v>91</v>
       </c>
       <c r="B96" s="15" t="s">
-        <v>102</v>
-      </c>
-      <c r="C96" s="22" t="s">
-        <v>104</v>
+        <v>103</v>
+      </c>
+      <c r="C96" s="23" t="s">
+        <v>105</v>
       </c>
       <c r="D96" s="12"/>
     </row>
@@ -3098,10 +3145,10 @@
         <v>92</v>
       </c>
       <c r="B97" s="15" t="s">
-        <v>102</v>
-      </c>
-      <c r="C97" s="22" t="s">
-        <v>105</v>
+        <v>103</v>
+      </c>
+      <c r="C97" s="23" t="s">
+        <v>106</v>
       </c>
       <c r="D97" s="12"/>
     </row>
@@ -3111,10 +3158,10 @@
         <v>93</v>
       </c>
       <c r="B98" s="15" t="s">
-        <v>102</v>
-      </c>
-      <c r="C98" s="22" t="s">
-        <v>106</v>
+        <v>103</v>
+      </c>
+      <c r="C98" s="23" t="s">
+        <v>107</v>
       </c>
       <c r="D98" s="12"/>
     </row>
@@ -3124,10 +3171,10 @@
         <v>94</v>
       </c>
       <c r="B99" s="15" t="s">
-        <v>102</v>
-      </c>
-      <c r="C99" s="22" t="s">
-        <v>107</v>
+        <v>103</v>
+      </c>
+      <c r="C99" s="23" t="s">
+        <v>108</v>
       </c>
       <c r="D99" s="12"/>
     </row>
@@ -3137,10 +3184,10 @@
         <v>95</v>
       </c>
       <c r="B100" s="15" t="s">
-        <v>102</v>
-      </c>
-      <c r="C100" s="22" t="s">
-        <v>108</v>
+        <v>103</v>
+      </c>
+      <c r="C100" s="23" t="s">
+        <v>109</v>
       </c>
       <c r="D100" s="12"/>
     </row>
@@ -3150,10 +3197,10 @@
         <v>96</v>
       </c>
       <c r="B101" s="15" t="s">
-        <v>102</v>
-      </c>
-      <c r="C101" s="22" t="s">
-        <v>109</v>
+        <v>103</v>
+      </c>
+      <c r="C101" s="23" t="s">
+        <v>110</v>
       </c>
       <c r="D101" s="12"/>
     </row>
@@ -3163,10 +3210,10 @@
         <v>97</v>
       </c>
       <c r="B102" s="15" t="s">
-        <v>102</v>
-      </c>
-      <c r="C102" s="22" t="s">
-        <v>110</v>
+        <v>103</v>
+      </c>
+      <c r="C102" s="23" t="s">
+        <v>111</v>
       </c>
       <c r="D102" s="12"/>
     </row>
@@ -3176,10 +3223,10 @@
         <v>98</v>
       </c>
       <c r="B103" s="15" t="s">
-        <v>102</v>
-      </c>
-      <c r="C103" s="22" t="s">
-        <v>111</v>
+        <v>103</v>
+      </c>
+      <c r="C103" s="23" t="s">
+        <v>112</v>
       </c>
       <c r="D103" s="12"/>
     </row>
@@ -3189,10 +3236,10 @@
         <v>99</v>
       </c>
       <c r="B104" s="15" t="s">
-        <v>102</v>
-      </c>
-      <c r="C104" s="22" t="s">
-        <v>112</v>
+        <v>103</v>
+      </c>
+      <c r="C104" s="23" t="s">
+        <v>113</v>
       </c>
       <c r="D104" s="12"/>
     </row>
@@ -3202,10 +3249,10 @@
         <v>100</v>
       </c>
       <c r="B105" s="15" t="s">
-        <v>102</v>
-      </c>
-      <c r="C105" s="22" t="s">
-        <v>113</v>
+        <v>103</v>
+      </c>
+      <c r="C105" s="23" t="s">
+        <v>114</v>
       </c>
       <c r="D105" s="12"/>
     </row>
@@ -3215,10 +3262,10 @@
         <v>101</v>
       </c>
       <c r="B106" s="15" t="s">
-        <v>102</v>
-      </c>
-      <c r="C106" s="22" t="s">
-        <v>114</v>
+        <v>103</v>
+      </c>
+      <c r="C106" s="23" t="s">
+        <v>115</v>
       </c>
       <c r="D106" s="12"/>
     </row>
@@ -3228,10 +3275,10 @@
         <v>102</v>
       </c>
       <c r="B107" s="15" t="s">
-        <v>102</v>
-      </c>
-      <c r="C107" s="22" t="s">
-        <v>115</v>
+        <v>103</v>
+      </c>
+      <c r="C107" s="23" t="s">
+        <v>116</v>
       </c>
       <c r="D107" s="12"/>
     </row>
@@ -3241,10 +3288,10 @@
         <v>103</v>
       </c>
       <c r="B108" s="15" t="s">
-        <v>102</v>
-      </c>
-      <c r="C108" s="22" t="s">
-        <v>116</v>
+        <v>103</v>
+      </c>
+      <c r="C108" s="23" t="s">
+        <v>117</v>
       </c>
       <c r="D108" s="12"/>
     </row>
@@ -3254,10 +3301,10 @@
         <v>104</v>
       </c>
       <c r="B109" s="15" t="s">
-        <v>102</v>
-      </c>
-      <c r="C109" s="22" t="s">
-        <v>117</v>
+        <v>103</v>
+      </c>
+      <c r="C109" s="23" t="s">
+        <v>118</v>
       </c>
       <c r="D109" s="12"/>
     </row>
@@ -3267,10 +3314,10 @@
         <v>105</v>
       </c>
       <c r="B110" s="15" t="s">
-        <v>102</v>
-      </c>
-      <c r="C110" s="22" t="s">
-        <v>118</v>
+        <v>103</v>
+      </c>
+      <c r="C110" s="23" t="s">
+        <v>119</v>
       </c>
       <c r="D110" s="12"/>
     </row>
@@ -3280,10 +3327,10 @@
         <v>106</v>
       </c>
       <c r="B111" s="15" t="s">
-        <v>102</v>
-      </c>
-      <c r="C111" s="22" t="s">
-        <v>119</v>
+        <v>103</v>
+      </c>
+      <c r="C111" s="23" t="s">
+        <v>120</v>
       </c>
       <c r="D111" s="12"/>
     </row>
@@ -3293,10 +3340,10 @@
         <v>107</v>
       </c>
       <c r="B112" s="15" t="s">
-        <v>102</v>
-      </c>
-      <c r="C112" s="22" t="s">
-        <v>120</v>
+        <v>103</v>
+      </c>
+      <c r="C112" s="23" t="s">
+        <v>121</v>
       </c>
       <c r="D112" s="12"/>
     </row>
@@ -3306,10 +3353,10 @@
         <v>108</v>
       </c>
       <c r="B113" s="15" t="s">
-        <v>102</v>
-      </c>
-      <c r="C113" s="22" t="s">
-        <v>121</v>
+        <v>103</v>
+      </c>
+      <c r="C113" s="23" t="s">
+        <v>122</v>
       </c>
       <c r="D113" s="12"/>
     </row>
@@ -3319,10 +3366,10 @@
         <v>109</v>
       </c>
       <c r="B114" s="15" t="s">
-        <v>102</v>
-      </c>
-      <c r="C114" s="22" t="s">
-        <v>122</v>
+        <v>103</v>
+      </c>
+      <c r="C114" s="23" t="s">
+        <v>123</v>
       </c>
       <c r="D114" s="12"/>
     </row>
@@ -3332,10 +3379,10 @@
         <v>110</v>
       </c>
       <c r="B115" s="15" t="s">
-        <v>102</v>
-      </c>
-      <c r="C115" s="22" t="s">
-        <v>123</v>
+        <v>103</v>
+      </c>
+      <c r="C115" s="23" t="s">
+        <v>124</v>
       </c>
       <c r="D115" s="12"/>
     </row>
@@ -3345,10 +3392,10 @@
         <v>111</v>
       </c>
       <c r="B116" s="15" t="s">
-        <v>102</v>
-      </c>
-      <c r="C116" s="22" t="s">
-        <v>124</v>
+        <v>103</v>
+      </c>
+      <c r="C116" s="23" t="s">
+        <v>125</v>
       </c>
       <c r="D116" s="12"/>
     </row>
@@ -3358,10 +3405,10 @@
         <v>112</v>
       </c>
       <c r="B117" s="15" t="s">
-        <v>102</v>
-      </c>
-      <c r="C117" s="22" t="s">
-        <v>125</v>
+        <v>103</v>
+      </c>
+      <c r="C117" s="23" t="s">
+        <v>126</v>
       </c>
       <c r="D117" s="12"/>
     </row>
@@ -3371,10 +3418,10 @@
         <v>113</v>
       </c>
       <c r="B118" s="15" t="s">
-        <v>102</v>
-      </c>
-      <c r="C118" s="22" t="s">
-        <v>126</v>
+        <v>103</v>
+      </c>
+      <c r="C118" s="23" t="s">
+        <v>127</v>
       </c>
       <c r="D118" s="12"/>
     </row>
@@ -3384,10 +3431,10 @@
         <v>114</v>
       </c>
       <c r="B119" s="15" t="s">
-        <v>102</v>
-      </c>
-      <c r="C119" s="22" t="s">
-        <v>127</v>
+        <v>103</v>
+      </c>
+      <c r="C119" s="23" t="s">
+        <v>128</v>
       </c>
       <c r="D119" s="12"/>
     </row>
@@ -3397,10 +3444,10 @@
         <v>115</v>
       </c>
       <c r="B120" s="15" t="s">
-        <v>102</v>
-      </c>
-      <c r="C120" s="22" t="s">
-        <v>128</v>
+        <v>103</v>
+      </c>
+      <c r="C120" s="23" t="s">
+        <v>129</v>
       </c>
       <c r="D120" s="12"/>
     </row>
@@ -3410,10 +3457,10 @@
         <v>116</v>
       </c>
       <c r="B121" s="15" t="s">
-        <v>102</v>
-      </c>
-      <c r="C121" s="22" t="s">
-        <v>129</v>
+        <v>103</v>
+      </c>
+      <c r="C121" s="23" t="s">
+        <v>130</v>
       </c>
       <c r="D121" s="12"/>
     </row>
@@ -3423,10 +3470,10 @@
         <v>117</v>
       </c>
       <c r="B122" s="15" t="s">
-        <v>102</v>
-      </c>
-      <c r="C122" s="22" t="s">
-        <v>130</v>
+        <v>103</v>
+      </c>
+      <c r="C122" s="23" t="s">
+        <v>131</v>
       </c>
       <c r="D122" s="12"/>
     </row>
@@ -3436,10 +3483,10 @@
         <v>118</v>
       </c>
       <c r="B123" s="15" t="s">
-        <v>102</v>
-      </c>
-      <c r="C123" s="22" t="s">
-        <v>131</v>
+        <v>103</v>
+      </c>
+      <c r="C123" s="23" t="s">
+        <v>132</v>
       </c>
       <c r="D123" s="12"/>
     </row>
@@ -3449,10 +3496,10 @@
         <v>119</v>
       </c>
       <c r="B124" s="15" t="s">
-        <v>102</v>
-      </c>
-      <c r="C124" s="22" t="s">
-        <v>132</v>
+        <v>103</v>
+      </c>
+      <c r="C124" s="23" t="s">
+        <v>133</v>
       </c>
       <c r="D124" s="12"/>
     </row>
@@ -3462,10 +3509,10 @@
         <v>120</v>
       </c>
       <c r="B125" s="15" t="s">
-        <v>102</v>
-      </c>
-      <c r="C125" s="22" t="s">
-        <v>133</v>
+        <v>103</v>
+      </c>
+      <c r="C125" s="23" t="s">
+        <v>134</v>
       </c>
       <c r="D125" s="12"/>
     </row>
@@ -3475,10 +3522,10 @@
         <v>121</v>
       </c>
       <c r="B126" s="15" t="s">
-        <v>102</v>
-      </c>
-      <c r="C126" s="22" t="s">
-        <v>134</v>
+        <v>103</v>
+      </c>
+      <c r="C126" s="23" t="s">
+        <v>135</v>
       </c>
       <c r="D126" s="12"/>
     </row>
@@ -3488,10 +3535,10 @@
         <v>122</v>
       </c>
       <c r="B127" s="15" t="s">
-        <v>102</v>
-      </c>
-      <c r="C127" s="22" t="s">
-        <v>135</v>
+        <v>103</v>
+      </c>
+      <c r="C127" s="23" t="s">
+        <v>136</v>
       </c>
       <c r="D127" s="12"/>
     </row>
@@ -3501,10 +3548,10 @@
         <v>123</v>
       </c>
       <c r="B128" s="15" t="s">
-        <v>102</v>
-      </c>
-      <c r="C128" s="22" t="s">
-        <v>136</v>
+        <v>103</v>
+      </c>
+      <c r="C128" s="23" t="s">
+        <v>137</v>
       </c>
       <c r="D128" s="12"/>
     </row>
@@ -3514,10 +3561,10 @@
         <v>124</v>
       </c>
       <c r="B129" s="15" t="s">
-        <v>102</v>
-      </c>
-      <c r="C129" s="22" t="s">
-        <v>137</v>
+        <v>103</v>
+      </c>
+      <c r="C129" s="23" t="s">
+        <v>138</v>
       </c>
       <c r="D129" s="12"/>
     </row>
@@ -3527,10 +3574,10 @@
         <v>125</v>
       </c>
       <c r="B130" s="15" t="s">
-        <v>102</v>
-      </c>
-      <c r="C130" s="22" t="s">
-        <v>138</v>
+        <v>103</v>
+      </c>
+      <c r="C130" s="23" t="s">
+        <v>139</v>
       </c>
       <c r="D130" s="12"/>
     </row>
@@ -3540,10 +3587,10 @@
         <v>126</v>
       </c>
       <c r="B131" s="10" t="s">
-        <v>139</v>
-      </c>
-      <c r="C131" s="22" t="s">
         <v>140</v>
+      </c>
+      <c r="C131" s="23" t="s">
+        <v>141</v>
       </c>
       <c r="D131" s="12"/>
     </row>
@@ -3553,10 +3600,10 @@
         <v>127</v>
       </c>
       <c r="B132" s="10" t="s">
-        <v>139</v>
-      </c>
-      <c r="C132" s="22" t="s">
-        <v>141</v>
+        <v>140</v>
+      </c>
+      <c r="C132" s="23" t="s">
+        <v>142</v>
       </c>
       <c r="D132" s="12"/>
     </row>
@@ -3566,10 +3613,10 @@
         <v>128</v>
       </c>
       <c r="B133" s="10" t="s">
-        <v>139</v>
-      </c>
-      <c r="C133" s="22" t="s">
-        <v>142</v>
+        <v>140</v>
+      </c>
+      <c r="C133" s="23" t="s">
+        <v>143</v>
       </c>
       <c r="D133" s="12"/>
     </row>
@@ -3579,10 +3626,10 @@
         <v>129</v>
       </c>
       <c r="B134" s="10" t="s">
-        <v>139</v>
-      </c>
-      <c r="C134" s="22" t="s">
-        <v>143</v>
+        <v>140</v>
+      </c>
+      <c r="C134" s="23" t="s">
+        <v>144</v>
       </c>
       <c r="D134" s="12"/>
     </row>
@@ -3592,10 +3639,10 @@
         <v>130</v>
       </c>
       <c r="B135" s="10" t="s">
-        <v>139</v>
-      </c>
-      <c r="C135" s="22" t="s">
-        <v>144</v>
+        <v>140</v>
+      </c>
+      <c r="C135" s="23" t="s">
+        <v>145</v>
       </c>
       <c r="D135" s="12"/>
     </row>
@@ -3605,10 +3652,10 @@
         <v>131</v>
       </c>
       <c r="B136" s="10" t="s">
-        <v>139</v>
-      </c>
-      <c r="C136" s="22" t="s">
-        <v>145</v>
+        <v>140</v>
+      </c>
+      <c r="C136" s="23" t="s">
+        <v>146</v>
       </c>
       <c r="D136" s="12"/>
     </row>
@@ -3618,10 +3665,10 @@
         <v>132</v>
       </c>
       <c r="B137" s="10" t="s">
-        <v>139</v>
-      </c>
-      <c r="C137" s="22" t="s">
-        <v>146</v>
+        <v>140</v>
+      </c>
+      <c r="C137" s="23" t="s">
+        <v>147</v>
       </c>
       <c r="D137" s="12"/>
     </row>
@@ -3631,10 +3678,10 @@
         <v>133</v>
       </c>
       <c r="B138" s="10" t="s">
-        <v>139</v>
-      </c>
-      <c r="C138" s="22" t="s">
-        <v>147</v>
+        <v>140</v>
+      </c>
+      <c r="C138" s="23" t="s">
+        <v>148</v>
       </c>
       <c r="D138" s="12"/>
     </row>
@@ -3644,10 +3691,10 @@
         <v>134</v>
       </c>
       <c r="B139" s="10" t="s">
-        <v>139</v>
-      </c>
-      <c r="C139" s="22" t="s">
-        <v>148</v>
+        <v>140</v>
+      </c>
+      <c r="C139" s="23" t="s">
+        <v>149</v>
       </c>
       <c r="D139" s="12"/>
     </row>
@@ -3657,10 +3704,10 @@
         <v>135</v>
       </c>
       <c r="B140" s="10" t="s">
-        <v>139</v>
-      </c>
-      <c r="C140" s="22" t="s">
-        <v>149</v>
+        <v>140</v>
+      </c>
+      <c r="C140" s="23" t="s">
+        <v>150</v>
       </c>
       <c r="D140" s="12"/>
     </row>
@@ -3670,10 +3717,10 @@
         <v>136</v>
       </c>
       <c r="B141" s="10" t="s">
-        <v>139</v>
-      </c>
-      <c r="C141" s="22" t="s">
-        <v>150</v>
+        <v>140</v>
+      </c>
+      <c r="C141" s="23" t="s">
+        <v>151</v>
       </c>
       <c r="D141" s="12"/>
     </row>
@@ -3683,10 +3730,10 @@
         <v>137</v>
       </c>
       <c r="B142" s="10" t="s">
-        <v>139</v>
-      </c>
-      <c r="C142" s="22" t="s">
-        <v>151</v>
+        <v>140</v>
+      </c>
+      <c r="C142" s="23" t="s">
+        <v>152</v>
       </c>
       <c r="D142" s="12"/>
     </row>
@@ -3696,10 +3743,10 @@
         <v>138</v>
       </c>
       <c r="B143" s="10" t="s">
-        <v>139</v>
-      </c>
-      <c r="C143" s="22" t="s">
-        <v>152</v>
+        <v>140</v>
+      </c>
+      <c r="C143" s="23" t="s">
+        <v>153</v>
       </c>
       <c r="D143" s="12"/>
     </row>
@@ -3709,10 +3756,10 @@
         <v>139</v>
       </c>
       <c r="B144" s="10" t="s">
-        <v>139</v>
-      </c>
-      <c r="C144" s="22" t="s">
-        <v>153</v>
+        <v>140</v>
+      </c>
+      <c r="C144" s="23" t="s">
+        <v>154</v>
       </c>
       <c r="D144" s="12"/>
     </row>
@@ -3722,10 +3769,10 @@
         <v>140</v>
       </c>
       <c r="B145" s="10" t="s">
-        <v>139</v>
-      </c>
-      <c r="C145" s="22" t="s">
-        <v>154</v>
+        <v>140</v>
+      </c>
+      <c r="C145" s="23" t="s">
+        <v>155</v>
       </c>
       <c r="D145" s="12"/>
     </row>
@@ -3735,10 +3782,10 @@
         <v>141</v>
       </c>
       <c r="B146" s="10" t="s">
-        <v>139</v>
-      </c>
-      <c r="C146" s="22" t="s">
-        <v>155</v>
+        <v>140</v>
+      </c>
+      <c r="C146" s="23" t="s">
+        <v>156</v>
       </c>
       <c r="D146" s="12"/>
     </row>
@@ -3748,10 +3795,10 @@
         <v>142</v>
       </c>
       <c r="B147" s="10" t="s">
-        <v>139</v>
-      </c>
-      <c r="C147" s="22" t="s">
-        <v>156</v>
+        <v>140</v>
+      </c>
+      <c r="C147" s="23" t="s">
+        <v>157</v>
       </c>
       <c r="D147" s="12"/>
     </row>
@@ -3761,10 +3808,10 @@
         <v>143</v>
       </c>
       <c r="B148" s="10" t="s">
-        <v>139</v>
-      </c>
-      <c r="C148" s="22" t="s">
-        <v>157</v>
+        <v>140</v>
+      </c>
+      <c r="C148" s="23" t="s">
+        <v>158</v>
       </c>
       <c r="D148" s="12"/>
     </row>
@@ -3774,10 +3821,10 @@
         <v>144</v>
       </c>
       <c r="B149" s="10" t="s">
-        <v>139</v>
-      </c>
-      <c r="C149" s="22" t="s">
-        <v>158</v>
+        <v>140</v>
+      </c>
+      <c r="C149" s="23" t="s">
+        <v>159</v>
       </c>
       <c r="D149" s="12"/>
     </row>
@@ -3787,10 +3834,10 @@
         <v>145</v>
       </c>
       <c r="B150" s="10" t="s">
-        <v>139</v>
-      </c>
-      <c r="C150" s="22" t="s">
-        <v>159</v>
+        <v>140</v>
+      </c>
+      <c r="C150" s="23" t="s">
+        <v>160</v>
       </c>
       <c r="D150" s="12"/>
     </row>
@@ -3800,10 +3847,10 @@
         <v>146</v>
       </c>
       <c r="B151" s="10" t="s">
-        <v>139</v>
-      </c>
-      <c r="C151" s="22" t="s">
-        <v>160</v>
+        <v>140</v>
+      </c>
+      <c r="C151" s="23" t="s">
+        <v>161</v>
       </c>
       <c r="D151" s="12"/>
     </row>
@@ -3813,10 +3860,10 @@
         <v>147</v>
       </c>
       <c r="B152" s="10" t="s">
-        <v>139</v>
-      </c>
-      <c r="C152" s="22" t="s">
-        <v>161</v>
+        <v>140</v>
+      </c>
+      <c r="C152" s="23" t="s">
+        <v>162</v>
       </c>
       <c r="D152" s="12"/>
     </row>
@@ -3826,10 +3873,10 @@
         <v>148</v>
       </c>
       <c r="B153" s="10" t="s">
-        <v>139</v>
-      </c>
-      <c r="C153" s="22" t="s">
-        <v>162</v>
+        <v>140</v>
+      </c>
+      <c r="C153" s="23" t="s">
+        <v>163</v>
       </c>
       <c r="D153" s="12"/>
     </row>
@@ -3839,10 +3886,10 @@
         <v>149</v>
       </c>
       <c r="B154" s="10" t="s">
-        <v>139</v>
-      </c>
-      <c r="C154" s="22" t="s">
-        <v>163</v>
+        <v>140</v>
+      </c>
+      <c r="C154" s="23" t="s">
+        <v>164</v>
       </c>
       <c r="D154" s="12"/>
     </row>
@@ -3852,10 +3899,10 @@
         <v>150</v>
       </c>
       <c r="B155" s="10" t="s">
-        <v>139</v>
-      </c>
-      <c r="C155" s="22" t="s">
-        <v>164</v>
+        <v>140</v>
+      </c>
+      <c r="C155" s="23" t="s">
+        <v>165</v>
       </c>
       <c r="D155" s="12"/>
     </row>
@@ -3865,10 +3912,10 @@
         <v>151</v>
       </c>
       <c r="B156" s="10" t="s">
-        <v>139</v>
-      </c>
-      <c r="C156" s="23" t="s">
-        <v>165</v>
+        <v>140</v>
+      </c>
+      <c r="C156" s="24" t="s">
+        <v>166</v>
       </c>
       <c r="D156" s="12"/>
     </row>
@@ -3878,10 +3925,10 @@
         <v>152</v>
       </c>
       <c r="B157" s="10" t="s">
-        <v>139</v>
-      </c>
-      <c r="C157" s="23" t="s">
-        <v>166</v>
+        <v>140</v>
+      </c>
+      <c r="C157" s="24" t="s">
+        <v>167</v>
       </c>
       <c r="D157" s="12"/>
     </row>
@@ -3891,10 +3938,10 @@
         <v>153</v>
       </c>
       <c r="B158" s="10" t="s">
-        <v>139</v>
-      </c>
-      <c r="C158" s="22" t="s">
-        <v>167</v>
+        <v>140</v>
+      </c>
+      <c r="C158" s="23" t="s">
+        <v>168</v>
       </c>
       <c r="D158" s="12"/>
     </row>
@@ -3904,10 +3951,10 @@
         <v>154</v>
       </c>
       <c r="B159" s="10" t="s">
-        <v>139</v>
-      </c>
-      <c r="C159" s="22" t="s">
-        <v>168</v>
+        <v>140</v>
+      </c>
+      <c r="C159" s="23" t="s">
+        <v>169</v>
       </c>
       <c r="D159" s="12"/>
     </row>
@@ -3917,10 +3964,10 @@
         <v>155</v>
       </c>
       <c r="B160" s="10" t="s">
-        <v>139</v>
-      </c>
-      <c r="C160" s="22" t="s">
-        <v>169</v>
+        <v>140</v>
+      </c>
+      <c r="C160" s="23" t="s">
+        <v>170</v>
       </c>
       <c r="D160" s="12"/>
     </row>
@@ -3930,10 +3977,10 @@
         <v>156</v>
       </c>
       <c r="B161" s="10" t="s">
-        <v>139</v>
-      </c>
-      <c r="C161" s="22" t="s">
-        <v>170</v>
+        <v>140</v>
+      </c>
+      <c r="C161" s="23" t="s">
+        <v>171</v>
       </c>
       <c r="D161" s="12"/>
     </row>
@@ -3943,10 +3990,10 @@
         <v>157</v>
       </c>
       <c r="B162" s="10" t="s">
-        <v>139</v>
-      </c>
-      <c r="C162" s="22" t="s">
-        <v>171</v>
+        <v>140</v>
+      </c>
+      <c r="C162" s="23" t="s">
+        <v>172</v>
       </c>
       <c r="D162" s="12"/>
     </row>
@@ -3956,10 +4003,10 @@
         <v>158</v>
       </c>
       <c r="B163" s="10" t="s">
-        <v>139</v>
-      </c>
-      <c r="C163" s="22" t="s">
-        <v>172</v>
+        <v>140</v>
+      </c>
+      <c r="C163" s="23" t="s">
+        <v>173</v>
       </c>
       <c r="D163" s="12"/>
     </row>
@@ -3969,10 +4016,10 @@
         <v>159</v>
       </c>
       <c r="B164" s="10" t="s">
-        <v>139</v>
-      </c>
-      <c r="C164" s="22" t="s">
-        <v>173</v>
+        <v>140</v>
+      </c>
+      <c r="C164" s="23" t="s">
+        <v>174</v>
       </c>
       <c r="D164" s="12"/>
     </row>
@@ -3982,10 +4029,10 @@
         <v>160</v>
       </c>
       <c r="B165" s="10" t="s">
-        <v>139</v>
-      </c>
-      <c r="C165" s="22" t="s">
-        <v>174</v>
+        <v>140</v>
+      </c>
+      <c r="C165" s="23" t="s">
+        <v>175</v>
       </c>
       <c r="D165" s="12"/>
     </row>
@@ -3995,10 +4042,10 @@
         <v>161</v>
       </c>
       <c r="B166" s="10" t="s">
-        <v>139</v>
-      </c>
-      <c r="C166" s="22" t="s">
-        <v>175</v>
+        <v>140</v>
+      </c>
+      <c r="C166" s="23" t="s">
+        <v>176</v>
       </c>
       <c r="D166" s="12"/>
     </row>
@@ -4008,10 +4055,10 @@
         <v>162</v>
       </c>
       <c r="B167" s="15" t="s">
-        <v>176</v>
-      </c>
-      <c r="C167" s="22" t="s">
         <v>177</v>
+      </c>
+      <c r="C167" s="23" t="s">
+        <v>178</v>
       </c>
       <c r="D167" s="12"/>
     </row>
@@ -4021,10 +4068,10 @@
         <v>163</v>
       </c>
       <c r="B168" s="15" t="s">
-        <v>176</v>
-      </c>
-      <c r="C168" s="22" t="s">
-        <v>178</v>
+        <v>177</v>
+      </c>
+      <c r="C168" s="23" t="s">
+        <v>179</v>
       </c>
       <c r="D168" s="12"/>
     </row>
@@ -4034,10 +4081,10 @@
         <v>164</v>
       </c>
       <c r="B169" s="15" t="s">
-        <v>176</v>
-      </c>
-      <c r="C169" s="22" t="s">
-        <v>179</v>
+        <v>177</v>
+      </c>
+      <c r="C169" s="23" t="s">
+        <v>180</v>
       </c>
       <c r="D169" s="12"/>
     </row>
@@ -4047,10 +4094,10 @@
         <v>165</v>
       </c>
       <c r="B170" s="15" t="s">
-        <v>176</v>
-      </c>
-      <c r="C170" s="22" t="s">
-        <v>180</v>
+        <v>177</v>
+      </c>
+      <c r="C170" s="23" t="s">
+        <v>181</v>
       </c>
       <c r="D170" s="12"/>
     </row>
@@ -4060,10 +4107,10 @@
         <v>166</v>
       </c>
       <c r="B171" s="15" t="s">
-        <v>176</v>
-      </c>
-      <c r="C171" s="22" t="s">
-        <v>181</v>
+        <v>177</v>
+      </c>
+      <c r="C171" s="23" t="s">
+        <v>182</v>
       </c>
       <c r="D171" s="12"/>
     </row>
@@ -4073,10 +4120,10 @@
         <v>167</v>
       </c>
       <c r="B172" s="15" t="s">
-        <v>176</v>
-      </c>
-      <c r="C172" s="22" t="s">
-        <v>182</v>
+        <v>177</v>
+      </c>
+      <c r="C172" s="23" t="s">
+        <v>183</v>
       </c>
       <c r="D172" s="12"/>
     </row>
@@ -4086,10 +4133,10 @@
         <v>168</v>
       </c>
       <c r="B173" s="15" t="s">
-        <v>176</v>
-      </c>
-      <c r="C173" s="22" t="s">
-        <v>183</v>
+        <v>177</v>
+      </c>
+      <c r="C173" s="23" t="s">
+        <v>184</v>
       </c>
       <c r="D173" s="12"/>
     </row>
@@ -4099,10 +4146,10 @@
         <v>169</v>
       </c>
       <c r="B174" s="15" t="s">
-        <v>176</v>
-      </c>
-      <c r="C174" s="22" t="s">
-        <v>184</v>
+        <v>177</v>
+      </c>
+      <c r="C174" s="23" t="s">
+        <v>185</v>
       </c>
       <c r="D174" s="12"/>
     </row>
@@ -4112,10 +4159,10 @@
         <v>170</v>
       </c>
       <c r="B175" s="15" t="s">
-        <v>176</v>
-      </c>
-      <c r="C175" s="22" t="s">
-        <v>185</v>
+        <v>177</v>
+      </c>
+      <c r="C175" s="23" t="s">
+        <v>186</v>
       </c>
       <c r="D175" s="12"/>
     </row>
@@ -4125,10 +4172,10 @@
         <v>171</v>
       </c>
       <c r="B176" s="15" t="s">
-        <v>176</v>
-      </c>
-      <c r="C176" s="22" t="s">
-        <v>186</v>
+        <v>177</v>
+      </c>
+      <c r="C176" s="23" t="s">
+        <v>187</v>
       </c>
       <c r="D176" s="12"/>
     </row>
@@ -4138,10 +4185,10 @@
         <v>172</v>
       </c>
       <c r="B177" s="15" t="s">
-        <v>176</v>
-      </c>
-      <c r="C177" s="22" t="s">
-        <v>187</v>
+        <v>177</v>
+      </c>
+      <c r="C177" s="23" t="s">
+        <v>188</v>
       </c>
       <c r="D177" s="12"/>
     </row>
@@ -4151,10 +4198,10 @@
         <v>173</v>
       </c>
       <c r="B178" s="15" t="s">
-        <v>176</v>
-      </c>
-      <c r="C178" s="22" t="s">
-        <v>188</v>
+        <v>177</v>
+      </c>
+      <c r="C178" s="23" t="s">
+        <v>189</v>
       </c>
       <c r="D178" s="12"/>
     </row>
@@ -4164,10 +4211,10 @@
         <v>174</v>
       </c>
       <c r="B179" s="15" t="s">
-        <v>176</v>
-      </c>
-      <c r="C179" s="22" t="s">
-        <v>189</v>
+        <v>177</v>
+      </c>
+      <c r="C179" s="23" t="s">
+        <v>190</v>
       </c>
       <c r="D179" s="12"/>
     </row>
@@ -4177,10 +4224,10 @@
         <v>175</v>
       </c>
       <c r="B180" s="15" t="s">
-        <v>176</v>
-      </c>
-      <c r="C180" s="22" t="s">
-        <v>190</v>
+        <v>177</v>
+      </c>
+      <c r="C180" s="23" t="s">
+        <v>191</v>
       </c>
       <c r="D180" s="12"/>
     </row>
@@ -4190,10 +4237,10 @@
         <v>176</v>
       </c>
       <c r="B181" s="15" t="s">
-        <v>176</v>
-      </c>
-      <c r="C181" s="22" t="s">
-        <v>191</v>
+        <v>177</v>
+      </c>
+      <c r="C181" s="23" t="s">
+        <v>192</v>
       </c>
       <c r="D181" s="12"/>
     </row>
@@ -4203,10 +4250,10 @@
         <v>177</v>
       </c>
       <c r="B182" s="15" t="s">
-        <v>176</v>
-      </c>
-      <c r="C182" s="22" t="s">
-        <v>192</v>
+        <v>177</v>
+      </c>
+      <c r="C182" s="23" t="s">
+        <v>193</v>
       </c>
       <c r="D182" s="12"/>
     </row>
@@ -4216,10 +4263,10 @@
         <v>178</v>
       </c>
       <c r="B183" s="15" t="s">
-        <v>176</v>
-      </c>
-      <c r="C183" s="22" t="s">
-        <v>193</v>
+        <v>177</v>
+      </c>
+      <c r="C183" s="23" t="s">
+        <v>194</v>
       </c>
       <c r="D183" s="12"/>
     </row>
@@ -4229,10 +4276,10 @@
         <v>179</v>
       </c>
       <c r="B184" s="15" t="s">
-        <v>176</v>
-      </c>
-      <c r="C184" s="22" t="s">
-        <v>194</v>
+        <v>177</v>
+      </c>
+      <c r="C184" s="23" t="s">
+        <v>195</v>
       </c>
       <c r="D184" s="12"/>
     </row>
@@ -4242,10 +4289,10 @@
         <v>180</v>
       </c>
       <c r="B185" s="15" t="s">
-        <v>176</v>
-      </c>
-      <c r="C185" s="22" t="s">
-        <v>195</v>
+        <v>177</v>
+      </c>
+      <c r="C185" s="23" t="s">
+        <v>196</v>
       </c>
       <c r="D185" s="12"/>
     </row>
@@ -4255,10 +4302,10 @@
         <v>181</v>
       </c>
       <c r="B186" s="15" t="s">
-        <v>176</v>
-      </c>
-      <c r="C186" s="22" t="s">
-        <v>196</v>
+        <v>177</v>
+      </c>
+      <c r="C186" s="23" t="s">
+        <v>197</v>
       </c>
       <c r="D186" s="12"/>
     </row>
@@ -4268,10 +4315,10 @@
         <v>182</v>
       </c>
       <c r="B187" s="15" t="s">
-        <v>176</v>
-      </c>
-      <c r="C187" s="22" t="s">
-        <v>197</v>
+        <v>177</v>
+      </c>
+      <c r="C187" s="23" t="s">
+        <v>198</v>
       </c>
       <c r="D187" s="12"/>
     </row>
@@ -4281,10 +4328,10 @@
         <v>183</v>
       </c>
       <c r="B188" s="15" t="s">
-        <v>176</v>
-      </c>
-      <c r="C188" s="22" t="s">
-        <v>198</v>
+        <v>177</v>
+      </c>
+      <c r="C188" s="23" t="s">
+        <v>199</v>
       </c>
       <c r="D188" s="12"/>
     </row>
@@ -4294,10 +4341,10 @@
         <v>184</v>
       </c>
       <c r="B189" s="15" t="s">
-        <v>176</v>
-      </c>
-      <c r="C189" s="22" t="s">
-        <v>199</v>
+        <v>177</v>
+      </c>
+      <c r="C189" s="23" t="s">
+        <v>200</v>
       </c>
       <c r="D189" s="12"/>
     </row>
@@ -4307,10 +4354,10 @@
         <v>185</v>
       </c>
       <c r="B190" s="15" t="s">
-        <v>176</v>
-      </c>
-      <c r="C190" s="22" t="s">
-        <v>200</v>
+        <v>177</v>
+      </c>
+      <c r="C190" s="23" t="s">
+        <v>201</v>
       </c>
       <c r="D190" s="12"/>
     </row>
@@ -4320,10 +4367,10 @@
         <v>186</v>
       </c>
       <c r="B191" s="15" t="s">
-        <v>176</v>
-      </c>
-      <c r="C191" s="22" t="s">
-        <v>201</v>
+        <v>177</v>
+      </c>
+      <c r="C191" s="23" t="s">
+        <v>202</v>
       </c>
       <c r="D191" s="12"/>
     </row>
@@ -4333,10 +4380,10 @@
         <v>187</v>
       </c>
       <c r="B192" s="15" t="s">
-        <v>176</v>
-      </c>
-      <c r="C192" s="22" t="s">
-        <v>202</v>
+        <v>177</v>
+      </c>
+      <c r="C192" s="23" t="s">
+        <v>203</v>
       </c>
       <c r="D192" s="12"/>
     </row>
@@ -4346,10 +4393,10 @@
         <v>188</v>
       </c>
       <c r="B193" s="15" t="s">
-        <v>176</v>
-      </c>
-      <c r="C193" s="22" t="s">
-        <v>203</v>
+        <v>177</v>
+      </c>
+      <c r="C193" s="23" t="s">
+        <v>204</v>
       </c>
       <c r="D193" s="12"/>
     </row>
@@ -4359,10 +4406,10 @@
         <v>189</v>
       </c>
       <c r="B194" s="15" t="s">
-        <v>176</v>
-      </c>
-      <c r="C194" s="22" t="s">
-        <v>204</v>
+        <v>177</v>
+      </c>
+      <c r="C194" s="23" t="s">
+        <v>205</v>
       </c>
       <c r="D194" s="12"/>
     </row>
@@ -4372,10 +4419,10 @@
         <v>190</v>
       </c>
       <c r="B195" s="15" t="s">
-        <v>176</v>
-      </c>
-      <c r="C195" s="22" t="s">
-        <v>205</v>
+        <v>177</v>
+      </c>
+      <c r="C195" s="23" t="s">
+        <v>206</v>
       </c>
       <c r="D195" s="12"/>
     </row>
@@ -4385,10 +4432,10 @@
         <v>191</v>
       </c>
       <c r="B196" s="15" t="s">
-        <v>176</v>
-      </c>
-      <c r="C196" s="22" t="s">
-        <v>206</v>
+        <v>177</v>
+      </c>
+      <c r="C196" s="23" t="s">
+        <v>207</v>
       </c>
       <c r="D196" s="12"/>
     </row>
@@ -4398,10 +4445,10 @@
         <v>192</v>
       </c>
       <c r="B197" s="15" t="s">
-        <v>176</v>
-      </c>
-      <c r="C197" s="22" t="s">
-        <v>207</v>
+        <v>177</v>
+      </c>
+      <c r="C197" s="23" t="s">
+        <v>208</v>
       </c>
       <c r="D197" s="12"/>
     </row>
@@ -4411,10 +4458,10 @@
         <v>193</v>
       </c>
       <c r="B198" s="15" t="s">
-        <v>176</v>
-      </c>
-      <c r="C198" s="22" t="s">
-        <v>208</v>
+        <v>177</v>
+      </c>
+      <c r="C198" s="23" t="s">
+        <v>209</v>
       </c>
       <c r="D198" s="12"/>
     </row>
@@ -4424,10 +4471,10 @@
         <v>194</v>
       </c>
       <c r="B199" s="15" t="s">
-        <v>176</v>
-      </c>
-      <c r="C199" s="22" t="s">
-        <v>209</v>
+        <v>177</v>
+      </c>
+      <c r="C199" s="23" t="s">
+        <v>210</v>
       </c>
       <c r="D199" s="12"/>
     </row>
@@ -4437,10 +4484,10 @@
         <v>195</v>
       </c>
       <c r="B200" s="15" t="s">
-        <v>176</v>
-      </c>
-      <c r="C200" s="22" t="s">
-        <v>210</v>
+        <v>177</v>
+      </c>
+      <c r="C200" s="23" t="s">
+        <v>211</v>
       </c>
       <c r="D200" s="12"/>
     </row>
@@ -4450,10 +4497,10 @@
         <v>196</v>
       </c>
       <c r="B201" s="15" t="s">
-        <v>176</v>
-      </c>
-      <c r="C201" s="22" t="s">
-        <v>211</v>
+        <v>177</v>
+      </c>
+      <c r="C201" s="23" t="s">
+        <v>212</v>
       </c>
       <c r="D201" s="12"/>
     </row>
@@ -4463,10 +4510,10 @@
         <v>197</v>
       </c>
       <c r="B202" s="10" t="s">
-        <v>212</v>
-      </c>
-      <c r="C202" s="22" t="s">
         <v>213</v>
+      </c>
+      <c r="C202" s="23" t="s">
+        <v>214</v>
       </c>
     </row>
     <row r="203" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4475,10 +4522,10 @@
         <v>198</v>
       </c>
       <c r="B203" s="10" t="s">
-        <v>212</v>
-      </c>
-      <c r="C203" s="22" t="s">
-        <v>214</v>
+        <v>213</v>
+      </c>
+      <c r="C203" s="23" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="204" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4487,10 +4534,10 @@
         <v>199</v>
       </c>
       <c r="B204" s="10" t="s">
-        <v>212</v>
-      </c>
-      <c r="C204" s="22" t="s">
-        <v>215</v>
+        <v>213</v>
+      </c>
+      <c r="C204" s="23" t="s">
+        <v>216</v>
       </c>
     </row>
     <row r="205" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4499,10 +4546,10 @@
         <v>200</v>
       </c>
       <c r="B205" s="10" t="s">
-        <v>212</v>
-      </c>
-      <c r="C205" s="22" t="s">
-        <v>216</v>
+        <v>213</v>
+      </c>
+      <c r="C205" s="23" t="s">
+        <v>217</v>
       </c>
     </row>
     <row r="206" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4511,10 +4558,10 @@
         <v>201</v>
       </c>
       <c r="B206" s="10" t="s">
-        <v>212</v>
-      </c>
-      <c r="C206" s="22" t="s">
-        <v>217</v>
+        <v>213</v>
+      </c>
+      <c r="C206" s="23" t="s">
+        <v>218</v>
       </c>
     </row>
     <row r="207" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4523,10 +4570,10 @@
         <v>202</v>
       </c>
       <c r="B207" s="10" t="s">
-        <v>212</v>
-      </c>
-      <c r="C207" s="22" t="s">
-        <v>218</v>
+        <v>213</v>
+      </c>
+      <c r="C207" s="23" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="208" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4535,10 +4582,10 @@
         <v>203</v>
       </c>
       <c r="B208" s="10" t="s">
-        <v>212</v>
-      </c>
-      <c r="C208" s="24" t="s">
-        <v>219</v>
+        <v>213</v>
+      </c>
+      <c r="C208" s="25" t="s">
+        <v>220</v>
       </c>
     </row>
     <row r="209" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4547,10 +4594,10 @@
         <v>204</v>
       </c>
       <c r="B209" s="10" t="s">
-        <v>212</v>
-      </c>
-      <c r="C209" s="22" t="s">
-        <v>220</v>
+        <v>213</v>
+      </c>
+      <c r="C209" s="23" t="s">
+        <v>221</v>
       </c>
     </row>
     <row r="210" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4559,10 +4606,10 @@
         <v>205</v>
       </c>
       <c r="B210" s="10" t="s">
-        <v>212</v>
-      </c>
-      <c r="C210" s="22" t="s">
-        <v>221</v>
+        <v>213</v>
+      </c>
+      <c r="C210" s="23" t="s">
+        <v>222</v>
       </c>
       <c r="D210" s="12"/>
     </row>
@@ -4572,10 +4619,10 @@
         <v>206</v>
       </c>
       <c r="B211" s="10" t="s">
-        <v>212</v>
-      </c>
-      <c r="C211" s="22" t="s">
-        <v>222</v>
+        <v>213</v>
+      </c>
+      <c r="C211" s="23" t="s">
+        <v>223</v>
       </c>
       <c r="D211" s="12"/>
     </row>
@@ -4585,10 +4632,10 @@
         <v>207</v>
       </c>
       <c r="B212" s="10" t="s">
-        <v>212</v>
-      </c>
-      <c r="C212" s="22" t="s">
-        <v>223</v>
+        <v>213</v>
+      </c>
+      <c r="C212" s="23" t="s">
+        <v>224</v>
       </c>
       <c r="D212" s="12"/>
     </row>
@@ -4598,10 +4645,10 @@
         <v>208</v>
       </c>
       <c r="B213" s="10" t="s">
-        <v>212</v>
-      </c>
-      <c r="C213" s="22" t="s">
-        <v>224</v>
+        <v>213</v>
+      </c>
+      <c r="C213" s="23" t="s">
+        <v>225</v>
       </c>
       <c r="D213" s="12"/>
     </row>
@@ -4611,10 +4658,10 @@
         <v>209</v>
       </c>
       <c r="B214" s="10" t="s">
-        <v>212</v>
-      </c>
-      <c r="C214" s="22" t="s">
-        <v>225</v>
+        <v>213</v>
+      </c>
+      <c r="C214" s="23" t="s">
+        <v>226</v>
       </c>
       <c r="D214" s="12"/>
     </row>
@@ -4624,10 +4671,10 @@
         <v>210</v>
       </c>
       <c r="B215" s="10" t="s">
-        <v>212</v>
-      </c>
-      <c r="C215" s="22" t="s">
-        <v>226</v>
+        <v>213</v>
+      </c>
+      <c r="C215" s="23" t="s">
+        <v>227</v>
       </c>
       <c r="D215" s="12"/>
     </row>
@@ -4637,10 +4684,10 @@
         <v>211</v>
       </c>
       <c r="B216" s="10" t="s">
-        <v>212</v>
-      </c>
-      <c r="C216" s="22" t="s">
-        <v>227</v>
+        <v>213</v>
+      </c>
+      <c r="C216" s="23" t="s">
+        <v>228</v>
       </c>
       <c r="D216" s="12"/>
     </row>
@@ -4650,10 +4697,10 @@
         <v>212</v>
       </c>
       <c r="B217" s="10" t="s">
-        <v>212</v>
-      </c>
-      <c r="C217" s="22" t="s">
-        <v>228</v>
+        <v>213</v>
+      </c>
+      <c r="C217" s="23" t="s">
+        <v>229</v>
       </c>
       <c r="D217" s="12"/>
     </row>
@@ -4663,10 +4710,10 @@
         <v>213</v>
       </c>
       <c r="B218" s="10" t="s">
-        <v>212</v>
-      </c>
-      <c r="C218" s="22" t="s">
-        <v>229</v>
+        <v>213</v>
+      </c>
+      <c r="C218" s="23" t="s">
+        <v>230</v>
       </c>
       <c r="D218" s="12"/>
     </row>
@@ -4676,10 +4723,10 @@
         <v>214</v>
       </c>
       <c r="B219" s="10" t="s">
-        <v>212</v>
-      </c>
-      <c r="C219" s="22" t="s">
-        <v>230</v>
+        <v>213</v>
+      </c>
+      <c r="C219" s="23" t="s">
+        <v>231</v>
       </c>
       <c r="D219" s="12"/>
     </row>
@@ -4689,10 +4736,10 @@
         <v>215</v>
       </c>
       <c r="B220" s="10" t="s">
-        <v>212</v>
-      </c>
-      <c r="C220" s="22" t="s">
-        <v>231</v>
+        <v>213</v>
+      </c>
+      <c r="C220" s="23" t="s">
+        <v>232</v>
       </c>
       <c r="D220" s="12"/>
     </row>
@@ -4702,10 +4749,10 @@
         <v>216</v>
       </c>
       <c r="B221" s="10" t="s">
-        <v>212</v>
-      </c>
-      <c r="C221" s="22" t="s">
-        <v>232</v>
+        <v>213</v>
+      </c>
+      <c r="C221" s="23" t="s">
+        <v>233</v>
       </c>
       <c r="D221" s="12"/>
     </row>
@@ -4715,10 +4762,10 @@
         <v>217</v>
       </c>
       <c r="B222" s="10" t="s">
-        <v>212</v>
-      </c>
-      <c r="C222" s="22" t="s">
-        <v>233</v>
+        <v>213</v>
+      </c>
+      <c r="C222" s="23" t="s">
+        <v>234</v>
       </c>
       <c r="D222" s="12"/>
     </row>
@@ -4728,10 +4775,10 @@
         <v>218</v>
       </c>
       <c r="B223" s="10" t="s">
-        <v>212</v>
-      </c>
-      <c r="C223" s="22" t="s">
-        <v>234</v>
+        <v>213</v>
+      </c>
+      <c r="C223" s="23" t="s">
+        <v>235</v>
       </c>
       <c r="D223" s="12"/>
     </row>
@@ -4741,10 +4788,10 @@
         <v>219</v>
       </c>
       <c r="B224" s="15" t="s">
-        <v>235</v>
-      </c>
-      <c r="C224" s="22" t="s">
         <v>236</v>
+      </c>
+      <c r="C224" s="23" t="s">
+        <v>237</v>
       </c>
       <c r="D224" s="12"/>
     </row>
@@ -4754,10 +4801,10 @@
         <v>220</v>
       </c>
       <c r="B225" s="15" t="s">
-        <v>235</v>
-      </c>
-      <c r="C225" s="22" t="s">
-        <v>237</v>
+        <v>236</v>
+      </c>
+      <c r="C225" s="23" t="s">
+        <v>238</v>
       </c>
       <c r="D225" s="12"/>
     </row>
@@ -4767,10 +4814,10 @@
         <v>221</v>
       </c>
       <c r="B226" s="15" t="s">
-        <v>235</v>
-      </c>
-      <c r="C226" s="22" t="s">
-        <v>238</v>
+        <v>236</v>
+      </c>
+      <c r="C226" s="23" t="s">
+        <v>239</v>
       </c>
       <c r="D226" s="12"/>
     </row>
@@ -4780,10 +4827,10 @@
         <v>222</v>
       </c>
       <c r="B227" s="15" t="s">
-        <v>235</v>
-      </c>
-      <c r="C227" s="22" t="s">
-        <v>239</v>
+        <v>236</v>
+      </c>
+      <c r="C227" s="23" t="s">
+        <v>240</v>
       </c>
       <c r="D227" s="12"/>
     </row>
@@ -4793,10 +4840,10 @@
         <v>223</v>
       </c>
       <c r="B228" s="15" t="s">
-        <v>235</v>
-      </c>
-      <c r="C228" s="22" t="s">
-        <v>240</v>
+        <v>236</v>
+      </c>
+      <c r="C228" s="23" t="s">
+        <v>241</v>
       </c>
       <c r="D228" s="12"/>
     </row>
@@ -4806,10 +4853,10 @@
         <v>224</v>
       </c>
       <c r="B229" s="15" t="s">
-        <v>235</v>
-      </c>
-      <c r="C229" s="22" t="s">
-        <v>241</v>
+        <v>236</v>
+      </c>
+      <c r="C229" s="23" t="s">
+        <v>242</v>
       </c>
       <c r="D229" s="12"/>
     </row>
@@ -4819,10 +4866,10 @@
         <v>225</v>
       </c>
       <c r="B230" s="15" t="s">
-        <v>235</v>
-      </c>
-      <c r="C230" s="22" t="s">
-        <v>242</v>
+        <v>236</v>
+      </c>
+      <c r="C230" s="23" t="s">
+        <v>243</v>
       </c>
       <c r="D230" s="12"/>
     </row>
@@ -4832,10 +4879,10 @@
         <v>226</v>
       </c>
       <c r="B231" s="15" t="s">
-        <v>235</v>
-      </c>
-      <c r="C231" s="22" t="s">
-        <v>243</v>
+        <v>236</v>
+      </c>
+      <c r="C231" s="23" t="s">
+        <v>244</v>
       </c>
       <c r="D231" s="12"/>
     </row>
@@ -4845,10 +4892,10 @@
         <v>227</v>
       </c>
       <c r="B232" s="15" t="s">
-        <v>235</v>
-      </c>
-      <c r="C232" s="22" t="s">
-        <v>244</v>
+        <v>236</v>
+      </c>
+      <c r="C232" s="23" t="s">
+        <v>245</v>
       </c>
       <c r="D232" s="12"/>
     </row>
@@ -4858,10 +4905,10 @@
         <v>228</v>
       </c>
       <c r="B233" s="15" t="s">
-        <v>235</v>
-      </c>
-      <c r="C233" s="22" t="s">
-        <v>245</v>
+        <v>236</v>
+      </c>
+      <c r="C233" s="23" t="s">
+        <v>246</v>
       </c>
       <c r="D233" s="12"/>
     </row>
@@ -4871,10 +4918,10 @@
         <v>229</v>
       </c>
       <c r="B234" s="15" t="s">
-        <v>235</v>
-      </c>
-      <c r="C234" s="22" t="s">
-        <v>246</v>
+        <v>236</v>
+      </c>
+      <c r="C234" s="23" t="s">
+        <v>247</v>
       </c>
       <c r="D234" s="12"/>
     </row>
@@ -4884,10 +4931,10 @@
         <v>230</v>
       </c>
       <c r="B235" s="15" t="s">
-        <v>235</v>
-      </c>
-      <c r="C235" s="22" t="s">
-        <v>247</v>
+        <v>236</v>
+      </c>
+      <c r="C235" s="23" t="s">
+        <v>248</v>
       </c>
       <c r="D235" s="12"/>
     </row>
@@ -4897,10 +4944,10 @@
         <v>231</v>
       </c>
       <c r="B236" s="15" t="s">
-        <v>235</v>
-      </c>
-      <c r="C236" s="22" t="s">
-        <v>248</v>
+        <v>236</v>
+      </c>
+      <c r="C236" s="23" t="s">
+        <v>249</v>
       </c>
       <c r="D236" s="12"/>
     </row>
@@ -4910,10 +4957,10 @@
         <v>232</v>
       </c>
       <c r="B237" s="15" t="s">
-        <v>235</v>
-      </c>
-      <c r="C237" s="22" t="s">
-        <v>249</v>
+        <v>236</v>
+      </c>
+      <c r="C237" s="23" t="s">
+        <v>250</v>
       </c>
       <c r="D237" s="12"/>
     </row>
@@ -4923,10 +4970,10 @@
         <v>233</v>
       </c>
       <c r="B238" s="15" t="s">
-        <v>235</v>
-      </c>
-      <c r="C238" s="22" t="s">
-        <v>250</v>
+        <v>236</v>
+      </c>
+      <c r="C238" s="23" t="s">
+        <v>251</v>
       </c>
       <c r="D238" s="12"/>
     </row>
@@ -4936,10 +4983,10 @@
         <v>234</v>
       </c>
       <c r="B239" s="15" t="s">
-        <v>235</v>
-      </c>
-      <c r="C239" s="22" t="s">
-        <v>251</v>
+        <v>236</v>
+      </c>
+      <c r="C239" s="23" t="s">
+        <v>252</v>
       </c>
       <c r="D239" s="12"/>
     </row>
@@ -4949,10 +4996,10 @@
         <v>235</v>
       </c>
       <c r="B240" s="15" t="s">
-        <v>235</v>
-      </c>
-      <c r="C240" s="22" t="s">
-        <v>252</v>
+        <v>236</v>
+      </c>
+      <c r="C240" s="23" t="s">
+        <v>253</v>
       </c>
       <c r="D240" s="12"/>
     </row>
@@ -4962,10 +5009,10 @@
         <v>236</v>
       </c>
       <c r="B241" s="15" t="s">
-        <v>235</v>
-      </c>
-      <c r="C241" s="22" t="s">
-        <v>253</v>
+        <v>236</v>
+      </c>
+      <c r="C241" s="23" t="s">
+        <v>254</v>
       </c>
       <c r="D241" s="12"/>
     </row>
@@ -4975,10 +5022,10 @@
         <v>237</v>
       </c>
       <c r="B242" s="15" t="s">
-        <v>235</v>
-      </c>
-      <c r="C242" s="22" t="s">
-        <v>254</v>
+        <v>236</v>
+      </c>
+      <c r="C242" s="23" t="s">
+        <v>255</v>
       </c>
       <c r="D242" s="12"/>
     </row>
@@ -4988,10 +5035,10 @@
         <v>238</v>
       </c>
       <c r="B243" s="15" t="s">
-        <v>235</v>
-      </c>
-      <c r="C243" s="22" t="s">
-        <v>255</v>
+        <v>236</v>
+      </c>
+      <c r="C243" s="23" t="s">
+        <v>256</v>
       </c>
       <c r="D243" s="12"/>
     </row>
@@ -5001,10 +5048,10 @@
         <v>239</v>
       </c>
       <c r="B244" s="15" t="s">
-        <v>235</v>
-      </c>
-      <c r="C244" s="22" t="s">
-        <v>256</v>
+        <v>236</v>
+      </c>
+      <c r="C244" s="23" t="s">
+        <v>257</v>
       </c>
       <c r="D244" s="12"/>
     </row>
@@ -5014,10 +5061,10 @@
         <v>240</v>
       </c>
       <c r="B245" s="15" t="s">
-        <v>235</v>
-      </c>
-      <c r="C245" s="22" t="s">
-        <v>257</v>
+        <v>236</v>
+      </c>
+      <c r="C245" s="23" t="s">
+        <v>258</v>
       </c>
       <c r="D245" s="12"/>
     </row>
@@ -5027,10 +5074,10 @@
         <v>241</v>
       </c>
       <c r="B246" s="15" t="s">
-        <v>235</v>
-      </c>
-      <c r="C246" s="22" t="s">
-        <v>258</v>
+        <v>236</v>
+      </c>
+      <c r="C246" s="23" t="s">
+        <v>259</v>
       </c>
       <c r="D246" s="12"/>
     </row>
@@ -5040,10 +5087,10 @@
         <v>242</v>
       </c>
       <c r="B247" s="15" t="s">
-        <v>235</v>
-      </c>
-      <c r="C247" s="22" t="s">
-        <v>259</v>
+        <v>236</v>
+      </c>
+      <c r="C247" s="23" t="s">
+        <v>260</v>
       </c>
       <c r="D247" s="12"/>
     </row>
@@ -5053,10 +5100,10 @@
         <v>243</v>
       </c>
       <c r="B248" s="15" t="s">
-        <v>235</v>
-      </c>
-      <c r="C248" s="22" t="s">
-        <v>260</v>
+        <v>236</v>
+      </c>
+      <c r="C248" s="23" t="s">
+        <v>261</v>
       </c>
       <c r="D248" s="12"/>
     </row>
@@ -5066,10 +5113,10 @@
         <v>244</v>
       </c>
       <c r="B249" s="15" t="s">
-        <v>235</v>
-      </c>
-      <c r="C249" s="22" t="s">
-        <v>261</v>
+        <v>236</v>
+      </c>
+      <c r="C249" s="23" t="s">
+        <v>262</v>
       </c>
       <c r="D249" s="12"/>
     </row>
@@ -5079,10 +5126,10 @@
         <v>245</v>
       </c>
       <c r="B250" s="15" t="s">
-        <v>235</v>
-      </c>
-      <c r="C250" s="22" t="s">
-        <v>262</v>
+        <v>236</v>
+      </c>
+      <c r="C250" s="23" t="s">
+        <v>263</v>
       </c>
       <c r="D250" s="12"/>
     </row>
@@ -5092,10 +5139,10 @@
         <v>246</v>
       </c>
       <c r="B251" s="15" t="s">
-        <v>235</v>
-      </c>
-      <c r="C251" s="22" t="s">
-        <v>263</v>
+        <v>236</v>
+      </c>
+      <c r="C251" s="23" t="s">
+        <v>264</v>
       </c>
       <c r="D251" s="12"/>
     </row>
@@ -5105,10 +5152,10 @@
         <v>247</v>
       </c>
       <c r="B252" s="15" t="s">
-        <v>235</v>
-      </c>
-      <c r="C252" s="22" t="s">
-        <v>264</v>
+        <v>236</v>
+      </c>
+      <c r="C252" s="23" t="s">
+        <v>265</v>
       </c>
       <c r="D252" s="12"/>
     </row>
@@ -5118,10 +5165,10 @@
         <v>248</v>
       </c>
       <c r="B253" s="15" t="s">
-        <v>235</v>
-      </c>
-      <c r="C253" s="22" t="s">
-        <v>265</v>
+        <v>236</v>
+      </c>
+      <c r="C253" s="23" t="s">
+        <v>266</v>
       </c>
       <c r="D253" s="12"/>
     </row>
@@ -5131,10 +5178,10 @@
         <v>249</v>
       </c>
       <c r="B254" s="15" t="s">
-        <v>235</v>
-      </c>
-      <c r="C254" s="22" t="s">
-        <v>266</v>
+        <v>236</v>
+      </c>
+      <c r="C254" s="23" t="s">
+        <v>267</v>
       </c>
       <c r="D254" s="12"/>
     </row>
@@ -5144,10 +5191,10 @@
         <v>250</v>
       </c>
       <c r="B255" s="15" t="s">
-        <v>235</v>
-      </c>
-      <c r="C255" s="22" t="s">
-        <v>267</v>
+        <v>236</v>
+      </c>
+      <c r="C255" s="23" t="s">
+        <v>268</v>
       </c>
       <c r="D255" s="12"/>
     </row>
@@ -5157,10 +5204,10 @@
         <v>251</v>
       </c>
       <c r="B256" s="15" t="s">
-        <v>235</v>
-      </c>
-      <c r="C256" s="22" t="s">
-        <v>268</v>
+        <v>236</v>
+      </c>
+      <c r="C256" s="23" t="s">
+        <v>269</v>
       </c>
       <c r="D256" s="12"/>
     </row>
@@ -5170,10 +5217,10 @@
         <v>252</v>
       </c>
       <c r="B257" s="15" t="s">
-        <v>235</v>
-      </c>
-      <c r="C257" s="22" t="s">
-        <v>92</v>
+        <v>236</v>
+      </c>
+      <c r="C257" s="23" t="s">
+        <v>93</v>
       </c>
       <c r="D257" s="12"/>
     </row>
@@ -5183,10 +5230,10 @@
         <v>253</v>
       </c>
       <c r="B258" s="15" t="s">
-        <v>235</v>
-      </c>
-      <c r="C258" s="22" t="s">
-        <v>269</v>
+        <v>236</v>
+      </c>
+      <c r="C258" s="23" t="s">
+        <v>270</v>
       </c>
       <c r="D258" s="12"/>
     </row>
@@ -5196,10 +5243,10 @@
         <v>254</v>
       </c>
       <c r="B259" s="10" t="s">
-        <v>270</v>
-      </c>
-      <c r="C259" s="22" t="s">
         <v>271</v>
+      </c>
+      <c r="C259" s="23" t="s">
+        <v>272</v>
       </c>
       <c r="D259" s="12"/>
     </row>
@@ -5209,10 +5256,10 @@
         <v>255</v>
       </c>
       <c r="B260" s="10" t="s">
-        <v>270</v>
-      </c>
-      <c r="C260" s="22" t="s">
-        <v>272</v>
+        <v>271</v>
+      </c>
+      <c r="C260" s="23" t="s">
+        <v>273</v>
       </c>
       <c r="D260" s="12"/>
     </row>
@@ -5222,10 +5269,10 @@
         <v>256</v>
       </c>
       <c r="B261" s="10" t="s">
-        <v>270</v>
-      </c>
-      <c r="C261" s="22" t="s">
-        <v>273</v>
+        <v>271</v>
+      </c>
+      <c r="C261" s="23" t="s">
+        <v>274</v>
       </c>
       <c r="D261" s="12"/>
     </row>
@@ -5235,10 +5282,10 @@
         <v>257</v>
       </c>
       <c r="B262" s="10" t="s">
-        <v>270</v>
-      </c>
-      <c r="C262" s="22" t="s">
-        <v>274</v>
+        <v>271</v>
+      </c>
+      <c r="C262" s="23" t="s">
+        <v>275</v>
       </c>
       <c r="D262" s="12"/>
     </row>
@@ -5248,10 +5295,10 @@
         <v>258</v>
       </c>
       <c r="B263" s="10" t="s">
-        <v>270</v>
-      </c>
-      <c r="C263" s="22" t="s">
-        <v>275</v>
+        <v>271</v>
+      </c>
+      <c r="C263" s="23" t="s">
+        <v>276</v>
       </c>
       <c r="D263" s="12"/>
     </row>
@@ -5261,10 +5308,10 @@
         <v>259</v>
       </c>
       <c r="B264" s="10" t="s">
-        <v>270</v>
-      </c>
-      <c r="C264" s="22" t="s">
-        <v>276</v>
+        <v>271</v>
+      </c>
+      <c r="C264" s="23" t="s">
+        <v>277</v>
       </c>
       <c r="D264" s="12"/>
     </row>
@@ -5274,10 +5321,10 @@
         <v>260</v>
       </c>
       <c r="B265" s="10" t="s">
-        <v>270</v>
-      </c>
-      <c r="C265" s="22" t="s">
-        <v>277</v>
+        <v>271</v>
+      </c>
+      <c r="C265" s="23" t="s">
+        <v>278</v>
       </c>
       <c r="D265" s="12"/>
     </row>
@@ -5287,10 +5334,10 @@
         <v>261</v>
       </c>
       <c r="B266" s="10" t="s">
-        <v>270</v>
-      </c>
-      <c r="C266" s="22" t="s">
-        <v>278</v>
+        <v>271</v>
+      </c>
+      <c r="C266" s="23" t="s">
+        <v>279</v>
       </c>
       <c r="D266" s="12"/>
     </row>
@@ -5300,10 +5347,10 @@
         <v>262</v>
       </c>
       <c r="B267" s="10" t="s">
-        <v>270</v>
-      </c>
-      <c r="C267" s="22" t="s">
-        <v>279</v>
+        <v>271</v>
+      </c>
+      <c r="C267" s="23" t="s">
+        <v>280</v>
       </c>
       <c r="D267" s="12"/>
     </row>
@@ -5313,10 +5360,10 @@
         <v>263</v>
       </c>
       <c r="B268" s="10" t="s">
-        <v>270</v>
-      </c>
-      <c r="C268" s="22" t="s">
-        <v>280</v>
+        <v>271</v>
+      </c>
+      <c r="C268" s="23" t="s">
+        <v>281</v>
       </c>
       <c r="D268" s="12"/>
     </row>
@@ -5326,10 +5373,10 @@
         <v>264</v>
       </c>
       <c r="B269" s="10" t="s">
-        <v>270</v>
-      </c>
-      <c r="C269" s="22" t="s">
-        <v>281</v>
+        <v>271</v>
+      </c>
+      <c r="C269" s="23" t="s">
+        <v>282</v>
       </c>
       <c r="D269" s="12"/>
     </row>
@@ -5339,10 +5386,10 @@
         <v>265</v>
       </c>
       <c r="B270" s="10" t="s">
-        <v>270</v>
-      </c>
-      <c r="C270" s="22" t="s">
-        <v>282</v>
+        <v>271</v>
+      </c>
+      <c r="C270" s="23" t="s">
+        <v>283</v>
       </c>
       <c r="D270" s="12"/>
     </row>
@@ -5352,10 +5399,10 @@
         <v>266</v>
       </c>
       <c r="B271" s="10" t="s">
-        <v>270</v>
-      </c>
-      <c r="C271" s="22" t="s">
-        <v>283</v>
+        <v>271</v>
+      </c>
+      <c r="C271" s="23" t="s">
+        <v>284</v>
       </c>
       <c r="D271" s="12"/>
     </row>
@@ -5365,10 +5412,10 @@
         <v>267</v>
       </c>
       <c r="B272" s="10" t="s">
-        <v>270</v>
-      </c>
-      <c r="C272" s="22" t="s">
-        <v>284</v>
+        <v>271</v>
+      </c>
+      <c r="C272" s="23" t="s">
+        <v>285</v>
       </c>
       <c r="D272" s="12"/>
     </row>
@@ -5378,10 +5425,10 @@
         <v>268</v>
       </c>
       <c r="B273" s="10" t="s">
-        <v>270</v>
-      </c>
-      <c r="C273" s="22" t="s">
-        <v>285</v>
+        <v>271</v>
+      </c>
+      <c r="C273" s="23" t="s">
+        <v>286</v>
       </c>
       <c r="D273" s="12"/>
     </row>
@@ -5391,10 +5438,10 @@
         <v>269</v>
       </c>
       <c r="B274" s="10" t="s">
-        <v>270</v>
-      </c>
-      <c r="C274" s="22" t="s">
-        <v>286</v>
+        <v>271</v>
+      </c>
+      <c r="C274" s="23" t="s">
+        <v>287</v>
       </c>
       <c r="D274" s="12"/>
     </row>
@@ -5404,10 +5451,10 @@
         <v>270</v>
       </c>
       <c r="B275" s="10" t="s">
-        <v>270</v>
-      </c>
-      <c r="C275" s="22" t="s">
-        <v>287</v>
+        <v>271</v>
+      </c>
+      <c r="C275" s="23" t="s">
+        <v>288</v>
       </c>
       <c r="D275" s="12"/>
     </row>
@@ -5417,10 +5464,10 @@
         <v>271</v>
       </c>
       <c r="B276" s="10" t="s">
-        <v>270</v>
-      </c>
-      <c r="C276" s="22" t="s">
-        <v>288</v>
+        <v>271</v>
+      </c>
+      <c r="C276" s="23" t="s">
+        <v>289</v>
       </c>
       <c r="D276" s="12"/>
     </row>
@@ -5430,10 +5477,10 @@
         <v>272</v>
       </c>
       <c r="B277" s="10" t="s">
-        <v>270</v>
-      </c>
-      <c r="C277" s="22" t="s">
-        <v>289</v>
+        <v>271</v>
+      </c>
+      <c r="C277" s="23" t="s">
+        <v>290</v>
       </c>
       <c r="D277" s="12"/>
     </row>
@@ -5443,10 +5490,10 @@
         <v>273</v>
       </c>
       <c r="B278" s="15" t="s">
-        <v>290</v>
-      </c>
-      <c r="C278" s="22" t="s">
         <v>291</v>
+      </c>
+      <c r="C278" s="23" t="s">
+        <v>292</v>
       </c>
       <c r="D278" s="12"/>
     </row>
@@ -5456,10 +5503,10 @@
         <v>274</v>
       </c>
       <c r="B279" s="15" t="s">
-        <v>290</v>
-      </c>
-      <c r="C279" s="22" t="s">
-        <v>292</v>
+        <v>291</v>
+      </c>
+      <c r="C279" s="23" t="s">
+        <v>293</v>
       </c>
       <c r="D279" s="12"/>
     </row>
@@ -5469,10 +5516,10 @@
         <v>275</v>
       </c>
       <c r="B280" s="15" t="s">
-        <v>290</v>
-      </c>
-      <c r="C280" s="22" t="s">
-        <v>293</v>
+        <v>291</v>
+      </c>
+      <c r="C280" s="23" t="s">
+        <v>294</v>
       </c>
       <c r="D280" s="12"/>
     </row>
@@ -5482,10 +5529,10 @@
         <v>276</v>
       </c>
       <c r="B281" s="15" t="s">
-        <v>290</v>
-      </c>
-      <c r="C281" s="22" t="s">
-        <v>294</v>
+        <v>291</v>
+      </c>
+      <c r="C281" s="23" t="s">
+        <v>295</v>
       </c>
       <c r="D281" s="12"/>
     </row>
@@ -5495,10 +5542,10 @@
         <v>277</v>
       </c>
       <c r="B282" s="15" t="s">
-        <v>290</v>
-      </c>
-      <c r="C282" s="22" t="s">
-        <v>295</v>
+        <v>291</v>
+      </c>
+      <c r="C282" s="23" t="s">
+        <v>296</v>
       </c>
       <c r="D282" s="12"/>
     </row>
@@ -5508,10 +5555,10 @@
         <v>278</v>
       </c>
       <c r="B283" s="15" t="s">
-        <v>290</v>
-      </c>
-      <c r="C283" s="22" t="s">
-        <v>296</v>
+        <v>291</v>
+      </c>
+      <c r="C283" s="23" t="s">
+        <v>297</v>
       </c>
       <c r="D283" s="12"/>
     </row>
@@ -5521,10 +5568,10 @@
         <v>279</v>
       </c>
       <c r="B284" s="15" t="s">
-        <v>290</v>
-      </c>
-      <c r="C284" s="22" t="s">
-        <v>297</v>
+        <v>291</v>
+      </c>
+      <c r="C284" s="23" t="s">
+        <v>298</v>
       </c>
       <c r="D284" s="12"/>
     </row>
@@ -5534,10 +5581,10 @@
         <v>280</v>
       </c>
       <c r="B285" s="15" t="s">
-        <v>290</v>
-      </c>
-      <c r="C285" s="22" t="s">
-        <v>298</v>
+        <v>291</v>
+      </c>
+      <c r="C285" s="23" t="s">
+        <v>299</v>
       </c>
       <c r="D285" s="12"/>
     </row>
@@ -5547,10 +5594,10 @@
         <v>281</v>
       </c>
       <c r="B286" s="15" t="s">
-        <v>290</v>
-      </c>
-      <c r="C286" s="22" t="s">
-        <v>299</v>
+        <v>291</v>
+      </c>
+      <c r="C286" s="23" t="s">
+        <v>300</v>
       </c>
       <c r="D286" s="12"/>
     </row>
@@ -5560,10 +5607,10 @@
         <v>282</v>
       </c>
       <c r="B287" s="15" t="s">
-        <v>290</v>
-      </c>
-      <c r="C287" s="22" t="s">
-        <v>300</v>
+        <v>291</v>
+      </c>
+      <c r="C287" s="23" t="s">
+        <v>301</v>
       </c>
       <c r="D287" s="12"/>
     </row>
@@ -5573,10 +5620,10 @@
         <v>283</v>
       </c>
       <c r="B288" s="15" t="s">
-        <v>290</v>
-      </c>
-      <c r="C288" s="22" t="s">
-        <v>301</v>
+        <v>291</v>
+      </c>
+      <c r="C288" s="23" t="s">
+        <v>302</v>
       </c>
       <c r="D288" s="12"/>
     </row>
@@ -5586,10 +5633,10 @@
         <v>284</v>
       </c>
       <c r="B289" s="15" t="s">
-        <v>290</v>
-      </c>
-      <c r="C289" s="22" t="s">
-        <v>302</v>
+        <v>291</v>
+      </c>
+      <c r="C289" s="23" t="s">
+        <v>303</v>
       </c>
       <c r="D289" s="12"/>
     </row>
@@ -5599,10 +5646,10 @@
         <v>285</v>
       </c>
       <c r="B290" s="15" t="s">
-        <v>290</v>
-      </c>
-      <c r="C290" s="22" t="s">
-        <v>303</v>
+        <v>291</v>
+      </c>
+      <c r="C290" s="23" t="s">
+        <v>304</v>
       </c>
       <c r="D290" s="12"/>
     </row>
@@ -5612,10 +5659,10 @@
         <v>286</v>
       </c>
       <c r="B291" s="15" t="s">
-        <v>290</v>
-      </c>
-      <c r="C291" s="24" t="s">
-        <v>304</v>
+        <v>291</v>
+      </c>
+      <c r="C291" s="25" t="s">
+        <v>305</v>
       </c>
       <c r="D291" s="12"/>
     </row>
@@ -5625,10 +5672,10 @@
         <v>287</v>
       </c>
       <c r="B292" s="15" t="s">
-        <v>290</v>
-      </c>
-      <c r="C292" s="22" t="s">
-        <v>305</v>
+        <v>291</v>
+      </c>
+      <c r="C292" s="23" t="s">
+        <v>306</v>
       </c>
       <c r="D292" s="12"/>
     </row>
@@ -5638,10 +5685,10 @@
         <v>288</v>
       </c>
       <c r="B293" s="15" t="s">
-        <v>290</v>
-      </c>
-      <c r="C293" s="22" t="s">
-        <v>306</v>
+        <v>291</v>
+      </c>
+      <c r="C293" s="23" t="s">
+        <v>307</v>
       </c>
       <c r="D293" s="12"/>
     </row>
@@ -5651,10 +5698,10 @@
         <v>289</v>
       </c>
       <c r="B294" s="15" t="s">
-        <v>290</v>
-      </c>
-      <c r="C294" s="22" t="s">
-        <v>307</v>
+        <v>291</v>
+      </c>
+      <c r="C294" s="23" t="s">
+        <v>308</v>
       </c>
       <c r="D294" s="12"/>
     </row>
@@ -5664,10 +5711,10 @@
         <v>290</v>
       </c>
       <c r="B295" s="15" t="s">
-        <v>290</v>
-      </c>
-      <c r="C295" s="22" t="s">
-        <v>308</v>
+        <v>291</v>
+      </c>
+      <c r="C295" s="23" t="s">
+        <v>309</v>
       </c>
       <c r="D295" s="12"/>
     </row>
@@ -5677,10 +5724,10 @@
         <v>291</v>
       </c>
       <c r="B296" s="15" t="s">
-        <v>290</v>
-      </c>
-      <c r="C296" s="22" t="s">
-        <v>309</v>
+        <v>291</v>
+      </c>
+      <c r="C296" s="23" t="s">
+        <v>310</v>
       </c>
       <c r="D296" s="12"/>
     </row>
@@ -5690,10 +5737,10 @@
         <v>292</v>
       </c>
       <c r="B297" s="15" t="s">
-        <v>290</v>
-      </c>
-      <c r="C297" s="22" t="s">
-        <v>310</v>
+        <v>291</v>
+      </c>
+      <c r="C297" s="23" t="s">
+        <v>311</v>
       </c>
       <c r="D297" s="12"/>
     </row>
@@ -5703,10 +5750,10 @@
         <v>293</v>
       </c>
       <c r="B298" s="15" t="s">
-        <v>290</v>
-      </c>
-      <c r="C298" s="22" t="s">
-        <v>311</v>
+        <v>291</v>
+      </c>
+      <c r="C298" s="23" t="s">
+        <v>312</v>
       </c>
       <c r="D298" s="12"/>
     </row>
@@ -5716,10 +5763,10 @@
         <v>294</v>
       </c>
       <c r="B299" s="15" t="s">
-        <v>290</v>
-      </c>
-      <c r="C299" s="22" t="s">
-        <v>312</v>
+        <v>291</v>
+      </c>
+      <c r="C299" s="23" t="s">
+        <v>313</v>
       </c>
       <c r="D299" s="12"/>
     </row>
@@ -5729,10 +5776,10 @@
         <v>295</v>
       </c>
       <c r="B300" s="15" t="s">
-        <v>290</v>
-      </c>
-      <c r="C300" s="22" t="s">
-        <v>313</v>
+        <v>291</v>
+      </c>
+      <c r="C300" s="23" t="s">
+        <v>314</v>
       </c>
       <c r="D300" s="12"/>
     </row>
@@ -5742,10 +5789,10 @@
         <v>296</v>
       </c>
       <c r="B301" s="15" t="s">
-        <v>290</v>
-      </c>
-      <c r="C301" s="22" t="s">
-        <v>314</v>
+        <v>291</v>
+      </c>
+      <c r="C301" s="23" t="s">
+        <v>315</v>
       </c>
       <c r="D301" s="12"/>
     </row>
@@ -5755,10 +5802,10 @@
         <v>297</v>
       </c>
       <c r="B302" s="15" t="s">
-        <v>290</v>
-      </c>
-      <c r="C302" s="22" t="s">
-        <v>315</v>
+        <v>291</v>
+      </c>
+      <c r="C302" s="23" t="s">
+        <v>316</v>
       </c>
       <c r="D302" s="12"/>
     </row>
@@ -5768,10 +5815,10 @@
         <v>298</v>
       </c>
       <c r="B303" s="15" t="s">
-        <v>290</v>
-      </c>
-      <c r="C303" s="22" t="s">
-        <v>316</v>
+        <v>291</v>
+      </c>
+      <c r="C303" s="23" t="s">
+        <v>317</v>
       </c>
       <c r="D303" s="12"/>
     </row>
@@ -5781,10 +5828,10 @@
         <v>299</v>
       </c>
       <c r="B304" s="15" t="s">
-        <v>290</v>
-      </c>
-      <c r="C304" s="22" t="s">
-        <v>317</v>
+        <v>291</v>
+      </c>
+      <c r="C304" s="23" t="s">
+        <v>318</v>
       </c>
       <c r="D304" s="12"/>
     </row>
@@ -5794,10 +5841,10 @@
         <v>300</v>
       </c>
       <c r="B305" s="15" t="s">
-        <v>290</v>
-      </c>
-      <c r="C305" s="22" t="s">
-        <v>318</v>
+        <v>291</v>
+      </c>
+      <c r="C305" s="23" t="s">
+        <v>319</v>
       </c>
       <c r="D305" s="12"/>
     </row>
@@ -5807,10 +5854,10 @@
         <v>301</v>
       </c>
       <c r="B306" s="15" t="s">
-        <v>290</v>
-      </c>
-      <c r="C306" s="22" t="s">
-        <v>319</v>
+        <v>291</v>
+      </c>
+      <c r="C306" s="23" t="s">
+        <v>320</v>
       </c>
       <c r="D306" s="12"/>
     </row>
@@ -5820,10 +5867,10 @@
         <v>302</v>
       </c>
       <c r="B307" s="15" t="s">
-        <v>290</v>
-      </c>
-      <c r="C307" s="22" t="s">
-        <v>320</v>
+        <v>291</v>
+      </c>
+      <c r="C307" s="23" t="s">
+        <v>321</v>
       </c>
       <c r="D307" s="12"/>
     </row>
@@ -5833,10 +5880,10 @@
         <v>303</v>
       </c>
       <c r="B308" s="15" t="s">
-        <v>290</v>
-      </c>
-      <c r="C308" s="22" t="s">
-        <v>321</v>
+        <v>291</v>
+      </c>
+      <c r="C308" s="23" t="s">
+        <v>322</v>
       </c>
       <c r="D308" s="12"/>
     </row>
@@ -5846,10 +5893,10 @@
         <v>304</v>
       </c>
       <c r="B309" s="15" t="s">
-        <v>290</v>
-      </c>
-      <c r="C309" s="22" t="s">
-        <v>322</v>
+        <v>291</v>
+      </c>
+      <c r="C309" s="23" t="s">
+        <v>323</v>
       </c>
       <c r="D309" s="12"/>
     </row>
@@ -5859,10 +5906,10 @@
         <v>305</v>
       </c>
       <c r="B310" s="15" t="s">
-        <v>290</v>
-      </c>
-      <c r="C310" s="22" t="s">
-        <v>323</v>
+        <v>291</v>
+      </c>
+      <c r="C310" s="23" t="s">
+        <v>324</v>
       </c>
       <c r="D310" s="12"/>
     </row>
@@ -5872,10 +5919,10 @@
         <v>306</v>
       </c>
       <c r="B311" s="15" t="s">
-        <v>290</v>
-      </c>
-      <c r="C311" s="22" t="s">
-        <v>324</v>
+        <v>291</v>
+      </c>
+      <c r="C311" s="23" t="s">
+        <v>325</v>
       </c>
       <c r="D311" s="12"/>
     </row>
@@ -5885,10 +5932,10 @@
         <v>307</v>
       </c>
       <c r="B312" s="15" t="s">
-        <v>290</v>
-      </c>
-      <c r="C312" s="22" t="s">
-        <v>325</v>
+        <v>291</v>
+      </c>
+      <c r="C312" s="23" t="s">
+        <v>326</v>
       </c>
       <c r="D312" s="12"/>
     </row>
@@ -5898,10 +5945,10 @@
         <v>308</v>
       </c>
       <c r="B313" s="15" t="s">
-        <v>290</v>
-      </c>
-      <c r="C313" s="22" t="s">
-        <v>326</v>
+        <v>291</v>
+      </c>
+      <c r="C313" s="23" t="s">
+        <v>327</v>
       </c>
       <c r="D313" s="12"/>
     </row>
@@ -5911,10 +5958,10 @@
         <v>309</v>
       </c>
       <c r="B314" s="15" t="s">
-        <v>290</v>
-      </c>
-      <c r="C314" s="22" t="s">
-        <v>327</v>
+        <v>291</v>
+      </c>
+      <c r="C314" s="23" t="s">
+        <v>328</v>
       </c>
       <c r="D314" s="12"/>
     </row>
@@ -5924,10 +5971,10 @@
         <v>310</v>
       </c>
       <c r="B315" s="15" t="s">
-        <v>290</v>
-      </c>
-      <c r="C315" s="22" t="s">
-        <v>328</v>
+        <v>291</v>
+      </c>
+      <c r="C315" s="23" t="s">
+        <v>329</v>
       </c>
       <c r="D315" s="12"/>
     </row>
@@ -5937,10 +5984,10 @@
         <v>311</v>
       </c>
       <c r="B316" s="10" t="s">
-        <v>329</v>
-      </c>
-      <c r="C316" s="22" t="s">
         <v>330</v>
+      </c>
+      <c r="C316" s="23" t="s">
+        <v>331</v>
       </c>
       <c r="D316" s="12"/>
     </row>
@@ -5950,10 +5997,10 @@
         <v>312</v>
       </c>
       <c r="B317" s="10" t="s">
-        <v>329</v>
-      </c>
-      <c r="C317" s="22" t="s">
-        <v>331</v>
+        <v>330</v>
+      </c>
+      <c r="C317" s="23" t="s">
+        <v>332</v>
       </c>
       <c r="D317" s="12"/>
     </row>
@@ -5963,10 +6010,10 @@
         <v>313</v>
       </c>
       <c r="B318" s="10" t="s">
-        <v>329</v>
-      </c>
-      <c r="C318" s="22" t="s">
-        <v>332</v>
+        <v>330</v>
+      </c>
+      <c r="C318" s="23" t="s">
+        <v>333</v>
       </c>
       <c r="D318" s="12"/>
     </row>
@@ -5976,10 +6023,10 @@
         <v>314</v>
       </c>
       <c r="B319" s="10" t="s">
-        <v>329</v>
-      </c>
-      <c r="C319" s="22" t="s">
-        <v>333</v>
+        <v>330</v>
+      </c>
+      <c r="C319" s="23" t="s">
+        <v>334</v>
       </c>
       <c r="D319" s="12"/>
     </row>
@@ -5989,10 +6036,10 @@
         <v>315</v>
       </c>
       <c r="B320" s="10" t="s">
-        <v>329</v>
-      </c>
-      <c r="C320" s="22" t="s">
-        <v>334</v>
+        <v>330</v>
+      </c>
+      <c r="C320" s="23" t="s">
+        <v>335</v>
       </c>
       <c r="D320" s="12"/>
     </row>
@@ -6002,10 +6049,10 @@
         <v>316</v>
       </c>
       <c r="B321" s="10" t="s">
-        <v>329</v>
-      </c>
-      <c r="C321" s="22" t="s">
-        <v>335</v>
+        <v>330</v>
+      </c>
+      <c r="C321" s="23" t="s">
+        <v>336</v>
       </c>
       <c r="D321" s="12"/>
     </row>
@@ -6015,10 +6062,10 @@
         <v>317</v>
       </c>
       <c r="B322" s="10" t="s">
-        <v>329</v>
-      </c>
-      <c r="C322" s="22" t="s">
-        <v>336</v>
+        <v>330</v>
+      </c>
+      <c r="C322" s="23" t="s">
+        <v>337</v>
       </c>
       <c r="D322" s="12"/>
     </row>
@@ -6028,10 +6075,10 @@
         <v>318</v>
       </c>
       <c r="B323" s="10" t="s">
-        <v>329</v>
-      </c>
-      <c r="C323" s="22" t="s">
-        <v>337</v>
+        <v>330</v>
+      </c>
+      <c r="C323" s="23" t="s">
+        <v>338</v>
       </c>
       <c r="D323" s="12"/>
     </row>
@@ -6041,10 +6088,10 @@
         <v>319</v>
       </c>
       <c r="B324" s="10" t="s">
-        <v>329</v>
-      </c>
-      <c r="C324" s="24" t="s">
-        <v>338</v>
+        <v>330</v>
+      </c>
+      <c r="C324" s="25" t="s">
+        <v>339</v>
       </c>
       <c r="D324" s="12"/>
     </row>
@@ -6054,10 +6101,10 @@
         <v>320</v>
       </c>
       <c r="B325" s="10" t="s">
-        <v>329</v>
-      </c>
-      <c r="C325" s="22" t="s">
-        <v>339</v>
+        <v>330</v>
+      </c>
+      <c r="C325" s="23" t="s">
+        <v>340</v>
       </c>
       <c r="D325" s="12"/>
     </row>
@@ -6067,10 +6114,10 @@
         <v>321</v>
       </c>
       <c r="B326" s="10" t="s">
-        <v>329</v>
-      </c>
-      <c r="C326" s="22" t="s">
-        <v>340</v>
+        <v>330</v>
+      </c>
+      <c r="C326" s="23" t="s">
+        <v>341</v>
       </c>
       <c r="D326" s="12"/>
     </row>
@@ -6080,10 +6127,10 @@
         <v>322</v>
       </c>
       <c r="B327" s="10" t="s">
-        <v>329</v>
-      </c>
-      <c r="C327" s="22" t="s">
-        <v>341</v>
+        <v>330</v>
+      </c>
+      <c r="C327" s="23" t="s">
+        <v>342</v>
       </c>
       <c r="D327" s="12"/>
     </row>
@@ -6093,10 +6140,10 @@
         <v>323</v>
       </c>
       <c r="B328" s="10" t="s">
-        <v>329</v>
-      </c>
-      <c r="C328" s="22" t="s">
-        <v>342</v>
+        <v>330</v>
+      </c>
+      <c r="C328" s="23" t="s">
+        <v>343</v>
       </c>
       <c r="D328" s="12"/>
     </row>
@@ -6106,10 +6153,10 @@
         <v>324</v>
       </c>
       <c r="B329" s="10" t="s">
-        <v>329</v>
-      </c>
-      <c r="C329" s="22" t="s">
-        <v>343</v>
+        <v>330</v>
+      </c>
+      <c r="C329" s="23" t="s">
+        <v>344</v>
       </c>
       <c r="D329" s="12"/>
     </row>
@@ -6119,10 +6166,10 @@
         <v>325</v>
       </c>
       <c r="B330" s="10" t="s">
-        <v>329</v>
-      </c>
-      <c r="C330" s="22" t="s">
-        <v>344</v>
+        <v>330</v>
+      </c>
+      <c r="C330" s="23" t="s">
+        <v>345</v>
       </c>
       <c r="D330" s="12"/>
     </row>
@@ -6132,10 +6179,10 @@
         <v>326</v>
       </c>
       <c r="B331" s="10" t="s">
-        <v>329</v>
-      </c>
-      <c r="C331" s="22" t="s">
-        <v>345</v>
+        <v>330</v>
+      </c>
+      <c r="C331" s="23" t="s">
+        <v>346</v>
       </c>
       <c r="D331" s="12"/>
     </row>
@@ -6145,10 +6192,10 @@
         <v>327</v>
       </c>
       <c r="B332" s="10" t="s">
-        <v>329</v>
-      </c>
-      <c r="C332" s="22" t="s">
-        <v>346</v>
+        <v>330</v>
+      </c>
+      <c r="C332" s="23" t="s">
+        <v>347</v>
       </c>
       <c r="D332" s="12"/>
     </row>
@@ -6158,10 +6205,10 @@
         <v>328</v>
       </c>
       <c r="B333" s="10" t="s">
-        <v>329</v>
-      </c>
-      <c r="C333" s="22" t="s">
-        <v>347</v>
+        <v>330</v>
+      </c>
+      <c r="C333" s="23" t="s">
+        <v>348</v>
       </c>
       <c r="D333" s="12"/>
     </row>
@@ -6171,10 +6218,10 @@
         <v>329</v>
       </c>
       <c r="B334" s="15" t="s">
-        <v>348</v>
-      </c>
-      <c r="C334" s="22" t="s">
         <v>349</v>
+      </c>
+      <c r="C334" s="23" t="s">
+        <v>350</v>
       </c>
       <c r="D334" s="12"/>
     </row>
@@ -6184,10 +6231,10 @@
         <v>330</v>
       </c>
       <c r="B335" s="15" t="s">
-        <v>348</v>
-      </c>
-      <c r="C335" s="22" t="s">
-        <v>350</v>
+        <v>349</v>
+      </c>
+      <c r="C335" s="23" t="s">
+        <v>351</v>
       </c>
       <c r="D335" s="12"/>
     </row>
@@ -6197,10 +6244,10 @@
         <v>331</v>
       </c>
       <c r="B336" s="15" t="s">
-        <v>348</v>
-      </c>
-      <c r="C336" s="22" t="s">
-        <v>351</v>
+        <v>349</v>
+      </c>
+      <c r="C336" s="23" t="s">
+        <v>352</v>
       </c>
       <c r="D336" s="12"/>
     </row>
@@ -6210,10 +6257,10 @@
         <v>332</v>
       </c>
       <c r="B337" s="15" t="s">
-        <v>348</v>
-      </c>
-      <c r="C337" s="22" t="s">
-        <v>352</v>
+        <v>349</v>
+      </c>
+      <c r="C337" s="23" t="s">
+        <v>353</v>
       </c>
       <c r="D337" s="12"/>
     </row>
@@ -6223,10 +6270,10 @@
         <v>333</v>
       </c>
       <c r="B338" s="15" t="s">
-        <v>348</v>
-      </c>
-      <c r="C338" s="22" t="s">
-        <v>353</v>
+        <v>349</v>
+      </c>
+      <c r="C338" s="23" t="s">
+        <v>354</v>
       </c>
       <c r="D338" s="12"/>
     </row>
@@ -6236,10 +6283,10 @@
         <v>334</v>
       </c>
       <c r="B339" s="15" t="s">
-        <v>348</v>
-      </c>
-      <c r="C339" s="22" t="s">
-        <v>354</v>
+        <v>349</v>
+      </c>
+      <c r="C339" s="23" t="s">
+        <v>355</v>
       </c>
       <c r="D339" s="12"/>
     </row>
@@ -6249,10 +6296,10 @@
         <v>335</v>
       </c>
       <c r="B340" s="15" t="s">
-        <v>348</v>
-      </c>
-      <c r="C340" s="22" t="s">
-        <v>355</v>
+        <v>349</v>
+      </c>
+      <c r="C340" s="23" t="s">
+        <v>356</v>
       </c>
       <c r="D340" s="12"/>
     </row>
@@ -6262,10 +6309,10 @@
         <v>336</v>
       </c>
       <c r="B341" s="15" t="s">
-        <v>348</v>
-      </c>
-      <c r="C341" s="22" t="s">
-        <v>356</v>
+        <v>349</v>
+      </c>
+      <c r="C341" s="23" t="s">
+        <v>357</v>
       </c>
       <c r="D341" s="12"/>
     </row>
@@ -6275,10 +6322,10 @@
         <v>337</v>
       </c>
       <c r="B342" s="15" t="s">
-        <v>348</v>
-      </c>
-      <c r="C342" s="22" t="s">
-        <v>357</v>
+        <v>349</v>
+      </c>
+      <c r="C342" s="23" t="s">
+        <v>358</v>
       </c>
       <c r="D342" s="12"/>
     </row>
@@ -6288,10 +6335,10 @@
         <v>338</v>
       </c>
       <c r="B343" s="15" t="s">
-        <v>348</v>
-      </c>
-      <c r="C343" s="22" t="s">
-        <v>358</v>
+        <v>349</v>
+      </c>
+      <c r="C343" s="23" t="s">
+        <v>359</v>
       </c>
       <c r="D343" s="12"/>
     </row>
@@ -6301,10 +6348,10 @@
         <v>339</v>
       </c>
       <c r="B344" s="15" t="s">
-        <v>348</v>
-      </c>
-      <c r="C344" s="22" t="s">
-        <v>359</v>
+        <v>349</v>
+      </c>
+      <c r="C344" s="23" t="s">
+        <v>360</v>
       </c>
       <c r="D344" s="12"/>
     </row>
@@ -6314,10 +6361,10 @@
         <v>340</v>
       </c>
       <c r="B345" s="15" t="s">
-        <v>348</v>
-      </c>
-      <c r="C345" s="22" t="s">
-        <v>360</v>
+        <v>349</v>
+      </c>
+      <c r="C345" s="23" t="s">
+        <v>361</v>
       </c>
       <c r="D345" s="12"/>
     </row>
@@ -6327,10 +6374,10 @@
         <v>341</v>
       </c>
       <c r="B346" s="15" t="s">
-        <v>348</v>
-      </c>
-      <c r="C346" s="22" t="s">
-        <v>361</v>
+        <v>349</v>
+      </c>
+      <c r="C346" s="23" t="s">
+        <v>362</v>
       </c>
       <c r="D346" s="12"/>
     </row>
@@ -6340,10 +6387,10 @@
         <v>342</v>
       </c>
       <c r="B347" s="15" t="s">
-        <v>348</v>
-      </c>
-      <c r="C347" s="22" t="s">
-        <v>362</v>
+        <v>349</v>
+      </c>
+      <c r="C347" s="23" t="s">
+        <v>363</v>
       </c>
       <c r="D347" s="12"/>
     </row>
@@ -6353,10 +6400,10 @@
         <v>343</v>
       </c>
       <c r="B348" s="15" t="s">
-        <v>348</v>
-      </c>
-      <c r="C348" s="22" t="s">
-        <v>363</v>
+        <v>349</v>
+      </c>
+      <c r="C348" s="23" t="s">
+        <v>364</v>
       </c>
       <c r="D348" s="12"/>
     </row>
@@ -6366,10 +6413,10 @@
         <v>344</v>
       </c>
       <c r="B349" s="15" t="s">
-        <v>348</v>
-      </c>
-      <c r="C349" s="22" t="s">
-        <v>364</v>
+        <v>349</v>
+      </c>
+      <c r="C349" s="23" t="s">
+        <v>365</v>
       </c>
       <c r="D349" s="12"/>
     </row>
@@ -6379,10 +6426,10 @@
         <v>345</v>
       </c>
       <c r="B350" s="15" t="s">
-        <v>348</v>
-      </c>
-      <c r="C350" s="22" t="s">
-        <v>365</v>
+        <v>349</v>
+      </c>
+      <c r="C350" s="23" t="s">
+        <v>366</v>
       </c>
       <c r="D350" s="12"/>
     </row>
@@ -6392,10 +6439,10 @@
         <v>346</v>
       </c>
       <c r="B351" s="15" t="s">
-        <v>348</v>
-      </c>
-      <c r="C351" s="22" t="s">
-        <v>366</v>
+        <v>349</v>
+      </c>
+      <c r="C351" s="23" t="s">
+        <v>367</v>
       </c>
       <c r="D351" s="12"/>
     </row>
@@ -6405,10 +6452,10 @@
         <v>347</v>
       </c>
       <c r="B352" s="15" t="s">
-        <v>348</v>
-      </c>
-      <c r="C352" s="22" t="s">
-        <v>367</v>
+        <v>349</v>
+      </c>
+      <c r="C352" s="23" t="s">
+        <v>368</v>
       </c>
       <c r="D352" s="12"/>
     </row>
@@ -6418,10 +6465,10 @@
         <v>348</v>
       </c>
       <c r="B353" s="15" t="s">
-        <v>348</v>
-      </c>
-      <c r="C353" s="22" t="s">
-        <v>368</v>
+        <v>349</v>
+      </c>
+      <c r="C353" s="23" t="s">
+        <v>369</v>
       </c>
       <c r="D353" s="12"/>
     </row>
@@ -6431,10 +6478,10 @@
         <v>349</v>
       </c>
       <c r="B354" s="15" t="s">
-        <v>348</v>
-      </c>
-      <c r="C354" s="22" t="s">
-        <v>369</v>
+        <v>349</v>
+      </c>
+      <c r="C354" s="23" t="s">
+        <v>370</v>
       </c>
       <c r="D354" s="12"/>
     </row>
@@ -6444,10 +6491,10 @@
         <v>350</v>
       </c>
       <c r="B355" s="15" t="s">
-        <v>348</v>
-      </c>
-      <c r="C355" s="22" t="s">
-        <v>370</v>
+        <v>349</v>
+      </c>
+      <c r="C355" s="23" t="s">
+        <v>371</v>
       </c>
       <c r="D355" s="12"/>
     </row>
@@ -6457,10 +6504,10 @@
         <v>351</v>
       </c>
       <c r="B356" s="15" t="s">
-        <v>348</v>
-      </c>
-      <c r="C356" s="22" t="s">
-        <v>371</v>
+        <v>349</v>
+      </c>
+      <c r="C356" s="23" t="s">
+        <v>372</v>
       </c>
       <c r="D356" s="12"/>
     </row>
@@ -6470,10 +6517,10 @@
         <v>352</v>
       </c>
       <c r="B357" s="15" t="s">
-        <v>348</v>
-      </c>
-      <c r="C357" s="22" t="s">
-        <v>372</v>
+        <v>349</v>
+      </c>
+      <c r="C357" s="23" t="s">
+        <v>373</v>
       </c>
       <c r="D357" s="12"/>
     </row>
@@ -6483,10 +6530,10 @@
         <v>353</v>
       </c>
       <c r="B358" s="15" t="s">
-        <v>348</v>
-      </c>
-      <c r="C358" s="22" t="s">
-        <v>373</v>
+        <v>349</v>
+      </c>
+      <c r="C358" s="23" t="s">
+        <v>374</v>
       </c>
       <c r="D358" s="12"/>
     </row>
@@ -6496,10 +6543,10 @@
         <v>354</v>
       </c>
       <c r="B359" s="15" t="s">
-        <v>348</v>
-      </c>
-      <c r="C359" s="22" t="s">
-        <v>374</v>
+        <v>349</v>
+      </c>
+      <c r="C359" s="23" t="s">
+        <v>375</v>
       </c>
       <c r="D359" s="12"/>
     </row>
@@ -6509,10 +6556,10 @@
         <v>355</v>
       </c>
       <c r="B360" s="15" t="s">
-        <v>348</v>
-      </c>
-      <c r="C360" s="22" t="s">
-        <v>375</v>
+        <v>349</v>
+      </c>
+      <c r="C360" s="23" t="s">
+        <v>376</v>
       </c>
       <c r="D360" s="12"/>
     </row>
@@ -6522,10 +6569,10 @@
         <v>356</v>
       </c>
       <c r="B361" s="15" t="s">
-        <v>348</v>
-      </c>
-      <c r="C361" s="22" t="s">
-        <v>376</v>
+        <v>349</v>
+      </c>
+      <c r="C361" s="23" t="s">
+        <v>377</v>
       </c>
       <c r="D361" s="12"/>
     </row>
@@ -6535,10 +6582,10 @@
         <v>357</v>
       </c>
       <c r="B362" s="15" t="s">
-        <v>348</v>
-      </c>
-      <c r="C362" s="22" t="s">
-        <v>377</v>
+        <v>349</v>
+      </c>
+      <c r="C362" s="23" t="s">
+        <v>378</v>
       </c>
       <c r="D362" s="12"/>
     </row>
@@ -6548,10 +6595,10 @@
         <v>358</v>
       </c>
       <c r="B363" s="15" t="s">
-        <v>348</v>
-      </c>
-      <c r="C363" s="22" t="s">
-        <v>378</v>
+        <v>349</v>
+      </c>
+      <c r="C363" s="23" t="s">
+        <v>379</v>
       </c>
       <c r="D363" s="12"/>
     </row>
@@ -6561,10 +6608,10 @@
         <v>359</v>
       </c>
       <c r="B364" s="15" t="s">
-        <v>348</v>
-      </c>
-      <c r="C364" s="22" t="s">
-        <v>379</v>
+        <v>349</v>
+      </c>
+      <c r="C364" s="23" t="s">
+        <v>380</v>
       </c>
       <c r="D364" s="12"/>
     </row>
@@ -6574,10 +6621,10 @@
         <v>360</v>
       </c>
       <c r="B365" s="15" t="s">
-        <v>348</v>
-      </c>
-      <c r="C365" s="22" t="s">
-        <v>380</v>
+        <v>349</v>
+      </c>
+      <c r="C365" s="23" t="s">
+        <v>381</v>
       </c>
       <c r="D365" s="12"/>
     </row>
@@ -6587,10 +6634,10 @@
         <v>361</v>
       </c>
       <c r="B366" s="15" t="s">
-        <v>348</v>
-      </c>
-      <c r="C366" s="22" t="s">
-        <v>381</v>
+        <v>349</v>
+      </c>
+      <c r="C366" s="23" t="s">
+        <v>382</v>
       </c>
       <c r="D366" s="12"/>
     </row>
@@ -6600,10 +6647,10 @@
         <v>362</v>
       </c>
       <c r="B367" s="15" t="s">
-        <v>348</v>
-      </c>
-      <c r="C367" s="22" t="s">
-        <v>382</v>
+        <v>349</v>
+      </c>
+      <c r="C367" s="23" t="s">
+        <v>383</v>
       </c>
       <c r="D367" s="12"/>
     </row>
@@ -6613,10 +6660,10 @@
         <v>363</v>
       </c>
       <c r="B368" s="15" t="s">
-        <v>348</v>
-      </c>
-      <c r="C368" s="22" t="s">
-        <v>382</v>
+        <v>349</v>
+      </c>
+      <c r="C368" s="23" t="s">
+        <v>383</v>
       </c>
       <c r="D368" s="12"/>
     </row>
@@ -6626,10 +6673,10 @@
         <v>364</v>
       </c>
       <c r="B369" s="15" t="s">
-        <v>348</v>
-      </c>
-      <c r="C369" s="22" t="s">
-        <v>383</v>
+        <v>349</v>
+      </c>
+      <c r="C369" s="23" t="s">
+        <v>384</v>
       </c>
       <c r="D369" s="12"/>
     </row>
@@ -6639,10 +6686,10 @@
         <v>365</v>
       </c>
       <c r="B370" s="15" t="s">
-        <v>348</v>
-      </c>
-      <c r="C370" s="22" t="s">
-        <v>384</v>
+        <v>349</v>
+      </c>
+      <c r="C370" s="23" t="s">
+        <v>385</v>
       </c>
       <c r="D370" s="12"/>
     </row>
@@ -6652,10 +6699,10 @@
         <v>366</v>
       </c>
       <c r="B371" s="15" t="s">
-        <v>348</v>
-      </c>
-      <c r="C371" s="22" t="s">
-        <v>385</v>
+        <v>349</v>
+      </c>
+      <c r="C371" s="23" t="s">
+        <v>386</v>
       </c>
       <c r="D371" s="12"/>
     </row>
@@ -6665,10 +6712,10 @@
         <v>367</v>
       </c>
       <c r="B372" s="15" t="s">
-        <v>348</v>
-      </c>
-      <c r="C372" s="22" t="s">
-        <v>386</v>
+        <v>349</v>
+      </c>
+      <c r="C372" s="23" t="s">
+        <v>387</v>
       </c>
       <c r="D372" s="12"/>
     </row>
@@ -6678,10 +6725,10 @@
         <v>368</v>
       </c>
       <c r="B373" s="15" t="s">
-        <v>348</v>
-      </c>
-      <c r="C373" s="22" t="s">
-        <v>387</v>
+        <v>349</v>
+      </c>
+      <c r="C373" s="23" t="s">
+        <v>388</v>
       </c>
       <c r="D373" s="12"/>
     </row>
@@ -6691,10 +6738,10 @@
         <v>369</v>
       </c>
       <c r="B374" s="15" t="s">
-        <v>348</v>
-      </c>
-      <c r="C374" s="22" t="s">
-        <v>388</v>
+        <v>349</v>
+      </c>
+      <c r="C374" s="23" t="s">
+        <v>389</v>
       </c>
       <c r="D374" s="12"/>
     </row>
@@ -6704,10 +6751,10 @@
         <v>370</v>
       </c>
       <c r="B375" s="15" t="s">
-        <v>348</v>
-      </c>
-      <c r="C375" s="22" t="s">
-        <v>389</v>
+        <v>349</v>
+      </c>
+      <c r="C375" s="23" t="s">
+        <v>390</v>
       </c>
       <c r="D375" s="12"/>
     </row>
@@ -6717,10 +6764,10 @@
         <v>371</v>
       </c>
       <c r="B376" s="15" t="s">
-        <v>348</v>
-      </c>
-      <c r="C376" s="22" t="s">
-        <v>390</v>
+        <v>349</v>
+      </c>
+      <c r="C376" s="23" t="s">
+        <v>391</v>
       </c>
       <c r="D376" s="12"/>
     </row>
@@ -6730,10 +6777,10 @@
         <v>372</v>
       </c>
       <c r="B377" s="15" t="s">
-        <v>348</v>
-      </c>
-      <c r="C377" s="22" t="s">
-        <v>391</v>
+        <v>349</v>
+      </c>
+      <c r="C377" s="23" t="s">
+        <v>392</v>
       </c>
       <c r="D377" s="12"/>
     </row>
@@ -6743,10 +6790,10 @@
         <v>373</v>
       </c>
       <c r="B378" s="10" t="s">
-        <v>392</v>
-      </c>
-      <c r="C378" s="22" t="s">
         <v>393</v>
+      </c>
+      <c r="C378" s="23" t="s">
+        <v>394</v>
       </c>
       <c r="D378" s="12"/>
     </row>
@@ -6756,10 +6803,10 @@
         <v>374</v>
       </c>
       <c r="B379" s="10" t="s">
-        <v>392</v>
-      </c>
-      <c r="C379" s="22" t="s">
-        <v>394</v>
+        <v>393</v>
+      </c>
+      <c r="C379" s="23" t="s">
+        <v>395</v>
       </c>
       <c r="D379" s="12"/>
     </row>
@@ -6769,10 +6816,10 @@
         <v>375</v>
       </c>
       <c r="B380" s="10" t="s">
-        <v>392</v>
-      </c>
-      <c r="C380" s="22" t="s">
-        <v>395</v>
+        <v>393</v>
+      </c>
+      <c r="C380" s="23" t="s">
+        <v>396</v>
       </c>
       <c r="D380" s="12"/>
     </row>
@@ -6782,10 +6829,10 @@
         <v>376</v>
       </c>
       <c r="B381" s="10" t="s">
-        <v>392</v>
-      </c>
-      <c r="C381" s="22" t="s">
-        <v>94</v>
+        <v>393</v>
+      </c>
+      <c r="C381" s="23" t="s">
+        <v>95</v>
       </c>
       <c r="D381" s="12"/>
     </row>
@@ -6795,10 +6842,10 @@
         <v>377</v>
       </c>
       <c r="B382" s="10" t="s">
-        <v>392</v>
-      </c>
-      <c r="C382" s="22" t="s">
-        <v>396</v>
+        <v>393</v>
+      </c>
+      <c r="C382" s="23" t="s">
+        <v>397</v>
       </c>
       <c r="D382" s="12"/>
     </row>
@@ -6808,10 +6855,10 @@
         <v>378</v>
       </c>
       <c r="B383" s="10" t="s">
-        <v>392</v>
-      </c>
-      <c r="C383" s="22" t="s">
-        <v>397</v>
+        <v>393</v>
+      </c>
+      <c r="C383" s="23" t="s">
+        <v>398</v>
       </c>
       <c r="D383" s="12"/>
     </row>
@@ -6821,10 +6868,10 @@
         <v>379</v>
       </c>
       <c r="B384" s="15" t="s">
-        <v>398</v>
-      </c>
-      <c r="C384" s="22" t="s">
         <v>399</v>
+      </c>
+      <c r="C384" s="23" t="s">
+        <v>400</v>
       </c>
       <c r="D384" s="12"/>
     </row>
@@ -6834,10 +6881,10 @@
         <v>380</v>
       </c>
       <c r="B385" s="15" t="s">
-        <v>398</v>
-      </c>
-      <c r="C385" s="22" t="s">
-        <v>400</v>
+        <v>399</v>
+      </c>
+      <c r="C385" s="23" t="s">
+        <v>401</v>
       </c>
       <c r="D385" s="12"/>
     </row>
@@ -6847,10 +6894,10 @@
         <v>381</v>
       </c>
       <c r="B386" s="15" t="s">
-        <v>398</v>
-      </c>
-      <c r="C386" s="22" t="s">
-        <v>401</v>
+        <v>399</v>
+      </c>
+      <c r="C386" s="23" t="s">
+        <v>402</v>
       </c>
       <c r="D386" s="12"/>
     </row>
@@ -6860,10 +6907,10 @@
         <v>382</v>
       </c>
       <c r="B387" s="15" t="s">
-        <v>398</v>
-      </c>
-      <c r="C387" s="22" t="s">
-        <v>402</v>
+        <v>399</v>
+      </c>
+      <c r="C387" s="23" t="s">
+        <v>403</v>
       </c>
       <c r="D387" s="12"/>
     </row>
@@ -6873,10 +6920,10 @@
         <v>383</v>
       </c>
       <c r="B388" s="15" t="s">
-        <v>398</v>
-      </c>
-      <c r="C388" s="22" t="s">
-        <v>403</v>
+        <v>399</v>
+      </c>
+      <c r="C388" s="23" t="s">
+        <v>404</v>
       </c>
       <c r="D388" s="12"/>
     </row>
@@ -6886,10 +6933,10 @@
         <v>384</v>
       </c>
       <c r="B389" s="15" t="s">
-        <v>398</v>
-      </c>
-      <c r="C389" s="22" t="s">
-        <v>404</v>
+        <v>399</v>
+      </c>
+      <c r="C389" s="23" t="s">
+        <v>405</v>
       </c>
       <c r="D389" s="12"/>
     </row>
@@ -6899,10 +6946,10 @@
         <v>385</v>
       </c>
       <c r="B390" s="15" t="s">
-        <v>398</v>
-      </c>
-      <c r="C390" s="22" t="s">
-        <v>405</v>
+        <v>399</v>
+      </c>
+      <c r="C390" s="23" t="s">
+        <v>406</v>
       </c>
       <c r="D390" s="12"/>
     </row>
@@ -6912,10 +6959,10 @@
         <v>386</v>
       </c>
       <c r="B391" s="15" t="s">
-        <v>398</v>
-      </c>
-      <c r="C391" s="22" t="s">
-        <v>278</v>
+        <v>399</v>
+      </c>
+      <c r="C391" s="23" t="s">
+        <v>279</v>
       </c>
       <c r="D391" s="12"/>
     </row>
@@ -6925,10 +6972,10 @@
         <v>387</v>
       </c>
       <c r="B392" s="15" t="s">
-        <v>398</v>
-      </c>
-      <c r="C392" s="22" t="s">
-        <v>406</v>
+        <v>399</v>
+      </c>
+      <c r="C392" s="23" t="s">
+        <v>407</v>
       </c>
       <c r="D392" s="12"/>
     </row>
@@ -6938,10 +6985,10 @@
         <v>388</v>
       </c>
       <c r="B393" s="15" t="s">
-        <v>398</v>
-      </c>
-      <c r="C393" s="22" t="s">
-        <v>407</v>
+        <v>399</v>
+      </c>
+      <c r="C393" s="23" t="s">
+        <v>408</v>
       </c>
       <c r="D393" s="12"/>
     </row>
@@ -6951,10 +6998,10 @@
         <v>389</v>
       </c>
       <c r="B394" s="15" t="s">
-        <v>398</v>
-      </c>
-      <c r="C394" s="22" t="s">
-        <v>408</v>
+        <v>399</v>
+      </c>
+      <c r="C394" s="23" t="s">
+        <v>409</v>
       </c>
       <c r="D394" s="12"/>
     </row>
@@ -6964,10 +7011,10 @@
         <v>390</v>
       </c>
       <c r="B395" s="15" t="s">
-        <v>398</v>
-      </c>
-      <c r="C395" s="22" t="s">
-        <v>409</v>
+        <v>399</v>
+      </c>
+      <c r="C395" s="23" t="s">
+        <v>410</v>
       </c>
       <c r="D395" s="12"/>
     </row>
@@ -6977,10 +7024,10 @@
         <v>391</v>
       </c>
       <c r="B396" s="15" t="s">
-        <v>398</v>
-      </c>
-      <c r="C396" s="22" t="s">
-        <v>410</v>
+        <v>399</v>
+      </c>
+      <c r="C396" s="23" t="s">
+        <v>411</v>
       </c>
       <c r="D396" s="12"/>
     </row>
@@ -6990,10 +7037,10 @@
         <v>392</v>
       </c>
       <c r="B397" s="15" t="s">
-        <v>398</v>
-      </c>
-      <c r="C397" s="22" t="s">
-        <v>411</v>
+        <v>399</v>
+      </c>
+      <c r="C397" s="23" t="s">
+        <v>412</v>
       </c>
       <c r="D397" s="12"/>
     </row>
@@ -7003,10 +7050,10 @@
         <v>393</v>
       </c>
       <c r="B398" s="15" t="s">
-        <v>398</v>
-      </c>
-      <c r="C398" s="22" t="s">
-        <v>412</v>
+        <v>399</v>
+      </c>
+      <c r="C398" s="23" t="s">
+        <v>413</v>
       </c>
       <c r="D398" s="12"/>
     </row>
@@ -7016,10 +7063,10 @@
         <v>394</v>
       </c>
       <c r="B399" s="15" t="s">
-        <v>398</v>
-      </c>
-      <c r="C399" s="22" t="s">
-        <v>413</v>
+        <v>399</v>
+      </c>
+      <c r="C399" s="23" t="s">
+        <v>414</v>
       </c>
       <c r="D399" s="12"/>
     </row>
@@ -7029,10 +7076,10 @@
         <v>395</v>
       </c>
       <c r="B400" s="15" t="s">
-        <v>398</v>
-      </c>
-      <c r="C400" s="22" t="s">
-        <v>414</v>
+        <v>399</v>
+      </c>
+      <c r="C400" s="23" t="s">
+        <v>415</v>
       </c>
       <c r="D400" s="12"/>
     </row>
@@ -7042,10 +7089,10 @@
         <v>396</v>
       </c>
       <c r="B401" s="15" t="s">
-        <v>398</v>
-      </c>
-      <c r="C401" s="22" t="s">
-        <v>415</v>
+        <v>399</v>
+      </c>
+      <c r="C401" s="23" t="s">
+        <v>416</v>
       </c>
       <c r="D401" s="12"/>
     </row>
@@ -7055,10 +7102,10 @@
         <v>397</v>
       </c>
       <c r="B402" s="15" t="s">
-        <v>398</v>
-      </c>
-      <c r="C402" s="22" t="s">
-        <v>416</v>
+        <v>399</v>
+      </c>
+      <c r="C402" s="23" t="s">
+        <v>417</v>
       </c>
       <c r="D402" s="12"/>
     </row>
@@ -7068,10 +7115,10 @@
         <v>398</v>
       </c>
       <c r="B403" s="15" t="s">
-        <v>398</v>
-      </c>
-      <c r="C403" s="22" t="s">
-        <v>417</v>
+        <v>399</v>
+      </c>
+      <c r="C403" s="23" t="s">
+        <v>418</v>
       </c>
       <c r="D403" s="12"/>
     </row>
@@ -7081,10 +7128,10 @@
         <v>399</v>
       </c>
       <c r="B404" s="15" t="s">
-        <v>398</v>
-      </c>
-      <c r="C404" s="22" t="s">
-        <v>418</v>
+        <v>399</v>
+      </c>
+      <c r="C404" s="23" t="s">
+        <v>419</v>
       </c>
       <c r="D404" s="12"/>
     </row>
@@ -7094,10 +7141,10 @@
         <v>400</v>
       </c>
       <c r="B405" s="15" t="s">
-        <v>398</v>
-      </c>
-      <c r="C405" s="22" t="s">
-        <v>419</v>
+        <v>399</v>
+      </c>
+      <c r="C405" s="23" t="s">
+        <v>420</v>
       </c>
       <c r="D405" s="12"/>
     </row>
@@ -7107,10 +7154,10 @@
         <v>401</v>
       </c>
       <c r="B406" s="15" t="s">
-        <v>398</v>
-      </c>
-      <c r="C406" s="22" t="s">
-        <v>420</v>
+        <v>399</v>
+      </c>
+      <c r="C406" s="23" t="s">
+        <v>421</v>
       </c>
       <c r="D406" s="12"/>
     </row>
@@ -7120,10 +7167,10 @@
         <v>402</v>
       </c>
       <c r="B407" s="15" t="s">
-        <v>398</v>
-      </c>
-      <c r="C407" s="22" t="s">
-        <v>421</v>
+        <v>399</v>
+      </c>
+      <c r="C407" s="23" t="s">
+        <v>422</v>
       </c>
       <c r="D407" s="12"/>
     </row>
@@ -7133,10 +7180,10 @@
         <v>403</v>
       </c>
       <c r="B408" s="15" t="s">
-        <v>398</v>
-      </c>
-      <c r="C408" s="22" t="s">
-        <v>422</v>
+        <v>399</v>
+      </c>
+      <c r="C408" s="23" t="s">
+        <v>423</v>
       </c>
       <c r="D408" s="12"/>
     </row>
@@ -7146,10 +7193,10 @@
         <v>404</v>
       </c>
       <c r="B409" s="15" t="s">
-        <v>398</v>
-      </c>
-      <c r="C409" s="22" t="s">
-        <v>423</v>
+        <v>399</v>
+      </c>
+      <c r="C409" s="23" t="s">
+        <v>424</v>
       </c>
       <c r="D409" s="12"/>
     </row>
@@ -7159,10 +7206,10 @@
         <v>405</v>
       </c>
       <c r="B410" s="15" t="s">
-        <v>398</v>
-      </c>
-      <c r="C410" s="22" t="s">
-        <v>424</v>
+        <v>399</v>
+      </c>
+      <c r="C410" s="23" t="s">
+        <v>425</v>
       </c>
       <c r="D410" s="12"/>
     </row>
@@ -7172,10 +7219,10 @@
         <v>406</v>
       </c>
       <c r="B411" s="15" t="s">
-        <v>398</v>
-      </c>
-      <c r="C411" s="22" t="s">
-        <v>425</v>
+        <v>399</v>
+      </c>
+      <c r="C411" s="23" t="s">
+        <v>426</v>
       </c>
       <c r="D411" s="12"/>
     </row>
@@ -7185,10 +7232,10 @@
         <v>407</v>
       </c>
       <c r="B412" s="15" t="s">
-        <v>398</v>
-      </c>
-      <c r="C412" s="22" t="s">
-        <v>426</v>
+        <v>399</v>
+      </c>
+      <c r="C412" s="23" t="s">
+        <v>427</v>
       </c>
       <c r="D412" s="12"/>
     </row>
@@ -7198,10 +7245,10 @@
         <v>408</v>
       </c>
       <c r="B413" s="15" t="s">
-        <v>398</v>
-      </c>
-      <c r="C413" s="22" t="s">
-        <v>427</v>
+        <v>399</v>
+      </c>
+      <c r="C413" s="23" t="s">
+        <v>428</v>
       </c>
       <c r="D413" s="12"/>
     </row>
@@ -7211,10 +7258,10 @@
         <v>409</v>
       </c>
       <c r="B414" s="15" t="s">
-        <v>398</v>
-      </c>
-      <c r="C414" s="22" t="s">
-        <v>428</v>
+        <v>399</v>
+      </c>
+      <c r="C414" s="23" t="s">
+        <v>429</v>
       </c>
       <c r="D414" s="12"/>
     </row>
@@ -7224,10 +7271,10 @@
         <v>410</v>
       </c>
       <c r="B415" s="15" t="s">
-        <v>398</v>
-      </c>
-      <c r="C415" s="22" t="s">
-        <v>429</v>
+        <v>399</v>
+      </c>
+      <c r="C415" s="23" t="s">
+        <v>430</v>
       </c>
       <c r="D415" s="12"/>
     </row>
@@ -7237,10 +7284,10 @@
         <v>411</v>
       </c>
       <c r="B416" s="15" t="s">
-        <v>398</v>
-      </c>
-      <c r="C416" s="22" t="s">
-        <v>430</v>
+        <v>399</v>
+      </c>
+      <c r="C416" s="23" t="s">
+        <v>431</v>
       </c>
       <c r="D416" s="12"/>
     </row>
@@ -7250,10 +7297,10 @@
         <v>412</v>
       </c>
       <c r="B417" s="15" t="s">
-        <v>398</v>
-      </c>
-      <c r="C417" s="22" t="s">
-        <v>431</v>
+        <v>399</v>
+      </c>
+      <c r="C417" s="23" t="s">
+        <v>432</v>
       </c>
       <c r="D417" s="12"/>
     </row>
@@ -7263,10 +7310,10 @@
         <v>413</v>
       </c>
       <c r="B418" s="15" t="s">
-        <v>398</v>
-      </c>
-      <c r="C418" s="22" t="s">
-        <v>432</v>
+        <v>399</v>
+      </c>
+      <c r="C418" s="23" t="s">
+        <v>433</v>
       </c>
       <c r="D418" s="12"/>
     </row>
@@ -7276,10 +7323,10 @@
         <v>414</v>
       </c>
       <c r="B419" s="15" t="s">
-        <v>398</v>
-      </c>
-      <c r="C419" s="22" t="s">
-        <v>433</v>
+        <v>399</v>
+      </c>
+      <c r="C419" s="23" t="s">
+        <v>434</v>
       </c>
       <c r="D419" s="12"/>
     </row>
@@ -7289,10 +7336,10 @@
         <v>415</v>
       </c>
       <c r="B420" s="15" t="s">
-        <v>398</v>
-      </c>
-      <c r="C420" s="22" t="s">
-        <v>434</v>
+        <v>399</v>
+      </c>
+      <c r="C420" s="23" t="s">
+        <v>435</v>
       </c>
       <c r="D420" s="12"/>
     </row>
@@ -7302,10 +7349,10 @@
         <v>416</v>
       </c>
       <c r="B421" s="15" t="s">
-        <v>398</v>
-      </c>
-      <c r="C421" s="22" t="s">
-        <v>435</v>
+        <v>399</v>
+      </c>
+      <c r="C421" s="23" t="s">
+        <v>436</v>
       </c>
       <c r="D421" s="12"/>
     </row>
@@ -7315,10 +7362,10 @@
         <v>417</v>
       </c>
       <c r="B422" s="15" t="s">
-        <v>398</v>
-      </c>
-      <c r="C422" s="22" t="s">
-        <v>436</v>
+        <v>399</v>
+      </c>
+      <c r="C422" s="23" t="s">
+        <v>437</v>
       </c>
       <c r="D422" s="12"/>
     </row>
@@ -7328,10 +7375,10 @@
         <v>418</v>
       </c>
       <c r="B423" s="15" t="s">
-        <v>398</v>
-      </c>
-      <c r="C423" s="22" t="s">
-        <v>437</v>
+        <v>399</v>
+      </c>
+      <c r="C423" s="23" t="s">
+        <v>438</v>
       </c>
       <c r="D423" s="12"/>
     </row>
@@ -7341,10 +7388,10 @@
         <v>419</v>
       </c>
       <c r="B424" s="15" t="s">
-        <v>398</v>
-      </c>
-      <c r="C424" s="22" t="s">
-        <v>438</v>
+        <v>399</v>
+      </c>
+      <c r="C424" s="23" t="s">
+        <v>439</v>
       </c>
       <c r="D424" s="12"/>
     </row>
@@ -7354,10 +7401,10 @@
         <v>420</v>
       </c>
       <c r="B425" s="15" t="s">
-        <v>398</v>
-      </c>
-      <c r="C425" s="22" t="s">
-        <v>439</v>
+        <v>399</v>
+      </c>
+      <c r="C425" s="23" t="s">
+        <v>440</v>
       </c>
       <c r="D425" s="12"/>
     </row>
@@ -7367,10 +7414,10 @@
         <v>421</v>
       </c>
       <c r="B426" s="15" t="s">
-        <v>398</v>
-      </c>
-      <c r="C426" s="22" t="s">
-        <v>440</v>
+        <v>399</v>
+      </c>
+      <c r="C426" s="23" t="s">
+        <v>441</v>
       </c>
       <c r="D426" s="12"/>
     </row>
@@ -7380,10 +7427,10 @@
         <v>422</v>
       </c>
       <c r="B427" s="15" t="s">
-        <v>398</v>
-      </c>
-      <c r="C427" s="22" t="s">
-        <v>441</v>
+        <v>399</v>
+      </c>
+      <c r="C427" s="23" t="s">
+        <v>442</v>
       </c>
       <c r="D427" s="12"/>
     </row>
@@ -7393,10 +7440,10 @@
         <v>423</v>
       </c>
       <c r="B428" s="15" t="s">
-        <v>398</v>
-      </c>
-      <c r="C428" s="22" t="s">
-        <v>442</v>
+        <v>399</v>
+      </c>
+      <c r="C428" s="23" t="s">
+        <v>443</v>
       </c>
       <c r="D428" s="12"/>
     </row>
@@ -7406,10 +7453,10 @@
         <v>424</v>
       </c>
       <c r="B429" s="15" t="s">
-        <v>398</v>
-      </c>
-      <c r="C429" s="22" t="s">
-        <v>443</v>
+        <v>399</v>
+      </c>
+      <c r="C429" s="23" t="s">
+        <v>444</v>
       </c>
       <c r="D429" s="12"/>
     </row>
@@ -7419,10 +7466,10 @@
         <v>425</v>
       </c>
       <c r="B430" s="15" t="s">
-        <v>398</v>
-      </c>
-      <c r="C430" s="22" t="s">
-        <v>444</v>
+        <v>399</v>
+      </c>
+      <c r="C430" s="23" t="s">
+        <v>445</v>
       </c>
       <c r="D430" s="12"/>
     </row>
@@ -7432,10 +7479,10 @@
         <v>426</v>
       </c>
       <c r="B431" s="15" t="s">
-        <v>398</v>
-      </c>
-      <c r="C431" s="22" t="s">
-        <v>445</v>
+        <v>399</v>
+      </c>
+      <c r="C431" s="23" t="s">
+        <v>446</v>
       </c>
       <c r="D431" s="12"/>
     </row>
@@ -7445,10 +7492,10 @@
         <v>427</v>
       </c>
       <c r="B432" s="15" t="s">
-        <v>398</v>
-      </c>
-      <c r="C432" s="22" t="s">
-        <v>446</v>
+        <v>399</v>
+      </c>
+      <c r="C432" s="23" t="s">
+        <v>447</v>
       </c>
       <c r="D432" s="12"/>
     </row>
@@ -7458,10 +7505,10 @@
         <v>428</v>
       </c>
       <c r="B433" s="15" t="s">
-        <v>398</v>
-      </c>
-      <c r="C433" s="22" t="s">
-        <v>447</v>
+        <v>399</v>
+      </c>
+      <c r="C433" s="23" t="s">
+        <v>448</v>
       </c>
       <c r="D433" s="12"/>
     </row>
@@ -7471,10 +7518,10 @@
         <v>429</v>
       </c>
       <c r="B434" s="15" t="s">
-        <v>398</v>
-      </c>
-      <c r="C434" s="22" t="s">
-        <v>448</v>
+        <v>399</v>
+      </c>
+      <c r="C434" s="23" t="s">
+        <v>449</v>
       </c>
       <c r="D434" s="12"/>
     </row>
@@ -7484,10 +7531,10 @@
         <v>430</v>
       </c>
       <c r="B435" s="15" t="s">
-        <v>398</v>
-      </c>
-      <c r="C435" s="22" t="s">
-        <v>449</v>
+        <v>399</v>
+      </c>
+      <c r="C435" s="23" t="s">
+        <v>450</v>
       </c>
       <c r="D435" s="12"/>
     </row>
@@ -7497,10 +7544,10 @@
         <v>431</v>
       </c>
       <c r="B436" s="15" t="s">
-        <v>398</v>
-      </c>
-      <c r="C436" s="22" t="s">
-        <v>450</v>
+        <v>399</v>
+      </c>
+      <c r="C436" s="23" t="s">
+        <v>451</v>
       </c>
       <c r="D436" s="12"/>
     </row>
@@ -7510,10 +7557,10 @@
         <v>432</v>
       </c>
       <c r="B437" s="15" t="s">
-        <v>398</v>
-      </c>
-      <c r="C437" s="22" t="s">
-        <v>451</v>
+        <v>399</v>
+      </c>
+      <c r="C437" s="23" t="s">
+        <v>452</v>
       </c>
       <c r="D437" s="12"/>
     </row>
@@ -7523,10 +7570,10 @@
         <v>433</v>
       </c>
       <c r="B438" s="15" t="s">
-        <v>398</v>
-      </c>
-      <c r="C438" s="22" t="s">
-        <v>452</v>
+        <v>399</v>
+      </c>
+      <c r="C438" s="23" t="s">
+        <v>453</v>
       </c>
       <c r="D438" s="12"/>
     </row>
@@ -7536,10 +7583,10 @@
         <v>434</v>
       </c>
       <c r="B439" s="15" t="s">
-        <v>398</v>
-      </c>
-      <c r="C439" s="22" t="s">
-        <v>453</v>
+        <v>399</v>
+      </c>
+      <c r="C439" s="23" t="s">
+        <v>454</v>
       </c>
       <c r="D439" s="12"/>
     </row>
@@ -7549,10 +7596,10 @@
         <v>435</v>
       </c>
       <c r="B440" s="15" t="s">
-        <v>398</v>
-      </c>
-      <c r="C440" s="22" t="s">
-        <v>454</v>
+        <v>399</v>
+      </c>
+      <c r="C440" s="23" t="s">
+        <v>455</v>
       </c>
       <c r="D440" s="12"/>
     </row>
@@ -7562,10 +7609,10 @@
         <v>436</v>
       </c>
       <c r="B441" s="15" t="s">
-        <v>398</v>
-      </c>
-      <c r="C441" s="22" t="s">
-        <v>455</v>
+        <v>399</v>
+      </c>
+      <c r="C441" s="23" t="s">
+        <v>456</v>
       </c>
       <c r="D441" s="12"/>
     </row>
@@ -7575,10 +7622,10 @@
         <v>437</v>
       </c>
       <c r="B442" s="15" t="s">
-        <v>398</v>
-      </c>
-      <c r="C442" s="22" t="s">
-        <v>456</v>
+        <v>399</v>
+      </c>
+      <c r="C442" s="23" t="s">
+        <v>457</v>
       </c>
       <c r="D442" s="12"/>
     </row>
@@ -7588,10 +7635,10 @@
         <v>438</v>
       </c>
       <c r="B443" s="15" t="s">
-        <v>398</v>
-      </c>
-      <c r="C443" s="22" t="s">
-        <v>457</v>
+        <v>399</v>
+      </c>
+      <c r="C443" s="23" t="s">
+        <v>458</v>
       </c>
       <c r="D443" s="12"/>
     </row>
@@ -7601,10 +7648,10 @@
         <v>439</v>
       </c>
       <c r="B444" s="10" t="s">
-        <v>458</v>
-      </c>
-      <c r="C444" s="22" t="s">
         <v>459</v>
+      </c>
+      <c r="C444" s="23" t="s">
+        <v>460</v>
       </c>
       <c r="D444" s="12"/>
     </row>
@@ -7614,10 +7661,10 @@
         <v>440</v>
       </c>
       <c r="B445" s="10" t="s">
-        <v>458</v>
-      </c>
-      <c r="C445" s="22" t="s">
-        <v>460</v>
+        <v>459</v>
+      </c>
+      <c r="C445" s="23" t="s">
+        <v>461</v>
       </c>
       <c r="D445" s="12"/>
     </row>
@@ -7627,10 +7674,10 @@
         <v>441</v>
       </c>
       <c r="B446" s="10" t="s">
-        <v>458</v>
-      </c>
-      <c r="C446" s="22" t="s">
-        <v>461</v>
+        <v>459</v>
+      </c>
+      <c r="C446" s="23" t="s">
+        <v>462</v>
       </c>
       <c r="D446" s="12"/>
     </row>
@@ -7640,10 +7687,10 @@
         <v>442</v>
       </c>
       <c r="B447" s="10" t="s">
-        <v>458</v>
-      </c>
-      <c r="C447" s="22" t="s">
-        <v>462</v>
+        <v>459</v>
+      </c>
+      <c r="C447" s="23" t="s">
+        <v>463</v>
       </c>
       <c r="D447" s="12"/>
     </row>
@@ -7653,10 +7700,10 @@
         <v>443</v>
       </c>
       <c r="B448" s="10" t="s">
-        <v>458</v>
-      </c>
-      <c r="C448" s="22" t="s">
-        <v>463</v>
+        <v>459</v>
+      </c>
+      <c r="C448" s="23" t="s">
+        <v>464</v>
       </c>
       <c r="D448" s="12"/>
     </row>
@@ -7666,10 +7713,10 @@
         <v>444</v>
       </c>
       <c r="B449" s="10" t="s">
-        <v>458</v>
-      </c>
-      <c r="C449" s="22" t="s">
-        <v>464</v>
+        <v>459</v>
+      </c>
+      <c r="C449" s="23" t="s">
+        <v>465</v>
       </c>
       <c r="D449" s="12"/>
     </row>
@@ -7679,10 +7726,10 @@
         <v>445</v>
       </c>
       <c r="B450" s="10" t="s">
-        <v>458</v>
-      </c>
-      <c r="C450" s="22" t="s">
-        <v>465</v>
+        <v>459</v>
+      </c>
+      <c r="C450" s="23" t="s">
+        <v>466</v>
       </c>
       <c r="D450" s="12"/>
     </row>
@@ -7692,10 +7739,10 @@
         <v>446</v>
       </c>
       <c r="B451" s="10" t="s">
-        <v>458</v>
-      </c>
-      <c r="C451" s="22" t="s">
-        <v>466</v>
+        <v>459</v>
+      </c>
+      <c r="C451" s="23" t="s">
+        <v>467</v>
       </c>
       <c r="D451" s="12"/>
     </row>
@@ -7705,10 +7752,10 @@
         <v>447</v>
       </c>
       <c r="B452" s="10" t="s">
-        <v>458</v>
-      </c>
-      <c r="C452" s="22" t="s">
-        <v>467</v>
+        <v>459</v>
+      </c>
+      <c r="C452" s="23" t="s">
+        <v>468</v>
       </c>
       <c r="D452" s="12"/>
     </row>
@@ -7718,10 +7765,10 @@
         <v>448</v>
       </c>
       <c r="B453" s="10" t="s">
-        <v>458</v>
-      </c>
-      <c r="C453" s="22" t="s">
-        <v>468</v>
+        <v>459</v>
+      </c>
+      <c r="C453" s="23" t="s">
+        <v>469</v>
       </c>
       <c r="D453" s="12"/>
     </row>

--- a/DSA_450_LoveBabbar.xlsx
+++ b/DSA_450_LoveBabbar.xlsx
@@ -287,7 +287,17 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">)</t>
+      <t xml:space="preserve">) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF81D41A"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">However I will try the DP solution too</t>
     </r>
   </si>
   <si>
@@ -1489,7 +1499,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="16">
+  <fonts count="17">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -1601,6 +1611,13 @@
       <vertAlign val="superscript"/>
       <sz val="12"/>
       <color rgb="FFC9211E"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF81D41A"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
@@ -1905,11 +1922,11 @@
   </sheetPr>
   <dimension ref="A1:D467"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C41" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D63" activeCellId="0" sqref="D63"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C49" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C65" activeCellId="0" sqref="C65"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.7265625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.734375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.63"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="28.24"/>
@@ -2731,7 +2748,7 @@
       <c r="B65" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="C65" s="23" t="s">
+      <c r="C65" s="11" t="s">
         <v>73</v>
       </c>
       <c r="D65" s="12"/>

--- a/DSA_450_LoveBabbar.xlsx
+++ b/DSA_450_LoveBabbar.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="907" uniqueCount="470">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="908" uniqueCount="471">
   <si>
     <t xml:space="preserve">Questions by Love Babbar:</t>
   </si>
@@ -305,6 +305,9 @@
   </si>
   <si>
     <t xml:space="preserve">Find next greater number with same set of digits. [Very Very IMP]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Repeated] - Array Q15</t>
   </si>
   <si>
     <t xml:space="preserve">Balanced Parenthesis problem.[Imp]</t>
@@ -1922,11 +1925,11 @@
   </sheetPr>
   <dimension ref="A1:D467"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C49" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C65" activeCellId="0" sqref="C65"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A49" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E66" activeCellId="0" sqref="E66"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.734375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.74609375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.63"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="28.24"/>
@@ -2151,7 +2154,7 @@
       <c r="B20" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="C20" s="13" t="s">
+      <c r="C20" s="11" t="s">
         <v>20</v>
       </c>
       <c r="D20" s="12"/>
@@ -2748,7 +2751,7 @@
       <c r="B65" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="C65" s="11" t="s">
+      <c r="C65" s="19" t="s">
         <v>73</v>
       </c>
       <c r="D65" s="12"/>
@@ -2764,7 +2767,9 @@
       <c r="C66" s="23" t="s">
         <v>74</v>
       </c>
-      <c r="D66" s="12"/>
+      <c r="D66" s="12" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="67" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="6" t="n">
@@ -2774,8 +2779,8 @@
       <c r="B67" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="C67" s="23" t="s">
-        <v>75</v>
+      <c r="C67" s="13" t="s">
+        <v>76</v>
       </c>
       <c r="D67" s="12"/>
     </row>
@@ -2788,7 +2793,7 @@
         <v>56</v>
       </c>
       <c r="C68" s="23" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D68" s="12"/>
     </row>
@@ -2801,7 +2806,7 @@
         <v>56</v>
       </c>
       <c r="C69" s="23" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D69" s="12"/>
     </row>
@@ -2814,7 +2819,7 @@
         <v>56</v>
       </c>
       <c r="C70" s="23" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D70" s="12"/>
     </row>
@@ -2827,7 +2832,7 @@
         <v>56</v>
       </c>
       <c r="C71" s="23" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D71" s="12"/>
     </row>
@@ -2840,7 +2845,7 @@
         <v>56</v>
       </c>
       <c r="C72" s="23" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D72" s="12"/>
     </row>
@@ -2853,7 +2858,7 @@
         <v>56</v>
       </c>
       <c r="C73" s="23" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D73" s="12"/>
     </row>
@@ -2866,7 +2871,7 @@
         <v>56</v>
       </c>
       <c r="C74" s="23" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D74" s="12"/>
     </row>
@@ -2879,7 +2884,7 @@
         <v>56</v>
       </c>
       <c r="C75" s="23" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D75" s="12"/>
     </row>
@@ -2892,7 +2897,7 @@
         <v>56</v>
       </c>
       <c r="C76" s="23" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D76" s="12"/>
     </row>
@@ -2905,7 +2910,7 @@
         <v>56</v>
       </c>
       <c r="C77" s="23" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D77" s="12"/>
     </row>
@@ -2918,7 +2923,7 @@
         <v>56</v>
       </c>
       <c r="C78" s="23" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D78" s="12"/>
     </row>
@@ -2931,7 +2936,7 @@
         <v>56</v>
       </c>
       <c r="C79" s="23" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D79" s="12"/>
     </row>
@@ -2944,7 +2949,7 @@
         <v>56</v>
       </c>
       <c r="C80" s="23" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D80" s="12"/>
     </row>
@@ -2957,7 +2962,7 @@
         <v>56</v>
       </c>
       <c r="C81" s="23" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D81" s="12"/>
     </row>
@@ -2970,7 +2975,7 @@
         <v>56</v>
       </c>
       <c r="C82" s="23" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D82" s="12"/>
     </row>
@@ -2983,7 +2988,7 @@
         <v>56</v>
       </c>
       <c r="C83" s="23" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D83" s="12"/>
     </row>
@@ -2996,7 +3001,7 @@
         <v>56</v>
       </c>
       <c r="C84" s="23" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D84" s="12"/>
     </row>
@@ -3009,7 +3014,7 @@
         <v>56</v>
       </c>
       <c r="C85" s="23" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D85" s="12"/>
     </row>
@@ -3022,7 +3027,7 @@
         <v>56</v>
       </c>
       <c r="C86" s="23" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D86" s="12"/>
     </row>
@@ -3035,7 +3040,7 @@
         <v>56</v>
       </c>
       <c r="C87" s="23" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D87" s="12"/>
     </row>
@@ -3048,7 +3053,7 @@
         <v>56</v>
       </c>
       <c r="C88" s="23" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D88" s="12"/>
     </row>
@@ -3061,7 +3066,7 @@
         <v>56</v>
       </c>
       <c r="C89" s="23" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D89" s="12"/>
     </row>
@@ -3074,7 +3079,7 @@
         <v>56</v>
       </c>
       <c r="C90" s="23" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D90" s="12"/>
     </row>
@@ -3087,7 +3092,7 @@
         <v>56</v>
       </c>
       <c r="C91" s="23" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D91" s="12"/>
     </row>
@@ -3100,7 +3105,7 @@
         <v>56</v>
       </c>
       <c r="C92" s="23" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D92" s="12"/>
     </row>
@@ -3113,7 +3118,7 @@
         <v>56</v>
       </c>
       <c r="C93" s="23" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D93" s="12"/>
     </row>
@@ -3126,7 +3131,7 @@
         <v>56</v>
       </c>
       <c r="C94" s="23" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D94" s="12"/>
     </row>
@@ -3136,10 +3141,10 @@
         <v>90</v>
       </c>
       <c r="B95" s="15" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C95" s="23" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D95" s="12"/>
     </row>
@@ -3149,10 +3154,10 @@
         <v>91</v>
       </c>
       <c r="B96" s="15" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C96" s="23" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D96" s="12"/>
     </row>
@@ -3162,10 +3167,10 @@
         <v>92</v>
       </c>
       <c r="B97" s="15" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C97" s="23" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D97" s="12"/>
     </row>
@@ -3175,10 +3180,10 @@
         <v>93</v>
       </c>
       <c r="B98" s="15" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C98" s="23" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D98" s="12"/>
     </row>
@@ -3188,10 +3193,10 @@
         <v>94</v>
       </c>
       <c r="B99" s="15" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C99" s="23" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D99" s="12"/>
     </row>
@@ -3201,10 +3206,10 @@
         <v>95</v>
       </c>
       <c r="B100" s="15" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C100" s="23" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D100" s="12"/>
     </row>
@@ -3214,10 +3219,10 @@
         <v>96</v>
       </c>
       <c r="B101" s="15" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C101" s="23" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D101" s="12"/>
     </row>
@@ -3227,10 +3232,10 @@
         <v>97</v>
       </c>
       <c r="B102" s="15" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C102" s="23" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D102" s="12"/>
     </row>
@@ -3240,10 +3245,10 @@
         <v>98</v>
       </c>
       <c r="B103" s="15" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C103" s="23" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D103" s="12"/>
     </row>
@@ -3253,10 +3258,10 @@
         <v>99</v>
       </c>
       <c r="B104" s="15" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C104" s="23" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D104" s="12"/>
     </row>
@@ -3266,10 +3271,10 @@
         <v>100</v>
       </c>
       <c r="B105" s="15" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C105" s="23" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D105" s="12"/>
     </row>
@@ -3279,10 +3284,10 @@
         <v>101</v>
       </c>
       <c r="B106" s="15" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C106" s="23" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D106" s="12"/>
     </row>
@@ -3292,10 +3297,10 @@
         <v>102</v>
       </c>
       <c r="B107" s="15" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C107" s="23" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D107" s="12"/>
     </row>
@@ -3305,10 +3310,10 @@
         <v>103</v>
       </c>
       <c r="B108" s="15" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C108" s="23" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D108" s="12"/>
     </row>
@@ -3318,10 +3323,10 @@
         <v>104</v>
       </c>
       <c r="B109" s="15" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C109" s="23" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D109" s="12"/>
     </row>
@@ -3331,10 +3336,10 @@
         <v>105</v>
       </c>
       <c r="B110" s="15" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C110" s="23" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D110" s="12"/>
     </row>
@@ -3344,10 +3349,10 @@
         <v>106</v>
       </c>
       <c r="B111" s="15" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C111" s="23" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D111" s="12"/>
     </row>
@@ -3357,10 +3362,10 @@
         <v>107</v>
       </c>
       <c r="B112" s="15" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C112" s="23" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D112" s="12"/>
     </row>
@@ -3370,10 +3375,10 @@
         <v>108</v>
       </c>
       <c r="B113" s="15" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C113" s="23" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D113" s="12"/>
     </row>
@@ -3383,10 +3388,10 @@
         <v>109</v>
       </c>
       <c r="B114" s="15" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C114" s="23" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D114" s="12"/>
     </row>
@@ -3396,10 +3401,10 @@
         <v>110</v>
       </c>
       <c r="B115" s="15" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C115" s="23" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D115" s="12"/>
     </row>
@@ -3409,10 +3414,10 @@
         <v>111</v>
       </c>
       <c r="B116" s="15" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C116" s="23" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D116" s="12"/>
     </row>
@@ -3422,10 +3427,10 @@
         <v>112</v>
       </c>
       <c r="B117" s="15" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C117" s="23" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D117" s="12"/>
     </row>
@@ -3435,10 +3440,10 @@
         <v>113</v>
       </c>
       <c r="B118" s="15" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C118" s="23" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D118" s="12"/>
     </row>
@@ -3448,10 +3453,10 @@
         <v>114</v>
       </c>
       <c r="B119" s="15" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C119" s="23" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D119" s="12"/>
     </row>
@@ -3461,10 +3466,10 @@
         <v>115</v>
       </c>
       <c r="B120" s="15" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C120" s="23" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D120" s="12"/>
     </row>
@@ -3474,10 +3479,10 @@
         <v>116</v>
       </c>
       <c r="B121" s="15" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C121" s="23" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D121" s="12"/>
     </row>
@@ -3487,10 +3492,10 @@
         <v>117</v>
       </c>
       <c r="B122" s="15" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C122" s="23" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D122" s="12"/>
     </row>
@@ -3500,10 +3505,10 @@
         <v>118</v>
       </c>
       <c r="B123" s="15" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C123" s="23" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D123" s="12"/>
     </row>
@@ -3513,10 +3518,10 @@
         <v>119</v>
       </c>
       <c r="B124" s="15" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C124" s="23" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D124" s="12"/>
     </row>
@@ -3526,10 +3531,10 @@
         <v>120</v>
       </c>
       <c r="B125" s="15" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C125" s="23" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D125" s="12"/>
     </row>
@@ -3539,10 +3544,10 @@
         <v>121</v>
       </c>
       <c r="B126" s="15" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C126" s="23" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D126" s="12"/>
     </row>
@@ -3552,10 +3557,10 @@
         <v>122</v>
       </c>
       <c r="B127" s="15" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C127" s="23" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D127" s="12"/>
     </row>
@@ -3565,10 +3570,10 @@
         <v>123</v>
       </c>
       <c r="B128" s="15" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C128" s="23" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D128" s="12"/>
     </row>
@@ -3578,10 +3583,10 @@
         <v>124</v>
       </c>
       <c r="B129" s="15" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C129" s="23" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D129" s="12"/>
     </row>
@@ -3591,10 +3596,10 @@
         <v>125</v>
       </c>
       <c r="B130" s="15" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C130" s="23" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D130" s="12"/>
     </row>
@@ -3604,10 +3609,10 @@
         <v>126</v>
       </c>
       <c r="B131" s="10" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C131" s="23" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D131" s="12"/>
     </row>
@@ -3617,10 +3622,10 @@
         <v>127</v>
       </c>
       <c r="B132" s="10" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C132" s="23" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D132" s="12"/>
     </row>
@@ -3630,10 +3635,10 @@
         <v>128</v>
       </c>
       <c r="B133" s="10" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C133" s="23" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D133" s="12"/>
     </row>
@@ -3643,10 +3648,10 @@
         <v>129</v>
       </c>
       <c r="B134" s="10" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C134" s="23" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D134" s="12"/>
     </row>
@@ -3656,10 +3661,10 @@
         <v>130</v>
       </c>
       <c r="B135" s="10" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C135" s="23" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D135" s="12"/>
     </row>
@@ -3669,10 +3674,10 @@
         <v>131</v>
       </c>
       <c r="B136" s="10" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C136" s="23" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D136" s="12"/>
     </row>
@@ -3682,10 +3687,10 @@
         <v>132</v>
       </c>
       <c r="B137" s="10" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C137" s="23" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D137" s="12"/>
     </row>
@@ -3695,10 +3700,10 @@
         <v>133</v>
       </c>
       <c r="B138" s="10" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C138" s="23" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D138" s="12"/>
     </row>
@@ -3708,10 +3713,10 @@
         <v>134</v>
       </c>
       <c r="B139" s="10" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C139" s="23" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D139" s="12"/>
     </row>
@@ -3721,10 +3726,10 @@
         <v>135</v>
       </c>
       <c r="B140" s="10" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C140" s="23" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D140" s="12"/>
     </row>
@@ -3734,10 +3739,10 @@
         <v>136</v>
       </c>
       <c r="B141" s="10" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C141" s="23" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D141" s="12"/>
     </row>
@@ -3747,10 +3752,10 @@
         <v>137</v>
       </c>
       <c r="B142" s="10" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C142" s="23" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D142" s="12"/>
     </row>
@@ -3760,10 +3765,10 @@
         <v>138</v>
       </c>
       <c r="B143" s="10" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C143" s="23" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D143" s="12"/>
     </row>
@@ -3773,10 +3778,10 @@
         <v>139</v>
       </c>
       <c r="B144" s="10" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C144" s="23" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D144" s="12"/>
     </row>
@@ -3786,10 +3791,10 @@
         <v>140</v>
       </c>
       <c r="B145" s="10" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C145" s="23" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D145" s="12"/>
     </row>
@@ -3799,10 +3804,10 @@
         <v>141</v>
       </c>
       <c r="B146" s="10" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C146" s="23" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D146" s="12"/>
     </row>
@@ -3812,10 +3817,10 @@
         <v>142</v>
       </c>
       <c r="B147" s="10" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C147" s="23" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D147" s="12"/>
     </row>
@@ -3825,10 +3830,10 @@
         <v>143</v>
       </c>
       <c r="B148" s="10" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C148" s="23" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D148" s="12"/>
     </row>
@@ -3838,10 +3843,10 @@
         <v>144</v>
       </c>
       <c r="B149" s="10" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C149" s="23" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D149" s="12"/>
     </row>
@@ -3851,10 +3856,10 @@
         <v>145</v>
       </c>
       <c r="B150" s="10" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C150" s="23" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D150" s="12"/>
     </row>
@@ -3864,10 +3869,10 @@
         <v>146</v>
       </c>
       <c r="B151" s="10" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C151" s="23" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D151" s="12"/>
     </row>
@@ -3877,10 +3882,10 @@
         <v>147</v>
       </c>
       <c r="B152" s="10" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C152" s="23" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D152" s="12"/>
     </row>
@@ -3890,10 +3895,10 @@
         <v>148</v>
       </c>
       <c r="B153" s="10" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C153" s="23" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D153" s="12"/>
     </row>
@@ -3903,10 +3908,10 @@
         <v>149</v>
       </c>
       <c r="B154" s="10" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C154" s="23" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D154" s="12"/>
     </row>
@@ -3916,10 +3921,10 @@
         <v>150</v>
       </c>
       <c r="B155" s="10" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C155" s="23" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D155" s="12"/>
     </row>
@@ -3929,10 +3934,10 @@
         <v>151</v>
       </c>
       <c r="B156" s="10" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C156" s="24" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D156" s="12"/>
     </row>
@@ -3942,10 +3947,10 @@
         <v>152</v>
       </c>
       <c r="B157" s="10" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C157" s="24" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D157" s="12"/>
     </row>
@@ -3955,10 +3960,10 @@
         <v>153</v>
       </c>
       <c r="B158" s="10" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C158" s="23" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D158" s="12"/>
     </row>
@@ -3968,10 +3973,10 @@
         <v>154</v>
       </c>
       <c r="B159" s="10" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C159" s="23" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D159" s="12"/>
     </row>
@@ -3981,10 +3986,10 @@
         <v>155</v>
       </c>
       <c r="B160" s="10" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C160" s="23" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D160" s="12"/>
     </row>
@@ -3994,10 +3999,10 @@
         <v>156</v>
       </c>
       <c r="B161" s="10" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C161" s="23" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D161" s="12"/>
     </row>
@@ -4007,10 +4012,10 @@
         <v>157</v>
       </c>
       <c r="B162" s="10" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C162" s="23" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D162" s="12"/>
     </row>
@@ -4020,10 +4025,10 @@
         <v>158</v>
       </c>
       <c r="B163" s="10" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C163" s="23" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D163" s="12"/>
     </row>
@@ -4033,10 +4038,10 @@
         <v>159</v>
       </c>
       <c r="B164" s="10" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C164" s="23" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D164" s="12"/>
     </row>
@@ -4046,10 +4051,10 @@
         <v>160</v>
       </c>
       <c r="B165" s="10" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C165" s="23" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D165" s="12"/>
     </row>
@@ -4059,10 +4064,10 @@
         <v>161</v>
       </c>
       <c r="B166" s="10" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C166" s="23" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D166" s="12"/>
     </row>
@@ -4072,10 +4077,10 @@
         <v>162</v>
       </c>
       <c r="B167" s="15" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C167" s="23" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D167" s="12"/>
     </row>
@@ -4085,10 +4090,10 @@
         <v>163</v>
       </c>
       <c r="B168" s="15" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C168" s="23" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D168" s="12"/>
     </row>
@@ -4098,10 +4103,10 @@
         <v>164</v>
       </c>
       <c r="B169" s="15" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C169" s="23" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D169" s="12"/>
     </row>
@@ -4111,10 +4116,10 @@
         <v>165</v>
       </c>
       <c r="B170" s="15" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C170" s="23" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D170" s="12"/>
     </row>
@@ -4124,10 +4129,10 @@
         <v>166</v>
       </c>
       <c r="B171" s="15" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C171" s="23" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D171" s="12"/>
     </row>
@@ -4137,10 +4142,10 @@
         <v>167</v>
       </c>
       <c r="B172" s="15" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C172" s="23" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D172" s="12"/>
     </row>
@@ -4150,10 +4155,10 @@
         <v>168</v>
       </c>
       <c r="B173" s="15" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C173" s="23" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D173" s="12"/>
     </row>
@@ -4163,10 +4168,10 @@
         <v>169</v>
       </c>
       <c r="B174" s="15" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C174" s="23" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D174" s="12"/>
     </row>
@@ -4176,10 +4181,10 @@
         <v>170</v>
       </c>
       <c r="B175" s="15" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C175" s="23" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D175" s="12"/>
     </row>
@@ -4189,10 +4194,10 @@
         <v>171</v>
       </c>
       <c r="B176" s="15" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C176" s="23" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D176" s="12"/>
     </row>
@@ -4202,10 +4207,10 @@
         <v>172</v>
       </c>
       <c r="B177" s="15" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C177" s="23" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D177" s="12"/>
     </row>
@@ -4215,10 +4220,10 @@
         <v>173</v>
       </c>
       <c r="B178" s="15" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C178" s="23" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D178" s="12"/>
     </row>
@@ -4228,10 +4233,10 @@
         <v>174</v>
       </c>
       <c r="B179" s="15" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C179" s="23" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D179" s="12"/>
     </row>
@@ -4241,10 +4246,10 @@
         <v>175</v>
       </c>
       <c r="B180" s="15" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C180" s="23" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D180" s="12"/>
     </row>
@@ -4254,10 +4259,10 @@
         <v>176</v>
       </c>
       <c r="B181" s="15" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C181" s="23" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="D181" s="12"/>
     </row>
@@ -4267,10 +4272,10 @@
         <v>177</v>
       </c>
       <c r="B182" s="15" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C182" s="23" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D182" s="12"/>
     </row>
@@ -4280,10 +4285,10 @@
         <v>178</v>
       </c>
       <c r="B183" s="15" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C183" s="23" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D183" s="12"/>
     </row>
@@ -4293,10 +4298,10 @@
         <v>179</v>
       </c>
       <c r="B184" s="15" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C184" s="23" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D184" s="12"/>
     </row>
@@ -4306,10 +4311,10 @@
         <v>180</v>
       </c>
       <c r="B185" s="15" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C185" s="23" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D185" s="12"/>
     </row>
@@ -4319,10 +4324,10 @@
         <v>181</v>
       </c>
       <c r="B186" s="15" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C186" s="23" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D186" s="12"/>
     </row>
@@ -4332,10 +4337,10 @@
         <v>182</v>
       </c>
       <c r="B187" s="15" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C187" s="23" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D187" s="12"/>
     </row>
@@ -4345,10 +4350,10 @@
         <v>183</v>
       </c>
       <c r="B188" s="15" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C188" s="23" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D188" s="12"/>
     </row>
@@ -4358,10 +4363,10 @@
         <v>184</v>
       </c>
       <c r="B189" s="15" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C189" s="23" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D189" s="12"/>
     </row>
@@ -4371,10 +4376,10 @@
         <v>185</v>
       </c>
       <c r="B190" s="15" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C190" s="23" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D190" s="12"/>
     </row>
@@ -4384,10 +4389,10 @@
         <v>186</v>
       </c>
       <c r="B191" s="15" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C191" s="23" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="D191" s="12"/>
     </row>
@@ -4397,10 +4402,10 @@
         <v>187</v>
       </c>
       <c r="B192" s="15" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C192" s="23" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="D192" s="12"/>
     </row>
@@ -4410,10 +4415,10 @@
         <v>188</v>
       </c>
       <c r="B193" s="15" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C193" s="23" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D193" s="12"/>
     </row>
@@ -4423,10 +4428,10 @@
         <v>189</v>
       </c>
       <c r="B194" s="15" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C194" s="23" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D194" s="12"/>
     </row>
@@ -4436,10 +4441,10 @@
         <v>190</v>
       </c>
       <c r="B195" s="15" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C195" s="23" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D195" s="12"/>
     </row>
@@ -4449,10 +4454,10 @@
         <v>191</v>
       </c>
       <c r="B196" s="15" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C196" s="23" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D196" s="12"/>
     </row>
@@ -4462,10 +4467,10 @@
         <v>192</v>
       </c>
       <c r="B197" s="15" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C197" s="23" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="D197" s="12"/>
     </row>
@@ -4475,10 +4480,10 @@
         <v>193</v>
       </c>
       <c r="B198" s="15" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C198" s="23" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="D198" s="12"/>
     </row>
@@ -4488,10 +4493,10 @@
         <v>194</v>
       </c>
       <c r="B199" s="15" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C199" s="23" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="D199" s="12"/>
     </row>
@@ -4501,10 +4506,10 @@
         <v>195</v>
       </c>
       <c r="B200" s="15" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C200" s="23" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="D200" s="12"/>
     </row>
@@ -4514,10 +4519,10 @@
         <v>196</v>
       </c>
       <c r="B201" s="15" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C201" s="23" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D201" s="12"/>
     </row>
@@ -4527,10 +4532,10 @@
         <v>197</v>
       </c>
       <c r="B202" s="10" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C202" s="23" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
     </row>
     <row r="203" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4539,10 +4544,10 @@
         <v>198</v>
       </c>
       <c r="B203" s="10" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C203" s="23" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="204" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4551,10 +4556,10 @@
         <v>199</v>
       </c>
       <c r="B204" s="10" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C204" s="23" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
     </row>
     <row r="205" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4563,10 +4568,10 @@
         <v>200</v>
       </c>
       <c r="B205" s="10" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C205" s="23" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row r="206" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4575,10 +4580,10 @@
         <v>201</v>
       </c>
       <c r="B206" s="10" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C206" s="23" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="207" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4587,10 +4592,10 @@
         <v>202</v>
       </c>
       <c r="B207" s="10" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C207" s="23" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
     </row>
     <row r="208" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4599,10 +4604,10 @@
         <v>203</v>
       </c>
       <c r="B208" s="10" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C208" s="25" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
     </row>
     <row r="209" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4611,10 +4616,10 @@
         <v>204</v>
       </c>
       <c r="B209" s="10" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C209" s="23" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="210" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4623,10 +4628,10 @@
         <v>205</v>
       </c>
       <c r="B210" s="10" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C210" s="23" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="D210" s="12"/>
     </row>
@@ -4636,10 +4641,10 @@
         <v>206</v>
       </c>
       <c r="B211" s="10" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C211" s="23" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="D211" s="12"/>
     </row>
@@ -4649,10 +4654,10 @@
         <v>207</v>
       </c>
       <c r="B212" s="10" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C212" s="23" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D212" s="12"/>
     </row>
@@ -4662,10 +4667,10 @@
         <v>208</v>
       </c>
       <c r="B213" s="10" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C213" s="23" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="D213" s="12"/>
     </row>
@@ -4675,10 +4680,10 @@
         <v>209</v>
       </c>
       <c r="B214" s="10" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C214" s="23" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="D214" s="12"/>
     </row>
@@ -4688,10 +4693,10 @@
         <v>210</v>
       </c>
       <c r="B215" s="10" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C215" s="23" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="D215" s="12"/>
     </row>
@@ -4701,10 +4706,10 @@
         <v>211</v>
       </c>
       <c r="B216" s="10" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C216" s="23" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D216" s="12"/>
     </row>
@@ -4714,10 +4719,10 @@
         <v>212</v>
       </c>
       <c r="B217" s="10" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C217" s="23" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D217" s="12"/>
     </row>
@@ -4727,10 +4732,10 @@
         <v>213</v>
       </c>
       <c r="B218" s="10" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C218" s="23" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="D218" s="12"/>
     </row>
@@ -4740,10 +4745,10 @@
         <v>214</v>
       </c>
       <c r="B219" s="10" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C219" s="23" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="D219" s="12"/>
     </row>
@@ -4753,10 +4758,10 @@
         <v>215</v>
       </c>
       <c r="B220" s="10" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C220" s="23" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="D220" s="12"/>
     </row>
@@ -4766,10 +4771,10 @@
         <v>216</v>
       </c>
       <c r="B221" s="10" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C221" s="23" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="D221" s="12"/>
     </row>
@@ -4779,10 +4784,10 @@
         <v>217</v>
       </c>
       <c r="B222" s="10" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C222" s="23" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="D222" s="12"/>
     </row>
@@ -4792,10 +4797,10 @@
         <v>218</v>
       </c>
       <c r="B223" s="10" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C223" s="23" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D223" s="12"/>
     </row>
@@ -4805,10 +4810,10 @@
         <v>219</v>
       </c>
       <c r="B224" s="15" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C224" s="23" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="D224" s="12"/>
     </row>
@@ -4818,10 +4823,10 @@
         <v>220</v>
       </c>
       <c r="B225" s="15" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C225" s="23" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D225" s="12"/>
     </row>
@@ -4831,10 +4836,10 @@
         <v>221</v>
       </c>
       <c r="B226" s="15" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C226" s="23" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="D226" s="12"/>
     </row>
@@ -4844,10 +4849,10 @@
         <v>222</v>
       </c>
       <c r="B227" s="15" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C227" s="23" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D227" s="12"/>
     </row>
@@ -4857,10 +4862,10 @@
         <v>223</v>
       </c>
       <c r="B228" s="15" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C228" s="23" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="D228" s="12"/>
     </row>
@@ -4870,10 +4875,10 @@
         <v>224</v>
       </c>
       <c r="B229" s="15" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C229" s="23" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="D229" s="12"/>
     </row>
@@ -4883,10 +4888,10 @@
         <v>225</v>
       </c>
       <c r="B230" s="15" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C230" s="23" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="D230" s="12"/>
     </row>
@@ -4896,10 +4901,10 @@
         <v>226</v>
       </c>
       <c r="B231" s="15" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C231" s="23" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="D231" s="12"/>
     </row>
@@ -4909,10 +4914,10 @@
         <v>227</v>
       </c>
       <c r="B232" s="15" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C232" s="23" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="D232" s="12"/>
     </row>
@@ -4922,10 +4927,10 @@
         <v>228</v>
       </c>
       <c r="B233" s="15" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C233" s="23" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="D233" s="12"/>
     </row>
@@ -4935,10 +4940,10 @@
         <v>229</v>
       </c>
       <c r="B234" s="15" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C234" s="23" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="D234" s="12"/>
     </row>
@@ -4948,10 +4953,10 @@
         <v>230</v>
       </c>
       <c r="B235" s="15" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C235" s="23" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="D235" s="12"/>
     </row>
@@ -4961,10 +4966,10 @@
         <v>231</v>
       </c>
       <c r="B236" s="15" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C236" s="23" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="D236" s="12"/>
     </row>
@@ -4974,10 +4979,10 @@
         <v>232</v>
       </c>
       <c r="B237" s="15" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C237" s="23" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="D237" s="12"/>
     </row>
@@ -4987,10 +4992,10 @@
         <v>233</v>
       </c>
       <c r="B238" s="15" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C238" s="23" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="D238" s="12"/>
     </row>
@@ -5000,10 +5005,10 @@
         <v>234</v>
       </c>
       <c r="B239" s="15" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C239" s="23" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="D239" s="12"/>
     </row>
@@ -5013,10 +5018,10 @@
         <v>235</v>
       </c>
       <c r="B240" s="15" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C240" s="23" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="D240" s="12"/>
     </row>
@@ -5026,10 +5031,10 @@
         <v>236</v>
       </c>
       <c r="B241" s="15" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C241" s="23" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="D241" s="12"/>
     </row>
@@ -5039,10 +5044,10 @@
         <v>237</v>
       </c>
       <c r="B242" s="15" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C242" s="23" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="D242" s="12"/>
     </row>
@@ -5052,10 +5057,10 @@
         <v>238</v>
       </c>
       <c r="B243" s="15" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C243" s="23" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="D243" s="12"/>
     </row>
@@ -5065,10 +5070,10 @@
         <v>239</v>
       </c>
       <c r="B244" s="15" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C244" s="23" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="D244" s="12"/>
     </row>
@@ -5078,10 +5083,10 @@
         <v>240</v>
       </c>
       <c r="B245" s="15" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C245" s="23" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="D245" s="12"/>
     </row>
@@ -5091,10 +5096,10 @@
         <v>241</v>
       </c>
       <c r="B246" s="15" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C246" s="23" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="D246" s="12"/>
     </row>
@@ -5104,10 +5109,10 @@
         <v>242</v>
       </c>
       <c r="B247" s="15" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C247" s="23" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="D247" s="12"/>
     </row>
@@ -5117,10 +5122,10 @@
         <v>243</v>
       </c>
       <c r="B248" s="15" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C248" s="23" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="D248" s="12"/>
     </row>
@@ -5130,10 +5135,10 @@
         <v>244</v>
       </c>
       <c r="B249" s="15" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C249" s="23" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="D249" s="12"/>
     </row>
@@ -5143,10 +5148,10 @@
         <v>245</v>
       </c>
       <c r="B250" s="15" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C250" s="23" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="D250" s="12"/>
     </row>
@@ -5156,10 +5161,10 @@
         <v>246</v>
       </c>
       <c r="B251" s="15" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C251" s="23" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D251" s="12"/>
     </row>
@@ -5169,10 +5174,10 @@
         <v>247</v>
       </c>
       <c r="B252" s="15" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C252" s="23" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="D252" s="12"/>
     </row>
@@ -5182,10 +5187,10 @@
         <v>248</v>
       </c>
       <c r="B253" s="15" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C253" s="23" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D253" s="12"/>
     </row>
@@ -5195,10 +5200,10 @@
         <v>249</v>
       </c>
       <c r="B254" s="15" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C254" s="23" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="D254" s="12"/>
     </row>
@@ -5208,10 +5213,10 @@
         <v>250</v>
       </c>
       <c r="B255" s="15" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C255" s="23" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D255" s="12"/>
     </row>
@@ -5221,10 +5226,10 @@
         <v>251</v>
       </c>
       <c r="B256" s="15" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C256" s="23" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="D256" s="12"/>
     </row>
@@ -5234,10 +5239,10 @@
         <v>252</v>
       </c>
       <c r="B257" s="15" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C257" s="23" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D257" s="12"/>
     </row>
@@ -5247,10 +5252,10 @@
         <v>253</v>
       </c>
       <c r="B258" s="15" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C258" s="23" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="D258" s="12"/>
     </row>
@@ -5260,10 +5265,10 @@
         <v>254</v>
       </c>
       <c r="B259" s="10" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="C259" s="23" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="D259" s="12"/>
     </row>
@@ -5273,10 +5278,10 @@
         <v>255</v>
       </c>
       <c r="B260" s="10" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="C260" s="23" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="D260" s="12"/>
     </row>
@@ -5286,10 +5291,10 @@
         <v>256</v>
       </c>
       <c r="B261" s="10" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="C261" s="23" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="D261" s="12"/>
     </row>
@@ -5299,10 +5304,10 @@
         <v>257</v>
       </c>
       <c r="B262" s="10" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="C262" s="23" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="D262" s="12"/>
     </row>
@@ -5312,10 +5317,10 @@
         <v>258</v>
       </c>
       <c r="B263" s="10" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="C263" s="23" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="D263" s="12"/>
     </row>
@@ -5325,10 +5330,10 @@
         <v>259</v>
       </c>
       <c r="B264" s="10" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="C264" s="23" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="D264" s="12"/>
     </row>
@@ -5338,10 +5343,10 @@
         <v>260</v>
       </c>
       <c r="B265" s="10" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="C265" s="23" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="D265" s="12"/>
     </row>
@@ -5351,10 +5356,10 @@
         <v>261</v>
       </c>
       <c r="B266" s="10" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="C266" s="23" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="D266" s="12"/>
     </row>
@@ -5364,10 +5369,10 @@
         <v>262</v>
       </c>
       <c r="B267" s="10" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="C267" s="23" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="D267" s="12"/>
     </row>
@@ -5377,10 +5382,10 @@
         <v>263</v>
       </c>
       <c r="B268" s="10" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="C268" s="23" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="D268" s="12"/>
     </row>
@@ -5390,10 +5395,10 @@
         <v>264</v>
       </c>
       <c r="B269" s="10" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="C269" s="23" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="D269" s="12"/>
     </row>
@@ -5403,10 +5408,10 @@
         <v>265</v>
       </c>
       <c r="B270" s="10" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="C270" s="23" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="D270" s="12"/>
     </row>
@@ -5416,10 +5421,10 @@
         <v>266</v>
       </c>
       <c r="B271" s="10" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="C271" s="23" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="D271" s="12"/>
     </row>
@@ -5429,10 +5434,10 @@
         <v>267</v>
       </c>
       <c r="B272" s="10" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="C272" s="23" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="D272" s="12"/>
     </row>
@@ -5442,10 +5447,10 @@
         <v>268</v>
       </c>
       <c r="B273" s="10" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="C273" s="23" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="D273" s="12"/>
     </row>
@@ -5455,10 +5460,10 @@
         <v>269</v>
       </c>
       <c r="B274" s="10" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="C274" s="23" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="D274" s="12"/>
     </row>
@@ -5468,10 +5473,10 @@
         <v>270</v>
       </c>
       <c r="B275" s="10" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="C275" s="23" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="D275" s="12"/>
     </row>
@@ -5481,10 +5486,10 @@
         <v>271</v>
       </c>
       <c r="B276" s="10" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="C276" s="23" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="D276" s="12"/>
     </row>
@@ -5494,10 +5499,10 @@
         <v>272</v>
       </c>
       <c r="B277" s="10" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="C277" s="23" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="D277" s="12"/>
     </row>
@@ -5507,10 +5512,10 @@
         <v>273</v>
       </c>
       <c r="B278" s="15" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="C278" s="23" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="D278" s="12"/>
     </row>
@@ -5520,10 +5525,10 @@
         <v>274</v>
       </c>
       <c r="B279" s="15" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="C279" s="23" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="D279" s="12"/>
     </row>
@@ -5533,10 +5538,10 @@
         <v>275</v>
       </c>
       <c r="B280" s="15" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="C280" s="23" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="D280" s="12"/>
     </row>
@@ -5546,10 +5551,10 @@
         <v>276</v>
       </c>
       <c r="B281" s="15" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="C281" s="23" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="D281" s="12"/>
     </row>
@@ -5559,10 +5564,10 @@
         <v>277</v>
       </c>
       <c r="B282" s="15" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="C282" s="23" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="D282" s="12"/>
     </row>
@@ -5572,10 +5577,10 @@
         <v>278</v>
       </c>
       <c r="B283" s="15" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="C283" s="23" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="D283" s="12"/>
     </row>
@@ -5585,10 +5590,10 @@
         <v>279</v>
       </c>
       <c r="B284" s="15" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="C284" s="23" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="D284" s="12"/>
     </row>
@@ -5598,10 +5603,10 @@
         <v>280</v>
       </c>
       <c r="B285" s="15" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="C285" s="23" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="D285" s="12"/>
     </row>
@@ -5611,10 +5616,10 @@
         <v>281</v>
       </c>
       <c r="B286" s="15" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="C286" s="23" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="D286" s="12"/>
     </row>
@@ -5624,10 +5629,10 @@
         <v>282</v>
       </c>
       <c r="B287" s="15" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="C287" s="23" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="D287" s="12"/>
     </row>
@@ -5637,10 +5642,10 @@
         <v>283</v>
       </c>
       <c r="B288" s="15" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="C288" s="23" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="D288" s="12"/>
     </row>
@@ -5650,10 +5655,10 @@
         <v>284</v>
       </c>
       <c r="B289" s="15" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="C289" s="23" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="D289" s="12"/>
     </row>
@@ -5663,10 +5668,10 @@
         <v>285</v>
       </c>
       <c r="B290" s="15" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="C290" s="23" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="D290" s="12"/>
     </row>
@@ -5676,10 +5681,10 @@
         <v>286</v>
       </c>
       <c r="B291" s="15" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="C291" s="25" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="D291" s="12"/>
     </row>
@@ -5689,10 +5694,10 @@
         <v>287</v>
       </c>
       <c r="B292" s="15" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="C292" s="23" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="D292" s="12"/>
     </row>
@@ -5702,10 +5707,10 @@
         <v>288</v>
       </c>
       <c r="B293" s="15" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="C293" s="23" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="D293" s="12"/>
     </row>
@@ -5715,10 +5720,10 @@
         <v>289</v>
       </c>
       <c r="B294" s="15" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="C294" s="23" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="D294" s="12"/>
     </row>
@@ -5728,10 +5733,10 @@
         <v>290</v>
       </c>
       <c r="B295" s="15" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="C295" s="23" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="D295" s="12"/>
     </row>
@@ -5741,10 +5746,10 @@
         <v>291</v>
       </c>
       <c r="B296" s="15" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="C296" s="23" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="D296" s="12"/>
     </row>
@@ -5754,10 +5759,10 @@
         <v>292</v>
       </c>
       <c r="B297" s="15" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="C297" s="23" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="D297" s="12"/>
     </row>
@@ -5767,10 +5772,10 @@
         <v>293</v>
       </c>
       <c r="B298" s="15" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="C298" s="23" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="D298" s="12"/>
     </row>
@@ -5780,10 +5785,10 @@
         <v>294</v>
       </c>
       <c r="B299" s="15" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="C299" s="23" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="D299" s="12"/>
     </row>
@@ -5793,10 +5798,10 @@
         <v>295</v>
       </c>
       <c r="B300" s="15" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="C300" s="23" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="D300" s="12"/>
     </row>
@@ -5806,10 +5811,10 @@
         <v>296</v>
       </c>
       <c r="B301" s="15" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="C301" s="23" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="D301" s="12"/>
     </row>
@@ -5819,10 +5824,10 @@
         <v>297</v>
       </c>
       <c r="B302" s="15" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="C302" s="23" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="D302" s="12"/>
     </row>
@@ -5832,10 +5837,10 @@
         <v>298</v>
       </c>
       <c r="B303" s="15" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="C303" s="23" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="D303" s="12"/>
     </row>
@@ -5845,10 +5850,10 @@
         <v>299</v>
       </c>
       <c r="B304" s="15" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="C304" s="23" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="D304" s="12"/>
     </row>
@@ -5858,10 +5863,10 @@
         <v>300</v>
       </c>
       <c r="B305" s="15" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="C305" s="23" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="D305" s="12"/>
     </row>
@@ -5871,10 +5876,10 @@
         <v>301</v>
       </c>
       <c r="B306" s="15" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="C306" s="23" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="D306" s="12"/>
     </row>
@@ -5884,10 +5889,10 @@
         <v>302</v>
       </c>
       <c r="B307" s="15" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="C307" s="23" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="D307" s="12"/>
     </row>
@@ -5897,10 +5902,10 @@
         <v>303</v>
       </c>
       <c r="B308" s="15" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="C308" s="23" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="D308" s="12"/>
     </row>
@@ -5910,10 +5915,10 @@
         <v>304</v>
       </c>
       <c r="B309" s="15" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="C309" s="23" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="D309" s="12"/>
     </row>
@@ -5923,10 +5928,10 @@
         <v>305</v>
       </c>
       <c r="B310" s="15" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="C310" s="23" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="D310" s="12"/>
     </row>
@@ -5936,10 +5941,10 @@
         <v>306</v>
       </c>
       <c r="B311" s="15" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="C311" s="23" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="D311" s="12"/>
     </row>
@@ -5949,10 +5954,10 @@
         <v>307</v>
       </c>
       <c r="B312" s="15" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="C312" s="23" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="D312" s="12"/>
     </row>
@@ -5962,10 +5967,10 @@
         <v>308</v>
       </c>
       <c r="B313" s="15" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="C313" s="23" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="D313" s="12"/>
     </row>
@@ -5975,10 +5980,10 @@
         <v>309</v>
       </c>
       <c r="B314" s="15" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="C314" s="23" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="D314" s="12"/>
     </row>
@@ -5988,10 +5993,10 @@
         <v>310</v>
       </c>
       <c r="B315" s="15" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="C315" s="23" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="D315" s="12"/>
     </row>
@@ -6001,10 +6006,10 @@
         <v>311</v>
       </c>
       <c r="B316" s="10" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="C316" s="23" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="D316" s="12"/>
     </row>
@@ -6014,10 +6019,10 @@
         <v>312</v>
       </c>
       <c r="B317" s="10" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="C317" s="23" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="D317" s="12"/>
     </row>
@@ -6027,10 +6032,10 @@
         <v>313</v>
       </c>
       <c r="B318" s="10" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="C318" s="23" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="D318" s="12"/>
     </row>
@@ -6040,10 +6045,10 @@
         <v>314</v>
       </c>
       <c r="B319" s="10" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="C319" s="23" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="D319" s="12"/>
     </row>
@@ -6053,10 +6058,10 @@
         <v>315</v>
       </c>
       <c r="B320" s="10" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="C320" s="23" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="D320" s="12"/>
     </row>
@@ -6066,10 +6071,10 @@
         <v>316</v>
       </c>
       <c r="B321" s="10" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="C321" s="23" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="D321" s="12"/>
     </row>
@@ -6079,10 +6084,10 @@
         <v>317</v>
       </c>
       <c r="B322" s="10" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="C322" s="23" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="D322" s="12"/>
     </row>
@@ -6092,10 +6097,10 @@
         <v>318</v>
       </c>
       <c r="B323" s="10" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="C323" s="23" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="D323" s="12"/>
     </row>
@@ -6105,10 +6110,10 @@
         <v>319</v>
       </c>
       <c r="B324" s="10" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="C324" s="25" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="D324" s="12"/>
     </row>
@@ -6118,10 +6123,10 @@
         <v>320</v>
       </c>
       <c r="B325" s="10" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="C325" s="23" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="D325" s="12"/>
     </row>
@@ -6131,10 +6136,10 @@
         <v>321</v>
       </c>
       <c r="B326" s="10" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="C326" s="23" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="D326" s="12"/>
     </row>
@@ -6144,10 +6149,10 @@
         <v>322</v>
       </c>
       <c r="B327" s="10" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="C327" s="23" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="D327" s="12"/>
     </row>
@@ -6157,10 +6162,10 @@
         <v>323</v>
       </c>
       <c r="B328" s="10" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="C328" s="23" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="D328" s="12"/>
     </row>
@@ -6170,10 +6175,10 @@
         <v>324</v>
       </c>
       <c r="B329" s="10" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="C329" s="23" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="D329" s="12"/>
     </row>
@@ -6183,10 +6188,10 @@
         <v>325</v>
       </c>
       <c r="B330" s="10" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="C330" s="23" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="D330" s="12"/>
     </row>
@@ -6196,10 +6201,10 @@
         <v>326</v>
       </c>
       <c r="B331" s="10" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="C331" s="23" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="D331" s="12"/>
     </row>
@@ -6209,10 +6214,10 @@
         <v>327</v>
       </c>
       <c r="B332" s="10" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="C332" s="23" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="D332" s="12"/>
     </row>
@@ -6222,10 +6227,10 @@
         <v>328</v>
       </c>
       <c r="B333" s="10" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="C333" s="23" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="D333" s="12"/>
     </row>
@@ -6235,10 +6240,10 @@
         <v>329</v>
       </c>
       <c r="B334" s="15" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="C334" s="23" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="D334" s="12"/>
     </row>
@@ -6248,10 +6253,10 @@
         <v>330</v>
       </c>
       <c r="B335" s="15" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="C335" s="23" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="D335" s="12"/>
     </row>
@@ -6261,10 +6266,10 @@
         <v>331</v>
       </c>
       <c r="B336" s="15" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="C336" s="23" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="D336" s="12"/>
     </row>
@@ -6274,10 +6279,10 @@
         <v>332</v>
       </c>
       <c r="B337" s="15" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="C337" s="23" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="D337" s="12"/>
     </row>
@@ -6287,10 +6292,10 @@
         <v>333</v>
       </c>
       <c r="B338" s="15" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="C338" s="23" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D338" s="12"/>
     </row>
@@ -6300,10 +6305,10 @@
         <v>334</v>
       </c>
       <c r="B339" s="15" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="C339" s="23" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="D339" s="12"/>
     </row>
@@ -6313,10 +6318,10 @@
         <v>335</v>
       </c>
       <c r="B340" s="15" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="C340" s="23" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="D340" s="12"/>
     </row>
@@ -6326,10 +6331,10 @@
         <v>336</v>
       </c>
       <c r="B341" s="15" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="C341" s="23" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="D341" s="12"/>
     </row>
@@ -6339,10 +6344,10 @@
         <v>337</v>
       </c>
       <c r="B342" s="15" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="C342" s="23" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="D342" s="12"/>
     </row>
@@ -6352,10 +6357,10 @@
         <v>338</v>
       </c>
       <c r="B343" s="15" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="C343" s="23" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="D343" s="12"/>
     </row>
@@ -6365,10 +6370,10 @@
         <v>339</v>
       </c>
       <c r="B344" s="15" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="C344" s="23" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="D344" s="12"/>
     </row>
@@ -6378,10 +6383,10 @@
         <v>340</v>
       </c>
       <c r="B345" s="15" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="C345" s="23" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="D345" s="12"/>
     </row>
@@ -6391,10 +6396,10 @@
         <v>341</v>
       </c>
       <c r="B346" s="15" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="C346" s="23" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="D346" s="12"/>
     </row>
@@ -6404,10 +6409,10 @@
         <v>342</v>
       </c>
       <c r="B347" s="15" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="C347" s="23" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="D347" s="12"/>
     </row>
@@ -6417,10 +6422,10 @@
         <v>343</v>
       </c>
       <c r="B348" s="15" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="C348" s="23" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="D348" s="12"/>
     </row>
@@ -6430,10 +6435,10 @@
         <v>344</v>
       </c>
       <c r="B349" s="15" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="C349" s="23" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="D349" s="12"/>
     </row>
@@ -6443,10 +6448,10 @@
         <v>345</v>
       </c>
       <c r="B350" s="15" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="C350" s="23" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="D350" s="12"/>
     </row>
@@ -6456,10 +6461,10 @@
         <v>346</v>
       </c>
       <c r="B351" s="15" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="C351" s="23" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="D351" s="12"/>
     </row>
@@ -6469,10 +6474,10 @@
         <v>347</v>
       </c>
       <c r="B352" s="15" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="C352" s="23" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="D352" s="12"/>
     </row>
@@ -6482,10 +6487,10 @@
         <v>348</v>
       </c>
       <c r="B353" s="15" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="C353" s="23" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="D353" s="12"/>
     </row>
@@ -6495,10 +6500,10 @@
         <v>349</v>
       </c>
       <c r="B354" s="15" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="C354" s="23" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="D354" s="12"/>
     </row>
@@ -6508,10 +6513,10 @@
         <v>350</v>
       </c>
       <c r="B355" s="15" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="C355" s="23" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="D355" s="12"/>
     </row>
@@ -6521,10 +6526,10 @@
         <v>351</v>
       </c>
       <c r="B356" s="15" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="C356" s="23" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="D356" s="12"/>
     </row>
@@ -6534,10 +6539,10 @@
         <v>352</v>
       </c>
       <c r="B357" s="15" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="C357" s="23" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="D357" s="12"/>
     </row>
@@ -6547,10 +6552,10 @@
         <v>353</v>
       </c>
       <c r="B358" s="15" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="C358" s="23" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="D358" s="12"/>
     </row>
@@ -6560,10 +6565,10 @@
         <v>354</v>
       </c>
       <c r="B359" s="15" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="C359" s="23" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="D359" s="12"/>
     </row>
@@ -6573,10 +6578,10 @@
         <v>355</v>
       </c>
       <c r="B360" s="15" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="C360" s="23" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="D360" s="12"/>
     </row>
@@ -6586,10 +6591,10 @@
         <v>356</v>
       </c>
       <c r="B361" s="15" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="C361" s="23" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="D361" s="12"/>
     </row>
@@ -6599,10 +6604,10 @@
         <v>357</v>
       </c>
       <c r="B362" s="15" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="C362" s="23" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="D362" s="12"/>
     </row>
@@ -6612,10 +6617,10 @@
         <v>358</v>
       </c>
       <c r="B363" s="15" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="C363" s="23" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="D363" s="12"/>
     </row>
@@ -6625,10 +6630,10 @@
         <v>359</v>
       </c>
       <c r="B364" s="15" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="C364" s="23" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="D364" s="12"/>
     </row>
@@ -6638,10 +6643,10 @@
         <v>360</v>
       </c>
       <c r="B365" s="15" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="C365" s="23" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="D365" s="12"/>
     </row>
@@ -6651,10 +6656,10 @@
         <v>361</v>
       </c>
       <c r="B366" s="15" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="C366" s="23" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="D366" s="12"/>
     </row>
@@ -6664,10 +6669,10 @@
         <v>362</v>
       </c>
       <c r="B367" s="15" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="C367" s="23" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="D367" s="12"/>
     </row>
@@ -6677,10 +6682,10 @@
         <v>363</v>
       </c>
       <c r="B368" s="15" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="C368" s="23" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="D368" s="12"/>
     </row>
@@ -6690,10 +6695,10 @@
         <v>364</v>
       </c>
       <c r="B369" s="15" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="C369" s="23" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="D369" s="12"/>
     </row>
@@ -6703,10 +6708,10 @@
         <v>365</v>
       </c>
       <c r="B370" s="15" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="C370" s="23" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="D370" s="12"/>
     </row>
@@ -6716,10 +6721,10 @@
         <v>366</v>
       </c>
       <c r="B371" s="15" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="C371" s="23" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="D371" s="12"/>
     </row>
@@ -6729,10 +6734,10 @@
         <v>367</v>
       </c>
       <c r="B372" s="15" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="C372" s="23" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="D372" s="12"/>
     </row>
@@ -6742,10 +6747,10 @@
         <v>368</v>
       </c>
       <c r="B373" s="15" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="C373" s="23" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="D373" s="12"/>
     </row>
@@ -6755,10 +6760,10 @@
         <v>369</v>
       </c>
       <c r="B374" s="15" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="C374" s="23" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="D374" s="12"/>
     </row>
@@ -6768,10 +6773,10 @@
         <v>370</v>
       </c>
       <c r="B375" s="15" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="C375" s="23" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="D375" s="12"/>
     </row>
@@ -6781,10 +6786,10 @@
         <v>371</v>
       </c>
       <c r="B376" s="15" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="C376" s="23" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="D376" s="12"/>
     </row>
@@ -6794,10 +6799,10 @@
         <v>372</v>
       </c>
       <c r="B377" s="15" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="C377" s="23" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="D377" s="12"/>
     </row>
@@ -6807,10 +6812,10 @@
         <v>373</v>
       </c>
       <c r="B378" s="10" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="C378" s="23" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="D378" s="12"/>
     </row>
@@ -6820,10 +6825,10 @@
         <v>374</v>
       </c>
       <c r="B379" s="10" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="C379" s="23" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="D379" s="12"/>
     </row>
@@ -6833,10 +6838,10 @@
         <v>375</v>
       </c>
       <c r="B380" s="10" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="C380" s="23" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="D380" s="12"/>
     </row>
@@ -6846,10 +6851,10 @@
         <v>376</v>
       </c>
       <c r="B381" s="10" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="C381" s="23" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D381" s="12"/>
     </row>
@@ -6859,10 +6864,10 @@
         <v>377</v>
       </c>
       <c r="B382" s="10" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="C382" s="23" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="D382" s="12"/>
     </row>
@@ -6872,10 +6877,10 @@
         <v>378</v>
       </c>
       <c r="B383" s="10" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="C383" s="23" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="D383" s="12"/>
     </row>
@@ -6885,10 +6890,10 @@
         <v>379</v>
       </c>
       <c r="B384" s="15" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="C384" s="23" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="D384" s="12"/>
     </row>
@@ -6898,10 +6903,10 @@
         <v>380</v>
       </c>
       <c r="B385" s="15" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="C385" s="23" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="D385" s="12"/>
     </row>
@@ -6911,10 +6916,10 @@
         <v>381</v>
       </c>
       <c r="B386" s="15" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="C386" s="23" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="D386" s="12"/>
     </row>
@@ -6924,10 +6929,10 @@
         <v>382</v>
       </c>
       <c r="B387" s="15" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="C387" s="23" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="D387" s="12"/>
     </row>
@@ -6937,10 +6942,10 @@
         <v>383</v>
       </c>
       <c r="B388" s="15" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="C388" s="23" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="D388" s="12"/>
     </row>
@@ -6950,10 +6955,10 @@
         <v>384</v>
       </c>
       <c r="B389" s="15" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="C389" s="23" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="D389" s="12"/>
     </row>
@@ -6963,10 +6968,10 @@
         <v>385</v>
       </c>
       <c r="B390" s="15" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="C390" s="23" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="D390" s="12"/>
     </row>
@@ -6976,10 +6981,10 @@
         <v>386</v>
       </c>
       <c r="B391" s="15" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="C391" s="23" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="D391" s="12"/>
     </row>
@@ -6989,10 +6994,10 @@
         <v>387</v>
       </c>
       <c r="B392" s="15" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="C392" s="23" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="D392" s="12"/>
     </row>
@@ -7002,10 +7007,10 @@
         <v>388</v>
       </c>
       <c r="B393" s="15" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="C393" s="23" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="D393" s="12"/>
     </row>
@@ -7015,10 +7020,10 @@
         <v>389</v>
       </c>
       <c r="B394" s="15" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="C394" s="23" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="D394" s="12"/>
     </row>
@@ -7028,10 +7033,10 @@
         <v>390</v>
       </c>
       <c r="B395" s="15" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="C395" s="23" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="D395" s="12"/>
     </row>
@@ -7041,10 +7046,10 @@
         <v>391</v>
       </c>
       <c r="B396" s="15" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="C396" s="23" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="D396" s="12"/>
     </row>
@@ -7054,10 +7059,10 @@
         <v>392</v>
       </c>
       <c r="B397" s="15" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="C397" s="23" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="D397" s="12"/>
     </row>
@@ -7067,10 +7072,10 @@
         <v>393</v>
       </c>
       <c r="B398" s="15" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="C398" s="23" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="D398" s="12"/>
     </row>
@@ -7080,10 +7085,10 @@
         <v>394</v>
       </c>
       <c r="B399" s="15" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="C399" s="23" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="D399" s="12"/>
     </row>
@@ -7093,10 +7098,10 @@
         <v>395</v>
       </c>
       <c r="B400" s="15" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="C400" s="23" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="D400" s="12"/>
     </row>
@@ -7106,10 +7111,10 @@
         <v>396</v>
       </c>
       <c r="B401" s="15" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="C401" s="23" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="D401" s="12"/>
     </row>
@@ -7119,10 +7124,10 @@
         <v>397</v>
       </c>
       <c r="B402" s="15" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="C402" s="23" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="D402" s="12"/>
     </row>
@@ -7132,10 +7137,10 @@
         <v>398</v>
       </c>
       <c r="B403" s="15" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="C403" s="23" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="D403" s="12"/>
     </row>
@@ -7145,10 +7150,10 @@
         <v>399</v>
       </c>
       <c r="B404" s="15" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="C404" s="23" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="D404" s="12"/>
     </row>
@@ -7158,10 +7163,10 @@
         <v>400</v>
       </c>
       <c r="B405" s="15" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="C405" s="23" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="D405" s="12"/>
     </row>
@@ -7171,10 +7176,10 @@
         <v>401</v>
       </c>
       <c r="B406" s="15" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="C406" s="23" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="D406" s="12"/>
     </row>
@@ -7184,10 +7189,10 @@
         <v>402</v>
       </c>
       <c r="B407" s="15" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="C407" s="23" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="D407" s="12"/>
     </row>
@@ -7197,10 +7202,10 @@
         <v>403</v>
       </c>
       <c r="B408" s="15" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="C408" s="23" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="D408" s="12"/>
     </row>
@@ -7210,10 +7215,10 @@
         <v>404</v>
       </c>
       <c r="B409" s="15" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="C409" s="23" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="D409" s="12"/>
     </row>
@@ -7223,10 +7228,10 @@
         <v>405</v>
       </c>
       <c r="B410" s="15" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="C410" s="23" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="D410" s="12"/>
     </row>
@@ -7236,10 +7241,10 @@
         <v>406</v>
       </c>
       <c r="B411" s="15" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="C411" s="23" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="D411" s="12"/>
     </row>
@@ -7249,10 +7254,10 @@
         <v>407</v>
       </c>
       <c r="B412" s="15" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="C412" s="23" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="D412" s="12"/>
     </row>
@@ -7262,10 +7267,10 @@
         <v>408</v>
       </c>
       <c r="B413" s="15" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="C413" s="23" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="D413" s="12"/>
     </row>
@@ -7275,10 +7280,10 @@
         <v>409</v>
       </c>
       <c r="B414" s="15" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="C414" s="23" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="D414" s="12"/>
     </row>
@@ -7288,10 +7293,10 @@
         <v>410</v>
       </c>
       <c r="B415" s="15" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="C415" s="23" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="D415" s="12"/>
     </row>
@@ -7301,10 +7306,10 @@
         <v>411</v>
       </c>
       <c r="B416" s="15" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="C416" s="23" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="D416" s="12"/>
     </row>
@@ -7314,10 +7319,10 @@
         <v>412</v>
       </c>
       <c r="B417" s="15" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="C417" s="23" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="D417" s="12"/>
     </row>
@@ -7327,10 +7332,10 @@
         <v>413</v>
       </c>
       <c r="B418" s="15" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="C418" s="23" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="D418" s="12"/>
     </row>
@@ -7340,10 +7345,10 @@
         <v>414</v>
       </c>
       <c r="B419" s="15" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="C419" s="23" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="D419" s="12"/>
     </row>
@@ -7353,10 +7358,10 @@
         <v>415</v>
       </c>
       <c r="B420" s="15" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="C420" s="23" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="D420" s="12"/>
     </row>
@@ -7366,10 +7371,10 @@
         <v>416</v>
       </c>
       <c r="B421" s="15" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="C421" s="23" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="D421" s="12"/>
     </row>
@@ -7379,10 +7384,10 @@
         <v>417</v>
       </c>
       <c r="B422" s="15" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="C422" s="23" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="D422" s="12"/>
     </row>
@@ -7392,10 +7397,10 @@
         <v>418</v>
       </c>
       <c r="B423" s="15" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="C423" s="23" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="D423" s="12"/>
     </row>
@@ -7405,10 +7410,10 @@
         <v>419</v>
       </c>
       <c r="B424" s="15" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="C424" s="23" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="D424" s="12"/>
     </row>
@@ -7418,10 +7423,10 @@
         <v>420</v>
       </c>
       <c r="B425" s="15" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="C425" s="23" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="D425" s="12"/>
     </row>
@@ -7431,10 +7436,10 @@
         <v>421</v>
       </c>
       <c r="B426" s="15" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="C426" s="23" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="D426" s="12"/>
     </row>
@@ -7444,10 +7449,10 @@
         <v>422</v>
       </c>
       <c r="B427" s="15" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="C427" s="23" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="D427" s="12"/>
     </row>
@@ -7457,10 +7462,10 @@
         <v>423</v>
       </c>
       <c r="B428" s="15" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="C428" s="23" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="D428" s="12"/>
     </row>
@@ -7470,10 +7475,10 @@
         <v>424</v>
       </c>
       <c r="B429" s="15" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="C429" s="23" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="D429" s="12"/>
     </row>
@@ -7483,10 +7488,10 @@
         <v>425</v>
       </c>
       <c r="B430" s="15" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="C430" s="23" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="D430" s="12"/>
     </row>
@@ -7496,10 +7501,10 @@
         <v>426</v>
       </c>
       <c r="B431" s="15" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="C431" s="23" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="D431" s="12"/>
     </row>
@@ -7509,10 +7514,10 @@
         <v>427</v>
       </c>
       <c r="B432" s="15" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="C432" s="23" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="D432" s="12"/>
     </row>
@@ -7522,10 +7527,10 @@
         <v>428</v>
       </c>
       <c r="B433" s="15" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="C433" s="23" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="D433" s="12"/>
     </row>
@@ -7535,10 +7540,10 @@
         <v>429</v>
       </c>
       <c r="B434" s="15" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="C434" s="23" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="D434" s="12"/>
     </row>
@@ -7548,10 +7553,10 @@
         <v>430</v>
       </c>
       <c r="B435" s="15" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="C435" s="23" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="D435" s="12"/>
     </row>
@@ -7561,10 +7566,10 @@
         <v>431</v>
       </c>
       <c r="B436" s="15" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="C436" s="23" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="D436" s="12"/>
     </row>
@@ -7574,10 +7579,10 @@
         <v>432</v>
       </c>
       <c r="B437" s="15" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="C437" s="23" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="D437" s="12"/>
     </row>
@@ -7587,10 +7592,10 @@
         <v>433</v>
       </c>
       <c r="B438" s="15" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="C438" s="23" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="D438" s="12"/>
     </row>
@@ -7600,10 +7605,10 @@
         <v>434</v>
       </c>
       <c r="B439" s="15" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="C439" s="23" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="D439" s="12"/>
     </row>
@@ -7613,10 +7618,10 @@
         <v>435</v>
       </c>
       <c r="B440" s="15" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="C440" s="23" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="D440" s="12"/>
     </row>
@@ -7626,10 +7631,10 @@
         <v>436</v>
       </c>
       <c r="B441" s="15" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="C441" s="23" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="D441" s="12"/>
     </row>
@@ -7639,10 +7644,10 @@
         <v>437</v>
       </c>
       <c r="B442" s="15" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="C442" s="23" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="D442" s="12"/>
     </row>
@@ -7652,10 +7657,10 @@
         <v>438</v>
       </c>
       <c r="B443" s="15" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="C443" s="23" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="D443" s="12"/>
     </row>
@@ -7665,10 +7670,10 @@
         <v>439</v>
       </c>
       <c r="B444" s="10" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="C444" s="23" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="D444" s="12"/>
     </row>
@@ -7678,10 +7683,10 @@
         <v>440</v>
       </c>
       <c r="B445" s="10" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="C445" s="23" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="D445" s="12"/>
     </row>
@@ -7691,10 +7696,10 @@
         <v>441</v>
       </c>
       <c r="B446" s="10" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="C446" s="23" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="D446" s="12"/>
     </row>
@@ -7704,10 +7709,10 @@
         <v>442</v>
       </c>
       <c r="B447" s="10" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="C447" s="23" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="D447" s="12"/>
     </row>
@@ -7717,10 +7722,10 @@
         <v>443</v>
       </c>
       <c r="B448" s="10" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="C448" s="23" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="D448" s="12"/>
     </row>
@@ -7730,10 +7735,10 @@
         <v>444</v>
       </c>
       <c r="B449" s="10" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="C449" s="23" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="D449" s="12"/>
     </row>
@@ -7743,10 +7748,10 @@
         <v>445</v>
       </c>
       <c r="B450" s="10" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="C450" s="23" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="D450" s="12"/>
     </row>
@@ -7756,10 +7761,10 @@
         <v>446</v>
       </c>
       <c r="B451" s="10" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="C451" s="23" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="D451" s="12"/>
     </row>
@@ -7769,10 +7774,10 @@
         <v>447</v>
       </c>
       <c r="B452" s="10" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="C452" s="23" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="D452" s="12"/>
     </row>
@@ -7782,10 +7787,10 @@
         <v>448</v>
       </c>
       <c r="B453" s="10" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="C453" s="23" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="D453" s="12"/>
     </row>

--- a/DSA_450_LoveBabbar.xlsx
+++ b/DSA_450_LoveBabbar.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="908" uniqueCount="471">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="909" uniqueCount="472">
   <si>
     <t xml:space="preserve">Questions by Love Babbar:</t>
   </si>
@@ -292,7 +292,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color rgb="FF81D41A"/>
+        <color rgb="FF00A933"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="1"/>
@@ -314,6 +314,9 @@
   </si>
   <si>
     <t xml:space="preserve">Word break Problem[ Very Imp]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A good one</t>
   </si>
   <si>
     <t xml:space="preserve">Rabin Karp Algo</t>
@@ -1619,8 +1622,9 @@
       <charset val="1"/>
     </font>
     <font>
+      <i val="true"/>
       <sz val="12"/>
-      <color rgb="FF81D41A"/>
+      <color rgb="FF00A933"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
@@ -1740,7 +1744,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1830,6 +1834,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1925,11 +1933,11 @@
   </sheetPr>
   <dimension ref="A1:D467"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A49" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E66" activeCellId="0" sqref="E66"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A53" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C68" activeCellId="0" sqref="C68"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.74609375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.7578125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.63"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="28.24"/>
@@ -2764,7 +2772,7 @@
       <c r="B66" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="C66" s="23" t="s">
+      <c r="C66" s="11" t="s">
         <v>74</v>
       </c>
       <c r="D66" s="12" t="s">
@@ -2792,10 +2800,12 @@
       <c r="B68" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="C68" s="23" t="s">
+      <c r="C68" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="D68" s="12"/>
+      <c r="D68" s="23" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="69" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="6" t="n">
@@ -2805,8 +2815,8 @@
       <c r="B69" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="C69" s="23" t="s">
-        <v>78</v>
+      <c r="C69" s="24" t="s">
+        <v>79</v>
       </c>
       <c r="D69" s="12"/>
     </row>
@@ -2818,8 +2828,8 @@
       <c r="B70" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="C70" s="23" t="s">
-        <v>79</v>
+      <c r="C70" s="24" t="s">
+        <v>80</v>
       </c>
       <c r="D70" s="12"/>
     </row>
@@ -2831,8 +2841,8 @@
       <c r="B71" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="C71" s="23" t="s">
-        <v>80</v>
+      <c r="C71" s="24" t="s">
+        <v>81</v>
       </c>
       <c r="D71" s="12"/>
     </row>
@@ -2844,8 +2854,8 @@
       <c r="B72" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="C72" s="23" t="s">
-        <v>81</v>
+      <c r="C72" s="24" t="s">
+        <v>82</v>
       </c>
       <c r="D72" s="12"/>
     </row>
@@ -2857,8 +2867,8 @@
       <c r="B73" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="C73" s="23" t="s">
-        <v>82</v>
+      <c r="C73" s="24" t="s">
+        <v>83</v>
       </c>
       <c r="D73" s="12"/>
     </row>
@@ -2870,8 +2880,8 @@
       <c r="B74" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="C74" s="23" t="s">
-        <v>83</v>
+      <c r="C74" s="24" t="s">
+        <v>84</v>
       </c>
       <c r="D74" s="12"/>
     </row>
@@ -2883,8 +2893,8 @@
       <c r="B75" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="C75" s="23" t="s">
-        <v>84</v>
+      <c r="C75" s="24" t="s">
+        <v>85</v>
       </c>
       <c r="D75" s="12"/>
     </row>
@@ -2896,8 +2906,8 @@
       <c r="B76" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="C76" s="23" t="s">
-        <v>85</v>
+      <c r="C76" s="24" t="s">
+        <v>86</v>
       </c>
       <c r="D76" s="12"/>
     </row>
@@ -2909,8 +2919,8 @@
       <c r="B77" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="C77" s="23" t="s">
-        <v>86</v>
+      <c r="C77" s="24" t="s">
+        <v>87</v>
       </c>
       <c r="D77" s="12"/>
     </row>
@@ -2922,8 +2932,8 @@
       <c r="B78" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="C78" s="23" t="s">
-        <v>87</v>
+      <c r="C78" s="24" t="s">
+        <v>88</v>
       </c>
       <c r="D78" s="12"/>
     </row>
@@ -2935,8 +2945,8 @@
       <c r="B79" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="C79" s="23" t="s">
-        <v>88</v>
+      <c r="C79" s="24" t="s">
+        <v>89</v>
       </c>
       <c r="D79" s="12"/>
     </row>
@@ -2948,8 +2958,8 @@
       <c r="B80" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="C80" s="23" t="s">
-        <v>89</v>
+      <c r="C80" s="24" t="s">
+        <v>90</v>
       </c>
       <c r="D80" s="12"/>
     </row>
@@ -2961,8 +2971,8 @@
       <c r="B81" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="C81" s="23" t="s">
-        <v>90</v>
+      <c r="C81" s="24" t="s">
+        <v>91</v>
       </c>
       <c r="D81" s="12"/>
     </row>
@@ -2974,8 +2984,8 @@
       <c r="B82" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="C82" s="23" t="s">
-        <v>91</v>
+      <c r="C82" s="24" t="s">
+        <v>92</v>
       </c>
       <c r="D82" s="12"/>
     </row>
@@ -2987,8 +2997,8 @@
       <c r="B83" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="C83" s="23" t="s">
-        <v>92</v>
+      <c r="C83" s="24" t="s">
+        <v>93</v>
       </c>
       <c r="D83" s="12"/>
     </row>
@@ -3000,8 +3010,8 @@
       <c r="B84" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="C84" s="23" t="s">
-        <v>93</v>
+      <c r="C84" s="24" t="s">
+        <v>94</v>
       </c>
       <c r="D84" s="12"/>
     </row>
@@ -3013,8 +3023,8 @@
       <c r="B85" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="C85" s="23" t="s">
-        <v>94</v>
+      <c r="C85" s="24" t="s">
+        <v>95</v>
       </c>
       <c r="D85" s="12"/>
     </row>
@@ -3026,8 +3036,8 @@
       <c r="B86" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="C86" s="23" t="s">
-        <v>95</v>
+      <c r="C86" s="24" t="s">
+        <v>96</v>
       </c>
       <c r="D86" s="12"/>
     </row>
@@ -3039,8 +3049,8 @@
       <c r="B87" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="C87" s="23" t="s">
-        <v>96</v>
+      <c r="C87" s="24" t="s">
+        <v>97</v>
       </c>
       <c r="D87" s="12"/>
     </row>
@@ -3052,8 +3062,8 @@
       <c r="B88" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="C88" s="23" t="s">
-        <v>97</v>
+      <c r="C88" s="24" t="s">
+        <v>98</v>
       </c>
       <c r="D88" s="12"/>
     </row>
@@ -3065,8 +3075,8 @@
       <c r="B89" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="C89" s="23" t="s">
-        <v>98</v>
+      <c r="C89" s="24" t="s">
+        <v>99</v>
       </c>
       <c r="D89" s="12"/>
     </row>
@@ -3078,8 +3088,8 @@
       <c r="B90" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="C90" s="23" t="s">
-        <v>99</v>
+      <c r="C90" s="24" t="s">
+        <v>100</v>
       </c>
       <c r="D90" s="12"/>
     </row>
@@ -3091,8 +3101,8 @@
       <c r="B91" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="C91" s="23" t="s">
-        <v>100</v>
+      <c r="C91" s="24" t="s">
+        <v>101</v>
       </c>
       <c r="D91" s="12"/>
     </row>
@@ -3104,8 +3114,8 @@
       <c r="B92" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="C92" s="23" t="s">
-        <v>101</v>
+      <c r="C92" s="24" t="s">
+        <v>102</v>
       </c>
       <c r="D92" s="12"/>
     </row>
@@ -3117,8 +3127,8 @@
       <c r="B93" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="C93" s="23" t="s">
-        <v>102</v>
+      <c r="C93" s="24" t="s">
+        <v>103</v>
       </c>
       <c r="D93" s="12"/>
     </row>
@@ -3130,8 +3140,8 @@
       <c r="B94" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="C94" s="23" t="s">
-        <v>103</v>
+      <c r="C94" s="24" t="s">
+        <v>104</v>
       </c>
       <c r="D94" s="12"/>
     </row>
@@ -3141,10 +3151,10 @@
         <v>90</v>
       </c>
       <c r="B95" s="15" t="s">
-        <v>104</v>
-      </c>
-      <c r="C95" s="23" t="s">
         <v>105</v>
+      </c>
+      <c r="C95" s="24" t="s">
+        <v>106</v>
       </c>
       <c r="D95" s="12"/>
     </row>
@@ -3154,10 +3164,10 @@
         <v>91</v>
       </c>
       <c r="B96" s="15" t="s">
-        <v>104</v>
-      </c>
-      <c r="C96" s="23" t="s">
-        <v>106</v>
+        <v>105</v>
+      </c>
+      <c r="C96" s="24" t="s">
+        <v>107</v>
       </c>
       <c r="D96" s="12"/>
     </row>
@@ -3167,10 +3177,10 @@
         <v>92</v>
       </c>
       <c r="B97" s="15" t="s">
-        <v>104</v>
-      </c>
-      <c r="C97" s="23" t="s">
-        <v>107</v>
+        <v>105</v>
+      </c>
+      <c r="C97" s="24" t="s">
+        <v>108</v>
       </c>
       <c r="D97" s="12"/>
     </row>
@@ -3180,10 +3190,10 @@
         <v>93</v>
       </c>
       <c r="B98" s="15" t="s">
-        <v>104</v>
-      </c>
-      <c r="C98" s="23" t="s">
-        <v>108</v>
+        <v>105</v>
+      </c>
+      <c r="C98" s="24" t="s">
+        <v>109</v>
       </c>
       <c r="D98" s="12"/>
     </row>
@@ -3193,10 +3203,10 @@
         <v>94</v>
       </c>
       <c r="B99" s="15" t="s">
-        <v>104</v>
-      </c>
-      <c r="C99" s="23" t="s">
-        <v>109</v>
+        <v>105</v>
+      </c>
+      <c r="C99" s="24" t="s">
+        <v>110</v>
       </c>
       <c r="D99" s="12"/>
     </row>
@@ -3206,10 +3216,10 @@
         <v>95</v>
       </c>
       <c r="B100" s="15" t="s">
-        <v>104</v>
-      </c>
-      <c r="C100" s="23" t="s">
-        <v>110</v>
+        <v>105</v>
+      </c>
+      <c r="C100" s="24" t="s">
+        <v>111</v>
       </c>
       <c r="D100" s="12"/>
     </row>
@@ -3219,10 +3229,10 @@
         <v>96</v>
       </c>
       <c r="B101" s="15" t="s">
-        <v>104</v>
-      </c>
-      <c r="C101" s="23" t="s">
-        <v>111</v>
+        <v>105</v>
+      </c>
+      <c r="C101" s="24" t="s">
+        <v>112</v>
       </c>
       <c r="D101" s="12"/>
     </row>
@@ -3232,10 +3242,10 @@
         <v>97</v>
       </c>
       <c r="B102" s="15" t="s">
-        <v>104</v>
-      </c>
-      <c r="C102" s="23" t="s">
-        <v>112</v>
+        <v>105</v>
+      </c>
+      <c r="C102" s="24" t="s">
+        <v>113</v>
       </c>
       <c r="D102" s="12"/>
     </row>
@@ -3245,10 +3255,10 @@
         <v>98</v>
       </c>
       <c r="B103" s="15" t="s">
-        <v>104</v>
-      </c>
-      <c r="C103" s="23" t="s">
-        <v>113</v>
+        <v>105</v>
+      </c>
+      <c r="C103" s="24" t="s">
+        <v>114</v>
       </c>
       <c r="D103" s="12"/>
     </row>
@@ -3258,10 +3268,10 @@
         <v>99</v>
       </c>
       <c r="B104" s="15" t="s">
-        <v>104</v>
-      </c>
-      <c r="C104" s="23" t="s">
-        <v>114</v>
+        <v>105</v>
+      </c>
+      <c r="C104" s="24" t="s">
+        <v>115</v>
       </c>
       <c r="D104" s="12"/>
     </row>
@@ -3271,10 +3281,10 @@
         <v>100</v>
       </c>
       <c r="B105" s="15" t="s">
-        <v>104</v>
-      </c>
-      <c r="C105" s="23" t="s">
-        <v>115</v>
+        <v>105</v>
+      </c>
+      <c r="C105" s="24" t="s">
+        <v>116</v>
       </c>
       <c r="D105" s="12"/>
     </row>
@@ -3284,10 +3294,10 @@
         <v>101</v>
       </c>
       <c r="B106" s="15" t="s">
-        <v>104</v>
-      </c>
-      <c r="C106" s="23" t="s">
-        <v>116</v>
+        <v>105</v>
+      </c>
+      <c r="C106" s="24" t="s">
+        <v>117</v>
       </c>
       <c r="D106" s="12"/>
     </row>
@@ -3297,10 +3307,10 @@
         <v>102</v>
       </c>
       <c r="B107" s="15" t="s">
-        <v>104</v>
-      </c>
-      <c r="C107" s="23" t="s">
-        <v>117</v>
+        <v>105</v>
+      </c>
+      <c r="C107" s="24" t="s">
+        <v>118</v>
       </c>
       <c r="D107" s="12"/>
     </row>
@@ -3310,10 +3320,10 @@
         <v>103</v>
       </c>
       <c r="B108" s="15" t="s">
-        <v>104</v>
-      </c>
-      <c r="C108" s="23" t="s">
-        <v>118</v>
+        <v>105</v>
+      </c>
+      <c r="C108" s="24" t="s">
+        <v>119</v>
       </c>
       <c r="D108" s="12"/>
     </row>
@@ -3323,10 +3333,10 @@
         <v>104</v>
       </c>
       <c r="B109" s="15" t="s">
-        <v>104</v>
-      </c>
-      <c r="C109" s="23" t="s">
-        <v>119</v>
+        <v>105</v>
+      </c>
+      <c r="C109" s="24" t="s">
+        <v>120</v>
       </c>
       <c r="D109" s="12"/>
     </row>
@@ -3336,10 +3346,10 @@
         <v>105</v>
       </c>
       <c r="B110" s="15" t="s">
-        <v>104</v>
-      </c>
-      <c r="C110" s="23" t="s">
-        <v>120</v>
+        <v>105</v>
+      </c>
+      <c r="C110" s="24" t="s">
+        <v>121</v>
       </c>
       <c r="D110" s="12"/>
     </row>
@@ -3349,10 +3359,10 @@
         <v>106</v>
       </c>
       <c r="B111" s="15" t="s">
-        <v>104</v>
-      </c>
-      <c r="C111" s="23" t="s">
-        <v>121</v>
+        <v>105</v>
+      </c>
+      <c r="C111" s="24" t="s">
+        <v>122</v>
       </c>
       <c r="D111" s="12"/>
     </row>
@@ -3362,10 +3372,10 @@
         <v>107</v>
       </c>
       <c r="B112" s="15" t="s">
-        <v>104</v>
-      </c>
-      <c r="C112" s="23" t="s">
-        <v>122</v>
+        <v>105</v>
+      </c>
+      <c r="C112" s="24" t="s">
+        <v>123</v>
       </c>
       <c r="D112" s="12"/>
     </row>
@@ -3375,10 +3385,10 @@
         <v>108</v>
       </c>
       <c r="B113" s="15" t="s">
-        <v>104</v>
-      </c>
-      <c r="C113" s="23" t="s">
-        <v>123</v>
+        <v>105</v>
+      </c>
+      <c r="C113" s="24" t="s">
+        <v>124</v>
       </c>
       <c r="D113" s="12"/>
     </row>
@@ -3388,10 +3398,10 @@
         <v>109</v>
       </c>
       <c r="B114" s="15" t="s">
-        <v>104</v>
-      </c>
-      <c r="C114" s="23" t="s">
-        <v>124</v>
+        <v>105</v>
+      </c>
+      <c r="C114" s="24" t="s">
+        <v>125</v>
       </c>
       <c r="D114" s="12"/>
     </row>
@@ -3401,10 +3411,10 @@
         <v>110</v>
       </c>
       <c r="B115" s="15" t="s">
-        <v>104</v>
-      </c>
-      <c r="C115" s="23" t="s">
-        <v>125</v>
+        <v>105</v>
+      </c>
+      <c r="C115" s="24" t="s">
+        <v>126</v>
       </c>
       <c r="D115" s="12"/>
     </row>
@@ -3414,10 +3424,10 @@
         <v>111</v>
       </c>
       <c r="B116" s="15" t="s">
-        <v>104</v>
-      </c>
-      <c r="C116" s="23" t="s">
-        <v>126</v>
+        <v>105</v>
+      </c>
+      <c r="C116" s="24" t="s">
+        <v>127</v>
       </c>
       <c r="D116" s="12"/>
     </row>
@@ -3427,10 +3437,10 @@
         <v>112</v>
       </c>
       <c r="B117" s="15" t="s">
-        <v>104</v>
-      </c>
-      <c r="C117" s="23" t="s">
-        <v>127</v>
+        <v>105</v>
+      </c>
+      <c r="C117" s="24" t="s">
+        <v>128</v>
       </c>
       <c r="D117" s="12"/>
     </row>
@@ -3440,10 +3450,10 @@
         <v>113</v>
       </c>
       <c r="B118" s="15" t="s">
-        <v>104</v>
-      </c>
-      <c r="C118" s="23" t="s">
-        <v>128</v>
+        <v>105</v>
+      </c>
+      <c r="C118" s="24" t="s">
+        <v>129</v>
       </c>
       <c r="D118" s="12"/>
     </row>
@@ -3453,10 +3463,10 @@
         <v>114</v>
       </c>
       <c r="B119" s="15" t="s">
-        <v>104</v>
-      </c>
-      <c r="C119" s="23" t="s">
-        <v>129</v>
+        <v>105</v>
+      </c>
+      <c r="C119" s="24" t="s">
+        <v>130</v>
       </c>
       <c r="D119" s="12"/>
     </row>
@@ -3466,10 +3476,10 @@
         <v>115</v>
       </c>
       <c r="B120" s="15" t="s">
-        <v>104</v>
-      </c>
-      <c r="C120" s="23" t="s">
-        <v>130</v>
+        <v>105</v>
+      </c>
+      <c r="C120" s="24" t="s">
+        <v>131</v>
       </c>
       <c r="D120" s="12"/>
     </row>
@@ -3479,10 +3489,10 @@
         <v>116</v>
       </c>
       <c r="B121" s="15" t="s">
-        <v>104</v>
-      </c>
-      <c r="C121" s="23" t="s">
-        <v>131</v>
+        <v>105</v>
+      </c>
+      <c r="C121" s="24" t="s">
+        <v>132</v>
       </c>
       <c r="D121" s="12"/>
     </row>
@@ -3492,10 +3502,10 @@
         <v>117</v>
       </c>
       <c r="B122" s="15" t="s">
-        <v>104</v>
-      </c>
-      <c r="C122" s="23" t="s">
-        <v>132</v>
+        <v>105</v>
+      </c>
+      <c r="C122" s="24" t="s">
+        <v>133</v>
       </c>
       <c r="D122" s="12"/>
     </row>
@@ -3505,10 +3515,10 @@
         <v>118</v>
       </c>
       <c r="B123" s="15" t="s">
-        <v>104</v>
-      </c>
-      <c r="C123" s="23" t="s">
-        <v>133</v>
+        <v>105</v>
+      </c>
+      <c r="C123" s="24" t="s">
+        <v>134</v>
       </c>
       <c r="D123" s="12"/>
     </row>
@@ -3518,10 +3528,10 @@
         <v>119</v>
       </c>
       <c r="B124" s="15" t="s">
-        <v>104</v>
-      </c>
-      <c r="C124" s="23" t="s">
-        <v>134</v>
+        <v>105</v>
+      </c>
+      <c r="C124" s="24" t="s">
+        <v>135</v>
       </c>
       <c r="D124" s="12"/>
     </row>
@@ -3531,10 +3541,10 @@
         <v>120</v>
       </c>
       <c r="B125" s="15" t="s">
-        <v>104</v>
-      </c>
-      <c r="C125" s="23" t="s">
-        <v>135</v>
+        <v>105</v>
+      </c>
+      <c r="C125" s="24" t="s">
+        <v>136</v>
       </c>
       <c r="D125" s="12"/>
     </row>
@@ -3544,10 +3554,10 @@
         <v>121</v>
       </c>
       <c r="B126" s="15" t="s">
-        <v>104</v>
-      </c>
-      <c r="C126" s="23" t="s">
-        <v>136</v>
+        <v>105</v>
+      </c>
+      <c r="C126" s="24" t="s">
+        <v>137</v>
       </c>
       <c r="D126" s="12"/>
     </row>
@@ -3557,10 +3567,10 @@
         <v>122</v>
       </c>
       <c r="B127" s="15" t="s">
-        <v>104</v>
-      </c>
-      <c r="C127" s="23" t="s">
-        <v>137</v>
+        <v>105</v>
+      </c>
+      <c r="C127" s="24" t="s">
+        <v>138</v>
       </c>
       <c r="D127" s="12"/>
     </row>
@@ -3570,10 +3580,10 @@
         <v>123</v>
       </c>
       <c r="B128" s="15" t="s">
-        <v>104</v>
-      </c>
-      <c r="C128" s="23" t="s">
-        <v>138</v>
+        <v>105</v>
+      </c>
+      <c r="C128" s="24" t="s">
+        <v>139</v>
       </c>
       <c r="D128" s="12"/>
     </row>
@@ -3583,10 +3593,10 @@
         <v>124</v>
       </c>
       <c r="B129" s="15" t="s">
-        <v>104</v>
-      </c>
-      <c r="C129" s="23" t="s">
-        <v>139</v>
+        <v>105</v>
+      </c>
+      <c r="C129" s="24" t="s">
+        <v>140</v>
       </c>
       <c r="D129" s="12"/>
     </row>
@@ -3596,10 +3606,10 @@
         <v>125</v>
       </c>
       <c r="B130" s="15" t="s">
-        <v>104</v>
-      </c>
-      <c r="C130" s="23" t="s">
-        <v>140</v>
+        <v>105</v>
+      </c>
+      <c r="C130" s="24" t="s">
+        <v>141</v>
       </c>
       <c r="D130" s="12"/>
     </row>
@@ -3609,10 +3619,10 @@
         <v>126</v>
       </c>
       <c r="B131" s="10" t="s">
-        <v>141</v>
-      </c>
-      <c r="C131" s="23" t="s">
         <v>142</v>
+      </c>
+      <c r="C131" s="24" t="s">
+        <v>143</v>
       </c>
       <c r="D131" s="12"/>
     </row>
@@ -3622,10 +3632,10 @@
         <v>127</v>
       </c>
       <c r="B132" s="10" t="s">
-        <v>141</v>
-      </c>
-      <c r="C132" s="23" t="s">
-        <v>143</v>
+        <v>142</v>
+      </c>
+      <c r="C132" s="24" t="s">
+        <v>144</v>
       </c>
       <c r="D132" s="12"/>
     </row>
@@ -3635,10 +3645,10 @@
         <v>128</v>
       </c>
       <c r="B133" s="10" t="s">
-        <v>141</v>
-      </c>
-      <c r="C133" s="23" t="s">
-        <v>144</v>
+        <v>142</v>
+      </c>
+      <c r="C133" s="24" t="s">
+        <v>145</v>
       </c>
       <c r="D133" s="12"/>
     </row>
@@ -3648,10 +3658,10 @@
         <v>129</v>
       </c>
       <c r="B134" s="10" t="s">
-        <v>141</v>
-      </c>
-      <c r="C134" s="23" t="s">
-        <v>145</v>
+        <v>142</v>
+      </c>
+      <c r="C134" s="24" t="s">
+        <v>146</v>
       </c>
       <c r="D134" s="12"/>
     </row>
@@ -3661,10 +3671,10 @@
         <v>130</v>
       </c>
       <c r="B135" s="10" t="s">
-        <v>141</v>
-      </c>
-      <c r="C135" s="23" t="s">
-        <v>146</v>
+        <v>142</v>
+      </c>
+      <c r="C135" s="24" t="s">
+        <v>147</v>
       </c>
       <c r="D135" s="12"/>
     </row>
@@ -3674,10 +3684,10 @@
         <v>131</v>
       </c>
       <c r="B136" s="10" t="s">
-        <v>141</v>
-      </c>
-      <c r="C136" s="23" t="s">
-        <v>147</v>
+        <v>142</v>
+      </c>
+      <c r="C136" s="24" t="s">
+        <v>148</v>
       </c>
       <c r="D136" s="12"/>
     </row>
@@ -3687,10 +3697,10 @@
         <v>132</v>
       </c>
       <c r="B137" s="10" t="s">
-        <v>141</v>
-      </c>
-      <c r="C137" s="23" t="s">
-        <v>148</v>
+        <v>142</v>
+      </c>
+      <c r="C137" s="24" t="s">
+        <v>149</v>
       </c>
       <c r="D137" s="12"/>
     </row>
@@ -3700,10 +3710,10 @@
         <v>133</v>
       </c>
       <c r="B138" s="10" t="s">
-        <v>141</v>
-      </c>
-      <c r="C138" s="23" t="s">
-        <v>149</v>
+        <v>142</v>
+      </c>
+      <c r="C138" s="24" t="s">
+        <v>150</v>
       </c>
       <c r="D138" s="12"/>
     </row>
@@ -3713,10 +3723,10 @@
         <v>134</v>
       </c>
       <c r="B139" s="10" t="s">
-        <v>141</v>
-      </c>
-      <c r="C139" s="23" t="s">
-        <v>150</v>
+        <v>142</v>
+      </c>
+      <c r="C139" s="24" t="s">
+        <v>151</v>
       </c>
       <c r="D139" s="12"/>
     </row>
@@ -3726,10 +3736,10 @@
         <v>135</v>
       </c>
       <c r="B140" s="10" t="s">
-        <v>141</v>
-      </c>
-      <c r="C140" s="23" t="s">
-        <v>151</v>
+        <v>142</v>
+      </c>
+      <c r="C140" s="24" t="s">
+        <v>152</v>
       </c>
       <c r="D140" s="12"/>
     </row>
@@ -3739,10 +3749,10 @@
         <v>136</v>
       </c>
       <c r="B141" s="10" t="s">
-        <v>141</v>
-      </c>
-      <c r="C141" s="23" t="s">
-        <v>152</v>
+        <v>142</v>
+      </c>
+      <c r="C141" s="24" t="s">
+        <v>153</v>
       </c>
       <c r="D141" s="12"/>
     </row>
@@ -3752,10 +3762,10 @@
         <v>137</v>
       </c>
       <c r="B142" s="10" t="s">
-        <v>141</v>
-      </c>
-      <c r="C142" s="23" t="s">
-        <v>153</v>
+        <v>142</v>
+      </c>
+      <c r="C142" s="24" t="s">
+        <v>154</v>
       </c>
       <c r="D142" s="12"/>
     </row>
@@ -3765,10 +3775,10 @@
         <v>138</v>
       </c>
       <c r="B143" s="10" t="s">
-        <v>141</v>
-      </c>
-      <c r="C143" s="23" t="s">
-        <v>154</v>
+        <v>142</v>
+      </c>
+      <c r="C143" s="24" t="s">
+        <v>155</v>
       </c>
       <c r="D143" s="12"/>
     </row>
@@ -3778,10 +3788,10 @@
         <v>139</v>
       </c>
       <c r="B144" s="10" t="s">
-        <v>141</v>
-      </c>
-      <c r="C144" s="23" t="s">
-        <v>155</v>
+        <v>142</v>
+      </c>
+      <c r="C144" s="24" t="s">
+        <v>156</v>
       </c>
       <c r="D144" s="12"/>
     </row>
@@ -3791,10 +3801,10 @@
         <v>140</v>
       </c>
       <c r="B145" s="10" t="s">
-        <v>141</v>
-      </c>
-      <c r="C145" s="23" t="s">
-        <v>156</v>
+        <v>142</v>
+      </c>
+      <c r="C145" s="24" t="s">
+        <v>157</v>
       </c>
       <c r="D145" s="12"/>
     </row>
@@ -3804,10 +3814,10 @@
         <v>141</v>
       </c>
       <c r="B146" s="10" t="s">
-        <v>141</v>
-      </c>
-      <c r="C146" s="23" t="s">
-        <v>157</v>
+        <v>142</v>
+      </c>
+      <c r="C146" s="24" t="s">
+        <v>158</v>
       </c>
       <c r="D146" s="12"/>
     </row>
@@ -3817,10 +3827,10 @@
         <v>142</v>
       </c>
       <c r="B147" s="10" t="s">
-        <v>141</v>
-      </c>
-      <c r="C147" s="23" t="s">
-        <v>158</v>
+        <v>142</v>
+      </c>
+      <c r="C147" s="24" t="s">
+        <v>159</v>
       </c>
       <c r="D147" s="12"/>
     </row>
@@ -3830,10 +3840,10 @@
         <v>143</v>
       </c>
       <c r="B148" s="10" t="s">
-        <v>141</v>
-      </c>
-      <c r="C148" s="23" t="s">
-        <v>159</v>
+        <v>142</v>
+      </c>
+      <c r="C148" s="24" t="s">
+        <v>160</v>
       </c>
       <c r="D148" s="12"/>
     </row>
@@ -3843,10 +3853,10 @@
         <v>144</v>
       </c>
       <c r="B149" s="10" t="s">
-        <v>141</v>
-      </c>
-      <c r="C149" s="23" t="s">
-        <v>160</v>
+        <v>142</v>
+      </c>
+      <c r="C149" s="24" t="s">
+        <v>161</v>
       </c>
       <c r="D149" s="12"/>
     </row>
@@ -3856,10 +3866,10 @@
         <v>145</v>
       </c>
       <c r="B150" s="10" t="s">
-        <v>141</v>
-      </c>
-      <c r="C150" s="23" t="s">
-        <v>161</v>
+        <v>142</v>
+      </c>
+      <c r="C150" s="24" t="s">
+        <v>162</v>
       </c>
       <c r="D150" s="12"/>
     </row>
@@ -3869,10 +3879,10 @@
         <v>146</v>
       </c>
       <c r="B151" s="10" t="s">
-        <v>141</v>
-      </c>
-      <c r="C151" s="23" t="s">
-        <v>162</v>
+        <v>142</v>
+      </c>
+      <c r="C151" s="24" t="s">
+        <v>163</v>
       </c>
       <c r="D151" s="12"/>
     </row>
@@ -3882,10 +3892,10 @@
         <v>147</v>
       </c>
       <c r="B152" s="10" t="s">
-        <v>141</v>
-      </c>
-      <c r="C152" s="23" t="s">
-        <v>163</v>
+        <v>142</v>
+      </c>
+      <c r="C152" s="24" t="s">
+        <v>164</v>
       </c>
       <c r="D152" s="12"/>
     </row>
@@ -3895,10 +3905,10 @@
         <v>148</v>
       </c>
       <c r="B153" s="10" t="s">
-        <v>141</v>
-      </c>
-      <c r="C153" s="23" t="s">
-        <v>164</v>
+        <v>142</v>
+      </c>
+      <c r="C153" s="24" t="s">
+        <v>165</v>
       </c>
       <c r="D153" s="12"/>
     </row>
@@ -3908,10 +3918,10 @@
         <v>149</v>
       </c>
       <c r="B154" s="10" t="s">
-        <v>141</v>
-      </c>
-      <c r="C154" s="23" t="s">
-        <v>165</v>
+        <v>142</v>
+      </c>
+      <c r="C154" s="24" t="s">
+        <v>166</v>
       </c>
       <c r="D154" s="12"/>
     </row>
@@ -3921,10 +3931,10 @@
         <v>150</v>
       </c>
       <c r="B155" s="10" t="s">
-        <v>141</v>
-      </c>
-      <c r="C155" s="23" t="s">
-        <v>166</v>
+        <v>142</v>
+      </c>
+      <c r="C155" s="24" t="s">
+        <v>167</v>
       </c>
       <c r="D155" s="12"/>
     </row>
@@ -3934,10 +3944,10 @@
         <v>151</v>
       </c>
       <c r="B156" s="10" t="s">
-        <v>141</v>
-      </c>
-      <c r="C156" s="24" t="s">
-        <v>167</v>
+        <v>142</v>
+      </c>
+      <c r="C156" s="25" t="s">
+        <v>168</v>
       </c>
       <c r="D156" s="12"/>
     </row>
@@ -3947,10 +3957,10 @@
         <v>152</v>
       </c>
       <c r="B157" s="10" t="s">
-        <v>141</v>
-      </c>
-      <c r="C157" s="24" t="s">
-        <v>168</v>
+        <v>142</v>
+      </c>
+      <c r="C157" s="25" t="s">
+        <v>169</v>
       </c>
       <c r="D157" s="12"/>
     </row>
@@ -3960,10 +3970,10 @@
         <v>153</v>
       </c>
       <c r="B158" s="10" t="s">
-        <v>141</v>
-      </c>
-      <c r="C158" s="23" t="s">
-        <v>169</v>
+        <v>142</v>
+      </c>
+      <c r="C158" s="24" t="s">
+        <v>170</v>
       </c>
       <c r="D158" s="12"/>
     </row>
@@ -3973,10 +3983,10 @@
         <v>154</v>
       </c>
       <c r="B159" s="10" t="s">
-        <v>141</v>
-      </c>
-      <c r="C159" s="23" t="s">
-        <v>170</v>
+        <v>142</v>
+      </c>
+      <c r="C159" s="24" t="s">
+        <v>171</v>
       </c>
       <c r="D159" s="12"/>
     </row>
@@ -3986,10 +3996,10 @@
         <v>155</v>
       </c>
       <c r="B160" s="10" t="s">
-        <v>141</v>
-      </c>
-      <c r="C160" s="23" t="s">
-        <v>171</v>
+        <v>142</v>
+      </c>
+      <c r="C160" s="24" t="s">
+        <v>172</v>
       </c>
       <c r="D160" s="12"/>
     </row>
@@ -3999,10 +4009,10 @@
         <v>156</v>
       </c>
       <c r="B161" s="10" t="s">
-        <v>141</v>
-      </c>
-      <c r="C161" s="23" t="s">
-        <v>172</v>
+        <v>142</v>
+      </c>
+      <c r="C161" s="24" t="s">
+        <v>173</v>
       </c>
       <c r="D161" s="12"/>
     </row>
@@ -4012,10 +4022,10 @@
         <v>157</v>
       </c>
       <c r="B162" s="10" t="s">
-        <v>141</v>
-      </c>
-      <c r="C162" s="23" t="s">
-        <v>173</v>
+        <v>142</v>
+      </c>
+      <c r="C162" s="24" t="s">
+        <v>174</v>
       </c>
       <c r="D162" s="12"/>
     </row>
@@ -4025,10 +4035,10 @@
         <v>158</v>
       </c>
       <c r="B163" s="10" t="s">
-        <v>141</v>
-      </c>
-      <c r="C163" s="23" t="s">
-        <v>174</v>
+        <v>142</v>
+      </c>
+      <c r="C163" s="24" t="s">
+        <v>175</v>
       </c>
       <c r="D163" s="12"/>
     </row>
@@ -4038,10 +4048,10 @@
         <v>159</v>
       </c>
       <c r="B164" s="10" t="s">
-        <v>141</v>
-      </c>
-      <c r="C164" s="23" t="s">
-        <v>175</v>
+        <v>142</v>
+      </c>
+      <c r="C164" s="24" t="s">
+        <v>176</v>
       </c>
       <c r="D164" s="12"/>
     </row>
@@ -4051,10 +4061,10 @@
         <v>160</v>
       </c>
       <c r="B165" s="10" t="s">
-        <v>141</v>
-      </c>
-      <c r="C165" s="23" t="s">
-        <v>176</v>
+        <v>142</v>
+      </c>
+      <c r="C165" s="24" t="s">
+        <v>177</v>
       </c>
       <c r="D165" s="12"/>
     </row>
@@ -4064,10 +4074,10 @@
         <v>161</v>
       </c>
       <c r="B166" s="10" t="s">
-        <v>141</v>
-      </c>
-      <c r="C166" s="23" t="s">
-        <v>177</v>
+        <v>142</v>
+      </c>
+      <c r="C166" s="24" t="s">
+        <v>178</v>
       </c>
       <c r="D166" s="12"/>
     </row>
@@ -4077,10 +4087,10 @@
         <v>162</v>
       </c>
       <c r="B167" s="15" t="s">
-        <v>178</v>
-      </c>
-      <c r="C167" s="23" t="s">
         <v>179</v>
+      </c>
+      <c r="C167" s="24" t="s">
+        <v>180</v>
       </c>
       <c r="D167" s="12"/>
     </row>
@@ -4090,10 +4100,10 @@
         <v>163</v>
       </c>
       <c r="B168" s="15" t="s">
-        <v>178</v>
-      </c>
-      <c r="C168" s="23" t="s">
-        <v>180</v>
+        <v>179</v>
+      </c>
+      <c r="C168" s="24" t="s">
+        <v>181</v>
       </c>
       <c r="D168" s="12"/>
     </row>
@@ -4103,10 +4113,10 @@
         <v>164</v>
       </c>
       <c r="B169" s="15" t="s">
-        <v>178</v>
-      </c>
-      <c r="C169" s="23" t="s">
-        <v>181</v>
+        <v>179</v>
+      </c>
+      <c r="C169" s="24" t="s">
+        <v>182</v>
       </c>
       <c r="D169" s="12"/>
     </row>
@@ -4116,10 +4126,10 @@
         <v>165</v>
       </c>
       <c r="B170" s="15" t="s">
-        <v>178</v>
-      </c>
-      <c r="C170" s="23" t="s">
-        <v>182</v>
+        <v>179</v>
+      </c>
+      <c r="C170" s="24" t="s">
+        <v>183</v>
       </c>
       <c r="D170" s="12"/>
     </row>
@@ -4129,10 +4139,10 @@
         <v>166</v>
       </c>
       <c r="B171" s="15" t="s">
-        <v>178</v>
-      </c>
-      <c r="C171" s="23" t="s">
-        <v>183</v>
+        <v>179</v>
+      </c>
+      <c r="C171" s="24" t="s">
+        <v>184</v>
       </c>
       <c r="D171" s="12"/>
     </row>
@@ -4142,10 +4152,10 @@
         <v>167</v>
       </c>
       <c r="B172" s="15" t="s">
-        <v>178</v>
-      </c>
-      <c r="C172" s="23" t="s">
-        <v>184</v>
+        <v>179</v>
+      </c>
+      <c r="C172" s="24" t="s">
+        <v>185</v>
       </c>
       <c r="D172" s="12"/>
     </row>
@@ -4155,10 +4165,10 @@
         <v>168</v>
       </c>
       <c r="B173" s="15" t="s">
-        <v>178</v>
-      </c>
-      <c r="C173" s="23" t="s">
-        <v>185</v>
+        <v>179</v>
+      </c>
+      <c r="C173" s="24" t="s">
+        <v>186</v>
       </c>
       <c r="D173" s="12"/>
     </row>
@@ -4168,10 +4178,10 @@
         <v>169</v>
       </c>
       <c r="B174" s="15" t="s">
-        <v>178</v>
-      </c>
-      <c r="C174" s="23" t="s">
-        <v>186</v>
+        <v>179</v>
+      </c>
+      <c r="C174" s="24" t="s">
+        <v>187</v>
       </c>
       <c r="D174" s="12"/>
     </row>
@@ -4181,10 +4191,10 @@
         <v>170</v>
       </c>
       <c r="B175" s="15" t="s">
-        <v>178</v>
-      </c>
-      <c r="C175" s="23" t="s">
-        <v>187</v>
+        <v>179</v>
+      </c>
+      <c r="C175" s="24" t="s">
+        <v>188</v>
       </c>
       <c r="D175" s="12"/>
     </row>
@@ -4194,10 +4204,10 @@
         <v>171</v>
       </c>
       <c r="B176" s="15" t="s">
-        <v>178</v>
-      </c>
-      <c r="C176" s="23" t="s">
-        <v>188</v>
+        <v>179</v>
+      </c>
+      <c r="C176" s="24" t="s">
+        <v>189</v>
       </c>
       <c r="D176" s="12"/>
     </row>
@@ -4207,10 +4217,10 @@
         <v>172</v>
       </c>
       <c r="B177" s="15" t="s">
-        <v>178</v>
-      </c>
-      <c r="C177" s="23" t="s">
-        <v>189</v>
+        <v>179</v>
+      </c>
+      <c r="C177" s="24" t="s">
+        <v>190</v>
       </c>
       <c r="D177" s="12"/>
     </row>
@@ -4220,10 +4230,10 @@
         <v>173</v>
       </c>
       <c r="B178" s="15" t="s">
-        <v>178</v>
-      </c>
-      <c r="C178" s="23" t="s">
-        <v>190</v>
+        <v>179</v>
+      </c>
+      <c r="C178" s="24" t="s">
+        <v>191</v>
       </c>
       <c r="D178" s="12"/>
     </row>
@@ -4233,10 +4243,10 @@
         <v>174</v>
       </c>
       <c r="B179" s="15" t="s">
-        <v>178</v>
-      </c>
-      <c r="C179" s="23" t="s">
-        <v>191</v>
+        <v>179</v>
+      </c>
+      <c r="C179" s="24" t="s">
+        <v>192</v>
       </c>
       <c r="D179" s="12"/>
     </row>
@@ -4246,10 +4256,10 @@
         <v>175</v>
       </c>
       <c r="B180" s="15" t="s">
-        <v>178</v>
-      </c>
-      <c r="C180" s="23" t="s">
-        <v>192</v>
+        <v>179</v>
+      </c>
+      <c r="C180" s="24" t="s">
+        <v>193</v>
       </c>
       <c r="D180" s="12"/>
     </row>
@@ -4259,10 +4269,10 @@
         <v>176</v>
       </c>
       <c r="B181" s="15" t="s">
-        <v>178</v>
-      </c>
-      <c r="C181" s="23" t="s">
-        <v>193</v>
+        <v>179</v>
+      </c>
+      <c r="C181" s="24" t="s">
+        <v>194</v>
       </c>
       <c r="D181" s="12"/>
     </row>
@@ -4272,10 +4282,10 @@
         <v>177</v>
       </c>
       <c r="B182" s="15" t="s">
-        <v>178</v>
-      </c>
-      <c r="C182" s="23" t="s">
-        <v>194</v>
+        <v>179</v>
+      </c>
+      <c r="C182" s="24" t="s">
+        <v>195</v>
       </c>
       <c r="D182" s="12"/>
     </row>
@@ -4285,10 +4295,10 @@
         <v>178</v>
       </c>
       <c r="B183" s="15" t="s">
-        <v>178</v>
-      </c>
-      <c r="C183" s="23" t="s">
-        <v>195</v>
+        <v>179</v>
+      </c>
+      <c r="C183" s="24" t="s">
+        <v>196</v>
       </c>
       <c r="D183" s="12"/>
     </row>
@@ -4298,10 +4308,10 @@
         <v>179</v>
       </c>
       <c r="B184" s="15" t="s">
-        <v>178</v>
-      </c>
-      <c r="C184" s="23" t="s">
-        <v>196</v>
+        <v>179</v>
+      </c>
+      <c r="C184" s="24" t="s">
+        <v>197</v>
       </c>
       <c r="D184" s="12"/>
     </row>
@@ -4311,10 +4321,10 @@
         <v>180</v>
       </c>
       <c r="B185" s="15" t="s">
-        <v>178</v>
-      </c>
-      <c r="C185" s="23" t="s">
-        <v>197</v>
+        <v>179</v>
+      </c>
+      <c r="C185" s="24" t="s">
+        <v>198</v>
       </c>
       <c r="D185" s="12"/>
     </row>
@@ -4324,10 +4334,10 @@
         <v>181</v>
       </c>
       <c r="B186" s="15" t="s">
-        <v>178</v>
-      </c>
-      <c r="C186" s="23" t="s">
-        <v>198</v>
+        <v>179</v>
+      </c>
+      <c r="C186" s="24" t="s">
+        <v>199</v>
       </c>
       <c r="D186" s="12"/>
     </row>
@@ -4337,10 +4347,10 @@
         <v>182</v>
       </c>
       <c r="B187" s="15" t="s">
-        <v>178</v>
-      </c>
-      <c r="C187" s="23" t="s">
-        <v>199</v>
+        <v>179</v>
+      </c>
+      <c r="C187" s="24" t="s">
+        <v>200</v>
       </c>
       <c r="D187" s="12"/>
     </row>
@@ -4350,10 +4360,10 @@
         <v>183</v>
       </c>
       <c r="B188" s="15" t="s">
-        <v>178</v>
-      </c>
-      <c r="C188" s="23" t="s">
-        <v>200</v>
+        <v>179</v>
+      </c>
+      <c r="C188" s="24" t="s">
+        <v>201</v>
       </c>
       <c r="D188" s="12"/>
     </row>
@@ -4363,10 +4373,10 @@
         <v>184</v>
       </c>
       <c r="B189" s="15" t="s">
-        <v>178</v>
-      </c>
-      <c r="C189" s="23" t="s">
-        <v>201</v>
+        <v>179</v>
+      </c>
+      <c r="C189" s="24" t="s">
+        <v>202</v>
       </c>
       <c r="D189" s="12"/>
     </row>
@@ -4376,10 +4386,10 @@
         <v>185</v>
       </c>
       <c r="B190" s="15" t="s">
-        <v>178</v>
-      </c>
-      <c r="C190" s="23" t="s">
-        <v>202</v>
+        <v>179</v>
+      </c>
+      <c r="C190" s="24" t="s">
+        <v>203</v>
       </c>
       <c r="D190" s="12"/>
     </row>
@@ -4389,10 +4399,10 @@
         <v>186</v>
       </c>
       <c r="B191" s="15" t="s">
-        <v>178</v>
-      </c>
-      <c r="C191" s="23" t="s">
-        <v>203</v>
+        <v>179</v>
+      </c>
+      <c r="C191" s="24" t="s">
+        <v>204</v>
       </c>
       <c r="D191" s="12"/>
     </row>
@@ -4402,10 +4412,10 @@
         <v>187</v>
       </c>
       <c r="B192" s="15" t="s">
-        <v>178</v>
-      </c>
-      <c r="C192" s="23" t="s">
-        <v>204</v>
+        <v>179</v>
+      </c>
+      <c r="C192" s="24" t="s">
+        <v>205</v>
       </c>
       <c r="D192" s="12"/>
     </row>
@@ -4415,10 +4425,10 @@
         <v>188</v>
       </c>
       <c r="B193" s="15" t="s">
-        <v>178</v>
-      </c>
-      <c r="C193" s="23" t="s">
-        <v>205</v>
+        <v>179</v>
+      </c>
+      <c r="C193" s="24" t="s">
+        <v>206</v>
       </c>
       <c r="D193" s="12"/>
     </row>
@@ -4428,10 +4438,10 @@
         <v>189</v>
       </c>
       <c r="B194" s="15" t="s">
-        <v>178</v>
-      </c>
-      <c r="C194" s="23" t="s">
-        <v>206</v>
+        <v>179</v>
+      </c>
+      <c r="C194" s="24" t="s">
+        <v>207</v>
       </c>
       <c r="D194" s="12"/>
     </row>
@@ -4441,10 +4451,10 @@
         <v>190</v>
       </c>
       <c r="B195" s="15" t="s">
-        <v>178</v>
-      </c>
-      <c r="C195" s="23" t="s">
-        <v>207</v>
+        <v>179</v>
+      </c>
+      <c r="C195" s="24" t="s">
+        <v>208</v>
       </c>
       <c r="D195" s="12"/>
     </row>
@@ -4454,10 +4464,10 @@
         <v>191</v>
       </c>
       <c r="B196" s="15" t="s">
-        <v>178</v>
-      </c>
-      <c r="C196" s="23" t="s">
-        <v>208</v>
+        <v>179</v>
+      </c>
+      <c r="C196" s="24" t="s">
+        <v>209</v>
       </c>
       <c r="D196" s="12"/>
     </row>
@@ -4467,10 +4477,10 @@
         <v>192</v>
       </c>
       <c r="B197" s="15" t="s">
-        <v>178</v>
-      </c>
-      <c r="C197" s="23" t="s">
-        <v>209</v>
+        <v>179</v>
+      </c>
+      <c r="C197" s="24" t="s">
+        <v>210</v>
       </c>
       <c r="D197" s="12"/>
     </row>
@@ -4480,10 +4490,10 @@
         <v>193</v>
       </c>
       <c r="B198" s="15" t="s">
-        <v>178</v>
-      </c>
-      <c r="C198" s="23" t="s">
-        <v>210</v>
+        <v>179</v>
+      </c>
+      <c r="C198" s="24" t="s">
+        <v>211</v>
       </c>
       <c r="D198" s="12"/>
     </row>
@@ -4493,10 +4503,10 @@
         <v>194</v>
       </c>
       <c r="B199" s="15" t="s">
-        <v>178</v>
-      </c>
-      <c r="C199" s="23" t="s">
-        <v>211</v>
+        <v>179</v>
+      </c>
+      <c r="C199" s="24" t="s">
+        <v>212</v>
       </c>
       <c r="D199" s="12"/>
     </row>
@@ -4506,10 +4516,10 @@
         <v>195</v>
       </c>
       <c r="B200" s="15" t="s">
-        <v>178</v>
-      </c>
-      <c r="C200" s="23" t="s">
-        <v>212</v>
+        <v>179</v>
+      </c>
+      <c r="C200" s="24" t="s">
+        <v>213</v>
       </c>
       <c r="D200" s="12"/>
     </row>
@@ -4519,10 +4529,10 @@
         <v>196</v>
       </c>
       <c r="B201" s="15" t="s">
-        <v>178</v>
-      </c>
-      <c r="C201" s="23" t="s">
-        <v>213</v>
+        <v>179</v>
+      </c>
+      <c r="C201" s="24" t="s">
+        <v>214</v>
       </c>
       <c r="D201" s="12"/>
     </row>
@@ -4532,10 +4542,10 @@
         <v>197</v>
       </c>
       <c r="B202" s="10" t="s">
-        <v>214</v>
-      </c>
-      <c r="C202" s="23" t="s">
         <v>215</v>
+      </c>
+      <c r="C202" s="24" t="s">
+        <v>216</v>
       </c>
     </row>
     <row r="203" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4544,10 +4554,10 @@
         <v>198</v>
       </c>
       <c r="B203" s="10" t="s">
-        <v>214</v>
-      </c>
-      <c r="C203" s="23" t="s">
-        <v>216</v>
+        <v>215</v>
+      </c>
+      <c r="C203" s="24" t="s">
+        <v>217</v>
       </c>
     </row>
     <row r="204" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4556,10 +4566,10 @@
         <v>199</v>
       </c>
       <c r="B204" s="10" t="s">
-        <v>214</v>
-      </c>
-      <c r="C204" s="23" t="s">
-        <v>217</v>
+        <v>215</v>
+      </c>
+      <c r="C204" s="24" t="s">
+        <v>218</v>
       </c>
     </row>
     <row r="205" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4568,10 +4578,10 @@
         <v>200</v>
       </c>
       <c r="B205" s="10" t="s">
-        <v>214</v>
-      </c>
-      <c r="C205" s="23" t="s">
-        <v>218</v>
+        <v>215</v>
+      </c>
+      <c r="C205" s="24" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="206" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4580,10 +4590,10 @@
         <v>201</v>
       </c>
       <c r="B206" s="10" t="s">
-        <v>214</v>
-      </c>
-      <c r="C206" s="23" t="s">
-        <v>219</v>
+        <v>215</v>
+      </c>
+      <c r="C206" s="24" t="s">
+        <v>220</v>
       </c>
     </row>
     <row r="207" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4592,10 +4602,10 @@
         <v>202</v>
       </c>
       <c r="B207" s="10" t="s">
-        <v>214</v>
-      </c>
-      <c r="C207" s="23" t="s">
-        <v>220</v>
+        <v>215</v>
+      </c>
+      <c r="C207" s="24" t="s">
+        <v>221</v>
       </c>
     </row>
     <row r="208" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4604,10 +4614,10 @@
         <v>203</v>
       </c>
       <c r="B208" s="10" t="s">
-        <v>214</v>
-      </c>
-      <c r="C208" s="25" t="s">
-        <v>221</v>
+        <v>215</v>
+      </c>
+      <c r="C208" s="26" t="s">
+        <v>222</v>
       </c>
     </row>
     <row r="209" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4616,10 +4626,10 @@
         <v>204</v>
       </c>
       <c r="B209" s="10" t="s">
-        <v>214</v>
-      </c>
-      <c r="C209" s="23" t="s">
-        <v>222</v>
+        <v>215</v>
+      </c>
+      <c r="C209" s="24" t="s">
+        <v>223</v>
       </c>
     </row>
     <row r="210" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4628,10 +4638,10 @@
         <v>205</v>
       </c>
       <c r="B210" s="10" t="s">
-        <v>214</v>
-      </c>
-      <c r="C210" s="23" t="s">
-        <v>223</v>
+        <v>215</v>
+      </c>
+      <c r="C210" s="24" t="s">
+        <v>224</v>
       </c>
       <c r="D210" s="12"/>
     </row>
@@ -4641,10 +4651,10 @@
         <v>206</v>
       </c>
       <c r="B211" s="10" t="s">
-        <v>214</v>
-      </c>
-      <c r="C211" s="23" t="s">
-        <v>224</v>
+        <v>215</v>
+      </c>
+      <c r="C211" s="24" t="s">
+        <v>225</v>
       </c>
       <c r="D211" s="12"/>
     </row>
@@ -4654,10 +4664,10 @@
         <v>207</v>
       </c>
       <c r="B212" s="10" t="s">
-        <v>214</v>
-      </c>
-      <c r="C212" s="23" t="s">
-        <v>225</v>
+        <v>215</v>
+      </c>
+      <c r="C212" s="24" t="s">
+        <v>226</v>
       </c>
       <c r="D212" s="12"/>
     </row>
@@ -4667,10 +4677,10 @@
         <v>208</v>
       </c>
       <c r="B213" s="10" t="s">
-        <v>214</v>
-      </c>
-      <c r="C213" s="23" t="s">
-        <v>226</v>
+        <v>215</v>
+      </c>
+      <c r="C213" s="24" t="s">
+        <v>227</v>
       </c>
       <c r="D213" s="12"/>
     </row>
@@ -4680,10 +4690,10 @@
         <v>209</v>
       </c>
       <c r="B214" s="10" t="s">
-        <v>214</v>
-      </c>
-      <c r="C214" s="23" t="s">
-        <v>227</v>
+        <v>215</v>
+      </c>
+      <c r="C214" s="24" t="s">
+        <v>228</v>
       </c>
       <c r="D214" s="12"/>
     </row>
@@ -4693,10 +4703,10 @@
         <v>210</v>
       </c>
       <c r="B215" s="10" t="s">
-        <v>214</v>
-      </c>
-      <c r="C215" s="23" t="s">
-        <v>228</v>
+        <v>215</v>
+      </c>
+      <c r="C215" s="24" t="s">
+        <v>229</v>
       </c>
       <c r="D215" s="12"/>
     </row>
@@ -4706,10 +4716,10 @@
         <v>211</v>
       </c>
       <c r="B216" s="10" t="s">
-        <v>214</v>
-      </c>
-      <c r="C216" s="23" t="s">
-        <v>229</v>
+        <v>215</v>
+      </c>
+      <c r="C216" s="24" t="s">
+        <v>230</v>
       </c>
       <c r="D216" s="12"/>
     </row>
@@ -4719,10 +4729,10 @@
         <v>212</v>
       </c>
       <c r="B217" s="10" t="s">
-        <v>214</v>
-      </c>
-      <c r="C217" s="23" t="s">
-        <v>230</v>
+        <v>215</v>
+      </c>
+      <c r="C217" s="24" t="s">
+        <v>231</v>
       </c>
       <c r="D217" s="12"/>
     </row>
@@ -4732,10 +4742,10 @@
         <v>213</v>
       </c>
       <c r="B218" s="10" t="s">
-        <v>214</v>
-      </c>
-      <c r="C218" s="23" t="s">
-        <v>231</v>
+        <v>215</v>
+      </c>
+      <c r="C218" s="24" t="s">
+        <v>232</v>
       </c>
       <c r="D218" s="12"/>
     </row>
@@ -4745,10 +4755,10 @@
         <v>214</v>
       </c>
       <c r="B219" s="10" t="s">
-        <v>214</v>
-      </c>
-      <c r="C219" s="23" t="s">
-        <v>232</v>
+        <v>215</v>
+      </c>
+      <c r="C219" s="24" t="s">
+        <v>233</v>
       </c>
       <c r="D219" s="12"/>
     </row>
@@ -4758,10 +4768,10 @@
         <v>215</v>
       </c>
       <c r="B220" s="10" t="s">
-        <v>214</v>
-      </c>
-      <c r="C220" s="23" t="s">
-        <v>233</v>
+        <v>215</v>
+      </c>
+      <c r="C220" s="24" t="s">
+        <v>234</v>
       </c>
       <c r="D220" s="12"/>
     </row>
@@ -4771,10 +4781,10 @@
         <v>216</v>
       </c>
       <c r="B221" s="10" t="s">
-        <v>214</v>
-      </c>
-      <c r="C221" s="23" t="s">
-        <v>234</v>
+        <v>215</v>
+      </c>
+      <c r="C221" s="24" t="s">
+        <v>235</v>
       </c>
       <c r="D221" s="12"/>
     </row>
@@ -4784,10 +4794,10 @@
         <v>217</v>
       </c>
       <c r="B222" s="10" t="s">
-        <v>214</v>
-      </c>
-      <c r="C222" s="23" t="s">
-        <v>235</v>
+        <v>215</v>
+      </c>
+      <c r="C222" s="24" t="s">
+        <v>236</v>
       </c>
       <c r="D222" s="12"/>
     </row>
@@ -4797,10 +4807,10 @@
         <v>218</v>
       </c>
       <c r="B223" s="10" t="s">
-        <v>214</v>
-      </c>
-      <c r="C223" s="23" t="s">
-        <v>236</v>
+        <v>215</v>
+      </c>
+      <c r="C223" s="24" t="s">
+        <v>237</v>
       </c>
       <c r="D223" s="12"/>
     </row>
@@ -4810,10 +4820,10 @@
         <v>219</v>
       </c>
       <c r="B224" s="15" t="s">
-        <v>237</v>
-      </c>
-      <c r="C224" s="23" t="s">
         <v>238</v>
+      </c>
+      <c r="C224" s="24" t="s">
+        <v>239</v>
       </c>
       <c r="D224" s="12"/>
     </row>
@@ -4823,10 +4833,10 @@
         <v>220</v>
       </c>
       <c r="B225" s="15" t="s">
-        <v>237</v>
-      </c>
-      <c r="C225" s="23" t="s">
-        <v>239</v>
+        <v>238</v>
+      </c>
+      <c r="C225" s="24" t="s">
+        <v>240</v>
       </c>
       <c r="D225" s="12"/>
     </row>
@@ -4836,10 +4846,10 @@
         <v>221</v>
       </c>
       <c r="B226" s="15" t="s">
-        <v>237</v>
-      </c>
-      <c r="C226" s="23" t="s">
-        <v>240</v>
+        <v>238</v>
+      </c>
+      <c r="C226" s="24" t="s">
+        <v>241</v>
       </c>
       <c r="D226" s="12"/>
     </row>
@@ -4849,10 +4859,10 @@
         <v>222</v>
       </c>
       <c r="B227" s="15" t="s">
-        <v>237</v>
-      </c>
-      <c r="C227" s="23" t="s">
-        <v>241</v>
+        <v>238</v>
+      </c>
+      <c r="C227" s="24" t="s">
+        <v>242</v>
       </c>
       <c r="D227" s="12"/>
     </row>
@@ -4862,10 +4872,10 @@
         <v>223</v>
       </c>
       <c r="B228" s="15" t="s">
-        <v>237</v>
-      </c>
-      <c r="C228" s="23" t="s">
-        <v>242</v>
+        <v>238</v>
+      </c>
+      <c r="C228" s="24" t="s">
+        <v>243</v>
       </c>
       <c r="D228" s="12"/>
     </row>
@@ -4875,10 +4885,10 @@
         <v>224</v>
       </c>
       <c r="B229" s="15" t="s">
-        <v>237</v>
-      </c>
-      <c r="C229" s="23" t="s">
-        <v>243</v>
+        <v>238</v>
+      </c>
+      <c r="C229" s="24" t="s">
+        <v>244</v>
       </c>
       <c r="D229" s="12"/>
     </row>
@@ -4888,10 +4898,10 @@
         <v>225</v>
       </c>
       <c r="B230" s="15" t="s">
-        <v>237</v>
-      </c>
-      <c r="C230" s="23" t="s">
-        <v>244</v>
+        <v>238</v>
+      </c>
+      <c r="C230" s="24" t="s">
+        <v>245</v>
       </c>
       <c r="D230" s="12"/>
     </row>
@@ -4901,10 +4911,10 @@
         <v>226</v>
       </c>
       <c r="B231" s="15" t="s">
-        <v>237</v>
-      </c>
-      <c r="C231" s="23" t="s">
-        <v>245</v>
+        <v>238</v>
+      </c>
+      <c r="C231" s="24" t="s">
+        <v>246</v>
       </c>
       <c r="D231" s="12"/>
     </row>
@@ -4914,10 +4924,10 @@
         <v>227</v>
       </c>
       <c r="B232" s="15" t="s">
-        <v>237</v>
-      </c>
-      <c r="C232" s="23" t="s">
-        <v>246</v>
+        <v>238</v>
+      </c>
+      <c r="C232" s="24" t="s">
+        <v>247</v>
       </c>
       <c r="D232" s="12"/>
     </row>
@@ -4927,10 +4937,10 @@
         <v>228</v>
       </c>
       <c r="B233" s="15" t="s">
-        <v>237</v>
-      </c>
-      <c r="C233" s="23" t="s">
-        <v>247</v>
+        <v>238</v>
+      </c>
+      <c r="C233" s="24" t="s">
+        <v>248</v>
       </c>
       <c r="D233" s="12"/>
     </row>
@@ -4940,10 +4950,10 @@
         <v>229</v>
       </c>
       <c r="B234" s="15" t="s">
-        <v>237</v>
-      </c>
-      <c r="C234" s="23" t="s">
-        <v>248</v>
+        <v>238</v>
+      </c>
+      <c r="C234" s="24" t="s">
+        <v>249</v>
       </c>
       <c r="D234" s="12"/>
     </row>
@@ -4953,10 +4963,10 @@
         <v>230</v>
       </c>
       <c r="B235" s="15" t="s">
-        <v>237</v>
-      </c>
-      <c r="C235" s="23" t="s">
-        <v>249</v>
+        <v>238</v>
+      </c>
+      <c r="C235" s="24" t="s">
+        <v>250</v>
       </c>
       <c r="D235" s="12"/>
     </row>
@@ -4966,10 +4976,10 @@
         <v>231</v>
       </c>
       <c r="B236" s="15" t="s">
-        <v>237</v>
-      </c>
-      <c r="C236" s="23" t="s">
-        <v>250</v>
+        <v>238</v>
+      </c>
+      <c r="C236" s="24" t="s">
+        <v>251</v>
       </c>
       <c r="D236" s="12"/>
     </row>
@@ -4979,10 +4989,10 @@
         <v>232</v>
       </c>
       <c r="B237" s="15" t="s">
-        <v>237</v>
-      </c>
-      <c r="C237" s="23" t="s">
-        <v>251</v>
+        <v>238</v>
+      </c>
+      <c r="C237" s="24" t="s">
+        <v>252</v>
       </c>
       <c r="D237" s="12"/>
     </row>
@@ -4992,10 +5002,10 @@
         <v>233</v>
       </c>
       <c r="B238" s="15" t="s">
-        <v>237</v>
-      </c>
-      <c r="C238" s="23" t="s">
-        <v>252</v>
+        <v>238</v>
+      </c>
+      <c r="C238" s="24" t="s">
+        <v>253</v>
       </c>
       <c r="D238" s="12"/>
     </row>
@@ -5005,10 +5015,10 @@
         <v>234</v>
       </c>
       <c r="B239" s="15" t="s">
-        <v>237</v>
-      </c>
-      <c r="C239" s="23" t="s">
-        <v>253</v>
+        <v>238</v>
+      </c>
+      <c r="C239" s="24" t="s">
+        <v>254</v>
       </c>
       <c r="D239" s="12"/>
     </row>
@@ -5018,10 +5028,10 @@
         <v>235</v>
       </c>
       <c r="B240" s="15" t="s">
-        <v>237</v>
-      </c>
-      <c r="C240" s="23" t="s">
-        <v>254</v>
+        <v>238</v>
+      </c>
+      <c r="C240" s="24" t="s">
+        <v>255</v>
       </c>
       <c r="D240" s="12"/>
     </row>
@@ -5031,10 +5041,10 @@
         <v>236</v>
       </c>
       <c r="B241" s="15" t="s">
-        <v>237</v>
-      </c>
-      <c r="C241" s="23" t="s">
-        <v>255</v>
+        <v>238</v>
+      </c>
+      <c r="C241" s="24" t="s">
+        <v>256</v>
       </c>
       <c r="D241" s="12"/>
     </row>
@@ -5044,10 +5054,10 @@
         <v>237</v>
       </c>
       <c r="B242" s="15" t="s">
-        <v>237</v>
-      </c>
-      <c r="C242" s="23" t="s">
-        <v>256</v>
+        <v>238</v>
+      </c>
+      <c r="C242" s="24" t="s">
+        <v>257</v>
       </c>
       <c r="D242" s="12"/>
     </row>
@@ -5057,10 +5067,10 @@
         <v>238</v>
       </c>
       <c r="B243" s="15" t="s">
-        <v>237</v>
-      </c>
-      <c r="C243" s="23" t="s">
-        <v>257</v>
+        <v>238</v>
+      </c>
+      <c r="C243" s="24" t="s">
+        <v>258</v>
       </c>
       <c r="D243" s="12"/>
     </row>
@@ -5070,10 +5080,10 @@
         <v>239</v>
       </c>
       <c r="B244" s="15" t="s">
-        <v>237</v>
-      </c>
-      <c r="C244" s="23" t="s">
-        <v>258</v>
+        <v>238</v>
+      </c>
+      <c r="C244" s="24" t="s">
+        <v>259</v>
       </c>
       <c r="D244" s="12"/>
     </row>
@@ -5083,10 +5093,10 @@
         <v>240</v>
       </c>
       <c r="B245" s="15" t="s">
-        <v>237</v>
-      </c>
-      <c r="C245" s="23" t="s">
-        <v>259</v>
+        <v>238</v>
+      </c>
+      <c r="C245" s="24" t="s">
+        <v>260</v>
       </c>
       <c r="D245" s="12"/>
     </row>
@@ -5096,10 +5106,10 @@
         <v>241</v>
       </c>
       <c r="B246" s="15" t="s">
-        <v>237</v>
-      </c>
-      <c r="C246" s="23" t="s">
-        <v>260</v>
+        <v>238</v>
+      </c>
+      <c r="C246" s="24" t="s">
+        <v>261</v>
       </c>
       <c r="D246" s="12"/>
     </row>
@@ -5109,10 +5119,10 @@
         <v>242</v>
       </c>
       <c r="B247" s="15" t="s">
-        <v>237</v>
-      </c>
-      <c r="C247" s="23" t="s">
-        <v>261</v>
+        <v>238</v>
+      </c>
+      <c r="C247" s="24" t="s">
+        <v>262</v>
       </c>
       <c r="D247" s="12"/>
     </row>
@@ -5122,10 +5132,10 @@
         <v>243</v>
       </c>
       <c r="B248" s="15" t="s">
-        <v>237</v>
-      </c>
-      <c r="C248" s="23" t="s">
-        <v>262</v>
+        <v>238</v>
+      </c>
+      <c r="C248" s="24" t="s">
+        <v>263</v>
       </c>
       <c r="D248" s="12"/>
     </row>
@@ -5135,10 +5145,10 @@
         <v>244</v>
       </c>
       <c r="B249" s="15" t="s">
-        <v>237</v>
-      </c>
-      <c r="C249" s="23" t="s">
-        <v>263</v>
+        <v>238</v>
+      </c>
+      <c r="C249" s="24" t="s">
+        <v>264</v>
       </c>
       <c r="D249" s="12"/>
     </row>
@@ -5148,10 +5158,10 @@
         <v>245</v>
       </c>
       <c r="B250" s="15" t="s">
-        <v>237</v>
-      </c>
-      <c r="C250" s="23" t="s">
-        <v>264</v>
+        <v>238</v>
+      </c>
+      <c r="C250" s="24" t="s">
+        <v>265</v>
       </c>
       <c r="D250" s="12"/>
     </row>
@@ -5161,10 +5171,10 @@
         <v>246</v>
       </c>
       <c r="B251" s="15" t="s">
-        <v>237</v>
-      </c>
-      <c r="C251" s="23" t="s">
-        <v>265</v>
+        <v>238</v>
+      </c>
+      <c r="C251" s="24" t="s">
+        <v>266</v>
       </c>
       <c r="D251" s="12"/>
     </row>
@@ -5174,10 +5184,10 @@
         <v>247</v>
       </c>
       <c r="B252" s="15" t="s">
-        <v>237</v>
-      </c>
-      <c r="C252" s="23" t="s">
-        <v>266</v>
+        <v>238</v>
+      </c>
+      <c r="C252" s="24" t="s">
+        <v>267</v>
       </c>
       <c r="D252" s="12"/>
     </row>
@@ -5187,10 +5197,10 @@
         <v>248</v>
       </c>
       <c r="B253" s="15" t="s">
-        <v>237</v>
-      </c>
-      <c r="C253" s="23" t="s">
-        <v>267</v>
+        <v>238</v>
+      </c>
+      <c r="C253" s="24" t="s">
+        <v>268</v>
       </c>
       <c r="D253" s="12"/>
     </row>
@@ -5200,10 +5210,10 @@
         <v>249</v>
       </c>
       <c r="B254" s="15" t="s">
-        <v>237</v>
-      </c>
-      <c r="C254" s="23" t="s">
-        <v>268</v>
+        <v>238</v>
+      </c>
+      <c r="C254" s="24" t="s">
+        <v>269</v>
       </c>
       <c r="D254" s="12"/>
     </row>
@@ -5213,10 +5223,10 @@
         <v>250</v>
       </c>
       <c r="B255" s="15" t="s">
-        <v>237</v>
-      </c>
-      <c r="C255" s="23" t="s">
-        <v>269</v>
+        <v>238</v>
+      </c>
+      <c r="C255" s="24" t="s">
+        <v>270</v>
       </c>
       <c r="D255" s="12"/>
     </row>
@@ -5226,10 +5236,10 @@
         <v>251</v>
       </c>
       <c r="B256" s="15" t="s">
-        <v>237</v>
-      </c>
-      <c r="C256" s="23" t="s">
-        <v>270</v>
+        <v>238</v>
+      </c>
+      <c r="C256" s="24" t="s">
+        <v>271</v>
       </c>
       <c r="D256" s="12"/>
     </row>
@@ -5239,10 +5249,10 @@
         <v>252</v>
       </c>
       <c r="B257" s="15" t="s">
-        <v>237</v>
-      </c>
-      <c r="C257" s="23" t="s">
-        <v>94</v>
+        <v>238</v>
+      </c>
+      <c r="C257" s="24" t="s">
+        <v>95</v>
       </c>
       <c r="D257" s="12"/>
     </row>
@@ -5252,10 +5262,10 @@
         <v>253</v>
       </c>
       <c r="B258" s="15" t="s">
-        <v>237</v>
-      </c>
-      <c r="C258" s="23" t="s">
-        <v>271</v>
+        <v>238</v>
+      </c>
+      <c r="C258" s="24" t="s">
+        <v>272</v>
       </c>
       <c r="D258" s="12"/>
     </row>
@@ -5265,10 +5275,10 @@
         <v>254</v>
       </c>
       <c r="B259" s="10" t="s">
-        <v>272</v>
-      </c>
-      <c r="C259" s="23" t="s">
         <v>273</v>
+      </c>
+      <c r="C259" s="24" t="s">
+        <v>274</v>
       </c>
       <c r="D259" s="12"/>
     </row>
@@ -5278,10 +5288,10 @@
         <v>255</v>
       </c>
       <c r="B260" s="10" t="s">
-        <v>272</v>
-      </c>
-      <c r="C260" s="23" t="s">
-        <v>274</v>
+        <v>273</v>
+      </c>
+      <c r="C260" s="24" t="s">
+        <v>275</v>
       </c>
       <c r="D260" s="12"/>
     </row>
@@ -5291,10 +5301,10 @@
         <v>256</v>
       </c>
       <c r="B261" s="10" t="s">
-        <v>272</v>
-      </c>
-      <c r="C261" s="23" t="s">
-        <v>275</v>
+        <v>273</v>
+      </c>
+      <c r="C261" s="24" t="s">
+        <v>276</v>
       </c>
       <c r="D261" s="12"/>
     </row>
@@ -5304,10 +5314,10 @@
         <v>257</v>
       </c>
       <c r="B262" s="10" t="s">
-        <v>272</v>
-      </c>
-      <c r="C262" s="23" t="s">
-        <v>276</v>
+        <v>273</v>
+      </c>
+      <c r="C262" s="24" t="s">
+        <v>277</v>
       </c>
       <c r="D262" s="12"/>
     </row>
@@ -5317,10 +5327,10 @@
         <v>258</v>
       </c>
       <c r="B263" s="10" t="s">
-        <v>272</v>
-      </c>
-      <c r="C263" s="23" t="s">
-        <v>277</v>
+        <v>273</v>
+      </c>
+      <c r="C263" s="24" t="s">
+        <v>278</v>
       </c>
       <c r="D263" s="12"/>
     </row>
@@ -5330,10 +5340,10 @@
         <v>259</v>
       </c>
       <c r="B264" s="10" t="s">
-        <v>272</v>
-      </c>
-      <c r="C264" s="23" t="s">
-        <v>278</v>
+        <v>273</v>
+      </c>
+      <c r="C264" s="24" t="s">
+        <v>279</v>
       </c>
       <c r="D264" s="12"/>
     </row>
@@ -5343,10 +5353,10 @@
         <v>260</v>
       </c>
       <c r="B265" s="10" t="s">
-        <v>272</v>
-      </c>
-      <c r="C265" s="23" t="s">
-        <v>279</v>
+        <v>273</v>
+      </c>
+      <c r="C265" s="24" t="s">
+        <v>280</v>
       </c>
       <c r="D265" s="12"/>
     </row>
@@ -5356,10 +5366,10 @@
         <v>261</v>
       </c>
       <c r="B266" s="10" t="s">
-        <v>272</v>
-      </c>
-      <c r="C266" s="23" t="s">
-        <v>280</v>
+        <v>273</v>
+      </c>
+      <c r="C266" s="24" t="s">
+        <v>281</v>
       </c>
       <c r="D266" s="12"/>
     </row>
@@ -5369,10 +5379,10 @@
         <v>262</v>
       </c>
       <c r="B267" s="10" t="s">
-        <v>272</v>
-      </c>
-      <c r="C267" s="23" t="s">
-        <v>281</v>
+        <v>273</v>
+      </c>
+      <c r="C267" s="24" t="s">
+        <v>282</v>
       </c>
       <c r="D267" s="12"/>
     </row>
@@ -5382,10 +5392,10 @@
         <v>263</v>
       </c>
       <c r="B268" s="10" t="s">
-        <v>272</v>
-      </c>
-      <c r="C268" s="23" t="s">
-        <v>282</v>
+        <v>273</v>
+      </c>
+      <c r="C268" s="24" t="s">
+        <v>283</v>
       </c>
       <c r="D268" s="12"/>
     </row>
@@ -5395,10 +5405,10 @@
         <v>264</v>
       </c>
       <c r="B269" s="10" t="s">
-        <v>272</v>
-      </c>
-      <c r="C269" s="23" t="s">
-        <v>283</v>
+        <v>273</v>
+      </c>
+      <c r="C269" s="24" t="s">
+        <v>284</v>
       </c>
       <c r="D269" s="12"/>
     </row>
@@ -5408,10 +5418,10 @@
         <v>265</v>
       </c>
       <c r="B270" s="10" t="s">
-        <v>272</v>
-      </c>
-      <c r="C270" s="23" t="s">
-        <v>284</v>
+        <v>273</v>
+      </c>
+      <c r="C270" s="24" t="s">
+        <v>285</v>
       </c>
       <c r="D270" s="12"/>
     </row>
@@ -5421,10 +5431,10 @@
         <v>266</v>
       </c>
       <c r="B271" s="10" t="s">
-        <v>272</v>
-      </c>
-      <c r="C271" s="23" t="s">
-        <v>285</v>
+        <v>273</v>
+      </c>
+      <c r="C271" s="24" t="s">
+        <v>286</v>
       </c>
       <c r="D271" s="12"/>
     </row>
@@ -5434,10 +5444,10 @@
         <v>267</v>
       </c>
       <c r="B272" s="10" t="s">
-        <v>272</v>
-      </c>
-      <c r="C272" s="23" t="s">
-        <v>286</v>
+        <v>273</v>
+      </c>
+      <c r="C272" s="24" t="s">
+        <v>287</v>
       </c>
       <c r="D272" s="12"/>
     </row>
@@ -5447,10 +5457,10 @@
         <v>268</v>
       </c>
       <c r="B273" s="10" t="s">
-        <v>272</v>
-      </c>
-      <c r="C273" s="23" t="s">
-        <v>287</v>
+        <v>273</v>
+      </c>
+      <c r="C273" s="24" t="s">
+        <v>288</v>
       </c>
       <c r="D273" s="12"/>
     </row>
@@ -5460,10 +5470,10 @@
         <v>269</v>
       </c>
       <c r="B274" s="10" t="s">
-        <v>272</v>
-      </c>
-      <c r="C274" s="23" t="s">
-        <v>288</v>
+        <v>273</v>
+      </c>
+      <c r="C274" s="24" t="s">
+        <v>289</v>
       </c>
       <c r="D274" s="12"/>
     </row>
@@ -5473,10 +5483,10 @@
         <v>270</v>
       </c>
       <c r="B275" s="10" t="s">
-        <v>272</v>
-      </c>
-      <c r="C275" s="23" t="s">
-        <v>289</v>
+        <v>273</v>
+      </c>
+      <c r="C275" s="24" t="s">
+        <v>290</v>
       </c>
       <c r="D275" s="12"/>
     </row>
@@ -5486,10 +5496,10 @@
         <v>271</v>
       </c>
       <c r="B276" s="10" t="s">
-        <v>272</v>
-      </c>
-      <c r="C276" s="23" t="s">
-        <v>290</v>
+        <v>273</v>
+      </c>
+      <c r="C276" s="24" t="s">
+        <v>291</v>
       </c>
       <c r="D276" s="12"/>
     </row>
@@ -5499,10 +5509,10 @@
         <v>272</v>
       </c>
       <c r="B277" s="10" t="s">
-        <v>272</v>
-      </c>
-      <c r="C277" s="23" t="s">
-        <v>291</v>
+        <v>273</v>
+      </c>
+      <c r="C277" s="24" t="s">
+        <v>292</v>
       </c>
       <c r="D277" s="12"/>
     </row>
@@ -5512,10 +5522,10 @@
         <v>273</v>
       </c>
       <c r="B278" s="15" t="s">
-        <v>292</v>
-      </c>
-      <c r="C278" s="23" t="s">
         <v>293</v>
+      </c>
+      <c r="C278" s="24" t="s">
+        <v>294</v>
       </c>
       <c r="D278" s="12"/>
     </row>
@@ -5525,10 +5535,10 @@
         <v>274</v>
       </c>
       <c r="B279" s="15" t="s">
-        <v>292</v>
-      </c>
-      <c r="C279" s="23" t="s">
-        <v>294</v>
+        <v>293</v>
+      </c>
+      <c r="C279" s="24" t="s">
+        <v>295</v>
       </c>
       <c r="D279" s="12"/>
     </row>
@@ -5538,10 +5548,10 @@
         <v>275</v>
       </c>
       <c r="B280" s="15" t="s">
-        <v>292</v>
-      </c>
-      <c r="C280" s="23" t="s">
-        <v>295</v>
+        <v>293</v>
+      </c>
+      <c r="C280" s="24" t="s">
+        <v>296</v>
       </c>
       <c r="D280" s="12"/>
     </row>
@@ -5551,10 +5561,10 @@
         <v>276</v>
       </c>
       <c r="B281" s="15" t="s">
-        <v>292</v>
-      </c>
-      <c r="C281" s="23" t="s">
-        <v>296</v>
+        <v>293</v>
+      </c>
+      <c r="C281" s="24" t="s">
+        <v>297</v>
       </c>
       <c r="D281" s="12"/>
     </row>
@@ -5564,10 +5574,10 @@
         <v>277</v>
       </c>
       <c r="B282" s="15" t="s">
-        <v>292</v>
-      </c>
-      <c r="C282" s="23" t="s">
-        <v>297</v>
+        <v>293</v>
+      </c>
+      <c r="C282" s="24" t="s">
+        <v>298</v>
       </c>
       <c r="D282" s="12"/>
     </row>
@@ -5577,10 +5587,10 @@
         <v>278</v>
       </c>
       <c r="B283" s="15" t="s">
-        <v>292</v>
-      </c>
-      <c r="C283" s="23" t="s">
-        <v>298</v>
+        <v>293</v>
+      </c>
+      <c r="C283" s="24" t="s">
+        <v>299</v>
       </c>
       <c r="D283" s="12"/>
     </row>
@@ -5590,10 +5600,10 @@
         <v>279</v>
       </c>
       <c r="B284" s="15" t="s">
-        <v>292</v>
-      </c>
-      <c r="C284" s="23" t="s">
-        <v>299</v>
+        <v>293</v>
+      </c>
+      <c r="C284" s="24" t="s">
+        <v>300</v>
       </c>
       <c r="D284" s="12"/>
     </row>
@@ -5603,10 +5613,10 @@
         <v>280</v>
       </c>
       <c r="B285" s="15" t="s">
-        <v>292</v>
-      </c>
-      <c r="C285" s="23" t="s">
-        <v>300</v>
+        <v>293</v>
+      </c>
+      <c r="C285" s="24" t="s">
+        <v>301</v>
       </c>
       <c r="D285" s="12"/>
     </row>
@@ -5616,10 +5626,10 @@
         <v>281</v>
       </c>
       <c r="B286" s="15" t="s">
-        <v>292</v>
-      </c>
-      <c r="C286" s="23" t="s">
-        <v>301</v>
+        <v>293</v>
+      </c>
+      <c r="C286" s="24" t="s">
+        <v>302</v>
       </c>
       <c r="D286" s="12"/>
     </row>
@@ -5629,10 +5639,10 @@
         <v>282</v>
       </c>
       <c r="B287" s="15" t="s">
-        <v>292</v>
-      </c>
-      <c r="C287" s="23" t="s">
-        <v>302</v>
+        <v>293</v>
+      </c>
+      <c r="C287" s="24" t="s">
+        <v>303</v>
       </c>
       <c r="D287" s="12"/>
     </row>
@@ -5642,10 +5652,10 @@
         <v>283</v>
       </c>
       <c r="B288" s="15" t="s">
-        <v>292</v>
-      </c>
-      <c r="C288" s="23" t="s">
-        <v>303</v>
+        <v>293</v>
+      </c>
+      <c r="C288" s="24" t="s">
+        <v>304</v>
       </c>
       <c r="D288" s="12"/>
     </row>
@@ -5655,10 +5665,10 @@
         <v>284</v>
       </c>
       <c r="B289" s="15" t="s">
-        <v>292</v>
-      </c>
-      <c r="C289" s="23" t="s">
-        <v>304</v>
+        <v>293</v>
+      </c>
+      <c r="C289" s="24" t="s">
+        <v>305</v>
       </c>
       <c r="D289" s="12"/>
     </row>
@@ -5668,10 +5678,10 @@
         <v>285</v>
       </c>
       <c r="B290" s="15" t="s">
-        <v>292</v>
-      </c>
-      <c r="C290" s="23" t="s">
-        <v>305</v>
+        <v>293</v>
+      </c>
+      <c r="C290" s="24" t="s">
+        <v>306</v>
       </c>
       <c r="D290" s="12"/>
     </row>
@@ -5681,10 +5691,10 @@
         <v>286</v>
       </c>
       <c r="B291" s="15" t="s">
-        <v>292</v>
-      </c>
-      <c r="C291" s="25" t="s">
-        <v>306</v>
+        <v>293</v>
+      </c>
+      <c r="C291" s="26" t="s">
+        <v>307</v>
       </c>
       <c r="D291" s="12"/>
     </row>
@@ -5694,10 +5704,10 @@
         <v>287</v>
       </c>
       <c r="B292" s="15" t="s">
-        <v>292</v>
-      </c>
-      <c r="C292" s="23" t="s">
-        <v>307</v>
+        <v>293</v>
+      </c>
+      <c r="C292" s="24" t="s">
+        <v>308</v>
       </c>
       <c r="D292" s="12"/>
     </row>
@@ -5707,10 +5717,10 @@
         <v>288</v>
       </c>
       <c r="B293" s="15" t="s">
-        <v>292</v>
-      </c>
-      <c r="C293" s="23" t="s">
-        <v>308</v>
+        <v>293</v>
+      </c>
+      <c r="C293" s="24" t="s">
+        <v>309</v>
       </c>
       <c r="D293" s="12"/>
     </row>
@@ -5720,10 +5730,10 @@
         <v>289</v>
       </c>
       <c r="B294" s="15" t="s">
-        <v>292</v>
-      </c>
-      <c r="C294" s="23" t="s">
-        <v>309</v>
+        <v>293</v>
+      </c>
+      <c r="C294" s="24" t="s">
+        <v>310</v>
       </c>
       <c r="D294" s="12"/>
     </row>
@@ -5733,10 +5743,10 @@
         <v>290</v>
       </c>
       <c r="B295" s="15" t="s">
-        <v>292</v>
-      </c>
-      <c r="C295" s="23" t="s">
-        <v>310</v>
+        <v>293</v>
+      </c>
+      <c r="C295" s="24" t="s">
+        <v>311</v>
       </c>
       <c r="D295" s="12"/>
     </row>
@@ -5746,10 +5756,10 @@
         <v>291</v>
       </c>
       <c r="B296" s="15" t="s">
-        <v>292</v>
-      </c>
-      <c r="C296" s="23" t="s">
-        <v>311</v>
+        <v>293</v>
+      </c>
+      <c r="C296" s="24" t="s">
+        <v>312</v>
       </c>
       <c r="D296" s="12"/>
     </row>
@@ -5759,10 +5769,10 @@
         <v>292</v>
       </c>
       <c r="B297" s="15" t="s">
-        <v>292</v>
-      </c>
-      <c r="C297" s="23" t="s">
-        <v>312</v>
+        <v>293</v>
+      </c>
+      <c r="C297" s="24" t="s">
+        <v>313</v>
       </c>
       <c r="D297" s="12"/>
     </row>
@@ -5772,10 +5782,10 @@
         <v>293</v>
       </c>
       <c r="B298" s="15" t="s">
-        <v>292</v>
-      </c>
-      <c r="C298" s="23" t="s">
-        <v>313</v>
+        <v>293</v>
+      </c>
+      <c r="C298" s="24" t="s">
+        <v>314</v>
       </c>
       <c r="D298" s="12"/>
     </row>
@@ -5785,10 +5795,10 @@
         <v>294</v>
       </c>
       <c r="B299" s="15" t="s">
-        <v>292</v>
-      </c>
-      <c r="C299" s="23" t="s">
-        <v>314</v>
+        <v>293</v>
+      </c>
+      <c r="C299" s="24" t="s">
+        <v>315</v>
       </c>
       <c r="D299" s="12"/>
     </row>
@@ -5798,10 +5808,10 @@
         <v>295</v>
       </c>
       <c r="B300" s="15" t="s">
-        <v>292</v>
-      </c>
-      <c r="C300" s="23" t="s">
-        <v>315</v>
+        <v>293</v>
+      </c>
+      <c r="C300" s="24" t="s">
+        <v>316</v>
       </c>
       <c r="D300" s="12"/>
     </row>
@@ -5811,10 +5821,10 @@
         <v>296</v>
       </c>
       <c r="B301" s="15" t="s">
-        <v>292</v>
-      </c>
-      <c r="C301" s="23" t="s">
-        <v>316</v>
+        <v>293</v>
+      </c>
+      <c r="C301" s="24" t="s">
+        <v>317</v>
       </c>
       <c r="D301" s="12"/>
     </row>
@@ -5824,10 +5834,10 @@
         <v>297</v>
       </c>
       <c r="B302" s="15" t="s">
-        <v>292</v>
-      </c>
-      <c r="C302" s="23" t="s">
-        <v>317</v>
+        <v>293</v>
+      </c>
+      <c r="C302" s="24" t="s">
+        <v>318</v>
       </c>
       <c r="D302" s="12"/>
     </row>
@@ -5837,10 +5847,10 @@
         <v>298</v>
       </c>
       <c r="B303" s="15" t="s">
-        <v>292</v>
-      </c>
-      <c r="C303" s="23" t="s">
-        <v>318</v>
+        <v>293</v>
+      </c>
+      <c r="C303" s="24" t="s">
+        <v>319</v>
       </c>
       <c r="D303" s="12"/>
     </row>
@@ -5850,10 +5860,10 @@
         <v>299</v>
       </c>
       <c r="B304" s="15" t="s">
-        <v>292</v>
-      </c>
-      <c r="C304" s="23" t="s">
-        <v>319</v>
+        <v>293</v>
+      </c>
+      <c r="C304" s="24" t="s">
+        <v>320</v>
       </c>
       <c r="D304" s="12"/>
     </row>
@@ -5863,10 +5873,10 @@
         <v>300</v>
       </c>
       <c r="B305" s="15" t="s">
-        <v>292</v>
-      </c>
-      <c r="C305" s="23" t="s">
-        <v>320</v>
+        <v>293</v>
+      </c>
+      <c r="C305" s="24" t="s">
+        <v>321</v>
       </c>
       <c r="D305" s="12"/>
     </row>
@@ -5876,10 +5886,10 @@
         <v>301</v>
       </c>
       <c r="B306" s="15" t="s">
-        <v>292</v>
-      </c>
-      <c r="C306" s="23" t="s">
-        <v>321</v>
+        <v>293</v>
+      </c>
+      <c r="C306" s="24" t="s">
+        <v>322</v>
       </c>
       <c r="D306" s="12"/>
     </row>
@@ -5889,10 +5899,10 @@
         <v>302</v>
       </c>
       <c r="B307" s="15" t="s">
-        <v>292</v>
-      </c>
-      <c r="C307" s="23" t="s">
-        <v>322</v>
+        <v>293</v>
+      </c>
+      <c r="C307" s="24" t="s">
+        <v>323</v>
       </c>
       <c r="D307" s="12"/>
     </row>
@@ -5902,10 +5912,10 @@
         <v>303</v>
       </c>
       <c r="B308" s="15" t="s">
-        <v>292</v>
-      </c>
-      <c r="C308" s="23" t="s">
-        <v>323</v>
+        <v>293</v>
+      </c>
+      <c r="C308" s="24" t="s">
+        <v>324</v>
       </c>
       <c r="D308" s="12"/>
     </row>
@@ -5915,10 +5925,10 @@
         <v>304</v>
       </c>
       <c r="B309" s="15" t="s">
-        <v>292</v>
-      </c>
-      <c r="C309" s="23" t="s">
-        <v>324</v>
+        <v>293</v>
+      </c>
+      <c r="C309" s="24" t="s">
+        <v>325</v>
       </c>
       <c r="D309" s="12"/>
     </row>
@@ -5928,10 +5938,10 @@
         <v>305</v>
       </c>
       <c r="B310" s="15" t="s">
-        <v>292</v>
-      </c>
-      <c r="C310" s="23" t="s">
-        <v>325</v>
+        <v>293</v>
+      </c>
+      <c r="C310" s="24" t="s">
+        <v>326</v>
       </c>
       <c r="D310" s="12"/>
     </row>
@@ -5941,10 +5951,10 @@
         <v>306</v>
       </c>
       <c r="B311" s="15" t="s">
-        <v>292</v>
-      </c>
-      <c r="C311" s="23" t="s">
-        <v>326</v>
+        <v>293</v>
+      </c>
+      <c r="C311" s="24" t="s">
+        <v>327</v>
       </c>
       <c r="D311" s="12"/>
     </row>
@@ -5954,10 +5964,10 @@
         <v>307</v>
       </c>
       <c r="B312" s="15" t="s">
-        <v>292</v>
-      </c>
-      <c r="C312" s="23" t="s">
-        <v>327</v>
+        <v>293</v>
+      </c>
+      <c r="C312" s="24" t="s">
+        <v>328</v>
       </c>
       <c r="D312" s="12"/>
     </row>
@@ -5967,10 +5977,10 @@
         <v>308</v>
       </c>
       <c r="B313" s="15" t="s">
-        <v>292</v>
-      </c>
-      <c r="C313" s="23" t="s">
-        <v>328</v>
+        <v>293</v>
+      </c>
+      <c r="C313" s="24" t="s">
+        <v>329</v>
       </c>
       <c r="D313" s="12"/>
     </row>
@@ -5980,10 +5990,10 @@
         <v>309</v>
       </c>
       <c r="B314" s="15" t="s">
-        <v>292</v>
-      </c>
-      <c r="C314" s="23" t="s">
-        <v>329</v>
+        <v>293</v>
+      </c>
+      <c r="C314" s="24" t="s">
+        <v>330</v>
       </c>
       <c r="D314" s="12"/>
     </row>
@@ -5993,10 +6003,10 @@
         <v>310</v>
       </c>
       <c r="B315" s="15" t="s">
-        <v>292</v>
-      </c>
-      <c r="C315" s="23" t="s">
-        <v>330</v>
+        <v>293</v>
+      </c>
+      <c r="C315" s="24" t="s">
+        <v>331</v>
       </c>
       <c r="D315" s="12"/>
     </row>
@@ -6006,10 +6016,10 @@
         <v>311</v>
       </c>
       <c r="B316" s="10" t="s">
-        <v>331</v>
-      </c>
-      <c r="C316" s="23" t="s">
         <v>332</v>
+      </c>
+      <c r="C316" s="24" t="s">
+        <v>333</v>
       </c>
       <c r="D316" s="12"/>
     </row>
@@ -6019,10 +6029,10 @@
         <v>312</v>
       </c>
       <c r="B317" s="10" t="s">
-        <v>331</v>
-      </c>
-      <c r="C317" s="23" t="s">
-        <v>333</v>
+        <v>332</v>
+      </c>
+      <c r="C317" s="24" t="s">
+        <v>334</v>
       </c>
       <c r="D317" s="12"/>
     </row>
@@ -6032,10 +6042,10 @@
         <v>313</v>
       </c>
       <c r="B318" s="10" t="s">
-        <v>331</v>
-      </c>
-      <c r="C318" s="23" t="s">
-        <v>334</v>
+        <v>332</v>
+      </c>
+      <c r="C318" s="24" t="s">
+        <v>335</v>
       </c>
       <c r="D318" s="12"/>
     </row>
@@ -6045,10 +6055,10 @@
         <v>314</v>
       </c>
       <c r="B319" s="10" t="s">
-        <v>331</v>
-      </c>
-      <c r="C319" s="23" t="s">
-        <v>335</v>
+        <v>332</v>
+      </c>
+      <c r="C319" s="24" t="s">
+        <v>336</v>
       </c>
       <c r="D319" s="12"/>
     </row>
@@ -6058,10 +6068,10 @@
         <v>315</v>
       </c>
       <c r="B320" s="10" t="s">
-        <v>331</v>
-      </c>
-      <c r="C320" s="23" t="s">
-        <v>336</v>
+        <v>332</v>
+      </c>
+      <c r="C320" s="24" t="s">
+        <v>337</v>
       </c>
       <c r="D320" s="12"/>
     </row>
@@ -6071,10 +6081,10 @@
         <v>316</v>
       </c>
       <c r="B321" s="10" t="s">
-        <v>331</v>
-      </c>
-      <c r="C321" s="23" t="s">
-        <v>337</v>
+        <v>332</v>
+      </c>
+      <c r="C321" s="24" t="s">
+        <v>338</v>
       </c>
       <c r="D321" s="12"/>
     </row>
@@ -6084,10 +6094,10 @@
         <v>317</v>
       </c>
       <c r="B322" s="10" t="s">
-        <v>331</v>
-      </c>
-      <c r="C322" s="23" t="s">
-        <v>338</v>
+        <v>332</v>
+      </c>
+      <c r="C322" s="24" t="s">
+        <v>339</v>
       </c>
       <c r="D322" s="12"/>
     </row>
@@ -6097,10 +6107,10 @@
         <v>318</v>
       </c>
       <c r="B323" s="10" t="s">
-        <v>331</v>
-      </c>
-      <c r="C323" s="23" t="s">
-        <v>339</v>
+        <v>332</v>
+      </c>
+      <c r="C323" s="24" t="s">
+        <v>340</v>
       </c>
       <c r="D323" s="12"/>
     </row>
@@ -6110,10 +6120,10 @@
         <v>319</v>
       </c>
       <c r="B324" s="10" t="s">
-        <v>331</v>
-      </c>
-      <c r="C324" s="25" t="s">
-        <v>340</v>
+        <v>332</v>
+      </c>
+      <c r="C324" s="26" t="s">
+        <v>341</v>
       </c>
       <c r="D324" s="12"/>
     </row>
@@ -6123,10 +6133,10 @@
         <v>320</v>
       </c>
       <c r="B325" s="10" t="s">
-        <v>331</v>
-      </c>
-      <c r="C325" s="23" t="s">
-        <v>341</v>
+        <v>332</v>
+      </c>
+      <c r="C325" s="24" t="s">
+        <v>342</v>
       </c>
       <c r="D325" s="12"/>
     </row>
@@ -6136,10 +6146,10 @@
         <v>321</v>
       </c>
       <c r="B326" s="10" t="s">
-        <v>331</v>
-      </c>
-      <c r="C326" s="23" t="s">
-        <v>342</v>
+        <v>332</v>
+      </c>
+      <c r="C326" s="24" t="s">
+        <v>343</v>
       </c>
       <c r="D326" s="12"/>
     </row>
@@ -6149,10 +6159,10 @@
         <v>322</v>
       </c>
       <c r="B327" s="10" t="s">
-        <v>331</v>
-      </c>
-      <c r="C327" s="23" t="s">
-        <v>343</v>
+        <v>332</v>
+      </c>
+      <c r="C327" s="24" t="s">
+        <v>344</v>
       </c>
       <c r="D327" s="12"/>
     </row>
@@ -6162,10 +6172,10 @@
         <v>323</v>
       </c>
       <c r="B328" s="10" t="s">
-        <v>331</v>
-      </c>
-      <c r="C328" s="23" t="s">
-        <v>344</v>
+        <v>332</v>
+      </c>
+      <c r="C328" s="24" t="s">
+        <v>345</v>
       </c>
       <c r="D328" s="12"/>
     </row>
@@ -6175,10 +6185,10 @@
         <v>324</v>
       </c>
       <c r="B329" s="10" t="s">
-        <v>331</v>
-      </c>
-      <c r="C329" s="23" t="s">
-        <v>345</v>
+        <v>332</v>
+      </c>
+      <c r="C329" s="24" t="s">
+        <v>346</v>
       </c>
       <c r="D329" s="12"/>
     </row>
@@ -6188,10 +6198,10 @@
         <v>325</v>
       </c>
       <c r="B330" s="10" t="s">
-        <v>331</v>
-      </c>
-      <c r="C330" s="23" t="s">
-        <v>346</v>
+        <v>332</v>
+      </c>
+      <c r="C330" s="24" t="s">
+        <v>347</v>
       </c>
       <c r="D330" s="12"/>
     </row>
@@ -6201,10 +6211,10 @@
         <v>326</v>
       </c>
       <c r="B331" s="10" t="s">
-        <v>331</v>
-      </c>
-      <c r="C331" s="23" t="s">
-        <v>347</v>
+        <v>332</v>
+      </c>
+      <c r="C331" s="24" t="s">
+        <v>348</v>
       </c>
       <c r="D331" s="12"/>
     </row>
@@ -6214,10 +6224,10 @@
         <v>327</v>
       </c>
       <c r="B332" s="10" t="s">
-        <v>331</v>
-      </c>
-      <c r="C332" s="23" t="s">
-        <v>348</v>
+        <v>332</v>
+      </c>
+      <c r="C332" s="24" t="s">
+        <v>349</v>
       </c>
       <c r="D332" s="12"/>
     </row>
@@ -6227,10 +6237,10 @@
         <v>328</v>
       </c>
       <c r="B333" s="10" t="s">
-        <v>331</v>
-      </c>
-      <c r="C333" s="23" t="s">
-        <v>349</v>
+        <v>332</v>
+      </c>
+      <c r="C333" s="24" t="s">
+        <v>350</v>
       </c>
       <c r="D333" s="12"/>
     </row>
@@ -6240,10 +6250,10 @@
         <v>329</v>
       </c>
       <c r="B334" s="15" t="s">
-        <v>350</v>
-      </c>
-      <c r="C334" s="23" t="s">
         <v>351</v>
+      </c>
+      <c r="C334" s="24" t="s">
+        <v>352</v>
       </c>
       <c r="D334" s="12"/>
     </row>
@@ -6253,10 +6263,10 @@
         <v>330</v>
       </c>
       <c r="B335" s="15" t="s">
-        <v>350</v>
-      </c>
-      <c r="C335" s="23" t="s">
-        <v>352</v>
+        <v>351</v>
+      </c>
+      <c r="C335" s="24" t="s">
+        <v>353</v>
       </c>
       <c r="D335" s="12"/>
     </row>
@@ -6266,10 +6276,10 @@
         <v>331</v>
       </c>
       <c r="B336" s="15" t="s">
-        <v>350</v>
-      </c>
-      <c r="C336" s="23" t="s">
-        <v>353</v>
+        <v>351</v>
+      </c>
+      <c r="C336" s="24" t="s">
+        <v>354</v>
       </c>
       <c r="D336" s="12"/>
     </row>
@@ -6279,10 +6289,10 @@
         <v>332</v>
       </c>
       <c r="B337" s="15" t="s">
-        <v>350</v>
-      </c>
-      <c r="C337" s="23" t="s">
-        <v>354</v>
+        <v>351</v>
+      </c>
+      <c r="C337" s="24" t="s">
+        <v>355</v>
       </c>
       <c r="D337" s="12"/>
     </row>
@@ -6292,10 +6302,10 @@
         <v>333</v>
       </c>
       <c r="B338" s="15" t="s">
-        <v>350</v>
-      </c>
-      <c r="C338" s="23" t="s">
-        <v>355</v>
+        <v>351</v>
+      </c>
+      <c r="C338" s="24" t="s">
+        <v>356</v>
       </c>
       <c r="D338" s="12"/>
     </row>
@@ -6305,10 +6315,10 @@
         <v>334</v>
       </c>
       <c r="B339" s="15" t="s">
-        <v>350</v>
-      </c>
-      <c r="C339" s="23" t="s">
-        <v>356</v>
+        <v>351</v>
+      </c>
+      <c r="C339" s="24" t="s">
+        <v>357</v>
       </c>
       <c r="D339" s="12"/>
     </row>
@@ -6318,10 +6328,10 @@
         <v>335</v>
       </c>
       <c r="B340" s="15" t="s">
-        <v>350</v>
-      </c>
-      <c r="C340" s="23" t="s">
-        <v>357</v>
+        <v>351</v>
+      </c>
+      <c r="C340" s="24" t="s">
+        <v>358</v>
       </c>
       <c r="D340" s="12"/>
     </row>
@@ -6331,10 +6341,10 @@
         <v>336</v>
       </c>
       <c r="B341" s="15" t="s">
-        <v>350</v>
-      </c>
-      <c r="C341" s="23" t="s">
-        <v>358</v>
+        <v>351</v>
+      </c>
+      <c r="C341" s="24" t="s">
+        <v>359</v>
       </c>
       <c r="D341" s="12"/>
     </row>
@@ -6344,10 +6354,10 @@
         <v>337</v>
       </c>
       <c r="B342" s="15" t="s">
-        <v>350</v>
-      </c>
-      <c r="C342" s="23" t="s">
-        <v>359</v>
+        <v>351</v>
+      </c>
+      <c r="C342" s="24" t="s">
+        <v>360</v>
       </c>
       <c r="D342" s="12"/>
     </row>
@@ -6357,10 +6367,10 @@
         <v>338</v>
       </c>
       <c r="B343" s="15" t="s">
-        <v>350</v>
-      </c>
-      <c r="C343" s="23" t="s">
-        <v>360</v>
+        <v>351</v>
+      </c>
+      <c r="C343" s="24" t="s">
+        <v>361</v>
       </c>
       <c r="D343" s="12"/>
     </row>
@@ -6370,10 +6380,10 @@
         <v>339</v>
       </c>
       <c r="B344" s="15" t="s">
-        <v>350</v>
-      </c>
-      <c r="C344" s="23" t="s">
-        <v>361</v>
+        <v>351</v>
+      </c>
+      <c r="C344" s="24" t="s">
+        <v>362</v>
       </c>
       <c r="D344" s="12"/>
     </row>
@@ -6383,10 +6393,10 @@
         <v>340</v>
       </c>
       <c r="B345" s="15" t="s">
-        <v>350</v>
-      </c>
-      <c r="C345" s="23" t="s">
-        <v>362</v>
+        <v>351</v>
+      </c>
+      <c r="C345" s="24" t="s">
+        <v>363</v>
       </c>
       <c r="D345" s="12"/>
     </row>
@@ -6396,10 +6406,10 @@
         <v>341</v>
       </c>
       <c r="B346" s="15" t="s">
-        <v>350</v>
-      </c>
-      <c r="C346" s="23" t="s">
-        <v>363</v>
+        <v>351</v>
+      </c>
+      <c r="C346" s="24" t="s">
+        <v>364</v>
       </c>
       <c r="D346" s="12"/>
     </row>
@@ -6409,10 +6419,10 @@
         <v>342</v>
       </c>
       <c r="B347" s="15" t="s">
-        <v>350</v>
-      </c>
-      <c r="C347" s="23" t="s">
-        <v>364</v>
+        <v>351</v>
+      </c>
+      <c r="C347" s="24" t="s">
+        <v>365</v>
       </c>
       <c r="D347" s="12"/>
     </row>
@@ -6422,10 +6432,10 @@
         <v>343</v>
       </c>
       <c r="B348" s="15" t="s">
-        <v>350</v>
-      </c>
-      <c r="C348" s="23" t="s">
-        <v>365</v>
+        <v>351</v>
+      </c>
+      <c r="C348" s="24" t="s">
+        <v>366</v>
       </c>
       <c r="D348" s="12"/>
     </row>
@@ -6435,10 +6445,10 @@
         <v>344</v>
       </c>
       <c r="B349" s="15" t="s">
-        <v>350</v>
-      </c>
-      <c r="C349" s="23" t="s">
-        <v>366</v>
+        <v>351</v>
+      </c>
+      <c r="C349" s="24" t="s">
+        <v>367</v>
       </c>
       <c r="D349" s="12"/>
     </row>
@@ -6448,10 +6458,10 @@
         <v>345</v>
       </c>
       <c r="B350" s="15" t="s">
-        <v>350</v>
-      </c>
-      <c r="C350" s="23" t="s">
-        <v>367</v>
+        <v>351</v>
+      </c>
+      <c r="C350" s="24" t="s">
+        <v>368</v>
       </c>
       <c r="D350" s="12"/>
     </row>
@@ -6461,10 +6471,10 @@
         <v>346</v>
       </c>
       <c r="B351" s="15" t="s">
-        <v>350</v>
-      </c>
-      <c r="C351" s="23" t="s">
-        <v>368</v>
+        <v>351</v>
+      </c>
+      <c r="C351" s="24" t="s">
+        <v>369</v>
       </c>
       <c r="D351" s="12"/>
     </row>
@@ -6474,10 +6484,10 @@
         <v>347</v>
       </c>
       <c r="B352" s="15" t="s">
-        <v>350</v>
-      </c>
-      <c r="C352" s="23" t="s">
-        <v>369</v>
+        <v>351</v>
+      </c>
+      <c r="C352" s="24" t="s">
+        <v>370</v>
       </c>
       <c r="D352" s="12"/>
     </row>
@@ -6487,10 +6497,10 @@
         <v>348</v>
       </c>
       <c r="B353" s="15" t="s">
-        <v>350</v>
-      </c>
-      <c r="C353" s="23" t="s">
-        <v>370</v>
+        <v>351</v>
+      </c>
+      <c r="C353" s="24" t="s">
+        <v>371</v>
       </c>
       <c r="D353" s="12"/>
     </row>
@@ -6500,10 +6510,10 @@
         <v>349</v>
       </c>
       <c r="B354" s="15" t="s">
-        <v>350</v>
-      </c>
-      <c r="C354" s="23" t="s">
-        <v>371</v>
+        <v>351</v>
+      </c>
+      <c r="C354" s="24" t="s">
+        <v>372</v>
       </c>
       <c r="D354" s="12"/>
     </row>
@@ -6513,10 +6523,10 @@
         <v>350</v>
       </c>
       <c r="B355" s="15" t="s">
-        <v>350</v>
-      </c>
-      <c r="C355" s="23" t="s">
-        <v>372</v>
+        <v>351</v>
+      </c>
+      <c r="C355" s="24" t="s">
+        <v>373</v>
       </c>
       <c r="D355" s="12"/>
     </row>
@@ -6526,10 +6536,10 @@
         <v>351</v>
       </c>
       <c r="B356" s="15" t="s">
-        <v>350</v>
-      </c>
-      <c r="C356" s="23" t="s">
-        <v>373</v>
+        <v>351</v>
+      </c>
+      <c r="C356" s="24" t="s">
+        <v>374</v>
       </c>
       <c r="D356" s="12"/>
     </row>
@@ -6539,10 +6549,10 @@
         <v>352</v>
       </c>
       <c r="B357" s="15" t="s">
-        <v>350</v>
-      </c>
-      <c r="C357" s="23" t="s">
-        <v>374</v>
+        <v>351</v>
+      </c>
+      <c r="C357" s="24" t="s">
+        <v>375</v>
       </c>
       <c r="D357" s="12"/>
     </row>
@@ -6552,10 +6562,10 @@
         <v>353</v>
       </c>
       <c r="B358" s="15" t="s">
-        <v>350</v>
-      </c>
-      <c r="C358" s="23" t="s">
-        <v>375</v>
+        <v>351</v>
+      </c>
+      <c r="C358" s="24" t="s">
+        <v>376</v>
       </c>
       <c r="D358" s="12"/>
     </row>
@@ -6565,10 +6575,10 @@
         <v>354</v>
       </c>
       <c r="B359" s="15" t="s">
-        <v>350</v>
-      </c>
-      <c r="C359" s="23" t="s">
-        <v>376</v>
+        <v>351</v>
+      </c>
+      <c r="C359" s="24" t="s">
+        <v>377</v>
       </c>
       <c r="D359" s="12"/>
     </row>
@@ -6578,10 +6588,10 @@
         <v>355</v>
       </c>
       <c r="B360" s="15" t="s">
-        <v>350</v>
-      </c>
-      <c r="C360" s="23" t="s">
-        <v>377</v>
+        <v>351</v>
+      </c>
+      <c r="C360" s="24" t="s">
+        <v>378</v>
       </c>
       <c r="D360" s="12"/>
     </row>
@@ -6591,10 +6601,10 @@
         <v>356</v>
       </c>
       <c r="B361" s="15" t="s">
-        <v>350</v>
-      </c>
-      <c r="C361" s="23" t="s">
-        <v>378</v>
+        <v>351</v>
+      </c>
+      <c r="C361" s="24" t="s">
+        <v>379</v>
       </c>
       <c r="D361" s="12"/>
     </row>
@@ -6604,10 +6614,10 @@
         <v>357</v>
       </c>
       <c r="B362" s="15" t="s">
-        <v>350</v>
-      </c>
-      <c r="C362" s="23" t="s">
-        <v>379</v>
+        <v>351</v>
+      </c>
+      <c r="C362" s="24" t="s">
+        <v>380</v>
       </c>
       <c r="D362" s="12"/>
     </row>
@@ -6617,10 +6627,10 @@
         <v>358</v>
       </c>
       <c r="B363" s="15" t="s">
-        <v>350</v>
-      </c>
-      <c r="C363" s="23" t="s">
-        <v>380</v>
+        <v>351</v>
+      </c>
+      <c r="C363" s="24" t="s">
+        <v>381</v>
       </c>
       <c r="D363" s="12"/>
     </row>
@@ -6630,10 +6640,10 @@
         <v>359</v>
       </c>
       <c r="B364" s="15" t="s">
-        <v>350</v>
-      </c>
-      <c r="C364" s="23" t="s">
-        <v>381</v>
+        <v>351</v>
+      </c>
+      <c r="C364" s="24" t="s">
+        <v>382</v>
       </c>
       <c r="D364" s="12"/>
     </row>
@@ -6643,10 +6653,10 @@
         <v>360</v>
       </c>
       <c r="B365" s="15" t="s">
-        <v>350</v>
-      </c>
-      <c r="C365" s="23" t="s">
-        <v>382</v>
+        <v>351</v>
+      </c>
+      <c r="C365" s="24" t="s">
+        <v>383</v>
       </c>
       <c r="D365" s="12"/>
     </row>
@@ -6656,10 +6666,10 @@
         <v>361</v>
       </c>
       <c r="B366" s="15" t="s">
-        <v>350</v>
-      </c>
-      <c r="C366" s="23" t="s">
-        <v>383</v>
+        <v>351</v>
+      </c>
+      <c r="C366" s="24" t="s">
+        <v>384</v>
       </c>
       <c r="D366" s="12"/>
     </row>
@@ -6669,10 +6679,10 @@
         <v>362</v>
       </c>
       <c r="B367" s="15" t="s">
-        <v>350</v>
-      </c>
-      <c r="C367" s="23" t="s">
-        <v>384</v>
+        <v>351</v>
+      </c>
+      <c r="C367" s="24" t="s">
+        <v>385</v>
       </c>
       <c r="D367" s="12"/>
     </row>
@@ -6682,10 +6692,10 @@
         <v>363</v>
       </c>
       <c r="B368" s="15" t="s">
-        <v>350</v>
-      </c>
-      <c r="C368" s="23" t="s">
-        <v>384</v>
+        <v>351</v>
+      </c>
+      <c r="C368" s="24" t="s">
+        <v>385</v>
       </c>
       <c r="D368" s="12"/>
     </row>
@@ -6695,10 +6705,10 @@
         <v>364</v>
       </c>
       <c r="B369" s="15" t="s">
-        <v>350</v>
-      </c>
-      <c r="C369" s="23" t="s">
-        <v>385</v>
+        <v>351</v>
+      </c>
+      <c r="C369" s="24" t="s">
+        <v>386</v>
       </c>
       <c r="D369" s="12"/>
     </row>
@@ -6708,10 +6718,10 @@
         <v>365</v>
       </c>
       <c r="B370" s="15" t="s">
-        <v>350</v>
-      </c>
-      <c r="C370" s="23" t="s">
-        <v>386</v>
+        <v>351</v>
+      </c>
+      <c r="C370" s="24" t="s">
+        <v>387</v>
       </c>
       <c r="D370" s="12"/>
     </row>
@@ -6721,10 +6731,10 @@
         <v>366</v>
       </c>
       <c r="B371" s="15" t="s">
-        <v>350</v>
-      </c>
-      <c r="C371" s="23" t="s">
-        <v>387</v>
+        <v>351</v>
+      </c>
+      <c r="C371" s="24" t="s">
+        <v>388</v>
       </c>
       <c r="D371" s="12"/>
     </row>
@@ -6734,10 +6744,10 @@
         <v>367</v>
       </c>
       <c r="B372" s="15" t="s">
-        <v>350</v>
-      </c>
-      <c r="C372" s="23" t="s">
-        <v>388</v>
+        <v>351</v>
+      </c>
+      <c r="C372" s="24" t="s">
+        <v>389</v>
       </c>
       <c r="D372" s="12"/>
     </row>
@@ -6747,10 +6757,10 @@
         <v>368</v>
       </c>
       <c r="B373" s="15" t="s">
-        <v>350</v>
-      </c>
-      <c r="C373" s="23" t="s">
-        <v>389</v>
+        <v>351</v>
+      </c>
+      <c r="C373" s="24" t="s">
+        <v>390</v>
       </c>
       <c r="D373" s="12"/>
     </row>
@@ -6760,10 +6770,10 @@
         <v>369</v>
       </c>
       <c r="B374" s="15" t="s">
-        <v>350</v>
-      </c>
-      <c r="C374" s="23" t="s">
-        <v>390</v>
+        <v>351</v>
+      </c>
+      <c r="C374" s="24" t="s">
+        <v>391</v>
       </c>
       <c r="D374" s="12"/>
     </row>
@@ -6773,10 +6783,10 @@
         <v>370</v>
       </c>
       <c r="B375" s="15" t="s">
-        <v>350</v>
-      </c>
-      <c r="C375" s="23" t="s">
-        <v>391</v>
+        <v>351</v>
+      </c>
+      <c r="C375" s="24" t="s">
+        <v>392</v>
       </c>
       <c r="D375" s="12"/>
     </row>
@@ -6786,10 +6796,10 @@
         <v>371</v>
       </c>
       <c r="B376" s="15" t="s">
-        <v>350</v>
-      </c>
-      <c r="C376" s="23" t="s">
-        <v>392</v>
+        <v>351</v>
+      </c>
+      <c r="C376" s="24" t="s">
+        <v>393</v>
       </c>
       <c r="D376" s="12"/>
     </row>
@@ -6799,10 +6809,10 @@
         <v>372</v>
       </c>
       <c r="B377" s="15" t="s">
-        <v>350</v>
-      </c>
-      <c r="C377" s="23" t="s">
-        <v>393</v>
+        <v>351</v>
+      </c>
+      <c r="C377" s="24" t="s">
+        <v>394</v>
       </c>
       <c r="D377" s="12"/>
     </row>
@@ -6812,10 +6822,10 @@
         <v>373</v>
       </c>
       <c r="B378" s="10" t="s">
-        <v>394</v>
-      </c>
-      <c r="C378" s="23" t="s">
         <v>395</v>
+      </c>
+      <c r="C378" s="24" t="s">
+        <v>396</v>
       </c>
       <c r="D378" s="12"/>
     </row>
@@ -6825,10 +6835,10 @@
         <v>374</v>
       </c>
       <c r="B379" s="10" t="s">
-        <v>394</v>
-      </c>
-      <c r="C379" s="23" t="s">
-        <v>396</v>
+        <v>395</v>
+      </c>
+      <c r="C379" s="24" t="s">
+        <v>397</v>
       </c>
       <c r="D379" s="12"/>
     </row>
@@ -6838,10 +6848,10 @@
         <v>375</v>
       </c>
       <c r="B380" s="10" t="s">
-        <v>394</v>
-      </c>
-      <c r="C380" s="23" t="s">
-        <v>397</v>
+        <v>395</v>
+      </c>
+      <c r="C380" s="24" t="s">
+        <v>398</v>
       </c>
       <c r="D380" s="12"/>
     </row>
@@ -6851,10 +6861,10 @@
         <v>376</v>
       </c>
       <c r="B381" s="10" t="s">
-        <v>394</v>
-      </c>
-      <c r="C381" s="23" t="s">
-        <v>96</v>
+        <v>395</v>
+      </c>
+      <c r="C381" s="24" t="s">
+        <v>97</v>
       </c>
       <c r="D381" s="12"/>
     </row>
@@ -6864,10 +6874,10 @@
         <v>377</v>
       </c>
       <c r="B382" s="10" t="s">
-        <v>394</v>
-      </c>
-      <c r="C382" s="23" t="s">
-        <v>398</v>
+        <v>395</v>
+      </c>
+      <c r="C382" s="24" t="s">
+        <v>399</v>
       </c>
       <c r="D382" s="12"/>
     </row>
@@ -6877,10 +6887,10 @@
         <v>378</v>
       </c>
       <c r="B383" s="10" t="s">
-        <v>394</v>
-      </c>
-      <c r="C383" s="23" t="s">
-        <v>399</v>
+        <v>395</v>
+      </c>
+      <c r="C383" s="24" t="s">
+        <v>400</v>
       </c>
       <c r="D383" s="12"/>
     </row>
@@ -6890,10 +6900,10 @@
         <v>379</v>
       </c>
       <c r="B384" s="15" t="s">
-        <v>400</v>
-      </c>
-      <c r="C384" s="23" t="s">
         <v>401</v>
+      </c>
+      <c r="C384" s="24" t="s">
+        <v>402</v>
       </c>
       <c r="D384" s="12"/>
     </row>
@@ -6903,10 +6913,10 @@
         <v>380</v>
       </c>
       <c r="B385" s="15" t="s">
-        <v>400</v>
-      </c>
-      <c r="C385" s="23" t="s">
-        <v>402</v>
+        <v>401</v>
+      </c>
+      <c r="C385" s="24" t="s">
+        <v>403</v>
       </c>
       <c r="D385" s="12"/>
     </row>
@@ -6916,10 +6926,10 @@
         <v>381</v>
       </c>
       <c r="B386" s="15" t="s">
-        <v>400</v>
-      </c>
-      <c r="C386" s="23" t="s">
-        <v>403</v>
+        <v>401</v>
+      </c>
+      <c r="C386" s="24" t="s">
+        <v>404</v>
       </c>
       <c r="D386" s="12"/>
     </row>
@@ -6929,10 +6939,10 @@
         <v>382</v>
       </c>
       <c r="B387" s="15" t="s">
-        <v>400</v>
-      </c>
-      <c r="C387" s="23" t="s">
-        <v>404</v>
+        <v>401</v>
+      </c>
+      <c r="C387" s="24" t="s">
+        <v>405</v>
       </c>
       <c r="D387" s="12"/>
     </row>
@@ -6942,10 +6952,10 @@
         <v>383</v>
       </c>
       <c r="B388" s="15" t="s">
-        <v>400</v>
-      </c>
-      <c r="C388" s="23" t="s">
-        <v>405</v>
+        <v>401</v>
+      </c>
+      <c r="C388" s="24" t="s">
+        <v>406</v>
       </c>
       <c r="D388" s="12"/>
     </row>
@@ -6955,10 +6965,10 @@
         <v>384</v>
       </c>
       <c r="B389" s="15" t="s">
-        <v>400</v>
-      </c>
-      <c r="C389" s="23" t="s">
-        <v>406</v>
+        <v>401</v>
+      </c>
+      <c r="C389" s="24" t="s">
+        <v>407</v>
       </c>
       <c r="D389" s="12"/>
     </row>
@@ -6968,10 +6978,10 @@
         <v>385</v>
       </c>
       <c r="B390" s="15" t="s">
-        <v>400</v>
-      </c>
-      <c r="C390" s="23" t="s">
-        <v>407</v>
+        <v>401</v>
+      </c>
+      <c r="C390" s="24" t="s">
+        <v>408</v>
       </c>
       <c r="D390" s="12"/>
     </row>
@@ -6981,10 +6991,10 @@
         <v>386</v>
       </c>
       <c r="B391" s="15" t="s">
-        <v>400</v>
-      </c>
-      <c r="C391" s="23" t="s">
-        <v>280</v>
+        <v>401</v>
+      </c>
+      <c r="C391" s="24" t="s">
+        <v>281</v>
       </c>
       <c r="D391" s="12"/>
     </row>
@@ -6994,10 +7004,10 @@
         <v>387</v>
       </c>
       <c r="B392" s="15" t="s">
-        <v>400</v>
-      </c>
-      <c r="C392" s="23" t="s">
-        <v>408</v>
+        <v>401</v>
+      </c>
+      <c r="C392" s="24" t="s">
+        <v>409</v>
       </c>
       <c r="D392" s="12"/>
     </row>
@@ -7007,10 +7017,10 @@
         <v>388</v>
       </c>
       <c r="B393" s="15" t="s">
-        <v>400</v>
-      </c>
-      <c r="C393" s="23" t="s">
-        <v>409</v>
+        <v>401</v>
+      </c>
+      <c r="C393" s="24" t="s">
+        <v>410</v>
       </c>
       <c r="D393" s="12"/>
     </row>
@@ -7020,10 +7030,10 @@
         <v>389</v>
       </c>
       <c r="B394" s="15" t="s">
-        <v>400</v>
-      </c>
-      <c r="C394" s="23" t="s">
-        <v>410</v>
+        <v>401</v>
+      </c>
+      <c r="C394" s="24" t="s">
+        <v>411</v>
       </c>
       <c r="D394" s="12"/>
     </row>
@@ -7033,10 +7043,10 @@
         <v>390</v>
       </c>
       <c r="B395" s="15" t="s">
-        <v>400</v>
-      </c>
-      <c r="C395" s="23" t="s">
-        <v>411</v>
+        <v>401</v>
+      </c>
+      <c r="C395" s="24" t="s">
+        <v>412</v>
       </c>
       <c r="D395" s="12"/>
     </row>
@@ -7046,10 +7056,10 @@
         <v>391</v>
       </c>
       <c r="B396" s="15" t="s">
-        <v>400</v>
-      </c>
-      <c r="C396" s="23" t="s">
-        <v>412</v>
+        <v>401</v>
+      </c>
+      <c r="C396" s="24" t="s">
+        <v>413</v>
       </c>
       <c r="D396" s="12"/>
     </row>
@@ -7059,10 +7069,10 @@
         <v>392</v>
       </c>
       <c r="B397" s="15" t="s">
-        <v>400</v>
-      </c>
-      <c r="C397" s="23" t="s">
-        <v>413</v>
+        <v>401</v>
+      </c>
+      <c r="C397" s="24" t="s">
+        <v>414</v>
       </c>
       <c r="D397" s="12"/>
     </row>
@@ -7072,10 +7082,10 @@
         <v>393</v>
       </c>
       <c r="B398" s="15" t="s">
-        <v>400</v>
-      </c>
-      <c r="C398" s="23" t="s">
-        <v>414</v>
+        <v>401</v>
+      </c>
+      <c r="C398" s="24" t="s">
+        <v>415</v>
       </c>
       <c r="D398" s="12"/>
     </row>
@@ -7085,10 +7095,10 @@
         <v>394</v>
       </c>
       <c r="B399" s="15" t="s">
-        <v>400</v>
-      </c>
-      <c r="C399" s="23" t="s">
-        <v>415</v>
+        <v>401</v>
+      </c>
+      <c r="C399" s="24" t="s">
+        <v>416</v>
       </c>
       <c r="D399" s="12"/>
     </row>
@@ -7098,10 +7108,10 @@
         <v>395</v>
       </c>
       <c r="B400" s="15" t="s">
-        <v>400</v>
-      </c>
-      <c r="C400" s="23" t="s">
-        <v>416</v>
+        <v>401</v>
+      </c>
+      <c r="C400" s="24" t="s">
+        <v>417</v>
       </c>
       <c r="D400" s="12"/>
     </row>
@@ -7111,10 +7121,10 @@
         <v>396</v>
       </c>
       <c r="B401" s="15" t="s">
-        <v>400</v>
-      </c>
-      <c r="C401" s="23" t="s">
-        <v>417</v>
+        <v>401</v>
+      </c>
+      <c r="C401" s="24" t="s">
+        <v>418</v>
       </c>
       <c r="D401" s="12"/>
     </row>
@@ -7124,10 +7134,10 @@
         <v>397</v>
       </c>
       <c r="B402" s="15" t="s">
-        <v>400</v>
-      </c>
-      <c r="C402" s="23" t="s">
-        <v>418</v>
+        <v>401</v>
+      </c>
+      <c r="C402" s="24" t="s">
+        <v>419</v>
       </c>
       <c r="D402" s="12"/>
     </row>
@@ -7137,10 +7147,10 @@
         <v>398</v>
       </c>
       <c r="B403" s="15" t="s">
-        <v>400</v>
-      </c>
-      <c r="C403" s="23" t="s">
-        <v>419</v>
+        <v>401</v>
+      </c>
+      <c r="C403" s="24" t="s">
+        <v>420</v>
       </c>
       <c r="D403" s="12"/>
     </row>
@@ -7150,10 +7160,10 @@
         <v>399</v>
       </c>
       <c r="B404" s="15" t="s">
-        <v>400</v>
-      </c>
-      <c r="C404" s="23" t="s">
-        <v>420</v>
+        <v>401</v>
+      </c>
+      <c r="C404" s="24" t="s">
+        <v>421</v>
       </c>
       <c r="D404" s="12"/>
     </row>
@@ -7163,10 +7173,10 @@
         <v>400</v>
       </c>
       <c r="B405" s="15" t="s">
-        <v>400</v>
-      </c>
-      <c r="C405" s="23" t="s">
-        <v>421</v>
+        <v>401</v>
+      </c>
+      <c r="C405" s="24" t="s">
+        <v>422</v>
       </c>
       <c r="D405" s="12"/>
     </row>
@@ -7176,10 +7186,10 @@
         <v>401</v>
       </c>
       <c r="B406" s="15" t="s">
-        <v>400</v>
-      </c>
-      <c r="C406" s="23" t="s">
-        <v>422</v>
+        <v>401</v>
+      </c>
+      <c r="C406" s="24" t="s">
+        <v>423</v>
       </c>
       <c r="D406" s="12"/>
     </row>
@@ -7189,10 +7199,10 @@
         <v>402</v>
       </c>
       <c r="B407" s="15" t="s">
-        <v>400</v>
-      </c>
-      <c r="C407" s="23" t="s">
-        <v>423</v>
+        <v>401</v>
+      </c>
+      <c r="C407" s="24" t="s">
+        <v>424</v>
       </c>
       <c r="D407" s="12"/>
     </row>
@@ -7202,10 +7212,10 @@
         <v>403</v>
       </c>
       <c r="B408" s="15" t="s">
-        <v>400</v>
-      </c>
-      <c r="C408" s="23" t="s">
-        <v>424</v>
+        <v>401</v>
+      </c>
+      <c r="C408" s="24" t="s">
+        <v>425</v>
       </c>
       <c r="D408" s="12"/>
     </row>
@@ -7215,10 +7225,10 @@
         <v>404</v>
       </c>
       <c r="B409" s="15" t="s">
-        <v>400</v>
-      </c>
-      <c r="C409" s="23" t="s">
-        <v>425</v>
+        <v>401</v>
+      </c>
+      <c r="C409" s="24" t="s">
+        <v>426</v>
       </c>
       <c r="D409" s="12"/>
     </row>
@@ -7228,10 +7238,10 @@
         <v>405</v>
       </c>
       <c r="B410" s="15" t="s">
-        <v>400</v>
-      </c>
-      <c r="C410" s="23" t="s">
-        <v>426</v>
+        <v>401</v>
+      </c>
+      <c r="C410" s="24" t="s">
+        <v>427</v>
       </c>
       <c r="D410" s="12"/>
     </row>
@@ -7241,10 +7251,10 @@
         <v>406</v>
       </c>
       <c r="B411" s="15" t="s">
-        <v>400</v>
-      </c>
-      <c r="C411" s="23" t="s">
-        <v>427</v>
+        <v>401</v>
+      </c>
+      <c r="C411" s="24" t="s">
+        <v>428</v>
       </c>
       <c r="D411" s="12"/>
     </row>
@@ -7254,10 +7264,10 @@
         <v>407</v>
       </c>
       <c r="B412" s="15" t="s">
-        <v>400</v>
-      </c>
-      <c r="C412" s="23" t="s">
-        <v>428</v>
+        <v>401</v>
+      </c>
+      <c r="C412" s="24" t="s">
+        <v>429</v>
       </c>
       <c r="D412" s="12"/>
     </row>
@@ -7267,10 +7277,10 @@
         <v>408</v>
       </c>
       <c r="B413" s="15" t="s">
-        <v>400</v>
-      </c>
-      <c r="C413" s="23" t="s">
-        <v>429</v>
+        <v>401</v>
+      </c>
+      <c r="C413" s="24" t="s">
+        <v>430</v>
       </c>
       <c r="D413" s="12"/>
     </row>
@@ -7280,10 +7290,10 @@
         <v>409</v>
       </c>
       <c r="B414" s="15" t="s">
-        <v>400</v>
-      </c>
-      <c r="C414" s="23" t="s">
-        <v>430</v>
+        <v>401</v>
+      </c>
+      <c r="C414" s="24" t="s">
+        <v>431</v>
       </c>
       <c r="D414" s="12"/>
     </row>
@@ -7293,10 +7303,10 @@
         <v>410</v>
       </c>
       <c r="B415" s="15" t="s">
-        <v>400</v>
-      </c>
-      <c r="C415" s="23" t="s">
-        <v>431</v>
+        <v>401</v>
+      </c>
+      <c r="C415" s="24" t="s">
+        <v>432</v>
       </c>
       <c r="D415" s="12"/>
     </row>
@@ -7306,10 +7316,10 @@
         <v>411</v>
       </c>
       <c r="B416" s="15" t="s">
-        <v>400</v>
-      </c>
-      <c r="C416" s="23" t="s">
-        <v>432</v>
+        <v>401</v>
+      </c>
+      <c r="C416" s="24" t="s">
+        <v>433</v>
       </c>
       <c r="D416" s="12"/>
     </row>
@@ -7319,10 +7329,10 @@
         <v>412</v>
       </c>
       <c r="B417" s="15" t="s">
-        <v>400</v>
-      </c>
-      <c r="C417" s="23" t="s">
-        <v>433</v>
+        <v>401</v>
+      </c>
+      <c r="C417" s="24" t="s">
+        <v>434</v>
       </c>
       <c r="D417" s="12"/>
     </row>
@@ -7332,10 +7342,10 @@
         <v>413</v>
       </c>
       <c r="B418" s="15" t="s">
-        <v>400</v>
-      </c>
-      <c r="C418" s="23" t="s">
-        <v>434</v>
+        <v>401</v>
+      </c>
+      <c r="C418" s="24" t="s">
+        <v>435</v>
       </c>
       <c r="D418" s="12"/>
     </row>
@@ -7345,10 +7355,10 @@
         <v>414</v>
       </c>
       <c r="B419" s="15" t="s">
-        <v>400</v>
-      </c>
-      <c r="C419" s="23" t="s">
-        <v>435</v>
+        <v>401</v>
+      </c>
+      <c r="C419" s="24" t="s">
+        <v>436</v>
       </c>
       <c r="D419" s="12"/>
     </row>
@@ -7358,10 +7368,10 @@
         <v>415</v>
       </c>
       <c r="B420" s="15" t="s">
-        <v>400</v>
-      </c>
-      <c r="C420" s="23" t="s">
-        <v>436</v>
+        <v>401</v>
+      </c>
+      <c r="C420" s="24" t="s">
+        <v>437</v>
       </c>
       <c r="D420" s="12"/>
     </row>
@@ -7371,10 +7381,10 @@
         <v>416</v>
       </c>
       <c r="B421" s="15" t="s">
-        <v>400</v>
-      </c>
-      <c r="C421" s="23" t="s">
-        <v>437</v>
+        <v>401</v>
+      </c>
+      <c r="C421" s="24" t="s">
+        <v>438</v>
       </c>
       <c r="D421" s="12"/>
     </row>
@@ -7384,10 +7394,10 @@
         <v>417</v>
       </c>
       <c r="B422" s="15" t="s">
-        <v>400</v>
-      </c>
-      <c r="C422" s="23" t="s">
-        <v>438</v>
+        <v>401</v>
+      </c>
+      <c r="C422" s="24" t="s">
+        <v>439</v>
       </c>
       <c r="D422" s="12"/>
     </row>
@@ -7397,10 +7407,10 @@
         <v>418</v>
       </c>
       <c r="B423" s="15" t="s">
-        <v>400</v>
-      </c>
-      <c r="C423" s="23" t="s">
-        <v>439</v>
+        <v>401</v>
+      </c>
+      <c r="C423" s="24" t="s">
+        <v>440</v>
       </c>
       <c r="D423" s="12"/>
     </row>
@@ -7410,10 +7420,10 @@
         <v>419</v>
       </c>
       <c r="B424" s="15" t="s">
-        <v>400</v>
-      </c>
-      <c r="C424" s="23" t="s">
-        <v>440</v>
+        <v>401</v>
+      </c>
+      <c r="C424" s="24" t="s">
+        <v>441</v>
       </c>
       <c r="D424" s="12"/>
     </row>
@@ -7423,10 +7433,10 @@
         <v>420</v>
       </c>
       <c r="B425" s="15" t="s">
-        <v>400</v>
-      </c>
-      <c r="C425" s="23" t="s">
-        <v>441</v>
+        <v>401</v>
+      </c>
+      <c r="C425" s="24" t="s">
+        <v>442</v>
       </c>
       <c r="D425" s="12"/>
     </row>
@@ -7436,10 +7446,10 @@
         <v>421</v>
       </c>
       <c r="B426" s="15" t="s">
-        <v>400</v>
-      </c>
-      <c r="C426" s="23" t="s">
-        <v>442</v>
+        <v>401</v>
+      </c>
+      <c r="C426" s="24" t="s">
+        <v>443</v>
       </c>
       <c r="D426" s="12"/>
     </row>
@@ -7449,10 +7459,10 @@
         <v>422</v>
       </c>
       <c r="B427" s="15" t="s">
-        <v>400</v>
-      </c>
-      <c r="C427" s="23" t="s">
-        <v>443</v>
+        <v>401</v>
+      </c>
+      <c r="C427" s="24" t="s">
+        <v>444</v>
       </c>
       <c r="D427" s="12"/>
     </row>
@@ -7462,10 +7472,10 @@
         <v>423</v>
       </c>
       <c r="B428" s="15" t="s">
-        <v>400</v>
-      </c>
-      <c r="C428" s="23" t="s">
-        <v>444</v>
+        <v>401</v>
+      </c>
+      <c r="C428" s="24" t="s">
+        <v>445</v>
       </c>
       <c r="D428" s="12"/>
     </row>
@@ -7475,10 +7485,10 @@
         <v>424</v>
       </c>
       <c r="B429" s="15" t="s">
-        <v>400</v>
-      </c>
-      <c r="C429" s="23" t="s">
-        <v>445</v>
+        <v>401</v>
+      </c>
+      <c r="C429" s="24" t="s">
+        <v>446</v>
       </c>
       <c r="D429" s="12"/>
     </row>
@@ -7488,10 +7498,10 @@
         <v>425</v>
       </c>
       <c r="B430" s="15" t="s">
-        <v>400</v>
-      </c>
-      <c r="C430" s="23" t="s">
-        <v>446</v>
+        <v>401</v>
+      </c>
+      <c r="C430" s="24" t="s">
+        <v>447</v>
       </c>
       <c r="D430" s="12"/>
     </row>
@@ -7501,10 +7511,10 @@
         <v>426</v>
       </c>
       <c r="B431" s="15" t="s">
-        <v>400</v>
-      </c>
-      <c r="C431" s="23" t="s">
-        <v>447</v>
+        <v>401</v>
+      </c>
+      <c r="C431" s="24" t="s">
+        <v>448</v>
       </c>
       <c r="D431" s="12"/>
     </row>
@@ -7514,10 +7524,10 @@
         <v>427</v>
       </c>
       <c r="B432" s="15" t="s">
-        <v>400</v>
-      </c>
-      <c r="C432" s="23" t="s">
-        <v>448</v>
+        <v>401</v>
+      </c>
+      <c r="C432" s="24" t="s">
+        <v>449</v>
       </c>
       <c r="D432" s="12"/>
     </row>
@@ -7527,10 +7537,10 @@
         <v>428</v>
       </c>
       <c r="B433" s="15" t="s">
-        <v>400</v>
-      </c>
-      <c r="C433" s="23" t="s">
-        <v>449</v>
+        <v>401</v>
+      </c>
+      <c r="C433" s="24" t="s">
+        <v>450</v>
       </c>
       <c r="D433" s="12"/>
     </row>
@@ -7540,10 +7550,10 @@
         <v>429</v>
       </c>
       <c r="B434" s="15" t="s">
-        <v>400</v>
-      </c>
-      <c r="C434" s="23" t="s">
-        <v>450</v>
+        <v>401</v>
+      </c>
+      <c r="C434" s="24" t="s">
+        <v>451</v>
       </c>
       <c r="D434" s="12"/>
     </row>
@@ -7553,10 +7563,10 @@
         <v>430</v>
       </c>
       <c r="B435" s="15" t="s">
-        <v>400</v>
-      </c>
-      <c r="C435" s="23" t="s">
-        <v>451</v>
+        <v>401</v>
+      </c>
+      <c r="C435" s="24" t="s">
+        <v>452</v>
       </c>
       <c r="D435" s="12"/>
     </row>
@@ -7566,10 +7576,10 @@
         <v>431</v>
       </c>
       <c r="B436" s="15" t="s">
-        <v>400</v>
-      </c>
-      <c r="C436" s="23" t="s">
-        <v>452</v>
+        <v>401</v>
+      </c>
+      <c r="C436" s="24" t="s">
+        <v>453</v>
       </c>
       <c r="D436" s="12"/>
     </row>
@@ -7579,10 +7589,10 @@
         <v>432</v>
       </c>
       <c r="B437" s="15" t="s">
-        <v>400</v>
-      </c>
-      <c r="C437" s="23" t="s">
-        <v>453</v>
+        <v>401</v>
+      </c>
+      <c r="C437" s="24" t="s">
+        <v>454</v>
       </c>
       <c r="D437" s="12"/>
     </row>
@@ -7592,10 +7602,10 @@
         <v>433</v>
       </c>
       <c r="B438" s="15" t="s">
-        <v>400</v>
-      </c>
-      <c r="C438" s="23" t="s">
-        <v>454</v>
+        <v>401</v>
+      </c>
+      <c r="C438" s="24" t="s">
+        <v>455</v>
       </c>
       <c r="D438" s="12"/>
     </row>
@@ -7605,10 +7615,10 @@
         <v>434</v>
       </c>
       <c r="B439" s="15" t="s">
-        <v>400</v>
-      </c>
-      <c r="C439" s="23" t="s">
-        <v>455</v>
+        <v>401</v>
+      </c>
+      <c r="C439" s="24" t="s">
+        <v>456</v>
       </c>
       <c r="D439" s="12"/>
     </row>
@@ -7618,10 +7628,10 @@
         <v>435</v>
       </c>
       <c r="B440" s="15" t="s">
-        <v>400</v>
-      </c>
-      <c r="C440" s="23" t="s">
-        <v>456</v>
+        <v>401</v>
+      </c>
+      <c r="C440" s="24" t="s">
+        <v>457</v>
       </c>
       <c r="D440" s="12"/>
     </row>
@@ -7631,10 +7641,10 @@
         <v>436</v>
       </c>
       <c r="B441" s="15" t="s">
-        <v>400</v>
-      </c>
-      <c r="C441" s="23" t="s">
-        <v>457</v>
+        <v>401</v>
+      </c>
+      <c r="C441" s="24" t="s">
+        <v>458</v>
       </c>
       <c r="D441" s="12"/>
     </row>
@@ -7644,10 +7654,10 @@
         <v>437</v>
       </c>
       <c r="B442" s="15" t="s">
-        <v>400</v>
-      </c>
-      <c r="C442" s="23" t="s">
-        <v>458</v>
+        <v>401</v>
+      </c>
+      <c r="C442" s="24" t="s">
+        <v>459</v>
       </c>
       <c r="D442" s="12"/>
     </row>
@@ -7657,10 +7667,10 @@
         <v>438</v>
       </c>
       <c r="B443" s="15" t="s">
-        <v>400</v>
-      </c>
-      <c r="C443" s="23" t="s">
-        <v>459</v>
+        <v>401</v>
+      </c>
+      <c r="C443" s="24" t="s">
+        <v>460</v>
       </c>
       <c r="D443" s="12"/>
     </row>
@@ -7670,10 +7680,10 @@
         <v>439</v>
       </c>
       <c r="B444" s="10" t="s">
-        <v>460</v>
-      </c>
-      <c r="C444" s="23" t="s">
         <v>461</v>
+      </c>
+      <c r="C444" s="24" t="s">
+        <v>462</v>
       </c>
       <c r="D444" s="12"/>
     </row>
@@ -7683,10 +7693,10 @@
         <v>440</v>
       </c>
       <c r="B445" s="10" t="s">
-        <v>460</v>
-      </c>
-      <c r="C445" s="23" t="s">
-        <v>462</v>
+        <v>461</v>
+      </c>
+      <c r="C445" s="24" t="s">
+        <v>463</v>
       </c>
       <c r="D445" s="12"/>
     </row>
@@ -7696,10 +7706,10 @@
         <v>441</v>
       </c>
       <c r="B446" s="10" t="s">
-        <v>460</v>
-      </c>
-      <c r="C446" s="23" t="s">
-        <v>463</v>
+        <v>461</v>
+      </c>
+      <c r="C446" s="24" t="s">
+        <v>464</v>
       </c>
       <c r="D446" s="12"/>
     </row>
@@ -7709,10 +7719,10 @@
         <v>442</v>
       </c>
       <c r="B447" s="10" t="s">
-        <v>460</v>
-      </c>
-      <c r="C447" s="23" t="s">
-        <v>464</v>
+        <v>461</v>
+      </c>
+      <c r="C447" s="24" t="s">
+        <v>465</v>
       </c>
       <c r="D447" s="12"/>
     </row>
@@ -7722,10 +7732,10 @@
         <v>443</v>
       </c>
       <c r="B448" s="10" t="s">
-        <v>460</v>
-      </c>
-      <c r="C448" s="23" t="s">
-        <v>465</v>
+        <v>461</v>
+      </c>
+      <c r="C448" s="24" t="s">
+        <v>466</v>
       </c>
       <c r="D448" s="12"/>
     </row>
@@ -7735,10 +7745,10 @@
         <v>444</v>
       </c>
       <c r="B449" s="10" t="s">
-        <v>460</v>
-      </c>
-      <c r="C449" s="23" t="s">
-        <v>466</v>
+        <v>461</v>
+      </c>
+      <c r="C449" s="24" t="s">
+        <v>467</v>
       </c>
       <c r="D449" s="12"/>
     </row>
@@ -7748,10 +7758,10 @@
         <v>445</v>
       </c>
       <c r="B450" s="10" t="s">
-        <v>460</v>
-      </c>
-      <c r="C450" s="23" t="s">
-        <v>467</v>
+        <v>461</v>
+      </c>
+      <c r="C450" s="24" t="s">
+        <v>468</v>
       </c>
       <c r="D450" s="12"/>
     </row>
@@ -7761,10 +7771,10 @@
         <v>446</v>
       </c>
       <c r="B451" s="10" t="s">
-        <v>460</v>
-      </c>
-      <c r="C451" s="23" t="s">
-        <v>468</v>
+        <v>461</v>
+      </c>
+      <c r="C451" s="24" t="s">
+        <v>469</v>
       </c>
       <c r="D451" s="12"/>
     </row>
@@ -7774,10 +7784,10 @@
         <v>447</v>
       </c>
       <c r="B452" s="10" t="s">
-        <v>460</v>
-      </c>
-      <c r="C452" s="23" t="s">
-        <v>469</v>
+        <v>461</v>
+      </c>
+      <c r="C452" s="24" t="s">
+        <v>470</v>
       </c>
       <c r="D452" s="12"/>
     </row>
@@ -7787,10 +7797,10 @@
         <v>448</v>
       </c>
       <c r="B453" s="10" t="s">
-        <v>460</v>
-      </c>
-      <c r="C453" s="23" t="s">
-        <v>470</v>
+        <v>461</v>
+      </c>
+      <c r="C453" s="24" t="s">
+        <v>471</v>
       </c>
       <c r="D453" s="12"/>
     </row>

--- a/DSA_450_LoveBabbar.xlsx
+++ b/DSA_450_LoveBabbar.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="909" uniqueCount="472">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="910" uniqueCount="473">
   <si>
     <t xml:space="preserve">Questions by Love Babbar:</t>
   </si>
@@ -320,6 +320,9 @@
   </si>
   <si>
     <t xml:space="preserve">Rabin Karp Algo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">doubt: Why mod = 1e9+7 gave the wrong answer, but 1e5+7 worked fine</t>
   </si>
   <si>
     <t xml:space="preserve">KMP Algo</t>
@@ -1933,11 +1936,11 @@
   </sheetPr>
   <dimension ref="A1:D467"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A53" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C68" activeCellId="0" sqref="C68"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C51" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D70" activeCellId="0" sqref="D70"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.7578125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.78515625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.63"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="28.24"/>
@@ -2815,10 +2818,12 @@
       <c r="B69" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="C69" s="24" t="s">
+      <c r="C69" s="19" t="s">
         <v>79</v>
       </c>
-      <c r="D69" s="12"/>
+      <c r="D69" s="22" t="s">
+        <v>80</v>
+      </c>
     </row>
     <row r="70" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="6" t="n">
@@ -2829,7 +2834,7 @@
         <v>56</v>
       </c>
       <c r="C70" s="24" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D70" s="12"/>
     </row>
@@ -2842,7 +2847,7 @@
         <v>56</v>
       </c>
       <c r="C71" s="24" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D71" s="12"/>
     </row>
@@ -2855,7 +2860,7 @@
         <v>56</v>
       </c>
       <c r="C72" s="24" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D72" s="12"/>
     </row>
@@ -2868,7 +2873,7 @@
         <v>56</v>
       </c>
       <c r="C73" s="24" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D73" s="12"/>
     </row>
@@ -2881,7 +2886,7 @@
         <v>56</v>
       </c>
       <c r="C74" s="24" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D74" s="12"/>
     </row>
@@ -2894,7 +2899,7 @@
         <v>56</v>
       </c>
       <c r="C75" s="24" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D75" s="12"/>
     </row>
@@ -2907,7 +2912,7 @@
         <v>56</v>
       </c>
       <c r="C76" s="24" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D76" s="12"/>
     </row>
@@ -2920,7 +2925,7 @@
         <v>56</v>
       </c>
       <c r="C77" s="24" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D77" s="12"/>
     </row>
@@ -2933,7 +2938,7 @@
         <v>56</v>
       </c>
       <c r="C78" s="24" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D78" s="12"/>
     </row>
@@ -2946,7 +2951,7 @@
         <v>56</v>
       </c>
       <c r="C79" s="24" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D79" s="12"/>
     </row>
@@ -2959,7 +2964,7 @@
         <v>56</v>
       </c>
       <c r="C80" s="24" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D80" s="12"/>
     </row>
@@ -2972,7 +2977,7 @@
         <v>56</v>
       </c>
       <c r="C81" s="24" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D81" s="12"/>
     </row>
@@ -2985,7 +2990,7 @@
         <v>56</v>
       </c>
       <c r="C82" s="24" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D82" s="12"/>
     </row>
@@ -2998,7 +3003,7 @@
         <v>56</v>
       </c>
       <c r="C83" s="24" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D83" s="12"/>
     </row>
@@ -3011,7 +3016,7 @@
         <v>56</v>
       </c>
       <c r="C84" s="24" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D84" s="12"/>
     </row>
@@ -3024,7 +3029,7 @@
         <v>56</v>
       </c>
       <c r="C85" s="24" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D85" s="12"/>
     </row>
@@ -3037,7 +3042,7 @@
         <v>56</v>
       </c>
       <c r="C86" s="24" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D86" s="12"/>
     </row>
@@ -3050,7 +3055,7 @@
         <v>56</v>
       </c>
       <c r="C87" s="24" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D87" s="12"/>
     </row>
@@ -3063,7 +3068,7 @@
         <v>56</v>
       </c>
       <c r="C88" s="24" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D88" s="12"/>
     </row>
@@ -3076,7 +3081,7 @@
         <v>56</v>
       </c>
       <c r="C89" s="24" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D89" s="12"/>
     </row>
@@ -3089,7 +3094,7 @@
         <v>56</v>
       </c>
       <c r="C90" s="24" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D90" s="12"/>
     </row>
@@ -3102,7 +3107,7 @@
         <v>56</v>
       </c>
       <c r="C91" s="24" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D91" s="12"/>
     </row>
@@ -3115,7 +3120,7 @@
         <v>56</v>
       </c>
       <c r="C92" s="24" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D92" s="12"/>
     </row>
@@ -3128,7 +3133,7 @@
         <v>56</v>
       </c>
       <c r="C93" s="24" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D93" s="12"/>
     </row>
@@ -3141,7 +3146,7 @@
         <v>56</v>
       </c>
       <c r="C94" s="24" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D94" s="12"/>
     </row>
@@ -3151,10 +3156,10 @@
         <v>90</v>
       </c>
       <c r="B95" s="15" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C95" s="24" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D95" s="12"/>
     </row>
@@ -3164,10 +3169,10 @@
         <v>91</v>
       </c>
       <c r="B96" s="15" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C96" s="24" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D96" s="12"/>
     </row>
@@ -3177,10 +3182,10 @@
         <v>92</v>
       </c>
       <c r="B97" s="15" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C97" s="24" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D97" s="12"/>
     </row>
@@ -3190,10 +3195,10 @@
         <v>93</v>
       </c>
       <c r="B98" s="15" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C98" s="24" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D98" s="12"/>
     </row>
@@ -3203,10 +3208,10 @@
         <v>94</v>
       </c>
       <c r="B99" s="15" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C99" s="24" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D99" s="12"/>
     </row>
@@ -3216,10 +3221,10 @@
         <v>95</v>
       </c>
       <c r="B100" s="15" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C100" s="24" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D100" s="12"/>
     </row>
@@ -3229,10 +3234,10 @@
         <v>96</v>
       </c>
       <c r="B101" s="15" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C101" s="24" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D101" s="12"/>
     </row>
@@ -3242,10 +3247,10 @@
         <v>97</v>
       </c>
       <c r="B102" s="15" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C102" s="24" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D102" s="12"/>
     </row>
@@ -3255,10 +3260,10 @@
         <v>98</v>
       </c>
       <c r="B103" s="15" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C103" s="24" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D103" s="12"/>
     </row>
@@ -3268,10 +3273,10 @@
         <v>99</v>
       </c>
       <c r="B104" s="15" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C104" s="24" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D104" s="12"/>
     </row>
@@ -3281,10 +3286,10 @@
         <v>100</v>
       </c>
       <c r="B105" s="15" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C105" s="24" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D105" s="12"/>
     </row>
@@ -3294,10 +3299,10 @@
         <v>101</v>
       </c>
       <c r="B106" s="15" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C106" s="24" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D106" s="12"/>
     </row>
@@ -3307,10 +3312,10 @@
         <v>102</v>
       </c>
       <c r="B107" s="15" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C107" s="24" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D107" s="12"/>
     </row>
@@ -3320,10 +3325,10 @@
         <v>103</v>
       </c>
       <c r="B108" s="15" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C108" s="24" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D108" s="12"/>
     </row>
@@ -3333,10 +3338,10 @@
         <v>104</v>
       </c>
       <c r="B109" s="15" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C109" s="24" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D109" s="12"/>
     </row>
@@ -3346,10 +3351,10 @@
         <v>105</v>
       </c>
       <c r="B110" s="15" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C110" s="24" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D110" s="12"/>
     </row>
@@ -3359,10 +3364,10 @@
         <v>106</v>
       </c>
       <c r="B111" s="15" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C111" s="24" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D111" s="12"/>
     </row>
@@ -3372,10 +3377,10 @@
         <v>107</v>
       </c>
       <c r="B112" s="15" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C112" s="24" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D112" s="12"/>
     </row>
@@ -3385,10 +3390,10 @@
         <v>108</v>
       </c>
       <c r="B113" s="15" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C113" s="24" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D113" s="12"/>
     </row>
@@ -3398,10 +3403,10 @@
         <v>109</v>
       </c>
       <c r="B114" s="15" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C114" s="24" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D114" s="12"/>
     </row>
@@ -3411,10 +3416,10 @@
         <v>110</v>
       </c>
       <c r="B115" s="15" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C115" s="24" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D115" s="12"/>
     </row>
@@ -3424,10 +3429,10 @@
         <v>111</v>
       </c>
       <c r="B116" s="15" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C116" s="24" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D116" s="12"/>
     </row>
@@ -3437,10 +3442,10 @@
         <v>112</v>
       </c>
       <c r="B117" s="15" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C117" s="24" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D117" s="12"/>
     </row>
@@ -3450,10 +3455,10 @@
         <v>113</v>
       </c>
       <c r="B118" s="15" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C118" s="24" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D118" s="12"/>
     </row>
@@ -3463,10 +3468,10 @@
         <v>114</v>
       </c>
       <c r="B119" s="15" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C119" s="24" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D119" s="12"/>
     </row>
@@ -3476,10 +3481,10 @@
         <v>115</v>
       </c>
       <c r="B120" s="15" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C120" s="24" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D120" s="12"/>
     </row>
@@ -3489,10 +3494,10 @@
         <v>116</v>
       </c>
       <c r="B121" s="15" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C121" s="24" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D121" s="12"/>
     </row>
@@ -3502,10 +3507,10 @@
         <v>117</v>
       </c>
       <c r="B122" s="15" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C122" s="24" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D122" s="12"/>
     </row>
@@ -3515,10 +3520,10 @@
         <v>118</v>
       </c>
       <c r="B123" s="15" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C123" s="24" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D123" s="12"/>
     </row>
@@ -3528,10 +3533,10 @@
         <v>119</v>
       </c>
       <c r="B124" s="15" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C124" s="24" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D124" s="12"/>
     </row>
@@ -3541,10 +3546,10 @@
         <v>120</v>
       </c>
       <c r="B125" s="15" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C125" s="24" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D125" s="12"/>
     </row>
@@ -3554,10 +3559,10 @@
         <v>121</v>
       </c>
       <c r="B126" s="15" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C126" s="24" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D126" s="12"/>
     </row>
@@ -3567,10 +3572,10 @@
         <v>122</v>
       </c>
       <c r="B127" s="15" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C127" s="24" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D127" s="12"/>
     </row>
@@ -3580,10 +3585,10 @@
         <v>123</v>
       </c>
       <c r="B128" s="15" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C128" s="24" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D128" s="12"/>
     </row>
@@ -3593,10 +3598,10 @@
         <v>124</v>
       </c>
       <c r="B129" s="15" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C129" s="24" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D129" s="12"/>
     </row>
@@ -3606,10 +3611,10 @@
         <v>125</v>
       </c>
       <c r="B130" s="15" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C130" s="24" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D130" s="12"/>
     </row>
@@ -3619,10 +3624,10 @@
         <v>126</v>
       </c>
       <c r="B131" s="10" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C131" s="24" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D131" s="12"/>
     </row>
@@ -3632,10 +3637,10 @@
         <v>127</v>
       </c>
       <c r="B132" s="10" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C132" s="24" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D132" s="12"/>
     </row>
@@ -3645,10 +3650,10 @@
         <v>128</v>
       </c>
       <c r="B133" s="10" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C133" s="24" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D133" s="12"/>
     </row>
@@ -3658,10 +3663,10 @@
         <v>129</v>
       </c>
       <c r="B134" s="10" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C134" s="24" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D134" s="12"/>
     </row>
@@ -3671,10 +3676,10 @@
         <v>130</v>
       </c>
       <c r="B135" s="10" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C135" s="24" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D135" s="12"/>
     </row>
@@ -3684,10 +3689,10 @@
         <v>131</v>
       </c>
       <c r="B136" s="10" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C136" s="24" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D136" s="12"/>
     </row>
@@ -3697,10 +3702,10 @@
         <v>132</v>
       </c>
       <c r="B137" s="10" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C137" s="24" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D137" s="12"/>
     </row>
@@ -3710,10 +3715,10 @@
         <v>133</v>
       </c>
       <c r="B138" s="10" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C138" s="24" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D138" s="12"/>
     </row>
@@ -3723,10 +3728,10 @@
         <v>134</v>
       </c>
       <c r="B139" s="10" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C139" s="24" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D139" s="12"/>
     </row>
@@ -3736,10 +3741,10 @@
         <v>135</v>
       </c>
       <c r="B140" s="10" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C140" s="24" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D140" s="12"/>
     </row>
@@ -3749,10 +3754,10 @@
         <v>136</v>
       </c>
       <c r="B141" s="10" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C141" s="24" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D141" s="12"/>
     </row>
@@ -3762,10 +3767,10 @@
         <v>137</v>
       </c>
       <c r="B142" s="10" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C142" s="24" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D142" s="12"/>
     </row>
@@ -3775,10 +3780,10 @@
         <v>138</v>
       </c>
       <c r="B143" s="10" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C143" s="24" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D143" s="12"/>
     </row>
@@ -3788,10 +3793,10 @@
         <v>139</v>
       </c>
       <c r="B144" s="10" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C144" s="24" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D144" s="12"/>
     </row>
@@ -3801,10 +3806,10 @@
         <v>140</v>
       </c>
       <c r="B145" s="10" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C145" s="24" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D145" s="12"/>
     </row>
@@ -3814,10 +3819,10 @@
         <v>141</v>
       </c>
       <c r="B146" s="10" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C146" s="24" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D146" s="12"/>
     </row>
@@ -3827,10 +3832,10 @@
         <v>142</v>
       </c>
       <c r="B147" s="10" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C147" s="24" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D147" s="12"/>
     </row>
@@ -3840,10 +3845,10 @@
         <v>143</v>
       </c>
       <c r="B148" s="10" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C148" s="24" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D148" s="12"/>
     </row>
@@ -3853,10 +3858,10 @@
         <v>144</v>
       </c>
       <c r="B149" s="10" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C149" s="24" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D149" s="12"/>
     </row>
@@ -3866,10 +3871,10 @@
         <v>145</v>
       </c>
       <c r="B150" s="10" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C150" s="24" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D150" s="12"/>
     </row>
@@ -3879,10 +3884,10 @@
         <v>146</v>
       </c>
       <c r="B151" s="10" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C151" s="24" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D151" s="12"/>
     </row>
@@ -3892,10 +3897,10 @@
         <v>147</v>
       </c>
       <c r="B152" s="10" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C152" s="24" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D152" s="12"/>
     </row>
@@ -3905,10 +3910,10 @@
         <v>148</v>
       </c>
       <c r="B153" s="10" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C153" s="24" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D153" s="12"/>
     </row>
@@ -3918,10 +3923,10 @@
         <v>149</v>
       </c>
       <c r="B154" s="10" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C154" s="24" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D154" s="12"/>
     </row>
@@ -3931,10 +3936,10 @@
         <v>150</v>
       </c>
       <c r="B155" s="10" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C155" s="24" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D155" s="12"/>
     </row>
@@ -3944,10 +3949,10 @@
         <v>151</v>
       </c>
       <c r="B156" s="10" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C156" s="25" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D156" s="12"/>
     </row>
@@ -3957,10 +3962,10 @@
         <v>152</v>
       </c>
       <c r="B157" s="10" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C157" s="25" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D157" s="12"/>
     </row>
@@ -3970,10 +3975,10 @@
         <v>153</v>
       </c>
       <c r="B158" s="10" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C158" s="24" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D158" s="12"/>
     </row>
@@ -3983,10 +3988,10 @@
         <v>154</v>
       </c>
       <c r="B159" s="10" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C159" s="24" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D159" s="12"/>
     </row>
@@ -3996,10 +4001,10 @@
         <v>155</v>
       </c>
       <c r="B160" s="10" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C160" s="24" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D160" s="12"/>
     </row>
@@ -4009,10 +4014,10 @@
         <v>156</v>
       </c>
       <c r="B161" s="10" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C161" s="24" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D161" s="12"/>
     </row>
@@ -4022,10 +4027,10 @@
         <v>157</v>
       </c>
       <c r="B162" s="10" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C162" s="24" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D162" s="12"/>
     </row>
@@ -4035,10 +4040,10 @@
         <v>158</v>
       </c>
       <c r="B163" s="10" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C163" s="24" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D163" s="12"/>
     </row>
@@ -4048,10 +4053,10 @@
         <v>159</v>
       </c>
       <c r="B164" s="10" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C164" s="24" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D164" s="12"/>
     </row>
@@ -4061,10 +4066,10 @@
         <v>160</v>
       </c>
       <c r="B165" s="10" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C165" s="24" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D165" s="12"/>
     </row>
@@ -4074,10 +4079,10 @@
         <v>161</v>
       </c>
       <c r="B166" s="10" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C166" s="24" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D166" s="12"/>
     </row>
@@ -4087,10 +4092,10 @@
         <v>162</v>
       </c>
       <c r="B167" s="15" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C167" s="24" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D167" s="12"/>
     </row>
@@ -4100,10 +4105,10 @@
         <v>163</v>
       </c>
       <c r="B168" s="15" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C168" s="24" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D168" s="12"/>
     </row>
@@ -4113,10 +4118,10 @@
         <v>164</v>
       </c>
       <c r="B169" s="15" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C169" s="24" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D169" s="12"/>
     </row>
@@ -4126,10 +4131,10 @@
         <v>165</v>
       </c>
       <c r="B170" s="15" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C170" s="24" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D170" s="12"/>
     </row>
@@ -4139,10 +4144,10 @@
         <v>166</v>
       </c>
       <c r="B171" s="15" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C171" s="24" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D171" s="12"/>
     </row>
@@ -4152,10 +4157,10 @@
         <v>167</v>
       </c>
       <c r="B172" s="15" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C172" s="24" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D172" s="12"/>
     </row>
@@ -4165,10 +4170,10 @@
         <v>168</v>
       </c>
       <c r="B173" s="15" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C173" s="24" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D173" s="12"/>
     </row>
@@ -4178,10 +4183,10 @@
         <v>169</v>
       </c>
       <c r="B174" s="15" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C174" s="24" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D174" s="12"/>
     </row>
@@ -4191,10 +4196,10 @@
         <v>170</v>
       </c>
       <c r="B175" s="15" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C175" s="24" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D175" s="12"/>
     </row>
@@ -4204,10 +4209,10 @@
         <v>171</v>
       </c>
       <c r="B176" s="15" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C176" s="24" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D176" s="12"/>
     </row>
@@ -4217,10 +4222,10 @@
         <v>172</v>
       </c>
       <c r="B177" s="15" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C177" s="24" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D177" s="12"/>
     </row>
@@ -4230,10 +4235,10 @@
         <v>173</v>
       </c>
       <c r="B178" s="15" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C178" s="24" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D178" s="12"/>
     </row>
@@ -4243,10 +4248,10 @@
         <v>174</v>
       </c>
       <c r="B179" s="15" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C179" s="24" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="D179" s="12"/>
     </row>
@@ -4256,10 +4261,10 @@
         <v>175</v>
       </c>
       <c r="B180" s="15" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C180" s="24" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D180" s="12"/>
     </row>
@@ -4269,10 +4274,10 @@
         <v>176</v>
       </c>
       <c r="B181" s="15" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C181" s="24" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D181" s="12"/>
     </row>
@@ -4282,10 +4287,10 @@
         <v>177</v>
       </c>
       <c r="B182" s="15" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C182" s="24" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D182" s="12"/>
     </row>
@@ -4295,10 +4300,10 @@
         <v>178</v>
       </c>
       <c r="B183" s="15" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C183" s="24" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D183" s="12"/>
     </row>
@@ -4308,10 +4313,10 @@
         <v>179</v>
       </c>
       <c r="B184" s="15" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C184" s="24" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D184" s="12"/>
     </row>
@@ -4321,10 +4326,10 @@
         <v>180</v>
       </c>
       <c r="B185" s="15" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C185" s="24" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D185" s="12"/>
     </row>
@@ -4334,10 +4339,10 @@
         <v>181</v>
       </c>
       <c r="B186" s="15" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C186" s="24" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D186" s="12"/>
     </row>
@@ -4347,10 +4352,10 @@
         <v>182</v>
       </c>
       <c r="B187" s="15" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C187" s="24" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D187" s="12"/>
     </row>
@@ -4360,10 +4365,10 @@
         <v>183</v>
       </c>
       <c r="B188" s="15" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C188" s="24" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D188" s="12"/>
     </row>
@@ -4373,10 +4378,10 @@
         <v>184</v>
       </c>
       <c r="B189" s="15" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C189" s="24" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="D189" s="12"/>
     </row>
@@ -4386,10 +4391,10 @@
         <v>185</v>
       </c>
       <c r="B190" s="15" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C190" s="24" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="D190" s="12"/>
     </row>
@@ -4399,10 +4404,10 @@
         <v>186</v>
       </c>
       <c r="B191" s="15" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C191" s="24" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D191" s="12"/>
     </row>
@@ -4412,10 +4417,10 @@
         <v>187</v>
       </c>
       <c r="B192" s="15" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C192" s="24" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D192" s="12"/>
     </row>
@@ -4425,10 +4430,10 @@
         <v>188</v>
       </c>
       <c r="B193" s="15" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C193" s="24" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D193" s="12"/>
     </row>
@@ -4438,10 +4443,10 @@
         <v>189</v>
       </c>
       <c r="B194" s="15" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C194" s="24" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D194" s="12"/>
     </row>
@@ -4451,10 +4456,10 @@
         <v>190</v>
       </c>
       <c r="B195" s="15" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C195" s="24" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="D195" s="12"/>
     </row>
@@ -4464,10 +4469,10 @@
         <v>191</v>
       </c>
       <c r="B196" s="15" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C196" s="24" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="D196" s="12"/>
     </row>
@@ -4477,10 +4482,10 @@
         <v>192</v>
       </c>
       <c r="B197" s="15" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C197" s="24" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="D197" s="12"/>
     </row>
@@ -4490,10 +4495,10 @@
         <v>193</v>
       </c>
       <c r="B198" s="15" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C198" s="24" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="D198" s="12"/>
     </row>
@@ -4503,10 +4508,10 @@
         <v>194</v>
       </c>
       <c r="B199" s="15" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C199" s="24" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D199" s="12"/>
     </row>
@@ -4516,10 +4521,10 @@
         <v>195</v>
       </c>
       <c r="B200" s="15" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C200" s="24" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="D200" s="12"/>
     </row>
@@ -4529,10 +4534,10 @@
         <v>196</v>
       </c>
       <c r="B201" s="15" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C201" s="24" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="D201" s="12"/>
     </row>
@@ -4542,10 +4547,10 @@
         <v>197</v>
       </c>
       <c r="B202" s="10" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C202" s="24" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
     </row>
     <row r="203" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4554,10 +4559,10 @@
         <v>198</v>
       </c>
       <c r="B203" s="10" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C203" s="24" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row r="204" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4566,10 +4571,10 @@
         <v>199</v>
       </c>
       <c r="B204" s="10" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C204" s="24" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="205" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4578,10 +4583,10 @@
         <v>200</v>
       </c>
       <c r="B205" s="10" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C205" s="24" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
     </row>
     <row r="206" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4590,10 +4595,10 @@
         <v>201</v>
       </c>
       <c r="B206" s="10" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C206" s="24" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
     </row>
     <row r="207" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4602,10 +4607,10 @@
         <v>202</v>
       </c>
       <c r="B207" s="10" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C207" s="24" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="208" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4614,10 +4619,10 @@
         <v>203</v>
       </c>
       <c r="B208" s="10" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C208" s="26" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
     </row>
     <row r="209" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4626,10 +4631,10 @@
         <v>204</v>
       </c>
       <c r="B209" s="10" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C209" s="24" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
     </row>
     <row r="210" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4638,10 +4643,10 @@
         <v>205</v>
       </c>
       <c r="B210" s="10" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C210" s="24" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D210" s="12"/>
     </row>
@@ -4651,10 +4656,10 @@
         <v>206</v>
       </c>
       <c r="B211" s="10" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C211" s="24" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="D211" s="12"/>
     </row>
@@ -4664,10 +4669,10 @@
         <v>207</v>
       </c>
       <c r="B212" s="10" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C212" s="24" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="D212" s="12"/>
     </row>
@@ -4677,10 +4682,10 @@
         <v>208</v>
       </c>
       <c r="B213" s="10" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C213" s="24" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="D213" s="12"/>
     </row>
@@ -4690,10 +4695,10 @@
         <v>209</v>
       </c>
       <c r="B214" s="10" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C214" s="24" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D214" s="12"/>
     </row>
@@ -4703,10 +4708,10 @@
         <v>210</v>
       </c>
       <c r="B215" s="10" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C215" s="24" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D215" s="12"/>
     </row>
@@ -4716,10 +4721,10 @@
         <v>211</v>
       </c>
       <c r="B216" s="10" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C216" s="24" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="D216" s="12"/>
     </row>
@@ -4729,10 +4734,10 @@
         <v>212</v>
       </c>
       <c r="B217" s="10" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C217" s="24" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="D217" s="12"/>
     </row>
@@ -4742,10 +4747,10 @@
         <v>213</v>
       </c>
       <c r="B218" s="10" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C218" s="24" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="D218" s="12"/>
     </row>
@@ -4755,10 +4760,10 @@
         <v>214</v>
       </c>
       <c r="B219" s="10" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C219" s="24" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="D219" s="12"/>
     </row>
@@ -4768,10 +4773,10 @@
         <v>215</v>
       </c>
       <c r="B220" s="10" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C220" s="24" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="D220" s="12"/>
     </row>
@@ -4781,10 +4786,10 @@
         <v>216</v>
       </c>
       <c r="B221" s="10" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C221" s="24" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D221" s="12"/>
     </row>
@@ -4794,10 +4799,10 @@
         <v>217</v>
       </c>
       <c r="B222" s="10" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C222" s="24" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D222" s="12"/>
     </row>
@@ -4807,10 +4812,10 @@
         <v>218</v>
       </c>
       <c r="B223" s="10" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C223" s="24" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="D223" s="12"/>
     </row>
@@ -4820,10 +4825,10 @@
         <v>219</v>
       </c>
       <c r="B224" s="15" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C224" s="24" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="D224" s="12"/>
     </row>
@@ -4833,10 +4838,10 @@
         <v>220</v>
       </c>
       <c r="B225" s="15" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C225" s="24" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D225" s="12"/>
     </row>
@@ -4846,10 +4851,10 @@
         <v>221</v>
       </c>
       <c r="B226" s="15" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C226" s="24" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="D226" s="12"/>
     </row>
@@ -4859,10 +4864,10 @@
         <v>222</v>
       </c>
       <c r="B227" s="15" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C227" s="24" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="D227" s="12"/>
     </row>
@@ -4872,10 +4877,10 @@
         <v>223</v>
       </c>
       <c r="B228" s="15" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C228" s="24" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="D228" s="12"/>
     </row>
@@ -4885,10 +4890,10 @@
         <v>224</v>
       </c>
       <c r="B229" s="15" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C229" s="24" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="D229" s="12"/>
     </row>
@@ -4898,10 +4903,10 @@
         <v>225</v>
       </c>
       <c r="B230" s="15" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C230" s="24" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="D230" s="12"/>
     </row>
@@ -4911,10 +4916,10 @@
         <v>226</v>
       </c>
       <c r="B231" s="15" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C231" s="24" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="D231" s="12"/>
     </row>
@@ -4924,10 +4929,10 @@
         <v>227</v>
       </c>
       <c r="B232" s="15" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C232" s="24" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="D232" s="12"/>
     </row>
@@ -4937,10 +4942,10 @@
         <v>228</v>
       </c>
       <c r="B233" s="15" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C233" s="24" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="D233" s="12"/>
     </row>
@@ -4950,10 +4955,10 @@
         <v>229</v>
       </c>
       <c r="B234" s="15" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C234" s="24" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="D234" s="12"/>
     </row>
@@ -4963,10 +4968,10 @@
         <v>230</v>
       </c>
       <c r="B235" s="15" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C235" s="24" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="D235" s="12"/>
     </row>
@@ -4976,10 +4981,10 @@
         <v>231</v>
       </c>
       <c r="B236" s="15" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C236" s="24" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="D236" s="12"/>
     </row>
@@ -4989,10 +4994,10 @@
         <v>232</v>
       </c>
       <c r="B237" s="15" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C237" s="24" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="D237" s="12"/>
     </row>
@@ -5002,10 +5007,10 @@
         <v>233</v>
       </c>
       <c r="B238" s="15" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C238" s="24" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="D238" s="12"/>
     </row>
@@ -5015,10 +5020,10 @@
         <v>234</v>
       </c>
       <c r="B239" s="15" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C239" s="24" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="D239" s="12"/>
     </row>
@@ -5028,10 +5033,10 @@
         <v>235</v>
       </c>
       <c r="B240" s="15" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C240" s="24" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="D240" s="12"/>
     </row>
@@ -5041,10 +5046,10 @@
         <v>236</v>
       </c>
       <c r="B241" s="15" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C241" s="24" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="D241" s="12"/>
     </row>
@@ -5054,10 +5059,10 @@
         <v>237</v>
       </c>
       <c r="B242" s="15" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C242" s="24" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="D242" s="12"/>
     </row>
@@ -5067,10 +5072,10 @@
         <v>238</v>
       </c>
       <c r="B243" s="15" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C243" s="24" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="D243" s="12"/>
     </row>
@@ -5080,10 +5085,10 @@
         <v>239</v>
       </c>
       <c r="B244" s="15" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C244" s="24" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="D244" s="12"/>
     </row>
@@ -5093,10 +5098,10 @@
         <v>240</v>
       </c>
       <c r="B245" s="15" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C245" s="24" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="D245" s="12"/>
     </row>
@@ -5106,10 +5111,10 @@
         <v>241</v>
       </c>
       <c r="B246" s="15" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C246" s="24" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="D246" s="12"/>
     </row>
@@ -5119,10 +5124,10 @@
         <v>242</v>
       </c>
       <c r="B247" s="15" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C247" s="24" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="D247" s="12"/>
     </row>
@@ -5132,10 +5137,10 @@
         <v>243</v>
       </c>
       <c r="B248" s="15" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C248" s="24" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="D248" s="12"/>
     </row>
@@ -5145,10 +5150,10 @@
         <v>244</v>
       </c>
       <c r="B249" s="15" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C249" s="24" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D249" s="12"/>
     </row>
@@ -5158,10 +5163,10 @@
         <v>245</v>
       </c>
       <c r="B250" s="15" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C250" s="24" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="D250" s="12"/>
     </row>
@@ -5171,10 +5176,10 @@
         <v>246</v>
       </c>
       <c r="B251" s="15" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C251" s="24" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D251" s="12"/>
     </row>
@@ -5184,10 +5189,10 @@
         <v>247</v>
       </c>
       <c r="B252" s="15" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C252" s="24" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="D252" s="12"/>
     </row>
@@ -5197,10 +5202,10 @@
         <v>248</v>
       </c>
       <c r="B253" s="15" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C253" s="24" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D253" s="12"/>
     </row>
@@ -5210,10 +5215,10 @@
         <v>249</v>
       </c>
       <c r="B254" s="15" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C254" s="24" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="D254" s="12"/>
     </row>
@@ -5223,10 +5228,10 @@
         <v>250</v>
       </c>
       <c r="B255" s="15" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C255" s="24" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="D255" s="12"/>
     </row>
@@ -5236,10 +5241,10 @@
         <v>251</v>
       </c>
       <c r="B256" s="15" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C256" s="24" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="D256" s="12"/>
     </row>
@@ -5249,10 +5254,10 @@
         <v>252</v>
       </c>
       <c r="B257" s="15" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C257" s="24" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D257" s="12"/>
     </row>
@@ -5262,10 +5267,10 @@
         <v>253</v>
       </c>
       <c r="B258" s="15" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C258" s="24" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="D258" s="12"/>
     </row>
@@ -5275,10 +5280,10 @@
         <v>254</v>
       </c>
       <c r="B259" s="10" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C259" s="24" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="D259" s="12"/>
     </row>
@@ -5288,10 +5293,10 @@
         <v>255</v>
       </c>
       <c r="B260" s="10" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C260" s="24" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="D260" s="12"/>
     </row>
@@ -5301,10 +5306,10 @@
         <v>256</v>
       </c>
       <c r="B261" s="10" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C261" s="24" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="D261" s="12"/>
     </row>
@@ -5314,10 +5319,10 @@
         <v>257</v>
       </c>
       <c r="B262" s="10" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C262" s="24" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="D262" s="12"/>
     </row>
@@ -5327,10 +5332,10 @@
         <v>258</v>
       </c>
       <c r="B263" s="10" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C263" s="24" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="D263" s="12"/>
     </row>
@@ -5340,10 +5345,10 @@
         <v>259</v>
       </c>
       <c r="B264" s="10" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C264" s="24" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="D264" s="12"/>
     </row>
@@ -5353,10 +5358,10 @@
         <v>260</v>
       </c>
       <c r="B265" s="10" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C265" s="24" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="D265" s="12"/>
     </row>
@@ -5366,10 +5371,10 @@
         <v>261</v>
       </c>
       <c r="B266" s="10" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C266" s="24" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="D266" s="12"/>
     </row>
@@ -5379,10 +5384,10 @@
         <v>262</v>
       </c>
       <c r="B267" s="10" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C267" s="24" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="D267" s="12"/>
     </row>
@@ -5392,10 +5397,10 @@
         <v>263</v>
       </c>
       <c r="B268" s="10" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C268" s="24" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="D268" s="12"/>
     </row>
@@ -5405,10 +5410,10 @@
         <v>264</v>
       </c>
       <c r="B269" s="10" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C269" s="24" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="D269" s="12"/>
     </row>
@@ -5418,10 +5423,10 @@
         <v>265</v>
       </c>
       <c r="B270" s="10" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C270" s="24" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="D270" s="12"/>
     </row>
@@ -5431,10 +5436,10 @@
         <v>266</v>
       </c>
       <c r="B271" s="10" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C271" s="24" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="D271" s="12"/>
     </row>
@@ -5444,10 +5449,10 @@
         <v>267</v>
       </c>
       <c r="B272" s="10" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C272" s="24" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="D272" s="12"/>
     </row>
@@ -5457,10 +5462,10 @@
         <v>268</v>
       </c>
       <c r="B273" s="10" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C273" s="24" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="D273" s="12"/>
     </row>
@@ -5470,10 +5475,10 @@
         <v>269</v>
       </c>
       <c r="B274" s="10" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C274" s="24" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="D274" s="12"/>
     </row>
@@ -5483,10 +5488,10 @@
         <v>270</v>
       </c>
       <c r="B275" s="10" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C275" s="24" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="D275" s="12"/>
     </row>
@@ -5496,10 +5501,10 @@
         <v>271</v>
       </c>
       <c r="B276" s="10" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C276" s="24" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="D276" s="12"/>
     </row>
@@ -5509,10 +5514,10 @@
         <v>272</v>
       </c>
       <c r="B277" s="10" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C277" s="24" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="D277" s="12"/>
     </row>
@@ -5522,10 +5527,10 @@
         <v>273</v>
       </c>
       <c r="B278" s="15" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="C278" s="24" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="D278" s="12"/>
     </row>
@@ -5535,10 +5540,10 @@
         <v>274</v>
       </c>
       <c r="B279" s="15" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="C279" s="24" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="D279" s="12"/>
     </row>
@@ -5548,10 +5553,10 @@
         <v>275</v>
       </c>
       <c r="B280" s="15" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="C280" s="24" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="D280" s="12"/>
     </row>
@@ -5561,10 +5566,10 @@
         <v>276</v>
       </c>
       <c r="B281" s="15" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="C281" s="24" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="D281" s="12"/>
     </row>
@@ -5574,10 +5579,10 @@
         <v>277</v>
       </c>
       <c r="B282" s="15" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="C282" s="24" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="D282" s="12"/>
     </row>
@@ -5587,10 +5592,10 @@
         <v>278</v>
       </c>
       <c r="B283" s="15" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="C283" s="24" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="D283" s="12"/>
     </row>
@@ -5600,10 +5605,10 @@
         <v>279</v>
       </c>
       <c r="B284" s="15" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="C284" s="24" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="D284" s="12"/>
     </row>
@@ -5613,10 +5618,10 @@
         <v>280</v>
       </c>
       <c r="B285" s="15" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="C285" s="24" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="D285" s="12"/>
     </row>
@@ -5626,10 +5631,10 @@
         <v>281</v>
       </c>
       <c r="B286" s="15" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="C286" s="24" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="D286" s="12"/>
     </row>
@@ -5639,10 +5644,10 @@
         <v>282</v>
       </c>
       <c r="B287" s="15" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="C287" s="24" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="D287" s="12"/>
     </row>
@@ -5652,10 +5657,10 @@
         <v>283</v>
       </c>
       <c r="B288" s="15" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="C288" s="24" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="D288" s="12"/>
     </row>
@@ -5665,10 +5670,10 @@
         <v>284</v>
       </c>
       <c r="B289" s="15" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="C289" s="24" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="D289" s="12"/>
     </row>
@@ -5678,10 +5683,10 @@
         <v>285</v>
       </c>
       <c r="B290" s="15" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="C290" s="24" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="D290" s="12"/>
     </row>
@@ -5691,10 +5696,10 @@
         <v>286</v>
       </c>
       <c r="B291" s="15" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="C291" s="26" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="D291" s="12"/>
     </row>
@@ -5704,10 +5709,10 @@
         <v>287</v>
       </c>
       <c r="B292" s="15" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="C292" s="24" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="D292" s="12"/>
     </row>
@@ -5717,10 +5722,10 @@
         <v>288</v>
       </c>
       <c r="B293" s="15" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="C293" s="24" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="D293" s="12"/>
     </row>
@@ -5730,10 +5735,10 @@
         <v>289</v>
       </c>
       <c r="B294" s="15" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="C294" s="24" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="D294" s="12"/>
     </row>
@@ -5743,10 +5748,10 @@
         <v>290</v>
       </c>
       <c r="B295" s="15" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="C295" s="24" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="D295" s="12"/>
     </row>
@@ -5756,10 +5761,10 @@
         <v>291</v>
       </c>
       <c r="B296" s="15" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="C296" s="24" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="D296" s="12"/>
     </row>
@@ -5769,10 +5774,10 @@
         <v>292</v>
       </c>
       <c r="B297" s="15" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="C297" s="24" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="D297" s="12"/>
     </row>
@@ -5782,10 +5787,10 @@
         <v>293</v>
       </c>
       <c r="B298" s="15" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="C298" s="24" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="D298" s="12"/>
     </row>
@@ -5795,10 +5800,10 @@
         <v>294</v>
       </c>
       <c r="B299" s="15" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="C299" s="24" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="D299" s="12"/>
     </row>
@@ -5808,10 +5813,10 @@
         <v>295</v>
       </c>
       <c r="B300" s="15" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="C300" s="24" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="D300" s="12"/>
     </row>
@@ -5821,10 +5826,10 @@
         <v>296</v>
       </c>
       <c r="B301" s="15" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="C301" s="24" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="D301" s="12"/>
     </row>
@@ -5834,10 +5839,10 @@
         <v>297</v>
       </c>
       <c r="B302" s="15" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="C302" s="24" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="D302" s="12"/>
     </row>
@@ -5847,10 +5852,10 @@
         <v>298</v>
       </c>
       <c r="B303" s="15" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="C303" s="24" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="D303" s="12"/>
     </row>
@@ -5860,10 +5865,10 @@
         <v>299</v>
       </c>
       <c r="B304" s="15" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="C304" s="24" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="D304" s="12"/>
     </row>
@@ -5873,10 +5878,10 @@
         <v>300</v>
       </c>
       <c r="B305" s="15" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="C305" s="24" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="D305" s="12"/>
     </row>
@@ -5886,10 +5891,10 @@
         <v>301</v>
       </c>
       <c r="B306" s="15" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="C306" s="24" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="D306" s="12"/>
     </row>
@@ -5899,10 +5904,10 @@
         <v>302</v>
       </c>
       <c r="B307" s="15" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="C307" s="24" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="D307" s="12"/>
     </row>
@@ -5912,10 +5917,10 @@
         <v>303</v>
       </c>
       <c r="B308" s="15" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="C308" s="24" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="D308" s="12"/>
     </row>
@@ -5925,10 +5930,10 @@
         <v>304</v>
       </c>
       <c r="B309" s="15" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="C309" s="24" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="D309" s="12"/>
     </row>
@@ -5938,10 +5943,10 @@
         <v>305</v>
       </c>
       <c r="B310" s="15" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="C310" s="24" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="D310" s="12"/>
     </row>
@@ -5951,10 +5956,10 @@
         <v>306</v>
       </c>
       <c r="B311" s="15" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="C311" s="24" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="D311" s="12"/>
     </row>
@@ -5964,10 +5969,10 @@
         <v>307</v>
       </c>
       <c r="B312" s="15" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="C312" s="24" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="D312" s="12"/>
     </row>
@@ -5977,10 +5982,10 @@
         <v>308</v>
       </c>
       <c r="B313" s="15" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="C313" s="24" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="D313" s="12"/>
     </row>
@@ -5990,10 +5995,10 @@
         <v>309</v>
       </c>
       <c r="B314" s="15" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="C314" s="24" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="D314" s="12"/>
     </row>
@@ -6003,10 +6008,10 @@
         <v>310</v>
       </c>
       <c r="B315" s="15" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="C315" s="24" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="D315" s="12"/>
     </row>
@@ -6016,10 +6021,10 @@
         <v>311</v>
       </c>
       <c r="B316" s="10" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="C316" s="24" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="D316" s="12"/>
     </row>
@@ -6029,10 +6034,10 @@
         <v>312</v>
       </c>
       <c r="B317" s="10" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="C317" s="24" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="D317" s="12"/>
     </row>
@@ -6042,10 +6047,10 @@
         <v>313</v>
       </c>
       <c r="B318" s="10" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="C318" s="24" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="D318" s="12"/>
     </row>
@@ -6055,10 +6060,10 @@
         <v>314</v>
       </c>
       <c r="B319" s="10" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="C319" s="24" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="D319" s="12"/>
     </row>
@@ -6068,10 +6073,10 @@
         <v>315</v>
       </c>
       <c r="B320" s="10" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="C320" s="24" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="D320" s="12"/>
     </row>
@@ -6081,10 +6086,10 @@
         <v>316</v>
       </c>
       <c r="B321" s="10" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="C321" s="24" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="D321" s="12"/>
     </row>
@@ -6094,10 +6099,10 @@
         <v>317</v>
       </c>
       <c r="B322" s="10" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="C322" s="24" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="D322" s="12"/>
     </row>
@@ -6107,10 +6112,10 @@
         <v>318</v>
       </c>
       <c r="B323" s="10" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="C323" s="24" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="D323" s="12"/>
     </row>
@@ -6120,10 +6125,10 @@
         <v>319</v>
       </c>
       <c r="B324" s="10" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="C324" s="26" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="D324" s="12"/>
     </row>
@@ -6133,10 +6138,10 @@
         <v>320</v>
       </c>
       <c r="B325" s="10" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="C325" s="24" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="D325" s="12"/>
     </row>
@@ -6146,10 +6151,10 @@
         <v>321</v>
       </c>
       <c r="B326" s="10" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="C326" s="24" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="D326" s="12"/>
     </row>
@@ -6159,10 +6164,10 @@
         <v>322</v>
       </c>
       <c r="B327" s="10" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="C327" s="24" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="D327" s="12"/>
     </row>
@@ -6172,10 +6177,10 @@
         <v>323</v>
       </c>
       <c r="B328" s="10" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="C328" s="24" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="D328" s="12"/>
     </row>
@@ -6185,10 +6190,10 @@
         <v>324</v>
       </c>
       <c r="B329" s="10" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="C329" s="24" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="D329" s="12"/>
     </row>
@@ -6198,10 +6203,10 @@
         <v>325</v>
       </c>
       <c r="B330" s="10" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="C330" s="24" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="D330" s="12"/>
     </row>
@@ -6211,10 +6216,10 @@
         <v>326</v>
       </c>
       <c r="B331" s="10" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="C331" s="24" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="D331" s="12"/>
     </row>
@@ -6224,10 +6229,10 @@
         <v>327</v>
       </c>
       <c r="B332" s="10" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="C332" s="24" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="D332" s="12"/>
     </row>
@@ -6237,10 +6242,10 @@
         <v>328</v>
       </c>
       <c r="B333" s="10" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="C333" s="24" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="D333" s="12"/>
     </row>
@@ -6250,10 +6255,10 @@
         <v>329</v>
       </c>
       <c r="B334" s="15" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="C334" s="24" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="D334" s="12"/>
     </row>
@@ -6263,10 +6268,10 @@
         <v>330</v>
       </c>
       <c r="B335" s="15" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="C335" s="24" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="D335" s="12"/>
     </row>
@@ -6276,10 +6281,10 @@
         <v>331</v>
       </c>
       <c r="B336" s="15" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="C336" s="24" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D336" s="12"/>
     </row>
@@ -6289,10 +6294,10 @@
         <v>332</v>
       </c>
       <c r="B337" s="15" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="C337" s="24" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="D337" s="12"/>
     </row>
@@ -6302,10 +6307,10 @@
         <v>333</v>
       </c>
       <c r="B338" s="15" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="C338" s="24" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="D338" s="12"/>
     </row>
@@ -6315,10 +6320,10 @@
         <v>334</v>
       </c>
       <c r="B339" s="15" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="C339" s="24" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="D339" s="12"/>
     </row>
@@ -6328,10 +6333,10 @@
         <v>335</v>
       </c>
       <c r="B340" s="15" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="C340" s="24" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="D340" s="12"/>
     </row>
@@ -6341,10 +6346,10 @@
         <v>336</v>
       </c>
       <c r="B341" s="15" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="C341" s="24" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="D341" s="12"/>
     </row>
@@ -6354,10 +6359,10 @@
         <v>337</v>
       </c>
       <c r="B342" s="15" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="C342" s="24" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="D342" s="12"/>
     </row>
@@ -6367,10 +6372,10 @@
         <v>338</v>
       </c>
       <c r="B343" s="15" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="C343" s="24" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="D343" s="12"/>
     </row>
@@ -6380,10 +6385,10 @@
         <v>339</v>
       </c>
       <c r="B344" s="15" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="C344" s="24" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="D344" s="12"/>
     </row>
@@ -6393,10 +6398,10 @@
         <v>340</v>
       </c>
       <c r="B345" s="15" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="C345" s="24" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="D345" s="12"/>
     </row>
@@ -6406,10 +6411,10 @@
         <v>341</v>
       </c>
       <c r="B346" s="15" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="C346" s="24" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="D346" s="12"/>
     </row>
@@ -6419,10 +6424,10 @@
         <v>342</v>
       </c>
       <c r="B347" s="15" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="C347" s="24" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="D347" s="12"/>
     </row>
@@ -6432,10 +6437,10 @@
         <v>343</v>
       </c>
       <c r="B348" s="15" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="C348" s="24" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="D348" s="12"/>
     </row>
@@ -6445,10 +6450,10 @@
         <v>344</v>
       </c>
       <c r="B349" s="15" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="C349" s="24" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="D349" s="12"/>
     </row>
@@ -6458,10 +6463,10 @@
         <v>345</v>
       </c>
       <c r="B350" s="15" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="C350" s="24" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="D350" s="12"/>
     </row>
@@ -6471,10 +6476,10 @@
         <v>346</v>
       </c>
       <c r="B351" s="15" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="C351" s="24" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="D351" s="12"/>
     </row>
@@ -6484,10 +6489,10 @@
         <v>347</v>
       </c>
       <c r="B352" s="15" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="C352" s="24" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="D352" s="12"/>
     </row>
@@ -6497,10 +6502,10 @@
         <v>348</v>
       </c>
       <c r="B353" s="15" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="C353" s="24" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="D353" s="12"/>
     </row>
@@ -6510,10 +6515,10 @@
         <v>349</v>
       </c>
       <c r="B354" s="15" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="C354" s="24" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="D354" s="12"/>
     </row>
@@ -6523,10 +6528,10 @@
         <v>350</v>
       </c>
       <c r="B355" s="15" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="C355" s="24" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="D355" s="12"/>
     </row>
@@ -6536,10 +6541,10 @@
         <v>351</v>
       </c>
       <c r="B356" s="15" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="C356" s="24" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="D356" s="12"/>
     </row>
@@ -6549,10 +6554,10 @@
         <v>352</v>
       </c>
       <c r="B357" s="15" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="C357" s="24" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="D357" s="12"/>
     </row>
@@ -6562,10 +6567,10 @@
         <v>353</v>
       </c>
       <c r="B358" s="15" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="C358" s="24" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="D358" s="12"/>
     </row>
@@ -6575,10 +6580,10 @@
         <v>354</v>
       </c>
       <c r="B359" s="15" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="C359" s="24" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="D359" s="12"/>
     </row>
@@ -6588,10 +6593,10 @@
         <v>355</v>
       </c>
       <c r="B360" s="15" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="C360" s="24" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="D360" s="12"/>
     </row>
@@ -6601,10 +6606,10 @@
         <v>356</v>
       </c>
       <c r="B361" s="15" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="C361" s="24" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="D361" s="12"/>
     </row>
@@ -6614,10 +6619,10 @@
         <v>357</v>
       </c>
       <c r="B362" s="15" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="C362" s="24" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="D362" s="12"/>
     </row>
@@ -6627,10 +6632,10 @@
         <v>358</v>
       </c>
       <c r="B363" s="15" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="C363" s="24" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="D363" s="12"/>
     </row>
@@ -6640,10 +6645,10 @@
         <v>359</v>
       </c>
       <c r="B364" s="15" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="C364" s="24" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="D364" s="12"/>
     </row>
@@ -6653,10 +6658,10 @@
         <v>360</v>
       </c>
       <c r="B365" s="15" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="C365" s="24" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="D365" s="12"/>
     </row>
@@ -6666,10 +6671,10 @@
         <v>361</v>
       </c>
       <c r="B366" s="15" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="C366" s="24" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="D366" s="12"/>
     </row>
@@ -6679,10 +6684,10 @@
         <v>362</v>
       </c>
       <c r="B367" s="15" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="C367" s="24" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="D367" s="12"/>
     </row>
@@ -6692,10 +6697,10 @@
         <v>363</v>
       </c>
       <c r="B368" s="15" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="C368" s="24" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="D368" s="12"/>
     </row>
@@ -6705,10 +6710,10 @@
         <v>364</v>
       </c>
       <c r="B369" s="15" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="C369" s="24" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="D369" s="12"/>
     </row>
@@ -6718,10 +6723,10 @@
         <v>365</v>
       </c>
       <c r="B370" s="15" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="C370" s="24" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="D370" s="12"/>
     </row>
@@ -6731,10 +6736,10 @@
         <v>366</v>
       </c>
       <c r="B371" s="15" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="C371" s="24" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="D371" s="12"/>
     </row>
@@ -6744,10 +6749,10 @@
         <v>367</v>
       </c>
       <c r="B372" s="15" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="C372" s="24" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="D372" s="12"/>
     </row>
@@ -6757,10 +6762,10 @@
         <v>368</v>
       </c>
       <c r="B373" s="15" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="C373" s="24" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="D373" s="12"/>
     </row>
@@ -6770,10 +6775,10 @@
         <v>369</v>
       </c>
       <c r="B374" s="15" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="C374" s="24" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="D374" s="12"/>
     </row>
@@ -6783,10 +6788,10 @@
         <v>370</v>
       </c>
       <c r="B375" s="15" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="C375" s="24" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="D375" s="12"/>
     </row>
@@ -6796,10 +6801,10 @@
         <v>371</v>
       </c>
       <c r="B376" s="15" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="C376" s="24" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="D376" s="12"/>
     </row>
@@ -6809,10 +6814,10 @@
         <v>372</v>
       </c>
       <c r="B377" s="15" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="C377" s="24" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="D377" s="12"/>
     </row>
@@ -6822,10 +6827,10 @@
         <v>373</v>
       </c>
       <c r="B378" s="10" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="C378" s="24" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="D378" s="12"/>
     </row>
@@ -6835,10 +6840,10 @@
         <v>374</v>
       </c>
       <c r="B379" s="10" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="C379" s="24" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="D379" s="12"/>
     </row>
@@ -6848,10 +6853,10 @@
         <v>375</v>
       </c>
       <c r="B380" s="10" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="C380" s="24" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="D380" s="12"/>
     </row>
@@ -6861,10 +6866,10 @@
         <v>376</v>
       </c>
       <c r="B381" s="10" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="C381" s="24" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D381" s="12"/>
     </row>
@@ -6874,10 +6879,10 @@
         <v>377</v>
       </c>
       <c r="B382" s="10" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="C382" s="24" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="D382" s="12"/>
     </row>
@@ -6887,10 +6892,10 @@
         <v>378</v>
       </c>
       <c r="B383" s="10" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="C383" s="24" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="D383" s="12"/>
     </row>
@@ -6900,10 +6905,10 @@
         <v>379</v>
       </c>
       <c r="B384" s="15" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C384" s="24" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="D384" s="12"/>
     </row>
@@ -6913,10 +6918,10 @@
         <v>380</v>
       </c>
       <c r="B385" s="15" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C385" s="24" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="D385" s="12"/>
     </row>
@@ -6926,10 +6931,10 @@
         <v>381</v>
       </c>
       <c r="B386" s="15" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C386" s="24" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="D386" s="12"/>
     </row>
@@ -6939,10 +6944,10 @@
         <v>382</v>
       </c>
       <c r="B387" s="15" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C387" s="24" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="D387" s="12"/>
     </row>
@@ -6952,10 +6957,10 @@
         <v>383</v>
       </c>
       <c r="B388" s="15" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C388" s="24" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="D388" s="12"/>
     </row>
@@ -6965,10 +6970,10 @@
         <v>384</v>
       </c>
       <c r="B389" s="15" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C389" s="24" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="D389" s="12"/>
     </row>
@@ -6978,10 +6983,10 @@
         <v>385</v>
       </c>
       <c r="B390" s="15" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C390" s="24" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="D390" s="12"/>
     </row>
@@ -6991,10 +6996,10 @@
         <v>386</v>
       </c>
       <c r="B391" s="15" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C391" s="24" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="D391" s="12"/>
     </row>
@@ -7004,10 +7009,10 @@
         <v>387</v>
       </c>
       <c r="B392" s="15" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C392" s="24" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="D392" s="12"/>
     </row>
@@ -7017,10 +7022,10 @@
         <v>388</v>
       </c>
       <c r="B393" s="15" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C393" s="24" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="D393" s="12"/>
     </row>
@@ -7030,10 +7035,10 @@
         <v>389</v>
       </c>
       <c r="B394" s="15" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C394" s="24" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="D394" s="12"/>
     </row>
@@ -7043,10 +7048,10 @@
         <v>390</v>
       </c>
       <c r="B395" s="15" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C395" s="24" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="D395" s="12"/>
     </row>
@@ -7056,10 +7061,10 @@
         <v>391</v>
       </c>
       <c r="B396" s="15" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C396" s="24" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="D396" s="12"/>
     </row>
@@ -7069,10 +7074,10 @@
         <v>392</v>
       </c>
       <c r="B397" s="15" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C397" s="24" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="D397" s="12"/>
     </row>
@@ -7082,10 +7087,10 @@
         <v>393</v>
       </c>
       <c r="B398" s="15" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C398" s="24" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="D398" s="12"/>
     </row>
@@ -7095,10 +7100,10 @@
         <v>394</v>
       </c>
       <c r="B399" s="15" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C399" s="24" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="D399" s="12"/>
     </row>
@@ -7108,10 +7113,10 @@
         <v>395</v>
       </c>
       <c r="B400" s="15" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C400" s="24" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="D400" s="12"/>
     </row>
@@ -7121,10 +7126,10 @@
         <v>396</v>
       </c>
       <c r="B401" s="15" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C401" s="24" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="D401" s="12"/>
     </row>
@@ -7134,10 +7139,10 @@
         <v>397</v>
       </c>
       <c r="B402" s="15" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C402" s="24" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="D402" s="12"/>
     </row>
@@ -7147,10 +7152,10 @@
         <v>398</v>
       </c>
       <c r="B403" s="15" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C403" s="24" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="D403" s="12"/>
     </row>
@@ -7160,10 +7165,10 @@
         <v>399</v>
       </c>
       <c r="B404" s="15" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C404" s="24" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="D404" s="12"/>
     </row>
@@ -7173,10 +7178,10 @@
         <v>400</v>
       </c>
       <c r="B405" s="15" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C405" s="24" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="D405" s="12"/>
     </row>
@@ -7186,10 +7191,10 @@
         <v>401</v>
       </c>
       <c r="B406" s="15" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C406" s="24" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="D406" s="12"/>
     </row>
@@ -7199,10 +7204,10 @@
         <v>402</v>
       </c>
       <c r="B407" s="15" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C407" s="24" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="D407" s="12"/>
     </row>
@@ -7212,10 +7217,10 @@
         <v>403</v>
       </c>
       <c r="B408" s="15" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C408" s="24" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="D408" s="12"/>
     </row>
@@ -7225,10 +7230,10 @@
         <v>404</v>
       </c>
       <c r="B409" s="15" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C409" s="24" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="D409" s="12"/>
     </row>
@@ -7238,10 +7243,10 @@
         <v>405</v>
       </c>
       <c r="B410" s="15" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C410" s="24" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="D410" s="12"/>
     </row>
@@ -7251,10 +7256,10 @@
         <v>406</v>
       </c>
       <c r="B411" s="15" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C411" s="24" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="D411" s="12"/>
     </row>
@@ -7264,10 +7269,10 @@
         <v>407</v>
       </c>
       <c r="B412" s="15" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C412" s="24" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="D412" s="12"/>
     </row>
@@ -7277,10 +7282,10 @@
         <v>408</v>
       </c>
       <c r="B413" s="15" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C413" s="24" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="D413" s="12"/>
     </row>
@@ -7290,10 +7295,10 @@
         <v>409</v>
       </c>
       <c r="B414" s="15" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C414" s="24" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="D414" s="12"/>
     </row>
@@ -7303,10 +7308,10 @@
         <v>410</v>
       </c>
       <c r="B415" s="15" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C415" s="24" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="D415" s="12"/>
     </row>
@@ -7316,10 +7321,10 @@
         <v>411</v>
       </c>
       <c r="B416" s="15" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C416" s="24" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="D416" s="12"/>
     </row>
@@ -7329,10 +7334,10 @@
         <v>412</v>
       </c>
       <c r="B417" s="15" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C417" s="24" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="D417" s="12"/>
     </row>
@@ -7342,10 +7347,10 @@
         <v>413</v>
       </c>
       <c r="B418" s="15" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C418" s="24" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="D418" s="12"/>
     </row>
@@ -7355,10 +7360,10 @@
         <v>414</v>
       </c>
       <c r="B419" s="15" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C419" s="24" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="D419" s="12"/>
     </row>
@@ -7368,10 +7373,10 @@
         <v>415</v>
       </c>
       <c r="B420" s="15" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C420" s="24" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="D420" s="12"/>
     </row>
@@ -7381,10 +7386,10 @@
         <v>416</v>
       </c>
       <c r="B421" s="15" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C421" s="24" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="D421" s="12"/>
     </row>
@@ -7394,10 +7399,10 @@
         <v>417</v>
       </c>
       <c r="B422" s="15" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C422" s="24" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="D422" s="12"/>
     </row>
@@ -7407,10 +7412,10 @@
         <v>418</v>
       </c>
       <c r="B423" s="15" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C423" s="24" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="D423" s="12"/>
     </row>
@@ -7420,10 +7425,10 @@
         <v>419</v>
       </c>
       <c r="B424" s="15" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C424" s="24" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="D424" s="12"/>
     </row>
@@ -7433,10 +7438,10 @@
         <v>420</v>
       </c>
       <c r="B425" s="15" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C425" s="24" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="D425" s="12"/>
     </row>
@@ -7446,10 +7451,10 @@
         <v>421</v>
       </c>
       <c r="B426" s="15" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C426" s="24" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="D426" s="12"/>
     </row>
@@ -7459,10 +7464,10 @@
         <v>422</v>
       </c>
       <c r="B427" s="15" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C427" s="24" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="D427" s="12"/>
     </row>
@@ -7472,10 +7477,10 @@
         <v>423</v>
       </c>
       <c r="B428" s="15" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C428" s="24" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="D428" s="12"/>
     </row>
@@ -7485,10 +7490,10 @@
         <v>424</v>
       </c>
       <c r="B429" s="15" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C429" s="24" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="D429" s="12"/>
     </row>
@@ -7498,10 +7503,10 @@
         <v>425</v>
       </c>
       <c r="B430" s="15" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C430" s="24" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="D430" s="12"/>
     </row>
@@ -7511,10 +7516,10 @@
         <v>426</v>
       </c>
       <c r="B431" s="15" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C431" s="24" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="D431" s="12"/>
     </row>
@@ -7524,10 +7529,10 @@
         <v>427</v>
       </c>
       <c r="B432" s="15" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C432" s="24" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="D432" s="12"/>
     </row>
@@ -7537,10 +7542,10 @@
         <v>428</v>
       </c>
       <c r="B433" s="15" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C433" s="24" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="D433" s="12"/>
     </row>
@@ -7550,10 +7555,10 @@
         <v>429</v>
       </c>
       <c r="B434" s="15" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C434" s="24" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="D434" s="12"/>
     </row>
@@ -7563,10 +7568,10 @@
         <v>430</v>
       </c>
       <c r="B435" s="15" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C435" s="24" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="D435" s="12"/>
     </row>
@@ -7576,10 +7581,10 @@
         <v>431</v>
       </c>
       <c r="B436" s="15" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C436" s="24" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="D436" s="12"/>
     </row>
@@ -7589,10 +7594,10 @@
         <v>432</v>
       </c>
       <c r="B437" s="15" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C437" s="24" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="D437" s="12"/>
     </row>
@@ -7602,10 +7607,10 @@
         <v>433</v>
       </c>
       <c r="B438" s="15" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C438" s="24" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="D438" s="12"/>
     </row>
@@ -7615,10 +7620,10 @@
         <v>434</v>
       </c>
       <c r="B439" s="15" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C439" s="24" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="D439" s="12"/>
     </row>
@@ -7628,10 +7633,10 @@
         <v>435</v>
       </c>
       <c r="B440" s="15" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C440" s="24" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="D440" s="12"/>
     </row>
@@ -7641,10 +7646,10 @@
         <v>436</v>
       </c>
       <c r="B441" s="15" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C441" s="24" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="D441" s="12"/>
     </row>
@@ -7654,10 +7659,10 @@
         <v>437</v>
       </c>
       <c r="B442" s="15" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C442" s="24" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="D442" s="12"/>
     </row>
@@ -7667,10 +7672,10 @@
         <v>438</v>
       </c>
       <c r="B443" s="15" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C443" s="24" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="D443" s="12"/>
     </row>
@@ -7680,10 +7685,10 @@
         <v>439</v>
       </c>
       <c r="B444" s="10" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="C444" s="24" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="D444" s="12"/>
     </row>
@@ -7693,10 +7698,10 @@
         <v>440</v>
       </c>
       <c r="B445" s="10" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="C445" s="24" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="D445" s="12"/>
     </row>
@@ -7706,10 +7711,10 @@
         <v>441</v>
       </c>
       <c r="B446" s="10" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="C446" s="24" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="D446" s="12"/>
     </row>
@@ -7719,10 +7724,10 @@
         <v>442</v>
       </c>
       <c r="B447" s="10" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="C447" s="24" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="D447" s="12"/>
     </row>
@@ -7732,10 +7737,10 @@
         <v>443</v>
       </c>
       <c r="B448" s="10" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="C448" s="24" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="D448" s="12"/>
     </row>
@@ -7745,10 +7750,10 @@
         <v>444</v>
       </c>
       <c r="B449" s="10" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="C449" s="24" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="D449" s="12"/>
     </row>
@@ -7758,10 +7763,10 @@
         <v>445</v>
       </c>
       <c r="B450" s="10" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="C450" s="24" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="D450" s="12"/>
     </row>
@@ -7771,10 +7776,10 @@
         <v>446</v>
       </c>
       <c r="B451" s="10" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="C451" s="24" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="D451" s="12"/>
     </row>
@@ -7784,10 +7789,10 @@
         <v>447</v>
       </c>
       <c r="B452" s="10" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="C452" s="24" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="D452" s="12"/>
     </row>
@@ -7797,10 +7802,10 @@
         <v>448</v>
       </c>
       <c r="B453" s="10" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="C453" s="24" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="D453" s="12"/>
     </row>
@@ -7912,388 +7917,389 @@
     <hyperlink ref="C67" r:id="rId62" display="Balanced Parenthesis problem.[Imp]"/>
     <hyperlink ref="C68" r:id="rId63" display="Word break Problem[ Very Imp]"/>
     <hyperlink ref="C69" r:id="rId64" display="Rabin Karp Algo"/>
-    <hyperlink ref="C70" r:id="rId65" display="KMP Algo"/>
-    <hyperlink ref="C71" r:id="rId66" display="Convert a Sentence into its equivalent mobile numeric keypad sequence."/>
-    <hyperlink ref="C72" r:id="rId67" display="Minimum number of bracket reversals needed to make an expression balanced."/>
-    <hyperlink ref="C73" r:id="rId68" display="Count All Palindromic Subsequence in a given String."/>
-    <hyperlink ref="C74" r:id="rId69" display="Count of number of given string in 2D character array"/>
-    <hyperlink ref="C75" r:id="rId70" display="Search a Word in a 2D Grid of characters."/>
-    <hyperlink ref="C76" r:id="rId71" display="Boyer Moore Algorithm for Pattern Searching."/>
-    <hyperlink ref="C77" r:id="rId72" display="Converting Roman Numerals to Decimal"/>
-    <hyperlink ref="C78" r:id="rId73" display="Longest Common Prefix"/>
-    <hyperlink ref="C79" r:id="rId74" display="Number of flips to make binary string alternate"/>
-    <hyperlink ref="C80" r:id="rId75" display="Find the first repeated word in string."/>
-    <hyperlink ref="C81" r:id="rId76" display="Minimum number of swaps for bracket balancing."/>
-    <hyperlink ref="C82" r:id="rId77" display="Find the longest common subsequence between two strings."/>
-    <hyperlink ref="C83" r:id="rId78" display="Program to generate all possible valid IP addresses from given  string."/>
-    <hyperlink ref="C84" r:id="rId79" display="Write a program tofind the smallest window that contains all characters of string itself."/>
-    <hyperlink ref="C85" r:id="rId80" display="Rearrange characters in a string such that no two adjacent are same"/>
-    <hyperlink ref="C86" r:id="rId81" display="Minimum characters to be added at front to make string palindrome"/>
-    <hyperlink ref="C87" r:id="rId82" display="Given a sequence of words, print all anagrams together"/>
-    <hyperlink ref="C88" r:id="rId83" display="Find the smallest window in a string containing all characters of another string"/>
-    <hyperlink ref="C89" r:id="rId84" display="Recursively remove all adjacent duplicates"/>
-    <hyperlink ref="C90" r:id="rId85" display="String matching where one string contains wildcard characters"/>
-    <hyperlink ref="C91" r:id="rId86" display="Function to find Number of customers who could not get a computer"/>
-    <hyperlink ref="C92" r:id="rId87" display="Transform One String to Another using Minimum Number of Given Operation"/>
-    <hyperlink ref="C93" r:id="rId88" display="Check if two given strings are isomorphic to each other"/>
-    <hyperlink ref="C94" r:id="rId89" display="Recursively print all sentences that can be formed from list of word lists"/>
-    <hyperlink ref="C95" r:id="rId90" display="Find first and last positions of an element in a sorted array"/>
-    <hyperlink ref="C96" r:id="rId91" display="Find a Fixed Point (Value equal to index) in a given array"/>
-    <hyperlink ref="C97" r:id="rId92" display="Search in a rotated sorted array"/>
-    <hyperlink ref="C98" r:id="rId93" display="square root of an integer"/>
-    <hyperlink ref="C99" r:id="rId94" display="Maximum and minimum of an array using minimum number of comparisons"/>
-    <hyperlink ref="C100" r:id="rId95" location=":~:text=We%20need%20to%20find%20a,set%20of%20points%20is%20minimum.&amp;text=In%20above%20figure%20optimum%20location,is%20minimum%20obtainable%20total%20distance." display="Optimum location of point to minimize total distance"/>
-    <hyperlink ref="C101" r:id="rId96" display="Find the repeating and the missing"/>
-    <hyperlink ref="C102" r:id="rId97" display="find majority element"/>
-    <hyperlink ref="C103" r:id="rId98" display="Searching in an array where adjacent differ by at most k"/>
-    <hyperlink ref="C104" r:id="rId99" display="find a pair with a given difference"/>
-    <hyperlink ref="C105" r:id="rId100" display="find four elements that sum to a given value"/>
-    <hyperlink ref="C106" r:id="rId101" display="maximum sum such that no 2 elements are adjacent"/>
-    <hyperlink ref="C107" r:id="rId102" display="Count triplet with sum smaller than a given value"/>
-    <hyperlink ref="C108" r:id="rId103" display="merge 2 sorted arrays"/>
-    <hyperlink ref="C109" r:id="rId104" display="print all subarrays with 0 sum"/>
-    <hyperlink ref="C110" r:id="rId105" display="Product array Puzzle"/>
-    <hyperlink ref="C111" r:id="rId106" display="Sort array according to count of set bits"/>
-    <hyperlink ref="C112" r:id="rId107" display="minimum no. of swaps required to sort the array"/>
-    <hyperlink ref="C113" r:id="rId108" display="Bishu and Soldiers"/>
-    <hyperlink ref="C114" r:id="rId109" display="Rasta and Kheshtak"/>
-    <hyperlink ref="C115" r:id="rId110" display="Kth smallest number again"/>
-    <hyperlink ref="C116" r:id="rId111" display="Find pivot element in a sorted array"/>
-    <hyperlink ref="C117" r:id="rId112" display="K-th Element of Two Sorted Arrays"/>
-    <hyperlink ref="C118" r:id="rId113" display="Aggressive cows"/>
-    <hyperlink ref="C119" r:id="rId114" display="Book Allocation Problem"/>
-    <hyperlink ref="C120" r:id="rId115" display="EKOSPOJ:"/>
-    <hyperlink ref="C121" r:id="rId116" display="Job Scheduling Algo"/>
-    <hyperlink ref="C122" r:id="rId117" display="Missing Number in AP"/>
-    <hyperlink ref="C123" r:id="rId118" display="Smallest number with atleastn trailing zeroes infactorial"/>
-    <hyperlink ref="C124" r:id="rId119" display="Painters Partition Problem:"/>
-    <hyperlink ref="C125" r:id="rId120" display="ROTI-Prata SPOJ"/>
-    <hyperlink ref="C126" r:id="rId121" display="DoubleHelix SPOJ"/>
-    <hyperlink ref="C127" r:id="rId122" display="Subset Sums"/>
-    <hyperlink ref="C128" r:id="rId123" display="Findthe inversion count"/>
-    <hyperlink ref="C129" r:id="rId124" display="Implement Merge-sort in-place"/>
-    <hyperlink ref="C130" r:id="rId125" display="Partitioning and Sorting Arrays with Many Repeated Entries"/>
-    <hyperlink ref="C131" r:id="rId126" display="Write a Program to reverse the Linked List. (Both Iterative and recursive)"/>
-    <hyperlink ref="C132" r:id="rId127" display="Reverse a Linked List in group of Given Size. [Very Imp]"/>
-    <hyperlink ref="C133" r:id="rId128" display="Write a program to Detect loop in a linked list."/>
-    <hyperlink ref="C134" r:id="rId129" display="Write a program to Delete loop in a linked list."/>
-    <hyperlink ref="C135" r:id="rId130" display="Find the starting point of the loop. "/>
-    <hyperlink ref="C136" r:id="rId131" display="Remove Duplicates in a sorted Linked List."/>
-    <hyperlink ref="C137" r:id="rId132" display="Remove Duplicates in a Un-sorted Linked List."/>
-    <hyperlink ref="C138" r:id="rId133" display="Write a Program to Move the last element to Front in a Linked List."/>
-    <hyperlink ref="C139" r:id="rId134" display="Add “1” to a number represented as a Linked List."/>
-    <hyperlink ref="C140" r:id="rId135" display="Add two numbers represented by linked lists."/>
-    <hyperlink ref="C141" r:id="rId136" display="Intersection of two Sorted Linked List."/>
-    <hyperlink ref="C142" r:id="rId137" display="Intersection Point of two Linked Lists."/>
-    <hyperlink ref="C143" r:id="rId138" display="Merge Sort For Linked lists.[Very Important]"/>
-    <hyperlink ref="C144" r:id="rId139" display="Quicksort for Linked Lists.[Very Important]"/>
-    <hyperlink ref="C145" r:id="rId140" display="Find the middle Element of a linked list."/>
-    <hyperlink ref="C146" r:id="rId141" display="Check if a linked list is a circular linked list."/>
-    <hyperlink ref="C147" r:id="rId142" display="Split a Circular linked list into two halves."/>
-    <hyperlink ref="C148" r:id="rId143" display="Write a Program to check whether the Singly Linked list is a palindrome or not."/>
-    <hyperlink ref="C149" r:id="rId144" display="Deletion from a Circular Linked List."/>
-    <hyperlink ref="C150" r:id="rId145" display="Reverse a Doubly Linked list."/>
-    <hyperlink ref="C151" r:id="rId146" display="Find pairs with a given sum in a DLL."/>
-    <hyperlink ref="C152" r:id="rId147" display="Count triplets in a sorted DLL whose sum is equal to given value “X”."/>
-    <hyperlink ref="C153" r:id="rId148" display="Sort a “k”sorted Doubly Linked list.[Very IMP]"/>
-    <hyperlink ref="C154" r:id="rId149" display="Rotate DoublyLinked list by N nodes."/>
-    <hyperlink ref="C155" r:id="rId150" display="Rotate a Doubly Linked list in group of Given Size.[Very IMP]"/>
-    <hyperlink ref="C158" r:id="rId151" display="Flatten a Linked List"/>
-    <hyperlink ref="C159" r:id="rId152" display="Sort a LL of 0's, 1's and 2's"/>
-    <hyperlink ref="C160" r:id="rId153" display="Clone a linked list with next and random pointer"/>
-    <hyperlink ref="C161" r:id="rId154" display="Merge K sorted Linked list"/>
-    <hyperlink ref="C162" r:id="rId155" display="Multiply 2 no. represented by LL"/>
-    <hyperlink ref="C163" r:id="rId156" display="Delete nodes which have a greater value on right side"/>
-    <hyperlink ref="C164" r:id="rId157" display="Segregate even and odd nodes in a Linked List"/>
-    <hyperlink ref="C165" r:id="rId158" display="Program for n’th node from the end of a Linked List"/>
-    <hyperlink ref="C166" r:id="rId159" display="Find the first non-repeating character from a stream of characters"/>
-    <hyperlink ref="C167" r:id="rId160" display="level order traversal"/>
-    <hyperlink ref="C168" r:id="rId161" display="Reverse Level Order traversal"/>
-    <hyperlink ref="C169" r:id="rId162" display="Height of a tree"/>
-    <hyperlink ref="C170" r:id="rId163" display="Diameter of a tree"/>
-    <hyperlink ref="C171" r:id="rId164" display="Mirror of a tree"/>
-    <hyperlink ref="C172" r:id="rId165" display="Inorder Traversal of a tree both using recursion and Iteration"/>
-    <hyperlink ref="C173" r:id="rId166" display="Preorder Traversal of a tree both using recursion and Iteration"/>
-    <hyperlink ref="C174" r:id="rId167" display="Postorder Traversal of a tree both using recursion and Iteration"/>
-    <hyperlink ref="C175" r:id="rId168" display="Left View of a tree"/>
-    <hyperlink ref="C176" r:id="rId169" display="Right View of Tree"/>
-    <hyperlink ref="C177" r:id="rId170" display="Top View of a tree"/>
-    <hyperlink ref="C178" r:id="rId171" display="Bottom View of a tree"/>
-    <hyperlink ref="C179" r:id="rId172" display="Zig-Zag traversal of a binary tree"/>
-    <hyperlink ref="C180" r:id="rId173" display="Check if a tree is balanced or not"/>
-    <hyperlink ref="C181" r:id="rId174" display="Diagnol Traversal of a Binary tree"/>
-    <hyperlink ref="C182" r:id="rId175" display="Boundary traversal of a Binary tree"/>
-    <hyperlink ref="C183" r:id="rId176" display="Construct Binary Tree from String with Bracket Representation"/>
-    <hyperlink ref="C184" r:id="rId177" display="Convert Binary tree into Doubly Linked List"/>
-    <hyperlink ref="C185" r:id="rId178" display="Convert Binary tree into Sum tree"/>
-    <hyperlink ref="C186" r:id="rId179" display="Construct Binary tree from Inorder and preorder traversal"/>
-    <hyperlink ref="C187" r:id="rId180" location=":~:text=Given%20the%20array%20representation%20of,it%20into%20Binary%20Search%20Tree.&amp;text=Swap%201%3A%20Swap%20node%208,node%209%20with%20node%2010." display="Find minimum swaps required to convert a Binary tree into BST"/>
-    <hyperlink ref="C188" r:id="rId181" display="Check if Binary tree is Sum tree or not"/>
-    <hyperlink ref="C189" r:id="rId182" display="Check if all leaf nodes are at same level or not"/>
-    <hyperlink ref="C190" r:id="rId183" display="Check if a Binary Tree contains duplicate subtrees of size 2 or more [ IMP ]"/>
-    <hyperlink ref="C191" r:id="rId184" display="Check if 2 trees are mirror or not"/>
-    <hyperlink ref="C192" r:id="rId185" display="Sum of Nodes on the Longest path from root to leaf node "/>
-    <hyperlink ref="C193" r:id="rId186" location=":~:text=Since%20the%20graph%20is%20undirected,graph%20is%20connected%2C%20otherwise%20not." display="Check if given graph is tree or not.  [ IMP ]"/>
-    <hyperlink ref="C194" r:id="rId187" display="Find Largest subtree sum in a tree"/>
-    <hyperlink ref="C195" r:id="rId188" display="Maximum Sum of nodes in Binary tree such that no two are adjacent "/>
-    <hyperlink ref="C196" r:id="rId189" display="Print all &quot;K&quot; Sum paths in a Binary tree"/>
-    <hyperlink ref="C197" r:id="rId190" display="Find LCA in a Binary tree"/>
-    <hyperlink ref="C198" r:id="rId191" display="Find distance between 2 nodes in a Binary tree"/>
-    <hyperlink ref="C199" r:id="rId192" display="Kth Ancestor of node in a Binary tree"/>
-    <hyperlink ref="C200" r:id="rId193" display="Find all Duplicate subtrees in a Binary tree [ IMP ]"/>
-    <hyperlink ref="C201" r:id="rId194" display="Tree Isomorphism Problem"/>
-    <hyperlink ref="C202" r:id="rId195" display="Fina a value in a BST"/>
-    <hyperlink ref="C203" r:id="rId196" display="Deletion of a node in a BST"/>
-    <hyperlink ref="C204" r:id="rId197" display="Find min and max value in a BST"/>
-    <hyperlink ref="C205" r:id="rId198" display="Find inorder successor and inorder predecessor in a BST"/>
-    <hyperlink ref="C206" r:id="rId199" display="Check if a tree is a BST or not "/>
-    <hyperlink ref="C207" r:id="rId200" display="Populate Inorder successor of all nodes"/>
-    <hyperlink ref="C208" r:id="rId201" display="Find LCA  of 2 nodes in a BST"/>
-    <hyperlink ref="C209" r:id="rId202" display="Construct BST from preorder traversal"/>
-    <hyperlink ref="C210" r:id="rId203" display="Convert Binary tree into BST"/>
-    <hyperlink ref="C211" r:id="rId204" display="Convert a normal BST into a Balanced BST"/>
-    <hyperlink ref="C212" r:id="rId205" display="Merge two BST [ V.V.V&gt;IMP ]"/>
-    <hyperlink ref="C213" r:id="rId206" display="Find Kth largest element in a BST"/>
-    <hyperlink ref="C214" r:id="rId207" display="Find Kth smallest element in a BST"/>
-    <hyperlink ref="C215" r:id="rId208" display="Count pairs from 2 BST whose sum is equal to given value &quot;X&quot;"/>
-    <hyperlink ref="C216" r:id="rId209" display="Find the median of BST in O(n) time and O(1) space"/>
-    <hyperlink ref="C217" r:id="rId210" display="Count BST ndoes that lie in a given range"/>
-    <hyperlink ref="C218" r:id="rId211" display="Replace every element with the least greater element on its right"/>
-    <hyperlink ref="C219" r:id="rId212" display="Given &quot;n&quot; appointments, find the conflicting appointments"/>
-    <hyperlink ref="C220" r:id="rId213" display="Check preorder is valid or not"/>
-    <hyperlink ref="C221" r:id="rId214" display="Check whether BST contains Dead end"/>
-    <hyperlink ref="C222" r:id="rId215" display="Largest BST in a Binary Tree [ V.V.V.V.V IMP ]"/>
-    <hyperlink ref="C223" r:id="rId216" display="Flatten BST to sorted list"/>
-    <hyperlink ref="C224" r:id="rId217" display="Activity Selection Problem"/>
-    <hyperlink ref="C225" r:id="rId218" display="Job SequencingProblem"/>
-    <hyperlink ref="C226" r:id="rId219" display="Huffman Coding"/>
-    <hyperlink ref="C227" r:id="rId220" display="Water Connection Problem"/>
-    <hyperlink ref="C228" r:id="rId221" display="Fractional Knapsack Problem"/>
-    <hyperlink ref="C229" r:id="rId222" display="Greedy Algorithm to find Minimum number of Coins"/>
-    <hyperlink ref="C230" r:id="rId223" display="Maximum trains for which stoppage can be provided"/>
-    <hyperlink ref="C231" r:id="rId224" display="Minimum Platforms Problem"/>
-    <hyperlink ref="C232" r:id="rId225" display="Buy Maximum Stocks if i stocks can be bought on i-th day"/>
-    <hyperlink ref="C233" r:id="rId226" display="Find the minimum and maximum amount to buy all N candies"/>
-    <hyperlink ref="C234" r:id="rId227" display="Minimize Cash Flow among a given set of friends who have borrowed money from each other"/>
-    <hyperlink ref="C235" r:id="rId228" display="Minimum Cost to cut a board into squares"/>
-    <hyperlink ref="C236" r:id="rId229" display="Check if it is possible to survive on Island"/>
-    <hyperlink ref="C237" r:id="rId230" display="Find maximum meetings in one room"/>
-    <hyperlink ref="C238" r:id="rId231" display="Maximum product subset of an array"/>
-    <hyperlink ref="C239" r:id="rId232" display="Maximize array sum after K negations"/>
-    <hyperlink ref="C240" r:id="rId233" display="Maximize the sum of arr[i]*i"/>
-    <hyperlink ref="C241" r:id="rId234" display="Maximum sum of absolute difference of an array"/>
-    <hyperlink ref="C242" r:id="rId235" display="Maximize sum of consecutive differences in a circular array"/>
-    <hyperlink ref="C243" r:id="rId236" location=":~:text=It%20consists%20of%20two%20steps,result%20to%20the%20sum%20S." display="Minimum sum of absolute difference of pairs of two arrays"/>
-    <hyperlink ref="C244" r:id="rId237" display="Program for Shortest Job First (or SJF) CPU Scheduling"/>
-    <hyperlink ref="C245" r:id="rId238" display="Program for Least Recently Used (LRU) Page Replacement algorithm"/>
-    <hyperlink ref="C246" r:id="rId239" display="Smallest subset with sum greater than all other elements"/>
-    <hyperlink ref="C247" r:id="rId240" display="Chocolate Distribution Problem"/>
-    <hyperlink ref="C248" r:id="rId241" display="DEFKIN -Defense of a Kingdom"/>
-    <hyperlink ref="C249" r:id="rId242" display="DIEHARD -DIE HARD"/>
-    <hyperlink ref="C250" r:id="rId243" display="GERGOVIA -Wine trading in Gergovia"/>
-    <hyperlink ref="C251" r:id="rId244" display="Picking Up Chicks"/>
-    <hyperlink ref="C252" r:id="rId245" display="CHOCOLA –Chocolate"/>
-    <hyperlink ref="C253" r:id="rId246" display="ARRANGE -Arranging Amplifiers"/>
-    <hyperlink ref="C254" r:id="rId247" display="K Centers Problem"/>
-    <hyperlink ref="C255" r:id="rId248" display="Minimum Cost of ropes"/>
-    <hyperlink ref="C256" r:id="rId249" display="Find smallest number with given number of digits and sum of digits"/>
-    <hyperlink ref="C257" r:id="rId250" display="Rearrange characters in a string such that no two adjacent are same"/>
-    <hyperlink ref="C258" r:id="rId251" display="Find maximum sum possible equal sum of three stacks"/>
-    <hyperlink ref="C259" r:id="rId252" display="Rat in a maze Problem"/>
-    <hyperlink ref="C260" r:id="rId253" display="Printing all solutions in N-Queen Problem"/>
-    <hyperlink ref="C261" r:id="rId254" display="Word Break Problem using Backtracking"/>
-    <hyperlink ref="C262" r:id="rId255" display="Remove Invalid Parentheses"/>
-    <hyperlink ref="C263" r:id="rId256" display="Sudoku Solver"/>
-    <hyperlink ref="C264" r:id="rId257" display="m Coloring Problem"/>
-    <hyperlink ref="C265" r:id="rId258" display="Print all palindromic partitions of a string"/>
-    <hyperlink ref="C266" r:id="rId259" display="Subset Sum Problem"/>
-    <hyperlink ref="C267" r:id="rId260" display="The Knight’s tour problem"/>
-    <hyperlink ref="C268" r:id="rId261" display="Tug of War"/>
-    <hyperlink ref="C269" r:id="rId262" display="Find shortest safe route in a path with landmines"/>
-    <hyperlink ref="C270" r:id="rId263" display="Combinational Sum"/>
-    <hyperlink ref="C271" r:id="rId264" display="Find Maximum number possible by doing at-most K swaps"/>
-    <hyperlink ref="C272" r:id="rId265" display="Print all permutations of a string "/>
-    <hyperlink ref="C273" r:id="rId266" display="Find if there is a path of more than k length from a source"/>
-    <hyperlink ref="C274" r:id="rId267" display="Longest Possible Route in a Matrix with Hurdles"/>
-    <hyperlink ref="C275" r:id="rId268" display="Print all possible paths from top left to bottom right of a mXn matrix"/>
-    <hyperlink ref="C276" r:id="rId269" display="Partition of a set intoK subsets with equal sum"/>
-    <hyperlink ref="C277" r:id="rId270" display="Find the K-th Permutation Sequence of first N natural numbers"/>
-    <hyperlink ref="C278" r:id="rId271" display=" Implement Stack from Scratch"/>
-    <hyperlink ref="C279" r:id="rId272" display=" Implement Queue from Scratch"/>
-    <hyperlink ref="C280" r:id="rId273" display="Implement 2 stack in an array"/>
-    <hyperlink ref="C281" r:id="rId274" display="find the middle element of a stack"/>
-    <hyperlink ref="C282" r:id="rId275" display="Implement &quot;N&quot; stacks in an Array"/>
-    <hyperlink ref="C283" r:id="rId276" display="Check the expression has valid or Balanced parenthesis or not."/>
-    <hyperlink ref="C284" r:id="rId277" display="Reverse a String using Stack"/>
-    <hyperlink ref="C285" r:id="rId278" display="Design a Stack that supports getMin() in O(1) time and O(1) extra space."/>
-    <hyperlink ref="C286" r:id="rId279" display="Find the next Greater element"/>
-    <hyperlink ref="C287" r:id="rId280" display="The celebrity Problem"/>
-    <hyperlink ref="C288" r:id="rId281" location=":~:text=The%20stack%20organization%20is%20very,i.e.%2C%20A%20%2B%20B)." display="Arithmetic Expression evaluation"/>
-    <hyperlink ref="C289" r:id="rId282" display="Evaluation of Postfix expression"/>
-    <hyperlink ref="C290" r:id="rId283" display="Implement a method to insert an element at its bottom without using any other data structure."/>
-    <hyperlink ref="C291" r:id="rId284" display="Reverse a stack using recursion"/>
-    <hyperlink ref="C292" r:id="rId285" display="Sort a Stack using recursion"/>
-    <hyperlink ref="C293" r:id="rId286" display="Merge Overlapping Intervals"/>
-    <hyperlink ref="C294" r:id="rId287" display="Largest rectangular Area in Histogram"/>
-    <hyperlink ref="C295" r:id="rId288" display="Length of the Longest Valid Substring"/>
-    <hyperlink ref="C296" r:id="rId289" display="Expression contains redundant bracket or not"/>
-    <hyperlink ref="C297" r:id="rId290" display="Implement Stack using Queue"/>
-    <hyperlink ref="C298" r:id="rId291" display="Implement Stack using Deque"/>
-    <hyperlink ref="C299" r:id="rId292" display="Stack Permutations (Check if an array is stack permutation of other)"/>
-    <hyperlink ref="C300" r:id="rId293" display="Implement Queue using Stack  "/>
-    <hyperlink ref="C301" r:id="rId294" display="Implement &quot;n&quot; queue in an array"/>
-    <hyperlink ref="C302" r:id="rId295" display="Implement a Circular queue"/>
-    <hyperlink ref="C303" r:id="rId296" display="LRU Cache Implementationa"/>
-    <hyperlink ref="C304" r:id="rId297" display="Reverse a Queue using recursion"/>
-    <hyperlink ref="C305" r:id="rId298" display="Reverse the first “K” elements of a queue"/>
-    <hyperlink ref="C306" r:id="rId299" display="Interleave the first half of the queue with second half"/>
-    <hyperlink ref="C307" r:id="rId300" display="Find the first circular tour that visits all Petrol Pumps"/>
-    <hyperlink ref="C308" r:id="rId301" display="Minimum time required to rot all oranges"/>
-    <hyperlink ref="C309" r:id="rId302" display="Distance of nearest cell having 1 in a binary matrix"/>
-    <hyperlink ref="C310" r:id="rId303" display="First negative integer in every window of size “k”"/>
-    <hyperlink ref="C311" r:id="rId304" display="Check if all levels of two trees are anagrams or not."/>
-    <hyperlink ref="C312" r:id="rId305" display="Sum of minimum and maximum elements of all subarrays of size “k”."/>
-    <hyperlink ref="C313" r:id="rId306" display="Minimum sum of squares of character counts in a given string after removing “k” characters."/>
-    <hyperlink ref="C314" r:id="rId307" display="Queue based approach or first non-repeating character in a stream."/>
-    <hyperlink ref="C315" r:id="rId308" display="Next Smaller Element"/>
-    <hyperlink ref="C316" r:id="rId309" display="Implement a Maxheap/MinHeap using arrays and recursion."/>
-    <hyperlink ref="C317" r:id="rId310" display="Sort an Array using heap. (HeapSort)"/>
-    <hyperlink ref="C318" r:id="rId311" display="Maximum of all subarrays of size k."/>
-    <hyperlink ref="C319" r:id="rId312" display="“k” largest element in an array"/>
-    <hyperlink ref="C320" r:id="rId313" display="Kth smallest and largest element in an unsorted array"/>
-    <hyperlink ref="C321" r:id="rId314" display="Merge “K” sorted arrays. [ IMP ]"/>
-    <hyperlink ref="C322" r:id="rId315" display="Merge 2 Binary Max Heaps"/>
-    <hyperlink ref="C323" r:id="rId316" display="Kth largest sum continuous subarrays"/>
-    <hyperlink ref="C324" r:id="rId317" display="Leetcode- reorganize strings"/>
-    <hyperlink ref="C325" r:id="rId318" display="Merge “K” Sorted Linked Lists [V.IMP]"/>
-    <hyperlink ref="C326" r:id="rId319" display="Smallest range in “K” Lists"/>
-    <hyperlink ref="C327" r:id="rId320" display="Median in a stream of Integers"/>
-    <hyperlink ref="C328" r:id="rId321" display="Check if a Binary Tree is Heap"/>
-    <hyperlink ref="C329" r:id="rId322" display="Connect “n” ropes with minimum cost"/>
-    <hyperlink ref="C330" r:id="rId323" display="Convert BST to Min Heap"/>
-    <hyperlink ref="C331" r:id="rId324" display="Convert min heap to max heap"/>
-    <hyperlink ref="C332" r:id="rId325" display="Rearrange characters in a string such that no two adjacent are same."/>
-    <hyperlink ref="C333" r:id="rId326" display="Minimum sum of two numbers formed from digits of an array"/>
-    <hyperlink ref="C334" r:id="rId327" display="Create a Graph, print it"/>
-    <hyperlink ref="C335" r:id="rId328" display="Implement BFS algorithm "/>
-    <hyperlink ref="C336" r:id="rId329" display="Implement DFS Algo "/>
-    <hyperlink ref="C337" r:id="rId330" display="Detect Cycle in Directed Graph using BFS/DFS Algo "/>
-    <hyperlink ref="C338" r:id="rId331" display="Detect Cycle in UnDirected Graph using BFS/DFS Algo "/>
-    <hyperlink ref="C339" r:id="rId332" display="Search in a Maze"/>
-    <hyperlink ref="C340" r:id="rId333" display="Minimum Step by Knight"/>
-    <hyperlink ref="C341" r:id="rId334" display="flood fill algo"/>
-    <hyperlink ref="C342" r:id="rId335" display="Clone a graph"/>
-    <hyperlink ref="C343" r:id="rId336" display="Making wired Connections"/>
-    <hyperlink ref="C344" r:id="rId337" display="word Ladder "/>
-    <hyperlink ref="C345" r:id="rId338" display="Dijkstra algo"/>
-    <hyperlink ref="C346" r:id="rId339" display="Implement Topological Sort "/>
-    <hyperlink ref="C347" r:id="rId340" display="Minimum time taken by each job to be completed given by a Directed Acyclic Graph"/>
-    <hyperlink ref="C348" r:id="rId341" display="Find whether it is possible to finish all tasks or not from given dependencies"/>
-    <hyperlink ref="C349" r:id="rId342" display="Find the no. of Isalnds"/>
-    <hyperlink ref="C350" r:id="rId343" display="Given a sorted Dictionary of an Alien Language, find order of characters"/>
-    <hyperlink ref="C351" r:id="rId344" display="Implement Kruksal’sAlgorithm"/>
-    <hyperlink ref="C352" r:id="rId345" display="Implement Prim’s Algorithm"/>
-    <hyperlink ref="C353" r:id="rId346" display="Total no. of Spanning tree in a graph"/>
-    <hyperlink ref="C354" r:id="rId347" display="Implement Bellman Ford Algorithm"/>
-    <hyperlink ref="C355" r:id="rId348" display="Implement Floyd warshallAlgorithm"/>
-    <hyperlink ref="C356" r:id="rId349" display="Travelling Salesman Problem"/>
-    <hyperlink ref="C357" r:id="rId350" location=":~:text=Graph%20coloring%20problem%20is%20to,are%20colored%20using%20same%20color." display="Graph ColouringProblem"/>
-    <hyperlink ref="C358" r:id="rId351" display="Snake and Ladders Problem"/>
-    <hyperlink ref="C359" r:id="rId352" display="Find bridge in a graph"/>
-    <hyperlink ref="C360" r:id="rId353" display="Count Strongly connected Components(Kosaraju Algo)"/>
-    <hyperlink ref="C361" r:id="rId354" display="Check whether a graph is Bipartite or Not"/>
-    <hyperlink ref="C362" r:id="rId355" display="Detect Negative cycle in a graph"/>
-    <hyperlink ref="C363" r:id="rId356" display="Longest path in a Directed Acyclic Graph"/>
-    <hyperlink ref="C364" r:id="rId357" display="Journey to the Moon"/>
-    <hyperlink ref="C365" r:id="rId358" display="Cheapest Flights Within K Stops"/>
-    <hyperlink ref="C366" r:id="rId359" display="Oliver and the Game"/>
-    <hyperlink ref="C367" r:id="rId360" display="Water Jug problem using BFS"/>
-    <hyperlink ref="C368" r:id="rId361" display="Water Jug problem using BFS"/>
-    <hyperlink ref="C369" r:id="rId362" display="Find if there is a path of more thank length from a source"/>
-    <hyperlink ref="C370" r:id="rId363" display="M-ColouringProblem"/>
-    <hyperlink ref="C371" r:id="rId364" display="Minimum edges to reverse o make path from source to destination"/>
-    <hyperlink ref="C372" r:id="rId365" display="Paths to travel each nodes using each edge(Seven Bridges)"/>
-    <hyperlink ref="C373" r:id="rId366" display="Vertex Cover Problem"/>
-    <hyperlink ref="C374" r:id="rId367" display="Chinese Postman or Route Inspection"/>
-    <hyperlink ref="C375" r:id="rId368" display="Number of Triangles in a Directed and Undirected Graph"/>
-    <hyperlink ref="C376" r:id="rId369" display="Minimise the cashflow among a given set of friends who have borrowed money from each other"/>
-    <hyperlink ref="C377" r:id="rId370" display="Two Clique Problem"/>
-    <hyperlink ref="C378" r:id="rId371" display="Construct a trie from scratch"/>
-    <hyperlink ref="C379" r:id="rId372" display="Find shortest unique prefix for every word in a given list"/>
-    <hyperlink ref="C380" r:id="rId373" display="Word Break Problem | (Trie solution)"/>
-    <hyperlink ref="C381" r:id="rId374" display="Given a sequence of words, print all anagrams together"/>
-    <hyperlink ref="C382" r:id="rId375" display="Implement a Phone Directory"/>
-    <hyperlink ref="C383" r:id="rId376" display="Print unique rows in a given boolean matrix"/>
-    <hyperlink ref="C384" r:id="rId377" display="Coin ChangeProblem"/>
-    <hyperlink ref="C385" r:id="rId378" display="Knapsack Problem"/>
-    <hyperlink ref="C386" r:id="rId379" display="Binomial CoefficientProblem"/>
-    <hyperlink ref="C387" r:id="rId380" display="Permutation CoefficientProblem"/>
-    <hyperlink ref="C388" r:id="rId381" display="Program for nth Catalan Number"/>
-    <hyperlink ref="C389" r:id="rId382" display="Matrix Chain Multiplication "/>
-    <hyperlink ref="C390" r:id="rId383" display="Edit Distance"/>
-    <hyperlink ref="C391" r:id="rId384" display="Subset Sum Problem"/>
-    <hyperlink ref="C392" r:id="rId385" display="Friends Pairing Problem"/>
-    <hyperlink ref="C393" r:id="rId386" display="Gold Mine Problem"/>
-    <hyperlink ref="C394" r:id="rId387" display="Assembly Line SchedulingProblem"/>
-    <hyperlink ref="C395" r:id="rId388" display="Painting the Fenceproblem"/>
-    <hyperlink ref="C396" r:id="rId389" display="Maximize The Cut Segments"/>
-    <hyperlink ref="C397" r:id="rId390" display="Longest Common Subsequence"/>
-    <hyperlink ref="C398" r:id="rId391" display="Longest Repeated Subsequence"/>
-    <hyperlink ref="C399" r:id="rId392" display="Longest Increasing Subsequence"/>
-    <hyperlink ref="C400" r:id="rId393" display="Space Optimized Solution of LCS"/>
-    <hyperlink ref="C401" r:id="rId394" display="LCS (Longest Common Subsequence) of three strings"/>
-    <hyperlink ref="C402" r:id="rId395" display="Maximum Sum Increasing Subsequence"/>
-    <hyperlink ref="C403" r:id="rId396" display="Count all subsequences having product less than K"/>
-    <hyperlink ref="C404" r:id="rId397" display="Longest subsequence such that difference between adjacent is one"/>
-    <hyperlink ref="C405" r:id="rId398" display="Maximum subsequence sum such that no three are consecutive"/>
-    <hyperlink ref="C406" r:id="rId399" display="Egg Dropping Problem"/>
-    <hyperlink ref="C407" r:id="rId400" display="Maximum Length Chain of Pairs"/>
-    <hyperlink ref="C408" r:id="rId401" display="Maximum size square sub-matrix with all 1s"/>
-    <hyperlink ref="C409" r:id="rId402" display="Maximum sum of pairs with specific difference"/>
-    <hyperlink ref="C410" r:id="rId403" display="Min Cost PathProblem"/>
-    <hyperlink ref="C411" r:id="rId404" display="Maximum difference of zeros and ones in binary string"/>
-    <hyperlink ref="C412" r:id="rId405" display="Minimum number of jumps to reach end"/>
-    <hyperlink ref="C413" r:id="rId406" display="Minimum cost to fill given weight in a bag"/>
-    <hyperlink ref="C414" r:id="rId407" display="Minimum removals from array to make max –min &lt;= K"/>
-    <hyperlink ref="C415" r:id="rId408" display="Longest Common Substring"/>
-    <hyperlink ref="C416" r:id="rId409" display="Count number of ways to reacha given score in a game"/>
-    <hyperlink ref="C417" r:id="rId410" display="Count Balanced Binary Trees of Height h"/>
-    <hyperlink ref="C418" r:id="rId411" display="LargestSum Contiguous Subarray [V&gt;V&gt;V&gt;V IMP ]"/>
-    <hyperlink ref="C419" r:id="rId412" display="Smallest sum contiguous subarray"/>
-    <hyperlink ref="C420" r:id="rId413" display="Unbounded Knapsack (Repetition of items allowed)"/>
-    <hyperlink ref="C421" r:id="rId414" display="Word Break Problem"/>
-    <hyperlink ref="C422" r:id="rId415" display="Largest Independent Set Problem"/>
-    <hyperlink ref="C423" r:id="rId416" display="Partition problem"/>
-    <hyperlink ref="C424" r:id="rId417" display="Longest Palindromic Subsequence"/>
-    <hyperlink ref="C425" r:id="rId418" display="Count All Palindromic Subsequence in a given String"/>
-    <hyperlink ref="C426" r:id="rId419" display="Longest Palindromic Substring"/>
-    <hyperlink ref="C427" r:id="rId420" display="Longest alternating subsequence"/>
-    <hyperlink ref="C428" r:id="rId421" display="Weighted Job Scheduling"/>
-    <hyperlink ref="C429" r:id="rId422" display="Coin game winner where every player has three choices"/>
-    <hyperlink ref="C430" r:id="rId423" display="Count Derangements (Permutation such that no element appears in its original position) [ IMPORTANT ]"/>
-    <hyperlink ref="C431" r:id="rId424" display="Maximum profit by buying and selling a share at most twice [ IMP ]"/>
-    <hyperlink ref="C432" r:id="rId425" display="Optimal Strategy for a Game"/>
-    <hyperlink ref="C433" r:id="rId426" display="Optimal Binary Search Tree"/>
-    <hyperlink ref="C434" r:id="rId427" display="Palindrome PartitioningProblem"/>
-    <hyperlink ref="C435" r:id="rId428" display="Word Wrap Problem"/>
-    <hyperlink ref="C436" r:id="rId429" display="Mobile Numeric Keypad Problem [ IMP ]"/>
-    <hyperlink ref="C437" r:id="rId430" display="Boolean Parenthesization Problem"/>
-    <hyperlink ref="C438" r:id="rId431" display="Largest rectangular sub-matrix whose sum is 0"/>
-    <hyperlink ref="C439" r:id="rId432" display="Largest area rectangular sub-matrix with equal number of 1’s and 0’s [ IMP ]"/>
-    <hyperlink ref="C440" r:id="rId433" display="Maximum sum rectangle in a 2D matrix"/>
-    <hyperlink ref="C441" r:id="rId434" display="Maximum profit by buying and selling a share at most k times"/>
-    <hyperlink ref="C442" r:id="rId435" display="Find if a string is interleaved of two other strings"/>
-    <hyperlink ref="C443" r:id="rId436" display="Maximum Length of Pair Chain"/>
-    <hyperlink ref="C444" r:id="rId437" display="Count set bits in an integer"/>
-    <hyperlink ref="C445" r:id="rId438" display="Find the two non-repeating elements in an array of repeating elements"/>
-    <hyperlink ref="C446" r:id="rId439" display="Count number of bits to be flipped to convert A to B"/>
-    <hyperlink ref="C447" r:id="rId440" display="Count total set bits in all numbers from 1 to n"/>
-    <hyperlink ref="C448" r:id="rId441" display="Program to find whether a no is power of two"/>
-    <hyperlink ref="C449" r:id="rId442" display="Find position of the only set bit"/>
-    <hyperlink ref="C450" r:id="rId443" display="Copy set bits in a range"/>
-    <hyperlink ref="C451" r:id="rId444" display="Divide two integers without using multiplication, division and mod operator"/>
-    <hyperlink ref="C452" r:id="rId445" location=":~:text=Given%20an%20integer%20n%2C%20calculate,*%2C%20%2F%20and%20pow().&amp;text=A%20Simple%20Solution%20is%20to%20repeatedly%20add%20n%20to%20result." display="Calculate square of a number without using *, / and pow()"/>
-    <hyperlink ref="C453" r:id="rId446" display="Power Set"/>
+    <hyperlink ref="D69" r:id="rId65" display="doubt"/>
+    <hyperlink ref="C70" r:id="rId66" display="KMP Algo"/>
+    <hyperlink ref="C71" r:id="rId67" display="Convert a Sentence into its equivalent mobile numeric keypad sequence."/>
+    <hyperlink ref="C72" r:id="rId68" display="Minimum number of bracket reversals needed to make an expression balanced."/>
+    <hyperlink ref="C73" r:id="rId69" display="Count All Palindromic Subsequence in a given String."/>
+    <hyperlink ref="C74" r:id="rId70" display="Count of number of given string in 2D character array"/>
+    <hyperlink ref="C75" r:id="rId71" display="Search a Word in a 2D Grid of characters."/>
+    <hyperlink ref="C76" r:id="rId72" display="Boyer Moore Algorithm for Pattern Searching."/>
+    <hyperlink ref="C77" r:id="rId73" display="Converting Roman Numerals to Decimal"/>
+    <hyperlink ref="C78" r:id="rId74" display="Longest Common Prefix"/>
+    <hyperlink ref="C79" r:id="rId75" display="Number of flips to make binary string alternate"/>
+    <hyperlink ref="C80" r:id="rId76" display="Find the first repeated word in string."/>
+    <hyperlink ref="C81" r:id="rId77" display="Minimum number of swaps for bracket balancing."/>
+    <hyperlink ref="C82" r:id="rId78" display="Find the longest common subsequence between two strings."/>
+    <hyperlink ref="C83" r:id="rId79" display="Program to generate all possible valid IP addresses from given  string."/>
+    <hyperlink ref="C84" r:id="rId80" display="Write a program tofind the smallest window that contains all characters of string itself."/>
+    <hyperlink ref="C85" r:id="rId81" display="Rearrange characters in a string such that no two adjacent are same"/>
+    <hyperlink ref="C86" r:id="rId82" display="Minimum characters to be added at front to make string palindrome"/>
+    <hyperlink ref="C87" r:id="rId83" display="Given a sequence of words, print all anagrams together"/>
+    <hyperlink ref="C88" r:id="rId84" display="Find the smallest window in a string containing all characters of another string"/>
+    <hyperlink ref="C89" r:id="rId85" display="Recursively remove all adjacent duplicates"/>
+    <hyperlink ref="C90" r:id="rId86" display="String matching where one string contains wildcard characters"/>
+    <hyperlink ref="C91" r:id="rId87" display="Function to find Number of customers who could not get a computer"/>
+    <hyperlink ref="C92" r:id="rId88" display="Transform One String to Another using Minimum Number of Given Operation"/>
+    <hyperlink ref="C93" r:id="rId89" display="Check if two given strings are isomorphic to each other"/>
+    <hyperlink ref="C94" r:id="rId90" display="Recursively print all sentences that can be formed from list of word lists"/>
+    <hyperlink ref="C95" r:id="rId91" display="Find first and last positions of an element in a sorted array"/>
+    <hyperlink ref="C96" r:id="rId92" display="Find a Fixed Point (Value equal to index) in a given array"/>
+    <hyperlink ref="C97" r:id="rId93" display="Search in a rotated sorted array"/>
+    <hyperlink ref="C98" r:id="rId94" display="square root of an integer"/>
+    <hyperlink ref="C99" r:id="rId95" display="Maximum and minimum of an array using minimum number of comparisons"/>
+    <hyperlink ref="C100" r:id="rId96" location=":~:text=We%20need%20to%20find%20a,set%20of%20points%20is%20minimum.&amp;text=In%20above%20figure%20optimum%20location,is%20minimum%20obtainable%20total%20distance." display="Optimum location of point to minimize total distance"/>
+    <hyperlink ref="C101" r:id="rId97" display="Find the repeating and the missing"/>
+    <hyperlink ref="C102" r:id="rId98" display="find majority element"/>
+    <hyperlink ref="C103" r:id="rId99" display="Searching in an array where adjacent differ by at most k"/>
+    <hyperlink ref="C104" r:id="rId100" display="find a pair with a given difference"/>
+    <hyperlink ref="C105" r:id="rId101" display="find four elements that sum to a given value"/>
+    <hyperlink ref="C106" r:id="rId102" display="maximum sum such that no 2 elements are adjacent"/>
+    <hyperlink ref="C107" r:id="rId103" display="Count triplet with sum smaller than a given value"/>
+    <hyperlink ref="C108" r:id="rId104" display="merge 2 sorted arrays"/>
+    <hyperlink ref="C109" r:id="rId105" display="print all subarrays with 0 sum"/>
+    <hyperlink ref="C110" r:id="rId106" display="Product array Puzzle"/>
+    <hyperlink ref="C111" r:id="rId107" display="Sort array according to count of set bits"/>
+    <hyperlink ref="C112" r:id="rId108" display="minimum no. of swaps required to sort the array"/>
+    <hyperlink ref="C113" r:id="rId109" display="Bishu and Soldiers"/>
+    <hyperlink ref="C114" r:id="rId110" display="Rasta and Kheshtak"/>
+    <hyperlink ref="C115" r:id="rId111" display="Kth smallest number again"/>
+    <hyperlink ref="C116" r:id="rId112" display="Find pivot element in a sorted array"/>
+    <hyperlink ref="C117" r:id="rId113" display="K-th Element of Two Sorted Arrays"/>
+    <hyperlink ref="C118" r:id="rId114" display="Aggressive cows"/>
+    <hyperlink ref="C119" r:id="rId115" display="Book Allocation Problem"/>
+    <hyperlink ref="C120" r:id="rId116" display="EKOSPOJ:"/>
+    <hyperlink ref="C121" r:id="rId117" display="Job Scheduling Algo"/>
+    <hyperlink ref="C122" r:id="rId118" display="Missing Number in AP"/>
+    <hyperlink ref="C123" r:id="rId119" display="Smallest number with atleastn trailing zeroes infactorial"/>
+    <hyperlink ref="C124" r:id="rId120" display="Painters Partition Problem:"/>
+    <hyperlink ref="C125" r:id="rId121" display="ROTI-Prata SPOJ"/>
+    <hyperlink ref="C126" r:id="rId122" display="DoubleHelix SPOJ"/>
+    <hyperlink ref="C127" r:id="rId123" display="Subset Sums"/>
+    <hyperlink ref="C128" r:id="rId124" display="Findthe inversion count"/>
+    <hyperlink ref="C129" r:id="rId125" display="Implement Merge-sort in-place"/>
+    <hyperlink ref="C130" r:id="rId126" display="Partitioning and Sorting Arrays with Many Repeated Entries"/>
+    <hyperlink ref="C131" r:id="rId127" display="Write a Program to reverse the Linked List. (Both Iterative and recursive)"/>
+    <hyperlink ref="C132" r:id="rId128" display="Reverse a Linked List in group of Given Size. [Very Imp]"/>
+    <hyperlink ref="C133" r:id="rId129" display="Write a program to Detect loop in a linked list."/>
+    <hyperlink ref="C134" r:id="rId130" display="Write a program to Delete loop in a linked list."/>
+    <hyperlink ref="C135" r:id="rId131" display="Find the starting point of the loop. "/>
+    <hyperlink ref="C136" r:id="rId132" display="Remove Duplicates in a sorted Linked List."/>
+    <hyperlink ref="C137" r:id="rId133" display="Remove Duplicates in a Un-sorted Linked List."/>
+    <hyperlink ref="C138" r:id="rId134" display="Write a Program to Move the last element to Front in a Linked List."/>
+    <hyperlink ref="C139" r:id="rId135" display="Add “1” to a number represented as a Linked List."/>
+    <hyperlink ref="C140" r:id="rId136" display="Add two numbers represented by linked lists."/>
+    <hyperlink ref="C141" r:id="rId137" display="Intersection of two Sorted Linked List."/>
+    <hyperlink ref="C142" r:id="rId138" display="Intersection Point of two Linked Lists."/>
+    <hyperlink ref="C143" r:id="rId139" display="Merge Sort For Linked lists.[Very Important]"/>
+    <hyperlink ref="C144" r:id="rId140" display="Quicksort for Linked Lists.[Very Important]"/>
+    <hyperlink ref="C145" r:id="rId141" display="Find the middle Element of a linked list."/>
+    <hyperlink ref="C146" r:id="rId142" display="Check if a linked list is a circular linked list."/>
+    <hyperlink ref="C147" r:id="rId143" display="Split a Circular linked list into two halves."/>
+    <hyperlink ref="C148" r:id="rId144" display="Write a Program to check whether the Singly Linked list is a palindrome or not."/>
+    <hyperlink ref="C149" r:id="rId145" display="Deletion from a Circular Linked List."/>
+    <hyperlink ref="C150" r:id="rId146" display="Reverse a Doubly Linked list."/>
+    <hyperlink ref="C151" r:id="rId147" display="Find pairs with a given sum in a DLL."/>
+    <hyperlink ref="C152" r:id="rId148" display="Count triplets in a sorted DLL whose sum is equal to given value “X”."/>
+    <hyperlink ref="C153" r:id="rId149" display="Sort a “k”sorted Doubly Linked list.[Very IMP]"/>
+    <hyperlink ref="C154" r:id="rId150" display="Rotate DoublyLinked list by N nodes."/>
+    <hyperlink ref="C155" r:id="rId151" display="Rotate a Doubly Linked list in group of Given Size.[Very IMP]"/>
+    <hyperlink ref="C158" r:id="rId152" display="Flatten a Linked List"/>
+    <hyperlink ref="C159" r:id="rId153" display="Sort a LL of 0's, 1's and 2's"/>
+    <hyperlink ref="C160" r:id="rId154" display="Clone a linked list with next and random pointer"/>
+    <hyperlink ref="C161" r:id="rId155" display="Merge K sorted Linked list"/>
+    <hyperlink ref="C162" r:id="rId156" display="Multiply 2 no. represented by LL"/>
+    <hyperlink ref="C163" r:id="rId157" display="Delete nodes which have a greater value on right side"/>
+    <hyperlink ref="C164" r:id="rId158" display="Segregate even and odd nodes in a Linked List"/>
+    <hyperlink ref="C165" r:id="rId159" display="Program for n’th node from the end of a Linked List"/>
+    <hyperlink ref="C166" r:id="rId160" display="Find the first non-repeating character from a stream of characters"/>
+    <hyperlink ref="C167" r:id="rId161" display="level order traversal"/>
+    <hyperlink ref="C168" r:id="rId162" display="Reverse Level Order traversal"/>
+    <hyperlink ref="C169" r:id="rId163" display="Height of a tree"/>
+    <hyperlink ref="C170" r:id="rId164" display="Diameter of a tree"/>
+    <hyperlink ref="C171" r:id="rId165" display="Mirror of a tree"/>
+    <hyperlink ref="C172" r:id="rId166" display="Inorder Traversal of a tree both using recursion and Iteration"/>
+    <hyperlink ref="C173" r:id="rId167" display="Preorder Traversal of a tree both using recursion and Iteration"/>
+    <hyperlink ref="C174" r:id="rId168" display="Postorder Traversal of a tree both using recursion and Iteration"/>
+    <hyperlink ref="C175" r:id="rId169" display="Left View of a tree"/>
+    <hyperlink ref="C176" r:id="rId170" display="Right View of Tree"/>
+    <hyperlink ref="C177" r:id="rId171" display="Top View of a tree"/>
+    <hyperlink ref="C178" r:id="rId172" display="Bottom View of a tree"/>
+    <hyperlink ref="C179" r:id="rId173" display="Zig-Zag traversal of a binary tree"/>
+    <hyperlink ref="C180" r:id="rId174" display="Check if a tree is balanced or not"/>
+    <hyperlink ref="C181" r:id="rId175" display="Diagnol Traversal of a Binary tree"/>
+    <hyperlink ref="C182" r:id="rId176" display="Boundary traversal of a Binary tree"/>
+    <hyperlink ref="C183" r:id="rId177" display="Construct Binary Tree from String with Bracket Representation"/>
+    <hyperlink ref="C184" r:id="rId178" display="Convert Binary tree into Doubly Linked List"/>
+    <hyperlink ref="C185" r:id="rId179" display="Convert Binary tree into Sum tree"/>
+    <hyperlink ref="C186" r:id="rId180" display="Construct Binary tree from Inorder and preorder traversal"/>
+    <hyperlink ref="C187" r:id="rId181" location=":~:text=Given%20the%20array%20representation%20of,it%20into%20Binary%20Search%20Tree.&amp;text=Swap%201%3A%20Swap%20node%208,node%209%20with%20node%2010." display="Find minimum swaps required to convert a Binary tree into BST"/>
+    <hyperlink ref="C188" r:id="rId182" display="Check if Binary tree is Sum tree or not"/>
+    <hyperlink ref="C189" r:id="rId183" display="Check if all leaf nodes are at same level or not"/>
+    <hyperlink ref="C190" r:id="rId184" display="Check if a Binary Tree contains duplicate subtrees of size 2 or more [ IMP ]"/>
+    <hyperlink ref="C191" r:id="rId185" display="Check if 2 trees are mirror or not"/>
+    <hyperlink ref="C192" r:id="rId186" display="Sum of Nodes on the Longest path from root to leaf node "/>
+    <hyperlink ref="C193" r:id="rId187" location=":~:text=Since%20the%20graph%20is%20undirected,graph%20is%20connected%2C%20otherwise%20not." display="Check if given graph is tree or not.  [ IMP ]"/>
+    <hyperlink ref="C194" r:id="rId188" display="Find Largest subtree sum in a tree"/>
+    <hyperlink ref="C195" r:id="rId189" display="Maximum Sum of nodes in Binary tree such that no two are adjacent "/>
+    <hyperlink ref="C196" r:id="rId190" display="Print all &quot;K&quot; Sum paths in a Binary tree"/>
+    <hyperlink ref="C197" r:id="rId191" display="Find LCA in a Binary tree"/>
+    <hyperlink ref="C198" r:id="rId192" display="Find distance between 2 nodes in a Binary tree"/>
+    <hyperlink ref="C199" r:id="rId193" display="Kth Ancestor of node in a Binary tree"/>
+    <hyperlink ref="C200" r:id="rId194" display="Find all Duplicate subtrees in a Binary tree [ IMP ]"/>
+    <hyperlink ref="C201" r:id="rId195" display="Tree Isomorphism Problem"/>
+    <hyperlink ref="C202" r:id="rId196" display="Fina a value in a BST"/>
+    <hyperlink ref="C203" r:id="rId197" display="Deletion of a node in a BST"/>
+    <hyperlink ref="C204" r:id="rId198" display="Find min and max value in a BST"/>
+    <hyperlink ref="C205" r:id="rId199" display="Find inorder successor and inorder predecessor in a BST"/>
+    <hyperlink ref="C206" r:id="rId200" display="Check if a tree is a BST or not "/>
+    <hyperlink ref="C207" r:id="rId201" display="Populate Inorder successor of all nodes"/>
+    <hyperlink ref="C208" r:id="rId202" display="Find LCA  of 2 nodes in a BST"/>
+    <hyperlink ref="C209" r:id="rId203" display="Construct BST from preorder traversal"/>
+    <hyperlink ref="C210" r:id="rId204" display="Convert Binary tree into BST"/>
+    <hyperlink ref="C211" r:id="rId205" display="Convert a normal BST into a Balanced BST"/>
+    <hyperlink ref="C212" r:id="rId206" display="Merge two BST [ V.V.V&gt;IMP ]"/>
+    <hyperlink ref="C213" r:id="rId207" display="Find Kth largest element in a BST"/>
+    <hyperlink ref="C214" r:id="rId208" display="Find Kth smallest element in a BST"/>
+    <hyperlink ref="C215" r:id="rId209" display="Count pairs from 2 BST whose sum is equal to given value &quot;X&quot;"/>
+    <hyperlink ref="C216" r:id="rId210" display="Find the median of BST in O(n) time and O(1) space"/>
+    <hyperlink ref="C217" r:id="rId211" display="Count BST ndoes that lie in a given range"/>
+    <hyperlink ref="C218" r:id="rId212" display="Replace every element with the least greater element on its right"/>
+    <hyperlink ref="C219" r:id="rId213" display="Given &quot;n&quot; appointments, find the conflicting appointments"/>
+    <hyperlink ref="C220" r:id="rId214" display="Check preorder is valid or not"/>
+    <hyperlink ref="C221" r:id="rId215" display="Check whether BST contains Dead end"/>
+    <hyperlink ref="C222" r:id="rId216" display="Largest BST in a Binary Tree [ V.V.V.V.V IMP ]"/>
+    <hyperlink ref="C223" r:id="rId217" display="Flatten BST to sorted list"/>
+    <hyperlink ref="C224" r:id="rId218" display="Activity Selection Problem"/>
+    <hyperlink ref="C225" r:id="rId219" display="Job SequencingProblem"/>
+    <hyperlink ref="C226" r:id="rId220" display="Huffman Coding"/>
+    <hyperlink ref="C227" r:id="rId221" display="Water Connection Problem"/>
+    <hyperlink ref="C228" r:id="rId222" display="Fractional Knapsack Problem"/>
+    <hyperlink ref="C229" r:id="rId223" display="Greedy Algorithm to find Minimum number of Coins"/>
+    <hyperlink ref="C230" r:id="rId224" display="Maximum trains for which stoppage can be provided"/>
+    <hyperlink ref="C231" r:id="rId225" display="Minimum Platforms Problem"/>
+    <hyperlink ref="C232" r:id="rId226" display="Buy Maximum Stocks if i stocks can be bought on i-th day"/>
+    <hyperlink ref="C233" r:id="rId227" display="Find the minimum and maximum amount to buy all N candies"/>
+    <hyperlink ref="C234" r:id="rId228" display="Minimize Cash Flow among a given set of friends who have borrowed money from each other"/>
+    <hyperlink ref="C235" r:id="rId229" display="Minimum Cost to cut a board into squares"/>
+    <hyperlink ref="C236" r:id="rId230" display="Check if it is possible to survive on Island"/>
+    <hyperlink ref="C237" r:id="rId231" display="Find maximum meetings in one room"/>
+    <hyperlink ref="C238" r:id="rId232" display="Maximum product subset of an array"/>
+    <hyperlink ref="C239" r:id="rId233" display="Maximize array sum after K negations"/>
+    <hyperlink ref="C240" r:id="rId234" display="Maximize the sum of arr[i]*i"/>
+    <hyperlink ref="C241" r:id="rId235" display="Maximum sum of absolute difference of an array"/>
+    <hyperlink ref="C242" r:id="rId236" display="Maximize sum of consecutive differences in a circular array"/>
+    <hyperlink ref="C243" r:id="rId237" location=":~:text=It%20consists%20of%20two%20steps,result%20to%20the%20sum%20S." display="Minimum sum of absolute difference of pairs of two arrays"/>
+    <hyperlink ref="C244" r:id="rId238" display="Program for Shortest Job First (or SJF) CPU Scheduling"/>
+    <hyperlink ref="C245" r:id="rId239" display="Program for Least Recently Used (LRU) Page Replacement algorithm"/>
+    <hyperlink ref="C246" r:id="rId240" display="Smallest subset with sum greater than all other elements"/>
+    <hyperlink ref="C247" r:id="rId241" display="Chocolate Distribution Problem"/>
+    <hyperlink ref="C248" r:id="rId242" display="DEFKIN -Defense of a Kingdom"/>
+    <hyperlink ref="C249" r:id="rId243" display="DIEHARD -DIE HARD"/>
+    <hyperlink ref="C250" r:id="rId244" display="GERGOVIA -Wine trading in Gergovia"/>
+    <hyperlink ref="C251" r:id="rId245" display="Picking Up Chicks"/>
+    <hyperlink ref="C252" r:id="rId246" display="CHOCOLA –Chocolate"/>
+    <hyperlink ref="C253" r:id="rId247" display="ARRANGE -Arranging Amplifiers"/>
+    <hyperlink ref="C254" r:id="rId248" display="K Centers Problem"/>
+    <hyperlink ref="C255" r:id="rId249" display="Minimum Cost of ropes"/>
+    <hyperlink ref="C256" r:id="rId250" display="Find smallest number with given number of digits and sum of digits"/>
+    <hyperlink ref="C257" r:id="rId251" display="Rearrange characters in a string such that no two adjacent are same"/>
+    <hyperlink ref="C258" r:id="rId252" display="Find maximum sum possible equal sum of three stacks"/>
+    <hyperlink ref="C259" r:id="rId253" display="Rat in a maze Problem"/>
+    <hyperlink ref="C260" r:id="rId254" display="Printing all solutions in N-Queen Problem"/>
+    <hyperlink ref="C261" r:id="rId255" display="Word Break Problem using Backtracking"/>
+    <hyperlink ref="C262" r:id="rId256" display="Remove Invalid Parentheses"/>
+    <hyperlink ref="C263" r:id="rId257" display="Sudoku Solver"/>
+    <hyperlink ref="C264" r:id="rId258" display="m Coloring Problem"/>
+    <hyperlink ref="C265" r:id="rId259" display="Print all palindromic partitions of a string"/>
+    <hyperlink ref="C266" r:id="rId260" display="Subset Sum Problem"/>
+    <hyperlink ref="C267" r:id="rId261" display="The Knight’s tour problem"/>
+    <hyperlink ref="C268" r:id="rId262" display="Tug of War"/>
+    <hyperlink ref="C269" r:id="rId263" display="Find shortest safe route in a path with landmines"/>
+    <hyperlink ref="C270" r:id="rId264" display="Combinational Sum"/>
+    <hyperlink ref="C271" r:id="rId265" display="Find Maximum number possible by doing at-most K swaps"/>
+    <hyperlink ref="C272" r:id="rId266" display="Print all permutations of a string "/>
+    <hyperlink ref="C273" r:id="rId267" display="Find if there is a path of more than k length from a source"/>
+    <hyperlink ref="C274" r:id="rId268" display="Longest Possible Route in a Matrix with Hurdles"/>
+    <hyperlink ref="C275" r:id="rId269" display="Print all possible paths from top left to bottom right of a mXn matrix"/>
+    <hyperlink ref="C276" r:id="rId270" display="Partition of a set intoK subsets with equal sum"/>
+    <hyperlink ref="C277" r:id="rId271" display="Find the K-th Permutation Sequence of first N natural numbers"/>
+    <hyperlink ref="C278" r:id="rId272" display=" Implement Stack from Scratch"/>
+    <hyperlink ref="C279" r:id="rId273" display=" Implement Queue from Scratch"/>
+    <hyperlink ref="C280" r:id="rId274" display="Implement 2 stack in an array"/>
+    <hyperlink ref="C281" r:id="rId275" display="find the middle element of a stack"/>
+    <hyperlink ref="C282" r:id="rId276" display="Implement &quot;N&quot; stacks in an Array"/>
+    <hyperlink ref="C283" r:id="rId277" display="Check the expression has valid or Balanced parenthesis or not."/>
+    <hyperlink ref="C284" r:id="rId278" display="Reverse a String using Stack"/>
+    <hyperlink ref="C285" r:id="rId279" display="Design a Stack that supports getMin() in O(1) time and O(1) extra space."/>
+    <hyperlink ref="C286" r:id="rId280" display="Find the next Greater element"/>
+    <hyperlink ref="C287" r:id="rId281" display="The celebrity Problem"/>
+    <hyperlink ref="C288" r:id="rId282" location=":~:text=The%20stack%20organization%20is%20very,i.e.%2C%20A%20%2B%20B)." display="Arithmetic Expression evaluation"/>
+    <hyperlink ref="C289" r:id="rId283" display="Evaluation of Postfix expression"/>
+    <hyperlink ref="C290" r:id="rId284" display="Implement a method to insert an element at its bottom without using any other data structure."/>
+    <hyperlink ref="C291" r:id="rId285" display="Reverse a stack using recursion"/>
+    <hyperlink ref="C292" r:id="rId286" display="Sort a Stack using recursion"/>
+    <hyperlink ref="C293" r:id="rId287" display="Merge Overlapping Intervals"/>
+    <hyperlink ref="C294" r:id="rId288" display="Largest rectangular Area in Histogram"/>
+    <hyperlink ref="C295" r:id="rId289" display="Length of the Longest Valid Substring"/>
+    <hyperlink ref="C296" r:id="rId290" display="Expression contains redundant bracket or not"/>
+    <hyperlink ref="C297" r:id="rId291" display="Implement Stack using Queue"/>
+    <hyperlink ref="C298" r:id="rId292" display="Implement Stack using Deque"/>
+    <hyperlink ref="C299" r:id="rId293" display="Stack Permutations (Check if an array is stack permutation of other)"/>
+    <hyperlink ref="C300" r:id="rId294" display="Implement Queue using Stack  "/>
+    <hyperlink ref="C301" r:id="rId295" display="Implement &quot;n&quot; queue in an array"/>
+    <hyperlink ref="C302" r:id="rId296" display="Implement a Circular queue"/>
+    <hyperlink ref="C303" r:id="rId297" display="LRU Cache Implementationa"/>
+    <hyperlink ref="C304" r:id="rId298" display="Reverse a Queue using recursion"/>
+    <hyperlink ref="C305" r:id="rId299" display="Reverse the first “K” elements of a queue"/>
+    <hyperlink ref="C306" r:id="rId300" display="Interleave the first half of the queue with second half"/>
+    <hyperlink ref="C307" r:id="rId301" display="Find the first circular tour that visits all Petrol Pumps"/>
+    <hyperlink ref="C308" r:id="rId302" display="Minimum time required to rot all oranges"/>
+    <hyperlink ref="C309" r:id="rId303" display="Distance of nearest cell having 1 in a binary matrix"/>
+    <hyperlink ref="C310" r:id="rId304" display="First negative integer in every window of size “k”"/>
+    <hyperlink ref="C311" r:id="rId305" display="Check if all levels of two trees are anagrams or not."/>
+    <hyperlink ref="C312" r:id="rId306" display="Sum of minimum and maximum elements of all subarrays of size “k”."/>
+    <hyperlink ref="C313" r:id="rId307" display="Minimum sum of squares of character counts in a given string after removing “k” characters."/>
+    <hyperlink ref="C314" r:id="rId308" display="Queue based approach or first non-repeating character in a stream."/>
+    <hyperlink ref="C315" r:id="rId309" display="Next Smaller Element"/>
+    <hyperlink ref="C316" r:id="rId310" display="Implement a Maxheap/MinHeap using arrays and recursion."/>
+    <hyperlink ref="C317" r:id="rId311" display="Sort an Array using heap. (HeapSort)"/>
+    <hyperlink ref="C318" r:id="rId312" display="Maximum of all subarrays of size k."/>
+    <hyperlink ref="C319" r:id="rId313" display="“k” largest element in an array"/>
+    <hyperlink ref="C320" r:id="rId314" display="Kth smallest and largest element in an unsorted array"/>
+    <hyperlink ref="C321" r:id="rId315" display="Merge “K” sorted arrays. [ IMP ]"/>
+    <hyperlink ref="C322" r:id="rId316" display="Merge 2 Binary Max Heaps"/>
+    <hyperlink ref="C323" r:id="rId317" display="Kth largest sum continuous subarrays"/>
+    <hyperlink ref="C324" r:id="rId318" display="Leetcode- reorganize strings"/>
+    <hyperlink ref="C325" r:id="rId319" display="Merge “K” Sorted Linked Lists [V.IMP]"/>
+    <hyperlink ref="C326" r:id="rId320" display="Smallest range in “K” Lists"/>
+    <hyperlink ref="C327" r:id="rId321" display="Median in a stream of Integers"/>
+    <hyperlink ref="C328" r:id="rId322" display="Check if a Binary Tree is Heap"/>
+    <hyperlink ref="C329" r:id="rId323" display="Connect “n” ropes with minimum cost"/>
+    <hyperlink ref="C330" r:id="rId324" display="Convert BST to Min Heap"/>
+    <hyperlink ref="C331" r:id="rId325" display="Convert min heap to max heap"/>
+    <hyperlink ref="C332" r:id="rId326" display="Rearrange characters in a string such that no two adjacent are same."/>
+    <hyperlink ref="C333" r:id="rId327" display="Minimum sum of two numbers formed from digits of an array"/>
+    <hyperlink ref="C334" r:id="rId328" display="Create a Graph, print it"/>
+    <hyperlink ref="C335" r:id="rId329" display="Implement BFS algorithm "/>
+    <hyperlink ref="C336" r:id="rId330" display="Implement DFS Algo "/>
+    <hyperlink ref="C337" r:id="rId331" display="Detect Cycle in Directed Graph using BFS/DFS Algo "/>
+    <hyperlink ref="C338" r:id="rId332" display="Detect Cycle in UnDirected Graph using BFS/DFS Algo "/>
+    <hyperlink ref="C339" r:id="rId333" display="Search in a Maze"/>
+    <hyperlink ref="C340" r:id="rId334" display="Minimum Step by Knight"/>
+    <hyperlink ref="C341" r:id="rId335" display="flood fill algo"/>
+    <hyperlink ref="C342" r:id="rId336" display="Clone a graph"/>
+    <hyperlink ref="C343" r:id="rId337" display="Making wired Connections"/>
+    <hyperlink ref="C344" r:id="rId338" display="word Ladder "/>
+    <hyperlink ref="C345" r:id="rId339" display="Dijkstra algo"/>
+    <hyperlink ref="C346" r:id="rId340" display="Implement Topological Sort "/>
+    <hyperlink ref="C347" r:id="rId341" display="Minimum time taken by each job to be completed given by a Directed Acyclic Graph"/>
+    <hyperlink ref="C348" r:id="rId342" display="Find whether it is possible to finish all tasks or not from given dependencies"/>
+    <hyperlink ref="C349" r:id="rId343" display="Find the no. of Isalnds"/>
+    <hyperlink ref="C350" r:id="rId344" display="Given a sorted Dictionary of an Alien Language, find order of characters"/>
+    <hyperlink ref="C351" r:id="rId345" display="Implement Kruksal’sAlgorithm"/>
+    <hyperlink ref="C352" r:id="rId346" display="Implement Prim’s Algorithm"/>
+    <hyperlink ref="C353" r:id="rId347" display="Total no. of Spanning tree in a graph"/>
+    <hyperlink ref="C354" r:id="rId348" display="Implement Bellman Ford Algorithm"/>
+    <hyperlink ref="C355" r:id="rId349" display="Implement Floyd warshallAlgorithm"/>
+    <hyperlink ref="C356" r:id="rId350" display="Travelling Salesman Problem"/>
+    <hyperlink ref="C357" r:id="rId351" location=":~:text=Graph%20coloring%20problem%20is%20to,are%20colored%20using%20same%20color." display="Graph ColouringProblem"/>
+    <hyperlink ref="C358" r:id="rId352" display="Snake and Ladders Problem"/>
+    <hyperlink ref="C359" r:id="rId353" display="Find bridge in a graph"/>
+    <hyperlink ref="C360" r:id="rId354" display="Count Strongly connected Components(Kosaraju Algo)"/>
+    <hyperlink ref="C361" r:id="rId355" display="Check whether a graph is Bipartite or Not"/>
+    <hyperlink ref="C362" r:id="rId356" display="Detect Negative cycle in a graph"/>
+    <hyperlink ref="C363" r:id="rId357" display="Longest path in a Directed Acyclic Graph"/>
+    <hyperlink ref="C364" r:id="rId358" display="Journey to the Moon"/>
+    <hyperlink ref="C365" r:id="rId359" display="Cheapest Flights Within K Stops"/>
+    <hyperlink ref="C366" r:id="rId360" display="Oliver and the Game"/>
+    <hyperlink ref="C367" r:id="rId361" display="Water Jug problem using BFS"/>
+    <hyperlink ref="C368" r:id="rId362" display="Water Jug problem using BFS"/>
+    <hyperlink ref="C369" r:id="rId363" display="Find if there is a path of more thank length from a source"/>
+    <hyperlink ref="C370" r:id="rId364" display="M-ColouringProblem"/>
+    <hyperlink ref="C371" r:id="rId365" display="Minimum edges to reverse o make path from source to destination"/>
+    <hyperlink ref="C372" r:id="rId366" display="Paths to travel each nodes using each edge(Seven Bridges)"/>
+    <hyperlink ref="C373" r:id="rId367" display="Vertex Cover Problem"/>
+    <hyperlink ref="C374" r:id="rId368" display="Chinese Postman or Route Inspection"/>
+    <hyperlink ref="C375" r:id="rId369" display="Number of Triangles in a Directed and Undirected Graph"/>
+    <hyperlink ref="C376" r:id="rId370" display="Minimise the cashflow among a given set of friends who have borrowed money from each other"/>
+    <hyperlink ref="C377" r:id="rId371" display="Two Clique Problem"/>
+    <hyperlink ref="C378" r:id="rId372" display="Construct a trie from scratch"/>
+    <hyperlink ref="C379" r:id="rId373" display="Find shortest unique prefix for every word in a given list"/>
+    <hyperlink ref="C380" r:id="rId374" display="Word Break Problem | (Trie solution)"/>
+    <hyperlink ref="C381" r:id="rId375" display="Given a sequence of words, print all anagrams together"/>
+    <hyperlink ref="C382" r:id="rId376" display="Implement a Phone Directory"/>
+    <hyperlink ref="C383" r:id="rId377" display="Print unique rows in a given boolean matrix"/>
+    <hyperlink ref="C384" r:id="rId378" display="Coin ChangeProblem"/>
+    <hyperlink ref="C385" r:id="rId379" display="Knapsack Problem"/>
+    <hyperlink ref="C386" r:id="rId380" display="Binomial CoefficientProblem"/>
+    <hyperlink ref="C387" r:id="rId381" display="Permutation CoefficientProblem"/>
+    <hyperlink ref="C388" r:id="rId382" display="Program for nth Catalan Number"/>
+    <hyperlink ref="C389" r:id="rId383" display="Matrix Chain Multiplication "/>
+    <hyperlink ref="C390" r:id="rId384" display="Edit Distance"/>
+    <hyperlink ref="C391" r:id="rId385" display="Subset Sum Problem"/>
+    <hyperlink ref="C392" r:id="rId386" display="Friends Pairing Problem"/>
+    <hyperlink ref="C393" r:id="rId387" display="Gold Mine Problem"/>
+    <hyperlink ref="C394" r:id="rId388" display="Assembly Line SchedulingProblem"/>
+    <hyperlink ref="C395" r:id="rId389" display="Painting the Fenceproblem"/>
+    <hyperlink ref="C396" r:id="rId390" display="Maximize The Cut Segments"/>
+    <hyperlink ref="C397" r:id="rId391" display="Longest Common Subsequence"/>
+    <hyperlink ref="C398" r:id="rId392" display="Longest Repeated Subsequence"/>
+    <hyperlink ref="C399" r:id="rId393" display="Longest Increasing Subsequence"/>
+    <hyperlink ref="C400" r:id="rId394" display="Space Optimized Solution of LCS"/>
+    <hyperlink ref="C401" r:id="rId395" display="LCS (Longest Common Subsequence) of three strings"/>
+    <hyperlink ref="C402" r:id="rId396" display="Maximum Sum Increasing Subsequence"/>
+    <hyperlink ref="C403" r:id="rId397" display="Count all subsequences having product less than K"/>
+    <hyperlink ref="C404" r:id="rId398" display="Longest subsequence such that difference between adjacent is one"/>
+    <hyperlink ref="C405" r:id="rId399" display="Maximum subsequence sum such that no three are consecutive"/>
+    <hyperlink ref="C406" r:id="rId400" display="Egg Dropping Problem"/>
+    <hyperlink ref="C407" r:id="rId401" display="Maximum Length Chain of Pairs"/>
+    <hyperlink ref="C408" r:id="rId402" display="Maximum size square sub-matrix with all 1s"/>
+    <hyperlink ref="C409" r:id="rId403" display="Maximum sum of pairs with specific difference"/>
+    <hyperlink ref="C410" r:id="rId404" display="Min Cost PathProblem"/>
+    <hyperlink ref="C411" r:id="rId405" display="Maximum difference of zeros and ones in binary string"/>
+    <hyperlink ref="C412" r:id="rId406" display="Minimum number of jumps to reach end"/>
+    <hyperlink ref="C413" r:id="rId407" display="Minimum cost to fill given weight in a bag"/>
+    <hyperlink ref="C414" r:id="rId408" display="Minimum removals from array to make max –min &lt;= K"/>
+    <hyperlink ref="C415" r:id="rId409" display="Longest Common Substring"/>
+    <hyperlink ref="C416" r:id="rId410" display="Count number of ways to reacha given score in a game"/>
+    <hyperlink ref="C417" r:id="rId411" display="Count Balanced Binary Trees of Height h"/>
+    <hyperlink ref="C418" r:id="rId412" display="LargestSum Contiguous Subarray [V&gt;V&gt;V&gt;V IMP ]"/>
+    <hyperlink ref="C419" r:id="rId413" display="Smallest sum contiguous subarray"/>
+    <hyperlink ref="C420" r:id="rId414" display="Unbounded Knapsack (Repetition of items allowed)"/>
+    <hyperlink ref="C421" r:id="rId415" display="Word Break Problem"/>
+    <hyperlink ref="C422" r:id="rId416" display="Largest Independent Set Problem"/>
+    <hyperlink ref="C423" r:id="rId417" display="Partition problem"/>
+    <hyperlink ref="C424" r:id="rId418" display="Longest Palindromic Subsequence"/>
+    <hyperlink ref="C425" r:id="rId419" display="Count All Palindromic Subsequence in a given String"/>
+    <hyperlink ref="C426" r:id="rId420" display="Longest Palindromic Substring"/>
+    <hyperlink ref="C427" r:id="rId421" display="Longest alternating subsequence"/>
+    <hyperlink ref="C428" r:id="rId422" display="Weighted Job Scheduling"/>
+    <hyperlink ref="C429" r:id="rId423" display="Coin game winner where every player has three choices"/>
+    <hyperlink ref="C430" r:id="rId424" display="Count Derangements (Permutation such that no element appears in its original position) [ IMPORTANT ]"/>
+    <hyperlink ref="C431" r:id="rId425" display="Maximum profit by buying and selling a share at most twice [ IMP ]"/>
+    <hyperlink ref="C432" r:id="rId426" display="Optimal Strategy for a Game"/>
+    <hyperlink ref="C433" r:id="rId427" display="Optimal Binary Search Tree"/>
+    <hyperlink ref="C434" r:id="rId428" display="Palindrome PartitioningProblem"/>
+    <hyperlink ref="C435" r:id="rId429" display="Word Wrap Problem"/>
+    <hyperlink ref="C436" r:id="rId430" display="Mobile Numeric Keypad Problem [ IMP ]"/>
+    <hyperlink ref="C437" r:id="rId431" display="Boolean Parenthesization Problem"/>
+    <hyperlink ref="C438" r:id="rId432" display="Largest rectangular sub-matrix whose sum is 0"/>
+    <hyperlink ref="C439" r:id="rId433" display="Largest area rectangular sub-matrix with equal number of 1’s and 0’s [ IMP ]"/>
+    <hyperlink ref="C440" r:id="rId434" display="Maximum sum rectangle in a 2D matrix"/>
+    <hyperlink ref="C441" r:id="rId435" display="Maximum profit by buying and selling a share at most k times"/>
+    <hyperlink ref="C442" r:id="rId436" display="Find if a string is interleaved of two other strings"/>
+    <hyperlink ref="C443" r:id="rId437" display="Maximum Length of Pair Chain"/>
+    <hyperlink ref="C444" r:id="rId438" display="Count set bits in an integer"/>
+    <hyperlink ref="C445" r:id="rId439" display="Find the two non-repeating elements in an array of repeating elements"/>
+    <hyperlink ref="C446" r:id="rId440" display="Count number of bits to be flipped to convert A to B"/>
+    <hyperlink ref="C447" r:id="rId441" display="Count total set bits in all numbers from 1 to n"/>
+    <hyperlink ref="C448" r:id="rId442" display="Program to find whether a no is power of two"/>
+    <hyperlink ref="C449" r:id="rId443" display="Find position of the only set bit"/>
+    <hyperlink ref="C450" r:id="rId444" display="Copy set bits in a range"/>
+    <hyperlink ref="C451" r:id="rId445" display="Divide two integers without using multiplication, division and mod operator"/>
+    <hyperlink ref="C452" r:id="rId446" location=":~:text=Given%20an%20integer%20n%2C%20calculate,*%2C%20%2F%20and%20pow().&amp;text=A%20Simple%20Solution%20is%20to%20repeatedly%20add%20n%20to%20result." display="Calculate square of a number without using *, / and pow()"/>
+    <hyperlink ref="C453" r:id="rId447" display="Power Set"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>

--- a/DSA_450_LoveBabbar.xlsx
+++ b/DSA_450_LoveBabbar.xlsx
@@ -322,7 +322,26 @@
     <t xml:space="preserve">Rabin Karp Algo</t>
   </si>
   <si>
-    <t xml:space="preserve">doubt: Why mod = 1e9+7 gave the wrong answer, but 1e5+7 worked fine</t>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFC9211E"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">doubt: Why mod = 1e9+7 gave the wrong answer, but 1e5+7 worked fine </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF00A933"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">[ANSWERED]</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">KMP Algo</t>
@@ -1937,10 +1956,10 @@
   <dimension ref="A1:D467"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C51" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D70" activeCellId="0" sqref="D70"/>
+      <selection pane="topLeft" activeCell="D68" activeCellId="0" sqref="D68"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.78515625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.79296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.63"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="28.24"/>
@@ -7917,7 +7936,7 @@
     <hyperlink ref="C67" r:id="rId62" display="Balanced Parenthesis problem.[Imp]"/>
     <hyperlink ref="C68" r:id="rId63" display="Word break Problem[ Very Imp]"/>
     <hyperlink ref="C69" r:id="rId64" display="Rabin Karp Algo"/>
-    <hyperlink ref="D69" r:id="rId65" display="doubt"/>
+    <hyperlink ref="D69" r:id="rId65" display="doubt: Why mod = 1e9+7 gave the wrong answer, but 1e5+7 worked fine"/>
     <hyperlink ref="C70" r:id="rId66" display="KMP Algo"/>
     <hyperlink ref="C71" r:id="rId67" display="Convert a Sentence into its equivalent mobile numeric keypad sequence."/>
     <hyperlink ref="C72" r:id="rId68" display="Minimum number of bracket reversals needed to make an expression balanced."/>

--- a/DSA_450_LoveBabbar.xlsx
+++ b/DSA_450_LoveBabbar.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="910" uniqueCount="473">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="911" uniqueCount="474">
   <si>
     <t xml:space="preserve">Questions by Love Babbar:</t>
   </si>
@@ -322,29 +322,13 @@
     <t xml:space="preserve">Rabin Karp Algo</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFC9211E"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">doubt: Why mod = 1e9+7 gave the wrong answer, but 1e5+7 worked fine </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF00A933"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">[ANSWERED]</t>
-    </r>
+    <t xml:space="preserve">doubt: Why mod = 1e9+7 gave the wrong answer, but 1e5+7 worked fine [ANSWERED]</t>
   </si>
   <si>
     <t xml:space="preserve">KMP Algo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">V.Important</t>
   </si>
   <si>
     <t xml:space="preserve">Convert a Sentence into its equivalent mobile numeric keypad sequence.</t>
@@ -1955,11 +1939,11 @@
   </sheetPr>
   <dimension ref="A1:D467"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C51" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D68" activeCellId="0" sqref="D68"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A51" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C71" activeCellId="0" sqref="C71"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.79296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.8046875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.63"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="28.24"/>
@@ -2852,10 +2836,12 @@
       <c r="B70" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="C70" s="24" t="s">
+      <c r="C70" s="19" t="s">
         <v>81</v>
       </c>
-      <c r="D70" s="12"/>
+      <c r="D70" s="21" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="71" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="6" t="n">
@@ -2866,7 +2852,7 @@
         <v>56</v>
       </c>
       <c r="C71" s="24" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D71" s="12"/>
     </row>
@@ -2879,7 +2865,7 @@
         <v>56</v>
       </c>
       <c r="C72" s="24" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D72" s="12"/>
     </row>
@@ -2892,7 +2878,7 @@
         <v>56</v>
       </c>
       <c r="C73" s="24" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D73" s="12"/>
     </row>
@@ -2905,7 +2891,7 @@
         <v>56</v>
       </c>
       <c r="C74" s="24" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D74" s="12"/>
     </row>
@@ -2918,7 +2904,7 @@
         <v>56</v>
       </c>
       <c r="C75" s="24" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D75" s="12"/>
     </row>
@@ -2931,7 +2917,7 @@
         <v>56</v>
       </c>
       <c r="C76" s="24" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D76" s="12"/>
     </row>
@@ -2944,7 +2930,7 @@
         <v>56</v>
       </c>
       <c r="C77" s="24" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D77" s="12"/>
     </row>
@@ -2957,7 +2943,7 @@
         <v>56</v>
       </c>
       <c r="C78" s="24" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D78" s="12"/>
     </row>
@@ -2970,7 +2956,7 @@
         <v>56</v>
       </c>
       <c r="C79" s="24" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D79" s="12"/>
     </row>
@@ -2983,7 +2969,7 @@
         <v>56</v>
       </c>
       <c r="C80" s="24" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D80" s="12"/>
     </row>
@@ -2996,7 +2982,7 @@
         <v>56</v>
       </c>
       <c r="C81" s="24" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D81" s="12"/>
     </row>
@@ -3009,7 +2995,7 @@
         <v>56</v>
       </c>
       <c r="C82" s="24" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D82" s="12"/>
     </row>
@@ -3022,7 +3008,7 @@
         <v>56</v>
       </c>
       <c r="C83" s="24" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D83" s="12"/>
     </row>
@@ -3035,7 +3021,7 @@
         <v>56</v>
       </c>
       <c r="C84" s="24" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D84" s="12"/>
     </row>
@@ -3048,7 +3034,7 @@
         <v>56</v>
       </c>
       <c r="C85" s="24" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D85" s="12"/>
     </row>
@@ -3061,7 +3047,7 @@
         <v>56</v>
       </c>
       <c r="C86" s="24" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D86" s="12"/>
     </row>
@@ -3074,7 +3060,7 @@
         <v>56</v>
       </c>
       <c r="C87" s="24" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D87" s="12"/>
     </row>
@@ -3087,7 +3073,7 @@
         <v>56</v>
       </c>
       <c r="C88" s="24" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D88" s="12"/>
     </row>
@@ -3100,7 +3086,7 @@
         <v>56</v>
       </c>
       <c r="C89" s="24" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D89" s="12"/>
     </row>
@@ -3113,7 +3099,7 @@
         <v>56</v>
       </c>
       <c r="C90" s="24" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D90" s="12"/>
     </row>
@@ -3126,7 +3112,7 @@
         <v>56</v>
       </c>
       <c r="C91" s="24" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D91" s="12"/>
     </row>
@@ -3139,7 +3125,7 @@
         <v>56</v>
       </c>
       <c r="C92" s="24" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D92" s="12"/>
     </row>
@@ -3152,7 +3138,7 @@
         <v>56</v>
       </c>
       <c r="C93" s="24" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D93" s="12"/>
     </row>
@@ -3165,7 +3151,7 @@
         <v>56</v>
       </c>
       <c r="C94" s="24" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D94" s="12"/>
     </row>
@@ -3175,10 +3161,10 @@
         <v>90</v>
       </c>
       <c r="B95" s="15" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C95" s="24" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D95" s="12"/>
     </row>
@@ -3188,10 +3174,10 @@
         <v>91</v>
       </c>
       <c r="B96" s="15" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C96" s="24" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D96" s="12"/>
     </row>
@@ -3201,10 +3187,10 @@
         <v>92</v>
       </c>
       <c r="B97" s="15" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C97" s="24" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D97" s="12"/>
     </row>
@@ -3214,10 +3200,10 @@
         <v>93</v>
       </c>
       <c r="B98" s="15" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C98" s="24" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D98" s="12"/>
     </row>
@@ -3227,10 +3213,10 @@
         <v>94</v>
       </c>
       <c r="B99" s="15" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C99" s="24" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D99" s="12"/>
     </row>
@@ -3240,10 +3226,10 @@
         <v>95</v>
       </c>
       <c r="B100" s="15" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C100" s="24" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D100" s="12"/>
     </row>
@@ -3253,10 +3239,10 @@
         <v>96</v>
       </c>
       <c r="B101" s="15" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C101" s="24" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D101" s="12"/>
     </row>
@@ -3266,10 +3252,10 @@
         <v>97</v>
       </c>
       <c r="B102" s="15" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C102" s="24" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D102" s="12"/>
     </row>
@@ -3279,10 +3265,10 @@
         <v>98</v>
       </c>
       <c r="B103" s="15" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C103" s="24" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D103" s="12"/>
     </row>
@@ -3292,10 +3278,10 @@
         <v>99</v>
       </c>
       <c r="B104" s="15" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C104" s="24" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D104" s="12"/>
     </row>
@@ -3305,10 +3291,10 @@
         <v>100</v>
       </c>
       <c r="B105" s="15" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C105" s="24" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D105" s="12"/>
     </row>
@@ -3318,10 +3304,10 @@
         <v>101</v>
       </c>
       <c r="B106" s="15" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C106" s="24" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D106" s="12"/>
     </row>
@@ -3331,10 +3317,10 @@
         <v>102</v>
       </c>
       <c r="B107" s="15" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C107" s="24" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D107" s="12"/>
     </row>
@@ -3344,10 +3330,10 @@
         <v>103</v>
       </c>
       <c r="B108" s="15" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C108" s="24" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D108" s="12"/>
     </row>
@@ -3357,10 +3343,10 @@
         <v>104</v>
       </c>
       <c r="B109" s="15" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C109" s="24" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D109" s="12"/>
     </row>
@@ -3370,10 +3356,10 @@
         <v>105</v>
       </c>
       <c r="B110" s="15" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C110" s="24" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D110" s="12"/>
     </row>
@@ -3383,10 +3369,10 @@
         <v>106</v>
       </c>
       <c r="B111" s="15" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C111" s="24" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D111" s="12"/>
     </row>
@@ -3396,10 +3382,10 @@
         <v>107</v>
       </c>
       <c r="B112" s="15" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C112" s="24" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D112" s="12"/>
     </row>
@@ -3409,10 +3395,10 @@
         <v>108</v>
       </c>
       <c r="B113" s="15" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C113" s="24" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D113" s="12"/>
     </row>
@@ -3422,10 +3408,10 @@
         <v>109</v>
       </c>
       <c r="B114" s="15" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C114" s="24" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D114" s="12"/>
     </row>
@@ -3435,10 +3421,10 @@
         <v>110</v>
       </c>
       <c r="B115" s="15" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C115" s="24" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D115" s="12"/>
     </row>
@@ -3448,10 +3434,10 @@
         <v>111</v>
       </c>
       <c r="B116" s="15" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C116" s="24" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D116" s="12"/>
     </row>
@@ -3461,10 +3447,10 @@
         <v>112</v>
       </c>
       <c r="B117" s="15" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C117" s="24" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D117" s="12"/>
     </row>
@@ -3474,10 +3460,10 @@
         <v>113</v>
       </c>
       <c r="B118" s="15" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C118" s="24" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D118" s="12"/>
     </row>
@@ -3487,10 +3473,10 @@
         <v>114</v>
       </c>
       <c r="B119" s="15" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C119" s="24" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D119" s="12"/>
     </row>
@@ -3500,10 +3486,10 @@
         <v>115</v>
       </c>
       <c r="B120" s="15" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C120" s="24" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D120" s="12"/>
     </row>
@@ -3513,10 +3499,10 @@
         <v>116</v>
       </c>
       <c r="B121" s="15" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C121" s="24" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D121" s="12"/>
     </row>
@@ -3526,10 +3512,10 @@
         <v>117</v>
       </c>
       <c r="B122" s="15" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C122" s="24" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D122" s="12"/>
     </row>
@@ -3539,10 +3525,10 @@
         <v>118</v>
       </c>
       <c r="B123" s="15" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C123" s="24" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D123" s="12"/>
     </row>
@@ -3552,10 +3538,10 @@
         <v>119</v>
       </c>
       <c r="B124" s="15" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C124" s="24" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D124" s="12"/>
     </row>
@@ -3565,10 +3551,10 @@
         <v>120</v>
       </c>
       <c r="B125" s="15" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C125" s="24" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D125" s="12"/>
     </row>
@@ -3578,10 +3564,10 @@
         <v>121</v>
       </c>
       <c r="B126" s="15" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C126" s="24" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D126" s="12"/>
     </row>
@@ -3591,10 +3577,10 @@
         <v>122</v>
       </c>
       <c r="B127" s="15" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C127" s="24" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D127" s="12"/>
     </row>
@@ -3604,10 +3590,10 @@
         <v>123</v>
       </c>
       <c r="B128" s="15" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C128" s="24" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D128" s="12"/>
     </row>
@@ -3617,10 +3603,10 @@
         <v>124</v>
       </c>
       <c r="B129" s="15" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C129" s="24" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D129" s="12"/>
     </row>
@@ -3630,10 +3616,10 @@
         <v>125</v>
       </c>
       <c r="B130" s="15" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C130" s="24" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D130" s="12"/>
     </row>
@@ -3643,10 +3629,10 @@
         <v>126</v>
       </c>
       <c r="B131" s="10" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C131" s="24" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D131" s="12"/>
     </row>
@@ -3656,10 +3642,10 @@
         <v>127</v>
       </c>
       <c r="B132" s="10" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C132" s="24" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D132" s="12"/>
     </row>
@@ -3669,10 +3655,10 @@
         <v>128</v>
       </c>
       <c r="B133" s="10" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C133" s="24" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D133" s="12"/>
     </row>
@@ -3682,10 +3668,10 @@
         <v>129</v>
       </c>
       <c r="B134" s="10" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C134" s="24" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D134" s="12"/>
     </row>
@@ -3695,10 +3681,10 @@
         <v>130</v>
       </c>
       <c r="B135" s="10" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C135" s="24" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D135" s="12"/>
     </row>
@@ -3708,10 +3694,10 @@
         <v>131</v>
       </c>
       <c r="B136" s="10" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C136" s="24" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D136" s="12"/>
     </row>
@@ -3721,10 +3707,10 @@
         <v>132</v>
       </c>
       <c r="B137" s="10" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C137" s="24" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D137" s="12"/>
     </row>
@@ -3734,10 +3720,10 @@
         <v>133</v>
       </c>
       <c r="B138" s="10" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C138" s="24" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D138" s="12"/>
     </row>
@@ -3747,10 +3733,10 @@
         <v>134</v>
       </c>
       <c r="B139" s="10" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C139" s="24" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D139" s="12"/>
     </row>
@@ -3760,10 +3746,10 @@
         <v>135</v>
       </c>
       <c r="B140" s="10" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C140" s="24" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D140" s="12"/>
     </row>
@@ -3773,10 +3759,10 @@
         <v>136</v>
       </c>
       <c r="B141" s="10" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C141" s="24" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D141" s="12"/>
     </row>
@@ -3786,10 +3772,10 @@
         <v>137</v>
       </c>
       <c r="B142" s="10" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C142" s="24" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D142" s="12"/>
     </row>
@@ -3799,10 +3785,10 @@
         <v>138</v>
       </c>
       <c r="B143" s="10" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C143" s="24" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D143" s="12"/>
     </row>
@@ -3812,10 +3798,10 @@
         <v>139</v>
       </c>
       <c r="B144" s="10" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C144" s="24" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D144" s="12"/>
     </row>
@@ -3825,10 +3811,10 @@
         <v>140</v>
       </c>
       <c r="B145" s="10" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C145" s="24" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D145" s="12"/>
     </row>
@@ -3838,10 +3824,10 @@
         <v>141</v>
       </c>
       <c r="B146" s="10" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C146" s="24" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D146" s="12"/>
     </row>
@@ -3851,10 +3837,10 @@
         <v>142</v>
       </c>
       <c r="B147" s="10" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C147" s="24" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D147" s="12"/>
     </row>
@@ -3864,10 +3850,10 @@
         <v>143</v>
       </c>
       <c r="B148" s="10" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C148" s="24" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D148" s="12"/>
     </row>
@@ -3877,10 +3863,10 @@
         <v>144</v>
       </c>
       <c r="B149" s="10" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C149" s="24" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D149" s="12"/>
     </row>
@@ -3890,10 +3876,10 @@
         <v>145</v>
       </c>
       <c r="B150" s="10" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C150" s="24" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D150" s="12"/>
     </row>
@@ -3903,10 +3889,10 @@
         <v>146</v>
       </c>
       <c r="B151" s="10" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C151" s="24" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D151" s="12"/>
     </row>
@@ -3916,10 +3902,10 @@
         <v>147</v>
       </c>
       <c r="B152" s="10" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C152" s="24" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D152" s="12"/>
     </row>
@@ -3929,10 +3915,10 @@
         <v>148</v>
       </c>
       <c r="B153" s="10" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C153" s="24" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D153" s="12"/>
     </row>
@@ -3942,10 +3928,10 @@
         <v>149</v>
       </c>
       <c r="B154" s="10" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C154" s="24" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D154" s="12"/>
     </row>
@@ -3955,10 +3941,10 @@
         <v>150</v>
       </c>
       <c r="B155" s="10" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C155" s="24" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D155" s="12"/>
     </row>
@@ -3968,10 +3954,10 @@
         <v>151</v>
       </c>
       <c r="B156" s="10" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C156" s="25" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D156" s="12"/>
     </row>
@@ -3981,10 +3967,10 @@
         <v>152</v>
       </c>
       <c r="B157" s="10" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C157" s="25" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D157" s="12"/>
     </row>
@@ -3994,10 +3980,10 @@
         <v>153</v>
       </c>
       <c r="B158" s="10" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C158" s="24" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D158" s="12"/>
     </row>
@@ -4007,10 +3993,10 @@
         <v>154</v>
       </c>
       <c r="B159" s="10" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C159" s="24" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D159" s="12"/>
     </row>
@@ -4020,10 +4006,10 @@
         <v>155</v>
       </c>
       <c r="B160" s="10" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C160" s="24" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D160" s="12"/>
     </row>
@@ -4033,10 +4019,10 @@
         <v>156</v>
       </c>
       <c r="B161" s="10" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C161" s="24" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D161" s="12"/>
     </row>
@@ -4046,10 +4032,10 @@
         <v>157</v>
       </c>
       <c r="B162" s="10" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C162" s="24" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D162" s="12"/>
     </row>
@@ -4059,10 +4045,10 @@
         <v>158</v>
       </c>
       <c r="B163" s="10" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C163" s="24" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D163" s="12"/>
     </row>
@@ -4072,10 +4058,10 @@
         <v>159</v>
       </c>
       <c r="B164" s="10" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C164" s="24" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D164" s="12"/>
     </row>
@@ -4085,10 +4071,10 @@
         <v>160</v>
       </c>
       <c r="B165" s="10" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C165" s="24" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D165" s="12"/>
     </row>
@@ -4098,10 +4084,10 @@
         <v>161</v>
       </c>
       <c r="B166" s="10" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C166" s="24" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D166" s="12"/>
     </row>
@@ -4111,10 +4097,10 @@
         <v>162</v>
       </c>
       <c r="B167" s="15" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C167" s="24" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D167" s="12"/>
     </row>
@@ -4124,10 +4110,10 @@
         <v>163</v>
       </c>
       <c r="B168" s="15" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C168" s="24" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D168" s="12"/>
     </row>
@@ -4137,10 +4123,10 @@
         <v>164</v>
       </c>
       <c r="B169" s="15" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C169" s="24" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D169" s="12"/>
     </row>
@@ -4150,10 +4136,10 @@
         <v>165</v>
       </c>
       <c r="B170" s="15" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C170" s="24" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D170" s="12"/>
     </row>
@@ -4163,10 +4149,10 @@
         <v>166</v>
       </c>
       <c r="B171" s="15" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C171" s="24" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D171" s="12"/>
     </row>
@@ -4176,10 +4162,10 @@
         <v>167</v>
       </c>
       <c r="B172" s="15" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C172" s="24" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D172" s="12"/>
     </row>
@@ -4189,10 +4175,10 @@
         <v>168</v>
       </c>
       <c r="B173" s="15" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C173" s="24" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D173" s="12"/>
     </row>
@@ -4202,10 +4188,10 @@
         <v>169</v>
       </c>
       <c r="B174" s="15" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C174" s="24" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D174" s="12"/>
     </row>
@@ -4215,10 +4201,10 @@
         <v>170</v>
       </c>
       <c r="B175" s="15" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C175" s="24" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D175" s="12"/>
     </row>
@@ -4228,10 +4214,10 @@
         <v>171</v>
       </c>
       <c r="B176" s="15" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C176" s="24" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D176" s="12"/>
     </row>
@@ -4241,10 +4227,10 @@
         <v>172</v>
       </c>
       <c r="B177" s="15" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C177" s="24" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D177" s="12"/>
     </row>
@@ -4254,10 +4240,10 @@
         <v>173</v>
       </c>
       <c r="B178" s="15" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C178" s="24" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="D178" s="12"/>
     </row>
@@ -4267,10 +4253,10 @@
         <v>174</v>
       </c>
       <c r="B179" s="15" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C179" s="24" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D179" s="12"/>
     </row>
@@ -4280,10 +4266,10 @@
         <v>175</v>
       </c>
       <c r="B180" s="15" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C180" s="24" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D180" s="12"/>
     </row>
@@ -4293,10 +4279,10 @@
         <v>176</v>
       </c>
       <c r="B181" s="15" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C181" s="24" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D181" s="12"/>
     </row>
@@ -4306,10 +4292,10 @@
         <v>177</v>
       </c>
       <c r="B182" s="15" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C182" s="24" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D182" s="12"/>
     </row>
@@ -4319,10 +4305,10 @@
         <v>178</v>
       </c>
       <c r="B183" s="15" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C183" s="24" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D183" s="12"/>
     </row>
@@ -4332,10 +4318,10 @@
         <v>179</v>
       </c>
       <c r="B184" s="15" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C184" s="24" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D184" s="12"/>
     </row>
@@ -4345,10 +4331,10 @@
         <v>180</v>
       </c>
       <c r="B185" s="15" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C185" s="24" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D185" s="12"/>
     </row>
@@ -4358,10 +4344,10 @@
         <v>181</v>
       </c>
       <c r="B186" s="15" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C186" s="24" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D186" s="12"/>
     </row>
@@ -4371,10 +4357,10 @@
         <v>182</v>
       </c>
       <c r="B187" s="15" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C187" s="24" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D187" s="12"/>
     </row>
@@ -4384,10 +4370,10 @@
         <v>183</v>
       </c>
       <c r="B188" s="15" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C188" s="24" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="D188" s="12"/>
     </row>
@@ -4397,10 +4383,10 @@
         <v>184</v>
       </c>
       <c r="B189" s="15" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C189" s="24" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="D189" s="12"/>
     </row>
@@ -4410,10 +4396,10 @@
         <v>185</v>
       </c>
       <c r="B190" s="15" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C190" s="24" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D190" s="12"/>
     </row>
@@ -4423,10 +4409,10 @@
         <v>186</v>
       </c>
       <c r="B191" s="15" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C191" s="24" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D191" s="12"/>
     </row>
@@ -4436,10 +4422,10 @@
         <v>187</v>
       </c>
       <c r="B192" s="15" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C192" s="24" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D192" s="12"/>
     </row>
@@ -4449,10 +4435,10 @@
         <v>188</v>
       </c>
       <c r="B193" s="15" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C193" s="24" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D193" s="12"/>
     </row>
@@ -4462,10 +4448,10 @@
         <v>189</v>
       </c>
       <c r="B194" s="15" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C194" s="24" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="D194" s="12"/>
     </row>
@@ -4475,10 +4461,10 @@
         <v>190</v>
       </c>
       <c r="B195" s="15" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C195" s="24" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="D195" s="12"/>
     </row>
@@ -4488,10 +4474,10 @@
         <v>191</v>
       </c>
       <c r="B196" s="15" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C196" s="24" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="D196" s="12"/>
     </row>
@@ -4501,10 +4487,10 @@
         <v>192</v>
       </c>
       <c r="B197" s="15" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C197" s="24" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="D197" s="12"/>
     </row>
@@ -4514,10 +4500,10 @@
         <v>193</v>
       </c>
       <c r="B198" s="15" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C198" s="24" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D198" s="12"/>
     </row>
@@ -4527,10 +4513,10 @@
         <v>194</v>
       </c>
       <c r="B199" s="15" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C199" s="24" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="D199" s="12"/>
     </row>
@@ -4540,10 +4526,10 @@
         <v>195</v>
       </c>
       <c r="B200" s="15" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C200" s="24" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="D200" s="12"/>
     </row>
@@ -4553,10 +4539,10 @@
         <v>196</v>
       </c>
       <c r="B201" s="15" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C201" s="24" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="D201" s="12"/>
     </row>
@@ -4566,10 +4552,10 @@
         <v>197</v>
       </c>
       <c r="B202" s="10" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C202" s="24" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row r="203" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4578,10 +4564,10 @@
         <v>198</v>
       </c>
       <c r="B203" s="10" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C203" s="24" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="204" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4590,10 +4576,10 @@
         <v>199</v>
       </c>
       <c r="B204" s="10" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C204" s="24" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
     </row>
     <row r="205" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4602,10 +4588,10 @@
         <v>200</v>
       </c>
       <c r="B205" s="10" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C205" s="24" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
     </row>
     <row r="206" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4614,10 +4600,10 @@
         <v>201</v>
       </c>
       <c r="B206" s="10" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C206" s="24" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="207" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4626,10 +4612,10 @@
         <v>202</v>
       </c>
       <c r="B207" s="10" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C207" s="24" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
     </row>
     <row r="208" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4638,10 +4624,10 @@
         <v>203</v>
       </c>
       <c r="B208" s="10" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C208" s="26" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
     </row>
     <row r="209" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4650,10 +4636,10 @@
         <v>204</v>
       </c>
       <c r="B209" s="10" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C209" s="24" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
     </row>
     <row r="210" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4662,10 +4648,10 @@
         <v>205</v>
       </c>
       <c r="B210" s="10" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C210" s="24" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="D210" s="12"/>
     </row>
@@ -4675,10 +4661,10 @@
         <v>206</v>
       </c>
       <c r="B211" s="10" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C211" s="24" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="D211" s="12"/>
     </row>
@@ -4688,10 +4674,10 @@
         <v>207</v>
       </c>
       <c r="B212" s="10" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C212" s="24" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="D212" s="12"/>
     </row>
@@ -4701,10 +4687,10 @@
         <v>208</v>
       </c>
       <c r="B213" s="10" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C213" s="24" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D213" s="12"/>
     </row>
@@ -4714,10 +4700,10 @@
         <v>209</v>
       </c>
       <c r="B214" s="10" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C214" s="24" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D214" s="12"/>
     </row>
@@ -4727,10 +4713,10 @@
         <v>210</v>
       </c>
       <c r="B215" s="10" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C215" s="24" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="D215" s="12"/>
     </row>
@@ -4740,10 +4726,10 @@
         <v>211</v>
       </c>
       <c r="B216" s="10" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C216" s="24" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="D216" s="12"/>
     </row>
@@ -4753,10 +4739,10 @@
         <v>212</v>
       </c>
       <c r="B217" s="10" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C217" s="24" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="D217" s="12"/>
     </row>
@@ -4766,10 +4752,10 @@
         <v>213</v>
       </c>
       <c r="B218" s="10" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C218" s="24" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="D218" s="12"/>
     </row>
@@ -4779,10 +4765,10 @@
         <v>214</v>
       </c>
       <c r="B219" s="10" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C219" s="24" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="D219" s="12"/>
     </row>
@@ -4792,10 +4778,10 @@
         <v>215</v>
       </c>
       <c r="B220" s="10" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C220" s="24" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D220" s="12"/>
     </row>
@@ -4805,10 +4791,10 @@
         <v>216</v>
       </c>
       <c r="B221" s="10" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C221" s="24" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D221" s="12"/>
     </row>
@@ -4818,10 +4804,10 @@
         <v>217</v>
       </c>
       <c r="B222" s="10" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C222" s="24" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="D222" s="12"/>
     </row>
@@ -4831,10 +4817,10 @@
         <v>218</v>
       </c>
       <c r="B223" s="10" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C223" s="24" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D223" s="12"/>
     </row>
@@ -4844,10 +4830,10 @@
         <v>219</v>
       </c>
       <c r="B224" s="15" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C224" s="24" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D224" s="12"/>
     </row>
@@ -4857,10 +4843,10 @@
         <v>220</v>
       </c>
       <c r="B225" s="15" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C225" s="24" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="D225" s="12"/>
     </row>
@@ -4870,10 +4856,10 @@
         <v>221</v>
       </c>
       <c r="B226" s="15" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C226" s="24" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="D226" s="12"/>
     </row>
@@ -4883,10 +4869,10 @@
         <v>222</v>
       </c>
       <c r="B227" s="15" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C227" s="24" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="D227" s="12"/>
     </row>
@@ -4896,10 +4882,10 @@
         <v>223</v>
       </c>
       <c r="B228" s="15" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C228" s="24" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="D228" s="12"/>
     </row>
@@ -4909,10 +4895,10 @@
         <v>224</v>
       </c>
       <c r="B229" s="15" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C229" s="24" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="D229" s="12"/>
     </row>
@@ -4922,10 +4908,10 @@
         <v>225</v>
       </c>
       <c r="B230" s="15" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C230" s="24" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="D230" s="12"/>
     </row>
@@ -4935,10 +4921,10 @@
         <v>226</v>
       </c>
       <c r="B231" s="15" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C231" s="24" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="D231" s="12"/>
     </row>
@@ -4948,10 +4934,10 @@
         <v>227</v>
       </c>
       <c r="B232" s="15" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C232" s="24" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="D232" s="12"/>
     </row>
@@ -4961,10 +4947,10 @@
         <v>228</v>
       </c>
       <c r="B233" s="15" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C233" s="24" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="D233" s="12"/>
     </row>
@@ -4974,10 +4960,10 @@
         <v>229</v>
       </c>
       <c r="B234" s="15" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C234" s="24" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="D234" s="12"/>
     </row>
@@ -4987,10 +4973,10 @@
         <v>230</v>
       </c>
       <c r="B235" s="15" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C235" s="24" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="D235" s="12"/>
     </row>
@@ -5000,10 +4986,10 @@
         <v>231</v>
       </c>
       <c r="B236" s="15" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C236" s="24" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="D236" s="12"/>
     </row>
@@ -5013,10 +4999,10 @@
         <v>232</v>
       </c>
       <c r="B237" s="15" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C237" s="24" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="D237" s="12"/>
     </row>
@@ -5026,10 +5012,10 @@
         <v>233</v>
       </c>
       <c r="B238" s="15" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C238" s="24" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="D238" s="12"/>
     </row>
@@ -5039,10 +5025,10 @@
         <v>234</v>
       </c>
       <c r="B239" s="15" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C239" s="24" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="D239" s="12"/>
     </row>
@@ -5052,10 +5038,10 @@
         <v>235</v>
       </c>
       <c r="B240" s="15" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C240" s="24" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="D240" s="12"/>
     </row>
@@ -5065,10 +5051,10 @@
         <v>236</v>
       </c>
       <c r="B241" s="15" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C241" s="24" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="D241" s="12"/>
     </row>
@@ -5078,10 +5064,10 @@
         <v>237</v>
       </c>
       <c r="B242" s="15" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C242" s="24" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="D242" s="12"/>
     </row>
@@ -5091,10 +5077,10 @@
         <v>238</v>
       </c>
       <c r="B243" s="15" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C243" s="24" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="D243" s="12"/>
     </row>
@@ -5104,10 +5090,10 @@
         <v>239</v>
       </c>
       <c r="B244" s="15" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C244" s="24" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="D244" s="12"/>
     </row>
@@ -5117,10 +5103,10 @@
         <v>240</v>
       </c>
       <c r="B245" s="15" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C245" s="24" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="D245" s="12"/>
     </row>
@@ -5130,10 +5116,10 @@
         <v>241</v>
       </c>
       <c r="B246" s="15" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C246" s="24" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="D246" s="12"/>
     </row>
@@ -5143,10 +5129,10 @@
         <v>242</v>
       </c>
       <c r="B247" s="15" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C247" s="24" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="D247" s="12"/>
     </row>
@@ -5156,10 +5142,10 @@
         <v>243</v>
       </c>
       <c r="B248" s="15" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C248" s="24" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D248" s="12"/>
     </row>
@@ -5169,10 +5155,10 @@
         <v>244</v>
       </c>
       <c r="B249" s="15" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C249" s="24" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="D249" s="12"/>
     </row>
@@ -5182,10 +5168,10 @@
         <v>245</v>
       </c>
       <c r="B250" s="15" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C250" s="24" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D250" s="12"/>
     </row>
@@ -5195,10 +5181,10 @@
         <v>246</v>
       </c>
       <c r="B251" s="15" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C251" s="24" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="D251" s="12"/>
     </row>
@@ -5208,10 +5194,10 @@
         <v>247</v>
       </c>
       <c r="B252" s="15" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C252" s="24" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D252" s="12"/>
     </row>
@@ -5221,10 +5207,10 @@
         <v>248</v>
       </c>
       <c r="B253" s="15" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C253" s="24" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="D253" s="12"/>
     </row>
@@ -5234,10 +5220,10 @@
         <v>249</v>
       </c>
       <c r="B254" s="15" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C254" s="24" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="D254" s="12"/>
     </row>
@@ -5247,10 +5233,10 @@
         <v>250</v>
       </c>
       <c r="B255" s="15" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C255" s="24" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="D255" s="12"/>
     </row>
@@ -5260,10 +5246,10 @@
         <v>251</v>
       </c>
       <c r="B256" s="15" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C256" s="24" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="D256" s="12"/>
     </row>
@@ -5273,10 +5259,10 @@
         <v>252</v>
       </c>
       <c r="B257" s="15" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C257" s="24" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D257" s="12"/>
     </row>
@@ -5286,10 +5272,10 @@
         <v>253</v>
       </c>
       <c r="B258" s="15" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C258" s="24" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="D258" s="12"/>
     </row>
@@ -5299,10 +5285,10 @@
         <v>254</v>
       </c>
       <c r="B259" s="10" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="C259" s="24" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="D259" s="12"/>
     </row>
@@ -5312,10 +5298,10 @@
         <v>255</v>
       </c>
       <c r="B260" s="10" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="C260" s="24" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="D260" s="12"/>
     </row>
@@ -5325,10 +5311,10 @@
         <v>256</v>
       </c>
       <c r="B261" s="10" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="C261" s="24" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="D261" s="12"/>
     </row>
@@ -5338,10 +5324,10 @@
         <v>257</v>
       </c>
       <c r="B262" s="10" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="C262" s="24" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="D262" s="12"/>
     </row>
@@ -5351,10 +5337,10 @@
         <v>258</v>
       </c>
       <c r="B263" s="10" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="C263" s="24" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="D263" s="12"/>
     </row>
@@ -5364,10 +5350,10 @@
         <v>259</v>
       </c>
       <c r="B264" s="10" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="C264" s="24" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="D264" s="12"/>
     </row>
@@ -5377,10 +5363,10 @@
         <v>260</v>
       </c>
       <c r="B265" s="10" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="C265" s="24" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="D265" s="12"/>
     </row>
@@ -5390,10 +5376,10 @@
         <v>261</v>
       </c>
       <c r="B266" s="10" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="C266" s="24" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="D266" s="12"/>
     </row>
@@ -5403,10 +5389,10 @@
         <v>262</v>
       </c>
       <c r="B267" s="10" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="C267" s="24" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="D267" s="12"/>
     </row>
@@ -5416,10 +5402,10 @@
         <v>263</v>
       </c>
       <c r="B268" s="10" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="C268" s="24" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="D268" s="12"/>
     </row>
@@ -5429,10 +5415,10 @@
         <v>264</v>
       </c>
       <c r="B269" s="10" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="C269" s="24" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="D269" s="12"/>
     </row>
@@ -5442,10 +5428,10 @@
         <v>265</v>
       </c>
       <c r="B270" s="10" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="C270" s="24" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="D270" s="12"/>
     </row>
@@ -5455,10 +5441,10 @@
         <v>266</v>
       </c>
       <c r="B271" s="10" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="C271" s="24" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="D271" s="12"/>
     </row>
@@ -5468,10 +5454,10 @@
         <v>267</v>
       </c>
       <c r="B272" s="10" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="C272" s="24" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="D272" s="12"/>
     </row>
@@ -5481,10 +5467,10 @@
         <v>268</v>
       </c>
       <c r="B273" s="10" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="C273" s="24" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="D273" s="12"/>
     </row>
@@ -5494,10 +5480,10 @@
         <v>269</v>
       </c>
       <c r="B274" s="10" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="C274" s="24" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="D274" s="12"/>
     </row>
@@ -5507,10 +5493,10 @@
         <v>270</v>
       </c>
       <c r="B275" s="10" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="C275" s="24" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="D275" s="12"/>
     </row>
@@ -5520,10 +5506,10 @@
         <v>271</v>
       </c>
       <c r="B276" s="10" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="C276" s="24" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="D276" s="12"/>
     </row>
@@ -5533,10 +5519,10 @@
         <v>272</v>
       </c>
       <c r="B277" s="10" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="C277" s="24" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="D277" s="12"/>
     </row>
@@ -5546,10 +5532,10 @@
         <v>273</v>
       </c>
       <c r="B278" s="15" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="C278" s="24" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="D278" s="12"/>
     </row>
@@ -5559,10 +5545,10 @@
         <v>274</v>
       </c>
       <c r="B279" s="15" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="C279" s="24" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="D279" s="12"/>
     </row>
@@ -5572,10 +5558,10 @@
         <v>275</v>
       </c>
       <c r="B280" s="15" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="C280" s="24" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="D280" s="12"/>
     </row>
@@ -5585,10 +5571,10 @@
         <v>276</v>
       </c>
       <c r="B281" s="15" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="C281" s="24" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="D281" s="12"/>
     </row>
@@ -5598,10 +5584,10 @@
         <v>277</v>
       </c>
       <c r="B282" s="15" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="C282" s="24" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="D282" s="12"/>
     </row>
@@ -5611,10 +5597,10 @@
         <v>278</v>
       </c>
       <c r="B283" s="15" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="C283" s="24" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="D283" s="12"/>
     </row>
@@ -5624,10 +5610,10 @@
         <v>279</v>
       </c>
       <c r="B284" s="15" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="C284" s="24" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="D284" s="12"/>
     </row>
@@ -5637,10 +5623,10 @@
         <v>280</v>
       </c>
       <c r="B285" s="15" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="C285" s="24" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="D285" s="12"/>
     </row>
@@ -5650,10 +5636,10 @@
         <v>281</v>
       </c>
       <c r="B286" s="15" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="C286" s="24" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="D286" s="12"/>
     </row>
@@ -5663,10 +5649,10 @@
         <v>282</v>
       </c>
       <c r="B287" s="15" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="C287" s="24" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="D287" s="12"/>
     </row>
@@ -5676,10 +5662,10 @@
         <v>283</v>
       </c>
       <c r="B288" s="15" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="C288" s="24" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="D288" s="12"/>
     </row>
@@ -5689,10 +5675,10 @@
         <v>284</v>
       </c>
       <c r="B289" s="15" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="C289" s="24" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="D289" s="12"/>
     </row>
@@ -5702,10 +5688,10 @@
         <v>285</v>
       </c>
       <c r="B290" s="15" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="C290" s="24" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="D290" s="12"/>
     </row>
@@ -5715,10 +5701,10 @@
         <v>286</v>
       </c>
       <c r="B291" s="15" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="C291" s="26" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="D291" s="12"/>
     </row>
@@ -5728,10 +5714,10 @@
         <v>287</v>
       </c>
       <c r="B292" s="15" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="C292" s="24" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="D292" s="12"/>
     </row>
@@ -5741,10 +5727,10 @@
         <v>288</v>
       </c>
       <c r="B293" s="15" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="C293" s="24" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="D293" s="12"/>
     </row>
@@ -5754,10 +5740,10 @@
         <v>289</v>
       </c>
       <c r="B294" s="15" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="C294" s="24" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="D294" s="12"/>
     </row>
@@ -5767,10 +5753,10 @@
         <v>290</v>
       </c>
       <c r="B295" s="15" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="C295" s="24" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="D295" s="12"/>
     </row>
@@ -5780,10 +5766,10 @@
         <v>291</v>
       </c>
       <c r="B296" s="15" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="C296" s="24" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="D296" s="12"/>
     </row>
@@ -5793,10 +5779,10 @@
         <v>292</v>
       </c>
       <c r="B297" s="15" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="C297" s="24" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="D297" s="12"/>
     </row>
@@ -5806,10 +5792,10 @@
         <v>293</v>
       </c>
       <c r="B298" s="15" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="C298" s="24" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="D298" s="12"/>
     </row>
@@ -5819,10 +5805,10 @@
         <v>294</v>
       </c>
       <c r="B299" s="15" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="C299" s="24" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="D299" s="12"/>
     </row>
@@ -5832,10 +5818,10 @@
         <v>295</v>
       </c>
       <c r="B300" s="15" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="C300" s="24" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="D300" s="12"/>
     </row>
@@ -5845,10 +5831,10 @@
         <v>296</v>
       </c>
       <c r="B301" s="15" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="C301" s="24" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="D301" s="12"/>
     </row>
@@ -5858,10 +5844,10 @@
         <v>297</v>
       </c>
       <c r="B302" s="15" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="C302" s="24" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="D302" s="12"/>
     </row>
@@ -5871,10 +5857,10 @@
         <v>298</v>
       </c>
       <c r="B303" s="15" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="C303" s="24" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="D303" s="12"/>
     </row>
@@ -5884,10 +5870,10 @@
         <v>299</v>
       </c>
       <c r="B304" s="15" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="C304" s="24" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="D304" s="12"/>
     </row>
@@ -5897,10 +5883,10 @@
         <v>300</v>
       </c>
       <c r="B305" s="15" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="C305" s="24" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="D305" s="12"/>
     </row>
@@ -5910,10 +5896,10 @@
         <v>301</v>
       </c>
       <c r="B306" s="15" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="C306" s="24" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="D306" s="12"/>
     </row>
@@ -5923,10 +5909,10 @@
         <v>302</v>
       </c>
       <c r="B307" s="15" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="C307" s="24" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="D307" s="12"/>
     </row>
@@ -5936,10 +5922,10 @@
         <v>303</v>
       </c>
       <c r="B308" s="15" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="C308" s="24" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="D308" s="12"/>
     </row>
@@ -5949,10 +5935,10 @@
         <v>304</v>
       </c>
       <c r="B309" s="15" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="C309" s="24" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="D309" s="12"/>
     </row>
@@ -5962,10 +5948,10 @@
         <v>305</v>
       </c>
       <c r="B310" s="15" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="C310" s="24" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="D310" s="12"/>
     </row>
@@ -5975,10 +5961,10 @@
         <v>306</v>
       </c>
       <c r="B311" s="15" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="C311" s="24" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="D311" s="12"/>
     </row>
@@ -5988,10 +5974,10 @@
         <v>307</v>
       </c>
       <c r="B312" s="15" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="C312" s="24" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="D312" s="12"/>
     </row>
@@ -6001,10 +5987,10 @@
         <v>308</v>
       </c>
       <c r="B313" s="15" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="C313" s="24" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="D313" s="12"/>
     </row>
@@ -6014,10 +6000,10 @@
         <v>309</v>
       </c>
       <c r="B314" s="15" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="C314" s="24" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="D314" s="12"/>
     </row>
@@ -6027,10 +6013,10 @@
         <v>310</v>
       </c>
       <c r="B315" s="15" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="C315" s="24" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="D315" s="12"/>
     </row>
@@ -6040,10 +6026,10 @@
         <v>311</v>
       </c>
       <c r="B316" s="10" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="C316" s="24" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="D316" s="12"/>
     </row>
@@ -6053,10 +6039,10 @@
         <v>312</v>
       </c>
       <c r="B317" s="10" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="C317" s="24" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="D317" s="12"/>
     </row>
@@ -6066,10 +6052,10 @@
         <v>313</v>
       </c>
       <c r="B318" s="10" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="C318" s="24" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="D318" s="12"/>
     </row>
@@ -6079,10 +6065,10 @@
         <v>314</v>
       </c>
       <c r="B319" s="10" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="C319" s="24" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="D319" s="12"/>
     </row>
@@ -6092,10 +6078,10 @@
         <v>315</v>
       </c>
       <c r="B320" s="10" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="C320" s="24" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="D320" s="12"/>
     </row>
@@ -6105,10 +6091,10 @@
         <v>316</v>
       </c>
       <c r="B321" s="10" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="C321" s="24" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="D321" s="12"/>
     </row>
@@ -6118,10 +6104,10 @@
         <v>317</v>
       </c>
       <c r="B322" s="10" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="C322" s="24" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="D322" s="12"/>
     </row>
@@ -6131,10 +6117,10 @@
         <v>318</v>
       </c>
       <c r="B323" s="10" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="C323" s="24" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="D323" s="12"/>
     </row>
@@ -6144,10 +6130,10 @@
         <v>319</v>
       </c>
       <c r="B324" s="10" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="C324" s="26" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="D324" s="12"/>
     </row>
@@ -6157,10 +6143,10 @@
         <v>320</v>
       </c>
       <c r="B325" s="10" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="C325" s="24" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="D325" s="12"/>
     </row>
@@ -6170,10 +6156,10 @@
         <v>321</v>
       </c>
       <c r="B326" s="10" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="C326" s="24" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="D326" s="12"/>
     </row>
@@ -6183,10 +6169,10 @@
         <v>322</v>
       </c>
       <c r="B327" s="10" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="C327" s="24" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="D327" s="12"/>
     </row>
@@ -6196,10 +6182,10 @@
         <v>323</v>
       </c>
       <c r="B328" s="10" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="C328" s="24" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="D328" s="12"/>
     </row>
@@ -6209,10 +6195,10 @@
         <v>324</v>
       </c>
       <c r="B329" s="10" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="C329" s="24" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="D329" s="12"/>
     </row>
@@ -6222,10 +6208,10 @@
         <v>325</v>
       </c>
       <c r="B330" s="10" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="C330" s="24" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="D330" s="12"/>
     </row>
@@ -6235,10 +6221,10 @@
         <v>326</v>
       </c>
       <c r="B331" s="10" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="C331" s="24" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="D331" s="12"/>
     </row>
@@ -6248,10 +6234,10 @@
         <v>327</v>
       </c>
       <c r="B332" s="10" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="C332" s="24" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="D332" s="12"/>
     </row>
@@ -6261,10 +6247,10 @@
         <v>328</v>
       </c>
       <c r="B333" s="10" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="C333" s="24" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="D333" s="12"/>
     </row>
@@ -6274,10 +6260,10 @@
         <v>329</v>
       </c>
       <c r="B334" s="15" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="C334" s="24" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="D334" s="12"/>
     </row>
@@ -6287,10 +6273,10 @@
         <v>330</v>
       </c>
       <c r="B335" s="15" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="C335" s="24" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D335" s="12"/>
     </row>
@@ -6300,10 +6286,10 @@
         <v>331</v>
       </c>
       <c r="B336" s="15" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="C336" s="24" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="D336" s="12"/>
     </row>
@@ -6313,10 +6299,10 @@
         <v>332</v>
       </c>
       <c r="B337" s="15" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="C337" s="24" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="D337" s="12"/>
     </row>
@@ -6326,10 +6312,10 @@
         <v>333</v>
       </c>
       <c r="B338" s="15" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="C338" s="24" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="D338" s="12"/>
     </row>
@@ -6339,10 +6325,10 @@
         <v>334</v>
       </c>
       <c r="B339" s="15" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="C339" s="24" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="D339" s="12"/>
     </row>
@@ -6352,10 +6338,10 @@
         <v>335</v>
       </c>
       <c r="B340" s="15" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="C340" s="24" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="D340" s="12"/>
     </row>
@@ -6365,10 +6351,10 @@
         <v>336</v>
       </c>
       <c r="B341" s="15" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="C341" s="24" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="D341" s="12"/>
     </row>
@@ -6378,10 +6364,10 @@
         <v>337</v>
       </c>
       <c r="B342" s="15" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="C342" s="24" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="D342" s="12"/>
     </row>
@@ -6391,10 +6377,10 @@
         <v>338</v>
       </c>
       <c r="B343" s="15" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="C343" s="24" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="D343" s="12"/>
     </row>
@@ -6404,10 +6390,10 @@
         <v>339</v>
       </c>
       <c r="B344" s="15" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="C344" s="24" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="D344" s="12"/>
     </row>
@@ -6417,10 +6403,10 @@
         <v>340</v>
       </c>
       <c r="B345" s="15" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="C345" s="24" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="D345" s="12"/>
     </row>
@@ -6430,10 +6416,10 @@
         <v>341</v>
       </c>
       <c r="B346" s="15" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="C346" s="24" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="D346" s="12"/>
     </row>
@@ -6443,10 +6429,10 @@
         <v>342</v>
       </c>
       <c r="B347" s="15" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="C347" s="24" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="D347" s="12"/>
     </row>
@@ -6456,10 +6442,10 @@
         <v>343</v>
       </c>
       <c r="B348" s="15" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="C348" s="24" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="D348" s="12"/>
     </row>
@@ -6469,10 +6455,10 @@
         <v>344</v>
       </c>
       <c r="B349" s="15" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="C349" s="24" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="D349" s="12"/>
     </row>
@@ -6482,10 +6468,10 @@
         <v>345</v>
       </c>
       <c r="B350" s="15" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="C350" s="24" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="D350" s="12"/>
     </row>
@@ -6495,10 +6481,10 @@
         <v>346</v>
       </c>
       <c r="B351" s="15" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="C351" s="24" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="D351" s="12"/>
     </row>
@@ -6508,10 +6494,10 @@
         <v>347</v>
       </c>
       <c r="B352" s="15" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="C352" s="24" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="D352" s="12"/>
     </row>
@@ -6521,10 +6507,10 @@
         <v>348</v>
       </c>
       <c r="B353" s="15" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="C353" s="24" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="D353" s="12"/>
     </row>
@@ -6534,10 +6520,10 @@
         <v>349</v>
       </c>
       <c r="B354" s="15" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="C354" s="24" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="D354" s="12"/>
     </row>
@@ -6547,10 +6533,10 @@
         <v>350</v>
       </c>
       <c r="B355" s="15" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="C355" s="24" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="D355" s="12"/>
     </row>
@@ -6560,10 +6546,10 @@
         <v>351</v>
       </c>
       <c r="B356" s="15" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="C356" s="24" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="D356" s="12"/>
     </row>
@@ -6573,10 +6559,10 @@
         <v>352</v>
       </c>
       <c r="B357" s="15" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="C357" s="24" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="D357" s="12"/>
     </row>
@@ -6586,10 +6572,10 @@
         <v>353</v>
       </c>
       <c r="B358" s="15" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="C358" s="24" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="D358" s="12"/>
     </row>
@@ -6599,10 +6585,10 @@
         <v>354</v>
       </c>
       <c r="B359" s="15" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="C359" s="24" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="D359" s="12"/>
     </row>
@@ -6612,10 +6598,10 @@
         <v>355</v>
       </c>
       <c r="B360" s="15" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="C360" s="24" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="D360" s="12"/>
     </row>
@@ -6625,10 +6611,10 @@
         <v>356</v>
       </c>
       <c r="B361" s="15" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="C361" s="24" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="D361" s="12"/>
     </row>
@@ -6638,10 +6624,10 @@
         <v>357</v>
       </c>
       <c r="B362" s="15" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="C362" s="24" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="D362" s="12"/>
     </row>
@@ -6651,10 +6637,10 @@
         <v>358</v>
       </c>
       <c r="B363" s="15" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="C363" s="24" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="D363" s="12"/>
     </row>
@@ -6664,10 +6650,10 @@
         <v>359</v>
       </c>
       <c r="B364" s="15" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="C364" s="24" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="D364" s="12"/>
     </row>
@@ -6677,10 +6663,10 @@
         <v>360</v>
       </c>
       <c r="B365" s="15" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="C365" s="24" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="D365" s="12"/>
     </row>
@@ -6690,10 +6676,10 @@
         <v>361</v>
       </c>
       <c r="B366" s="15" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="C366" s="24" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="D366" s="12"/>
     </row>
@@ -6703,10 +6689,10 @@
         <v>362</v>
       </c>
       <c r="B367" s="15" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="C367" s="24" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="D367" s="12"/>
     </row>
@@ -6716,10 +6702,10 @@
         <v>363</v>
       </c>
       <c r="B368" s="15" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="C368" s="24" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="D368" s="12"/>
     </row>
@@ -6729,10 +6715,10 @@
         <v>364</v>
       </c>
       <c r="B369" s="15" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="C369" s="24" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="D369" s="12"/>
     </row>
@@ -6742,10 +6728,10 @@
         <v>365</v>
       </c>
       <c r="B370" s="15" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="C370" s="24" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="D370" s="12"/>
     </row>
@@ -6755,10 +6741,10 @@
         <v>366</v>
       </c>
       <c r="B371" s="15" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="C371" s="24" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="D371" s="12"/>
     </row>
@@ -6768,10 +6754,10 @@
         <v>367</v>
       </c>
       <c r="B372" s="15" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="C372" s="24" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="D372" s="12"/>
     </row>
@@ -6781,10 +6767,10 @@
         <v>368</v>
       </c>
       <c r="B373" s="15" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="C373" s="24" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="D373" s="12"/>
     </row>
@@ -6794,10 +6780,10 @@
         <v>369</v>
       </c>
       <c r="B374" s="15" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="C374" s="24" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="D374" s="12"/>
     </row>
@@ -6807,10 +6793,10 @@
         <v>370</v>
       </c>
       <c r="B375" s="15" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="C375" s="24" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="D375" s="12"/>
     </row>
@@ -6820,10 +6806,10 @@
         <v>371</v>
       </c>
       <c r="B376" s="15" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="C376" s="24" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="D376" s="12"/>
     </row>
@@ -6833,10 +6819,10 @@
         <v>372</v>
       </c>
       <c r="B377" s="15" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="C377" s="24" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="D377" s="12"/>
     </row>
@@ -6846,10 +6832,10 @@
         <v>373</v>
       </c>
       <c r="B378" s="10" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="C378" s="24" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="D378" s="12"/>
     </row>
@@ -6859,10 +6845,10 @@
         <v>374</v>
       </c>
       <c r="B379" s="10" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="C379" s="24" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="D379" s="12"/>
     </row>
@@ -6872,10 +6858,10 @@
         <v>375</v>
       </c>
       <c r="B380" s="10" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="C380" s="24" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="D380" s="12"/>
     </row>
@@ -6885,10 +6871,10 @@
         <v>376</v>
       </c>
       <c r="B381" s="10" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="C381" s="24" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D381" s="12"/>
     </row>
@@ -6898,10 +6884,10 @@
         <v>377</v>
       </c>
       <c r="B382" s="10" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="C382" s="24" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="D382" s="12"/>
     </row>
@@ -6911,10 +6897,10 @@
         <v>378</v>
       </c>
       <c r="B383" s="10" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="C383" s="24" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="D383" s="12"/>
     </row>
@@ -6924,10 +6910,10 @@
         <v>379</v>
       </c>
       <c r="B384" s="15" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="C384" s="24" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="D384" s="12"/>
     </row>
@@ -6937,10 +6923,10 @@
         <v>380</v>
       </c>
       <c r="B385" s="15" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="C385" s="24" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="D385" s="12"/>
     </row>
@@ -6950,10 +6936,10 @@
         <v>381</v>
       </c>
       <c r="B386" s="15" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="C386" s="24" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="D386" s="12"/>
     </row>
@@ -6963,10 +6949,10 @@
         <v>382</v>
       </c>
       <c r="B387" s="15" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="C387" s="24" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="D387" s="12"/>
     </row>
@@ -6976,10 +6962,10 @@
         <v>383</v>
       </c>
       <c r="B388" s="15" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="C388" s="24" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="D388" s="12"/>
     </row>
@@ -6989,10 +6975,10 @@
         <v>384</v>
       </c>
       <c r="B389" s="15" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="C389" s="24" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="D389" s="12"/>
     </row>
@@ -7002,10 +6988,10 @@
         <v>385</v>
       </c>
       <c r="B390" s="15" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="C390" s="24" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="D390" s="12"/>
     </row>
@@ -7015,10 +7001,10 @@
         <v>386</v>
       </c>
       <c r="B391" s="15" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="C391" s="24" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="D391" s="12"/>
     </row>
@@ -7028,10 +7014,10 @@
         <v>387</v>
       </c>
       <c r="B392" s="15" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="C392" s="24" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="D392" s="12"/>
     </row>
@@ -7041,10 +7027,10 @@
         <v>388</v>
       </c>
       <c r="B393" s="15" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="C393" s="24" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="D393" s="12"/>
     </row>
@@ -7054,10 +7040,10 @@
         <v>389</v>
       </c>
       <c r="B394" s="15" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="C394" s="24" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="D394" s="12"/>
     </row>
@@ -7067,10 +7053,10 @@
         <v>390</v>
       </c>
       <c r="B395" s="15" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="C395" s="24" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="D395" s="12"/>
     </row>
@@ -7080,10 +7066,10 @@
         <v>391</v>
       </c>
       <c r="B396" s="15" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="C396" s="24" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="D396" s="12"/>
     </row>
@@ -7093,10 +7079,10 @@
         <v>392</v>
       </c>
       <c r="B397" s="15" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="C397" s="24" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="D397" s="12"/>
     </row>
@@ -7106,10 +7092,10 @@
         <v>393</v>
       </c>
       <c r="B398" s="15" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="C398" s="24" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="D398" s="12"/>
     </row>
@@ -7119,10 +7105,10 @@
         <v>394</v>
       </c>
       <c r="B399" s="15" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="C399" s="24" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="D399" s="12"/>
     </row>
@@ -7132,10 +7118,10 @@
         <v>395</v>
       </c>
       <c r="B400" s="15" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="C400" s="24" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="D400" s="12"/>
     </row>
@@ -7145,10 +7131,10 @@
         <v>396</v>
       </c>
       <c r="B401" s="15" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="C401" s="24" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="D401" s="12"/>
     </row>
@@ -7158,10 +7144,10 @@
         <v>397</v>
       </c>
       <c r="B402" s="15" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="C402" s="24" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="D402" s="12"/>
     </row>
@@ -7171,10 +7157,10 @@
         <v>398</v>
       </c>
       <c r="B403" s="15" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="C403" s="24" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="D403" s="12"/>
     </row>
@@ -7184,10 +7170,10 @@
         <v>399</v>
       </c>
       <c r="B404" s="15" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="C404" s="24" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="D404" s="12"/>
     </row>
@@ -7197,10 +7183,10 @@
         <v>400</v>
       </c>
       <c r="B405" s="15" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="C405" s="24" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="D405" s="12"/>
     </row>
@@ -7210,10 +7196,10 @@
         <v>401</v>
       </c>
       <c r="B406" s="15" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="C406" s="24" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="D406" s="12"/>
     </row>
@@ -7223,10 +7209,10 @@
         <v>402</v>
       </c>
       <c r="B407" s="15" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="C407" s="24" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="D407" s="12"/>
     </row>
@@ -7236,10 +7222,10 @@
         <v>403</v>
       </c>
       <c r="B408" s="15" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="C408" s="24" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="D408" s="12"/>
     </row>
@@ -7249,10 +7235,10 @@
         <v>404</v>
       </c>
       <c r="B409" s="15" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="C409" s="24" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="D409" s="12"/>
     </row>
@@ -7262,10 +7248,10 @@
         <v>405</v>
       </c>
       <c r="B410" s="15" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="C410" s="24" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="D410" s="12"/>
     </row>
@@ -7275,10 +7261,10 @@
         <v>406</v>
       </c>
       <c r="B411" s="15" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="C411" s="24" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="D411" s="12"/>
     </row>
@@ -7288,10 +7274,10 @@
         <v>407</v>
       </c>
       <c r="B412" s="15" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="C412" s="24" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="D412" s="12"/>
     </row>
@@ -7301,10 +7287,10 @@
         <v>408</v>
       </c>
       <c r="B413" s="15" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="C413" s="24" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="D413" s="12"/>
     </row>
@@ -7314,10 +7300,10 @@
         <v>409</v>
       </c>
       <c r="B414" s="15" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="C414" s="24" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="D414" s="12"/>
     </row>
@@ -7327,10 +7313,10 @@
         <v>410</v>
       </c>
       <c r="B415" s="15" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="C415" s="24" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="D415" s="12"/>
     </row>
@@ -7340,10 +7326,10 @@
         <v>411</v>
       </c>
       <c r="B416" s="15" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="C416" s="24" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="D416" s="12"/>
     </row>
@@ -7353,10 +7339,10 @@
         <v>412</v>
       </c>
       <c r="B417" s="15" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="C417" s="24" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="D417" s="12"/>
     </row>
@@ -7366,10 +7352,10 @@
         <v>413</v>
       </c>
       <c r="B418" s="15" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="C418" s="24" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="D418" s="12"/>
     </row>
@@ -7379,10 +7365,10 @@
         <v>414</v>
       </c>
       <c r="B419" s="15" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="C419" s="24" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="D419" s="12"/>
     </row>
@@ -7392,10 +7378,10 @@
         <v>415</v>
       </c>
       <c r="B420" s="15" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="C420" s="24" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="D420" s="12"/>
     </row>
@@ -7405,10 +7391,10 @@
         <v>416</v>
       </c>
       <c r="B421" s="15" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="C421" s="24" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="D421" s="12"/>
     </row>
@@ -7418,10 +7404,10 @@
         <v>417</v>
       </c>
       <c r="B422" s="15" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="C422" s="24" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="D422" s="12"/>
     </row>
@@ -7431,10 +7417,10 @@
         <v>418</v>
       </c>
       <c r="B423" s="15" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="C423" s="24" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="D423" s="12"/>
     </row>
@@ -7444,10 +7430,10 @@
         <v>419</v>
       </c>
       <c r="B424" s="15" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="C424" s="24" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="D424" s="12"/>
     </row>
@@ -7457,10 +7443,10 @@
         <v>420</v>
       </c>
       <c r="B425" s="15" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="C425" s="24" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="D425" s="12"/>
     </row>
@@ -7470,10 +7456,10 @@
         <v>421</v>
       </c>
       <c r="B426" s="15" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="C426" s="24" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="D426" s="12"/>
     </row>
@@ -7483,10 +7469,10 @@
         <v>422</v>
       </c>
       <c r="B427" s="15" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="C427" s="24" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="D427" s="12"/>
     </row>
@@ -7496,10 +7482,10 @@
         <v>423</v>
       </c>
       <c r="B428" s="15" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="C428" s="24" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="D428" s="12"/>
     </row>
@@ -7509,10 +7495,10 @@
         <v>424</v>
       </c>
       <c r="B429" s="15" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="C429" s="24" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="D429" s="12"/>
     </row>
@@ -7522,10 +7508,10 @@
         <v>425</v>
       </c>
       <c r="B430" s="15" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="C430" s="24" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="D430" s="12"/>
     </row>
@@ -7535,10 +7521,10 @@
         <v>426</v>
       </c>
       <c r="B431" s="15" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="C431" s="24" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="D431" s="12"/>
     </row>
@@ -7548,10 +7534,10 @@
         <v>427</v>
       </c>
       <c r="B432" s="15" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="C432" s="24" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="D432" s="12"/>
     </row>
@@ -7561,10 +7547,10 @@
         <v>428</v>
       </c>
       <c r="B433" s="15" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="C433" s="24" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="D433" s="12"/>
     </row>
@@ -7574,10 +7560,10 @@
         <v>429</v>
       </c>
       <c r="B434" s="15" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="C434" s="24" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="D434" s="12"/>
     </row>
@@ -7587,10 +7573,10 @@
         <v>430</v>
       </c>
       <c r="B435" s="15" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="C435" s="24" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="D435" s="12"/>
     </row>
@@ -7600,10 +7586,10 @@
         <v>431</v>
       </c>
       <c r="B436" s="15" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="C436" s="24" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="D436" s="12"/>
     </row>
@@ -7613,10 +7599,10 @@
         <v>432</v>
       </c>
       <c r="B437" s="15" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="C437" s="24" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="D437" s="12"/>
     </row>
@@ -7626,10 +7612,10 @@
         <v>433</v>
       </c>
       <c r="B438" s="15" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="C438" s="24" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="D438" s="12"/>
     </row>
@@ -7639,10 +7625,10 @@
         <v>434</v>
       </c>
       <c r="B439" s="15" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="C439" s="24" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="D439" s="12"/>
     </row>
@@ -7652,10 +7638,10 @@
         <v>435</v>
       </c>
       <c r="B440" s="15" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="C440" s="24" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="D440" s="12"/>
     </row>
@@ -7665,10 +7651,10 @@
         <v>436</v>
       </c>
       <c r="B441" s="15" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="C441" s="24" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="D441" s="12"/>
     </row>
@@ -7678,10 +7664,10 @@
         <v>437</v>
       </c>
       <c r="B442" s="15" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="C442" s="24" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="D442" s="12"/>
     </row>
@@ -7691,10 +7677,10 @@
         <v>438</v>
       </c>
       <c r="B443" s="15" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="C443" s="24" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="D443" s="12"/>
     </row>
@@ -7704,10 +7690,10 @@
         <v>439</v>
       </c>
       <c r="B444" s="10" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="C444" s="24" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="D444" s="12"/>
     </row>
@@ -7717,10 +7703,10 @@
         <v>440</v>
       </c>
       <c r="B445" s="10" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="C445" s="24" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="D445" s="12"/>
     </row>
@@ -7730,10 +7716,10 @@
         <v>441</v>
       </c>
       <c r="B446" s="10" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="C446" s="24" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="D446" s="12"/>
     </row>
@@ -7743,10 +7729,10 @@
         <v>442</v>
       </c>
       <c r="B447" s="10" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="C447" s="24" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="D447" s="12"/>
     </row>
@@ -7756,10 +7742,10 @@
         <v>443</v>
       </c>
       <c r="B448" s="10" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="C448" s="24" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="D448" s="12"/>
     </row>
@@ -7769,10 +7755,10 @@
         <v>444</v>
       </c>
       <c r="B449" s="10" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="C449" s="24" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="D449" s="12"/>
     </row>
@@ -7782,10 +7768,10 @@
         <v>445</v>
       </c>
       <c r="B450" s="10" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="C450" s="24" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="D450" s="12"/>
     </row>
@@ -7795,10 +7781,10 @@
         <v>446</v>
       </c>
       <c r="B451" s="10" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="C451" s="24" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="D451" s="12"/>
     </row>
@@ -7808,10 +7794,10 @@
         <v>447</v>
       </c>
       <c r="B452" s="10" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="C452" s="24" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="D452" s="12"/>
     </row>
@@ -7821,10 +7807,10 @@
         <v>448</v>
       </c>
       <c r="B453" s="10" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="C453" s="24" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="D453" s="12"/>
     </row>
@@ -7936,7 +7922,7 @@
     <hyperlink ref="C67" r:id="rId62" display="Balanced Parenthesis problem.[Imp]"/>
     <hyperlink ref="C68" r:id="rId63" display="Word break Problem[ Very Imp]"/>
     <hyperlink ref="C69" r:id="rId64" display="Rabin Karp Algo"/>
-    <hyperlink ref="D69" r:id="rId65" display="doubt: Why mod = 1e9+7 gave the wrong answer, but 1e5+7 worked fine"/>
+    <hyperlink ref="D69" r:id="rId65" display="doubt: Why mod = 1e9+7 gave the wrong answer, but 1e5+7 worked fine [ANSWERED]"/>
     <hyperlink ref="C70" r:id="rId66" display="KMP Algo"/>
     <hyperlink ref="C71" r:id="rId67" display="Convert a Sentence into its equivalent mobile numeric keypad sequence."/>
     <hyperlink ref="C72" r:id="rId68" display="Minimum number of bracket reversals needed to make an expression balanced."/>

--- a/DSA_450_LoveBabbar.xlsx
+++ b/DSA_450_LoveBabbar.xlsx
@@ -1939,11 +1939,11 @@
   </sheetPr>
   <dimension ref="A1:D467"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A51" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A52" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C71" activeCellId="0" sqref="C71"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.8046875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.8125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.63"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="28.24"/>
@@ -2851,7 +2851,7 @@
       <c r="B71" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="C71" s="24" t="s">
+      <c r="C71" s="13" t="s">
         <v>83</v>
       </c>
       <c r="D71" s="12"/>

--- a/DSA_450_LoveBabbar.xlsx
+++ b/DSA_450_LoveBabbar.xlsx
@@ -1940,10 +1940,10 @@
   <dimension ref="A1:D467"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A52" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C71" activeCellId="0" sqref="C71"/>
+      <selection pane="topLeft" activeCell="C72" activeCellId="0" sqref="C72"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.8125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.63"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="28.24"/>
@@ -2864,7 +2864,7 @@
       <c r="B72" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="C72" s="24" t="s">
+      <c r="C72" s="11" t="s">
         <v>84</v>
       </c>
       <c r="D72" s="12"/>

--- a/DSA_450_LoveBabbar.xlsx
+++ b/DSA_450_LoveBabbar.xlsx
@@ -1939,8 +1939,8 @@
   </sheetPr>
   <dimension ref="A1:D467"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A52" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C72" activeCellId="0" sqref="C72"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B57" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C74" activeCellId="0" sqref="C74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2877,7 +2877,7 @@
       <c r="B73" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="C73" s="24" t="s">
+      <c r="C73" s="11" t="s">
         <v>85</v>
       </c>
       <c r="D73" s="12"/>

--- a/DSA_450_LoveBabbar.xlsx
+++ b/DSA_450_LoveBabbar.xlsx
@@ -174,7 +174,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">Can’t solve generalised form MxN in given time
+      <t xml:space="preserve">Can’t solve generalized form MxN in given time
 </t>
     </r>
     <r>
@@ -1940,7 +1940,7 @@
   <dimension ref="A1:D467"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B57" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C74" activeCellId="0" sqref="C74"/>
+      <selection pane="topLeft" activeCell="D70" activeCellId="0" sqref="D70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -8308,7 +8308,7 @@
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>

--- a/DSA_450_LoveBabbar.xlsx
+++ b/DSA_450_LoveBabbar.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="911" uniqueCount="474">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="912" uniqueCount="475">
   <si>
     <t xml:space="preserve">Questions by Love Babbar:</t>
   </si>
@@ -341,6 +341,9 @@
   </si>
   <si>
     <t xml:space="preserve">Count of number of given string in 2D character array</t>
+  </si>
+  <si>
+    <t xml:space="preserve">POTENTIAL CROSSWORD SOLVER ? Checkout the resources folder for what I made before solving this</t>
   </si>
   <si>
     <t xml:space="preserve">Search a Word in a 2D Grid of characters.</t>
@@ -1939,8 +1942,8 @@
   </sheetPr>
   <dimension ref="A1:D467"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B57" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D70" activeCellId="0" sqref="D70"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B51" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D76" activeCellId="0" sqref="D76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2890,10 +2893,12 @@
       <c r="B74" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="C74" s="24" t="s">
+      <c r="C74" s="11" t="s">
         <v>86</v>
       </c>
-      <c r="D74" s="12"/>
+      <c r="D74" s="12" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="75" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="6" t="n">
@@ -2904,7 +2909,7 @@
         <v>56</v>
       </c>
       <c r="C75" s="24" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D75" s="12"/>
     </row>
@@ -2917,7 +2922,7 @@
         <v>56</v>
       </c>
       <c r="C76" s="24" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D76" s="12"/>
     </row>
@@ -2930,7 +2935,7 @@
         <v>56</v>
       </c>
       <c r="C77" s="24" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D77" s="12"/>
     </row>
@@ -2943,7 +2948,7 @@
         <v>56</v>
       </c>
       <c r="C78" s="24" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D78" s="12"/>
     </row>
@@ -2956,7 +2961,7 @@
         <v>56</v>
       </c>
       <c r="C79" s="24" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D79" s="12"/>
     </row>
@@ -2969,7 +2974,7 @@
         <v>56</v>
       </c>
       <c r="C80" s="24" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D80" s="12"/>
     </row>
@@ -2982,7 +2987,7 @@
         <v>56</v>
       </c>
       <c r="C81" s="24" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D81" s="12"/>
     </row>
@@ -2995,7 +3000,7 @@
         <v>56</v>
       </c>
       <c r="C82" s="24" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D82" s="12"/>
     </row>
@@ -3008,7 +3013,7 @@
         <v>56</v>
       </c>
       <c r="C83" s="24" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D83" s="12"/>
     </row>
@@ -3021,7 +3026,7 @@
         <v>56</v>
       </c>
       <c r="C84" s="24" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D84" s="12"/>
     </row>
@@ -3034,7 +3039,7 @@
         <v>56</v>
       </c>
       <c r="C85" s="24" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D85" s="12"/>
     </row>
@@ -3047,7 +3052,7 @@
         <v>56</v>
       </c>
       <c r="C86" s="24" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D86" s="12"/>
     </row>
@@ -3060,7 +3065,7 @@
         <v>56</v>
       </c>
       <c r="C87" s="24" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D87" s="12"/>
     </row>
@@ -3073,7 +3078,7 @@
         <v>56</v>
       </c>
       <c r="C88" s="24" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D88" s="12"/>
     </row>
@@ -3086,7 +3091,7 @@
         <v>56</v>
       </c>
       <c r="C89" s="24" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D89" s="12"/>
     </row>
@@ -3099,7 +3104,7 @@
         <v>56</v>
       </c>
       <c r="C90" s="24" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D90" s="12"/>
     </row>
@@ -3112,7 +3117,7 @@
         <v>56</v>
       </c>
       <c r="C91" s="24" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D91" s="12"/>
     </row>
@@ -3125,7 +3130,7 @@
         <v>56</v>
       </c>
       <c r="C92" s="24" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D92" s="12"/>
     </row>
@@ -3138,7 +3143,7 @@
         <v>56</v>
       </c>
       <c r="C93" s="24" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D93" s="12"/>
     </row>
@@ -3151,7 +3156,7 @@
         <v>56</v>
       </c>
       <c r="C94" s="24" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D94" s="12"/>
     </row>
@@ -3161,10 +3166,10 @@
         <v>90</v>
       </c>
       <c r="B95" s="15" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C95" s="24" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D95" s="12"/>
     </row>
@@ -3174,10 +3179,10 @@
         <v>91</v>
       </c>
       <c r="B96" s="15" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C96" s="24" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D96" s="12"/>
     </row>
@@ -3187,10 +3192,10 @@
         <v>92</v>
       </c>
       <c r="B97" s="15" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C97" s="24" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D97" s="12"/>
     </row>
@@ -3200,10 +3205,10 @@
         <v>93</v>
       </c>
       <c r="B98" s="15" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C98" s="24" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D98" s="12"/>
     </row>
@@ -3213,10 +3218,10 @@
         <v>94</v>
       </c>
       <c r="B99" s="15" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C99" s="24" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D99" s="12"/>
     </row>
@@ -3226,10 +3231,10 @@
         <v>95</v>
       </c>
       <c r="B100" s="15" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C100" s="24" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D100" s="12"/>
     </row>
@@ -3239,10 +3244,10 @@
         <v>96</v>
       </c>
       <c r="B101" s="15" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C101" s="24" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D101" s="12"/>
     </row>
@@ -3252,10 +3257,10 @@
         <v>97</v>
       </c>
       <c r="B102" s="15" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C102" s="24" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D102" s="12"/>
     </row>
@@ -3265,10 +3270,10 @@
         <v>98</v>
       </c>
       <c r="B103" s="15" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C103" s="24" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D103" s="12"/>
     </row>
@@ -3278,10 +3283,10 @@
         <v>99</v>
       </c>
       <c r="B104" s="15" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C104" s="24" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D104" s="12"/>
     </row>
@@ -3291,10 +3296,10 @@
         <v>100</v>
       </c>
       <c r="B105" s="15" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C105" s="24" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D105" s="12"/>
     </row>
@@ -3304,10 +3309,10 @@
         <v>101</v>
       </c>
       <c r="B106" s="15" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C106" s="24" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D106" s="12"/>
     </row>
@@ -3317,10 +3322,10 @@
         <v>102</v>
       </c>
       <c r="B107" s="15" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C107" s="24" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D107" s="12"/>
     </row>
@@ -3330,10 +3335,10 @@
         <v>103</v>
       </c>
       <c r="B108" s="15" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C108" s="24" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D108" s="12"/>
     </row>
@@ -3343,10 +3348,10 @@
         <v>104</v>
       </c>
       <c r="B109" s="15" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C109" s="24" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D109" s="12"/>
     </row>
@@ -3356,10 +3361,10 @@
         <v>105</v>
       </c>
       <c r="B110" s="15" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C110" s="24" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D110" s="12"/>
     </row>
@@ -3369,10 +3374,10 @@
         <v>106</v>
       </c>
       <c r="B111" s="15" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C111" s="24" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D111" s="12"/>
     </row>
@@ -3382,10 +3387,10 @@
         <v>107</v>
       </c>
       <c r="B112" s="15" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C112" s="24" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D112" s="12"/>
     </row>
@@ -3395,10 +3400,10 @@
         <v>108</v>
       </c>
       <c r="B113" s="15" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C113" s="24" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D113" s="12"/>
     </row>
@@ -3408,10 +3413,10 @@
         <v>109</v>
       </c>
       <c r="B114" s="15" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C114" s="24" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D114" s="12"/>
     </row>
@@ -3421,10 +3426,10 @@
         <v>110</v>
       </c>
       <c r="B115" s="15" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C115" s="24" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D115" s="12"/>
     </row>
@@ -3434,10 +3439,10 @@
         <v>111</v>
       </c>
       <c r="B116" s="15" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C116" s="24" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D116" s="12"/>
     </row>
@@ -3447,10 +3452,10 @@
         <v>112</v>
       </c>
       <c r="B117" s="15" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C117" s="24" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D117" s="12"/>
     </row>
@@ -3460,10 +3465,10 @@
         <v>113</v>
       </c>
       <c r="B118" s="15" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C118" s="24" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D118" s="12"/>
     </row>
@@ -3473,10 +3478,10 @@
         <v>114</v>
       </c>
       <c r="B119" s="15" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C119" s="24" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D119" s="12"/>
     </row>
@@ -3486,10 +3491,10 @@
         <v>115</v>
       </c>
       <c r="B120" s="15" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C120" s="24" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D120" s="12"/>
     </row>
@@ -3499,10 +3504,10 @@
         <v>116</v>
       </c>
       <c r="B121" s="15" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C121" s="24" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D121" s="12"/>
     </row>
@@ -3512,10 +3517,10 @@
         <v>117</v>
       </c>
       <c r="B122" s="15" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C122" s="24" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D122" s="12"/>
     </row>
@@ -3525,10 +3530,10 @@
         <v>118</v>
       </c>
       <c r="B123" s="15" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C123" s="24" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D123" s="12"/>
     </row>
@@ -3538,10 +3543,10 @@
         <v>119</v>
       </c>
       <c r="B124" s="15" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C124" s="24" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D124" s="12"/>
     </row>
@@ -3551,10 +3556,10 @@
         <v>120</v>
       </c>
       <c r="B125" s="15" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C125" s="24" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D125" s="12"/>
     </row>
@@ -3564,10 +3569,10 @@
         <v>121</v>
       </c>
       <c r="B126" s="15" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C126" s="24" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D126" s="12"/>
     </row>
@@ -3577,10 +3582,10 @@
         <v>122</v>
       </c>
       <c r="B127" s="15" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C127" s="24" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D127" s="12"/>
     </row>
@@ -3590,10 +3595,10 @@
         <v>123</v>
       </c>
       <c r="B128" s="15" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C128" s="24" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D128" s="12"/>
     </row>
@@ -3603,10 +3608,10 @@
         <v>124</v>
       </c>
       <c r="B129" s="15" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C129" s="24" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D129" s="12"/>
     </row>
@@ -3616,10 +3621,10 @@
         <v>125</v>
       </c>
       <c r="B130" s="15" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C130" s="24" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D130" s="12"/>
     </row>
@@ -3629,10 +3634,10 @@
         <v>126</v>
       </c>
       <c r="B131" s="10" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C131" s="24" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D131" s="12"/>
     </row>
@@ -3642,10 +3647,10 @@
         <v>127</v>
       </c>
       <c r="B132" s="10" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C132" s="24" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D132" s="12"/>
     </row>
@@ -3655,10 +3660,10 @@
         <v>128</v>
       </c>
       <c r="B133" s="10" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C133" s="24" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D133" s="12"/>
     </row>
@@ -3668,10 +3673,10 @@
         <v>129</v>
       </c>
       <c r="B134" s="10" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C134" s="24" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D134" s="12"/>
     </row>
@@ -3681,10 +3686,10 @@
         <v>130</v>
       </c>
       <c r="B135" s="10" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C135" s="24" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D135" s="12"/>
     </row>
@@ -3694,10 +3699,10 @@
         <v>131</v>
       </c>
       <c r="B136" s="10" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C136" s="24" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D136" s="12"/>
     </row>
@@ -3707,10 +3712,10 @@
         <v>132</v>
       </c>
       <c r="B137" s="10" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C137" s="24" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D137" s="12"/>
     </row>
@@ -3720,10 +3725,10 @@
         <v>133</v>
       </c>
       <c r="B138" s="10" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C138" s="24" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D138" s="12"/>
     </row>
@@ -3733,10 +3738,10 @@
         <v>134</v>
       </c>
       <c r="B139" s="10" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C139" s="24" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D139" s="12"/>
     </row>
@@ -3746,10 +3751,10 @@
         <v>135</v>
       </c>
       <c r="B140" s="10" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C140" s="24" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D140" s="12"/>
     </row>
@@ -3759,10 +3764,10 @@
         <v>136</v>
       </c>
       <c r="B141" s="10" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C141" s="24" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D141" s="12"/>
     </row>
@@ -3772,10 +3777,10 @@
         <v>137</v>
       </c>
       <c r="B142" s="10" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C142" s="24" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D142" s="12"/>
     </row>
@@ -3785,10 +3790,10 @@
         <v>138</v>
       </c>
       <c r="B143" s="10" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C143" s="24" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D143" s="12"/>
     </row>
@@ -3798,10 +3803,10 @@
         <v>139</v>
       </c>
       <c r="B144" s="10" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C144" s="24" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D144" s="12"/>
     </row>
@@ -3811,10 +3816,10 @@
         <v>140</v>
       </c>
       <c r="B145" s="10" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C145" s="24" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D145" s="12"/>
     </row>
@@ -3824,10 +3829,10 @@
         <v>141</v>
       </c>
       <c r="B146" s="10" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C146" s="24" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D146" s="12"/>
     </row>
@@ -3837,10 +3842,10 @@
         <v>142</v>
       </c>
       <c r="B147" s="10" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C147" s="24" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D147" s="12"/>
     </row>
@@ -3850,10 +3855,10 @@
         <v>143</v>
       </c>
       <c r="B148" s="10" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C148" s="24" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D148" s="12"/>
     </row>
@@ -3863,10 +3868,10 @@
         <v>144</v>
       </c>
       <c r="B149" s="10" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C149" s="24" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D149" s="12"/>
     </row>
@@ -3876,10 +3881,10 @@
         <v>145</v>
       </c>
       <c r="B150" s="10" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C150" s="24" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D150" s="12"/>
     </row>
@@ -3889,10 +3894,10 @@
         <v>146</v>
       </c>
       <c r="B151" s="10" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C151" s="24" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D151" s="12"/>
     </row>
@@ -3902,10 +3907,10 @@
         <v>147</v>
       </c>
       <c r="B152" s="10" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C152" s="24" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D152" s="12"/>
     </row>
@@ -3915,10 +3920,10 @@
         <v>148</v>
       </c>
       <c r="B153" s="10" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C153" s="24" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D153" s="12"/>
     </row>
@@ -3928,10 +3933,10 @@
         <v>149</v>
       </c>
       <c r="B154" s="10" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C154" s="24" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D154" s="12"/>
     </row>
@@ -3941,10 +3946,10 @@
         <v>150</v>
       </c>
       <c r="B155" s="10" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C155" s="24" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D155" s="12"/>
     </row>
@@ -3954,10 +3959,10 @@
         <v>151</v>
       </c>
       <c r="B156" s="10" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C156" s="25" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D156" s="12"/>
     </row>
@@ -3967,10 +3972,10 @@
         <v>152</v>
       </c>
       <c r="B157" s="10" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C157" s="25" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D157" s="12"/>
     </row>
@@ -3980,10 +3985,10 @@
         <v>153</v>
       </c>
       <c r="B158" s="10" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C158" s="24" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D158" s="12"/>
     </row>
@@ -3993,10 +3998,10 @@
         <v>154</v>
       </c>
       <c r="B159" s="10" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C159" s="24" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D159" s="12"/>
     </row>
@@ -4006,10 +4011,10 @@
         <v>155</v>
       </c>
       <c r="B160" s="10" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C160" s="24" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D160" s="12"/>
     </row>
@@ -4019,10 +4024,10 @@
         <v>156</v>
       </c>
       <c r="B161" s="10" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C161" s="24" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D161" s="12"/>
     </row>
@@ -4032,10 +4037,10 @@
         <v>157</v>
       </c>
       <c r="B162" s="10" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C162" s="24" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D162" s="12"/>
     </row>
@@ -4045,10 +4050,10 @@
         <v>158</v>
       </c>
       <c r="B163" s="10" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C163" s="24" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D163" s="12"/>
     </row>
@@ -4058,10 +4063,10 @@
         <v>159</v>
       </c>
       <c r="B164" s="10" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C164" s="24" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D164" s="12"/>
     </row>
@@ -4071,10 +4076,10 @@
         <v>160</v>
       </c>
       <c r="B165" s="10" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C165" s="24" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D165" s="12"/>
     </row>
@@ -4084,10 +4089,10 @@
         <v>161</v>
       </c>
       <c r="B166" s="10" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C166" s="24" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D166" s="12"/>
     </row>
@@ -4097,10 +4102,10 @@
         <v>162</v>
       </c>
       <c r="B167" s="15" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C167" s="24" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D167" s="12"/>
     </row>
@@ -4110,10 +4115,10 @@
         <v>163</v>
       </c>
       <c r="B168" s="15" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C168" s="24" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D168" s="12"/>
     </row>
@@ -4123,10 +4128,10 @@
         <v>164</v>
       </c>
       <c r="B169" s="15" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C169" s="24" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D169" s="12"/>
     </row>
@@ -4136,10 +4141,10 @@
         <v>165</v>
       </c>
       <c r="B170" s="15" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C170" s="24" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D170" s="12"/>
     </row>
@@ -4149,10 +4154,10 @@
         <v>166</v>
       </c>
       <c r="B171" s="15" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C171" s="24" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D171" s="12"/>
     </row>
@@ -4162,10 +4167,10 @@
         <v>167</v>
       </c>
       <c r="B172" s="15" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C172" s="24" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D172" s="12"/>
     </row>
@@ -4175,10 +4180,10 @@
         <v>168</v>
       </c>
       <c r="B173" s="15" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C173" s="24" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D173" s="12"/>
     </row>
@@ -4188,10 +4193,10 @@
         <v>169</v>
       </c>
       <c r="B174" s="15" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C174" s="24" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D174" s="12"/>
     </row>
@@ -4201,10 +4206,10 @@
         <v>170</v>
       </c>
       <c r="B175" s="15" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C175" s="24" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D175" s="12"/>
     </row>
@@ -4214,10 +4219,10 @@
         <v>171</v>
       </c>
       <c r="B176" s="15" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C176" s="24" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D176" s="12"/>
     </row>
@@ -4227,10 +4232,10 @@
         <v>172</v>
       </c>
       <c r="B177" s="15" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C177" s="24" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="D177" s="12"/>
     </row>
@@ -4240,10 +4245,10 @@
         <v>173</v>
       </c>
       <c r="B178" s="15" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C178" s="24" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D178" s="12"/>
     </row>
@@ -4253,10 +4258,10 @@
         <v>174</v>
       </c>
       <c r="B179" s="15" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C179" s="24" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D179" s="12"/>
     </row>
@@ -4266,10 +4271,10 @@
         <v>175</v>
       </c>
       <c r="B180" s="15" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C180" s="24" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D180" s="12"/>
     </row>
@@ -4279,10 +4284,10 @@
         <v>176</v>
       </c>
       <c r="B181" s="15" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C181" s="24" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D181" s="12"/>
     </row>
@@ -4292,10 +4297,10 @@
         <v>177</v>
       </c>
       <c r="B182" s="15" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C182" s="24" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D182" s="12"/>
     </row>
@@ -4305,10 +4310,10 @@
         <v>178</v>
       </c>
       <c r="B183" s="15" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C183" s="24" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D183" s="12"/>
     </row>
@@ -4318,10 +4323,10 @@
         <v>179</v>
       </c>
       <c r="B184" s="15" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C184" s="24" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D184" s="12"/>
     </row>
@@ -4331,10 +4336,10 @@
         <v>180</v>
       </c>
       <c r="B185" s="15" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C185" s="24" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D185" s="12"/>
     </row>
@@ -4344,10 +4349,10 @@
         <v>181</v>
       </c>
       <c r="B186" s="15" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C186" s="24" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D186" s="12"/>
     </row>
@@ -4357,10 +4362,10 @@
         <v>182</v>
       </c>
       <c r="B187" s="15" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C187" s="24" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="D187" s="12"/>
     </row>
@@ -4370,10 +4375,10 @@
         <v>183</v>
       </c>
       <c r="B188" s="15" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C188" s="24" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="D188" s="12"/>
     </row>
@@ -4383,10 +4388,10 @@
         <v>184</v>
       </c>
       <c r="B189" s="15" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C189" s="24" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D189" s="12"/>
     </row>
@@ -4396,10 +4401,10 @@
         <v>185</v>
       </c>
       <c r="B190" s="15" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C190" s="24" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D190" s="12"/>
     </row>
@@ -4409,10 +4414,10 @@
         <v>186</v>
       </c>
       <c r="B191" s="15" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C191" s="24" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D191" s="12"/>
     </row>
@@ -4422,10 +4427,10 @@
         <v>187</v>
       </c>
       <c r="B192" s="15" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C192" s="24" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D192" s="12"/>
     </row>
@@ -4435,10 +4440,10 @@
         <v>188</v>
       </c>
       <c r="B193" s="15" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C193" s="24" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="D193" s="12"/>
     </row>
@@ -4448,10 +4453,10 @@
         <v>189</v>
       </c>
       <c r="B194" s="15" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C194" s="24" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="D194" s="12"/>
     </row>
@@ -4461,10 +4466,10 @@
         <v>190</v>
       </c>
       <c r="B195" s="15" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C195" s="24" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="D195" s="12"/>
     </row>
@@ -4474,10 +4479,10 @@
         <v>191</v>
       </c>
       <c r="B196" s="15" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C196" s="24" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="D196" s="12"/>
     </row>
@@ -4487,10 +4492,10 @@
         <v>192</v>
       </c>
       <c r="B197" s="15" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C197" s="24" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D197" s="12"/>
     </row>
@@ -4500,10 +4505,10 @@
         <v>193</v>
       </c>
       <c r="B198" s="15" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C198" s="24" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="D198" s="12"/>
     </row>
@@ -4513,10 +4518,10 @@
         <v>194</v>
       </c>
       <c r="B199" s="15" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C199" s="24" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="D199" s="12"/>
     </row>
@@ -4526,10 +4531,10 @@
         <v>195</v>
       </c>
       <c r="B200" s="15" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C200" s="24" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="D200" s="12"/>
     </row>
@@ -4539,10 +4544,10 @@
         <v>196</v>
       </c>
       <c r="B201" s="15" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C201" s="24" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="D201" s="12"/>
     </row>
@@ -4552,10 +4557,10 @@
         <v>197</v>
       </c>
       <c r="B202" s="10" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C202" s="24" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="203" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4564,10 +4569,10 @@
         <v>198</v>
       </c>
       <c r="B203" s="10" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C203" s="24" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
     </row>
     <row r="204" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4576,10 +4581,10 @@
         <v>199</v>
       </c>
       <c r="B204" s="10" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C204" s="24" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
     </row>
     <row r="205" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4588,10 +4593,10 @@
         <v>200</v>
       </c>
       <c r="B205" s="10" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C205" s="24" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="206" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4600,10 +4605,10 @@
         <v>201</v>
       </c>
       <c r="B206" s="10" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C206" s="24" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
     </row>
     <row r="207" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4612,10 +4617,10 @@
         <v>202</v>
       </c>
       <c r="B207" s="10" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C207" s="24" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
     </row>
     <row r="208" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4624,10 +4629,10 @@
         <v>203</v>
       </c>
       <c r="B208" s="10" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C208" s="26" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
     </row>
     <row r="209" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4636,10 +4641,10 @@
         <v>204</v>
       </c>
       <c r="B209" s="10" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C209" s="24" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
     </row>
     <row r="210" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4648,10 +4653,10 @@
         <v>205</v>
       </c>
       <c r="B210" s="10" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C210" s="24" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="D210" s="12"/>
     </row>
@@ -4661,10 +4666,10 @@
         <v>206</v>
       </c>
       <c r="B211" s="10" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C211" s="24" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="D211" s="12"/>
     </row>
@@ -4674,10 +4679,10 @@
         <v>207</v>
       </c>
       <c r="B212" s="10" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C212" s="24" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D212" s="12"/>
     </row>
@@ -4687,10 +4692,10 @@
         <v>208</v>
       </c>
       <c r="B213" s="10" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C213" s="24" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D213" s="12"/>
     </row>
@@ -4700,10 +4705,10 @@
         <v>209</v>
       </c>
       <c r="B214" s="10" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C214" s="24" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="D214" s="12"/>
     </row>
@@ -4713,10 +4718,10 @@
         <v>210</v>
       </c>
       <c r="B215" s="10" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C215" s="24" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="D215" s="12"/>
     </row>
@@ -4726,10 +4731,10 @@
         <v>211</v>
       </c>
       <c r="B216" s="10" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C216" s="24" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="D216" s="12"/>
     </row>
@@ -4739,10 +4744,10 @@
         <v>212</v>
       </c>
       <c r="B217" s="10" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C217" s="24" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="D217" s="12"/>
     </row>
@@ -4752,10 +4757,10 @@
         <v>213</v>
       </c>
       <c r="B218" s="10" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C218" s="24" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="D218" s="12"/>
     </row>
@@ -4765,10 +4770,10 @@
         <v>214</v>
       </c>
       <c r="B219" s="10" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C219" s="24" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D219" s="12"/>
     </row>
@@ -4778,10 +4783,10 @@
         <v>215</v>
       </c>
       <c r="B220" s="10" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C220" s="24" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D220" s="12"/>
     </row>
@@ -4791,10 +4796,10 @@
         <v>216</v>
       </c>
       <c r="B221" s="10" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C221" s="24" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="D221" s="12"/>
     </row>
@@ -4804,10 +4809,10 @@
         <v>217</v>
       </c>
       <c r="B222" s="10" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C222" s="24" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D222" s="12"/>
     </row>
@@ -4817,10 +4822,10 @@
         <v>218</v>
       </c>
       <c r="B223" s="10" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C223" s="24" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="D223" s="12"/>
     </row>
@@ -4830,10 +4835,10 @@
         <v>219</v>
       </c>
       <c r="B224" s="15" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C224" s="24" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="D224" s="12"/>
     </row>
@@ -4843,10 +4848,10 @@
         <v>220</v>
       </c>
       <c r="B225" s="15" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C225" s="24" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="D225" s="12"/>
     </row>
@@ -4856,10 +4861,10 @@
         <v>221</v>
       </c>
       <c r="B226" s="15" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C226" s="24" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="D226" s="12"/>
     </row>
@@ -4869,10 +4874,10 @@
         <v>222</v>
       </c>
       <c r="B227" s="15" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C227" s="24" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="D227" s="12"/>
     </row>
@@ -4882,10 +4887,10 @@
         <v>223</v>
       </c>
       <c r="B228" s="15" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C228" s="24" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="D228" s="12"/>
     </row>
@@ -4895,10 +4900,10 @@
         <v>224</v>
       </c>
       <c r="B229" s="15" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C229" s="24" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="D229" s="12"/>
     </row>
@@ -4908,10 +4913,10 @@
         <v>225</v>
       </c>
       <c r="B230" s="15" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C230" s="24" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="D230" s="12"/>
     </row>
@@ -4921,10 +4926,10 @@
         <v>226</v>
       </c>
       <c r="B231" s="15" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C231" s="24" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="D231" s="12"/>
     </row>
@@ -4934,10 +4939,10 @@
         <v>227</v>
       </c>
       <c r="B232" s="15" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C232" s="24" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="D232" s="12"/>
     </row>
@@ -4947,10 +4952,10 @@
         <v>228</v>
       </c>
       <c r="B233" s="15" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C233" s="24" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="D233" s="12"/>
     </row>
@@ -4960,10 +4965,10 @@
         <v>229</v>
       </c>
       <c r="B234" s="15" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C234" s="24" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="D234" s="12"/>
     </row>
@@ -4973,10 +4978,10 @@
         <v>230</v>
       </c>
       <c r="B235" s="15" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C235" s="24" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="D235" s="12"/>
     </row>
@@ -4986,10 +4991,10 @@
         <v>231</v>
       </c>
       <c r="B236" s="15" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C236" s="24" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="D236" s="12"/>
     </row>
@@ -4999,10 +5004,10 @@
         <v>232</v>
       </c>
       <c r="B237" s="15" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C237" s="24" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="D237" s="12"/>
     </row>
@@ -5012,10 +5017,10 @@
         <v>233</v>
       </c>
       <c r="B238" s="15" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C238" s="24" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="D238" s="12"/>
     </row>
@@ -5025,10 +5030,10 @@
         <v>234</v>
       </c>
       <c r="B239" s="15" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C239" s="24" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="D239" s="12"/>
     </row>
@@ -5038,10 +5043,10 @@
         <v>235</v>
       </c>
       <c r="B240" s="15" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C240" s="24" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="D240" s="12"/>
     </row>
@@ -5051,10 +5056,10 @@
         <v>236</v>
       </c>
       <c r="B241" s="15" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C241" s="24" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="D241" s="12"/>
     </row>
@@ -5064,10 +5069,10 @@
         <v>237</v>
       </c>
       <c r="B242" s="15" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C242" s="24" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="D242" s="12"/>
     </row>
@@ -5077,10 +5082,10 @@
         <v>238</v>
       </c>
       <c r="B243" s="15" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C243" s="24" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="D243" s="12"/>
     </row>
@@ -5090,10 +5095,10 @@
         <v>239</v>
       </c>
       <c r="B244" s="15" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C244" s="24" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="D244" s="12"/>
     </row>
@@ -5103,10 +5108,10 @@
         <v>240</v>
       </c>
       <c r="B245" s="15" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C245" s="24" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="D245" s="12"/>
     </row>
@@ -5116,10 +5121,10 @@
         <v>241</v>
       </c>
       <c r="B246" s="15" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C246" s="24" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="D246" s="12"/>
     </row>
@@ -5129,10 +5134,10 @@
         <v>242</v>
       </c>
       <c r="B247" s="15" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C247" s="24" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D247" s="12"/>
     </row>
@@ -5142,10 +5147,10 @@
         <v>243</v>
       </c>
       <c r="B248" s="15" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C248" s="24" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="D248" s="12"/>
     </row>
@@ -5155,10 +5160,10 @@
         <v>244</v>
       </c>
       <c r="B249" s="15" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C249" s="24" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D249" s="12"/>
     </row>
@@ -5168,10 +5173,10 @@
         <v>245</v>
       </c>
       <c r="B250" s="15" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C250" s="24" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="D250" s="12"/>
     </row>
@@ -5181,10 +5186,10 @@
         <v>246</v>
       </c>
       <c r="B251" s="15" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C251" s="24" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D251" s="12"/>
     </row>
@@ -5194,10 +5199,10 @@
         <v>247</v>
       </c>
       <c r="B252" s="15" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C252" s="24" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="D252" s="12"/>
     </row>
@@ -5207,10 +5212,10 @@
         <v>248</v>
       </c>
       <c r="B253" s="15" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C253" s="24" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="D253" s="12"/>
     </row>
@@ -5220,10 +5225,10 @@
         <v>249</v>
       </c>
       <c r="B254" s="15" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C254" s="24" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="D254" s="12"/>
     </row>
@@ -5233,10 +5238,10 @@
         <v>250</v>
       </c>
       <c r="B255" s="15" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C255" s="24" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="D255" s="12"/>
     </row>
@@ -5246,10 +5251,10 @@
         <v>251</v>
       </c>
       <c r="B256" s="15" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C256" s="24" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="D256" s="12"/>
     </row>
@@ -5259,10 +5264,10 @@
         <v>252</v>
       </c>
       <c r="B257" s="15" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C257" s="24" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D257" s="12"/>
     </row>
@@ -5272,10 +5277,10 @@
         <v>253</v>
       </c>
       <c r="B258" s="15" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C258" s="24" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="D258" s="12"/>
     </row>
@@ -5285,10 +5290,10 @@
         <v>254</v>
       </c>
       <c r="B259" s="10" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C259" s="24" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="D259" s="12"/>
     </row>
@@ -5298,10 +5303,10 @@
         <v>255</v>
       </c>
       <c r="B260" s="10" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C260" s="24" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="D260" s="12"/>
     </row>
@@ -5311,10 +5316,10 @@
         <v>256</v>
       </c>
       <c r="B261" s="10" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C261" s="24" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="D261" s="12"/>
     </row>
@@ -5324,10 +5329,10 @@
         <v>257</v>
       </c>
       <c r="B262" s="10" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C262" s="24" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="D262" s="12"/>
     </row>
@@ -5337,10 +5342,10 @@
         <v>258</v>
       </c>
       <c r="B263" s="10" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C263" s="24" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="D263" s="12"/>
     </row>
@@ -5350,10 +5355,10 @@
         <v>259</v>
       </c>
       <c r="B264" s="10" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C264" s="24" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="D264" s="12"/>
     </row>
@@ -5363,10 +5368,10 @@
         <v>260</v>
       </c>
       <c r="B265" s="10" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C265" s="24" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="D265" s="12"/>
     </row>
@@ -5376,10 +5381,10 @@
         <v>261</v>
       </c>
       <c r="B266" s="10" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C266" s="24" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="D266" s="12"/>
     </row>
@@ -5389,10 +5394,10 @@
         <v>262</v>
       </c>
       <c r="B267" s="10" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C267" s="24" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="D267" s="12"/>
     </row>
@@ -5402,10 +5407,10 @@
         <v>263</v>
       </c>
       <c r="B268" s="10" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C268" s="24" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="D268" s="12"/>
     </row>
@@ -5415,10 +5420,10 @@
         <v>264</v>
       </c>
       <c r="B269" s="10" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C269" s="24" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="D269" s="12"/>
     </row>
@@ -5428,10 +5433,10 @@
         <v>265</v>
       </c>
       <c r="B270" s="10" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C270" s="24" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="D270" s="12"/>
     </row>
@@ -5441,10 +5446,10 @@
         <v>266</v>
       </c>
       <c r="B271" s="10" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C271" s="24" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="D271" s="12"/>
     </row>
@@ -5454,10 +5459,10 @@
         <v>267</v>
       </c>
       <c r="B272" s="10" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C272" s="24" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="D272" s="12"/>
     </row>
@@ -5467,10 +5472,10 @@
         <v>268</v>
       </c>
       <c r="B273" s="10" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C273" s="24" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="D273" s="12"/>
     </row>
@@ -5480,10 +5485,10 @@
         <v>269</v>
       </c>
       <c r="B274" s="10" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C274" s="24" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="D274" s="12"/>
     </row>
@@ -5493,10 +5498,10 @@
         <v>270</v>
       </c>
       <c r="B275" s="10" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C275" s="24" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="D275" s="12"/>
     </row>
@@ -5506,10 +5511,10 @@
         <v>271</v>
       </c>
       <c r="B276" s="10" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C276" s="24" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="D276" s="12"/>
     </row>
@@ -5519,10 +5524,10 @@
         <v>272</v>
       </c>
       <c r="B277" s="10" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C277" s="24" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="D277" s="12"/>
     </row>
@@ -5532,10 +5537,10 @@
         <v>273</v>
       </c>
       <c r="B278" s="15" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C278" s="24" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="D278" s="12"/>
     </row>
@@ -5545,10 +5550,10 @@
         <v>274</v>
       </c>
       <c r="B279" s="15" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C279" s="24" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="D279" s="12"/>
     </row>
@@ -5558,10 +5563,10 @@
         <v>275</v>
       </c>
       <c r="B280" s="15" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C280" s="24" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="D280" s="12"/>
     </row>
@@ -5571,10 +5576,10 @@
         <v>276</v>
       </c>
       <c r="B281" s="15" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C281" s="24" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="D281" s="12"/>
     </row>
@@ -5584,10 +5589,10 @@
         <v>277</v>
       </c>
       <c r="B282" s="15" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C282" s="24" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="D282" s="12"/>
     </row>
@@ -5597,10 +5602,10 @@
         <v>278</v>
       </c>
       <c r="B283" s="15" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C283" s="24" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="D283" s="12"/>
     </row>
@@ -5610,10 +5615,10 @@
         <v>279</v>
       </c>
       <c r="B284" s="15" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C284" s="24" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="D284" s="12"/>
     </row>
@@ -5623,10 +5628,10 @@
         <v>280</v>
       </c>
       <c r="B285" s="15" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C285" s="24" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="D285" s="12"/>
     </row>
@@ -5636,10 +5641,10 @@
         <v>281</v>
       </c>
       <c r="B286" s="15" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C286" s="24" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="D286" s="12"/>
     </row>
@@ -5649,10 +5654,10 @@
         <v>282</v>
       </c>
       <c r="B287" s="15" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C287" s="24" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="D287" s="12"/>
     </row>
@@ -5662,10 +5667,10 @@
         <v>283</v>
       </c>
       <c r="B288" s="15" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C288" s="24" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="D288" s="12"/>
     </row>
@@ -5675,10 +5680,10 @@
         <v>284</v>
       </c>
       <c r="B289" s="15" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C289" s="24" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="D289" s="12"/>
     </row>
@@ -5688,10 +5693,10 @@
         <v>285</v>
       </c>
       <c r="B290" s="15" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C290" s="24" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="D290" s="12"/>
     </row>
@@ -5701,10 +5706,10 @@
         <v>286</v>
       </c>
       <c r="B291" s="15" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C291" s="26" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="D291" s="12"/>
     </row>
@@ -5714,10 +5719,10 @@
         <v>287</v>
       </c>
       <c r="B292" s="15" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C292" s="24" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="D292" s="12"/>
     </row>
@@ -5727,10 +5732,10 @@
         <v>288</v>
       </c>
       <c r="B293" s="15" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C293" s="24" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="D293" s="12"/>
     </row>
@@ -5740,10 +5745,10 @@
         <v>289</v>
       </c>
       <c r="B294" s="15" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C294" s="24" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="D294" s="12"/>
     </row>
@@ -5753,10 +5758,10 @@
         <v>290</v>
       </c>
       <c r="B295" s="15" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C295" s="24" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="D295" s="12"/>
     </row>
@@ -5766,10 +5771,10 @@
         <v>291</v>
       </c>
       <c r="B296" s="15" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C296" s="24" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="D296" s="12"/>
     </row>
@@ -5779,10 +5784,10 @@
         <v>292</v>
       </c>
       <c r="B297" s="15" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C297" s="24" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="D297" s="12"/>
     </row>
@@ -5792,10 +5797,10 @@
         <v>293</v>
       </c>
       <c r="B298" s="15" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C298" s="24" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="D298" s="12"/>
     </row>
@@ -5805,10 +5810,10 @@
         <v>294</v>
       </c>
       <c r="B299" s="15" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C299" s="24" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="D299" s="12"/>
     </row>
@@ -5818,10 +5823,10 @@
         <v>295</v>
       </c>
       <c r="B300" s="15" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C300" s="24" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="D300" s="12"/>
     </row>
@@ -5831,10 +5836,10 @@
         <v>296</v>
       </c>
       <c r="B301" s="15" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C301" s="24" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="D301" s="12"/>
     </row>
@@ -5844,10 +5849,10 @@
         <v>297</v>
       </c>
       <c r="B302" s="15" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C302" s="24" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="D302" s="12"/>
     </row>
@@ -5857,10 +5862,10 @@
         <v>298</v>
       </c>
       <c r="B303" s="15" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C303" s="24" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="D303" s="12"/>
     </row>
@@ -5870,10 +5875,10 @@
         <v>299</v>
       </c>
       <c r="B304" s="15" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C304" s="24" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="D304" s="12"/>
     </row>
@@ -5883,10 +5888,10 @@
         <v>300</v>
       </c>
       <c r="B305" s="15" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C305" s="24" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="D305" s="12"/>
     </row>
@@ -5896,10 +5901,10 @@
         <v>301</v>
       </c>
       <c r="B306" s="15" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C306" s="24" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="D306" s="12"/>
     </row>
@@ -5909,10 +5914,10 @@
         <v>302</v>
       </c>
       <c r="B307" s="15" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C307" s="24" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="D307" s="12"/>
     </row>
@@ -5922,10 +5927,10 @@
         <v>303</v>
       </c>
       <c r="B308" s="15" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C308" s="24" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="D308" s="12"/>
     </row>
@@ -5935,10 +5940,10 @@
         <v>304</v>
       </c>
       <c r="B309" s="15" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C309" s="24" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="D309" s="12"/>
     </row>
@@ -5948,10 +5953,10 @@
         <v>305</v>
       </c>
       <c r="B310" s="15" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C310" s="24" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="D310" s="12"/>
     </row>
@@ -5961,10 +5966,10 @@
         <v>306</v>
       </c>
       <c r="B311" s="15" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C311" s="24" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="D311" s="12"/>
     </row>
@@ -5974,10 +5979,10 @@
         <v>307</v>
       </c>
       <c r="B312" s="15" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C312" s="24" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="D312" s="12"/>
     </row>
@@ -5987,10 +5992,10 @@
         <v>308</v>
       </c>
       <c r="B313" s="15" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C313" s="24" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="D313" s="12"/>
     </row>
@@ -6000,10 +6005,10 @@
         <v>309</v>
       </c>
       <c r="B314" s="15" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C314" s="24" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="D314" s="12"/>
     </row>
@@ -6013,10 +6018,10 @@
         <v>310</v>
       </c>
       <c r="B315" s="15" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C315" s="24" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="D315" s="12"/>
     </row>
@@ -6026,10 +6031,10 @@
         <v>311</v>
       </c>
       <c r="B316" s="10" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="C316" s="24" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="D316" s="12"/>
     </row>
@@ -6039,10 +6044,10 @@
         <v>312</v>
       </c>
       <c r="B317" s="10" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="C317" s="24" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="D317" s="12"/>
     </row>
@@ -6052,10 +6057,10 @@
         <v>313</v>
       </c>
       <c r="B318" s="10" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="C318" s="24" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="D318" s="12"/>
     </row>
@@ -6065,10 +6070,10 @@
         <v>314</v>
       </c>
       <c r="B319" s="10" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="C319" s="24" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="D319" s="12"/>
     </row>
@@ -6078,10 +6083,10 @@
         <v>315</v>
       </c>
       <c r="B320" s="10" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="C320" s="24" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="D320" s="12"/>
     </row>
@@ -6091,10 +6096,10 @@
         <v>316</v>
       </c>
       <c r="B321" s="10" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="C321" s="24" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="D321" s="12"/>
     </row>
@@ -6104,10 +6109,10 @@
         <v>317</v>
       </c>
       <c r="B322" s="10" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="C322" s="24" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="D322" s="12"/>
     </row>
@@ -6117,10 +6122,10 @@
         <v>318</v>
       </c>
       <c r="B323" s="10" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="C323" s="24" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="D323" s="12"/>
     </row>
@@ -6130,10 +6135,10 @@
         <v>319</v>
       </c>
       <c r="B324" s="10" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="C324" s="26" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="D324" s="12"/>
     </row>
@@ -6143,10 +6148,10 @@
         <v>320</v>
       </c>
       <c r="B325" s="10" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="C325" s="24" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="D325" s="12"/>
     </row>
@@ -6156,10 +6161,10 @@
         <v>321</v>
       </c>
       <c r="B326" s="10" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="C326" s="24" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="D326" s="12"/>
     </row>
@@ -6169,10 +6174,10 @@
         <v>322</v>
       </c>
       <c r="B327" s="10" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="C327" s="24" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="D327" s="12"/>
     </row>
@@ -6182,10 +6187,10 @@
         <v>323</v>
       </c>
       <c r="B328" s="10" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="C328" s="24" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="D328" s="12"/>
     </row>
@@ -6195,10 +6200,10 @@
         <v>324</v>
       </c>
       <c r="B329" s="10" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="C329" s="24" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="D329" s="12"/>
     </row>
@@ -6208,10 +6213,10 @@
         <v>325</v>
       </c>
       <c r="B330" s="10" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="C330" s="24" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="D330" s="12"/>
     </row>
@@ -6221,10 +6226,10 @@
         <v>326</v>
       </c>
       <c r="B331" s="10" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="C331" s="24" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="D331" s="12"/>
     </row>
@@ -6234,10 +6239,10 @@
         <v>327</v>
       </c>
       <c r="B332" s="10" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="C332" s="24" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="D332" s="12"/>
     </row>
@@ -6247,10 +6252,10 @@
         <v>328</v>
       </c>
       <c r="B333" s="10" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="C333" s="24" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="D333" s="12"/>
     </row>
@@ -6260,10 +6265,10 @@
         <v>329</v>
       </c>
       <c r="B334" s="15" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="C334" s="24" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D334" s="12"/>
     </row>
@@ -6273,10 +6278,10 @@
         <v>330</v>
       </c>
       <c r="B335" s="15" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="C335" s="24" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="D335" s="12"/>
     </row>
@@ -6286,10 +6291,10 @@
         <v>331</v>
       </c>
       <c r="B336" s="15" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="C336" s="24" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="D336" s="12"/>
     </row>
@@ -6299,10 +6304,10 @@
         <v>332</v>
       </c>
       <c r="B337" s="15" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="C337" s="24" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="D337" s="12"/>
     </row>
@@ -6312,10 +6317,10 @@
         <v>333</v>
       </c>
       <c r="B338" s="15" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="C338" s="24" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="D338" s="12"/>
     </row>
@@ -6325,10 +6330,10 @@
         <v>334</v>
       </c>
       <c r="B339" s="15" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="C339" s="24" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="D339" s="12"/>
     </row>
@@ -6338,10 +6343,10 @@
         <v>335</v>
       </c>
       <c r="B340" s="15" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="C340" s="24" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="D340" s="12"/>
     </row>
@@ -6351,10 +6356,10 @@
         <v>336</v>
       </c>
       <c r="B341" s="15" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="C341" s="24" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="D341" s="12"/>
     </row>
@@ -6364,10 +6369,10 @@
         <v>337</v>
       </c>
       <c r="B342" s="15" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="C342" s="24" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="D342" s="12"/>
     </row>
@@ -6377,10 +6382,10 @@
         <v>338</v>
       </c>
       <c r="B343" s="15" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="C343" s="24" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="D343" s="12"/>
     </row>
@@ -6390,10 +6395,10 @@
         <v>339</v>
       </c>
       <c r="B344" s="15" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="C344" s="24" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="D344" s="12"/>
     </row>
@@ -6403,10 +6408,10 @@
         <v>340</v>
       </c>
       <c r="B345" s="15" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="C345" s="24" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="D345" s="12"/>
     </row>
@@ -6416,10 +6421,10 @@
         <v>341</v>
       </c>
       <c r="B346" s="15" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="C346" s="24" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="D346" s="12"/>
     </row>
@@ -6429,10 +6434,10 @@
         <v>342</v>
       </c>
       <c r="B347" s="15" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="C347" s="24" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="D347" s="12"/>
     </row>
@@ -6442,10 +6447,10 @@
         <v>343</v>
       </c>
       <c r="B348" s="15" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="C348" s="24" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="D348" s="12"/>
     </row>
@@ -6455,10 +6460,10 @@
         <v>344</v>
       </c>
       <c r="B349" s="15" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="C349" s="24" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="D349" s="12"/>
     </row>
@@ -6468,10 +6473,10 @@
         <v>345</v>
       </c>
       <c r="B350" s="15" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="C350" s="24" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="D350" s="12"/>
     </row>
@@ -6481,10 +6486,10 @@
         <v>346</v>
       </c>
       <c r="B351" s="15" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="C351" s="24" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="D351" s="12"/>
     </row>
@@ -6494,10 +6499,10 @@
         <v>347</v>
       </c>
       <c r="B352" s="15" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="C352" s="24" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="D352" s="12"/>
     </row>
@@ -6507,10 +6512,10 @@
         <v>348</v>
       </c>
       <c r="B353" s="15" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="C353" s="24" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="D353" s="12"/>
     </row>
@@ -6520,10 +6525,10 @@
         <v>349</v>
       </c>
       <c r="B354" s="15" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="C354" s="24" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="D354" s="12"/>
     </row>
@@ -6533,10 +6538,10 @@
         <v>350</v>
       </c>
       <c r="B355" s="15" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="C355" s="24" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="D355" s="12"/>
     </row>
@@ -6546,10 +6551,10 @@
         <v>351</v>
       </c>
       <c r="B356" s="15" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="C356" s="24" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="D356" s="12"/>
     </row>
@@ -6559,10 +6564,10 @@
         <v>352</v>
       </c>
       <c r="B357" s="15" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="C357" s="24" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="D357" s="12"/>
     </row>
@@ -6572,10 +6577,10 @@
         <v>353</v>
       </c>
       <c r="B358" s="15" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="C358" s="24" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="D358" s="12"/>
     </row>
@@ -6585,10 +6590,10 @@
         <v>354</v>
       </c>
       <c r="B359" s="15" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="C359" s="24" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="D359" s="12"/>
     </row>
@@ -6598,10 +6603,10 @@
         <v>355</v>
       </c>
       <c r="B360" s="15" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="C360" s="24" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="D360" s="12"/>
     </row>
@@ -6611,10 +6616,10 @@
         <v>356</v>
       </c>
       <c r="B361" s="15" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="C361" s="24" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="D361" s="12"/>
     </row>
@@ -6624,10 +6629,10 @@
         <v>357</v>
       </c>
       <c r="B362" s="15" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="C362" s="24" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="D362" s="12"/>
     </row>
@@ -6637,10 +6642,10 @@
         <v>358</v>
       </c>
       <c r="B363" s="15" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="C363" s="24" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="D363" s="12"/>
     </row>
@@ -6650,10 +6655,10 @@
         <v>359</v>
       </c>
       <c r="B364" s="15" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="C364" s="24" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="D364" s="12"/>
     </row>
@@ -6663,10 +6668,10 @@
         <v>360</v>
       </c>
       <c r="B365" s="15" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="C365" s="24" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="D365" s="12"/>
     </row>
@@ -6676,10 +6681,10 @@
         <v>361</v>
       </c>
       <c r="B366" s="15" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="C366" s="24" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="D366" s="12"/>
     </row>
@@ -6689,10 +6694,10 @@
         <v>362</v>
       </c>
       <c r="B367" s="15" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="C367" s="24" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="D367" s="12"/>
     </row>
@@ -6702,10 +6707,10 @@
         <v>363</v>
       </c>
       <c r="B368" s="15" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="C368" s="24" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="D368" s="12"/>
     </row>
@@ -6715,10 +6720,10 @@
         <v>364</v>
       </c>
       <c r="B369" s="15" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="C369" s="24" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="D369" s="12"/>
     </row>
@@ -6728,10 +6733,10 @@
         <v>365</v>
       </c>
       <c r="B370" s="15" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="C370" s="24" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="D370" s="12"/>
     </row>
@@ -6741,10 +6746,10 @@
         <v>366</v>
       </c>
       <c r="B371" s="15" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="C371" s="24" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="D371" s="12"/>
     </row>
@@ -6754,10 +6759,10 @@
         <v>367</v>
       </c>
       <c r="B372" s="15" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="C372" s="24" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="D372" s="12"/>
     </row>
@@ -6767,10 +6772,10 @@
         <v>368</v>
       </c>
       <c r="B373" s="15" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="C373" s="24" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="D373" s="12"/>
     </row>
@@ -6780,10 +6785,10 @@
         <v>369</v>
       </c>
       <c r="B374" s="15" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="C374" s="24" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="D374" s="12"/>
     </row>
@@ -6793,10 +6798,10 @@
         <v>370</v>
       </c>
       <c r="B375" s="15" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="C375" s="24" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="D375" s="12"/>
     </row>
@@ -6806,10 +6811,10 @@
         <v>371</v>
       </c>
       <c r="B376" s="15" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="C376" s="24" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="D376" s="12"/>
     </row>
@@ -6819,10 +6824,10 @@
         <v>372</v>
       </c>
       <c r="B377" s="15" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="C377" s="24" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="D377" s="12"/>
     </row>
@@ -6832,10 +6837,10 @@
         <v>373</v>
       </c>
       <c r="B378" s="10" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="C378" s="24" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="D378" s="12"/>
     </row>
@@ -6845,10 +6850,10 @@
         <v>374</v>
       </c>
       <c r="B379" s="10" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="C379" s="24" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="D379" s="12"/>
     </row>
@@ -6858,10 +6863,10 @@
         <v>375</v>
       </c>
       <c r="B380" s="10" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="C380" s="24" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="D380" s="12"/>
     </row>
@@ -6871,10 +6876,10 @@
         <v>376</v>
       </c>
       <c r="B381" s="10" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="C381" s="24" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D381" s="12"/>
     </row>
@@ -6884,10 +6889,10 @@
         <v>377</v>
       </c>
       <c r="B382" s="10" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="C382" s="24" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="D382" s="12"/>
     </row>
@@ -6897,10 +6902,10 @@
         <v>378</v>
       </c>
       <c r="B383" s="10" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="C383" s="24" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="D383" s="12"/>
     </row>
@@ -6910,10 +6915,10 @@
         <v>379</v>
       </c>
       <c r="B384" s="15" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="C384" s="24" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="D384" s="12"/>
     </row>
@@ -6923,10 +6928,10 @@
         <v>380</v>
       </c>
       <c r="B385" s="15" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="C385" s="24" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="D385" s="12"/>
     </row>
@@ -6936,10 +6941,10 @@
         <v>381</v>
       </c>
       <c r="B386" s="15" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="C386" s="24" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="D386" s="12"/>
     </row>
@@ -6949,10 +6954,10 @@
         <v>382</v>
       </c>
       <c r="B387" s="15" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="C387" s="24" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="D387" s="12"/>
     </row>
@@ -6962,10 +6967,10 @@
         <v>383</v>
       </c>
       <c r="B388" s="15" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="C388" s="24" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="D388" s="12"/>
     </row>
@@ -6975,10 +6980,10 @@
         <v>384</v>
       </c>
       <c r="B389" s="15" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="C389" s="24" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="D389" s="12"/>
     </row>
@@ -6988,10 +6993,10 @@
         <v>385</v>
       </c>
       <c r="B390" s="15" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="C390" s="24" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="D390" s="12"/>
     </row>
@@ -7001,10 +7006,10 @@
         <v>386</v>
       </c>
       <c r="B391" s="15" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="C391" s="24" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="D391" s="12"/>
     </row>
@@ -7014,10 +7019,10 @@
         <v>387</v>
       </c>
       <c r="B392" s="15" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="C392" s="24" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="D392" s="12"/>
     </row>
@@ -7027,10 +7032,10 @@
         <v>388</v>
       </c>
       <c r="B393" s="15" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="C393" s="24" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="D393" s="12"/>
     </row>
@@ -7040,10 +7045,10 @@
         <v>389</v>
       </c>
       <c r="B394" s="15" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="C394" s="24" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="D394" s="12"/>
     </row>
@@ -7053,10 +7058,10 @@
         <v>390</v>
       </c>
       <c r="B395" s="15" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="C395" s="24" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="D395" s="12"/>
     </row>
@@ -7066,10 +7071,10 @@
         <v>391</v>
       </c>
       <c r="B396" s="15" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="C396" s="24" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="D396" s="12"/>
     </row>
@@ -7079,10 +7084,10 @@
         <v>392</v>
       </c>
       <c r="B397" s="15" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="C397" s="24" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="D397" s="12"/>
     </row>
@@ -7092,10 +7097,10 @@
         <v>393</v>
       </c>
       <c r="B398" s="15" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="C398" s="24" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="D398" s="12"/>
     </row>
@@ -7105,10 +7110,10 @@
         <v>394</v>
       </c>
       <c r="B399" s="15" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="C399" s="24" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="D399" s="12"/>
     </row>
@@ -7118,10 +7123,10 @@
         <v>395</v>
       </c>
       <c r="B400" s="15" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="C400" s="24" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="D400" s="12"/>
     </row>
@@ -7131,10 +7136,10 @@
         <v>396</v>
       </c>
       <c r="B401" s="15" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="C401" s="24" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="D401" s="12"/>
     </row>
@@ -7144,10 +7149,10 @@
         <v>397</v>
       </c>
       <c r="B402" s="15" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="C402" s="24" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="D402" s="12"/>
     </row>
@@ -7157,10 +7162,10 @@
         <v>398</v>
       </c>
       <c r="B403" s="15" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="C403" s="24" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="D403" s="12"/>
     </row>
@@ -7170,10 +7175,10 @@
         <v>399</v>
       </c>
       <c r="B404" s="15" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="C404" s="24" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="D404" s="12"/>
     </row>
@@ -7183,10 +7188,10 @@
         <v>400</v>
       </c>
       <c r="B405" s="15" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="C405" s="24" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="D405" s="12"/>
     </row>
@@ -7196,10 +7201,10 @@
         <v>401</v>
       </c>
       <c r="B406" s="15" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="C406" s="24" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="D406" s="12"/>
     </row>
@@ -7209,10 +7214,10 @@
         <v>402</v>
       </c>
       <c r="B407" s="15" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="C407" s="24" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="D407" s="12"/>
     </row>
@@ -7222,10 +7227,10 @@
         <v>403</v>
       </c>
       <c r="B408" s="15" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="C408" s="24" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="D408" s="12"/>
     </row>
@@ -7235,10 +7240,10 @@
         <v>404</v>
       </c>
       <c r="B409" s="15" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="C409" s="24" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="D409" s="12"/>
     </row>
@@ -7248,10 +7253,10 @@
         <v>405</v>
       </c>
       <c r="B410" s="15" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="C410" s="24" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="D410" s="12"/>
     </row>
@@ -7261,10 +7266,10 @@
         <v>406</v>
       </c>
       <c r="B411" s="15" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="C411" s="24" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="D411" s="12"/>
     </row>
@@ -7274,10 +7279,10 @@
         <v>407</v>
       </c>
       <c r="B412" s="15" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="C412" s="24" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="D412" s="12"/>
     </row>
@@ -7287,10 +7292,10 @@
         <v>408</v>
       </c>
       <c r="B413" s="15" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="C413" s="24" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="D413" s="12"/>
     </row>
@@ -7300,10 +7305,10 @@
         <v>409</v>
       </c>
       <c r="B414" s="15" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="C414" s="24" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="D414" s="12"/>
     </row>
@@ -7313,10 +7318,10 @@
         <v>410</v>
       </c>
       <c r="B415" s="15" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="C415" s="24" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="D415" s="12"/>
     </row>
@@ -7326,10 +7331,10 @@
         <v>411</v>
       </c>
       <c r="B416" s="15" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="C416" s="24" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="D416" s="12"/>
     </row>
@@ -7339,10 +7344,10 @@
         <v>412</v>
       </c>
       <c r="B417" s="15" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="C417" s="24" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="D417" s="12"/>
     </row>
@@ -7352,10 +7357,10 @@
         <v>413</v>
       </c>
       <c r="B418" s="15" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="C418" s="24" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="D418" s="12"/>
     </row>
@@ -7365,10 +7370,10 @@
         <v>414</v>
       </c>
       <c r="B419" s="15" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="C419" s="24" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="D419" s="12"/>
     </row>
@@ -7378,10 +7383,10 @@
         <v>415</v>
       </c>
       <c r="B420" s="15" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="C420" s="24" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="D420" s="12"/>
     </row>
@@ -7391,10 +7396,10 @@
         <v>416</v>
       </c>
       <c r="B421" s="15" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="C421" s="24" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="D421" s="12"/>
     </row>
@@ -7404,10 +7409,10 @@
         <v>417</v>
       </c>
       <c r="B422" s="15" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="C422" s="24" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="D422" s="12"/>
     </row>
@@ -7417,10 +7422,10 @@
         <v>418</v>
       </c>
       <c r="B423" s="15" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="C423" s="24" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="D423" s="12"/>
     </row>
@@ -7430,10 +7435,10 @@
         <v>419</v>
       </c>
       <c r="B424" s="15" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="C424" s="24" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="D424" s="12"/>
     </row>
@@ -7443,10 +7448,10 @@
         <v>420</v>
       </c>
       <c r="B425" s="15" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="C425" s="24" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="D425" s="12"/>
     </row>
@@ -7456,10 +7461,10 @@
         <v>421</v>
       </c>
       <c r="B426" s="15" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="C426" s="24" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="D426" s="12"/>
     </row>
@@ -7469,10 +7474,10 @@
         <v>422</v>
       </c>
       <c r="B427" s="15" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="C427" s="24" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="D427" s="12"/>
     </row>
@@ -7482,10 +7487,10 @@
         <v>423</v>
       </c>
       <c r="B428" s="15" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="C428" s="24" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="D428" s="12"/>
     </row>
@@ -7495,10 +7500,10 @@
         <v>424</v>
       </c>
       <c r="B429" s="15" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="C429" s="24" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="D429" s="12"/>
     </row>
@@ -7508,10 +7513,10 @@
         <v>425</v>
       </c>
       <c r="B430" s="15" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="C430" s="24" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="D430" s="12"/>
     </row>
@@ -7521,10 +7526,10 @@
         <v>426</v>
       </c>
       <c r="B431" s="15" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="C431" s="24" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="D431" s="12"/>
     </row>
@@ -7534,10 +7539,10 @@
         <v>427</v>
       </c>
       <c r="B432" s="15" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="C432" s="24" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="D432" s="12"/>
     </row>
@@ -7547,10 +7552,10 @@
         <v>428</v>
       </c>
       <c r="B433" s="15" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="C433" s="24" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="D433" s="12"/>
     </row>
@@ -7560,10 +7565,10 @@
         <v>429</v>
       </c>
       <c r="B434" s="15" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="C434" s="24" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="D434" s="12"/>
     </row>
@@ -7573,10 +7578,10 @@
         <v>430</v>
       </c>
       <c r="B435" s="15" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="C435" s="24" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="D435" s="12"/>
     </row>
@@ -7586,10 +7591,10 @@
         <v>431</v>
       </c>
       <c r="B436" s="15" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="C436" s="24" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="D436" s="12"/>
     </row>
@@ -7599,10 +7604,10 @@
         <v>432</v>
       </c>
       <c r="B437" s="15" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="C437" s="24" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="D437" s="12"/>
     </row>
@@ -7612,10 +7617,10 @@
         <v>433</v>
       </c>
       <c r="B438" s="15" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="C438" s="24" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="D438" s="12"/>
     </row>
@@ -7625,10 +7630,10 @@
         <v>434</v>
       </c>
       <c r="B439" s="15" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="C439" s="24" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="D439" s="12"/>
     </row>
@@ -7638,10 +7643,10 @@
         <v>435</v>
       </c>
       <c r="B440" s="15" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="C440" s="24" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="D440" s="12"/>
     </row>
@@ -7651,10 +7656,10 @@
         <v>436</v>
       </c>
       <c r="B441" s="15" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="C441" s="24" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="D441" s="12"/>
     </row>
@@ -7664,10 +7669,10 @@
         <v>437</v>
       </c>
       <c r="B442" s="15" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="C442" s="24" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="D442" s="12"/>
     </row>
@@ -7677,10 +7682,10 @@
         <v>438</v>
       </c>
       <c r="B443" s="15" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="C443" s="24" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="D443" s="12"/>
     </row>
@@ -7690,10 +7695,10 @@
         <v>439</v>
       </c>
       <c r="B444" s="10" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="C444" s="24" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="D444" s="12"/>
     </row>
@@ -7703,10 +7708,10 @@
         <v>440</v>
       </c>
       <c r="B445" s="10" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="C445" s="24" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="D445" s="12"/>
     </row>
@@ -7716,10 +7721,10 @@
         <v>441</v>
       </c>
       <c r="B446" s="10" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="C446" s="24" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="D446" s="12"/>
     </row>
@@ -7729,10 +7734,10 @@
         <v>442</v>
       </c>
       <c r="B447" s="10" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="C447" s="24" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="D447" s="12"/>
     </row>
@@ -7742,10 +7747,10 @@
         <v>443</v>
       </c>
       <c r="B448" s="10" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="C448" s="24" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="D448" s="12"/>
     </row>
@@ -7755,10 +7760,10 @@
         <v>444</v>
       </c>
       <c r="B449" s="10" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="C449" s="24" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="D449" s="12"/>
     </row>
@@ -7768,10 +7773,10 @@
         <v>445</v>
       </c>
       <c r="B450" s="10" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="C450" s="24" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="D450" s="12"/>
     </row>
@@ -7781,10 +7786,10 @@
         <v>446</v>
       </c>
       <c r="B451" s="10" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="C451" s="24" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="D451" s="12"/>
     </row>
@@ -7794,10 +7799,10 @@
         <v>447</v>
       </c>
       <c r="B452" s="10" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="C452" s="24" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="D452" s="12"/>
     </row>
@@ -7807,10 +7812,10 @@
         <v>448</v>
       </c>
       <c r="B453" s="10" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="C453" s="24" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="D453" s="12"/>
     </row>

--- a/DSA_450_LoveBabbar.xlsx
+++ b/DSA_450_LoveBabbar.xlsx
@@ -1942,11 +1942,11 @@
   </sheetPr>
   <dimension ref="A1:D467"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B51" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D76" activeCellId="0" sqref="D76"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A62" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C76" activeCellId="0" sqref="C76"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.8046875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.63"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="28.24"/>
@@ -2900,7 +2900,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="75" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="75" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="6" t="n">
         <f aca="false">A74 + 1</f>
         <v>70</v>
@@ -2908,7 +2908,7 @@
       <c r="B75" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="C75" s="24" t="s">
+      <c r="C75" s="13" t="s">
         <v>88</v>
       </c>
       <c r="D75" s="12"/>
@@ -8313,7 +8313,7 @@
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
